--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -2920,377 +2920,377 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>dct:isReplacedBy</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>skos:narrowMatch(separator=",")</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>skos:related(separator=",")</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>iop:hasProperty</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>iop:hasObjectOfInterest</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>iop:hasMatrix</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>iop:hasContextObject(separator=",")</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>iop:hasConstraint(separator=",")</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>puv:usesStatistic(separator=",")</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>puv:usesMethod(separator=",")</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>sosa:madeBySensor(separator=",")</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>puv:uom</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>skos:note@en</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>skos:changeNote@en</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>skos:editorialNote@en</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>skos:scopeNote@en</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>skos:example@en</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>owl:deprecated</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>skos:hiddenLabel</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>skos:prefLabel@de</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>skos:prefLabel@ar</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>skos:prefLabel@bg</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>skos:prefLabel@cs</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>skos:prefLabel@da</t>
         </is>
       </c>
-      <c r="AG22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>skos:prefLabel@el</t>
         </is>
       </c>
-      <c r="AH22" t="inlineStr">
+      <c r="AI22" t="inlineStr">
         <is>
           <t>skos:prefLabel@es</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>skos:prefLabel@et</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AK22" t="inlineStr">
         <is>
           <t>skos:prefLabel@fi</t>
         </is>
       </c>
-      <c r="AK22" t="inlineStr">
+      <c r="AL22" t="inlineStr">
         <is>
           <t>skos:prefLabel@fr</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AM22" t="inlineStr">
         <is>
           <t>skos:prefLabel@hr</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>skos:prefLabel@hu</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>skos:prefLabel@it</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>skos:prefLabel@ja</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>skos:prefLabel@lt</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AR22" t="inlineStr">
         <is>
           <t>skos:prefLabel@lv</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>skos:prefLabel@nl</t>
         </is>
       </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>skos:prefLabel@no</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>skos:prefLabel@pl</t>
         </is>
       </c>
-      <c r="AU22" t="inlineStr">
+      <c r="AV22" t="inlineStr">
         <is>
           <t>skos:prefLabel@pt</t>
         </is>
       </c>
-      <c r="AV22" t="inlineStr">
+      <c r="AW22" t="inlineStr">
         <is>
           <t>skos:prefLabel@ro</t>
         </is>
       </c>
-      <c r="AW22" t="inlineStr">
+      <c r="AX22" t="inlineStr">
         <is>
           <t>skos:prefLabel@sk</t>
         </is>
       </c>
-      <c r="AX22" t="inlineStr">
+      <c r="AY22" t="inlineStr">
         <is>
           <t>skos:prefLabel@sl</t>
         </is>
       </c>
-      <c r="AY22" t="inlineStr">
+      <c r="AZ22" t="inlineStr">
         <is>
           <t>skos:prefLabel@sv</t>
         </is>
       </c>
-      <c r="AZ22" t="inlineStr">
+      <c r="BA22" t="inlineStr">
         <is>
           <t>skos:prefLabel@zh</t>
         </is>
       </c>
-      <c r="BA22" t="inlineStr">
+      <c r="BB22" t="inlineStr">
         <is>
           <t>skos:altLabel@de</t>
         </is>
       </c>
-      <c r="BB22" t="inlineStr">
+      <c r="BC22" t="inlineStr">
         <is>
           <t>skos:altLabel@el</t>
         </is>
       </c>
-      <c r="BC22" t="inlineStr">
+      <c r="BD22" t="inlineStr">
         <is>
           <t>skos:altLabel@es</t>
         </is>
       </c>
-      <c r="BD22" t="inlineStr">
+      <c r="BE22" t="inlineStr">
         <is>
           <t>skos:altLabel@fi</t>
         </is>
       </c>
-      <c r="BE22" t="inlineStr">
+      <c r="BF22" t="inlineStr">
         <is>
           <t>skos:altLabel@fr</t>
         </is>
       </c>
-      <c r="BF22" t="inlineStr">
+      <c r="BG22" t="inlineStr">
         <is>
           <t>skos:altLabel@hu</t>
         </is>
       </c>
-      <c r="BG22" t="inlineStr">
+      <c r="BH22" t="inlineStr">
         <is>
           <t>skos:altLabel@it</t>
         </is>
       </c>
-      <c r="BH22" t="inlineStr">
+      <c r="BI22" t="inlineStr">
         <is>
           <t>skos:altLabel@ja</t>
         </is>
       </c>
-      <c r="BI22" t="inlineStr">
+      <c r="BJ22" t="inlineStr">
         <is>
           <t>skos:altLabel@la</t>
         </is>
       </c>
-      <c r="BJ22" t="inlineStr">
+      <c r="BK22" t="inlineStr">
         <is>
           <t>skos:altLabel@lt</t>
         </is>
       </c>
-      <c r="BK22" t="inlineStr">
+      <c r="BL22" t="inlineStr">
         <is>
           <t>skos:altLabel@no</t>
         </is>
       </c>
-      <c r="BL22" t="inlineStr">
+      <c r="BM22" t="inlineStr">
         <is>
           <t>skos:altLabel@pl</t>
         </is>
       </c>
-      <c r="BM22" t="inlineStr">
+      <c r="BN22" t="inlineStr">
         <is>
           <t>skos:altLabel@pt</t>
         </is>
       </c>
-      <c r="BN22" t="inlineStr">
+      <c r="BO22" t="inlineStr">
         <is>
           <t>skos:altLabel@sl</t>
         </is>
       </c>
-      <c r="BO22" t="inlineStr">
+      <c r="BP22" t="inlineStr">
         <is>
           <t>skos:altLabel@sv</t>
         </is>
       </c>
-      <c r="BP22" t="inlineStr">
+      <c r="BQ22" t="inlineStr">
         <is>
           <t>skos:altLabel@zh</t>
         </is>
       </c>
-      <c r="BQ22" t="inlineStr">
+      <c r="BR22" t="inlineStr">
         <is>
           <t>skos:altLabel@zh-tw</t>
         </is>
       </c>
-      <c r="BR22" t="inlineStr">
+      <c r="BS22" t="inlineStr">
         <is>
           <t>skos:definition@de</t>
         </is>
       </c>
-      <c r="BS22" t="inlineStr">
+      <c r="BT22" t="inlineStr">
         <is>
           <t>skos:definition@es</t>
         </is>
       </c>
-      <c r="BT22" t="inlineStr">
+      <c r="BU22" t="inlineStr">
         <is>
           <t>skos:definition@fi</t>
         </is>
       </c>
-      <c r="BU22" t="inlineStr">
+      <c r="BV22" t="inlineStr">
         <is>
           <t>skos:definition@fr</t>
         </is>
       </c>
-      <c r="BV22" t="inlineStr">
+      <c r="BW22" t="inlineStr">
         <is>
           <t>skos:definition@it</t>
         </is>
       </c>
-      <c r="BW22" t="inlineStr">
+      <c r="BX22" t="inlineStr">
         <is>
           <t>skos:definition@ja</t>
         </is>
       </c>
-      <c r="BX22" t="inlineStr">
+      <c r="BY22" t="inlineStr">
         <is>
           <t>skos:definition@no</t>
         </is>
       </c>
-      <c r="BY22" t="inlineStr">
+      <c r="BZ22" t="inlineStr">
         <is>
           <t>skos:definition@pl</t>
         </is>
       </c>
-      <c r="BZ22" t="inlineStr">
+      <c r="CA22" t="inlineStr">
         <is>
           <t>skos:definition@pt</t>
         </is>
       </c>
-      <c r="CA22" t="inlineStr">
+      <c r="CB22" t="inlineStr">
         <is>
           <t>skos:definition@zh</t>
         </is>
       </c>
-      <c r="CB22" t="inlineStr">
+      <c r="CC22" t="inlineStr">
         <is>
           <t>skos:definition@sv</t>
-        </is>
-      </c>
-      <c r="CC22" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
         </is>
       </c>
       <c r="CD22" t="inlineStr">
@@ -6168,12 +6168,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ad</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -6310,12 +6310,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/au</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -6452,12 +6452,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/rs</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -6594,12 +6594,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/gg</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -6736,12 +6736,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/cp</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -6878,12 +6878,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/gn</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -7020,12 +7020,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/hy</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -7162,12 +7162,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ps</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -7304,12 +7304,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/tn</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -7446,12 +7446,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/el</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -7588,12 +7588,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ge</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -7730,12 +7730,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/lc</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -7872,12 +7872,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/oi</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -8014,12 +8014,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/af</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -8156,12 +8156,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/am</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -8298,12 +8298,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ac</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -8440,12 +8440,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/br</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -8582,12 +8582,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/bu</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -8724,12 +8724,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/er</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -8866,12 +8866,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ef</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -9008,12 +9008,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/hb</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -9150,12 +9150,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/hh</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -9292,12 +9292,12 @@
           <t>cl:10001,cl:10189</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/lu</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -9434,12 +9434,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/mr</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -9576,12 +9576,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/nz</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -9718,12 +9718,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/of</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -9860,12 +9860,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/pd</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -10002,12 +10002,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/pf</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -10144,12 +10144,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/sr</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -10286,12 +10286,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/so</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -10428,12 +10428,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/sd</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -10570,12 +10570,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/su</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -10712,12 +10712,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/us</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -10854,12 +10854,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/mf</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -10996,12 +10996,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ac-mf</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -11528,12 +11528,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
         <is>
           <t>https://epsg.io/3857</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -11670,12 +11670,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
         <is>
           <t>https://epsg.io/4937</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -11816,12 +11816,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
         <is>
           <t>https://epsg.io/3035</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -11958,12 +11958,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
         <is>
           <t>https://epsg.io/18007</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -12100,12 +12100,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
         <is>
           <t>https://epsg.io/18008</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -12242,12 +12242,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
         <is>
           <t>https://epsg.io/18009</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -12388,12 +12388,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
         <is>
           <t>https://epsg.io/3416</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -17994,12 +17994,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
         <is>
           <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48920</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -18132,12 +18132,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
         <is>
           <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C53322</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -18404,12 +18404,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
         <is>
           <t>http://dicom.nema.org/resources/ontology/DCM/126051</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -18542,12 +18542,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
         <is>
           <t>http://www.cvrgrid.org/files/ECGOntologyv1.owl#ECG_000001079</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -18680,12 +18680,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
         <is>
           <t>http://scai.fraunhofer.de/HuPSON#SCAIVPH_00000266</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -18952,12 +18952,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000145</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -19090,12 +19090,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000081</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -19228,12 +19228,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
         <is>
           <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C54154</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -19366,12 +19366,12 @@
           <t>cl:10009,cl:10012</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
         <is>
           <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48919</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -19504,12 +19504,12 @@
           <t>cl:10009,cl:10012</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/NEMO/ontology/NEMO.owl#NEMO_3768000</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -19642,12 +19642,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/ontology/npo#NPO_1802</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -19780,12 +19780,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000071</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -19918,12 +19918,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000070</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -20056,12 +20056,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000072</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -20194,12 +20194,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
         <is>
           <t>http://purl.org/net/OCRe/statistics.owl#OCRE200007</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -20332,12 +20332,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
         <is>
           <t>http://www.semanticweb.org/alberto.traverso/ontologies/2017/1/RADIOMICS-ontology#OWLClass_010008</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -20470,12 +20470,12 @@
           <t>cl:10009,cl:10012</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
         <is>
           <t>http://semanticscience.org/resource/SIO_001109</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -20608,12 +20608,12 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/STATO_0000292</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -25838,12 +25838,12 @@
           <t>cl:10002</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/unit/PERCENT</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
@@ -26662,12 +26662,12 @@
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr"/>
-      <c r="W196" t="inlineStr">
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr">
         <is>
           <t>INVEKOS ist ein System von Verordnungen zur Durchsetzung einer einheitlichen Agrarpolitik in den EU-Mitgliedstaaten. Die schrittweise Einführung des Integrierten Verwaltungs- und Kontrollsystems durch die Europäische Kommission wurde im Zuge der Reform der Gemeinsamen Agrarpolitik (GAP) im Jahre 1992 beschlossen.</t>
         </is>
       </c>
-      <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="inlineStr"/>
@@ -28211,35 +28211,39 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>et:20935,cl:10187</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr"/>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>cl:10187</t>
+        </is>
+      </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
         <is>
           <t>et:21533</t>
         </is>
       </c>
-      <c r="L208" t="inlineStr">
+      <c r="M208" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr">
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O208" t="inlineStr">
+      <c r="P208" t="inlineStr">
         <is>
           <t>et:30213</t>
         </is>
       </c>
-      <c r="P208" t="inlineStr"/>
       <c r="Q208" t="inlineStr"/>
       <c r="R208" t="inlineStr"/>
       <c r="S208" t="inlineStr"/>
@@ -28320,7 +28324,7 @@
       </c>
       <c r="CI208" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ208" t="inlineStr"/>
@@ -28364,28 +28368,28 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
         <is>
           <t>et:21533</t>
         </is>
       </c>
-      <c r="L209" t="inlineStr">
+      <c r="M209" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr">
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O209" t="inlineStr">
+      <c r="P209" t="inlineStr">
         <is>
           <t>et:30214</t>
         </is>
       </c>
-      <c r="P209" t="inlineStr"/>
       <c r="Q209" t="inlineStr"/>
       <c r="R209" t="inlineStr"/>
       <c r="S209" t="inlineStr"/>
@@ -28510,28 +28514,28 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
         <is>
           <t>et:21533</t>
         </is>
       </c>
-      <c r="L210" t="inlineStr">
+      <c r="M210" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr">
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O210" t="inlineStr">
+      <c r="P210" t="inlineStr">
         <is>
           <t>et:30215</t>
         </is>
       </c>
-      <c r="P210" t="inlineStr"/>
       <c r="Q210" t="inlineStr"/>
       <c r="R210" t="inlineStr"/>
       <c r="S210" t="inlineStr"/>
@@ -28656,28 +28660,28 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
         <is>
           <t>et:21533</t>
         </is>
       </c>
-      <c r="L211" t="inlineStr">
+      <c r="M211" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="M211" t="inlineStr"/>
-      <c r="N211" t="inlineStr">
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O211" t="inlineStr">
+      <c r="P211" t="inlineStr">
         <is>
           <t>et:30205</t>
         </is>
       </c>
-      <c r="P211" t="inlineStr"/>
       <c r="Q211" t="inlineStr"/>
       <c r="R211" t="inlineStr"/>
       <c r="S211" t="inlineStr"/>
@@ -28802,28 +28806,28 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
         <is>
           <t>et:21533</t>
         </is>
       </c>
-      <c r="L212" t="inlineStr">
+      <c r="M212" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="M212" t="inlineStr"/>
-      <c r="N212" t="inlineStr">
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O212" t="inlineStr">
+      <c r="P212" t="inlineStr">
         <is>
           <t>et:30216</t>
         </is>
       </c>
-      <c r="P212" t="inlineStr"/>
       <c r="Q212" t="inlineStr"/>
       <c r="R212" t="inlineStr"/>
       <c r="S212" t="inlineStr"/>
@@ -28948,23 +28952,23 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
         <is>
           <t>et:21533</t>
         </is>
       </c>
-      <c r="L213" t="inlineStr">
+      <c r="M213" t="inlineStr">
         <is>
           <t>et:21855</t>
         </is>
       </c>
-      <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr">
+      <c r="N213" t="inlineStr"/>
+      <c r="O213" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
       <c r="Q213" t="inlineStr"/>
       <c r="R213" t="inlineStr"/>
@@ -29090,23 +29094,23 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
         <is>
           <t>et:21533</t>
         </is>
       </c>
-      <c r="L214" t="inlineStr">
+      <c r="M214" t="inlineStr">
         <is>
           <t>et:53</t>
         </is>
       </c>
-      <c r="M214" t="inlineStr"/>
-      <c r="N214" t="inlineStr">
+      <c r="N214" t="inlineStr"/>
+      <c r="O214" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
       <c r="Q214" t="inlineStr"/>
       <c r="R214" t="inlineStr"/>
@@ -29232,23 +29236,23 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
         <is>
           <t>et:21533</t>
         </is>
       </c>
-      <c r="L215" t="inlineStr">
+      <c r="M215" t="inlineStr">
         <is>
           <t>et:55</t>
         </is>
       </c>
-      <c r="M215" t="inlineStr"/>
-      <c r="N215" t="inlineStr">
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
       <c r="Q215" t="inlineStr"/>
       <c r="R215" t="inlineStr"/>
@@ -29374,23 +29378,23 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
         <is>
           <t>et:21533</t>
         </is>
       </c>
-      <c r="L216" t="inlineStr">
+      <c r="M216" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_00000133</t>
         </is>
       </c>
-      <c r="M216" t="inlineStr"/>
-      <c r="N216" t="inlineStr">
+      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr"/>
       <c r="Q216" t="inlineStr"/>
       <c r="R216" t="inlineStr"/>
@@ -29516,17 +29520,17 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_00002000</t>
         </is>
       </c>
-      <c r="L217" t="inlineStr">
+      <c r="M217" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr"/>
@@ -29654,32 +29658,32 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
         </is>
       </c>
-      <c r="L218" t="inlineStr">
+      <c r="M218" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M218" t="inlineStr">
+      <c r="N218" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="N218" t="inlineStr">
+      <c r="O218" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O218" t="inlineStr">
+      <c r="P218" t="inlineStr">
         <is>
           <t>et:30213</t>
         </is>
       </c>
-      <c r="P218" t="inlineStr"/>
       <c r="Q218" t="inlineStr"/>
       <c r="R218" t="inlineStr"/>
       <c r="S218" t="inlineStr"/>
@@ -29804,32 +29808,32 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
         </is>
       </c>
-      <c r="L219" t="inlineStr">
+      <c r="M219" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M219" t="inlineStr">
+      <c r="N219" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="N219" t="inlineStr">
+      <c r="O219" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O219" t="inlineStr">
+      <c r="P219" t="inlineStr">
         <is>
           <t>et:30214</t>
         </is>
       </c>
-      <c r="P219" t="inlineStr"/>
       <c r="Q219" t="inlineStr"/>
       <c r="R219" t="inlineStr"/>
       <c r="S219" t="inlineStr"/>
@@ -29954,32 +29958,32 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
         </is>
       </c>
-      <c r="L220" t="inlineStr">
+      <c r="M220" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M220" t="inlineStr">
+      <c r="N220" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="N220" t="inlineStr">
+      <c r="O220" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O220" t="inlineStr">
+      <c r="P220" t="inlineStr">
         <is>
           <t>et:30215</t>
         </is>
       </c>
-      <c r="P220" t="inlineStr"/>
       <c r="Q220" t="inlineStr"/>
       <c r="R220" t="inlineStr"/>
       <c r="S220" t="inlineStr"/>
@@ -30104,32 +30108,32 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
         </is>
       </c>
-      <c r="L221" t="inlineStr">
+      <c r="M221" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M221" t="inlineStr">
+      <c r="N221" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="N221" t="inlineStr">
+      <c r="O221" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O221" t="inlineStr">
+      <c r="P221" t="inlineStr">
         <is>
           <t>et:30205</t>
         </is>
       </c>
-      <c r="P221" t="inlineStr"/>
       <c r="Q221" t="inlineStr"/>
       <c r="R221" t="inlineStr"/>
       <c r="S221" t="inlineStr"/>
@@ -30254,32 +30258,32 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
         </is>
       </c>
-      <c r="L222" t="inlineStr">
+      <c r="M222" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M222" t="inlineStr">
+      <c r="N222" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="N222" t="inlineStr">
+      <c r="O222" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O222" t="inlineStr">
+      <c r="P222" t="inlineStr">
         <is>
           <t>et:30216</t>
         </is>
       </c>
-      <c r="P222" t="inlineStr"/>
       <c r="Q222" t="inlineStr"/>
       <c r="R222" t="inlineStr"/>
       <c r="S222" t="inlineStr"/>
@@ -30404,23 +30408,23 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
         </is>
       </c>
-      <c r="L223" t="inlineStr">
+      <c r="M223" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr">
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr"/>
       <c r="Q223" t="inlineStr"/>
       <c r="R223" t="inlineStr"/>
@@ -30546,27 +30550,27 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
         </is>
       </c>
-      <c r="L224" t="inlineStr">
+      <c r="M224" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M224" t="inlineStr">
+      <c r="N224" t="inlineStr">
         <is>
           <t>et:21855</t>
         </is>
       </c>
-      <c r="N224" t="inlineStr">
+      <c r="O224" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr"/>
       <c r="Q224" t="inlineStr"/>
       <c r="R224" t="inlineStr"/>
@@ -30692,28 +30696,28 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
         <is>
           <t>et:21533</t>
         </is>
       </c>
-      <c r="L225" t="inlineStr">
+      <c r="M225" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="M225" t="inlineStr"/>
-      <c r="N225" t="inlineStr">
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O225" t="inlineStr">
+      <c r="P225" t="inlineStr">
         <is>
           <t>et:30222</t>
         </is>
       </c>
-      <c r="P225" t="inlineStr"/>
       <c r="Q225" t="inlineStr"/>
       <c r="R225" t="inlineStr"/>
       <c r="S225" t="inlineStr"/>
@@ -30842,28 +30846,28 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
-      <c r="L226" t="inlineStr">
+      <c r="M226" t="inlineStr">
         <is>
           <t>et:20863</t>
         </is>
       </c>
-      <c r="M226" t="inlineStr"/>
-      <c r="N226" t="inlineStr">
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O226" t="inlineStr">
+      <c r="P226" t="inlineStr">
         <is>
           <t>et:30263</t>
         </is>
       </c>
-      <c r="P226" t="inlineStr"/>
       <c r="Q226" t="inlineStr"/>
       <c r="R226" t="inlineStr"/>
       <c r="S226" t="inlineStr"/>
@@ -30988,23 +30992,23 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
         <is>
           <t>et:21533</t>
         </is>
       </c>
-      <c r="L227" t="inlineStr">
+      <c r="M227" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="M227" t="inlineStr"/>
-      <c r="N227" t="inlineStr">
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr"/>
       <c r="Q227" t="inlineStr"/>
       <c r="R227" t="inlineStr"/>
@@ -31130,27 +31134,27 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
         </is>
       </c>
-      <c r="L228" t="inlineStr">
+      <c r="M228" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M228" t="inlineStr">
+      <c r="N228" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="N228" t="inlineStr">
+      <c r="O228" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr"/>
       <c r="Q228" t="inlineStr"/>
       <c r="R228" t="inlineStr"/>
@@ -31280,17 +31284,17 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
         <is>
           <t>et:30225</t>
         </is>
       </c>
-      <c r="L229" t="inlineStr">
+      <c r="M229" t="inlineStr">
         <is>
           <t>et:30224</t>
         </is>
       </c>
-      <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr"/>
@@ -31422,32 +31426,32 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
-      <c r="L230" t="inlineStr">
+      <c r="M230" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M230" t="inlineStr">
+      <c r="N230" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="N230" t="inlineStr">
+      <c r="O230" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O230" t="inlineStr">
+      <c r="P230" t="inlineStr">
         <is>
           <t>et:10314</t>
         </is>
       </c>
-      <c r="P230" t="inlineStr"/>
       <c r="Q230" t="inlineStr"/>
       <c r="R230" t="inlineStr"/>
       <c r="S230" t="inlineStr"/>
@@ -31572,32 +31576,32 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
-      <c r="L231" t="inlineStr">
+      <c r="M231" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M231" t="inlineStr">
+      <c r="N231" t="inlineStr">
         <is>
           <t>et:53</t>
         </is>
       </c>
-      <c r="N231" t="inlineStr">
+      <c r="O231" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O231" t="inlineStr">
+      <c r="P231" t="inlineStr">
         <is>
           <t>et:10315</t>
         </is>
       </c>
-      <c r="P231" t="inlineStr"/>
       <c r="Q231" t="inlineStr"/>
       <c r="R231" t="inlineStr"/>
       <c r="S231" t="inlineStr"/>
@@ -31722,32 +31726,32 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
-      <c r="L232" t="inlineStr">
+      <c r="M232" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M232" t="inlineStr">
+      <c r="N232" t="inlineStr">
         <is>
           <t>et:55</t>
         </is>
       </c>
-      <c r="N232" t="inlineStr">
+      <c r="O232" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O232" t="inlineStr">
+      <c r="P232" t="inlineStr">
         <is>
           <t>et:10315</t>
         </is>
       </c>
-      <c r="P232" t="inlineStr"/>
       <c r="Q232" t="inlineStr"/>
       <c r="R232" t="inlineStr"/>
       <c r="S232" t="inlineStr"/>
@@ -31872,32 +31876,32 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
-      <c r="L233" t="inlineStr">
+      <c r="M233" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M233" t="inlineStr">
+      <c r="N233" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_00000133</t>
         </is>
       </c>
-      <c r="N233" t="inlineStr">
+      <c r="O233" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O233" t="inlineStr">
+      <c r="P233" t="inlineStr">
         <is>
           <t>et:10315</t>
         </is>
       </c>
-      <c r="P233" t="inlineStr"/>
       <c r="Q233" t="inlineStr"/>
       <c r="R233" t="inlineStr"/>
       <c r="S233" t="inlineStr"/>
@@ -32022,28 +32026,28 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
-      <c r="L234" t="inlineStr">
+      <c r="M234" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr">
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O234" t="inlineStr">
+      <c r="P234" t="inlineStr">
         <is>
           <t>et:10315</t>
         </is>
       </c>
-      <c r="P234" t="inlineStr"/>
       <c r="Q234" t="inlineStr"/>
       <c r="R234" t="inlineStr"/>
       <c r="S234" t="inlineStr"/>
@@ -32172,27 +32176,27 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
         <is>
           <t>et:30207</t>
         </is>
       </c>
-      <c r="L235" t="inlineStr">
+      <c r="M235" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M235" t="inlineStr">
+      <c r="N235" t="inlineStr">
         <is>
           <t>et:20899</t>
         </is>
       </c>
-      <c r="N235" t="inlineStr">
+      <c r="O235" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr"/>
       <c r="Q235" t="inlineStr"/>
       <c r="R235" t="inlineStr"/>
@@ -32322,27 +32326,27 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
-      <c r="L236" t="inlineStr">
+      <c r="M236" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M236" t="inlineStr">
+      <c r="N236" t="inlineStr">
         <is>
           <t>et:20899</t>
         </is>
       </c>
-      <c r="N236" t="inlineStr">
+      <c r="O236" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr"/>
       <c r="Q236" t="inlineStr"/>
       <c r="R236" t="inlineStr"/>
@@ -32468,27 +32472,27 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
         <is>
           <t>et:21546</t>
         </is>
       </c>
-      <c r="L237" t="inlineStr">
+      <c r="M237" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_00002982</t>
         </is>
       </c>
-      <c r="M237" t="inlineStr">
+      <c r="N237" t="inlineStr">
         <is>
           <t>http://sweetontology.net/realmSoil/Topsoil</t>
         </is>
       </c>
-      <c r="N237" t="inlineStr">
+      <c r="O237" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr"/>
       <c r="Q237" t="inlineStr"/>
       <c r="R237" t="inlineStr"/>
@@ -32614,32 +32618,32 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
         <is>
           <t>et:21546</t>
         </is>
       </c>
-      <c r="L238" t="inlineStr">
+      <c r="M238" t="inlineStr">
         <is>
           <t>et:20863</t>
         </is>
       </c>
-      <c r="M238" t="inlineStr">
+      <c r="N238" t="inlineStr">
         <is>
           <t>http://sweetontology.net/realmSoil/Topsoil</t>
         </is>
       </c>
-      <c r="N238" t="inlineStr">
+      <c r="O238" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O238" t="inlineStr">
+      <c r="P238" t="inlineStr">
         <is>
           <t>et:21873</t>
         </is>
       </c>
-      <c r="P238" t="inlineStr"/>
       <c r="Q238" t="inlineStr"/>
       <c r="R238" t="inlineStr"/>
       <c r="S238" t="inlineStr"/>
@@ -32764,32 +32768,32 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
         <is>
           <t>et:21546</t>
         </is>
       </c>
-      <c r="L239" t="inlineStr">
+      <c r="M239" t="inlineStr">
         <is>
           <t>et:20863</t>
         </is>
       </c>
-      <c r="M239" t="inlineStr">
+      <c r="N239" t="inlineStr">
         <is>
           <t>http://sweetontology.net/realmSoil/Topsoil</t>
         </is>
       </c>
-      <c r="N239" t="inlineStr">
+      <c r="O239" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O239" t="inlineStr">
+      <c r="P239" t="inlineStr">
         <is>
           <t>et:21873</t>
         </is>
       </c>
-      <c r="P239" t="inlineStr"/>
       <c r="Q239" t="inlineStr"/>
       <c r="R239" t="inlineStr"/>
       <c r="S239" t="inlineStr"/>
@@ -32914,23 +32918,23 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
         <is>
           <t>et:30226</t>
         </is>
       </c>
-      <c r="L240" t="inlineStr">
+      <c r="M240" t="inlineStr">
         <is>
           <t>et:20863</t>
         </is>
       </c>
-      <c r="M240" t="inlineStr"/>
-      <c r="N240" t="inlineStr">
+      <c r="N240" t="inlineStr"/>
+      <c r="O240" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr"/>
       <c r="Q240" t="inlineStr"/>
       <c r="R240" t="inlineStr"/>
@@ -33056,32 +33060,32 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
-      <c r="L241" t="inlineStr">
+      <c r="M241" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M241" t="inlineStr">
+      <c r="N241" t="inlineStr">
         <is>
           <t>et:20899</t>
         </is>
       </c>
-      <c r="N241" t="inlineStr">
+      <c r="O241" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O241" t="inlineStr">
+      <c r="P241" t="inlineStr">
         <is>
           <t>et:21873</t>
         </is>
       </c>
-      <c r="P241" t="inlineStr"/>
       <c r="Q241" t="inlineStr"/>
       <c r="R241" t="inlineStr"/>
       <c r="S241" t="inlineStr"/>
@@ -33206,32 +33210,32 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
-      <c r="L242" t="inlineStr">
+      <c r="M242" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="M242" t="inlineStr">
+      <c r="N242" t="inlineStr">
         <is>
           <t>et:20899</t>
         </is>
       </c>
-      <c r="N242" t="inlineStr">
+      <c r="O242" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="O242" t="inlineStr">
+      <c r="P242" t="inlineStr">
         <is>
           <t>et:30227</t>
         </is>
       </c>
-      <c r="P242" t="inlineStr"/>
       <c r="Q242" t="inlineStr"/>
       <c r="R242" t="inlineStr"/>
       <c r="S242" t="inlineStr"/>
@@ -33356,28 +33360,28 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
         <is>
           <t>et:21934</t>
         </is>
       </c>
-      <c r="L243" t="inlineStr">
+      <c r="M243" t="inlineStr">
         <is>
           <t>et:20863</t>
         </is>
       </c>
-      <c r="M243" t="inlineStr"/>
-      <c r="N243" t="inlineStr">
+      <c r="N243" t="inlineStr"/>
+      <c r="O243" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="O243" t="inlineStr">
+      <c r="P243" t="inlineStr">
         <is>
           <t>et:21873</t>
         </is>
       </c>
-      <c r="P243" t="inlineStr"/>
       <c r="Q243" t="inlineStr"/>
       <c r="R243" t="inlineStr"/>
       <c r="S243" t="inlineStr"/>
@@ -33502,28 +33506,28 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
         <is>
           <t>et:21934</t>
         </is>
       </c>
-      <c r="L244" t="inlineStr">
+      <c r="M244" t="inlineStr">
         <is>
           <t>et:20863</t>
         </is>
       </c>
-      <c r="M244" t="inlineStr"/>
-      <c r="N244" t="inlineStr">
+      <c r="N244" t="inlineStr"/>
+      <c r="O244" t="inlineStr">
         <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="O244" t="inlineStr">
+      <c r="P244" t="inlineStr">
         <is>
           <t>et:30227</t>
         </is>
       </c>
-      <c r="P244" t="inlineStr"/>
       <c r="Q244" t="inlineStr"/>
       <c r="R244" t="inlineStr"/>
       <c r="S244" t="inlineStr"/>
@@ -33648,23 +33652,23 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
         <is>
           <t>et:21934</t>
         </is>
       </c>
-      <c r="L245" t="inlineStr">
+      <c r="M245" t="inlineStr">
         <is>
           <t>et:20863</t>
         </is>
       </c>
-      <c r="M245" t="inlineStr"/>
-      <c r="N245" t="inlineStr">
+      <c r="N245" t="inlineStr"/>
+      <c r="O245" t="inlineStr">
         <is>
           <t>et:30228</t>
         </is>
       </c>
-      <c r="O245" t="inlineStr"/>
       <c r="P245" t="inlineStr"/>
       <c r="Q245" t="inlineStr"/>
       <c r="R245" t="inlineStr"/>
@@ -33790,17 +33794,17 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
         <is>
           <t>et:21934</t>
         </is>
       </c>
-      <c r="L246" t="inlineStr">
+      <c r="M246" t="inlineStr">
         <is>
           <t>et:20863</t>
         </is>
       </c>
-      <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr"/>
@@ -33932,12 +33936,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr">
         <is>
           <t>https://epsg.io/31287</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
@@ -34196,12 +34200,12 @@
           <t>et:30031,cl:10189</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr">
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
         <is>
           <t>http://eurovoc.europa.eu/1278, http://en.wikipedia.org/wiki/hydrology, http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/84830, http://aims.fao.org/aos/agrovoc/c_3731, https://vocab.lternet.edu/vocab/vocab/?tema=259, http://www.eionet.europa.eu/gemet/concept/4118</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
@@ -34209,142 +34213,142 @@
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr">
+      <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr">
         <is>
           <t>[controlled by ] Lars Lundin 20130611</t>
         </is>
       </c>
-      <c r="Q249" t="inlineStr"/>
       <c r="R249" t="inlineStr"/>
       <c r="S249" t="inlineStr"/>
       <c r="T249" t="inlineStr"/>
       <c r="U249" t="inlineStr"/>
       <c r="V249" t="inlineStr"/>
-      <c r="W249" t="inlineStr">
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="inlineStr">
         <is>
           <t>US LTER controlled vocabulary</t>
         </is>
       </c>
-      <c r="X249" t="inlineStr"/>
       <c r="Y249" t="inlineStr"/>
       <c r="Z249" t="inlineStr"/>
-      <c r="AA249" t="inlineStr">
+      <c r="AA249" t="inlineStr"/>
+      <c r="AB249" t="inlineStr">
         <is>
           <t>Hydrologie</t>
         </is>
       </c>
-      <c r="AB249" t="inlineStr">
+      <c r="AC249" t="inlineStr">
         <is>
           <t>الهيدرولوجيا - علم المياه</t>
         </is>
       </c>
-      <c r="AC249" t="inlineStr">
+      <c r="AD249" t="inlineStr">
         <is>
           <t>Хидрология</t>
         </is>
       </c>
-      <c r="AD249" t="inlineStr">
+      <c r="AE249" t="inlineStr">
         <is>
           <t>hydrologie</t>
         </is>
       </c>
-      <c r="AE249" t="inlineStr">
+      <c r="AF249" t="inlineStr">
         <is>
           <t>hydrologi</t>
         </is>
       </c>
-      <c r="AF249" t="inlineStr">
+      <c r="AG249" t="inlineStr">
         <is>
           <t>υδρολογία</t>
         </is>
       </c>
-      <c r="AG249" t="inlineStr">
+      <c r="AH249" t="inlineStr">
         <is>
           <t>hidrología</t>
         </is>
       </c>
-      <c r="AH249" t="inlineStr">
+      <c r="AI249" t="inlineStr">
         <is>
           <t>hüdroloogia</t>
         </is>
       </c>
-      <c r="AI249" t="inlineStr">
+      <c r="AJ249" t="inlineStr">
         <is>
           <t>vesitiede, hydrologia</t>
         </is>
       </c>
-      <c r="AJ249" t="inlineStr">
+      <c r="AK249" t="inlineStr">
         <is>
           <t>hydrologie</t>
         </is>
       </c>
-      <c r="AK249" t="inlineStr">
+      <c r="AL249" t="inlineStr">
         <is>
           <t>hidrologija</t>
         </is>
       </c>
-      <c r="AL249" t="inlineStr">
+      <c r="AM249" t="inlineStr">
         <is>
           <t>hidrológia</t>
         </is>
       </c>
-      <c r="AM249" t="inlineStr">
+      <c r="AN249" t="inlineStr">
         <is>
           <t>idrologia</t>
         </is>
       </c>
-      <c r="AN249" t="inlineStr"/>
-      <c r="AO249" t="inlineStr">
+      <c r="AO249" t="inlineStr"/>
+      <c r="AP249" t="inlineStr">
         <is>
           <t>hidrologija</t>
         </is>
       </c>
-      <c r="AP249" t="inlineStr">
+      <c r="AQ249" t="inlineStr">
         <is>
           <t>hidroloģija</t>
         </is>
       </c>
-      <c r="AQ249" t="inlineStr">
+      <c r="AR249" t="inlineStr">
         <is>
           <t>hydrologie</t>
         </is>
       </c>
-      <c r="AR249" t="inlineStr">
+      <c r="AS249" t="inlineStr">
         <is>
           <t>hydrologi</t>
         </is>
       </c>
-      <c r="AS249" t="inlineStr">
+      <c r="AT249" t="inlineStr">
         <is>
           <t>hydrologia</t>
         </is>
       </c>
-      <c r="AT249" t="inlineStr">
+      <c r="AU249" t="inlineStr">
         <is>
           <t>hidrologia</t>
         </is>
       </c>
-      <c r="AU249" t="inlineStr">
+      <c r="AV249" t="inlineStr">
         <is>
           <t>hidrologie</t>
         </is>
       </c>
-      <c r="AV249" t="inlineStr">
+      <c r="AW249" t="inlineStr">
         <is>
           <t>hydrológia</t>
         </is>
       </c>
-      <c r="AW249" t="inlineStr">
+      <c r="AX249" t="inlineStr">
         <is>
           <t>hidrologija</t>
         </is>
       </c>
-      <c r="AX249" t="inlineStr">
+      <c r="AY249" t="inlineStr">
         <is>
           <t>hydrologi</t>
         </is>
       </c>
-      <c r="AY249" t="inlineStr"/>
       <c r="AZ249" t="inlineStr"/>
       <c r="BA249" t="inlineStr"/>
       <c r="BB249" t="inlineStr"/>
@@ -34438,12 +34442,12 @@
           <t>et:30031,cl:10189</t>
         </is>
       </c>
-      <c r="G250" t="inlineStr">
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr">
         <is>
           <t>https://vocab.lternet.edu/vocab/vocab/?tema=352, http://www.eionet.europa.eu/gemet/concept/5369</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
@@ -34451,12 +34455,12 @@
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr"/>
-      <c r="P250" t="inlineStr">
+      <c r="P250" t="inlineStr"/>
+      <c r="Q250" t="inlineStr">
         <is>
           <t>[controlled by ] Mark Frenzel, 22 May 2013</t>
         </is>
       </c>
-      <c r="Q250" t="inlineStr"/>
       <c r="R250" t="inlineStr"/>
       <c r="S250" t="inlineStr"/>
       <c r="T250" t="inlineStr"/>
@@ -34466,123 +34470,123 @@
       <c r="X250" t="inlineStr"/>
       <c r="Y250" t="inlineStr"/>
       <c r="Z250" t="inlineStr"/>
-      <c r="AA250" t="inlineStr">
+      <c r="AA250" t="inlineStr"/>
+      <c r="AB250" t="inlineStr">
         <is>
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="AB250" t="inlineStr">
+      <c r="AC250" t="inlineStr">
         <is>
           <t>المورفولوجيا</t>
         </is>
       </c>
-      <c r="AC250" t="inlineStr">
+      <c r="AD250" t="inlineStr">
         <is>
           <t>Прахова емисия</t>
         </is>
       </c>
-      <c r="AD250" t="inlineStr">
+      <c r="AE250" t="inlineStr">
         <is>
           <t>morfologie</t>
         </is>
       </c>
-      <c r="AE250" t="inlineStr">
+      <c r="AF250" t="inlineStr">
         <is>
           <t>morfologi (biol.)</t>
         </is>
       </c>
-      <c r="AF250" t="inlineStr">
+      <c r="AG250" t="inlineStr">
         <is>
           <t>μορφολογία</t>
         </is>
       </c>
-      <c r="AG250" t="inlineStr">
+      <c r="AH250" t="inlineStr">
         <is>
           <t>morfología (biológica)</t>
         </is>
       </c>
-      <c r="AH250" t="inlineStr">
+      <c r="AI250" t="inlineStr">
         <is>
           <t>morfoloogia, kujuõpetus</t>
         </is>
       </c>
-      <c r="AI250" t="inlineStr">
+      <c r="AJ250" t="inlineStr">
         <is>
           <t>morfologia, muoto-oppi</t>
         </is>
       </c>
-      <c r="AJ250" t="inlineStr">
+      <c r="AK250" t="inlineStr">
         <is>
           <t>morphologie</t>
         </is>
       </c>
-      <c r="AK250" t="inlineStr">
+      <c r="AL250" t="inlineStr">
         <is>
           <t>morfologija</t>
         </is>
       </c>
-      <c r="AL250" t="inlineStr">
+      <c r="AM250" t="inlineStr">
         <is>
           <t>morfológia</t>
         </is>
       </c>
-      <c r="AM250" t="inlineStr">
+      <c r="AN250" t="inlineStr">
         <is>
           <t>morfologia (biologica)</t>
         </is>
       </c>
-      <c r="AN250" t="inlineStr"/>
-      <c r="AO250" t="inlineStr">
+      <c r="AO250" t="inlineStr"/>
+      <c r="AP250" t="inlineStr">
         <is>
           <t>morfologija</t>
         </is>
       </c>
-      <c r="AP250" t="inlineStr">
+      <c r="AQ250" t="inlineStr">
         <is>
           <t>morfoloģija</t>
         </is>
       </c>
-      <c r="AQ250" t="inlineStr">
+      <c r="AR250" t="inlineStr">
         <is>
           <t>morfologie</t>
         </is>
       </c>
-      <c r="AR250" t="inlineStr">
+      <c r="AS250" t="inlineStr">
         <is>
           <t>morfologi</t>
         </is>
       </c>
-      <c r="AS250" t="inlineStr">
+      <c r="AT250" t="inlineStr">
         <is>
           <t>morfologia</t>
         </is>
       </c>
-      <c r="AT250" t="inlineStr">
+      <c r="AU250" t="inlineStr">
         <is>
           <t>morfologia</t>
         </is>
       </c>
-      <c r="AU250" t="inlineStr">
+      <c r="AV250" t="inlineStr">
         <is>
           <t>morfologie</t>
         </is>
       </c>
-      <c r="AV250" t="inlineStr">
+      <c r="AW250" t="inlineStr">
         <is>
           <t>morfológia</t>
         </is>
       </c>
-      <c r="AW250" t="inlineStr">
+      <c r="AX250" t="inlineStr">
         <is>
           <t>morfologija</t>
         </is>
       </c>
-      <c r="AX250" t="inlineStr">
+      <c r="AY250" t="inlineStr">
         <is>
           <t>morfologi</t>
         </is>
       </c>
-      <c r="AY250" t="inlineStr"/>
       <c r="AZ250" t="inlineStr"/>
       <c r="BA250" t="inlineStr"/>
       <c r="BB250" t="inlineStr"/>
@@ -34676,12 +34680,12 @@
           <t>et:20118,cl:10189</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr">
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr">
         <is>
           <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/105240, http://www.eionet.europa.eu/gemet/concept/4466, https://vocab.lternet.edu/vocab/vocab/?tema=270</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
@@ -34689,12 +34693,12 @@
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr">
+      <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr">
         <is>
           <t>[controlled by ] U Grandin, 2013-08-22</t>
         </is>
       </c>
-      <c r="Q251" t="inlineStr"/>
       <c r="R251" t="inlineStr"/>
       <c r="S251" t="inlineStr"/>
       <c r="T251" t="inlineStr"/>
@@ -35212,12 +35216,12 @@
           <t>et:20950,cl:10189</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr">
         <is>
           <t>http://eurovoc.europa.eu/3158, http://purl.obolibrary.org/obo/ENVO_01001346, http://aims.fao.org/aos/agrovoc/c_2651, https://vocab.lternet.edu/vocab/vocab/?tema=181, http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/14240, http://en.wikipedia.org/wiki/erosion, http://www.eionet.europa.eu/gemet/concept/2963</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
@@ -35225,142 +35229,142 @@
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
-      <c r="P255" t="inlineStr">
+      <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr">
         <is>
           <t>[controlled by ] Staszewski 08.06.2013</t>
         </is>
       </c>
-      <c r="Q255" t="inlineStr"/>
       <c r="R255" t="inlineStr"/>
       <c r="S255" t="inlineStr"/>
       <c r="T255" t="inlineStr"/>
       <c r="U255" t="inlineStr"/>
       <c r="V255" t="inlineStr"/>
-      <c r="W255" t="inlineStr">
+      <c r="W255" t="inlineStr"/>
+      <c r="X255" t="inlineStr">
         <is>
           <t>US LTER controlled vocabulary</t>
         </is>
       </c>
-      <c r="X255" t="inlineStr"/>
       <c r="Y255" t="inlineStr"/>
       <c r="Z255" t="inlineStr"/>
-      <c r="AA255" t="inlineStr">
+      <c r="AA255" t="inlineStr"/>
+      <c r="AB255" t="inlineStr">
         <is>
           <t>Erosion</t>
         </is>
       </c>
-      <c r="AB255" t="inlineStr">
+      <c r="AC255" t="inlineStr">
         <is>
           <t>تآكل</t>
         </is>
       </c>
-      <c r="AC255" t="inlineStr">
+      <c r="AD255" t="inlineStr">
         <is>
           <t>Ерозия</t>
         </is>
       </c>
-      <c r="AD255" t="inlineStr">
+      <c r="AE255" t="inlineStr">
         <is>
           <t>eroze</t>
         </is>
       </c>
-      <c r="AE255" t="inlineStr">
+      <c r="AF255" t="inlineStr">
         <is>
           <t>erosion</t>
         </is>
       </c>
-      <c r="AF255" t="inlineStr">
+      <c r="AG255" t="inlineStr">
         <is>
           <t>διάβρωση</t>
         </is>
       </c>
-      <c r="AG255" t="inlineStr">
+      <c r="AH255" t="inlineStr">
         <is>
           <t>erosión</t>
         </is>
       </c>
-      <c r="AH255" t="inlineStr">
+      <c r="AI255" t="inlineStr">
         <is>
           <t>erosioon, uuristus</t>
         </is>
       </c>
-      <c r="AI255" t="inlineStr">
+      <c r="AJ255" t="inlineStr">
         <is>
           <t>eroosio</t>
         </is>
       </c>
-      <c r="AJ255" t="inlineStr">
+      <c r="AK255" t="inlineStr">
         <is>
           <t>érosion</t>
         </is>
       </c>
-      <c r="AK255" t="inlineStr">
+      <c r="AL255" t="inlineStr">
         <is>
           <t>erozija</t>
         </is>
       </c>
-      <c r="AL255" t="inlineStr">
+      <c r="AM255" t="inlineStr">
         <is>
           <t>erózió</t>
         </is>
       </c>
-      <c r="AM255" t="inlineStr">
+      <c r="AN255" t="inlineStr">
         <is>
           <t>erosione</t>
         </is>
       </c>
-      <c r="AN255" t="inlineStr"/>
-      <c r="AO255" t="inlineStr">
+      <c r="AO255" t="inlineStr"/>
+      <c r="AP255" t="inlineStr">
         <is>
           <t>erozija</t>
         </is>
       </c>
-      <c r="AP255" t="inlineStr">
+      <c r="AQ255" t="inlineStr">
         <is>
           <t>erozija</t>
         </is>
       </c>
-      <c r="AQ255" t="inlineStr">
+      <c r="AR255" t="inlineStr">
         <is>
           <t>erosie</t>
         </is>
       </c>
-      <c r="AR255" t="inlineStr">
+      <c r="AS255" t="inlineStr">
         <is>
           <t>erosjon</t>
         </is>
       </c>
-      <c r="AS255" t="inlineStr">
+      <c r="AT255" t="inlineStr">
         <is>
           <t>erozja</t>
         </is>
       </c>
-      <c r="AT255" t="inlineStr">
+      <c r="AU255" t="inlineStr">
         <is>
           <t>erosão</t>
         </is>
       </c>
-      <c r="AU255" t="inlineStr">
+      <c r="AV255" t="inlineStr">
         <is>
           <t>eroziune</t>
         </is>
       </c>
-      <c r="AV255" t="inlineStr">
+      <c r="AW255" t="inlineStr">
         <is>
           <t>erózia</t>
         </is>
       </c>
-      <c r="AW255" t="inlineStr">
+      <c r="AX255" t="inlineStr">
         <is>
           <t>erozija</t>
         </is>
       </c>
-      <c r="AX255" t="inlineStr">
+      <c r="AY255" t="inlineStr">
         <is>
           <t>erosion</t>
         </is>
       </c>
-      <c r="AY255" t="inlineStr"/>
       <c r="AZ255" t="inlineStr"/>
       <c r="BA255" t="inlineStr"/>
       <c r="BB255" t="inlineStr"/>
@@ -35458,12 +35462,12 @@
           <t>et:20748,cl:10189</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr">
         <is>
           <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/54480, https://vocab.lternet.edu/vocab/vocab/?tema=178, http://aims.fao.org/aos/agrovoc/c_331377</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
@@ -35478,12 +35482,12 @@
       <c r="T256" t="inlineStr"/>
       <c r="U256" t="inlineStr"/>
       <c r="V256" t="inlineStr"/>
-      <c r="W256" t="inlineStr">
+      <c r="W256" t="inlineStr"/>
+      <c r="X256" t="inlineStr">
         <is>
           <t>US LTER controlled vocabulary</t>
         </is>
       </c>
-      <c r="X256" t="inlineStr"/>
       <c r="Y256" t="inlineStr"/>
       <c r="Z256" t="inlineStr"/>
       <c r="AA256" t="inlineStr"/>
@@ -35612,12 +35616,12 @@
           <t>et:20748,cl:10189</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr">
         <is>
           <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/47170, https://vocab.lternet.edu/vocab/vocab/?tema=416, http://eurovoc.europa.eu/2372, http://en.wikipedia.org/wiki/phosphorus, http://www.eionet.europa.eu/gemet/concept/6196, http://aims.fao.org/aos/agrovoc/c_5804</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
@@ -35632,131 +35636,131 @@
       <c r="T257" t="inlineStr"/>
       <c r="U257" t="inlineStr"/>
       <c r="V257" t="inlineStr"/>
-      <c r="W257" t="inlineStr">
+      <c r="W257" t="inlineStr"/>
+      <c r="X257" t="inlineStr">
         <is>
           <t>US LTER controlled vocabulary</t>
         </is>
       </c>
-      <c r="X257" t="inlineStr"/>
       <c r="Y257" t="inlineStr"/>
       <c r="Z257" t="inlineStr"/>
-      <c r="AA257" t="inlineStr">
+      <c r="AA257" t="inlineStr"/>
+      <c r="AB257" t="inlineStr">
         <is>
           <t>Phosphor</t>
         </is>
       </c>
-      <c r="AB257" t="inlineStr">
+      <c r="AC257" t="inlineStr">
         <is>
           <t>الفوسفور</t>
         </is>
       </c>
-      <c r="AC257" t="inlineStr">
+      <c r="AD257" t="inlineStr">
         <is>
           <t>Фосфор</t>
         </is>
       </c>
-      <c r="AD257" t="inlineStr">
+      <c r="AE257" t="inlineStr">
         <is>
           <t>fosfor</t>
         </is>
       </c>
-      <c r="AE257" t="inlineStr">
+      <c r="AF257" t="inlineStr">
         <is>
           <t>fosfor</t>
         </is>
       </c>
-      <c r="AF257" t="inlineStr">
+      <c r="AG257" t="inlineStr">
         <is>
           <t>φωσφόρος</t>
         </is>
       </c>
-      <c r="AG257" t="inlineStr">
+      <c r="AH257" t="inlineStr">
         <is>
           <t>fósforo</t>
         </is>
       </c>
-      <c r="AH257" t="inlineStr">
+      <c r="AI257" t="inlineStr">
         <is>
           <t>fosfor</t>
         </is>
       </c>
-      <c r="AI257" t="inlineStr">
+      <c r="AJ257" t="inlineStr">
         <is>
           <t>fosfori</t>
         </is>
       </c>
-      <c r="AJ257" t="inlineStr">
+      <c r="AK257" t="inlineStr">
         <is>
           <t>phosphore</t>
         </is>
       </c>
-      <c r="AK257" t="inlineStr">
+      <c r="AL257" t="inlineStr">
         <is>
           <t>fosfor</t>
         </is>
       </c>
-      <c r="AL257" t="inlineStr">
+      <c r="AM257" t="inlineStr">
         <is>
           <t>foszfor</t>
         </is>
       </c>
-      <c r="AM257" t="inlineStr">
+      <c r="AN257" t="inlineStr">
         <is>
           <t>fosforo</t>
         </is>
       </c>
-      <c r="AN257" t="inlineStr"/>
-      <c r="AO257" t="inlineStr">
+      <c r="AO257" t="inlineStr"/>
+      <c r="AP257" t="inlineStr">
         <is>
           <t>fosforas</t>
         </is>
       </c>
-      <c r="AP257" t="inlineStr">
+      <c r="AQ257" t="inlineStr">
         <is>
           <t>fosfors</t>
         </is>
       </c>
-      <c r="AQ257" t="inlineStr">
+      <c r="AR257" t="inlineStr">
         <is>
           <t>fosfor</t>
         </is>
       </c>
-      <c r="AR257" t="inlineStr">
+      <c r="AS257" t="inlineStr">
         <is>
           <t>fosfor</t>
         </is>
       </c>
-      <c r="AS257" t="inlineStr">
+      <c r="AT257" t="inlineStr">
         <is>
           <t>fosfor</t>
         </is>
       </c>
-      <c r="AT257" t="inlineStr">
+      <c r="AU257" t="inlineStr">
         <is>
           <t>fósforo</t>
         </is>
       </c>
-      <c r="AU257" t="inlineStr">
+      <c r="AV257" t="inlineStr">
         <is>
           <t>fosfor</t>
         </is>
       </c>
-      <c r="AV257" t="inlineStr">
+      <c r="AW257" t="inlineStr">
         <is>
           <t>fosfor</t>
         </is>
       </c>
-      <c r="AW257" t="inlineStr">
+      <c r="AX257" t="inlineStr">
         <is>
           <t>fosfor</t>
         </is>
       </c>
-      <c r="AX257" t="inlineStr">
+      <c r="AY257" t="inlineStr">
         <is>
           <t>fosfor</t>
         </is>
       </c>
-      <c r="AY257" t="inlineStr"/>
       <c r="AZ257" t="inlineStr"/>
       <c r="BA257" t="inlineStr"/>
       <c r="BB257" t="inlineStr"/>
@@ -35854,12 +35858,12 @@
           <t>et:30031,cl:10189</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr">
         <is>
           <t>http://aims.fao.org/aos/agrovoc/c_4783, https://vocab.lternet.edu/vocab/vocab/?tema=333, http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/95270, http://eurovoc.europa.eu/1892, http://www.eionet.europa.eu/gemet/concept/5197, http://en.wikipedia.org/wiki/meteorology</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
@@ -35867,142 +35871,142 @@
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
-      <c r="P258" t="inlineStr">
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr">
         <is>
           <t>[controlled by ] Giorgio Matteucci, 23/05/2013</t>
         </is>
       </c>
-      <c r="Q258" t="inlineStr"/>
       <c r="R258" t="inlineStr"/>
       <c r="S258" t="inlineStr"/>
       <c r="T258" t="inlineStr"/>
       <c r="U258" t="inlineStr"/>
       <c r="V258" t="inlineStr"/>
-      <c r="W258" t="inlineStr">
+      <c r="W258" t="inlineStr"/>
+      <c r="X258" t="inlineStr">
         <is>
           <t>US LTER controlled vocabulary</t>
         </is>
       </c>
-      <c r="X258" t="inlineStr"/>
       <c r="Y258" t="inlineStr"/>
       <c r="Z258" t="inlineStr"/>
-      <c r="AA258" t="inlineStr">
+      <c r="AA258" t="inlineStr"/>
+      <c r="AB258" t="inlineStr">
         <is>
           <t>Meteorologie</t>
         </is>
       </c>
-      <c r="AB258" t="inlineStr">
+      <c r="AC258" t="inlineStr">
         <is>
           <t>علم الأرصاد الجوية</t>
         </is>
       </c>
-      <c r="AC258" t="inlineStr">
+      <c r="AD258" t="inlineStr">
         <is>
           <t>Метеорология</t>
         </is>
       </c>
-      <c r="AD258" t="inlineStr">
+      <c r="AE258" t="inlineStr">
         <is>
           <t>meteorologie</t>
         </is>
       </c>
-      <c r="AE258" t="inlineStr">
+      <c r="AF258" t="inlineStr">
         <is>
           <t>meteorologi</t>
         </is>
       </c>
-      <c r="AF258" t="inlineStr">
+      <c r="AG258" t="inlineStr">
         <is>
           <t>μετεωρολογία</t>
         </is>
       </c>
-      <c r="AG258" t="inlineStr">
+      <c r="AH258" t="inlineStr">
         <is>
           <t>meteorologia</t>
         </is>
       </c>
-      <c r="AH258" t="inlineStr">
+      <c r="AI258" t="inlineStr">
         <is>
           <t>meteoroloogia</t>
         </is>
       </c>
-      <c r="AI258" t="inlineStr">
+      <c r="AJ258" t="inlineStr">
         <is>
           <t>säätiede, ilmatiede</t>
         </is>
       </c>
-      <c r="AJ258" t="inlineStr">
+      <c r="AK258" t="inlineStr">
         <is>
           <t>météorologie</t>
         </is>
       </c>
-      <c r="AK258" t="inlineStr">
+      <c r="AL258" t="inlineStr">
         <is>
           <t>meteorologija</t>
         </is>
       </c>
-      <c r="AL258" t="inlineStr">
+      <c r="AM258" t="inlineStr">
         <is>
           <t>meteorológia</t>
         </is>
       </c>
-      <c r="AM258" t="inlineStr">
+      <c r="AN258" t="inlineStr">
         <is>
           <t>meteorologia</t>
         </is>
       </c>
-      <c r="AN258" t="inlineStr"/>
-      <c r="AO258" t="inlineStr">
+      <c r="AO258" t="inlineStr"/>
+      <c r="AP258" t="inlineStr">
         <is>
           <t>meteorologija</t>
         </is>
       </c>
-      <c r="AP258" t="inlineStr">
+      <c r="AQ258" t="inlineStr">
         <is>
           <t>meteoroloģija</t>
         </is>
       </c>
-      <c r="AQ258" t="inlineStr">
+      <c r="AR258" t="inlineStr">
         <is>
           <t>weerkunde</t>
         </is>
       </c>
-      <c r="AR258" t="inlineStr">
+      <c r="AS258" t="inlineStr">
         <is>
           <t>meteorologi</t>
         </is>
       </c>
-      <c r="AS258" t="inlineStr">
+      <c r="AT258" t="inlineStr">
         <is>
           <t>meteorologia</t>
         </is>
       </c>
-      <c r="AT258" t="inlineStr">
+      <c r="AU258" t="inlineStr">
         <is>
           <t>meteorologia</t>
         </is>
       </c>
-      <c r="AU258" t="inlineStr">
+      <c r="AV258" t="inlineStr">
         <is>
           <t>meteorologie</t>
         </is>
       </c>
-      <c r="AV258" t="inlineStr">
+      <c r="AW258" t="inlineStr">
         <is>
           <t>meteorológia</t>
         </is>
       </c>
-      <c r="AW258" t="inlineStr">
+      <c r="AX258" t="inlineStr">
         <is>
           <t>meteorologija, vremenoslovje</t>
         </is>
       </c>
-      <c r="AX258" t="inlineStr">
+      <c r="AY258" t="inlineStr">
         <is>
           <t>meteorologi</t>
         </is>
       </c>
-      <c r="AY258" t="inlineStr"/>
       <c r="AZ258" t="inlineStr"/>
       <c r="BA258" t="inlineStr"/>
       <c r="BB258" t="inlineStr"/>
@@ -36998,12 +37002,12 @@
           <t>cl:10198</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr">
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr">
         <is>
           <t>https://vocab.lternet.edu/vocab/vocab/?tema=135</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
@@ -37011,23 +37015,23 @@
       <c r="M266" t="inlineStr"/>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr">
+      <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr">
         <is>
           <t>[controlled by ] Neagu Stefan 31/05/13" , "[source of definition ] wikipedia</t>
         </is>
       </c>
-      <c r="Q266" t="inlineStr"/>
       <c r="R266" t="inlineStr"/>
       <c r="S266" t="inlineStr"/>
       <c r="T266" t="inlineStr"/>
       <c r="U266" t="inlineStr"/>
       <c r="V266" t="inlineStr"/>
-      <c r="W266" t="inlineStr">
+      <c r="W266" t="inlineStr"/>
+      <c r="X266" t="inlineStr">
         <is>
           <t>US LTER controlled vocabulary</t>
         </is>
       </c>
-      <c r="X266" t="inlineStr"/>
       <c r="Y266" t="inlineStr"/>
       <c r="Z266" t="inlineStr"/>
       <c r="AA266" t="inlineStr"/>
@@ -37294,12 +37298,12 @@
       <c r="T268" t="inlineStr"/>
       <c r="U268" t="inlineStr"/>
       <c r="V268" t="inlineStr"/>
-      <c r="W268" t="inlineStr">
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr">
         <is>
           <t>data services</t>
         </is>
       </c>
-      <c r="X268" t="inlineStr"/>
       <c r="Y268" t="inlineStr"/>
       <c r="Z268" t="inlineStr"/>
       <c r="AA268" t="inlineStr"/>
@@ -47434,12 +47438,12 @@
       <c r="D346" t="inlineStr"/>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
-      <c r="G346" t="inlineStr">
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_02000125</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
@@ -47828,12 +47832,12 @@
           <t>cl:10337</t>
         </is>
       </c>
-      <c r="G349" t="inlineStr">
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01000608</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
@@ -48222,12 +48226,12 @@
       </c>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr">
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr">
         <is>
           <t>http://www.eionet.europa.eu/gemet/concept/9375</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
@@ -48616,12 +48620,12 @@
       </c>
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr"/>
-      <c r="G355" t="inlineStr">
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr">
         <is>
           <t>http://mimi.case.edu/ontologies/2009/1/UnitsOntology#scale</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
@@ -51107,17 +51111,17 @@
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr">
+      <c r="L374" t="inlineStr"/>
+      <c r="M374" t="inlineStr">
         <is>
           <t>et:21533</t>
         </is>
       </c>
-      <c r="M374" t="inlineStr">
+      <c r="N374" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
       <c r="P374" t="inlineStr"/>
       <c r="Q374" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ374"/>
+  <dimension ref="A1:CZ371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2920,377 +2920,377 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>skos:related(separator=",")</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>puv:usesStatistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>puv:uom</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>skos:note@en</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>skos:changeNote@en</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>skos:scopeNote@en</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>skos:example@en</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>owl:deprecated</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>skos:hiddenLabel</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@de</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@ar</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@bg</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@cs</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@da</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@el</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@es</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@et</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@fi</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@fr</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@hr</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@hu</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@it</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@ja</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@lt</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@lv</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@nl</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@no</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@pl</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@pt</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@ro</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@sk</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@sl</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@sv</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@zh</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@de</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@el</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@es</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@fi</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@fr</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@hu</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@it</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@ja</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@la</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@lt</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@no</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@pl</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@pt</t>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@sl</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@sv</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@zh</t>
+        </is>
+      </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>skos:altLabel@zh-tw</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>skos:definition@de</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>skos:definition@es</t>
+        </is>
+      </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>skos:definition@fi</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>skos:definition@fr</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>skos:definition@it</t>
+        </is>
+      </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>skos:definition@ja</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>skos:definition@no</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t>skos:definition@pl</t>
+        </is>
+      </c>
+      <c r="BZ22" t="inlineStr">
+        <is>
+          <t>skos:definition@pt</t>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>skos:definition@zh</t>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr">
+        <is>
+          <t>skos:definition@sv</t>
+        </is>
+      </c>
+      <c r="CC22" t="inlineStr">
+        <is>
           <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>skos:related(separator=",")</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>puv:usesStatistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>puv:uom</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>skos:note@en</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>skos:changeNote@en</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>skos:scopeNote@en</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>skos:example@en</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>owl:deprecated</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>skos:hiddenLabel</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@de</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@ar</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@bg</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@cs</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@da</t>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@el</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@es</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@et</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@fi</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@fr</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@hr</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@hu</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@it</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@ja</t>
-        </is>
-      </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@lt</t>
-        </is>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@lv</t>
-        </is>
-      </c>
-      <c r="AS22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@nl</t>
-        </is>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@no</t>
-        </is>
-      </c>
-      <c r="AU22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@pl</t>
-        </is>
-      </c>
-      <c r="AV22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@pt</t>
-        </is>
-      </c>
-      <c r="AW22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@ro</t>
-        </is>
-      </c>
-      <c r="AX22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@sk</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@sl</t>
-        </is>
-      </c>
-      <c r="AZ22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@sv</t>
-        </is>
-      </c>
-      <c r="BA22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@zh</t>
-        </is>
-      </c>
-      <c r="BB22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@de</t>
-        </is>
-      </c>
-      <c r="BC22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@el</t>
-        </is>
-      </c>
-      <c r="BD22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@es</t>
-        </is>
-      </c>
-      <c r="BE22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@fi</t>
-        </is>
-      </c>
-      <c r="BF22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@fr</t>
-        </is>
-      </c>
-      <c r="BG22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@hu</t>
-        </is>
-      </c>
-      <c r="BH22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@it</t>
-        </is>
-      </c>
-      <c r="BI22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@ja</t>
-        </is>
-      </c>
-      <c r="BJ22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@la</t>
-        </is>
-      </c>
-      <c r="BK22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@lt</t>
-        </is>
-      </c>
-      <c r="BL22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@no</t>
-        </is>
-      </c>
-      <c r="BM22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@pl</t>
-        </is>
-      </c>
-      <c r="BN22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@pt</t>
-        </is>
-      </c>
-      <c r="BO22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@sl</t>
-        </is>
-      </c>
-      <c r="BP22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@sv</t>
-        </is>
-      </c>
-      <c r="BQ22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@zh</t>
-        </is>
-      </c>
-      <c r="BR22" t="inlineStr">
-        <is>
-          <t>skos:altLabel@zh-tw</t>
-        </is>
-      </c>
-      <c r="BS22" t="inlineStr">
-        <is>
-          <t>skos:definition@de</t>
-        </is>
-      </c>
-      <c r="BT22" t="inlineStr">
-        <is>
-          <t>skos:definition@es</t>
-        </is>
-      </c>
-      <c r="BU22" t="inlineStr">
-        <is>
-          <t>skos:definition@fi</t>
-        </is>
-      </c>
-      <c r="BV22" t="inlineStr">
-        <is>
-          <t>skos:definition@fr</t>
-        </is>
-      </c>
-      <c r="BW22" t="inlineStr">
-        <is>
-          <t>skos:definition@it</t>
-        </is>
-      </c>
-      <c r="BX22" t="inlineStr">
-        <is>
-          <t>skos:definition@ja</t>
-        </is>
-      </c>
-      <c r="BY22" t="inlineStr">
-        <is>
-          <t>skos:definition@no</t>
-        </is>
-      </c>
-      <c r="BZ22" t="inlineStr">
-        <is>
-          <t>skos:definition@pl</t>
-        </is>
-      </c>
-      <c r="CA22" t="inlineStr">
-        <is>
-          <t>skos:definition@pt</t>
-        </is>
-      </c>
-      <c r="CB22" t="inlineStr">
-        <is>
-          <t>skos:definition@zh</t>
-        </is>
-      </c>
-      <c r="CC22" t="inlineStr">
-        <is>
-          <t>skos:definition@sv</t>
         </is>
       </c>
       <c r="CD22" t="inlineStr">
@@ -6168,12 +6168,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ad</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -6310,12 +6310,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/au</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -6452,12 +6452,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/rs</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -6594,12 +6594,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/gg</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -6736,12 +6736,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/cp</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -6878,12 +6878,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/gn</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -7020,12 +7020,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/hy</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -7162,12 +7162,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ps</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -7304,12 +7304,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/tn</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -7446,12 +7446,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/el</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -7588,12 +7588,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ge</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -7730,12 +7730,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/lc</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -7872,12 +7872,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/oi</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -8014,12 +8014,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/af</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -8156,12 +8156,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/am</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -8298,12 +8298,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ac</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -8440,12 +8440,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/br</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -8582,12 +8582,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/bu</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -8724,12 +8724,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/er</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -8866,12 +8866,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ef</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -9008,12 +9008,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/hb</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -9150,12 +9150,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/hh</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -9292,12 +9292,12 @@
           <t>cl:10001,cl:10189</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/lu</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -9434,12 +9434,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/mr</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -9576,12 +9576,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/nz</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -9718,12 +9718,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/of</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -9860,12 +9860,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/pd</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -10002,12 +10002,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/pf</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -10144,12 +10144,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/sr</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -10286,12 +10286,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/so</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -10428,12 +10428,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/sd</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -10570,12 +10570,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/su</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -10712,12 +10712,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/us</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -10854,12 +10854,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/mf</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -10996,12 +10996,12 @@
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ac-mf</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -11528,12 +11528,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>https://epsg.io/3857</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -11670,12 +11670,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>https://epsg.io/4937</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -11816,12 +11816,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>https://epsg.io/3035</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -11958,12 +11958,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>https://epsg.io/18007</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -12100,12 +12100,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>https://epsg.io/18008</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -12242,12 +12242,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>https://epsg.io/18009</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -12388,12 +12388,12 @@
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>https://epsg.io/3416</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>cl:10109</t>
+          <t>et:10109</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -17991,15 +17991,15 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48920</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -18088,7 +18088,7 @@
       </c>
       <c r="CI132" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ132" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>cl:10110</t>
+          <t>et:10149</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -18129,15 +18129,15 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C53322</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -18226,7 +18226,7 @@
       </c>
       <c r="CI133" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ133" t="inlineStr"/>
@@ -18250,7 +18250,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>cl:10111</t>
+          <t>et:20231</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -18267,7 +18267,7 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,et:10145</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -18360,7 +18360,7 @@
       </c>
       <c r="CI134" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ134" t="inlineStr"/>
@@ -18384,7 +18384,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>cl:10112</t>
+          <t>et:10148</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -18401,15 +18401,15 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>http://dicom.nema.org/resources/ontology/DCM/126051</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -18498,7 +18498,7 @@
       </c>
       <c r="CI135" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ135" t="inlineStr"/>
@@ -18522,7 +18522,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>cl:10113</t>
+          <t>et:10151</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -18539,15 +18539,15 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>http://www.cvrgrid.org/files/ECGOntologyv1.owl#ECG_000001079</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="CI136" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ136" t="inlineStr"/>
@@ -18660,7 +18660,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>cl:10114</t>
+          <t>et:10132</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -18677,15 +18677,15 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>http://scai.fraunhofer.de/HuPSON#SCAIVPH_00000266</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -18774,7 +18774,7 @@
       </c>
       <c r="CI137" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ137" t="inlineStr"/>
@@ -18798,7 +18798,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>cl:10115</t>
+          <t>et:21585</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -18815,7 +18815,7 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,et:10145</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -18908,7 +18908,7 @@
       </c>
       <c r="CI138" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ138" t="inlineStr"/>
@@ -18932,7 +18932,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>cl:10116</t>
+          <t>et:10131</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -18949,15 +18949,15 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000145</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -19046,7 +19046,7 @@
       </c>
       <c r="CI139" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ139" t="inlineStr"/>
@@ -19070,7 +19070,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>cl:10117</t>
+          <t>et:10129</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -19087,15 +19087,15 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000081</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -19184,7 +19184,7 @@
       </c>
       <c r="CI140" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ140" t="inlineStr"/>
@@ -19208,7 +19208,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>cl:10118</t>
+          <t>et:10144</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -19225,15 +19225,15 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C54154</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -19322,7 +19322,7 @@
       </c>
       <c r="CI141" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ141" t="inlineStr"/>
@@ -19346,7 +19346,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>cl:10119</t>
+          <t>et:10143</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -19363,15 +19363,15 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>cl:10009,cl:10012</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr">
+          <t>cl:10009,cl:10012,et:10145</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48919</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -19460,7 +19460,7 @@
       </c>
       <c r="CI142" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ142" t="inlineStr"/>
@@ -19484,7 +19484,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>cl:10120</t>
+          <t>et:10140</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -19501,15 +19501,15 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>cl:10009,cl:10012</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr">
+          <t>cl:10009,cl:10012,et:10145</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/NEMO/ontology/NEMO.owl#NEMO_3768000</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -19598,7 +19598,7 @@
       </c>
       <c r="CI143" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ143" t="inlineStr"/>
@@ -19622,7 +19622,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>cl:10121</t>
+          <t>et:10141</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -19639,15 +19639,15 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/ontology/npo#NPO_1802</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -19736,7 +19736,7 @@
       </c>
       <c r="CI144" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ144" t="inlineStr"/>
@@ -19760,7 +19760,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>cl:10122</t>
+          <t>et:10134</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -19777,15 +19777,15 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000071</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -19874,7 +19874,7 @@
       </c>
       <c r="CI145" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ145" t="inlineStr"/>
@@ -19898,7 +19898,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>cl:10123</t>
+          <t>et:10130</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -19915,15 +19915,15 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000070</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -20012,7 +20012,7 @@
       </c>
       <c r="CI146" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ146" t="inlineStr"/>
@@ -20036,7 +20036,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>cl:10124</t>
+          <t>et:10137</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -20053,15 +20053,15 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000072</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="CI147" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ147" t="inlineStr"/>
@@ -20174,7 +20174,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>cl:10125</t>
+          <t>et:10147</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -20191,15 +20191,15 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
         <is>
           <t>http://purl.org/net/OCRe/statistics.owl#OCRE200007</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -20288,7 +20288,7 @@
       </c>
       <c r="CI148" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ148" t="inlineStr"/>
@@ -20312,7 +20312,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>cl:10126</t>
+          <t>et:10138</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -20329,15 +20329,15 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>http://www.semanticweb.org/alberto.traverso/ontologies/2017/1/RADIOMICS-ontology#OWLClass_010008</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -20426,7 +20426,7 @@
       </c>
       <c r="CI149" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ149" t="inlineStr"/>
@@ -20450,7 +20450,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>cl:10127</t>
+          <t>et:10139</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -20467,15 +20467,15 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>cl:10009,cl:10012</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr">
+          <t>cl:10009,cl:10012,et:10145</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
         <is>
           <t>http://semanticscience.org/resource/SIO_001109</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -20564,7 +20564,7 @@
       </c>
       <c r="CI150" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ150" t="inlineStr"/>
@@ -20588,7 +20588,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>cl:10128</t>
+          <t>et:10135</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -20605,15 +20605,15 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr">
+          <t>cl:10009,et:10145</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/STATO_0000292</t>
         </is>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -20702,7 +20702,7 @@
       </c>
       <c r="CI151" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ151" t="inlineStr"/>
@@ -20726,7 +20726,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>cl:10129</t>
+          <t>et:10146</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -20743,7 +20743,7 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,et:10145</t>
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
@@ -20836,7 +20836,7 @@
       </c>
       <c r="CI152" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ152" t="inlineStr"/>
@@ -20860,7 +20860,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>cl:10130</t>
+          <t>et:10128</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -20877,7 +20877,7 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,et:10145</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -20970,7 +20970,7 @@
       </c>
       <c r="CI153" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ153" t="inlineStr"/>
@@ -20994,7 +20994,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>cl:10131</t>
+          <t>et:20241</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -21007,7 +21007,7 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,et:10145</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -21100,7 +21100,7 @@
       </c>
       <c r="CI154" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ154" t="inlineStr"/>
@@ -21124,7 +21124,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>cl:10132</t>
+          <t>et:10133</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -21137,7 +21137,7 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,et:10145</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -21230,7 +21230,7 @@
       </c>
       <c r="CI155" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ155" t="inlineStr"/>
@@ -21254,7 +21254,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>cl:10133</t>
+          <t>et:10136</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -21267,7 +21267,7 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,et:10145</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -21360,7 +21360,7 @@
       </c>
       <c r="CI156" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ156" t="inlineStr"/>
@@ -21384,7 +21384,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>cl:10134</t>
+          <t>et:10142</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -21397,7 +21397,7 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,et:10145</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -21490,7 +21490,7 @@
       </c>
       <c r="CI157" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ157" t="inlineStr"/>
@@ -21514,7 +21514,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>cl:10135</t>
+          <t>et:10027</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -21527,7 +21527,7 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,et:10145</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -21620,7 +21620,7 @@
       </c>
       <c r="CI158" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ158" t="inlineStr"/>
@@ -21657,7 +21657,7 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>cl:10010</t>
+          <t>cl:10009,et:10145</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -21750,7 +21750,7 @@
       </c>
       <c r="CI159" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ159" t="inlineStr"/>
@@ -25838,12 +25838,12 @@
           <t>cl:10002</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/unit/PERCENT</t>
         </is>
       </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
@@ -26662,12 +26662,12 @@
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr"/>
-      <c r="W196" t="inlineStr"/>
-      <c r="X196" t="inlineStr">
+      <c r="W196" t="inlineStr">
         <is>
           <t>INVEKOS ist ein System von Verordnungen zur Durchsetzung einer einheitlichen Agrarpolitik in den EU-Mitgliedstaaten. Die schrittweise Einführung des Integrierten Verwaltungs- und Kontrollsystems durch die Europäische Kommission wurde im Zuge der Reform der Gemeinsamen Agrarpolitik (GAP) im Jahre 1992 beschlossen.</t>
         </is>
       </c>
+      <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="inlineStr"/>
@@ -27292,12 +27292,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>et:10139</t>
+          <t>cl:10184</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>GIS intersection</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -27422,12 +27422,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>et:10143</t>
+          <t>cl:10185</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>percentile</t>
+          <t>GIS interpolation</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -27552,12 +27552,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>et:10140</t>
+          <t>cl:10186</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>complex calculation balancing</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -27682,22 +27682,18 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>cl:10184</t>
+          <t>cl:10187</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>GIS intersection</t>
+          <t>MONERIS variable</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>cl:10012</t>
-        </is>
-      </c>
+      <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
@@ -27812,12 +27808,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>cl:10185</t>
+          <t>et:30217</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>GIS interpolation</t>
+          <t>area of slope &lt;1% arable land of catchment</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -27825,7 +27821,7 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>cl:10012</t>
+          <t>et:20935,cl:10187</t>
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
@@ -27833,11 +27829,27 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>et:21533</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
+        </is>
+      </c>
       <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>et:10092</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>et:30213</t>
+        </is>
+      </c>
       <c r="Q205" t="inlineStr"/>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="inlineStr"/>
@@ -27918,7 +27930,7 @@
       </c>
       <c r="CI205" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ205" t="inlineStr"/>
@@ -27942,12 +27954,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>cl:10186</t>
+          <t>et:30218</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>complex calculation balancing</t>
+          <t>area of slope 1-2% arable land of catchment</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -27955,7 +27967,7 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>cl:10012</t>
+          <t>et:20935,cl:10187</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
@@ -27963,11 +27975,27 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>et:21533</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
+        </is>
+      </c>
       <c r="N206" t="inlineStr"/>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>et:10092</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>et:30214</t>
+        </is>
+      </c>
       <c r="Q206" t="inlineStr"/>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="inlineStr"/>
@@ -28072,28 +28100,48 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>et:30219</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MONERIS variable</t>
+          <t>area of slope 3-4% arable land of catchment</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>et:20935,cl:10187</t>
+        </is>
+      </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>et:21533</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
+        </is>
+      </c>
       <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>et:10092</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>et:30215</t>
+        </is>
+      </c>
       <c r="Q207" t="inlineStr"/>
       <c r="R207" t="inlineStr"/>
       <c r="S207" t="inlineStr"/>
@@ -28174,7 +28222,7 @@
       </c>
       <c r="CI207" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ207" t="inlineStr"/>
@@ -28198,12 +28246,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>et:30217</t>
+          <t>et:30220</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>area of slope &lt;1% arable land of catchment</t>
+          <t>area of slope 4-8% arable land of catchment</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -28211,14 +28259,10 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>et:20935</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>cl:10187</t>
-        </is>
-      </c>
+          <t>et:20935,cl:10187</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -28241,7 +28285,7 @@
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>et:30213</t>
+          <t>et:30205</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr"/>
@@ -28324,7 +28368,7 @@
       </c>
       <c r="CI208" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="CJ208" t="inlineStr"/>
@@ -28348,12 +28392,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>et:30218</t>
+          <t>et:30221</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>area of slope 1-2% arable land of catchment</t>
+          <t>area of slope &gt;8% arable land of catchment</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -28387,7 +28431,7 @@
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>et:30214</t>
+          <t>et:30216</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr"/>
@@ -28494,12 +28538,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>et:30219</t>
+          <t>et:30229</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>area of slope 3-4% arable land of catchment</t>
+          <t>area of grassland of catchment</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -28522,7 +28566,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
+          <t>et:21855</t>
         </is>
       </c>
       <c r="N210" t="inlineStr"/>
@@ -28531,11 +28575,7 @@
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P210" t="inlineStr">
-        <is>
-          <t>et:30215</t>
-        </is>
-      </c>
+      <c r="P210" t="inlineStr"/>
       <c r="Q210" t="inlineStr"/>
       <c r="R210" t="inlineStr"/>
       <c r="S210" t="inlineStr"/>
@@ -28640,12 +28680,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>et:30220</t>
+          <t>et:30230</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>area of slope 4-8% arable land of catchment</t>
+          <t>area of woodland and forest of catchment</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -28668,7 +28708,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
+          <t>et:53</t>
         </is>
       </c>
       <c r="N211" t="inlineStr"/>
@@ -28677,11 +28717,7 @@
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P211" t="inlineStr">
-        <is>
-          <t>et:30205</t>
-        </is>
-      </c>
+      <c r="P211" t="inlineStr"/>
       <c r="Q211" t="inlineStr"/>
       <c r="R211" t="inlineStr"/>
       <c r="S211" t="inlineStr"/>
@@ -28786,12 +28822,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>et:30221</t>
+          <t>et:30231</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>area of slope &gt;8% arable land of catchment</t>
+          <t>area of unvegetated land of catchment</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -28814,7 +28850,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
+          <t>et:55</t>
         </is>
       </c>
       <c r="N212" t="inlineStr"/>
@@ -28823,11 +28859,7 @@
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P212" t="inlineStr">
-        <is>
-          <t>et:30216</t>
-        </is>
-      </c>
+      <c r="P212" t="inlineStr"/>
       <c r="Q212" t="inlineStr"/>
       <c r="R212" t="inlineStr"/>
       <c r="S212" t="inlineStr"/>
@@ -28932,12 +28964,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>et:30229</t>
+          <t>et:30232</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>area of grassland of catchment</t>
+          <t>area of glacier of catchment</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -28960,7 +28992,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>et:21855</t>
+          <t>http://purl.obolibrary.org/obo/ENVO_00000133</t>
         </is>
       </c>
       <c r="N213" t="inlineStr"/>
@@ -29074,12 +29106,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>et:30230</t>
+          <t>et:30233</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>area of woodland and forest of catchment</t>
+          <t>slope of catchment</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -29097,20 +29129,16 @@
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
-          <t>et:21533</t>
+          <t>http://purl.obolibrary.org/obo/ENVO_00002000</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>et:53</t>
+          <t>et:10092</t>
         </is>
       </c>
       <c r="N214" t="inlineStr"/>
-      <c r="O214" t="inlineStr">
-        <is>
-          <t>et:10092</t>
-        </is>
-      </c>
+      <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
       <c r="Q214" t="inlineStr"/>
       <c r="R214" t="inlineStr"/>
@@ -29216,12 +29244,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>et:30231</t>
+          <t>et:30234</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>area of unvegetated land of catchment</t>
+          <t>mass per area per time of soil erosion in slope &lt;1% arable land of catchment</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -29239,21 +29267,29 @@
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
-          <t>et:21533</t>
+          <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>et:55</t>
-        </is>
-      </c>
-      <c r="N215" t="inlineStr"/>
+          <t>et:21286</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
+        </is>
+      </c>
       <c r="O215" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P215" t="inlineStr"/>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>et:30213</t>
+        </is>
+      </c>
       <c r="Q215" t="inlineStr"/>
       <c r="R215" t="inlineStr"/>
       <c r="S215" t="inlineStr"/>
@@ -29358,12 +29394,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>et:30232</t>
+          <t>et:30235</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>area of glacier of catchment</t>
+          <t>mass per area per time of soil erosion in slope 1-2% arable land of catchment</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -29381,21 +29417,29 @@
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
-          <t>et:21533</t>
+          <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_00000133</t>
-        </is>
-      </c>
-      <c r="N216" t="inlineStr"/>
+          <t>et:21286</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
+        </is>
+      </c>
       <c r="O216" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P216" t="inlineStr"/>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>et:30214</t>
+        </is>
+      </c>
       <c r="Q216" t="inlineStr"/>
       <c r="R216" t="inlineStr"/>
       <c r="S216" t="inlineStr"/>
@@ -29500,12 +29544,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>et:30233</t>
+          <t>et:30236</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>slope of catchment</t>
+          <t>mass per area per time of soil erosion in slope 3-4% arable land of catchment</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -29523,17 +29567,29 @@
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_00002000</t>
+          <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
+          <t>et:21286</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="N217" t="inlineStr"/>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>et:30215</t>
+        </is>
+      </c>
       <c r="Q217" t="inlineStr"/>
       <c r="R217" t="inlineStr"/>
       <c r="S217" t="inlineStr"/>
@@ -29638,12 +29694,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>et:30234</t>
+          <t>et:30237</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>mass per area per time of soil erosion in slope &lt;1% arable land of catchment</t>
+          <t>mass per area per time of soil erosion in slope 4-8% arable land of catchment</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -29681,7 +29737,7 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>et:30213</t>
+          <t>et:30205</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr"/>
@@ -29788,12 +29844,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>et:30235</t>
+          <t>et:30238</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>mass per area per time of soil erosion in slope 1-2% arable land of catchment</t>
+          <t>mass per area per time of soil erosion in slope &gt;8% arable land of catchment</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -29831,7 +29887,7 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>et:30214</t>
+          <t>et:30216</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr"/>
@@ -29938,12 +29994,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>et:30236</t>
+          <t>et:30239</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>mass per area per time of soil erosion in slope 3-4% arable land of catchment</t>
+          <t>mass per area per time of soil erosion of catchment</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -29969,21 +30025,13 @@
           <t>et:21286</t>
         </is>
       </c>
-      <c r="N220" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
-        </is>
-      </c>
+      <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P220" t="inlineStr">
-        <is>
-          <t>et:30215</t>
-        </is>
-      </c>
+      <c r="P220" t="inlineStr"/>
       <c r="Q220" t="inlineStr"/>
       <c r="R220" t="inlineStr"/>
       <c r="S220" t="inlineStr"/>
@@ -30088,12 +30136,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>et:30237</t>
+          <t>et:30240</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>mass per area per time of soil erosion in slope 4-8% arable land of catchment</t>
+          <t>mass per area per time of soil erosion in grassland of catchment</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -30121,7 +30169,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
+          <t>et:21855</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -30129,11 +30177,7 @@
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P221" t="inlineStr">
-        <is>
-          <t>et:30205</t>
-        </is>
-      </c>
+      <c r="P221" t="inlineStr"/>
       <c r="Q221" t="inlineStr"/>
       <c r="R221" t="inlineStr"/>
       <c r="S221" t="inlineStr"/>
@@ -30238,12 +30282,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>et:30238</t>
+          <t>et:30241</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>mass per area per time of soil erosion in slope &gt;8% arable land of catchment</t>
+          <t>area of with conservation tillage arable land of catchment</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -30261,19 +30305,15 @@
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
+          <t>et:21533</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>et:21286</t>
-        </is>
-      </c>
-      <c r="N222" t="inlineStr">
-        <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
+      <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
           <t>et:10092</t>
@@ -30281,7 +30321,7 @@
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>et:30216</t>
+          <t>et:30222</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr"/>
@@ -30388,16 +30428,20 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>et:30239</t>
+          <t>et:30242</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>mass per area per time of soil erosion of catchment</t>
+          <t>mass per area of accumulated surplus total phosphorus of catchment</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>different types of phosphorus: organic, inorganic, which is measured as Total Posphorus</t>
+        </is>
+      </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
@@ -30411,12 +30455,12 @@
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
+          <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>et:21286</t>
+          <t>et:20863</t>
         </is>
       </c>
       <c r="N223" t="inlineStr"/>
@@ -30425,7 +30469,11 @@
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P223" t="inlineStr"/>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>et:30263</t>
+        </is>
+      </c>
       <c r="Q223" t="inlineStr"/>
       <c r="R223" t="inlineStr"/>
       <c r="S223" t="inlineStr"/>
@@ -30530,12 +30578,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>et:30240</t>
+          <t>et:30243</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>mass per area per time of soil erosion in grassland of catchment</t>
+          <t>area of arable land of catchment</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -30553,19 +30601,15 @@
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
+          <t>et:21533</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>et:21286</t>
-        </is>
-      </c>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>et:21855</t>
-        </is>
-      </c>
+          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
           <t>et:10092</t>
@@ -30676,12 +30720,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>et:30241</t>
+          <t>et:30244</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>area of with conservation tillage arable land of catchment</t>
+          <t>mass per area per time of soil erosion in arable land of catchment</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -30699,25 +30743,25 @@
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
-          <t>et:21533</t>
+          <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
         <is>
+          <t>et:21286</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P225" t="inlineStr">
-        <is>
-          <t>et:30222</t>
-        </is>
-      </c>
+      <c r="P225" t="inlineStr"/>
       <c r="Q225" t="inlineStr"/>
       <c r="R225" t="inlineStr"/>
       <c r="S225" t="inlineStr"/>
@@ -30822,18 +30866,18 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>et:30242</t>
+          <t>et:30245</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>mass per area of accumulated surplus total phosphorus of catchment</t>
+          <t>correction of R-factor</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>different types of phosphorus: organic, inorganic, which is measured as Total Posphorus</t>
+          <t>used for calculation of Im-BE; Current agricultural soil loss</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -30849,25 +30893,17 @@
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
+          <t>et:30225</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>et:20863</t>
+          <t>et:30224</t>
         </is>
       </c>
       <c r="N226" t="inlineStr"/>
-      <c r="O226" t="inlineStr">
-        <is>
-          <t>et:10092</t>
-        </is>
-      </c>
-      <c r="P226" t="inlineStr">
-        <is>
-          <t>et:30263</t>
-        </is>
-      </c>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
       <c r="Q226" t="inlineStr"/>
       <c r="R226" t="inlineStr"/>
       <c r="S226" t="inlineStr"/>
@@ -30972,16 +31008,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>et:30243</t>
+          <t>et:30246</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>area of arable land of catchment</t>
+          <t>mass per area of actual soil erosion in arable land of catchment</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>used to calculate Im-BE; soil loss from arable land is modified by specific actual (2007-2013) R-factor (precipitation intensities and amounts, which are not described by long-year averages)</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
@@ -30995,21 +31035,29 @@
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
-          <t>et:21533</t>
+          <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
+          <t>et:21286</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
           <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
         </is>
       </c>
-      <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P227" t="inlineStr"/>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>et:10314</t>
+        </is>
+      </c>
       <c r="Q227" t="inlineStr"/>
       <c r="R227" t="inlineStr"/>
       <c r="S227" t="inlineStr"/>
@@ -31114,12 +31162,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>et:30244</t>
+          <t>et:30247</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>mass per area per time of soil erosion in arable land of catchment</t>
+          <t>mass per area of actual soil erosion in woodland and forest of catchment</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -31137,7 +31185,7 @@
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
+          <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
@@ -31147,7 +31195,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
+          <t>et:53</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -31155,7 +31203,11 @@
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P228" t="inlineStr"/>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>et:10315</t>
+        </is>
+      </c>
       <c r="Q228" t="inlineStr"/>
       <c r="R228" t="inlineStr"/>
       <c r="S228" t="inlineStr"/>
@@ -31260,20 +31312,16 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>et:30245</t>
+          <t>et:30248</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>correction of R-factor</t>
+          <t>mass per area of actual soil erosion in unvegetated land of catchment</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>used for calculation of Im-BE; Current agricultural soil loss</t>
-        </is>
-      </c>
+      <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
@@ -31287,17 +31335,29 @@
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
-          <t>et:30225</t>
+          <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>et:30224</t>
-        </is>
-      </c>
-      <c r="N229" t="inlineStr"/>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
+          <t>et:21286</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>et:55</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>et:10092</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>et:10315</t>
+        </is>
+      </c>
       <c r="Q229" t="inlineStr"/>
       <c r="R229" t="inlineStr"/>
       <c r="S229" t="inlineStr"/>
@@ -31402,20 +31462,16 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>et:30246</t>
+          <t>et:30249</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>mass per area of actual soil erosion in arable land of catchment</t>
+          <t>mass per area of actual soil erosion in glacier of catchment</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>used to calculate Im-BE; soil loss from arable land is modified by specific actual (2007-2013) R-factor (precipitation intensities and amounts, which are not described by long-year averages)</t>
-        </is>
-      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
@@ -31439,7 +31495,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_01001177</t>
+          <t>http://purl.obolibrary.org/obo/ENVO_00000133</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -31449,7 +31505,7 @@
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>et:10314</t>
+          <t>et:10315</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr"/>
@@ -31556,12 +31612,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>et:30247</t>
+          <t>et:30250</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>mass per area of actual soil erosion in woodland and forest of catchment</t>
+          <t>mass per area of actual soil erosion of catchment</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -31587,11 +31643,7 @@
           <t>et:21286</t>
         </is>
       </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>et:53</t>
-        </is>
-      </c>
+      <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
           <t>et:10092</t>
@@ -31706,16 +31758,20 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>et:30248</t>
+          <t>et:30251</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>mass per area of actual soil erosion in unvegetated land of catchment</t>
+          <t>portion of soil erosion in sediment of catchment</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Share of eroded sediment (soil loss) that is transported to the surface water (depends on slope, distance from Surface water, soil texture)</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
@@ -31729,7 +31785,7 @@
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
+          <t>et:30207</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -31739,7 +31795,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>et:55</t>
+          <t>et:20899</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -31747,11 +31803,7 @@
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P232" t="inlineStr">
-        <is>
-          <t>et:10315</t>
-        </is>
-      </c>
+      <c r="P232" t="inlineStr"/>
       <c r="Q232" t="inlineStr"/>
       <c r="R232" t="inlineStr"/>
       <c r="S232" t="inlineStr"/>
@@ -31856,16 +31908,20 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>et:30249</t>
+          <t>et:30252</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>mass per area of actual soil erosion in glacier of catchment</t>
+          <t>mass per area of soil erosion in sediment of catchment</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Amount of soils, which enter the surface water</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
@@ -31889,7 +31945,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_00000133</t>
+          <t>et:20899</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -31897,11 +31953,7 @@
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P233" t="inlineStr">
-        <is>
-          <t>et:10315</t>
-        </is>
-      </c>
+      <c r="P233" t="inlineStr"/>
       <c r="Q233" t="inlineStr"/>
       <c r="R233" t="inlineStr"/>
       <c r="S233" t="inlineStr"/>
@@ -32006,12 +32058,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>et:30250</t>
+          <t>et:30253</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>mass per area of actual soil erosion of catchment</t>
+          <t>content of clay in topsoil of catchment</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -32029,25 +32081,25 @@
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
+          <t>et:21546</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>et:21286</t>
-        </is>
-      </c>
-      <c r="N234" t="inlineStr"/>
+          <t>http://purl.obolibrary.org/obo/ENVO_00002982</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>http://sweetontology.net/realmSoil/Topsoil</t>
+        </is>
+      </c>
       <c r="O234" t="inlineStr">
         <is>
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P234" t="inlineStr">
-        <is>
-          <t>et:10315</t>
-        </is>
-      </c>
+      <c r="P234" t="inlineStr"/>
       <c r="Q234" t="inlineStr"/>
       <c r="R234" t="inlineStr"/>
       <c r="S234" t="inlineStr"/>
@@ -32152,20 +32204,16 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>et:30251</t>
+          <t>et:30254</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>portion of soil erosion in sediment of catchment</t>
+          <t>content of basis total phosphorus in agricultural topsoil of catchment</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Share of eroded sediment (soil loss) that is transported to the surface water (depends on slope, distance from Surface water, soil texture)</t>
-        </is>
-      </c>
+      <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
@@ -32179,17 +32227,17 @@
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
-          <t>et:30207</t>
+          <t>et:21546</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>et:21286</t>
+          <t>et:20863</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>et:20899</t>
+          <t>http://sweetontology.net/realmSoil/Topsoil</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -32197,7 +32245,11 @@
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P235" t="inlineStr"/>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>et:21873</t>
+        </is>
+      </c>
       <c r="Q235" t="inlineStr"/>
       <c r="R235" t="inlineStr"/>
       <c r="S235" t="inlineStr"/>
@@ -32302,20 +32354,16 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>et:30252</t>
+          <t>et:30255</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>mass per area of soil erosion in sediment of catchment</t>
+          <t>content of total phosphorus in agricultural topsoil of catchment</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Amount of soils, which enter the surface water</t>
-        </is>
-      </c>
+      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
@@ -32329,17 +32377,17 @@
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
+          <t>et:21546</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>et:21286</t>
+          <t>et:20863</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>et:20899</t>
+          <t>http://sweetontology.net/realmSoil/Topsoil</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -32347,7 +32395,11 @@
           <t>et:10092</t>
         </is>
       </c>
-      <c r="P236" t="inlineStr"/>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>et:21873</t>
+        </is>
+      </c>
       <c r="Q236" t="inlineStr"/>
       <c r="R236" t="inlineStr"/>
       <c r="S236" t="inlineStr"/>
@@ -32452,12 +32504,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>et:30253</t>
+          <t>et:30256</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>content of clay in topsoil of catchment</t>
+          <t>enrichment ratio of total phosphorus in catchment</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -32475,19 +32527,15 @@
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
-          <t>et:21546</t>
+          <t>et:30226</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_00002982</t>
-        </is>
-      </c>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>http://sweetontology.net/realmSoil/Topsoil</t>
-        </is>
-      </c>
+          <t>et:20863</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
           <t>et:10092</t>
@@ -32598,12 +32646,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>et:30254</t>
+          <t>et:30257</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>content of basis total phosphorus in agricultural topsoil of catchment</t>
+          <t>mass per area of agricultural soil erosion in sediment of catchment</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -32621,17 +32669,17 @@
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
-          <t>et:21546</t>
+          <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>et:20863</t>
+          <t>et:21286</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>http://sweetontology.net/realmSoil/Topsoil</t>
+          <t>et:20899</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -32748,12 +32796,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>et:30255</t>
+          <t>et:30258</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>content of total phosphorus in agricultural topsoil of catchment</t>
+          <t>mass per area of natural soil erosion in sediment of catchment</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -32771,17 +32819,17 @@
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
-          <t>et:21546</t>
+          <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>et:20863</t>
+          <t>et:21286</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>http://sweetontology.net/realmSoil/Topsoil</t>
+          <t>et:20899</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -32791,7 +32839,7 @@
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>et:21873</t>
+          <t>et:30227</t>
         </is>
       </c>
       <c r="Q239" t="inlineStr"/>
@@ -32898,12 +32946,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>et:30256</t>
+          <t>et:30259</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>enrichment ratio of total phosphorus in catchment</t>
+          <t>emission of total phosphorus from agricultural soil erosion</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -32921,7 +32969,7 @@
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
-          <t>et:30226</t>
+          <t>et:21934</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
@@ -32932,10 +32980,14 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>et:10092</t>
-        </is>
-      </c>
-      <c r="P240" t="inlineStr"/>
+          <t>et:21286</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>et:21873</t>
+        </is>
+      </c>
       <c r="Q240" t="inlineStr"/>
       <c r="R240" t="inlineStr"/>
       <c r="S240" t="inlineStr"/>
@@ -33040,12 +33092,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>et:30257</t>
+          <t>et:30260</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>mass per area of agricultural soil erosion in sediment of catchment</t>
+          <t>emission of total phosphorus from natural soil erosion</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -33063,27 +33115,23 @@
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
+          <t>et:21934</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
         <is>
+          <t>et:20863</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr"/>
+      <c r="O241" t="inlineStr">
+        <is>
           <t>et:21286</t>
         </is>
       </c>
-      <c r="N241" t="inlineStr">
-        <is>
-          <t>et:20899</t>
-        </is>
-      </c>
-      <c r="O241" t="inlineStr">
-        <is>
-          <t>et:10092</t>
-        </is>
-      </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>et:21873</t>
+          <t>et:30227</t>
         </is>
       </c>
       <c r="Q241" t="inlineStr"/>
@@ -33190,12 +33238,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>et:30258</t>
+          <t>et:30261</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>mass per area of natural soil erosion in sediment of catchment</t>
+          <t>emission of total phosphorus from diffuse sources</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -33213,29 +33261,21 @@
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/quantitykind/MassPerArea</t>
+          <t>et:21934</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>et:21286</t>
-        </is>
-      </c>
-      <c r="N242" t="inlineStr">
-        <is>
-          <t>et:20899</t>
-        </is>
-      </c>
+          <t>et:20863</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>et:10092</t>
-        </is>
-      </c>
-      <c r="P242" t="inlineStr">
-        <is>
-          <t>et:30227</t>
-        </is>
-      </c>
+          <t>et:30228</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr"/>
       <c r="Q242" t="inlineStr"/>
       <c r="R242" t="inlineStr"/>
       <c r="S242" t="inlineStr"/>
@@ -33340,12 +33380,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>et:30259</t>
+          <t>et:30262</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>emission of total phosphorus from agricultural soil erosion</t>
+          <t>total emission of total phosphorus</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -33372,16 +33412,8 @@
         </is>
       </c>
       <c r="N243" t="inlineStr"/>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>et:21286</t>
-        </is>
-      </c>
-      <c r="P243" t="inlineStr">
-        <is>
-          <t>et:21873</t>
-        </is>
-      </c>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr"/>
       <c r="Q243" t="inlineStr"/>
       <c r="R243" t="inlineStr"/>
       <c r="S243" t="inlineStr"/>
@@ -33462,7 +33494,7 @@
       </c>
       <c r="CI243" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ243" t="inlineStr"/>
@@ -33486,48 +33518,44 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>et:30260</t>
+          <t>cl:10188</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>emission of total phosphorus from natural soil erosion</t>
+          <t>EPSG:31287</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>MGI / Austria Lambert</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>https://epsg.io/31287</t>
+        </is>
+      </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>et:20935,cl:10187</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr"/>
+          <t>cl:10004</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>https://epsg.io/31287</t>
+        </is>
+      </c>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>et:21934</t>
-        </is>
-      </c>
-      <c r="M244" t="inlineStr">
-        <is>
-          <t>et:20863</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr"/>
-      <c r="O244" t="inlineStr">
-        <is>
-          <t>et:21286</t>
-        </is>
-      </c>
-      <c r="P244" t="inlineStr">
-        <is>
-          <t>et:30227</t>
-        </is>
-      </c>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
       <c r="Q244" t="inlineStr"/>
       <c r="R244" t="inlineStr"/>
       <c r="S244" t="inlineStr"/>
@@ -33632,43 +33660,27 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>et:30261</t>
+          <t>cl:10189</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>emission of total phosphorus from diffuse sources</t>
+          <t>MONERIS keyword</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>et:20935,cl:10187</t>
-        </is>
-      </c>
+      <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>et:21934</t>
-        </is>
-      </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>et:20863</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr"/>
-      <c r="O245" t="inlineStr">
-        <is>
-          <t>et:30228</t>
-        </is>
-      </c>
+      <c r="O245" t="inlineStr"/>
       <c r="P245" t="inlineStr"/>
       <c r="Q245" t="inlineStr"/>
       <c r="R245" t="inlineStr"/>
@@ -33774,37 +33786,37 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>et:30262</t>
+          <t>et:21747</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>total emission of total phosphorus</t>
+          <t>hydrology</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>[GEMET] The science that treats the occurrence, circulation, distribution, and properties of the waters of the earth, and their reaction with the environment.</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
         <is>
-          <t>et:20935,cl:10187</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr"/>
+          <t>et:30031,cl:10189</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>http://eurovoc.europa.eu/1278, http://en.wikipedia.org/wiki/hydrology, http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/84830, http://aims.fao.org/aos/agrovoc/c_3731, https://vocab.lternet.edu/vocab/vocab/?tema=259, http://www.eionet.europa.eu/gemet/concept/4118</t>
+        </is>
+      </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>et:21934</t>
-        </is>
-      </c>
-      <c r="M246" t="inlineStr">
-        <is>
-          <t>et:20863</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr"/>
@@ -33814,34 +33826,130 @@
       <c r="T246" t="inlineStr"/>
       <c r="U246" t="inlineStr"/>
       <c r="V246" t="inlineStr"/>
-      <c r="W246" t="inlineStr"/>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
       <c r="X246" t="inlineStr"/>
       <c r="Y246" t="inlineStr"/>
       <c r="Z246" t="inlineStr"/>
-      <c r="AA246" t="inlineStr"/>
-      <c r="AB246" t="inlineStr"/>
-      <c r="AC246" t="inlineStr"/>
-      <c r="AD246" t="inlineStr"/>
-      <c r="AE246" t="inlineStr"/>
-      <c r="AF246" t="inlineStr"/>
-      <c r="AG246" t="inlineStr"/>
-      <c r="AH246" t="inlineStr"/>
-      <c r="AI246" t="inlineStr"/>
-      <c r="AJ246" t="inlineStr"/>
-      <c r="AK246" t="inlineStr"/>
-      <c r="AL246" t="inlineStr"/>
-      <c r="AM246" t="inlineStr"/>
+      <c r="AA246" t="inlineStr">
+        <is>
+          <t>Hydrologie</t>
+        </is>
+      </c>
+      <c r="AB246" t="inlineStr">
+        <is>
+          <t>الهيدرولوجيا - علم المياه</t>
+        </is>
+      </c>
+      <c r="AC246" t="inlineStr">
+        <is>
+          <t>Хидрология</t>
+        </is>
+      </c>
+      <c r="AD246" t="inlineStr">
+        <is>
+          <t>hydrologie</t>
+        </is>
+      </c>
+      <c r="AE246" t="inlineStr">
+        <is>
+          <t>hydrologi</t>
+        </is>
+      </c>
+      <c r="AF246" t="inlineStr">
+        <is>
+          <t>υδρολογία</t>
+        </is>
+      </c>
+      <c r="AG246" t="inlineStr">
+        <is>
+          <t>hidrología</t>
+        </is>
+      </c>
+      <c r="AH246" t="inlineStr">
+        <is>
+          <t>hüdroloogia</t>
+        </is>
+      </c>
+      <c r="AI246" t="inlineStr">
+        <is>
+          <t>vesitiede, hydrologia</t>
+        </is>
+      </c>
+      <c r="AJ246" t="inlineStr">
+        <is>
+          <t>hydrologie</t>
+        </is>
+      </c>
+      <c r="AK246" t="inlineStr">
+        <is>
+          <t>hidrologija</t>
+        </is>
+      </c>
+      <c r="AL246" t="inlineStr">
+        <is>
+          <t>hidrológia</t>
+        </is>
+      </c>
+      <c r="AM246" t="inlineStr">
+        <is>
+          <t>idrologia</t>
+        </is>
+      </c>
       <c r="AN246" t="inlineStr"/>
-      <c r="AO246" t="inlineStr"/>
-      <c r="AP246" t="inlineStr"/>
-      <c r="AQ246" t="inlineStr"/>
-      <c r="AR246" t="inlineStr"/>
-      <c r="AS246" t="inlineStr"/>
-      <c r="AT246" t="inlineStr"/>
-      <c r="AU246" t="inlineStr"/>
-      <c r="AV246" t="inlineStr"/>
-      <c r="AW246" t="inlineStr"/>
-      <c r="AX246" t="inlineStr"/>
+      <c r="AO246" t="inlineStr">
+        <is>
+          <t>hidrologija</t>
+        </is>
+      </c>
+      <c r="AP246" t="inlineStr">
+        <is>
+          <t>hidroloģija</t>
+        </is>
+      </c>
+      <c r="AQ246" t="inlineStr">
+        <is>
+          <t>hydrologie</t>
+        </is>
+      </c>
+      <c r="AR246" t="inlineStr">
+        <is>
+          <t>hydrologi</t>
+        </is>
+      </c>
+      <c r="AS246" t="inlineStr">
+        <is>
+          <t>hydrologia</t>
+        </is>
+      </c>
+      <c r="AT246" t="inlineStr">
+        <is>
+          <t>hidrologia</t>
+        </is>
+      </c>
+      <c r="AU246" t="inlineStr">
+        <is>
+          <t>hidrologie</t>
+        </is>
+      </c>
+      <c r="AV246" t="inlineStr">
+        <is>
+          <t>hydrológia</t>
+        </is>
+      </c>
+      <c r="AW246" t="inlineStr">
+        <is>
+          <t>hidrologija</t>
+        </is>
+      </c>
+      <c r="AX246" t="inlineStr">
+        <is>
+          <t>hydrologi</t>
+        </is>
+      </c>
       <c r="AY246" t="inlineStr"/>
       <c r="AZ246" t="inlineStr"/>
       <c r="BA246" t="inlineStr"/>
@@ -33875,7 +33983,11 @@
       <c r="CC246" t="inlineStr"/>
       <c r="CD246" t="inlineStr"/>
       <c r="CE246" t="inlineStr"/>
-      <c r="CF246" t="inlineStr"/>
+      <c r="CF246" t="inlineStr">
+        <is>
+          <t>2016-03-31T00:00:00Z</t>
+        </is>
+      </c>
       <c r="CG246" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -33883,12 +33995,12 @@
       </c>
       <c r="CH246" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>herbert.schentz@umweltbundesamt.at</t>
         </is>
       </c>
       <c r="CI246" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ246" t="inlineStr"/>
@@ -33912,36 +34024,32 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>cl:10188</t>
+          <t>et:29</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>EPSG:31287</t>
+          <t>morphology</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
-          <t>MGI / Austria Lambert</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>https://epsg.io/31287</t>
-        </is>
-      </c>
+          <t>[Henderson's] n. (1) the form and structure of an organism; (2) the study of form and structure.</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr">
         <is>
-          <t>cl:10004</t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>https://epsg.io/31287</t>
-        </is>
-      </c>
+          <t>et:30031,cl:10189</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>https://vocab.lternet.edu/vocab/vocab/?tema=352, http://www.eionet.europa.eu/gemet/concept/5369</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
@@ -33960,30 +34068,122 @@
       <c r="X247" t="inlineStr"/>
       <c r="Y247" t="inlineStr"/>
       <c r="Z247" t="inlineStr"/>
-      <c r="AA247" t="inlineStr"/>
-      <c r="AB247" t="inlineStr"/>
-      <c r="AC247" t="inlineStr"/>
-      <c r="AD247" t="inlineStr"/>
-      <c r="AE247" t="inlineStr"/>
-      <c r="AF247" t="inlineStr"/>
-      <c r="AG247" t="inlineStr"/>
-      <c r="AH247" t="inlineStr"/>
-      <c r="AI247" t="inlineStr"/>
-      <c r="AJ247" t="inlineStr"/>
-      <c r="AK247" t="inlineStr"/>
-      <c r="AL247" t="inlineStr"/>
-      <c r="AM247" t="inlineStr"/>
+      <c r="AA247" t="inlineStr">
+        <is>
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="AB247" t="inlineStr">
+        <is>
+          <t>المورفولوجيا</t>
+        </is>
+      </c>
+      <c r="AC247" t="inlineStr">
+        <is>
+          <t>Прахова емисия</t>
+        </is>
+      </c>
+      <c r="AD247" t="inlineStr">
+        <is>
+          <t>morfologie</t>
+        </is>
+      </c>
+      <c r="AE247" t="inlineStr">
+        <is>
+          <t>morfologi (biol.)</t>
+        </is>
+      </c>
+      <c r="AF247" t="inlineStr">
+        <is>
+          <t>μορφολογία</t>
+        </is>
+      </c>
+      <c r="AG247" t="inlineStr">
+        <is>
+          <t>morfología (biológica)</t>
+        </is>
+      </c>
+      <c r="AH247" t="inlineStr">
+        <is>
+          <t>morfoloogia, kujuõpetus</t>
+        </is>
+      </c>
+      <c r="AI247" t="inlineStr">
+        <is>
+          <t>morfologia, muoto-oppi</t>
+        </is>
+      </c>
+      <c r="AJ247" t="inlineStr">
+        <is>
+          <t>morphologie</t>
+        </is>
+      </c>
+      <c r="AK247" t="inlineStr">
+        <is>
+          <t>morfologija</t>
+        </is>
+      </c>
+      <c r="AL247" t="inlineStr">
+        <is>
+          <t>morfológia</t>
+        </is>
+      </c>
+      <c r="AM247" t="inlineStr">
+        <is>
+          <t>morfologia (biologica)</t>
+        </is>
+      </c>
       <c r="AN247" t="inlineStr"/>
-      <c r="AO247" t="inlineStr"/>
-      <c r="AP247" t="inlineStr"/>
-      <c r="AQ247" t="inlineStr"/>
-      <c r="AR247" t="inlineStr"/>
-      <c r="AS247" t="inlineStr"/>
-      <c r="AT247" t="inlineStr"/>
-      <c r="AU247" t="inlineStr"/>
-      <c r="AV247" t="inlineStr"/>
-      <c r="AW247" t="inlineStr"/>
-      <c r="AX247" t="inlineStr"/>
+      <c r="AO247" t="inlineStr">
+        <is>
+          <t>morfologija</t>
+        </is>
+      </c>
+      <c r="AP247" t="inlineStr">
+        <is>
+          <t>morfoloģija</t>
+        </is>
+      </c>
+      <c r="AQ247" t="inlineStr">
+        <is>
+          <t>morfologie</t>
+        </is>
+      </c>
+      <c r="AR247" t="inlineStr">
+        <is>
+          <t>morfologi</t>
+        </is>
+      </c>
+      <c r="AS247" t="inlineStr">
+        <is>
+          <t>morfologia</t>
+        </is>
+      </c>
+      <c r="AT247" t="inlineStr">
+        <is>
+          <t>morfologia</t>
+        </is>
+      </c>
+      <c r="AU247" t="inlineStr">
+        <is>
+          <t>morfologie</t>
+        </is>
+      </c>
+      <c r="AV247" t="inlineStr">
+        <is>
+          <t>morfológia</t>
+        </is>
+      </c>
+      <c r="AW247" t="inlineStr">
+        <is>
+          <t>morfologija</t>
+        </is>
+      </c>
+      <c r="AX247" t="inlineStr">
+        <is>
+          <t>morfologi</t>
+        </is>
+      </c>
       <c r="AY247" t="inlineStr"/>
       <c r="AZ247" t="inlineStr"/>
       <c r="BA247" t="inlineStr"/>
@@ -34017,7 +34217,11 @@
       <c r="CC247" t="inlineStr"/>
       <c r="CD247" t="inlineStr"/>
       <c r="CE247" t="inlineStr"/>
-      <c r="CF247" t="inlineStr"/>
+      <c r="CF247" t="inlineStr">
+        <is>
+          <t>2013-02-14T15:32:15Z</t>
+        </is>
+      </c>
       <c r="CG247" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -34025,7 +34229,7 @@
       </c>
       <c r="CH247" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>herbert.schentz@umweltbundesamt.at</t>
         </is>
       </c>
       <c r="CI247" t="inlineStr">
@@ -34054,19 +34258,31 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>cl:10189</t>
+          <t>et:20117</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MONERIS keyword</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>[GEMET] A detailed list of articles, goods, property, etc.</t>
+        </is>
+      </c>
       <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>et:20118,cl:10189</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/105240, http://www.eionet.europa.eu/gemet/concept/4466, https://vocab.lternet.edu/vocab/vocab/?tema=270</t>
+        </is>
+      </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -34143,7 +34359,11 @@
       <c r="CC248" t="inlineStr"/>
       <c r="CD248" t="inlineStr"/>
       <c r="CE248" t="inlineStr"/>
-      <c r="CF248" t="inlineStr"/>
+      <c r="CF248" t="inlineStr">
+        <is>
+          <t>2016-03-31T00:00:00Z</t>
+        </is>
+      </c>
       <c r="CG248" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -34151,7 +34371,7 @@
       </c>
       <c r="CH248" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>herbert.schentz@umweltbundesamt.at</t>
         </is>
       </c>
       <c r="CI248" t="inlineStr">
@@ -34180,32 +34400,24 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>et:21747</t>
+          <t>et:30264</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>hydrology</t>
+          <t>surface water</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>[GEMET] The science that treats the occurrence, circulation, distribution, and properties of the waters of the earth, and their reaction with the environment.</t>
-        </is>
-      </c>
+      <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr">
         <is>
-          <t>et:30031,cl:10189</t>
+          <t>et:20538,cl:10189</t>
         </is>
       </c>
       <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>http://eurovoc.europa.eu/1278, http://en.wikipedia.org/wiki/hydrology, http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/84830, http://aims.fao.org/aos/agrovoc/c_3731, https://vocab.lternet.edu/vocab/vocab/?tema=259, http://www.eionet.europa.eu/gemet/concept/4118</t>
-        </is>
-      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
@@ -34214,141 +34426,41 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr"/>
-      <c r="Q249" t="inlineStr">
-        <is>
-          <t>[controlled by ] Lars Lundin 20130611</t>
-        </is>
-      </c>
+      <c r="Q249" t="inlineStr"/>
       <c r="R249" t="inlineStr"/>
       <c r="S249" t="inlineStr"/>
       <c r="T249" t="inlineStr"/>
       <c r="U249" t="inlineStr"/>
       <c r="V249" t="inlineStr"/>
       <c r="W249" t="inlineStr"/>
-      <c r="X249" t="inlineStr">
-        <is>
-          <t>US LTER controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="X249" t="inlineStr"/>
       <c r="Y249" t="inlineStr"/>
       <c r="Z249" t="inlineStr"/>
       <c r="AA249" t="inlineStr"/>
-      <c r="AB249" t="inlineStr">
-        <is>
-          <t>Hydrologie</t>
-        </is>
-      </c>
-      <c r="AC249" t="inlineStr">
-        <is>
-          <t>الهيدرولوجيا - علم المياه</t>
-        </is>
-      </c>
-      <c r="AD249" t="inlineStr">
-        <is>
-          <t>Хидрология</t>
-        </is>
-      </c>
-      <c r="AE249" t="inlineStr">
-        <is>
-          <t>hydrologie</t>
-        </is>
-      </c>
-      <c r="AF249" t="inlineStr">
-        <is>
-          <t>hydrologi</t>
-        </is>
-      </c>
-      <c r="AG249" t="inlineStr">
-        <is>
-          <t>υδρολογία</t>
-        </is>
-      </c>
-      <c r="AH249" t="inlineStr">
-        <is>
-          <t>hidrología</t>
-        </is>
-      </c>
-      <c r="AI249" t="inlineStr">
-        <is>
-          <t>hüdroloogia</t>
-        </is>
-      </c>
-      <c r="AJ249" t="inlineStr">
-        <is>
-          <t>vesitiede, hydrologia</t>
-        </is>
-      </c>
-      <c r="AK249" t="inlineStr">
-        <is>
-          <t>hydrologie</t>
-        </is>
-      </c>
-      <c r="AL249" t="inlineStr">
-        <is>
-          <t>hidrologija</t>
-        </is>
-      </c>
-      <c r="AM249" t="inlineStr">
-        <is>
-          <t>hidrológia</t>
-        </is>
-      </c>
-      <c r="AN249" t="inlineStr">
-        <is>
-          <t>idrologia</t>
-        </is>
-      </c>
+      <c r="AB249" t="inlineStr"/>
+      <c r="AC249" t="inlineStr"/>
+      <c r="AD249" t="inlineStr"/>
+      <c r="AE249" t="inlineStr"/>
+      <c r="AF249" t="inlineStr"/>
+      <c r="AG249" t="inlineStr"/>
+      <c r="AH249" t="inlineStr"/>
+      <c r="AI249" t="inlineStr"/>
+      <c r="AJ249" t="inlineStr"/>
+      <c r="AK249" t="inlineStr"/>
+      <c r="AL249" t="inlineStr"/>
+      <c r="AM249" t="inlineStr"/>
+      <c r="AN249" t="inlineStr"/>
       <c r="AO249" t="inlineStr"/>
-      <c r="AP249" t="inlineStr">
-        <is>
-          <t>hidrologija</t>
-        </is>
-      </c>
-      <c r="AQ249" t="inlineStr">
-        <is>
-          <t>hidroloģija</t>
-        </is>
-      </c>
-      <c r="AR249" t="inlineStr">
-        <is>
-          <t>hydrologie</t>
-        </is>
-      </c>
-      <c r="AS249" t="inlineStr">
-        <is>
-          <t>hydrologi</t>
-        </is>
-      </c>
-      <c r="AT249" t="inlineStr">
-        <is>
-          <t>hydrologia</t>
-        </is>
-      </c>
-      <c r="AU249" t="inlineStr">
-        <is>
-          <t>hidrologia</t>
-        </is>
-      </c>
-      <c r="AV249" t="inlineStr">
-        <is>
-          <t>hidrologie</t>
-        </is>
-      </c>
-      <c r="AW249" t="inlineStr">
-        <is>
-          <t>hydrológia</t>
-        </is>
-      </c>
-      <c r="AX249" t="inlineStr">
-        <is>
-          <t>hidrologija</t>
-        </is>
-      </c>
-      <c r="AY249" t="inlineStr">
-        <is>
-          <t>hydrologi</t>
-        </is>
-      </c>
+      <c r="AP249" t="inlineStr"/>
+      <c r="AQ249" t="inlineStr"/>
+      <c r="AR249" t="inlineStr"/>
+      <c r="AS249" t="inlineStr"/>
+      <c r="AT249" t="inlineStr"/>
+      <c r="AU249" t="inlineStr"/>
+      <c r="AV249" t="inlineStr"/>
+      <c r="AW249" t="inlineStr"/>
+      <c r="AX249" t="inlineStr"/>
+      <c r="AY249" t="inlineStr"/>
       <c r="AZ249" t="inlineStr"/>
       <c r="BA249" t="inlineStr"/>
       <c r="BB249" t="inlineStr"/>
@@ -34381,11 +34493,7 @@
       <c r="CC249" t="inlineStr"/>
       <c r="CD249" t="inlineStr"/>
       <c r="CE249" t="inlineStr"/>
-      <c r="CF249" t="inlineStr">
-        <is>
-          <t>2016-03-31T00:00:00Z</t>
-        </is>
-      </c>
+      <c r="CF249" t="inlineStr"/>
       <c r="CG249" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -34393,7 +34501,7 @@
       </c>
       <c r="CH249" t="inlineStr">
         <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
+          <t>0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="CI249" t="inlineStr">
@@ -34422,32 +34530,24 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>et:29</t>
+          <t>cl:10190</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>morphology</t>
+          <t>measurement</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>[Henderson's] n. (1) the form and structure of an organism; (2) the study of form and structure.</t>
-        </is>
-      </c>
+      <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
         <is>
-          <t>et:30031,cl:10189</t>
+          <t>cl:10189,cl:10189</t>
         </is>
       </c>
       <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>https://vocab.lternet.edu/vocab/vocab/?tema=352, http://www.eionet.europa.eu/gemet/concept/5369</t>
-        </is>
-      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
@@ -34456,11 +34556,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr"/>
-      <c r="Q250" t="inlineStr">
-        <is>
-          <t>[controlled by ] Mark Frenzel, 22 May 2013</t>
-        </is>
-      </c>
+      <c r="Q250" t="inlineStr"/>
       <c r="R250" t="inlineStr"/>
       <c r="S250" t="inlineStr"/>
       <c r="T250" t="inlineStr"/>
@@ -34471,122 +34567,30 @@
       <c r="Y250" t="inlineStr"/>
       <c r="Z250" t="inlineStr"/>
       <c r="AA250" t="inlineStr"/>
-      <c r="AB250" t="inlineStr">
-        <is>
-          <t>Morphologie</t>
-        </is>
-      </c>
-      <c r="AC250" t="inlineStr">
-        <is>
-          <t>المورفولوجيا</t>
-        </is>
-      </c>
-      <c r="AD250" t="inlineStr">
-        <is>
-          <t>Прахова емисия</t>
-        </is>
-      </c>
-      <c r="AE250" t="inlineStr">
-        <is>
-          <t>morfologie</t>
-        </is>
-      </c>
-      <c r="AF250" t="inlineStr">
-        <is>
-          <t>morfologi (biol.)</t>
-        </is>
-      </c>
-      <c r="AG250" t="inlineStr">
-        <is>
-          <t>μορφολογία</t>
-        </is>
-      </c>
-      <c r="AH250" t="inlineStr">
-        <is>
-          <t>morfología (biológica)</t>
-        </is>
-      </c>
-      <c r="AI250" t="inlineStr">
-        <is>
-          <t>morfoloogia, kujuõpetus</t>
-        </is>
-      </c>
-      <c r="AJ250" t="inlineStr">
-        <is>
-          <t>morfologia, muoto-oppi</t>
-        </is>
-      </c>
-      <c r="AK250" t="inlineStr">
-        <is>
-          <t>morphologie</t>
-        </is>
-      </c>
-      <c r="AL250" t="inlineStr">
-        <is>
-          <t>morfologija</t>
-        </is>
-      </c>
-      <c r="AM250" t="inlineStr">
-        <is>
-          <t>morfológia</t>
-        </is>
-      </c>
-      <c r="AN250" t="inlineStr">
-        <is>
-          <t>morfologia (biologica)</t>
-        </is>
-      </c>
+      <c r="AB250" t="inlineStr"/>
+      <c r="AC250" t="inlineStr"/>
+      <c r="AD250" t="inlineStr"/>
+      <c r="AE250" t="inlineStr"/>
+      <c r="AF250" t="inlineStr"/>
+      <c r="AG250" t="inlineStr"/>
+      <c r="AH250" t="inlineStr"/>
+      <c r="AI250" t="inlineStr"/>
+      <c r="AJ250" t="inlineStr"/>
+      <c r="AK250" t="inlineStr"/>
+      <c r="AL250" t="inlineStr"/>
+      <c r="AM250" t="inlineStr"/>
+      <c r="AN250" t="inlineStr"/>
       <c r="AO250" t="inlineStr"/>
-      <c r="AP250" t="inlineStr">
-        <is>
-          <t>morfologija</t>
-        </is>
-      </c>
-      <c r="AQ250" t="inlineStr">
-        <is>
-          <t>morfoloģija</t>
-        </is>
-      </c>
-      <c r="AR250" t="inlineStr">
-        <is>
-          <t>morfologie</t>
-        </is>
-      </c>
-      <c r="AS250" t="inlineStr">
-        <is>
-          <t>morfologi</t>
-        </is>
-      </c>
-      <c r="AT250" t="inlineStr">
-        <is>
-          <t>morfologia</t>
-        </is>
-      </c>
-      <c r="AU250" t="inlineStr">
-        <is>
-          <t>morfologia</t>
-        </is>
-      </c>
-      <c r="AV250" t="inlineStr">
-        <is>
-          <t>morfologie</t>
-        </is>
-      </c>
-      <c r="AW250" t="inlineStr">
-        <is>
-          <t>morfológia</t>
-        </is>
-      </c>
-      <c r="AX250" t="inlineStr">
-        <is>
-          <t>morfologija</t>
-        </is>
-      </c>
-      <c r="AY250" t="inlineStr">
-        <is>
-          <t>morfologi</t>
-        </is>
-      </c>
+      <c r="AP250" t="inlineStr"/>
+      <c r="AQ250" t="inlineStr"/>
+      <c r="AR250" t="inlineStr"/>
+      <c r="AS250" t="inlineStr"/>
+      <c r="AT250" t="inlineStr"/>
+      <c r="AU250" t="inlineStr"/>
+      <c r="AV250" t="inlineStr"/>
+      <c r="AW250" t="inlineStr"/>
+      <c r="AX250" t="inlineStr"/>
+      <c r="AY250" t="inlineStr"/>
       <c r="AZ250" t="inlineStr"/>
       <c r="BA250" t="inlineStr"/>
       <c r="BB250" t="inlineStr"/>
@@ -34619,11 +34623,7 @@
       <c r="CC250" t="inlineStr"/>
       <c r="CD250" t="inlineStr"/>
       <c r="CE250" t="inlineStr"/>
-      <c r="CF250" t="inlineStr">
-        <is>
-          <t>2013-02-14T15:32:15Z</t>
-        </is>
-      </c>
+      <c r="CF250" t="inlineStr"/>
       <c r="CG250" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -34631,7 +34631,7 @@
       </c>
       <c r="CH250" t="inlineStr">
         <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
+          <t>0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="CI250" t="inlineStr">
@@ -34660,32 +34660,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>et:20117</t>
+          <t>cl:10191</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>GIS data</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>[GEMET] A detailed list of articles, goods, property, etc.</t>
-        </is>
-      </c>
+      <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr">
         <is>
-          <t>et:20118,cl:10189</t>
+          <t>cl:10189,cl:10189</t>
         </is>
       </c>
       <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/105240, http://www.eionet.europa.eu/gemet/concept/4466, https://vocab.lternet.edu/vocab/vocab/?tema=270</t>
-        </is>
-      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
@@ -34694,11 +34686,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
       <c r="P251" t="inlineStr"/>
-      <c r="Q251" t="inlineStr">
-        <is>
-          <t>[controlled by ] U Grandin, 2013-08-22</t>
-        </is>
-      </c>
+      <c r="Q251" t="inlineStr"/>
       <c r="R251" t="inlineStr"/>
       <c r="S251" t="inlineStr"/>
       <c r="T251" t="inlineStr"/>
@@ -34765,11 +34753,7 @@
       <c r="CC251" t="inlineStr"/>
       <c r="CD251" t="inlineStr"/>
       <c r="CE251" t="inlineStr"/>
-      <c r="CF251" t="inlineStr">
-        <is>
-          <t>2016-03-31T00:00:00Z</t>
-        </is>
-      </c>
+      <c r="CF251" t="inlineStr"/>
       <c r="CG251" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -34777,7 +34761,7 @@
       </c>
       <c r="CH251" t="inlineStr">
         <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
+          <t>0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="CI251" t="inlineStr">
@@ -34806,23 +34790,31 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>et:30264</t>
+          <t>et:21285</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>surface water</t>
+          <t>erosion</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>[GEMET] The general process or the group of processes whereby the materials of Earth's crust are loosened , dissolved, or worn away and simultaneously moved from one place to another, by natural agencies, which include weathering, solution, corrosion, and transportation, but usually exclude mass wasting.</t>
+        </is>
+      </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>et:20538,cl:10189</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr"/>
+          <t>et:20950,cl:10189</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>http://eurovoc.europa.eu/3158, http://purl.obolibrary.org/obo/ENVO_01001346, http://aims.fao.org/aos/agrovoc/c_2651, https://vocab.lternet.edu/vocab/vocab/?tema=181, http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/14240, http://en.wikipedia.org/wiki/erosion, http://www.eionet.europa.eu/gemet/concept/2963</t>
+        </is>
+      </c>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -34838,34 +34830,130 @@
       <c r="T252" t="inlineStr"/>
       <c r="U252" t="inlineStr"/>
       <c r="V252" t="inlineStr"/>
-      <c r="W252" t="inlineStr"/>
+      <c r="W252" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
       <c r="X252" t="inlineStr"/>
       <c r="Y252" t="inlineStr"/>
       <c r="Z252" t="inlineStr"/>
-      <c r="AA252" t="inlineStr"/>
-      <c r="AB252" t="inlineStr"/>
-      <c r="AC252" t="inlineStr"/>
-      <c r="AD252" t="inlineStr"/>
-      <c r="AE252" t="inlineStr"/>
-      <c r="AF252" t="inlineStr"/>
-      <c r="AG252" t="inlineStr"/>
-      <c r="AH252" t="inlineStr"/>
-      <c r="AI252" t="inlineStr"/>
-      <c r="AJ252" t="inlineStr"/>
-      <c r="AK252" t="inlineStr"/>
-      <c r="AL252" t="inlineStr"/>
-      <c r="AM252" t="inlineStr"/>
+      <c r="AA252" t="inlineStr">
+        <is>
+          <t>Erosion</t>
+        </is>
+      </c>
+      <c r="AB252" t="inlineStr">
+        <is>
+          <t>تآكل</t>
+        </is>
+      </c>
+      <c r="AC252" t="inlineStr">
+        <is>
+          <t>Ерозия</t>
+        </is>
+      </c>
+      <c r="AD252" t="inlineStr">
+        <is>
+          <t>eroze</t>
+        </is>
+      </c>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t>erosion</t>
+        </is>
+      </c>
+      <c r="AF252" t="inlineStr">
+        <is>
+          <t>διάβρωση</t>
+        </is>
+      </c>
+      <c r="AG252" t="inlineStr">
+        <is>
+          <t>erosión</t>
+        </is>
+      </c>
+      <c r="AH252" t="inlineStr">
+        <is>
+          <t>erosioon, uuristus</t>
+        </is>
+      </c>
+      <c r="AI252" t="inlineStr">
+        <is>
+          <t>eroosio</t>
+        </is>
+      </c>
+      <c r="AJ252" t="inlineStr">
+        <is>
+          <t>érosion</t>
+        </is>
+      </c>
+      <c r="AK252" t="inlineStr">
+        <is>
+          <t>erozija</t>
+        </is>
+      </c>
+      <c r="AL252" t="inlineStr">
+        <is>
+          <t>erózió</t>
+        </is>
+      </c>
+      <c r="AM252" t="inlineStr">
+        <is>
+          <t>erosione</t>
+        </is>
+      </c>
       <c r="AN252" t="inlineStr"/>
-      <c r="AO252" t="inlineStr"/>
-      <c r="AP252" t="inlineStr"/>
-      <c r="AQ252" t="inlineStr"/>
-      <c r="AR252" t="inlineStr"/>
-      <c r="AS252" t="inlineStr"/>
-      <c r="AT252" t="inlineStr"/>
-      <c r="AU252" t="inlineStr"/>
-      <c r="AV252" t="inlineStr"/>
-      <c r="AW252" t="inlineStr"/>
-      <c r="AX252" t="inlineStr"/>
+      <c r="AO252" t="inlineStr">
+        <is>
+          <t>erozija</t>
+        </is>
+      </c>
+      <c r="AP252" t="inlineStr">
+        <is>
+          <t>erozija</t>
+        </is>
+      </c>
+      <c r="AQ252" t="inlineStr">
+        <is>
+          <t>erosie</t>
+        </is>
+      </c>
+      <c r="AR252" t="inlineStr">
+        <is>
+          <t>erosjon</t>
+        </is>
+      </c>
+      <c r="AS252" t="inlineStr">
+        <is>
+          <t>erozja</t>
+        </is>
+      </c>
+      <c r="AT252" t="inlineStr">
+        <is>
+          <t>erosão</t>
+        </is>
+      </c>
+      <c r="AU252" t="inlineStr">
+        <is>
+          <t>eroziune</t>
+        </is>
+      </c>
+      <c r="AV252" t="inlineStr">
+        <is>
+          <t>erózia</t>
+        </is>
+      </c>
+      <c r="AW252" t="inlineStr">
+        <is>
+          <t>erozija</t>
+        </is>
+      </c>
+      <c r="AX252" t="inlineStr">
+        <is>
+          <t>erosion</t>
+        </is>
+      </c>
       <c r="AY252" t="inlineStr"/>
       <c r="AZ252" t="inlineStr"/>
       <c r="BA252" t="inlineStr"/>
@@ -34899,7 +34987,11 @@
       <c r="CC252" t="inlineStr"/>
       <c r="CD252" t="inlineStr"/>
       <c r="CE252" t="inlineStr"/>
-      <c r="CF252" t="inlineStr"/>
+      <c r="CF252" t="inlineStr">
+        <is>
+          <t>2016-03-31T00:00:00Z</t>
+        </is>
+      </c>
       <c r="CG252" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -34907,7 +34999,7 @@
       </c>
       <c r="CH252" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>herbert.schentz@umweltbundesamt.at</t>
         </is>
       </c>
       <c r="CI252" t="inlineStr">
@@ -34936,23 +35028,35 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>cl:10190</t>
+          <t>et:21934</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr"/>
+          <t>emission</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>emissions</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>[GEMET] A discharge of particulate gaseous, or soluble waste material/pollution into the air from a polluting source.</t>
+        </is>
+      </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>cl:10189,cl:10189</t>
-        </is>
-      </c>
-      <c r="G253" t="inlineStr"/>
+          <t>et:20748,cl:10189</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/54480, https://vocab.lternet.edu/vocab/vocab/?tema=178, http://aims.fao.org/aos/agrovoc/c_331377</t>
+        </is>
+      </c>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -34968,7 +35072,11 @@
       <c r="T253" t="inlineStr"/>
       <c r="U253" t="inlineStr"/>
       <c r="V253" t="inlineStr"/>
-      <c r="W253" t="inlineStr"/>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
       <c r="X253" t="inlineStr"/>
       <c r="Y253" t="inlineStr"/>
       <c r="Z253" t="inlineStr"/>
@@ -35028,8 +35136,16 @@
       <c r="CB253" t="inlineStr"/>
       <c r="CC253" t="inlineStr"/>
       <c r="CD253" t="inlineStr"/>
-      <c r="CE253" t="inlineStr"/>
-      <c r="CF253" t="inlineStr"/>
+      <c r="CE253" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
+      <c r="CF253" t="inlineStr">
+        <is>
+          <t>2016-03-31T00:00:00Z</t>
+        </is>
+      </c>
       <c r="CG253" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -35037,7 +35153,7 @@
       </c>
       <c r="CH253" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>herbert.schentz@umweltbundesamt.at</t>
         </is>
       </c>
       <c r="CI253" t="inlineStr">
@@ -35066,23 +35182,35 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>cl:10191</t>
+          <t>et:20854</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>GIS data</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
+          <t>phosphorus</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>[GEMET] A nonmetallic element used to manufacture phosphoric acid, in phosphor bronzes, incendiaries, pyrotechnics, matches, and rat poisons; the white or yellow allotrope is a soft waxy solid, soluble in carbon disulfide, insoluble in water and alcohol, and is poisonous and self-igniting in air; the red allotrope is an amorphous powder, insoluble in all solvents and is nonpoisonous; the black allotrope comprises lustrous crystals similar to graphite, and is insoluble in most solvents.</t>
+        </is>
+      </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
         <is>
-          <t>cl:10189,cl:10189</t>
-        </is>
-      </c>
-      <c r="G254" t="inlineStr"/>
+          <t>et:20748,cl:10189</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/47170, https://vocab.lternet.edu/vocab/vocab/?tema=416, http://eurovoc.europa.eu/2372, http://en.wikipedia.org/wiki/phosphorus, http://www.eionet.europa.eu/gemet/concept/6196, http://aims.fao.org/aos/agrovoc/c_5804</t>
+        </is>
+      </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -35098,34 +35226,130 @@
       <c r="T254" t="inlineStr"/>
       <c r="U254" t="inlineStr"/>
       <c r="V254" t="inlineStr"/>
-      <c r="W254" t="inlineStr"/>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
       <c r="X254" t="inlineStr"/>
       <c r="Y254" t="inlineStr"/>
       <c r="Z254" t="inlineStr"/>
-      <c r="AA254" t="inlineStr"/>
-      <c r="AB254" t="inlineStr"/>
-      <c r="AC254" t="inlineStr"/>
-      <c r="AD254" t="inlineStr"/>
-      <c r="AE254" t="inlineStr"/>
-      <c r="AF254" t="inlineStr"/>
-      <c r="AG254" t="inlineStr"/>
-      <c r="AH254" t="inlineStr"/>
-      <c r="AI254" t="inlineStr"/>
-      <c r="AJ254" t="inlineStr"/>
-      <c r="AK254" t="inlineStr"/>
-      <c r="AL254" t="inlineStr"/>
-      <c r="AM254" t="inlineStr"/>
+      <c r="AA254" t="inlineStr">
+        <is>
+          <t>Phosphor</t>
+        </is>
+      </c>
+      <c r="AB254" t="inlineStr">
+        <is>
+          <t>الفوسفور</t>
+        </is>
+      </c>
+      <c r="AC254" t="inlineStr">
+        <is>
+          <t>Фосфор</t>
+        </is>
+      </c>
+      <c r="AD254" t="inlineStr">
+        <is>
+          <t>fosfor</t>
+        </is>
+      </c>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>fosfor</t>
+        </is>
+      </c>
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>φωσφόρος</t>
+        </is>
+      </c>
+      <c r="AG254" t="inlineStr">
+        <is>
+          <t>fósforo</t>
+        </is>
+      </c>
+      <c r="AH254" t="inlineStr">
+        <is>
+          <t>fosfor</t>
+        </is>
+      </c>
+      <c r="AI254" t="inlineStr">
+        <is>
+          <t>fosfori</t>
+        </is>
+      </c>
+      <c r="AJ254" t="inlineStr">
+        <is>
+          <t>phosphore</t>
+        </is>
+      </c>
+      <c r="AK254" t="inlineStr">
+        <is>
+          <t>fosfor</t>
+        </is>
+      </c>
+      <c r="AL254" t="inlineStr">
+        <is>
+          <t>foszfor</t>
+        </is>
+      </c>
+      <c r="AM254" t="inlineStr">
+        <is>
+          <t>fosforo</t>
+        </is>
+      </c>
       <c r="AN254" t="inlineStr"/>
-      <c r="AO254" t="inlineStr"/>
-      <c r="AP254" t="inlineStr"/>
-      <c r="AQ254" t="inlineStr"/>
-      <c r="AR254" t="inlineStr"/>
-      <c r="AS254" t="inlineStr"/>
-      <c r="AT254" t="inlineStr"/>
-      <c r="AU254" t="inlineStr"/>
-      <c r="AV254" t="inlineStr"/>
-      <c r="AW254" t="inlineStr"/>
-      <c r="AX254" t="inlineStr"/>
+      <c r="AO254" t="inlineStr">
+        <is>
+          <t>fosforas</t>
+        </is>
+      </c>
+      <c r="AP254" t="inlineStr">
+        <is>
+          <t>fosfors</t>
+        </is>
+      </c>
+      <c r="AQ254" t="inlineStr">
+        <is>
+          <t>fosfor</t>
+        </is>
+      </c>
+      <c r="AR254" t="inlineStr">
+        <is>
+          <t>fosfor</t>
+        </is>
+      </c>
+      <c r="AS254" t="inlineStr">
+        <is>
+          <t>fosfor</t>
+        </is>
+      </c>
+      <c r="AT254" t="inlineStr">
+        <is>
+          <t>fósforo</t>
+        </is>
+      </c>
+      <c r="AU254" t="inlineStr">
+        <is>
+          <t>fosfor</t>
+        </is>
+      </c>
+      <c r="AV254" t="inlineStr">
+        <is>
+          <t>fosfor</t>
+        </is>
+      </c>
+      <c r="AW254" t="inlineStr">
+        <is>
+          <t>fosfor</t>
+        </is>
+      </c>
+      <c r="AX254" t="inlineStr">
+        <is>
+          <t>fosfor</t>
+        </is>
+      </c>
       <c r="AY254" t="inlineStr"/>
       <c r="AZ254" t="inlineStr"/>
       <c r="BA254" t="inlineStr"/>
@@ -35159,7 +35383,11 @@
       <c r="CC254" t="inlineStr"/>
       <c r="CD254" t="inlineStr"/>
       <c r="CE254" t="inlineStr"/>
-      <c r="CF254" t="inlineStr"/>
+      <c r="CF254" t="inlineStr">
+        <is>
+          <t>2016-03-31T00:00:00Z</t>
+        </is>
+      </c>
       <c r="CG254" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -35167,7 +35395,7 @@
       </c>
       <c r="CH254" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>herbert.schentz@umweltbundesamt.at</t>
         </is>
       </c>
       <c r="CI254" t="inlineStr">
@@ -35196,32 +35424,36 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>et:21285</t>
+          <t>et:21752</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>erosion</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr"/>
+          <t>meteorology</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>meterology</t>
+        </is>
+      </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>[GEMET] The general process or the group of processes whereby the materials of Earth's crust are loosened , dissolved, or worn away and simultaneously moved from one place to another, by natural agencies, which include weathering, solution, corrosion, and transportation, but usually exclude mass wasting.</t>
+          <t>[GEMET] The science concerned with the atmosphere and its phenomena.</t>
         </is>
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>et:20950,cl:10189</t>
-        </is>
-      </c>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>http://eurovoc.europa.eu/3158, http://purl.obolibrary.org/obo/ENVO_01001346, http://aims.fao.org/aos/agrovoc/c_2651, https://vocab.lternet.edu/vocab/vocab/?tema=181, http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/14240, http://en.wikipedia.org/wiki/erosion, http://www.eionet.europa.eu/gemet/concept/2963</t>
-        </is>
-      </c>
+          <t>et:30031,cl:10189</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>http://aims.fao.org/aos/agrovoc/c_4783, https://vocab.lternet.edu/vocab/vocab/?tema=333, http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/95270, http://eurovoc.europa.eu/1892, http://www.eionet.europa.eu/gemet/concept/5197, http://en.wikipedia.org/wiki/meteorology</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
@@ -35230,141 +35462,137 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="inlineStr"/>
-      <c r="Q255" t="inlineStr">
-        <is>
-          <t>[controlled by ] Staszewski 08.06.2013</t>
-        </is>
-      </c>
+      <c r="Q255" t="inlineStr"/>
       <c r="R255" t="inlineStr"/>
       <c r="S255" t="inlineStr"/>
       <c r="T255" t="inlineStr"/>
       <c r="U255" t="inlineStr"/>
       <c r="V255" t="inlineStr"/>
-      <c r="W255" t="inlineStr"/>
-      <c r="X255" t="inlineStr">
+      <c r="W255" t="inlineStr">
         <is>
           <t>US LTER controlled vocabulary</t>
         </is>
       </c>
+      <c r="X255" t="inlineStr"/>
       <c r="Y255" t="inlineStr"/>
       <c r="Z255" t="inlineStr"/>
-      <c r="AA255" t="inlineStr"/>
+      <c r="AA255" t="inlineStr">
+        <is>
+          <t>Meteorologie</t>
+        </is>
+      </c>
       <c r="AB255" t="inlineStr">
         <is>
-          <t>Erosion</t>
+          <t>علم الأرصاد الجوية</t>
         </is>
       </c>
       <c r="AC255" t="inlineStr">
         <is>
-          <t>تآكل</t>
+          <t>Метеорология</t>
         </is>
       </c>
       <c r="AD255" t="inlineStr">
         <is>
-          <t>Ерозия</t>
+          <t>meteorologie</t>
         </is>
       </c>
       <c r="AE255" t="inlineStr">
         <is>
-          <t>eroze</t>
+          <t>meteorologi</t>
         </is>
       </c>
       <c r="AF255" t="inlineStr">
         <is>
-          <t>erosion</t>
+          <t>μετεωρολογία</t>
         </is>
       </c>
       <c r="AG255" t="inlineStr">
         <is>
-          <t>διάβρωση</t>
+          <t>meteorologia</t>
         </is>
       </c>
       <c r="AH255" t="inlineStr">
         <is>
-          <t>erosión</t>
+          <t>meteoroloogia</t>
         </is>
       </c>
       <c r="AI255" t="inlineStr">
         <is>
-          <t>erosioon, uuristus</t>
+          <t>säätiede, ilmatiede</t>
         </is>
       </c>
       <c r="AJ255" t="inlineStr">
         <is>
-          <t>eroosio</t>
+          <t>météorologie</t>
         </is>
       </c>
       <c r="AK255" t="inlineStr">
         <is>
-          <t>érosion</t>
+          <t>meteorologija</t>
         </is>
       </c>
       <c r="AL255" t="inlineStr">
         <is>
-          <t>erozija</t>
+          <t>meteorológia</t>
         </is>
       </c>
       <c r="AM255" t="inlineStr">
         <is>
-          <t>erózió</t>
-        </is>
-      </c>
-      <c r="AN255" t="inlineStr">
-        <is>
-          <t>erosione</t>
-        </is>
-      </c>
-      <c r="AO255" t="inlineStr"/>
+          <t>meteorologia</t>
+        </is>
+      </c>
+      <c r="AN255" t="inlineStr"/>
+      <c r="AO255" t="inlineStr">
+        <is>
+          <t>meteorologija</t>
+        </is>
+      </c>
       <c r="AP255" t="inlineStr">
         <is>
-          <t>erozija</t>
+          <t>meteoroloģija</t>
         </is>
       </c>
       <c r="AQ255" t="inlineStr">
         <is>
-          <t>erozija</t>
+          <t>weerkunde</t>
         </is>
       </c>
       <c r="AR255" t="inlineStr">
         <is>
-          <t>erosie</t>
+          <t>meteorologi</t>
         </is>
       </c>
       <c r="AS255" t="inlineStr">
         <is>
-          <t>erosjon</t>
+          <t>meteorologia</t>
         </is>
       </c>
       <c r="AT255" t="inlineStr">
         <is>
-          <t>erozja</t>
+          <t>meteorologia</t>
         </is>
       </c>
       <c r="AU255" t="inlineStr">
         <is>
-          <t>erosão</t>
+          <t>meteorologie</t>
         </is>
       </c>
       <c r="AV255" t="inlineStr">
         <is>
-          <t>eroziune</t>
+          <t>meteorológia</t>
         </is>
       </c>
       <c r="AW255" t="inlineStr">
         <is>
-          <t>erózia</t>
+          <t>meteorologija, vremenoslovje</t>
         </is>
       </c>
       <c r="AX255" t="inlineStr">
         <is>
-          <t>erozija</t>
-        </is>
-      </c>
-      <c r="AY255" t="inlineStr">
-        <is>
-          <t>erosion</t>
-        </is>
-      </c>
+          <t>meteorologi</t>
+        </is>
+      </c>
+      <c r="AY255" t="inlineStr"/>
       <c r="AZ255" t="inlineStr"/>
       <c r="BA255" t="inlineStr"/>
       <c r="BB255" t="inlineStr"/>
@@ -35438,36 +35666,20 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>et:21934</t>
+          <t>cl:10192</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>emission</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>emissions</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>[GEMET] A discharge of particulate gaseous, or soluble waste material/pollution into the air from a polluting source.</t>
-        </is>
-      </c>
+          <t>generic answer option</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>et:20748,cl:10189</t>
-        </is>
-      </c>
+      <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/54480, https://vocab.lternet.edu/vocab/vocab/?tema=178, http://aims.fao.org/aos/agrovoc/c_331377</t>
-        </is>
-      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
@@ -35483,11 +35695,7 @@
       <c r="U256" t="inlineStr"/>
       <c r="V256" t="inlineStr"/>
       <c r="W256" t="inlineStr"/>
-      <c r="X256" t="inlineStr">
-        <is>
-          <t>US LTER controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="X256" t="inlineStr"/>
       <c r="Y256" t="inlineStr"/>
       <c r="Z256" t="inlineStr"/>
       <c r="AA256" t="inlineStr"/>
@@ -35546,16 +35754,8 @@
       <c r="CB256" t="inlineStr"/>
       <c r="CC256" t="inlineStr"/>
       <c r="CD256" t="inlineStr"/>
-      <c r="CE256" t="inlineStr">
-        <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
-        </is>
-      </c>
-      <c r="CF256" t="inlineStr">
-        <is>
-          <t>2016-03-31T00:00:00Z</t>
-        </is>
-      </c>
+      <c r="CE256" t="inlineStr"/>
+      <c r="CF256" t="inlineStr"/>
       <c r="CG256" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -35563,7 +35763,7 @@
       </c>
       <c r="CH256" t="inlineStr">
         <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
+          <t>0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="CI256" t="inlineStr">
@@ -35592,36 +35792,24 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>et:20854</t>
+          <t>cl:10193</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>phosphorus</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>[GEMET] A nonmetallic element used to manufacture phosphoric acid, in phosphor bronzes, incendiaries, pyrotechnics, matches, and rat poisons; the white or yellow allotrope is a soft waxy solid, soluble in carbon disulfide, insoluble in water and alcohol, and is poisonous and self-igniting in air; the red allotrope is an amorphous powder, insoluble in all solvents and is nonpoisonous; the black allotrope comprises lustrous crystals similar to graphite, and is insoluble in most solvents.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">no </t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
         <is>
-          <t>et:20748,cl:10189</t>
+          <t>cl:10192</t>
         </is>
       </c>
       <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/47170, https://vocab.lternet.edu/vocab/vocab/?tema=416, http://eurovoc.europa.eu/2372, http://en.wikipedia.org/wiki/phosphorus, http://www.eionet.europa.eu/gemet/concept/6196, http://aims.fao.org/aos/agrovoc/c_5804</t>
-        </is>
-      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
@@ -35637,130 +35825,34 @@
       <c r="U257" t="inlineStr"/>
       <c r="V257" t="inlineStr"/>
       <c r="W257" t="inlineStr"/>
-      <c r="X257" t="inlineStr">
-        <is>
-          <t>US LTER controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="X257" t="inlineStr"/>
       <c r="Y257" t="inlineStr"/>
       <c r="Z257" t="inlineStr"/>
       <c r="AA257" t="inlineStr"/>
-      <c r="AB257" t="inlineStr">
-        <is>
-          <t>Phosphor</t>
-        </is>
-      </c>
-      <c r="AC257" t="inlineStr">
-        <is>
-          <t>الفوسفور</t>
-        </is>
-      </c>
-      <c r="AD257" t="inlineStr">
-        <is>
-          <t>Фосфор</t>
-        </is>
-      </c>
-      <c r="AE257" t="inlineStr">
-        <is>
-          <t>fosfor</t>
-        </is>
-      </c>
-      <c r="AF257" t="inlineStr">
-        <is>
-          <t>fosfor</t>
-        </is>
-      </c>
-      <c r="AG257" t="inlineStr">
-        <is>
-          <t>φωσφόρος</t>
-        </is>
-      </c>
-      <c r="AH257" t="inlineStr">
-        <is>
-          <t>fósforo</t>
-        </is>
-      </c>
-      <c r="AI257" t="inlineStr">
-        <is>
-          <t>fosfor</t>
-        </is>
-      </c>
-      <c r="AJ257" t="inlineStr">
-        <is>
-          <t>fosfori</t>
-        </is>
-      </c>
-      <c r="AK257" t="inlineStr">
-        <is>
-          <t>phosphore</t>
-        </is>
-      </c>
-      <c r="AL257" t="inlineStr">
-        <is>
-          <t>fosfor</t>
-        </is>
-      </c>
-      <c r="AM257" t="inlineStr">
-        <is>
-          <t>foszfor</t>
-        </is>
-      </c>
-      <c r="AN257" t="inlineStr">
-        <is>
-          <t>fosforo</t>
-        </is>
-      </c>
+      <c r="AB257" t="inlineStr"/>
+      <c r="AC257" t="inlineStr"/>
+      <c r="AD257" t="inlineStr"/>
+      <c r="AE257" t="inlineStr"/>
+      <c r="AF257" t="inlineStr"/>
+      <c r="AG257" t="inlineStr"/>
+      <c r="AH257" t="inlineStr"/>
+      <c r="AI257" t="inlineStr"/>
+      <c r="AJ257" t="inlineStr"/>
+      <c r="AK257" t="inlineStr"/>
+      <c r="AL257" t="inlineStr"/>
+      <c r="AM257" t="inlineStr"/>
+      <c r="AN257" t="inlineStr"/>
       <c r="AO257" t="inlineStr"/>
-      <c r="AP257" t="inlineStr">
-        <is>
-          <t>fosforas</t>
-        </is>
-      </c>
-      <c r="AQ257" t="inlineStr">
-        <is>
-          <t>fosfors</t>
-        </is>
-      </c>
-      <c r="AR257" t="inlineStr">
-        <is>
-          <t>fosfor</t>
-        </is>
-      </c>
-      <c r="AS257" t="inlineStr">
-        <is>
-          <t>fosfor</t>
-        </is>
-      </c>
-      <c r="AT257" t="inlineStr">
-        <is>
-          <t>fosfor</t>
-        </is>
-      </c>
-      <c r="AU257" t="inlineStr">
-        <is>
-          <t>fósforo</t>
-        </is>
-      </c>
-      <c r="AV257" t="inlineStr">
-        <is>
-          <t>fosfor</t>
-        </is>
-      </c>
-      <c r="AW257" t="inlineStr">
-        <is>
-          <t>fosfor</t>
-        </is>
-      </c>
-      <c r="AX257" t="inlineStr">
-        <is>
-          <t>fosfor</t>
-        </is>
-      </c>
-      <c r="AY257" t="inlineStr">
-        <is>
-          <t>fosfor</t>
-        </is>
-      </c>
+      <c r="AP257" t="inlineStr"/>
+      <c r="AQ257" t="inlineStr"/>
+      <c r="AR257" t="inlineStr"/>
+      <c r="AS257" t="inlineStr"/>
+      <c r="AT257" t="inlineStr"/>
+      <c r="AU257" t="inlineStr"/>
+      <c r="AV257" t="inlineStr"/>
+      <c r="AW257" t="inlineStr"/>
+      <c r="AX257" t="inlineStr"/>
+      <c r="AY257" t="inlineStr"/>
       <c r="AZ257" t="inlineStr"/>
       <c r="BA257" t="inlineStr"/>
       <c r="BB257" t="inlineStr"/>
@@ -35793,11 +35885,7 @@
       <c r="CC257" t="inlineStr"/>
       <c r="CD257" t="inlineStr"/>
       <c r="CE257" t="inlineStr"/>
-      <c r="CF257" t="inlineStr">
-        <is>
-          <t>2016-03-31T00:00:00Z</t>
-        </is>
-      </c>
+      <c r="CF257" t="inlineStr"/>
       <c r="CG257" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -35805,7 +35893,7 @@
       </c>
       <c r="CH257" t="inlineStr">
         <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
+          <t>0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="CI257" t="inlineStr">
@@ -35834,36 +35922,24 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>et:21752</t>
+          <t>cl:10194</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>meteorology</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>meterology</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>[GEMET] The science concerned with the atmosphere and its phenomena.</t>
-        </is>
-      </c>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>et:30031,cl:10189</t>
+          <t>cl:10192</t>
         </is>
       </c>
       <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>http://aims.fao.org/aos/agrovoc/c_4783, https://vocab.lternet.edu/vocab/vocab/?tema=333, http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/95270, http://eurovoc.europa.eu/1892, http://www.eionet.europa.eu/gemet/concept/5197, http://en.wikipedia.org/wiki/meteorology</t>
-        </is>
-      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
@@ -35872,141 +35948,41 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr"/>
-      <c r="Q258" t="inlineStr">
-        <is>
-          <t>[controlled by ] Giorgio Matteucci, 23/05/2013</t>
-        </is>
-      </c>
+      <c r="Q258" t="inlineStr"/>
       <c r="R258" t="inlineStr"/>
       <c r="S258" t="inlineStr"/>
       <c r="T258" t="inlineStr"/>
       <c r="U258" t="inlineStr"/>
       <c r="V258" t="inlineStr"/>
       <c r="W258" t="inlineStr"/>
-      <c r="X258" t="inlineStr">
-        <is>
-          <t>US LTER controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="X258" t="inlineStr"/>
       <c r="Y258" t="inlineStr"/>
       <c r="Z258" t="inlineStr"/>
       <c r="AA258" t="inlineStr"/>
-      <c r="AB258" t="inlineStr">
-        <is>
-          <t>Meteorologie</t>
-        </is>
-      </c>
-      <c r="AC258" t="inlineStr">
-        <is>
-          <t>علم الأرصاد الجوية</t>
-        </is>
-      </c>
-      <c r="AD258" t="inlineStr">
-        <is>
-          <t>Метеорология</t>
-        </is>
-      </c>
-      <c r="AE258" t="inlineStr">
-        <is>
-          <t>meteorologie</t>
-        </is>
-      </c>
-      <c r="AF258" t="inlineStr">
-        <is>
-          <t>meteorologi</t>
-        </is>
-      </c>
-      <c r="AG258" t="inlineStr">
-        <is>
-          <t>μετεωρολογία</t>
-        </is>
-      </c>
-      <c r="AH258" t="inlineStr">
-        <is>
-          <t>meteorologia</t>
-        </is>
-      </c>
-      <c r="AI258" t="inlineStr">
-        <is>
-          <t>meteoroloogia</t>
-        </is>
-      </c>
-      <c r="AJ258" t="inlineStr">
-        <is>
-          <t>säätiede, ilmatiede</t>
-        </is>
-      </c>
-      <c r="AK258" t="inlineStr">
-        <is>
-          <t>météorologie</t>
-        </is>
-      </c>
-      <c r="AL258" t="inlineStr">
-        <is>
-          <t>meteorologija</t>
-        </is>
-      </c>
-      <c r="AM258" t="inlineStr">
-        <is>
-          <t>meteorológia</t>
-        </is>
-      </c>
-      <c r="AN258" t="inlineStr">
-        <is>
-          <t>meteorologia</t>
-        </is>
-      </c>
+      <c r="AB258" t="inlineStr"/>
+      <c r="AC258" t="inlineStr"/>
+      <c r="AD258" t="inlineStr"/>
+      <c r="AE258" t="inlineStr"/>
+      <c r="AF258" t="inlineStr"/>
+      <c r="AG258" t="inlineStr"/>
+      <c r="AH258" t="inlineStr"/>
+      <c r="AI258" t="inlineStr"/>
+      <c r="AJ258" t="inlineStr"/>
+      <c r="AK258" t="inlineStr"/>
+      <c r="AL258" t="inlineStr"/>
+      <c r="AM258" t="inlineStr"/>
+      <c r="AN258" t="inlineStr"/>
       <c r="AO258" t="inlineStr"/>
-      <c r="AP258" t="inlineStr">
-        <is>
-          <t>meteorologija</t>
-        </is>
-      </c>
-      <c r="AQ258" t="inlineStr">
-        <is>
-          <t>meteoroloģija</t>
-        </is>
-      </c>
-      <c r="AR258" t="inlineStr">
-        <is>
-          <t>weerkunde</t>
-        </is>
-      </c>
-      <c r="AS258" t="inlineStr">
-        <is>
-          <t>meteorologi</t>
-        </is>
-      </c>
-      <c r="AT258" t="inlineStr">
-        <is>
-          <t>meteorologia</t>
-        </is>
-      </c>
-      <c r="AU258" t="inlineStr">
-        <is>
-          <t>meteorologia</t>
-        </is>
-      </c>
-      <c r="AV258" t="inlineStr">
-        <is>
-          <t>meteorologie</t>
-        </is>
-      </c>
-      <c r="AW258" t="inlineStr">
-        <is>
-          <t>meteorológia</t>
-        </is>
-      </c>
-      <c r="AX258" t="inlineStr">
-        <is>
-          <t>meteorologija, vremenoslovje</t>
-        </is>
-      </c>
-      <c r="AY258" t="inlineStr">
-        <is>
-          <t>meteorologi</t>
-        </is>
-      </c>
+      <c r="AP258" t="inlineStr"/>
+      <c r="AQ258" t="inlineStr"/>
+      <c r="AR258" t="inlineStr"/>
+      <c r="AS258" t="inlineStr"/>
+      <c r="AT258" t="inlineStr"/>
+      <c r="AU258" t="inlineStr"/>
+      <c r="AV258" t="inlineStr"/>
+      <c r="AW258" t="inlineStr"/>
+      <c r="AX258" t="inlineStr"/>
+      <c r="AY258" t="inlineStr"/>
       <c r="AZ258" t="inlineStr"/>
       <c r="BA258" t="inlineStr"/>
       <c r="BB258" t="inlineStr"/>
@@ -36039,11 +36015,7 @@
       <c r="CC258" t="inlineStr"/>
       <c r="CD258" t="inlineStr"/>
       <c r="CE258" t="inlineStr"/>
-      <c r="CF258" t="inlineStr">
-        <is>
-          <t>2016-03-31T00:00:00Z</t>
-        </is>
-      </c>
+      <c r="CF258" t="inlineStr"/>
       <c r="CG258" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -36051,7 +36023,7 @@
       </c>
       <c r="CH258" t="inlineStr">
         <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
+          <t>0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="CI258" t="inlineStr">
@@ -36080,18 +36052,22 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>cl:10192</t>
+          <t>cl:10195</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>generic answer option</t>
+          <t>other</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>cl:10192</t>
+        </is>
+      </c>
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
@@ -36206,12 +36182,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>cl:10193</t>
+          <t>cl:10196</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve">no </t>
+          <t>unkown</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -36336,12 +36312,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>cl:10194</t>
+          <t>cl:10197</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -36466,22 +36442,18 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>cl:10195</t>
+          <t>cl:10198</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>data capture</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>cl:10192</t>
-        </is>
-      </c>
+      <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
@@ -36596,23 +36568,31 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>cl:10196</t>
+          <t>cl:10199</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>unkown</t>
+          <t>datalogger</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>n. devices/gadgets that record data over time or in relation to location either with a built in instrument or sensor or via external instruments and sensors</t>
+        </is>
+      </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
-          <t>cl:10192</t>
-        </is>
-      </c>
-      <c r="G263" t="inlineStr"/>
+          <t>cl:10198</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>https://vocab.lternet.edu/vocab/vocab/?tema=135</t>
+        </is>
+      </c>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -36628,7 +36608,11 @@
       <c r="T263" t="inlineStr"/>
       <c r="U263" t="inlineStr"/>
       <c r="V263" t="inlineStr"/>
-      <c r="W263" t="inlineStr"/>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
       <c r="X263" t="inlineStr"/>
       <c r="Y263" t="inlineStr"/>
       <c r="Z263" t="inlineStr"/>
@@ -36689,7 +36673,11 @@
       <c r="CC263" t="inlineStr"/>
       <c r="CD263" t="inlineStr"/>
       <c r="CE263" t="inlineStr"/>
-      <c r="CF263" t="inlineStr"/>
+      <c r="CF263" t="inlineStr">
+        <is>
+          <t>2016-03-31T00:00:00Z</t>
+        </is>
+      </c>
       <c r="CG263" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -36697,7 +36685,7 @@
       </c>
       <c r="CH263" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>herbert.schentz@umweltbundesamt.at</t>
         </is>
       </c>
       <c r="CI263" t="inlineStr">
@@ -36726,22 +36714,22 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>cl:10197</t>
+          <t>cl:10200</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>data service</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr"/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>The data type 'Data services' describes the availability of data services (e.g. WFS) to connect to the data.</t>
+        </is>
+      </c>
       <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>cl:10192</t>
-        </is>
-      </c>
+      <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
@@ -36819,7 +36807,11 @@
       <c r="CC264" t="inlineStr"/>
       <c r="CD264" t="inlineStr"/>
       <c r="CE264" t="inlineStr"/>
-      <c r="CF264" t="inlineStr"/>
+      <c r="CF264" t="inlineStr">
+        <is>
+          <t>2015-05-19T13:24:09Z</t>
+        </is>
+      </c>
       <c r="CG264" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -36827,7 +36819,7 @@
       </c>
       <c r="CH264" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>herbert.schentz@umweltbundesamt.at</t>
         </is>
       </c>
       <c r="CI264" t="inlineStr">
@@ -36856,18 +36848,22 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>cl:10198</t>
+          <t>cl:10201</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>data capture</t>
+          <t>data portal</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>cl:10200</t>
+        </is>
+      </c>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
@@ -36884,7 +36880,11 @@
       <c r="T265" t="inlineStr"/>
       <c r="U265" t="inlineStr"/>
       <c r="V265" t="inlineStr"/>
-      <c r="W265" t="inlineStr"/>
+      <c r="W265" t="inlineStr">
+        <is>
+          <t>data services</t>
+        </is>
+      </c>
       <c r="X265" t="inlineStr"/>
       <c r="Y265" t="inlineStr"/>
       <c r="Z265" t="inlineStr"/>
@@ -36945,7 +36945,11 @@
       <c r="CC265" t="inlineStr"/>
       <c r="CD265" t="inlineStr"/>
       <c r="CE265" t="inlineStr"/>
-      <c r="CF265" t="inlineStr"/>
+      <c r="CF265" t="inlineStr">
+        <is>
+          <t>2016-03-31T00:00:00Z</t>
+        </is>
+      </c>
       <c r="CG265" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -36953,7 +36957,7 @@
       </c>
       <c r="CH265" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>herbert.schentz@umweltbundesamt.at</t>
         </is>
       </c>
       <c r="CI265" t="inlineStr">
@@ -36982,32 +36986,24 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>cl:10199</t>
+          <t>cl:10202</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>datalogger</t>
+          <t>Web Map Service</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>n. devices/gadgets that record data over time or in relation to location either with a built in instrument or sensor or via external instruments and sensors</t>
-        </is>
-      </c>
+      <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>cl:10198</t>
+          <t>cl:10200</t>
         </is>
       </c>
       <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>https://vocab.lternet.edu/vocab/vocab/?tema=135</t>
-        </is>
-      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
@@ -37016,22 +37012,14 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr"/>
-      <c r="Q266" t="inlineStr">
-        <is>
-          <t>[controlled by ] Neagu Stefan 31/05/13" , "[source of definition ] wikipedia</t>
-        </is>
-      </c>
+      <c r="Q266" t="inlineStr"/>
       <c r="R266" t="inlineStr"/>
       <c r="S266" t="inlineStr"/>
       <c r="T266" t="inlineStr"/>
       <c r="U266" t="inlineStr"/>
       <c r="V266" t="inlineStr"/>
       <c r="W266" t="inlineStr"/>
-      <c r="X266" t="inlineStr">
-        <is>
-          <t>US LTER controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="X266" t="inlineStr"/>
       <c r="Y266" t="inlineStr"/>
       <c r="Z266" t="inlineStr"/>
       <c r="AA266" t="inlineStr"/>
@@ -37091,11 +37079,7 @@
       <c r="CC266" t="inlineStr"/>
       <c r="CD266" t="inlineStr"/>
       <c r="CE266" t="inlineStr"/>
-      <c r="CF266" t="inlineStr">
-        <is>
-          <t>2016-03-31T00:00:00Z</t>
-        </is>
-      </c>
+      <c r="CF266" t="inlineStr"/>
       <c r="CG266" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -37103,7 +37087,7 @@
       </c>
       <c r="CH266" t="inlineStr">
         <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
+          <t>0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="CI266" t="inlineStr">
@@ -37132,22 +37116,22 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
+          <t>cl:10203</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Web Feature Service</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr">
+        <is>
           <t>cl:10200</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>data service</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>The data type 'Data services' describes the availability of data services (e.g. WFS) to connect to the data.</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
@@ -37225,11 +37209,7 @@
       <c r="CC267" t="inlineStr"/>
       <c r="CD267" t="inlineStr"/>
       <c r="CE267" t="inlineStr"/>
-      <c r="CF267" t="inlineStr">
-        <is>
-          <t>2015-05-19T13:24:09Z</t>
-        </is>
-      </c>
+      <c r="CF267" t="inlineStr"/>
       <c r="CG267" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -37237,7 +37217,7 @@
       </c>
       <c r="CH267" t="inlineStr">
         <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
+          <t>0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="CI267" t="inlineStr">
@@ -37266,12 +37246,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>cl:10201</t>
+          <t>cl:10204</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>data portal</t>
+          <t>Web Coverage Service</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -37299,11 +37279,7 @@
       <c r="U268" t="inlineStr"/>
       <c r="V268" t="inlineStr"/>
       <c r="W268" t="inlineStr"/>
-      <c r="X268" t="inlineStr">
-        <is>
-          <t>data services</t>
-        </is>
-      </c>
+      <c r="X268" t="inlineStr"/>
       <c r="Y268" t="inlineStr"/>
       <c r="Z268" t="inlineStr"/>
       <c r="AA268" t="inlineStr"/>
@@ -37363,11 +37339,7 @@
       <c r="CC268" t="inlineStr"/>
       <c r="CD268" t="inlineStr"/>
       <c r="CE268" t="inlineStr"/>
-      <c r="CF268" t="inlineStr">
-        <is>
-          <t>2016-03-31T00:00:00Z</t>
-        </is>
-      </c>
+      <c r="CF268" t="inlineStr"/>
       <c r="CG268" t="inlineStr">
         <is>
           <t>2022-03-28</t>
@@ -37375,7 +37347,7 @@
       </c>
       <c r="CH268" t="inlineStr">
         <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
+          <t>0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="CI268" t="inlineStr">
@@ -37404,12 +37376,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>cl:10202</t>
+          <t>cl:10205</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Web Map Service</t>
+          <t>no data service</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -37534,12 +37506,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>cl:10203</t>
+          <t>cl:10206</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Web Feature Service</t>
+          <t>REST API</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -37664,12 +37636,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>cl:10204</t>
+          <t>cl:10207</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Web Coverage Service</t>
+          <t>Sensor Web Enablement</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -37794,12 +37766,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>cl:10205</t>
+          <t>cl:10208</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>no data service</t>
+          <t>Web Catalog Service</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -37924,12 +37896,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>cl:10206</t>
+          <t>cl:10209</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>REST API</t>
+          <t>SPARQL endpoint</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -38054,12 +38026,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>cl:10207</t>
+          <t>cl:10210</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Sensor Web Enablement</t>
+          <t>other data service</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -38184,22 +38156,22 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>cl:10208</t>
+          <t>cl:10211</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Web Catalog Service</t>
+          <t>data storage format</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>The data type 'Data storage format' describes the different formats in which the data are available and managed</t>
+        </is>
+      </c>
       <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>cl:10200</t>
-        </is>
-      </c>
+      <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
@@ -38314,20 +38286,24 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>cl:10209</t>
+          <t>cl:10212</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>SPARQL endpoint</t>
+          <t>relational database</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>[BRO]* A resource that provides access to a database that comprises a normalized data set constructed according to a specific entity-relation data model.</t>
+        </is>
+      </c>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
-          <t>cl:10200</t>
+          <t>cl:10211</t>
         </is>
       </c>
       <c r="G276" t="inlineStr"/>
@@ -38444,20 +38420,24 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>cl:10210</t>
+          <t>cl:10213</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>other data service</t>
+          <t>XML database</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>[BRO]* A resource that provides access to a database that stores XML.</t>
+        </is>
+      </c>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>cl:10200</t>
+          <t>cl:10211</t>
         </is>
       </c>
       <c r="G277" t="inlineStr"/>
@@ -38574,22 +38554,22 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
+          <t>cl:10214</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>spatial database (GIS)</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr">
+        <is>
           <t>cl:10211</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>data storage format</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>The data type 'Data storage format' describes the different formats in which the data are available and managed</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
@@ -38704,20 +38684,16 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>cl:10212</t>
+          <t>cl:10215</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>relational database</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>[BRO]* A resource that provides access to a database that comprises a normalized data set constructed according to a specific entity-relation data model.</t>
-        </is>
-      </c>
+      <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
@@ -38838,20 +38814,16 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>cl:10213</t>
+          <t>cl:10216</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>XML database</t>
+          <t>unstructured file</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>[BRO]* A resource that provides access to a database that stores XML.</t>
-        </is>
-      </c>
+      <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
@@ -38972,12 +38944,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>cl:10214</t>
+          <t>cl:10217</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>spatial database (GIS)</t>
+          <t>structured file or spreadsheet</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -39102,12 +39074,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>cl:10215</t>
+          <t>cl:10218</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>spatial data file (GIS)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -39232,12 +39204,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>cl:10216</t>
+          <t>cl:10219</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>unstructured file</t>
+          <t>triple store</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -39362,12 +39334,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>cl:10217</t>
+          <t>cl:10220</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>structured file or spreadsheet</t>
+          <t>other data storage format</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -39492,12 +39464,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>cl:10218</t>
+          <t>cl:10221</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>spatial data file (GIS)</t>
+          <t>proprietary file format</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -39622,12 +39594,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>cl:10219</t>
+          <t>cl:10222</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>triple store</t>
+          <t>graph or object database</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -39752,22 +39724,18 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>cl:10220</t>
+          <t>cl:10223</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>other data storage format</t>
+          <t>data storage location</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>cl:10211</t>
-        </is>
-      </c>
+      <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -39882,20 +39850,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>cl:10221</t>
+          <t>cl:10224</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>proprietary file format</t>
+          <t>central</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
-      <c r="D288" t="inlineStr"/>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>central data storage location"^^rdf:HTML</t>
+        </is>
+      </c>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>cl:10211</t>
+          <t>cl:10223</t>
         </is>
       </c>
       <c r="G288" t="inlineStr"/>
@@ -40012,20 +39984,24 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>cl:10222</t>
+          <t>cl:10225</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>graph or object database</t>
+          <t>distributed over multiple institutions</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr"/>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>distributed data storage over multiple institutions</t>
+        </is>
+      </c>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
         <is>
-          <t>cl:10211</t>
+          <t>cl:10223</t>
         </is>
       </c>
       <c r="G289" t="inlineStr"/>
@@ -40142,18 +40118,26 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
+          <t>cl:10226</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>distributed within institution</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>distributed data storage within institution</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr">
+        <is>
           <t>cl:10223</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>data storage location</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr"/>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
@@ -40268,20 +40252,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>cl:10224</t>
+          <t>cl:10227</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>central data storage location"^^rdf:HTML</t>
-        </is>
-      </c>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr">
         <is>
@@ -40402,26 +40386,18 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>cl:10225</t>
+          <t>cl:10228</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>distributed over multiple institutions</t>
+          <t>metadata standards</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>distributed data storage over multiple institutions</t>
-        </is>
-      </c>
+      <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>cl:10223</t>
-        </is>
-      </c>
+      <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
@@ -40536,24 +40512,24 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>cl:10226</t>
+          <t>cl:10229</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>distributed within institution</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>distributed data storage within institution</t>
-        </is>
-      </c>
+          <t>Ecological Metadata Language</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>EML</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
         <is>
-          <t>cl:10223</t>
+          <t>cl:10228</t>
         </is>
       </c>
       <c r="G293" t="inlineStr"/>
@@ -40670,24 +40646,24 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>cl:10227</t>
+          <t>cl:10230</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>Darwin Core</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>DwC</t>
         </is>
       </c>
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>cl:10223</t>
+          <t>cl:10228</t>
         </is>
       </c>
       <c r="G294" t="inlineStr"/>
@@ -40804,18 +40780,26 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>cl:10228</t>
+          <t>cl:10231</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>metadata standards</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr"/>
+          <t>Dublin Core</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>cl:10228</t>
+        </is>
+      </c>
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
@@ -40930,19 +40914,15 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>cl:10229</t>
+          <t>cl:10232</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ecological Metadata Language</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>EML</t>
-        </is>
-      </c>
+          <t>INSPIRE metadata specification</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
@@ -41064,19 +41044,15 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>cl:10230</t>
+          <t>cl:10233</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Darwin Core</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>DwC</t>
-        </is>
-      </c>
+          <t>ISO19115/19139</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr">
@@ -41198,19 +41174,15 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>cl:10231</t>
+          <t>cl:10234</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Dublin Core</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>DC</t>
-        </is>
-      </c>
+          <t>domain specific metadata standard</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr">
@@ -41332,22 +41304,18 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>cl:10232</t>
+          <t>cl:10235</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>INSPIRE metadata specification</t>
+          <t>data transmission</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>cl:10228</t>
-        </is>
-      </c>
+      <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
@@ -41462,20 +41430,24 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>cl:10233</t>
+          <t>cl:10236</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ISO19115/19139</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr"/>
+          <t>GMS</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>UMTS</t>
+        </is>
+      </c>
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr">
         <is>
-          <t>cl:10228</t>
+          <t>cl:10235</t>
         </is>
       </c>
       <c r="G300" t="inlineStr"/>
@@ -41592,12 +41564,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>cl:10234</t>
+          <t>cl:10237</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>domain specific metadata standard</t>
+          <t>other data transmission</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -41605,7 +41577,7 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr">
         <is>
-          <t>cl:10228</t>
+          <t>cl:10235</t>
         </is>
       </c>
       <c r="G301" t="inlineStr"/>
@@ -41722,18 +41694,22 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>cl:10235</t>
+          <t>cl:10238</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>data transmission</t>
+          <t>telephone line</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>cl:10235</t>
+        </is>
+      </c>
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
@@ -41848,19 +41824,15 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>cl:10236</t>
+          <t>cl:10239</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>GMS</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>UMTS</t>
-        </is>
-      </c>
+          <t>cable based</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
@@ -41982,12 +41954,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>cl:10237</t>
+          <t>cl:10240</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>other data transmission</t>
+          <t>radio transmission system (repeaters, receivers, centralstation)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -42112,12 +42084,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>cl:10238</t>
+          <t>cl:10241</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>telephone line</t>
+          <t>no data transmission</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -42242,12 +42214,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>cl:10239</t>
+          <t>cl:10242</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>cable based</t>
+          <t>satellite transmission system</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -42372,22 +42344,18 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>cl:10240</t>
+          <t>cl:10301</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>radio transmission system (repeaters, receivers, centralstation)</t>
+          <t>energy provision</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr"/>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>cl:10235</t>
-        </is>
-      </c>
+      <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr"/>
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
@@ -42502,12 +42470,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>cl:10241</t>
+          <t>cl:10302</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>no data transmission</t>
+          <t>central energy provision</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -42515,7 +42483,7 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t>cl:10235</t>
+          <t>cl:10301</t>
         </is>
       </c>
       <c r="G308" t="inlineStr"/>
@@ -42632,12 +42600,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>cl:10242</t>
+          <t>cl:10303</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>satellite transmission system</t>
+          <t>distributed energy provision</t>
         </is>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -42645,7 +42613,7 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
         <is>
-          <t>cl:10235</t>
+          <t>cl:10301</t>
         </is>
       </c>
       <c r="G309" t="inlineStr"/>
@@ -42762,12 +42730,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>cl:10301</t>
+          <t>cl:10304</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>energy provision</t>
+          <t>energy supply type</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -42888,12 +42856,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>cl:10302</t>
+          <t>cl:10305</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>central energy provision</t>
+          <t>fuel cell</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -42901,7 +42869,7 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t>cl:10301</t>
+          <t>cl:10304</t>
         </is>
       </c>
       <c r="G311" t="inlineStr"/>
@@ -43018,12 +42986,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>cl:10303</t>
+          <t>cl:10306</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>distributed energy provision</t>
+          <t>backup power supply system</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -43031,7 +42999,7 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr">
         <is>
-          <t>cl:10301</t>
+          <t>cl:10304</t>
         </is>
       </c>
       <c r="G312" t="inlineStr"/>
@@ -43148,18 +43116,22 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>cl:10304</t>
+          <t>cl:10307</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>energy supply type</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr"/>
-      <c r="F313" t="inlineStr"/>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>cl:10304</t>
+        </is>
+      </c>
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
@@ -43274,12 +43246,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>cl:10305</t>
+          <t>cl:10308</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>fuel cell</t>
+          <t>cable</t>
         </is>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -43404,12 +43376,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>cl:10306</t>
+          <t>cl:10309</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>backup power supply system</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -43534,12 +43506,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>cl:10307</t>
+          <t>cl:10310</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>battery</t>
+          <t>other energy supply type</t>
         </is>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -43664,22 +43636,18 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>cl:10308</t>
+          <t>cl:10311</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>cable</t>
+          <t>permanent energy supply</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr"/>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>cl:10304</t>
-        </is>
-      </c>
+      <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
@@ -43794,12 +43762,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>cl:10309</t>
+          <t>cl:10312</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>generator</t>
+          <t>medium permanent energy supply</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -43807,7 +43775,7 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>cl:10304</t>
+          <t>cl:10311</t>
         </is>
       </c>
       <c r="G318" t="inlineStr"/>
@@ -43924,12 +43892,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>cl:10310</t>
+          <t>cl:10313</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>other energy supply type</t>
+          <t>low permanent energy supply</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -43937,7 +43905,7 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t>cl:10304</t>
+          <t>cl:10311</t>
         </is>
       </c>
       <c r="G319" t="inlineStr"/>
@@ -44054,18 +44022,22 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>cl:10311</t>
+          <t>cl:10314</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>permanent energy supply</t>
+          <t>large permanent energy supply</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr"/>
-      <c r="F320" t="inlineStr"/>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>cl:10311</t>
+        </is>
+      </c>
       <c r="G320" t="inlineStr"/>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
@@ -44180,22 +44152,18 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>cl:10312</t>
+          <t>cl:10315</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>medium permanent energy supply</t>
+          <t>maintenance infrastructure</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr"/>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>cl:10311</t>
-        </is>
-      </c>
+      <c r="F321" t="inlineStr"/>
       <c r="G321" t="inlineStr"/>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
@@ -44310,12 +44278,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>cl:10313</t>
+          <t>cl:10316</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>low permanent energy supply</t>
+          <t>snow clearing equipment</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -44323,7 +44291,7 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
-          <t>cl:10311</t>
+          <t>cl:10315</t>
         </is>
       </c>
       <c r="G322" t="inlineStr"/>
@@ -44440,22 +44408,22 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>cl:10314</t>
+          <t>cl:10317</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>large permanent energy supply</t>
+          <t>organisation design</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr"/>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Type of the site of platform according to their inner heterogeneity. Simple sites are classical LTER sites measuring ecosystem processes in one or a very limited number of habitats. Complex sites are classical LTSER sites investigating processes and fluxes on a landscape or regional level or form the bracket over a number of LTER or simple sites.</t>
+        </is>
+      </c>
       <c r="E323" t="inlineStr"/>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>cl:10311</t>
-        </is>
-      </c>
+      <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
@@ -44570,18 +44538,26 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>cl:10315</t>
+          <t>cl:10318</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>maintenance infrastructure</t>
+          <t>platform</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr"/>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>a local or regional socio-ecological complex, containing – natural, man-controlled and man-created and dominated ecosystems –, provides not only a multi-site research platform where inter and trans-disciplinary knowledge are produced, a space where the operational infrastructure, policies and adaptive management plans for sustainability can be designed, developed and tested. , "[http://www.lter-europe.net/sites-platforms/categories] (Long-Term Socio-Ecological Research): Modular LTER-facility consisting of sites which are located in an area with defined boundaries. Besides this physical component, LTSER-Platforms provide multiple services like the networking of client groups (e.g. research, local stakeholders), data management, communication and representation (management component). The elements of LTSER Platforms represent the main habitats, land use forms and practices relevant for the broader region (up to 10000 km²) and cover all scales and levels relevant for LTSER (from local to landscape). LTSER-Platforms should represent economic and social units or coincide/overlap with such units where adequate information on land use history, economy and demography is available to allow for socio-ecological research.</t>
+        </is>
+      </c>
       <c r="E324" t="inlineStr"/>
-      <c r="F324" t="inlineStr"/>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>cl:10317</t>
+        </is>
+      </c>
       <c r="G324" t="inlineStr"/>
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
@@ -44696,12 +44672,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>cl:10316</t>
+          <t>cl:10319</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>snow clearing equipment</t>
+          <t>plot</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -44709,7 +44685,7 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
         <is>
-          <t>cl:10315</t>
+          <t>cl:10317</t>
         </is>
       </c>
       <c r="G325" t="inlineStr"/>
@@ -44826,22 +44802,22 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
+          <t>cl:10320</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>complex site</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr">
+        <is>
           <t>cl:10317</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>organisation design</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr"/>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>Type of the site of platform according to their inner heterogeneity. Simple sites are classical LTER sites measuring ecosystem processes in one or a very limited number of habitats. Complex sites are classical LTSER sites investigating processes and fluxes on a landscape or regional level or form the bracket over a number of LTER or simple sites.</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr"/>
-      <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
@@ -44956,20 +44932,16 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>cl:10318</t>
+          <t>cl:10321</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>sub site</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>a local or regional socio-ecological complex, containing – natural, man-controlled and man-created and dominated ecosystems –, provides not only a multi-site research platform where inter and trans-disciplinary knowledge are produced, a space where the operational infrastructure, policies and adaptive management plans for sustainability can be designed, developed and tested. , "[http://www.lter-europe.net/sites-platforms/categories] (Long-Term Socio-Ecological Research): Modular LTER-facility consisting of sites which are located in an area with defined boundaries. Besides this physical component, LTSER-Platforms provide multiple services like the networking of client groups (e.g. research, local stakeholders), data management, communication and representation (management component). The elements of LTSER Platforms represent the main habitats, land use forms and practices relevant for the broader region (up to 10000 km²) and cover all scales and levels relevant for LTSER (from local to landscape). LTSER-Platforms should represent economic and social units or coincide/overlap with such units where adequate information on land use history, economy and demography is available to allow for socio-ecological research.</t>
-        </is>
-      </c>
+      <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
@@ -45090,12 +45062,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>cl:10319</t>
+          <t>cl:10322</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>plot</t>
+          <t>simple site</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -45220,12 +45192,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>cl:10320</t>
+          <t>cl:10323</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>complex site</t>
+          <t>Sensor</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -45350,12 +45322,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>cl:10321</t>
+          <t>cl:10324</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>sub site</t>
+          <t>network</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -45480,22 +45452,18 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>cl:10322</t>
+          <t>cl:10325</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>simple site</t>
+          <t>lodging</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr"/>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>cl:10317</t>
-        </is>
-      </c>
+      <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
@@ -45610,12 +45578,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>cl:10323</t>
+          <t>cl:10326</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>no lodging</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -45623,7 +45591,7 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>cl:10317</t>
+          <t>cl:10325</t>
         </is>
       </c>
       <c r="G332" t="inlineStr"/>
@@ -45740,12 +45708,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>cl:10324</t>
+          <t>cl:10327</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>network</t>
+          <t>medium size lodging</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -45753,7 +45721,7 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>cl:10317</t>
+          <t>cl:10325</t>
         </is>
       </c>
       <c r="G333" t="inlineStr"/>
@@ -45870,18 +45838,22 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>cl:10325</t>
+          <t>cl:10328</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>lodging</t>
+          <t>unknown number of beds</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr"/>
-      <c r="F334" t="inlineStr"/>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>cl:10325</t>
+        </is>
+      </c>
       <c r="G334" t="inlineStr"/>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
@@ -45996,12 +45968,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>cl:10326</t>
+          <t>cl:10329</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>no lodging</t>
+          <t>small size lodging</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -46126,12 +46098,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>cl:10327</t>
+          <t>cl:10330</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>medium size lodging</t>
+          <t>large size lodging</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -46256,22 +46228,22 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>cl:10328</t>
+          <t>cl:10331</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>unknown number of beds</t>
+          <t>staff room</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr"/>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>The data type 'Staff room and lodging' describes availability of a working space and lodging at the research site.</t>
+        </is>
+      </c>
       <c r="E337" t="inlineStr"/>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>cl:10325</t>
-        </is>
-      </c>
+      <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
@@ -46386,12 +46358,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>cl:10329</t>
+          <t>cl:10332</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>small size lodging</t>
+          <t>small size staff room</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -46399,7 +46371,7 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>cl:10325</t>
+          <t>cl:10331</t>
         </is>
       </c>
       <c r="G338" t="inlineStr"/>
@@ -46516,12 +46488,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>cl:10330</t>
+          <t>cl:10333</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>large size lodging</t>
+          <t>large size staff room</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -46529,7 +46501,7 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>cl:10325</t>
+          <t>cl:10331</t>
         </is>
       </c>
       <c r="G339" t="inlineStr"/>
@@ -46646,22 +46618,22 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
+          <t>cl:10334</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>no staff room</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr">
+        <is>
           <t>cl:10331</t>
         </is>
       </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>staff room</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>The data type 'Staff room and lodging' describes availability of a working space and lodging at the research site.</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr"/>
-      <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
@@ -46776,12 +46748,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>cl:10332</t>
+          <t>cl:10335</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>small size staff room</t>
+          <t>unknown number of places</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -46906,12 +46878,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>cl:10333</t>
+          <t>cl:10336</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>large size staff room</t>
+          <t>medium size staff room</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -47036,23 +47008,23 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>cl:10334</t>
+          <t>cl:10337</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>no staff room</t>
+          <t>transportation</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr"/>
       <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>cl:10331</t>
-        </is>
-      </c>
-      <c r="G343" t="inlineStr"/>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ENVO_02000125</t>
+        </is>
+      </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -47166,12 +47138,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>cl:10335</t>
+          <t>cl:10338</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>unknown number of places</t>
+          <t>snow mobile</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -47179,7 +47151,7 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
-          <t>cl:10331</t>
+          <t>cl:10337</t>
         </is>
       </c>
       <c r="G344" t="inlineStr"/>
@@ -47296,12 +47268,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>cl:10336</t>
+          <t>cl:10339</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>medium size staff room</t>
+          <t>vehicle 4WD</t>
         </is>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -47309,7 +47281,7 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr">
         <is>
-          <t>cl:10331</t>
+          <t>cl:10337</t>
         </is>
       </c>
       <c r="G345" t="inlineStr"/>
@@ -47426,24 +47398,28 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>cl:10337</t>
+          <t>cl:10340</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>transportation</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr"/>
       <c r="E346" t="inlineStr"/>
-      <c r="F346" t="inlineStr"/>
-      <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_02000125</t>
-        </is>
-      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>cl:10337</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ENVO_01000608</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
@@ -47556,12 +47532,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>cl:10338</t>
+          <t>cl:10341</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>snow mobile</t>
+          <t>helicopter</t>
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -47686,12 +47662,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>cl:10339</t>
+          <t>cl:10342</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>vehicle 4WD</t>
+          <t>vehicle 2WD</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -47816,28 +47792,28 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>cl:10340</t>
+          <t>cl:10343</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>boat</t>
+          <t>workplace</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr"/>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>working environment for researcher</t>
+        </is>
+      </c>
       <c r="E349" t="inlineStr"/>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>cl:10337</t>
-        </is>
-      </c>
-      <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_01000608</t>
-        </is>
-      </c>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>http://www.eionet.europa.eu/gemet/concept/9375</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
@@ -47950,12 +47926,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>cl:10341</t>
+          <t>cl:10344</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>helicopter</t>
+          <t>laboratory</t>
         </is>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -47963,7 +47939,7 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
-          <t>cl:10337</t>
+          <t>cl:10343</t>
         </is>
       </c>
       <c r="G350" t="inlineStr"/>
@@ -48080,12 +48056,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>cl:10342</t>
+          <t>cl:10345</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>vehicle 2WD</t>
+          <t>field laboratory</t>
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -48093,7 +48069,7 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr">
         <is>
-          <t>cl:10337</t>
+          <t>cl:10343</t>
         </is>
       </c>
       <c r="G351" t="inlineStr"/>
@@ -48210,28 +48186,28 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>cl:10343</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>workplace</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="C352" t="inlineStr"/>
       <c r="D352" t="inlineStr">
         <is>
-          <t>working environment for researcher</t>
+          <t>This concept addresses spatial (e.g. plot, landscape scale) and temporal (e.g. day, year) scales of research projects.</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>http://www.eionet.europa.eu/gemet/concept/9375</t>
-        </is>
-      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>http://mimi.case.edu/ontologies/2009/1/UnitsOntology#scale</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
@@ -48344,20 +48320,24 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>cl:10344</t>
+          <t>cl:10347</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>laboratory</t>
+          <t>scaling up</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
-      <c r="D353" t="inlineStr"/>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>[Robert J. Beichner] SCALE-UP is an extension of the highly successful IMPEC project (Integrated Math, Physics, Engineering, and Chemistry), one of NC State's curricular reform efforts undertaken as part of the SUCCEED coalition...</t>
+        </is>
+      </c>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>cl:10343</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G353" t="inlineStr"/>
@@ -48474,20 +48454,24 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>cl:10345</t>
+          <t>cl:10348</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>field laboratory</t>
+          <t>spatial scale</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
-      <c r="D354" t="inlineStr"/>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>[Siquan Tian] Spatial scale is an important factor that needs to be considered in data collection and analysis in ecological studies. Studies focusing on the quantitative evaluation of impacts of spatial scales are, however, limited in fisheries...</t>
+        </is>
+      </c>
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>cl:10343</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G354" t="inlineStr"/>
@@ -48604,28 +48588,28 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
+          <t>cl:10349</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>temporal scale</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>temporal scales</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr">
+        <is>
           <t>cl:10346</t>
         </is>
       </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr"/>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>This concept addresses spatial (e.g. plot, landscape scale) and temporal (e.g. day, year) scales of research projects.</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr"/>
-      <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr"/>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>http://mimi.case.edu/ontologies/2009/1/UnitsOntology#scale</t>
-        </is>
-      </c>
+      <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
@@ -48738,20 +48722,16 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>cl:10347</t>
+          <t>cl:10350</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>scaling up</t>
+          <t>scale dependence</t>
         </is>
       </c>
       <c r="C356" t="inlineStr"/>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>[Robert J. Beichner] SCALE-UP is an extension of the highly successful IMPEC project (Integrated Math, Physics, Engineering, and Chemistry), one of NC State's curricular reform efforts undertaken as part of the SUCCEED coalition...</t>
-        </is>
-      </c>
+      <c r="D356" t="inlineStr"/>
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
@@ -48872,20 +48852,16 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>cl:10348</t>
+          <t>cl:10351</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>spatial scale</t>
+          <t>ecosystem approach</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>[Siquan Tian] Spatial scale is an important factor that needs to be considered in data collection and analysis in ecological studies. Studies focusing on the quantitative evaluation of impacts of spatial scales are, however, limited in fisheries...</t>
-        </is>
-      </c>
+      <c r="D357" t="inlineStr"/>
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
@@ -49006,19 +48982,15 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>cl:10349</t>
+          <t>cl:10352</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>temporal scale</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>temporal scales</t>
-        </is>
-      </c>
+          <t>local scale</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr"/>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
@@ -49140,12 +49112,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>cl:10350</t>
+          <t>cl:10353</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>scale dependence</t>
+          <t>global scale</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -49270,12 +49242,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>cl:10351</t>
+          <t>cl:10354</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>ecosystem approach</t>
+          <t>regional scale</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -49400,12 +49372,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>cl:10352</t>
+          <t>cl:10355</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>local scale</t>
+          <t>national scale</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -49530,12 +49502,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>cl:10353</t>
+          <t>cl:10356</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>global scale</t>
+          <t>field scale</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -49660,12 +49632,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>cl:10354</t>
+          <t>cl:10357</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>regional scale</t>
+          <t>subcatchment scale</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -49790,12 +49762,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>cl:10355</t>
+          <t>cl:10358</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>national scale</t>
+          <t>continental scale</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -49920,12 +49892,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>cl:10356</t>
+          <t>cl:10359</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>field scale</t>
+          <t>catchment scale</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -50050,12 +50022,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>cl:10357</t>
+          <t>cl:10360</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>subcatchment scale</t>
+          <t>plot scale</t>
         </is>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -50180,12 +50152,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>cl:10358</t>
+          <t>cl:10361</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>continental scale</t>
+          <t>ecotron scale</t>
         </is>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -50310,12 +50282,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>cl:10359</t>
+          <t>cl:10362</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>catchment scale</t>
+          <t>beyond catchment scale</t>
         </is>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -50440,12 +50412,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>cl:10360</t>
+          <t>cl:10363</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>plot scale</t>
+          <t>micro site scale</t>
         </is>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -50570,12 +50542,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>cl:10361</t>
+          <t>cl:10364</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ecotron scale</t>
+          <t>landscape scale</t>
         </is>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -50700,12 +50672,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>cl:10362</t>
+          <t>et:30212</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>beyond catchment scale</t>
+          <t>catchment area</t>
         </is>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -50713,7 +50685,7 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr">
         <is>
-          <t>cl:10346</t>
+          <t>et:20935,cl:10187</t>
         </is>
       </c>
       <c r="G371" t="inlineStr"/>
@@ -50721,8 +50693,16 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
-      <c r="M371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>et:21533</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>et:10092</t>
+        </is>
+      </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="inlineStr"/>
@@ -50827,404 +50807,6 @@
       <c r="CY371" t="inlineStr"/>
       <c r="CZ371" t="inlineStr"/>
     </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>cl:10363</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>micro site scale</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr"/>
-      <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G372" t="inlineStr"/>
-      <c r="H372" t="inlineStr"/>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
-      <c r="M372" t="inlineStr"/>
-      <c r="N372" t="inlineStr"/>
-      <c r="O372" t="inlineStr"/>
-      <c r="P372" t="inlineStr"/>
-      <c r="Q372" t="inlineStr"/>
-      <c r="R372" t="inlineStr"/>
-      <c r="S372" t="inlineStr"/>
-      <c r="T372" t="inlineStr"/>
-      <c r="U372" t="inlineStr"/>
-      <c r="V372" t="inlineStr"/>
-      <c r="W372" t="inlineStr"/>
-      <c r="X372" t="inlineStr"/>
-      <c r="Y372" t="inlineStr"/>
-      <c r="Z372" t="inlineStr"/>
-      <c r="AA372" t="inlineStr"/>
-      <c r="AB372" t="inlineStr"/>
-      <c r="AC372" t="inlineStr"/>
-      <c r="AD372" t="inlineStr"/>
-      <c r="AE372" t="inlineStr"/>
-      <c r="AF372" t="inlineStr"/>
-      <c r="AG372" t="inlineStr"/>
-      <c r="AH372" t="inlineStr"/>
-      <c r="AI372" t="inlineStr"/>
-      <c r="AJ372" t="inlineStr"/>
-      <c r="AK372" t="inlineStr"/>
-      <c r="AL372" t="inlineStr"/>
-      <c r="AM372" t="inlineStr"/>
-      <c r="AN372" t="inlineStr"/>
-      <c r="AO372" t="inlineStr"/>
-      <c r="AP372" t="inlineStr"/>
-      <c r="AQ372" t="inlineStr"/>
-      <c r="AR372" t="inlineStr"/>
-      <c r="AS372" t="inlineStr"/>
-      <c r="AT372" t="inlineStr"/>
-      <c r="AU372" t="inlineStr"/>
-      <c r="AV372" t="inlineStr"/>
-      <c r="AW372" t="inlineStr"/>
-      <c r="AX372" t="inlineStr"/>
-      <c r="AY372" t="inlineStr"/>
-      <c r="AZ372" t="inlineStr"/>
-      <c r="BA372" t="inlineStr"/>
-      <c r="BB372" t="inlineStr"/>
-      <c r="BC372" t="inlineStr"/>
-      <c r="BD372" t="inlineStr"/>
-      <c r="BE372" t="inlineStr"/>
-      <c r="BF372" t="inlineStr"/>
-      <c r="BG372" t="inlineStr"/>
-      <c r="BH372" t="inlineStr"/>
-      <c r="BI372" t="inlineStr"/>
-      <c r="BJ372" t="inlineStr"/>
-      <c r="BK372" t="inlineStr"/>
-      <c r="BL372" t="inlineStr"/>
-      <c r="BM372" t="inlineStr"/>
-      <c r="BN372" t="inlineStr"/>
-      <c r="BO372" t="inlineStr"/>
-      <c r="BP372" t="inlineStr"/>
-      <c r="BQ372" t="inlineStr"/>
-      <c r="BR372" t="inlineStr"/>
-      <c r="BS372" t="inlineStr"/>
-      <c r="BT372" t="inlineStr"/>
-      <c r="BU372" t="inlineStr"/>
-      <c r="BV372" t="inlineStr"/>
-      <c r="BW372" t="inlineStr"/>
-      <c r="BX372" t="inlineStr"/>
-      <c r="BY372" t="inlineStr"/>
-      <c r="BZ372" t="inlineStr"/>
-      <c r="CA372" t="inlineStr"/>
-      <c r="CB372" t="inlineStr"/>
-      <c r="CC372" t="inlineStr"/>
-      <c r="CD372" t="inlineStr"/>
-      <c r="CE372" t="inlineStr"/>
-      <c r="CF372" t="inlineStr"/>
-      <c r="CG372" t="inlineStr">
-        <is>
-          <t>2022-03-28</t>
-        </is>
-      </c>
-      <c r="CH372" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="CI372" t="inlineStr">
-        <is>
-          <t>2022-03-28</t>
-        </is>
-      </c>
-      <c r="CJ372" t="inlineStr"/>
-      <c r="CK372" t="inlineStr"/>
-      <c r="CL372" t="inlineStr"/>
-      <c r="CM372" t="inlineStr"/>
-      <c r="CN372" t="inlineStr"/>
-      <c r="CO372" t="inlineStr"/>
-      <c r="CP372" t="inlineStr"/>
-      <c r="CQ372" t="inlineStr"/>
-      <c r="CR372" t="inlineStr"/>
-      <c r="CS372" t="inlineStr"/>
-      <c r="CT372" t="inlineStr"/>
-      <c r="CU372" t="inlineStr"/>
-      <c r="CV372" t="inlineStr"/>
-      <c r="CW372" t="inlineStr"/>
-      <c r="CX372" t="inlineStr"/>
-      <c r="CY372" t="inlineStr"/>
-      <c r="CZ372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>cl:10364</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>landscape scale</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr"/>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr"/>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
-      <c r="M373" t="inlineStr"/>
-      <c r="N373" t="inlineStr"/>
-      <c r="O373" t="inlineStr"/>
-      <c r="P373" t="inlineStr"/>
-      <c r="Q373" t="inlineStr"/>
-      <c r="R373" t="inlineStr"/>
-      <c r="S373" t="inlineStr"/>
-      <c r="T373" t="inlineStr"/>
-      <c r="U373" t="inlineStr"/>
-      <c r="V373" t="inlineStr"/>
-      <c r="W373" t="inlineStr"/>
-      <c r="X373" t="inlineStr"/>
-      <c r="Y373" t="inlineStr"/>
-      <c r="Z373" t="inlineStr"/>
-      <c r="AA373" t="inlineStr"/>
-      <c r="AB373" t="inlineStr"/>
-      <c r="AC373" t="inlineStr"/>
-      <c r="AD373" t="inlineStr"/>
-      <c r="AE373" t="inlineStr"/>
-      <c r="AF373" t="inlineStr"/>
-      <c r="AG373" t="inlineStr"/>
-      <c r="AH373" t="inlineStr"/>
-      <c r="AI373" t="inlineStr"/>
-      <c r="AJ373" t="inlineStr"/>
-      <c r="AK373" t="inlineStr"/>
-      <c r="AL373" t="inlineStr"/>
-      <c r="AM373" t="inlineStr"/>
-      <c r="AN373" t="inlineStr"/>
-      <c r="AO373" t="inlineStr"/>
-      <c r="AP373" t="inlineStr"/>
-      <c r="AQ373" t="inlineStr"/>
-      <c r="AR373" t="inlineStr"/>
-      <c r="AS373" t="inlineStr"/>
-      <c r="AT373" t="inlineStr"/>
-      <c r="AU373" t="inlineStr"/>
-      <c r="AV373" t="inlineStr"/>
-      <c r="AW373" t="inlineStr"/>
-      <c r="AX373" t="inlineStr"/>
-      <c r="AY373" t="inlineStr"/>
-      <c r="AZ373" t="inlineStr"/>
-      <c r="BA373" t="inlineStr"/>
-      <c r="BB373" t="inlineStr"/>
-      <c r="BC373" t="inlineStr"/>
-      <c r="BD373" t="inlineStr"/>
-      <c r="BE373" t="inlineStr"/>
-      <c r="BF373" t="inlineStr"/>
-      <c r="BG373" t="inlineStr"/>
-      <c r="BH373" t="inlineStr"/>
-      <c r="BI373" t="inlineStr"/>
-      <c r="BJ373" t="inlineStr"/>
-      <c r="BK373" t="inlineStr"/>
-      <c r="BL373" t="inlineStr"/>
-      <c r="BM373" t="inlineStr"/>
-      <c r="BN373" t="inlineStr"/>
-      <c r="BO373" t="inlineStr"/>
-      <c r="BP373" t="inlineStr"/>
-      <c r="BQ373" t="inlineStr"/>
-      <c r="BR373" t="inlineStr"/>
-      <c r="BS373" t="inlineStr"/>
-      <c r="BT373" t="inlineStr"/>
-      <c r="BU373" t="inlineStr"/>
-      <c r="BV373" t="inlineStr"/>
-      <c r="BW373" t="inlineStr"/>
-      <c r="BX373" t="inlineStr"/>
-      <c r="BY373" t="inlineStr"/>
-      <c r="BZ373" t="inlineStr"/>
-      <c r="CA373" t="inlineStr"/>
-      <c r="CB373" t="inlineStr"/>
-      <c r="CC373" t="inlineStr"/>
-      <c r="CD373" t="inlineStr"/>
-      <c r="CE373" t="inlineStr"/>
-      <c r="CF373" t="inlineStr"/>
-      <c r="CG373" t="inlineStr">
-        <is>
-          <t>2022-03-28</t>
-        </is>
-      </c>
-      <c r="CH373" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="CI373" t="inlineStr">
-        <is>
-          <t>2022-03-28</t>
-        </is>
-      </c>
-      <c r="CJ373" t="inlineStr"/>
-      <c r="CK373" t="inlineStr"/>
-      <c r="CL373" t="inlineStr"/>
-      <c r="CM373" t="inlineStr"/>
-      <c r="CN373" t="inlineStr"/>
-      <c r="CO373" t="inlineStr"/>
-      <c r="CP373" t="inlineStr"/>
-      <c r="CQ373" t="inlineStr"/>
-      <c r="CR373" t="inlineStr"/>
-      <c r="CS373" t="inlineStr"/>
-      <c r="CT373" t="inlineStr"/>
-      <c r="CU373" t="inlineStr"/>
-      <c r="CV373" t="inlineStr"/>
-      <c r="CW373" t="inlineStr"/>
-      <c r="CX373" t="inlineStr"/>
-      <c r="CY373" t="inlineStr"/>
-      <c r="CZ373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>et:30212</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>catchment area</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr"/>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t>et:20935,cl:10187</t>
-        </is>
-      </c>
-      <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr"/>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
-      <c r="M374" t="inlineStr">
-        <is>
-          <t>et:21533</t>
-        </is>
-      </c>
-      <c r="N374" t="inlineStr">
-        <is>
-          <t>et:10092</t>
-        </is>
-      </c>
-      <c r="O374" t="inlineStr"/>
-      <c r="P374" t="inlineStr"/>
-      <c r="Q374" t="inlineStr"/>
-      <c r="R374" t="inlineStr"/>
-      <c r="S374" t="inlineStr"/>
-      <c r="T374" t="inlineStr"/>
-      <c r="U374" t="inlineStr"/>
-      <c r="V374" t="inlineStr"/>
-      <c r="W374" t="inlineStr"/>
-      <c r="X374" t="inlineStr"/>
-      <c r="Y374" t="inlineStr"/>
-      <c r="Z374" t="inlineStr"/>
-      <c r="AA374" t="inlineStr"/>
-      <c r="AB374" t="inlineStr"/>
-      <c r="AC374" t="inlineStr"/>
-      <c r="AD374" t="inlineStr"/>
-      <c r="AE374" t="inlineStr"/>
-      <c r="AF374" t="inlineStr"/>
-      <c r="AG374" t="inlineStr"/>
-      <c r="AH374" t="inlineStr"/>
-      <c r="AI374" t="inlineStr"/>
-      <c r="AJ374" t="inlineStr"/>
-      <c r="AK374" t="inlineStr"/>
-      <c r="AL374" t="inlineStr"/>
-      <c r="AM374" t="inlineStr"/>
-      <c r="AN374" t="inlineStr"/>
-      <c r="AO374" t="inlineStr"/>
-      <c r="AP374" t="inlineStr"/>
-      <c r="AQ374" t="inlineStr"/>
-      <c r="AR374" t="inlineStr"/>
-      <c r="AS374" t="inlineStr"/>
-      <c r="AT374" t="inlineStr"/>
-      <c r="AU374" t="inlineStr"/>
-      <c r="AV374" t="inlineStr"/>
-      <c r="AW374" t="inlineStr"/>
-      <c r="AX374" t="inlineStr"/>
-      <c r="AY374" t="inlineStr"/>
-      <c r="AZ374" t="inlineStr"/>
-      <c r="BA374" t="inlineStr"/>
-      <c r="BB374" t="inlineStr"/>
-      <c r="BC374" t="inlineStr"/>
-      <c r="BD374" t="inlineStr"/>
-      <c r="BE374" t="inlineStr"/>
-      <c r="BF374" t="inlineStr"/>
-      <c r="BG374" t="inlineStr"/>
-      <c r="BH374" t="inlineStr"/>
-      <c r="BI374" t="inlineStr"/>
-      <c r="BJ374" t="inlineStr"/>
-      <c r="BK374" t="inlineStr"/>
-      <c r="BL374" t="inlineStr"/>
-      <c r="BM374" t="inlineStr"/>
-      <c r="BN374" t="inlineStr"/>
-      <c r="BO374" t="inlineStr"/>
-      <c r="BP374" t="inlineStr"/>
-      <c r="BQ374" t="inlineStr"/>
-      <c r="BR374" t="inlineStr"/>
-      <c r="BS374" t="inlineStr"/>
-      <c r="BT374" t="inlineStr"/>
-      <c r="BU374" t="inlineStr"/>
-      <c r="BV374" t="inlineStr"/>
-      <c r="BW374" t="inlineStr"/>
-      <c r="BX374" t="inlineStr"/>
-      <c r="BY374" t="inlineStr"/>
-      <c r="BZ374" t="inlineStr"/>
-      <c r="CA374" t="inlineStr"/>
-      <c r="CB374" t="inlineStr"/>
-      <c r="CC374" t="inlineStr"/>
-      <c r="CD374" t="inlineStr"/>
-      <c r="CE374" t="inlineStr"/>
-      <c r="CF374" t="inlineStr"/>
-      <c r="CG374" t="inlineStr">
-        <is>
-          <t>2022-03-28</t>
-        </is>
-      </c>
-      <c r="CH374" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="CI374" t="inlineStr">
-        <is>
-          <t>2022-03-28</t>
-        </is>
-      </c>
-      <c r="CJ374" t="inlineStr"/>
-      <c r="CK374" t="inlineStr"/>
-      <c r="CL374" t="inlineStr"/>
-      <c r="CM374" t="inlineStr"/>
-      <c r="CN374" t="inlineStr"/>
-      <c r="CO374" t="inlineStr"/>
-      <c r="CP374" t="inlineStr"/>
-      <c r="CQ374" t="inlineStr"/>
-      <c r="CR374" t="inlineStr"/>
-      <c r="CS374" t="inlineStr"/>
-      <c r="CT374" t="inlineStr"/>
-      <c r="CU374" t="inlineStr"/>
-      <c r="CV374" t="inlineStr"/>
-      <c r="CW374" t="inlineStr"/>
-      <c r="CX374" t="inlineStr"/>
-      <c r="CY374" t="inlineStr"/>
-      <c r="CZ374" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -19363,7 +19363,7 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>cl:10009,cl:10012,et:10145</t>
+          <t>cl:10009,cl:10012,et:10127</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -19501,7 +19501,7 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>cl:10009,cl:10012,et:10145</t>
+          <t>cl:10009,cl:10012,et:10127</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -20467,7 +20467,7 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>cl:10009,cl:10012,et:10145</t>
+          <t>cl:10009,cl:10012,et:10127</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ371"/>
+  <dimension ref="A1:CZ397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50786,7 +50786,7 @@
       </c>
       <c r="CI371" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ371" t="inlineStr"/>
@@ -50807,6 +50807,3882 @@
       <c r="CY371" t="inlineStr"/>
       <c r="CZ371" t="inlineStr"/>
     </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>cl:10365</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>eLTER Standard Observations</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr"/>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="inlineStr"/>
+      <c r="M372" t="inlineStr"/>
+      <c r="N372" t="inlineStr"/>
+      <c r="O372" t="inlineStr"/>
+      <c r="P372" t="inlineStr"/>
+      <c r="Q372" t="inlineStr"/>
+      <c r="R372" t="inlineStr"/>
+      <c r="S372" t="inlineStr"/>
+      <c r="T372" t="inlineStr"/>
+      <c r="U372" t="inlineStr"/>
+      <c r="V372" t="inlineStr"/>
+      <c r="W372" t="inlineStr"/>
+      <c r="X372" t="inlineStr"/>
+      <c r="Y372" t="inlineStr"/>
+      <c r="Z372" t="inlineStr"/>
+      <c r="AA372" t="inlineStr"/>
+      <c r="AB372" t="inlineStr"/>
+      <c r="AC372" t="inlineStr"/>
+      <c r="AD372" t="inlineStr"/>
+      <c r="AE372" t="inlineStr"/>
+      <c r="AF372" t="inlineStr"/>
+      <c r="AG372" t="inlineStr"/>
+      <c r="AH372" t="inlineStr"/>
+      <c r="AI372" t="inlineStr"/>
+      <c r="AJ372" t="inlineStr"/>
+      <c r="AK372" t="inlineStr"/>
+      <c r="AL372" t="inlineStr"/>
+      <c r="AM372" t="inlineStr"/>
+      <c r="AN372" t="inlineStr"/>
+      <c r="AO372" t="inlineStr"/>
+      <c r="AP372" t="inlineStr"/>
+      <c r="AQ372" t="inlineStr"/>
+      <c r="AR372" t="inlineStr"/>
+      <c r="AS372" t="inlineStr"/>
+      <c r="AT372" t="inlineStr"/>
+      <c r="AU372" t="inlineStr"/>
+      <c r="AV372" t="inlineStr"/>
+      <c r="AW372" t="inlineStr"/>
+      <c r="AX372" t="inlineStr"/>
+      <c r="AY372" t="inlineStr"/>
+      <c r="AZ372" t="inlineStr"/>
+      <c r="BA372" t="inlineStr"/>
+      <c r="BB372" t="inlineStr"/>
+      <c r="BC372" t="inlineStr"/>
+      <c r="BD372" t="inlineStr"/>
+      <c r="BE372" t="inlineStr"/>
+      <c r="BF372" t="inlineStr"/>
+      <c r="BG372" t="inlineStr"/>
+      <c r="BH372" t="inlineStr"/>
+      <c r="BI372" t="inlineStr"/>
+      <c r="BJ372" t="inlineStr"/>
+      <c r="BK372" t="inlineStr"/>
+      <c r="BL372" t="inlineStr"/>
+      <c r="BM372" t="inlineStr"/>
+      <c r="BN372" t="inlineStr"/>
+      <c r="BO372" t="inlineStr"/>
+      <c r="BP372" t="inlineStr"/>
+      <c r="BQ372" t="inlineStr"/>
+      <c r="BR372" t="inlineStr"/>
+      <c r="BS372" t="inlineStr"/>
+      <c r="BT372" t="inlineStr"/>
+      <c r="BU372" t="inlineStr"/>
+      <c r="BV372" t="inlineStr"/>
+      <c r="BW372" t="inlineStr"/>
+      <c r="BX372" t="inlineStr"/>
+      <c r="BY372" t="inlineStr"/>
+      <c r="BZ372" t="inlineStr"/>
+      <c r="CA372" t="inlineStr"/>
+      <c r="CB372" t="inlineStr"/>
+      <c r="CC372" t="inlineStr"/>
+      <c r="CD372" t="inlineStr"/>
+      <c r="CE372" t="inlineStr"/>
+      <c r="CF372" t="inlineStr"/>
+      <c r="CG372" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH372" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="CI372" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ372" t="inlineStr"/>
+      <c r="CK372" t="inlineStr"/>
+      <c r="CL372" t="inlineStr"/>
+      <c r="CM372" t="inlineStr"/>
+      <c r="CN372" t="inlineStr"/>
+      <c r="CO372" t="inlineStr"/>
+      <c r="CP372" t="inlineStr"/>
+      <c r="CQ372" t="inlineStr"/>
+      <c r="CR372" t="inlineStr"/>
+      <c r="CS372" t="inlineStr"/>
+      <c r="CT372" t="inlineStr"/>
+      <c r="CU372" t="inlineStr"/>
+      <c r="CV372" t="inlineStr"/>
+      <c r="CW372" t="inlineStr"/>
+      <c r="CX372" t="inlineStr"/>
+      <c r="CY372" t="inlineStr"/>
+      <c r="CZ372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>cl:10366</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>abiotic site characteristics</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr"/>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>cl:10365</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr"/>
+      <c r="M373" t="inlineStr"/>
+      <c r="N373" t="inlineStr"/>
+      <c r="O373" t="inlineStr"/>
+      <c r="P373" t="inlineStr"/>
+      <c r="Q373" t="inlineStr"/>
+      <c r="R373" t="inlineStr"/>
+      <c r="S373" t="inlineStr"/>
+      <c r="T373" t="inlineStr"/>
+      <c r="U373" t="inlineStr"/>
+      <c r="V373" t="inlineStr"/>
+      <c r="W373" t="inlineStr"/>
+      <c r="X373" t="inlineStr"/>
+      <c r="Y373" t="inlineStr"/>
+      <c r="Z373" t="inlineStr"/>
+      <c r="AA373" t="inlineStr"/>
+      <c r="AB373" t="inlineStr"/>
+      <c r="AC373" t="inlineStr"/>
+      <c r="AD373" t="inlineStr"/>
+      <c r="AE373" t="inlineStr"/>
+      <c r="AF373" t="inlineStr"/>
+      <c r="AG373" t="inlineStr"/>
+      <c r="AH373" t="inlineStr"/>
+      <c r="AI373" t="inlineStr"/>
+      <c r="AJ373" t="inlineStr"/>
+      <c r="AK373" t="inlineStr"/>
+      <c r="AL373" t="inlineStr"/>
+      <c r="AM373" t="inlineStr"/>
+      <c r="AN373" t="inlineStr"/>
+      <c r="AO373" t="inlineStr"/>
+      <c r="AP373" t="inlineStr"/>
+      <c r="AQ373" t="inlineStr"/>
+      <c r="AR373" t="inlineStr"/>
+      <c r="AS373" t="inlineStr"/>
+      <c r="AT373" t="inlineStr"/>
+      <c r="AU373" t="inlineStr"/>
+      <c r="AV373" t="inlineStr"/>
+      <c r="AW373" t="inlineStr"/>
+      <c r="AX373" t="inlineStr"/>
+      <c r="AY373" t="inlineStr"/>
+      <c r="AZ373" t="inlineStr"/>
+      <c r="BA373" t="inlineStr"/>
+      <c r="BB373" t="inlineStr"/>
+      <c r="BC373" t="inlineStr"/>
+      <c r="BD373" t="inlineStr"/>
+      <c r="BE373" t="inlineStr"/>
+      <c r="BF373" t="inlineStr"/>
+      <c r="BG373" t="inlineStr"/>
+      <c r="BH373" t="inlineStr"/>
+      <c r="BI373" t="inlineStr"/>
+      <c r="BJ373" t="inlineStr"/>
+      <c r="BK373" t="inlineStr"/>
+      <c r="BL373" t="inlineStr"/>
+      <c r="BM373" t="inlineStr"/>
+      <c r="BN373" t="inlineStr"/>
+      <c r="BO373" t="inlineStr"/>
+      <c r="BP373" t="inlineStr"/>
+      <c r="BQ373" t="inlineStr"/>
+      <c r="BR373" t="inlineStr"/>
+      <c r="BS373" t="inlineStr"/>
+      <c r="BT373" t="inlineStr"/>
+      <c r="BU373" t="inlineStr"/>
+      <c r="BV373" t="inlineStr"/>
+      <c r="BW373" t="inlineStr"/>
+      <c r="BX373" t="inlineStr"/>
+      <c r="BY373" t="inlineStr"/>
+      <c r="BZ373" t="inlineStr"/>
+      <c r="CA373" t="inlineStr"/>
+      <c r="CB373" t="inlineStr"/>
+      <c r="CC373" t="inlineStr"/>
+      <c r="CD373" t="inlineStr"/>
+      <c r="CE373" t="inlineStr"/>
+      <c r="CF373" t="inlineStr"/>
+      <c r="CG373" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH373" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="CI373" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ373" t="inlineStr"/>
+      <c r="CK373" t="inlineStr"/>
+      <c r="CL373" t="inlineStr"/>
+      <c r="CM373" t="inlineStr"/>
+      <c r="CN373" t="inlineStr"/>
+      <c r="CO373" t="inlineStr"/>
+      <c r="CP373" t="inlineStr"/>
+      <c r="CQ373" t="inlineStr"/>
+      <c r="CR373" t="inlineStr"/>
+      <c r="CS373" t="inlineStr"/>
+      <c r="CT373" t="inlineStr"/>
+      <c r="CU373" t="inlineStr"/>
+      <c r="CV373" t="inlineStr"/>
+      <c r="CW373" t="inlineStr"/>
+      <c r="CX373" t="inlineStr"/>
+      <c r="CY373" t="inlineStr"/>
+      <c r="CZ373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>et:20506</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>climate</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>[MESH] The longterm manifestations of WEATHER. (McGraw-Hill Dictionary of Scientific and Technical Terms, 6th ed)</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>cl:10366,et:21753</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ENVO_01001082,http://purl.bioontology.org/ontology/MESH/D002980,https://vocab.lternet.edu/vocab/vocab/?tema=109,http://www.eionet.europa.eu/gemet/concept/1462</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
+      <c r="M374" t="inlineStr"/>
+      <c r="N374" t="inlineStr"/>
+      <c r="O374" t="inlineStr"/>
+      <c r="P374" t="inlineStr"/>
+      <c r="Q374" t="inlineStr"/>
+      <c r="R374" t="inlineStr"/>
+      <c r="S374" t="inlineStr"/>
+      <c r="T374" t="inlineStr"/>
+      <c r="U374" t="inlineStr"/>
+      <c r="V374" t="inlineStr"/>
+      <c r="W374" t="inlineStr"/>
+      <c r="X374" t="inlineStr"/>
+      <c r="Y374" t="inlineStr"/>
+      <c r="Z374" t="inlineStr"/>
+      <c r="AA374" t="inlineStr"/>
+      <c r="AB374" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="AC374" t="inlineStr">
+        <is>
+          <t>مناخ</t>
+        </is>
+      </c>
+      <c r="AD374" t="inlineStr">
+        <is>
+          <t>Климат</t>
+        </is>
+      </c>
+      <c r="AE374" t="inlineStr">
+        <is>
+          <t>podnebí</t>
+        </is>
+      </c>
+      <c r="AF374" t="inlineStr">
+        <is>
+          <t>klima</t>
+        </is>
+      </c>
+      <c r="AG374" t="inlineStr">
+        <is>
+          <t>κλίμα</t>
+        </is>
+      </c>
+      <c r="AH374" t="inlineStr">
+        <is>
+          <t>clima</t>
+        </is>
+      </c>
+      <c r="AI374" t="inlineStr">
+        <is>
+          <t>kliima</t>
+        </is>
+      </c>
+      <c r="AJ374" t="inlineStr">
+        <is>
+          <t>ilmasto</t>
+        </is>
+      </c>
+      <c r="AK374" t="inlineStr">
+        <is>
+          <t>climat</t>
+        </is>
+      </c>
+      <c r="AL374" t="inlineStr">
+        <is>
+          <t>klima</t>
+        </is>
+      </c>
+      <c r="AM374" t="inlineStr">
+        <is>
+          <t>éghajlat</t>
+        </is>
+      </c>
+      <c r="AN374" t="inlineStr">
+        <is>
+          <t>clima</t>
+        </is>
+      </c>
+      <c r="AO374" t="inlineStr">
+        <is>
+          <t>気候</t>
+        </is>
+      </c>
+      <c r="AP374" t="inlineStr">
+        <is>
+          <t>klimatas</t>
+        </is>
+      </c>
+      <c r="AQ374" t="inlineStr">
+        <is>
+          <t>klimats</t>
+        </is>
+      </c>
+      <c r="AR374" t="inlineStr">
+        <is>
+          <t>klimaat</t>
+        </is>
+      </c>
+      <c r="AS374" t="inlineStr">
+        <is>
+          <t>klima</t>
+        </is>
+      </c>
+      <c r="AT374" t="inlineStr">
+        <is>
+          <t>klimat</t>
+        </is>
+      </c>
+      <c r="AU374" t="inlineStr">
+        <is>
+          <t>clima</t>
+        </is>
+      </c>
+      <c r="AV374" t="inlineStr">
+        <is>
+          <t>climă</t>
+        </is>
+      </c>
+      <c r="AW374" t="inlineStr">
+        <is>
+          <t>klíma</t>
+        </is>
+      </c>
+      <c r="AX374" t="inlineStr">
+        <is>
+          <t>podnebje, klima</t>
+        </is>
+      </c>
+      <c r="AY374" t="inlineStr">
+        <is>
+          <t>klimat</t>
+        </is>
+      </c>
+      <c r="AZ374" t="inlineStr">
+        <is>
+          <t>气候</t>
+        </is>
+      </c>
+      <c r="BA374" t="inlineStr"/>
+      <c r="BB374" t="inlineStr"/>
+      <c r="BC374" t="inlineStr"/>
+      <c r="BD374" t="inlineStr"/>
+      <c r="BE374" t="inlineStr"/>
+      <c r="BF374" t="inlineStr"/>
+      <c r="BG374" t="inlineStr"/>
+      <c r="BH374" t="inlineStr"/>
+      <c r="BI374" t="inlineStr"/>
+      <c r="BJ374" t="inlineStr"/>
+      <c r="BK374" t="inlineStr"/>
+      <c r="BL374" t="inlineStr"/>
+      <c r="BM374" t="inlineStr"/>
+      <c r="BN374" t="inlineStr"/>
+      <c r="BO374" t="inlineStr"/>
+      <c r="BP374" t="inlineStr"/>
+      <c r="BQ374" t="inlineStr"/>
+      <c r="BR374" t="inlineStr"/>
+      <c r="BS374" t="inlineStr"/>
+      <c r="BT374" t="inlineStr"/>
+      <c r="BU374" t="inlineStr"/>
+      <c r="BV374" t="inlineStr"/>
+      <c r="BW374" t="inlineStr"/>
+      <c r="BX374" t="inlineStr"/>
+      <c r="BY374" t="inlineStr"/>
+      <c r="BZ374" t="inlineStr"/>
+      <c r="CA374" t="inlineStr"/>
+      <c r="CB374" t="inlineStr"/>
+      <c r="CC374" t="inlineStr"/>
+      <c r="CD374" t="inlineStr"/>
+      <c r="CE374" t="inlineStr"/>
+      <c r="CF374" t="inlineStr"/>
+      <c r="CG374" t="inlineStr">
+        <is>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="CH374" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
+      <c r="CI374" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ374" t="inlineStr"/>
+      <c r="CK374" t="inlineStr"/>
+      <c r="CL374" t="inlineStr"/>
+      <c r="CM374" t="inlineStr"/>
+      <c r="CN374" t="inlineStr"/>
+      <c r="CO374" t="inlineStr"/>
+      <c r="CP374" t="inlineStr"/>
+      <c r="CQ374" t="inlineStr"/>
+      <c r="CR374" t="inlineStr"/>
+      <c r="CS374" t="inlineStr"/>
+      <c r="CT374" t="inlineStr"/>
+      <c r="CU374" t="inlineStr"/>
+      <c r="CV374" t="inlineStr"/>
+      <c r="CW374" t="inlineStr"/>
+      <c r="CX374" t="inlineStr"/>
+      <c r="CY374" t="inlineStr"/>
+      <c r="CZ374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>et:20917</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>groundwater</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>ground water</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>[Henderson's] n. (1) water that sinks down through soil and rock and collects in underground aquifers.</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>et:20538,cl:10366,cl:10379,et:21202,et:21176</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/28120,https://vocab.lternet.edu/vocab/vocab/?tema=235,http://aims.fao.org/aos/agrovoc/c_3391,http://en.wikipedia.org/wiki/groundwater,http://www.eionet.europa.eu/gemet/concept/3780,</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
+      <c r="M375" t="inlineStr"/>
+      <c r="N375" t="inlineStr"/>
+      <c r="O375" t="inlineStr"/>
+      <c r="P375" t="inlineStr"/>
+      <c r="Q375" t="inlineStr"/>
+      <c r="R375" t="inlineStr"/>
+      <c r="S375" t="inlineStr"/>
+      <c r="T375" t="inlineStr"/>
+      <c r="U375" t="inlineStr"/>
+      <c r="V375" t="inlineStr"/>
+      <c r="W375" t="inlineStr"/>
+      <c r="X375" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
+      <c r="Y375" t="inlineStr"/>
+      <c r="Z375" t="inlineStr"/>
+      <c r="AA375" t="inlineStr"/>
+      <c r="AB375" t="inlineStr">
+        <is>
+          <t>Grundwasser</t>
+        </is>
+      </c>
+      <c r="AC375" t="inlineStr">
+        <is>
+          <t>مياه جوفية</t>
+        </is>
+      </c>
+      <c r="AD375" t="inlineStr">
+        <is>
+          <t>Подпочвени води</t>
+        </is>
+      </c>
+      <c r="AE375" t="inlineStr">
+        <is>
+          <t>voda podzemní</t>
+        </is>
+      </c>
+      <c r="AF375" t="inlineStr"/>
+      <c r="AG375" t="inlineStr">
+        <is>
+          <t>υπόγειο νερό</t>
+        </is>
+      </c>
+      <c r="AH375" t="inlineStr">
+        <is>
+          <t>agua subterránea</t>
+        </is>
+      </c>
+      <c r="AI375" t="inlineStr">
+        <is>
+          <t>põhjavesi</t>
+        </is>
+      </c>
+      <c r="AJ375" t="inlineStr">
+        <is>
+          <t>pohjavesi</t>
+        </is>
+      </c>
+      <c r="AK375" t="inlineStr">
+        <is>
+          <t>eaux souterraines</t>
+        </is>
+      </c>
+      <c r="AL375" t="inlineStr">
+        <is>
+          <t>podzemne vode</t>
+        </is>
+      </c>
+      <c r="AM375" t="inlineStr">
+        <is>
+          <t>talajvíz</t>
+        </is>
+      </c>
+      <c r="AN375" t="inlineStr">
+        <is>
+          <t>acqua sotterranea</t>
+        </is>
+      </c>
+      <c r="AO375" t="inlineStr">
+        <is>
+          <t>地下水</t>
+        </is>
+      </c>
+      <c r="AP375" t="inlineStr">
+        <is>
+          <t>gruntinis vanduo</t>
+        </is>
+      </c>
+      <c r="AQ375" t="inlineStr">
+        <is>
+          <t>gruntsūdens</t>
+        </is>
+      </c>
+      <c r="AR375" t="inlineStr">
+        <is>
+          <t>grondwater</t>
+        </is>
+      </c>
+      <c r="AS375" t="inlineStr">
+        <is>
+          <t>grunnvann</t>
+        </is>
+      </c>
+      <c r="AT375" t="inlineStr">
+        <is>
+          <t>woda gruntowa</t>
+        </is>
+      </c>
+      <c r="AU375" t="inlineStr">
+        <is>
+          <t>águas intersticiais</t>
+        </is>
+      </c>
+      <c r="AV375" t="inlineStr">
+        <is>
+          <t>ape subterane</t>
+        </is>
+      </c>
+      <c r="AW375" t="inlineStr">
+        <is>
+          <t>podzemná voda</t>
+        </is>
+      </c>
+      <c r="AX375" t="inlineStr">
+        <is>
+          <t>podtalnica</t>
+        </is>
+      </c>
+      <c r="AY375" t="inlineStr"/>
+      <c r="AZ375" t="inlineStr">
+        <is>
+          <t>地下水</t>
+        </is>
+      </c>
+      <c r="BA375" t="inlineStr"/>
+      <c r="BB375" t="inlineStr"/>
+      <c r="BC375" t="inlineStr"/>
+      <c r="BD375" t="inlineStr"/>
+      <c r="BE375" t="inlineStr"/>
+      <c r="BF375" t="inlineStr"/>
+      <c r="BG375" t="inlineStr"/>
+      <c r="BH375" t="inlineStr"/>
+      <c r="BI375" t="inlineStr"/>
+      <c r="BJ375" t="inlineStr"/>
+      <c r="BK375" t="inlineStr"/>
+      <c r="BL375" t="inlineStr"/>
+      <c r="BM375" t="inlineStr"/>
+      <c r="BN375" t="inlineStr"/>
+      <c r="BO375" t="inlineStr"/>
+      <c r="BP375" t="inlineStr"/>
+      <c r="BQ375" t="inlineStr"/>
+      <c r="BR375" t="inlineStr"/>
+      <c r="BS375" t="inlineStr"/>
+      <c r="BT375" t="inlineStr"/>
+      <c r="BU375" t="inlineStr"/>
+      <c r="BV375" t="inlineStr"/>
+      <c r="BW375" t="inlineStr"/>
+      <c r="BX375" t="inlineStr"/>
+      <c r="BY375" t="inlineStr"/>
+      <c r="BZ375" t="inlineStr"/>
+      <c r="CA375" t="inlineStr"/>
+      <c r="CB375" t="inlineStr"/>
+      <c r="CC375" t="inlineStr"/>
+      <c r="CD375" t="inlineStr"/>
+      <c r="CE375" t="inlineStr"/>
+      <c r="CF375" t="inlineStr"/>
+      <c r="CG375" t="inlineStr">
+        <is>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="CH375" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
+      <c r="CI375" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ375" t="inlineStr"/>
+      <c r="CK375" t="inlineStr"/>
+      <c r="CL375" t="inlineStr"/>
+      <c r="CM375" t="inlineStr"/>
+      <c r="CN375" t="inlineStr"/>
+      <c r="CO375" t="inlineStr"/>
+      <c r="CP375" t="inlineStr"/>
+      <c r="CQ375" t="inlineStr"/>
+      <c r="CR375" t="inlineStr"/>
+      <c r="CS375" t="inlineStr"/>
+      <c r="CT375" t="inlineStr"/>
+      <c r="CU375" t="inlineStr"/>
+      <c r="CV375" t="inlineStr"/>
+      <c r="CW375" t="inlineStr"/>
+      <c r="CX375" t="inlineStr"/>
+      <c r="CY375" t="inlineStr"/>
+      <c r="CZ375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>et:20915</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>lake</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>lakes</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>[GEMET] An enclosed body of water, usually but not necessarily fresh water, from which the sea is excluded.</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>et:32,cl:10366,cl:10379,et:21202,et:21176</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/41590,https://vocab.lternet.edu/vocab/vocab/?tema=278,http://purl.obolibrary.org/obo/ENVO_00000020,http://aims.fao.org/aos/agrovoc/c_4160</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
+      <c r="M376" t="inlineStr"/>
+      <c r="N376" t="inlineStr"/>
+      <c r="O376" t="inlineStr"/>
+      <c r="P376" t="inlineStr"/>
+      <c r="Q376" t="inlineStr"/>
+      <c r="R376" t="inlineStr"/>
+      <c r="S376" t="inlineStr"/>
+      <c r="T376" t="inlineStr"/>
+      <c r="U376" t="inlineStr"/>
+      <c r="V376" t="inlineStr"/>
+      <c r="W376" t="inlineStr"/>
+      <c r="X376" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
+      <c r="Y376" t="inlineStr"/>
+      <c r="Z376" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA376" t="inlineStr"/>
+      <c r="AB376" t="inlineStr"/>
+      <c r="AC376" t="inlineStr"/>
+      <c r="AD376" t="inlineStr"/>
+      <c r="AE376" t="inlineStr"/>
+      <c r="AF376" t="inlineStr"/>
+      <c r="AG376" t="inlineStr"/>
+      <c r="AH376" t="inlineStr"/>
+      <c r="AI376" t="inlineStr"/>
+      <c r="AJ376" t="inlineStr"/>
+      <c r="AK376" t="inlineStr"/>
+      <c r="AL376" t="inlineStr"/>
+      <c r="AM376" t="inlineStr"/>
+      <c r="AN376" t="inlineStr"/>
+      <c r="AO376" t="inlineStr"/>
+      <c r="AP376" t="inlineStr"/>
+      <c r="AQ376" t="inlineStr"/>
+      <c r="AR376" t="inlineStr"/>
+      <c r="AS376" t="inlineStr"/>
+      <c r="AT376" t="inlineStr"/>
+      <c r="AU376" t="inlineStr"/>
+      <c r="AV376" t="inlineStr"/>
+      <c r="AW376" t="inlineStr"/>
+      <c r="AX376" t="inlineStr"/>
+      <c r="AY376" t="inlineStr"/>
+      <c r="AZ376" t="inlineStr"/>
+      <c r="BA376" t="inlineStr"/>
+      <c r="BB376" t="inlineStr"/>
+      <c r="BC376" t="inlineStr"/>
+      <c r="BD376" t="inlineStr"/>
+      <c r="BE376" t="inlineStr"/>
+      <c r="BF376" t="inlineStr"/>
+      <c r="BG376" t="inlineStr"/>
+      <c r="BH376" t="inlineStr"/>
+      <c r="BI376" t="inlineStr"/>
+      <c r="BJ376" t="inlineStr"/>
+      <c r="BK376" t="inlineStr"/>
+      <c r="BL376" t="inlineStr"/>
+      <c r="BM376" t="inlineStr"/>
+      <c r="BN376" t="inlineStr"/>
+      <c r="BO376" t="inlineStr"/>
+      <c r="BP376" t="inlineStr"/>
+      <c r="BQ376" t="inlineStr"/>
+      <c r="BR376" t="inlineStr"/>
+      <c r="BS376" t="inlineStr"/>
+      <c r="BT376" t="inlineStr"/>
+      <c r="BU376" t="inlineStr"/>
+      <c r="BV376" t="inlineStr"/>
+      <c r="BW376" t="inlineStr"/>
+      <c r="BX376" t="inlineStr"/>
+      <c r="BY376" t="inlineStr"/>
+      <c r="BZ376" t="inlineStr"/>
+      <c r="CA376" t="inlineStr"/>
+      <c r="CB376" t="inlineStr"/>
+      <c r="CC376" t="inlineStr"/>
+      <c r="CD376" t="inlineStr"/>
+      <c r="CE376" t="inlineStr"/>
+      <c r="CF376" t="inlineStr"/>
+      <c r="CG376" t="inlineStr">
+        <is>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="CH376" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
+      <c r="CI376" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ376" t="inlineStr"/>
+      <c r="CK376" t="inlineStr"/>
+      <c r="CL376" t="inlineStr"/>
+      <c r="CM376" t="inlineStr"/>
+      <c r="CN376" t="inlineStr"/>
+      <c r="CO376" t="inlineStr"/>
+      <c r="CP376" t="inlineStr"/>
+      <c r="CQ376" t="inlineStr"/>
+      <c r="CR376" t="inlineStr"/>
+      <c r="CS376" t="inlineStr"/>
+      <c r="CT376" t="inlineStr"/>
+      <c r="CU376" t="inlineStr"/>
+      <c r="CV376" t="inlineStr"/>
+      <c r="CW376" t="inlineStr"/>
+      <c r="CX376" t="inlineStr"/>
+      <c r="CY376" t="inlineStr"/>
+      <c r="CZ376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>et:24</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>[GEMET] The top layer of the land surface of the earth that is composed of disintegrated rock particles, humus, water and air.</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>et:10003,cl:10366,et:21202</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>http://www.eionet.europa.eu/gemet/concept/7843,https://vocab.lternet.edu/vocab/vocab/?tema=535,http://purl.obolibrary.org/obo/ENVO_00001998</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
+      <c r="M377" t="inlineStr"/>
+      <c r="N377" t="inlineStr"/>
+      <c r="O377" t="inlineStr"/>
+      <c r="P377" t="inlineStr"/>
+      <c r="Q377" t="inlineStr"/>
+      <c r="R377" t="inlineStr"/>
+      <c r="S377" t="inlineStr"/>
+      <c r="T377" t="inlineStr"/>
+      <c r="U377" t="inlineStr">
+        <is>
+          <t>[controlled by ] Lars Lundin 20130614</t>
+        </is>
+      </c>
+      <c r="V377" t="inlineStr"/>
+      <c r="W377" t="inlineStr"/>
+      <c r="X377" t="inlineStr"/>
+      <c r="Y377" t="inlineStr"/>
+      <c r="Z377" t="inlineStr"/>
+      <c r="AA377" t="inlineStr"/>
+      <c r="AB377" t="inlineStr">
+        <is>
+          <t>Boden</t>
+        </is>
+      </c>
+      <c r="AC377" t="inlineStr">
+        <is>
+          <t>تربة</t>
+        </is>
+      </c>
+      <c r="AD377" t="inlineStr">
+        <is>
+          <t>Почва</t>
+        </is>
+      </c>
+      <c r="AE377" t="inlineStr">
+        <is>
+          <t>půda</t>
+        </is>
+      </c>
+      <c r="AF377" t="inlineStr">
+        <is>
+          <t>jord</t>
+        </is>
+      </c>
+      <c r="AG377" t="inlineStr">
+        <is>
+          <t>έδαφος</t>
+        </is>
+      </c>
+      <c r="AH377" t="inlineStr">
+        <is>
+          <t>suelos</t>
+        </is>
+      </c>
+      <c r="AI377" t="inlineStr">
+        <is>
+          <t>muld</t>
+        </is>
+      </c>
+      <c r="AJ377" t="inlineStr">
+        <is>
+          <t>maaperä</t>
+        </is>
+      </c>
+      <c r="AK377" t="inlineStr">
+        <is>
+          <t>sol</t>
+        </is>
+      </c>
+      <c r="AL377" t="inlineStr">
+        <is>
+          <t>tlo</t>
+        </is>
+      </c>
+      <c r="AM377" t="inlineStr">
+        <is>
+          <t>talaj</t>
+        </is>
+      </c>
+      <c r="AN377" t="inlineStr">
+        <is>
+          <t>suolo</t>
+        </is>
+      </c>
+      <c r="AO377" t="inlineStr"/>
+      <c r="AP377" t="inlineStr">
+        <is>
+          <t>dirvožemis, gruntas</t>
+        </is>
+      </c>
+      <c r="AQ377" t="inlineStr">
+        <is>
+          <t>augsne</t>
+        </is>
+      </c>
+      <c r="AR377" t="inlineStr">
+        <is>
+          <t>bodem</t>
+        </is>
+      </c>
+      <c r="AS377" t="inlineStr">
+        <is>
+          <t>jordsmonn</t>
+        </is>
+      </c>
+      <c r="AT377" t="inlineStr">
+        <is>
+          <t>gleba</t>
+        </is>
+      </c>
+      <c r="AU377" t="inlineStr">
+        <is>
+          <t>solos</t>
+        </is>
+      </c>
+      <c r="AV377" t="inlineStr">
+        <is>
+          <t>sol</t>
+        </is>
+      </c>
+      <c r="AW377" t="inlineStr">
+        <is>
+          <t>pôda</t>
+        </is>
+      </c>
+      <c r="AX377" t="inlineStr">
+        <is>
+          <t>tla, prst, zemlja</t>
+        </is>
+      </c>
+      <c r="AY377" t="inlineStr">
+        <is>
+          <t>jord</t>
+        </is>
+      </c>
+      <c r="AZ377" t="inlineStr"/>
+      <c r="BA377" t="inlineStr"/>
+      <c r="BB377" t="inlineStr"/>
+      <c r="BC377" t="inlineStr"/>
+      <c r="BD377" t="inlineStr"/>
+      <c r="BE377" t="inlineStr"/>
+      <c r="BF377" t="inlineStr"/>
+      <c r="BG377" t="inlineStr"/>
+      <c r="BH377" t="inlineStr"/>
+      <c r="BI377" t="inlineStr"/>
+      <c r="BJ377" t="inlineStr"/>
+      <c r="BK377" t="inlineStr"/>
+      <c r="BL377" t="inlineStr"/>
+      <c r="BM377" t="inlineStr"/>
+      <c r="BN377" t="inlineStr"/>
+      <c r="BO377" t="inlineStr"/>
+      <c r="BP377" t="inlineStr"/>
+      <c r="BQ377" t="inlineStr"/>
+      <c r="BR377" t="inlineStr"/>
+      <c r="BS377" t="inlineStr"/>
+      <c r="BT377" t="inlineStr"/>
+      <c r="BU377" t="inlineStr"/>
+      <c r="BV377" t="inlineStr"/>
+      <c r="BW377" t="inlineStr"/>
+      <c r="BX377" t="inlineStr"/>
+      <c r="BY377" t="inlineStr"/>
+      <c r="BZ377" t="inlineStr"/>
+      <c r="CA377" t="inlineStr"/>
+      <c r="CB377" t="inlineStr"/>
+      <c r="CC377" t="inlineStr"/>
+      <c r="CD377" t="inlineStr"/>
+      <c r="CE377" t="inlineStr"/>
+      <c r="CF377" t="inlineStr">
+        <is>
+          <t>0000-0003-0631-8231</t>
+        </is>
+      </c>
+      <c r="CG377" t="inlineStr">
+        <is>
+          <t>2013-02-14</t>
+        </is>
+      </c>
+      <c r="CH377" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
+      <c r="CI377" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ377" t="inlineStr"/>
+      <c r="CK377" t="inlineStr"/>
+      <c r="CL377" t="inlineStr"/>
+      <c r="CM377" t="inlineStr"/>
+      <c r="CN377" t="inlineStr"/>
+      <c r="CO377" t="inlineStr"/>
+      <c r="CP377" t="inlineStr"/>
+      <c r="CQ377" t="inlineStr"/>
+      <c r="CR377" t="inlineStr"/>
+      <c r="CS377" t="inlineStr"/>
+      <c r="CT377" t="inlineStr"/>
+      <c r="CU377" t="inlineStr"/>
+      <c r="CV377" t="inlineStr"/>
+      <c r="CW377" t="inlineStr"/>
+      <c r="CX377" t="inlineStr"/>
+      <c r="CY377" t="inlineStr"/>
+      <c r="CZ377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>cl:10371</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>streams/rivers</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>cl:10366,cl:10379,et:21202,et:21176</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
+      <c r="M378" t="inlineStr"/>
+      <c r="N378" t="inlineStr"/>
+      <c r="O378" t="inlineStr"/>
+      <c r="P378" t="inlineStr"/>
+      <c r="Q378" t="inlineStr"/>
+      <c r="R378" t="inlineStr"/>
+      <c r="S378" t="inlineStr"/>
+      <c r="T378" t="inlineStr"/>
+      <c r="U378" t="inlineStr"/>
+      <c r="V378" t="inlineStr"/>
+      <c r="W378" t="inlineStr"/>
+      <c r="X378" t="inlineStr"/>
+      <c r="Y378" t="inlineStr"/>
+      <c r="Z378" t="inlineStr"/>
+      <c r="AA378" t="inlineStr"/>
+      <c r="AB378" t="inlineStr"/>
+      <c r="AC378" t="inlineStr"/>
+      <c r="AD378" t="inlineStr"/>
+      <c r="AE378" t="inlineStr"/>
+      <c r="AF378" t="inlineStr"/>
+      <c r="AG378" t="inlineStr"/>
+      <c r="AH378" t="inlineStr"/>
+      <c r="AI378" t="inlineStr"/>
+      <c r="AJ378" t="inlineStr"/>
+      <c r="AK378" t="inlineStr"/>
+      <c r="AL378" t="inlineStr"/>
+      <c r="AM378" t="inlineStr"/>
+      <c r="AN378" t="inlineStr"/>
+      <c r="AO378" t="inlineStr"/>
+      <c r="AP378" t="inlineStr"/>
+      <c r="AQ378" t="inlineStr"/>
+      <c r="AR378" t="inlineStr"/>
+      <c r="AS378" t="inlineStr"/>
+      <c r="AT378" t="inlineStr"/>
+      <c r="AU378" t="inlineStr"/>
+      <c r="AV378" t="inlineStr"/>
+      <c r="AW378" t="inlineStr"/>
+      <c r="AX378" t="inlineStr"/>
+      <c r="AY378" t="inlineStr"/>
+      <c r="AZ378" t="inlineStr"/>
+      <c r="BA378" t="inlineStr"/>
+      <c r="BB378" t="inlineStr"/>
+      <c r="BC378" t="inlineStr"/>
+      <c r="BD378" t="inlineStr"/>
+      <c r="BE378" t="inlineStr"/>
+      <c r="BF378" t="inlineStr"/>
+      <c r="BG378" t="inlineStr"/>
+      <c r="BH378" t="inlineStr"/>
+      <c r="BI378" t="inlineStr"/>
+      <c r="BJ378" t="inlineStr"/>
+      <c r="BK378" t="inlineStr"/>
+      <c r="BL378" t="inlineStr"/>
+      <c r="BM378" t="inlineStr"/>
+      <c r="BN378" t="inlineStr"/>
+      <c r="BO378" t="inlineStr"/>
+      <c r="BP378" t="inlineStr"/>
+      <c r="BQ378" t="inlineStr"/>
+      <c r="BR378" t="inlineStr"/>
+      <c r="BS378" t="inlineStr"/>
+      <c r="BT378" t="inlineStr"/>
+      <c r="BU378" t="inlineStr"/>
+      <c r="BV378" t="inlineStr"/>
+      <c r="BW378" t="inlineStr"/>
+      <c r="BX378" t="inlineStr"/>
+      <c r="BY378" t="inlineStr"/>
+      <c r="BZ378" t="inlineStr"/>
+      <c r="CA378" t="inlineStr"/>
+      <c r="CB378" t="inlineStr"/>
+      <c r="CC378" t="inlineStr"/>
+      <c r="CD378" t="inlineStr"/>
+      <c r="CE378" t="inlineStr"/>
+      <c r="CF378" t="inlineStr"/>
+      <c r="CG378" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH378" t="inlineStr"/>
+      <c r="CI378" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ378" t="inlineStr"/>
+      <c r="CK378" t="inlineStr"/>
+      <c r="CL378" t="inlineStr"/>
+      <c r="CM378" t="inlineStr"/>
+      <c r="CN378" t="inlineStr"/>
+      <c r="CO378" t="inlineStr"/>
+      <c r="CP378" t="inlineStr"/>
+      <c r="CQ378" t="inlineStr"/>
+      <c r="CR378" t="inlineStr"/>
+      <c r="CS378" t="inlineStr"/>
+      <c r="CT378" t="inlineStr"/>
+      <c r="CU378" t="inlineStr"/>
+      <c r="CV378" t="inlineStr"/>
+      <c r="CW378" t="inlineStr"/>
+      <c r="CX378" t="inlineStr"/>
+      <c r="CY378" t="inlineStr"/>
+      <c r="CZ378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>cl:10372</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>socio-ecology</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr"/>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>cl:10365</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr"/>
+      <c r="M379" t="inlineStr"/>
+      <c r="N379" t="inlineStr"/>
+      <c r="O379" t="inlineStr"/>
+      <c r="P379" t="inlineStr"/>
+      <c r="Q379" t="inlineStr"/>
+      <c r="R379" t="inlineStr"/>
+      <c r="S379" t="inlineStr"/>
+      <c r="T379" t="inlineStr"/>
+      <c r="U379" t="inlineStr"/>
+      <c r="V379" t="inlineStr"/>
+      <c r="W379" t="inlineStr"/>
+      <c r="X379" t="inlineStr"/>
+      <c r="Y379" t="inlineStr"/>
+      <c r="Z379" t="inlineStr"/>
+      <c r="AA379" t="inlineStr"/>
+      <c r="AB379" t="inlineStr"/>
+      <c r="AC379" t="inlineStr"/>
+      <c r="AD379" t="inlineStr"/>
+      <c r="AE379" t="inlineStr"/>
+      <c r="AF379" t="inlineStr"/>
+      <c r="AG379" t="inlineStr"/>
+      <c r="AH379" t="inlineStr"/>
+      <c r="AI379" t="inlineStr"/>
+      <c r="AJ379" t="inlineStr"/>
+      <c r="AK379" t="inlineStr"/>
+      <c r="AL379" t="inlineStr"/>
+      <c r="AM379" t="inlineStr"/>
+      <c r="AN379" t="inlineStr"/>
+      <c r="AO379" t="inlineStr"/>
+      <c r="AP379" t="inlineStr"/>
+      <c r="AQ379" t="inlineStr"/>
+      <c r="AR379" t="inlineStr"/>
+      <c r="AS379" t="inlineStr"/>
+      <c r="AT379" t="inlineStr"/>
+      <c r="AU379" t="inlineStr"/>
+      <c r="AV379" t="inlineStr"/>
+      <c r="AW379" t="inlineStr"/>
+      <c r="AX379" t="inlineStr"/>
+      <c r="AY379" t="inlineStr"/>
+      <c r="AZ379" t="inlineStr"/>
+      <c r="BA379" t="inlineStr"/>
+      <c r="BB379" t="inlineStr"/>
+      <c r="BC379" t="inlineStr"/>
+      <c r="BD379" t="inlineStr"/>
+      <c r="BE379" t="inlineStr"/>
+      <c r="BF379" t="inlineStr"/>
+      <c r="BG379" t="inlineStr"/>
+      <c r="BH379" t="inlineStr"/>
+      <c r="BI379" t="inlineStr"/>
+      <c r="BJ379" t="inlineStr"/>
+      <c r="BK379" t="inlineStr"/>
+      <c r="BL379" t="inlineStr"/>
+      <c r="BM379" t="inlineStr"/>
+      <c r="BN379" t="inlineStr"/>
+      <c r="BO379" t="inlineStr"/>
+      <c r="BP379" t="inlineStr"/>
+      <c r="BQ379" t="inlineStr"/>
+      <c r="BR379" t="inlineStr"/>
+      <c r="BS379" t="inlineStr"/>
+      <c r="BT379" t="inlineStr"/>
+      <c r="BU379" t="inlineStr"/>
+      <c r="BV379" t="inlineStr"/>
+      <c r="BW379" t="inlineStr"/>
+      <c r="BX379" t="inlineStr"/>
+      <c r="BY379" t="inlineStr"/>
+      <c r="BZ379" t="inlineStr"/>
+      <c r="CA379" t="inlineStr"/>
+      <c r="CB379" t="inlineStr"/>
+      <c r="CC379" t="inlineStr"/>
+      <c r="CD379" t="inlineStr"/>
+      <c r="CE379" t="inlineStr"/>
+      <c r="CF379" t="inlineStr"/>
+      <c r="CG379" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH379" t="inlineStr"/>
+      <c r="CI379" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ379" t="inlineStr"/>
+      <c r="CK379" t="inlineStr"/>
+      <c r="CL379" t="inlineStr"/>
+      <c r="CM379" t="inlineStr"/>
+      <c r="CN379" t="inlineStr"/>
+      <c r="CO379" t="inlineStr"/>
+      <c r="CP379" t="inlineStr"/>
+      <c r="CQ379" t="inlineStr"/>
+      <c r="CR379" t="inlineStr"/>
+      <c r="CS379" t="inlineStr"/>
+      <c r="CT379" t="inlineStr"/>
+      <c r="CU379" t="inlineStr"/>
+      <c r="CV379" t="inlineStr"/>
+      <c r="CW379" t="inlineStr"/>
+      <c r="CX379" t="inlineStr"/>
+      <c r="CY379" t="inlineStr"/>
+      <c r="CZ379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>cl:10373</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>agriculture and forestry</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr"/>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>cl:10372</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr"/>
+      <c r="M380" t="inlineStr"/>
+      <c r="N380" t="inlineStr"/>
+      <c r="O380" t="inlineStr"/>
+      <c r="P380" t="inlineStr"/>
+      <c r="Q380" t="inlineStr"/>
+      <c r="R380" t="inlineStr"/>
+      <c r="S380" t="inlineStr"/>
+      <c r="T380" t="inlineStr"/>
+      <c r="U380" t="inlineStr"/>
+      <c r="V380" t="inlineStr"/>
+      <c r="W380" t="inlineStr"/>
+      <c r="X380" t="inlineStr"/>
+      <c r="Y380" t="inlineStr"/>
+      <c r="Z380" t="inlineStr"/>
+      <c r="AA380" t="inlineStr"/>
+      <c r="AB380" t="inlineStr"/>
+      <c r="AC380" t="inlineStr"/>
+      <c r="AD380" t="inlineStr"/>
+      <c r="AE380" t="inlineStr"/>
+      <c r="AF380" t="inlineStr"/>
+      <c r="AG380" t="inlineStr"/>
+      <c r="AH380" t="inlineStr"/>
+      <c r="AI380" t="inlineStr"/>
+      <c r="AJ380" t="inlineStr"/>
+      <c r="AK380" t="inlineStr"/>
+      <c r="AL380" t="inlineStr"/>
+      <c r="AM380" t="inlineStr"/>
+      <c r="AN380" t="inlineStr"/>
+      <c r="AO380" t="inlineStr"/>
+      <c r="AP380" t="inlineStr"/>
+      <c r="AQ380" t="inlineStr"/>
+      <c r="AR380" t="inlineStr"/>
+      <c r="AS380" t="inlineStr"/>
+      <c r="AT380" t="inlineStr"/>
+      <c r="AU380" t="inlineStr"/>
+      <c r="AV380" t="inlineStr"/>
+      <c r="AW380" t="inlineStr"/>
+      <c r="AX380" t="inlineStr"/>
+      <c r="AY380" t="inlineStr"/>
+      <c r="AZ380" t="inlineStr"/>
+      <c r="BA380" t="inlineStr"/>
+      <c r="BB380" t="inlineStr"/>
+      <c r="BC380" t="inlineStr"/>
+      <c r="BD380" t="inlineStr"/>
+      <c r="BE380" t="inlineStr"/>
+      <c r="BF380" t="inlineStr"/>
+      <c r="BG380" t="inlineStr"/>
+      <c r="BH380" t="inlineStr"/>
+      <c r="BI380" t="inlineStr"/>
+      <c r="BJ380" t="inlineStr"/>
+      <c r="BK380" t="inlineStr"/>
+      <c r="BL380" t="inlineStr"/>
+      <c r="BM380" t="inlineStr"/>
+      <c r="BN380" t="inlineStr"/>
+      <c r="BO380" t="inlineStr"/>
+      <c r="BP380" t="inlineStr"/>
+      <c r="BQ380" t="inlineStr"/>
+      <c r="BR380" t="inlineStr"/>
+      <c r="BS380" t="inlineStr"/>
+      <c r="BT380" t="inlineStr"/>
+      <c r="BU380" t="inlineStr"/>
+      <c r="BV380" t="inlineStr"/>
+      <c r="BW380" t="inlineStr"/>
+      <c r="BX380" t="inlineStr"/>
+      <c r="BY380" t="inlineStr"/>
+      <c r="BZ380" t="inlineStr"/>
+      <c r="CA380" t="inlineStr"/>
+      <c r="CB380" t="inlineStr"/>
+      <c r="CC380" t="inlineStr"/>
+      <c r="CD380" t="inlineStr"/>
+      <c r="CE380" t="inlineStr"/>
+      <c r="CF380" t="inlineStr"/>
+      <c r="CG380" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH380" t="inlineStr"/>
+      <c r="CI380" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ380" t="inlineStr"/>
+      <c r="CK380" t="inlineStr"/>
+      <c r="CL380" t="inlineStr"/>
+      <c r="CM380" t="inlineStr"/>
+      <c r="CN380" t="inlineStr"/>
+      <c r="CO380" t="inlineStr"/>
+      <c r="CP380" t="inlineStr"/>
+      <c r="CQ380" t="inlineStr"/>
+      <c r="CR380" t="inlineStr"/>
+      <c r="CS380" t="inlineStr"/>
+      <c r="CT380" t="inlineStr"/>
+      <c r="CU380" t="inlineStr"/>
+      <c r="CV380" t="inlineStr"/>
+      <c r="CW380" t="inlineStr"/>
+      <c r="CX380" t="inlineStr"/>
+      <c r="CY380" t="inlineStr"/>
+      <c r="CZ380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>cl:10374</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>governance and stakeholders</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr"/>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>cl:10372</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
+      <c r="M381" t="inlineStr"/>
+      <c r="N381" t="inlineStr"/>
+      <c r="O381" t="inlineStr"/>
+      <c r="P381" t="inlineStr"/>
+      <c r="Q381" t="inlineStr"/>
+      <c r="R381" t="inlineStr"/>
+      <c r="S381" t="inlineStr"/>
+      <c r="T381" t="inlineStr"/>
+      <c r="U381" t="inlineStr"/>
+      <c r="V381" t="inlineStr"/>
+      <c r="W381" t="inlineStr"/>
+      <c r="X381" t="inlineStr"/>
+      <c r="Y381" t="inlineStr"/>
+      <c r="Z381" t="inlineStr"/>
+      <c r="AA381" t="inlineStr"/>
+      <c r="AB381" t="inlineStr"/>
+      <c r="AC381" t="inlineStr"/>
+      <c r="AD381" t="inlineStr"/>
+      <c r="AE381" t="inlineStr"/>
+      <c r="AF381" t="inlineStr"/>
+      <c r="AG381" t="inlineStr"/>
+      <c r="AH381" t="inlineStr"/>
+      <c r="AI381" t="inlineStr"/>
+      <c r="AJ381" t="inlineStr"/>
+      <c r="AK381" t="inlineStr"/>
+      <c r="AL381" t="inlineStr"/>
+      <c r="AM381" t="inlineStr"/>
+      <c r="AN381" t="inlineStr"/>
+      <c r="AO381" t="inlineStr"/>
+      <c r="AP381" t="inlineStr"/>
+      <c r="AQ381" t="inlineStr"/>
+      <c r="AR381" t="inlineStr"/>
+      <c r="AS381" t="inlineStr"/>
+      <c r="AT381" t="inlineStr"/>
+      <c r="AU381" t="inlineStr"/>
+      <c r="AV381" t="inlineStr"/>
+      <c r="AW381" t="inlineStr"/>
+      <c r="AX381" t="inlineStr"/>
+      <c r="AY381" t="inlineStr"/>
+      <c r="AZ381" t="inlineStr"/>
+      <c r="BA381" t="inlineStr"/>
+      <c r="BB381" t="inlineStr"/>
+      <c r="BC381" t="inlineStr"/>
+      <c r="BD381" t="inlineStr"/>
+      <c r="BE381" t="inlineStr"/>
+      <c r="BF381" t="inlineStr"/>
+      <c r="BG381" t="inlineStr"/>
+      <c r="BH381" t="inlineStr"/>
+      <c r="BI381" t="inlineStr"/>
+      <c r="BJ381" t="inlineStr"/>
+      <c r="BK381" t="inlineStr"/>
+      <c r="BL381" t="inlineStr"/>
+      <c r="BM381" t="inlineStr"/>
+      <c r="BN381" t="inlineStr"/>
+      <c r="BO381" t="inlineStr"/>
+      <c r="BP381" t="inlineStr"/>
+      <c r="BQ381" t="inlineStr"/>
+      <c r="BR381" t="inlineStr"/>
+      <c r="BS381" t="inlineStr"/>
+      <c r="BT381" t="inlineStr"/>
+      <c r="BU381" t="inlineStr"/>
+      <c r="BV381" t="inlineStr"/>
+      <c r="BW381" t="inlineStr"/>
+      <c r="BX381" t="inlineStr"/>
+      <c r="BY381" t="inlineStr"/>
+      <c r="BZ381" t="inlineStr"/>
+      <c r="CA381" t="inlineStr"/>
+      <c r="CB381" t="inlineStr"/>
+      <c r="CC381" t="inlineStr"/>
+      <c r="CD381" t="inlineStr"/>
+      <c r="CE381" t="inlineStr"/>
+      <c r="CF381" t="inlineStr"/>
+      <c r="CG381" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH381" t="inlineStr"/>
+      <c r="CI381" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ381" t="inlineStr"/>
+      <c r="CK381" t="inlineStr"/>
+      <c r="CL381" t="inlineStr"/>
+      <c r="CM381" t="inlineStr"/>
+      <c r="CN381" t="inlineStr"/>
+      <c r="CO381" t="inlineStr"/>
+      <c r="CP381" t="inlineStr"/>
+      <c r="CQ381" t="inlineStr"/>
+      <c r="CR381" t="inlineStr"/>
+      <c r="CS381" t="inlineStr"/>
+      <c r="CT381" t="inlineStr"/>
+      <c r="CU381" t="inlineStr"/>
+      <c r="CV381" t="inlineStr"/>
+      <c r="CW381" t="inlineStr"/>
+      <c r="CX381" t="inlineStr"/>
+      <c r="CY381" t="inlineStr"/>
+      <c r="CZ381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>cl:10375</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>land use and land cover change</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr"/>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>cl:10372</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
+      <c r="M382" t="inlineStr"/>
+      <c r="N382" t="inlineStr"/>
+      <c r="O382" t="inlineStr"/>
+      <c r="P382" t="inlineStr"/>
+      <c r="Q382" t="inlineStr"/>
+      <c r="R382" t="inlineStr"/>
+      <c r="S382" t="inlineStr"/>
+      <c r="T382" t="inlineStr"/>
+      <c r="U382" t="inlineStr"/>
+      <c r="V382" t="inlineStr"/>
+      <c r="W382" t="inlineStr"/>
+      <c r="X382" t="inlineStr"/>
+      <c r="Y382" t="inlineStr"/>
+      <c r="Z382" t="inlineStr"/>
+      <c r="AA382" t="inlineStr"/>
+      <c r="AB382" t="inlineStr"/>
+      <c r="AC382" t="inlineStr"/>
+      <c r="AD382" t="inlineStr"/>
+      <c r="AE382" t="inlineStr"/>
+      <c r="AF382" t="inlineStr"/>
+      <c r="AG382" t="inlineStr"/>
+      <c r="AH382" t="inlineStr"/>
+      <c r="AI382" t="inlineStr"/>
+      <c r="AJ382" t="inlineStr"/>
+      <c r="AK382" t="inlineStr"/>
+      <c r="AL382" t="inlineStr"/>
+      <c r="AM382" t="inlineStr"/>
+      <c r="AN382" t="inlineStr"/>
+      <c r="AO382" t="inlineStr"/>
+      <c r="AP382" t="inlineStr"/>
+      <c r="AQ382" t="inlineStr"/>
+      <c r="AR382" t="inlineStr"/>
+      <c r="AS382" t="inlineStr"/>
+      <c r="AT382" t="inlineStr"/>
+      <c r="AU382" t="inlineStr"/>
+      <c r="AV382" t="inlineStr"/>
+      <c r="AW382" t="inlineStr"/>
+      <c r="AX382" t="inlineStr"/>
+      <c r="AY382" t="inlineStr"/>
+      <c r="AZ382" t="inlineStr"/>
+      <c r="BA382" t="inlineStr"/>
+      <c r="BB382" t="inlineStr"/>
+      <c r="BC382" t="inlineStr"/>
+      <c r="BD382" t="inlineStr"/>
+      <c r="BE382" t="inlineStr"/>
+      <c r="BF382" t="inlineStr"/>
+      <c r="BG382" t="inlineStr"/>
+      <c r="BH382" t="inlineStr"/>
+      <c r="BI382" t="inlineStr"/>
+      <c r="BJ382" t="inlineStr"/>
+      <c r="BK382" t="inlineStr"/>
+      <c r="BL382" t="inlineStr"/>
+      <c r="BM382" t="inlineStr"/>
+      <c r="BN382" t="inlineStr"/>
+      <c r="BO382" t="inlineStr"/>
+      <c r="BP382" t="inlineStr"/>
+      <c r="BQ382" t="inlineStr"/>
+      <c r="BR382" t="inlineStr"/>
+      <c r="BS382" t="inlineStr"/>
+      <c r="BT382" t="inlineStr"/>
+      <c r="BU382" t="inlineStr"/>
+      <c r="BV382" t="inlineStr"/>
+      <c r="BW382" t="inlineStr"/>
+      <c r="BX382" t="inlineStr"/>
+      <c r="BY382" t="inlineStr"/>
+      <c r="BZ382" t="inlineStr"/>
+      <c r="CA382" t="inlineStr"/>
+      <c r="CB382" t="inlineStr"/>
+      <c r="CC382" t="inlineStr"/>
+      <c r="CD382" t="inlineStr"/>
+      <c r="CE382" t="inlineStr"/>
+      <c r="CF382" t="inlineStr"/>
+      <c r="CG382" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH382" t="inlineStr"/>
+      <c r="CI382" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ382" t="inlineStr"/>
+      <c r="CK382" t="inlineStr"/>
+      <c r="CL382" t="inlineStr"/>
+      <c r="CM382" t="inlineStr"/>
+      <c r="CN382" t="inlineStr"/>
+      <c r="CO382" t="inlineStr"/>
+      <c r="CP382" t="inlineStr"/>
+      <c r="CQ382" t="inlineStr"/>
+      <c r="CR382" t="inlineStr"/>
+      <c r="CS382" t="inlineStr"/>
+      <c r="CT382" t="inlineStr"/>
+      <c r="CU382" t="inlineStr"/>
+      <c r="CV382" t="inlineStr"/>
+      <c r="CW382" t="inlineStr"/>
+      <c r="CX382" t="inlineStr"/>
+      <c r="CY382" t="inlineStr"/>
+      <c r="CZ382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>cl:10376</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>platform characteristics</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr"/>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>cl:10372</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
+      <c r="M383" t="inlineStr"/>
+      <c r="N383" t="inlineStr"/>
+      <c r="O383" t="inlineStr"/>
+      <c r="P383" t="inlineStr"/>
+      <c r="Q383" t="inlineStr"/>
+      <c r="R383" t="inlineStr"/>
+      <c r="S383" t="inlineStr"/>
+      <c r="T383" t="inlineStr"/>
+      <c r="U383" t="inlineStr"/>
+      <c r="V383" t="inlineStr"/>
+      <c r="W383" t="inlineStr"/>
+      <c r="X383" t="inlineStr"/>
+      <c r="Y383" t="inlineStr"/>
+      <c r="Z383" t="inlineStr"/>
+      <c r="AA383" t="inlineStr"/>
+      <c r="AB383" t="inlineStr"/>
+      <c r="AC383" t="inlineStr"/>
+      <c r="AD383" t="inlineStr"/>
+      <c r="AE383" t="inlineStr"/>
+      <c r="AF383" t="inlineStr"/>
+      <c r="AG383" t="inlineStr"/>
+      <c r="AH383" t="inlineStr"/>
+      <c r="AI383" t="inlineStr"/>
+      <c r="AJ383" t="inlineStr"/>
+      <c r="AK383" t="inlineStr"/>
+      <c r="AL383" t="inlineStr"/>
+      <c r="AM383" t="inlineStr"/>
+      <c r="AN383" t="inlineStr"/>
+      <c r="AO383" t="inlineStr"/>
+      <c r="AP383" t="inlineStr"/>
+      <c r="AQ383" t="inlineStr"/>
+      <c r="AR383" t="inlineStr"/>
+      <c r="AS383" t="inlineStr"/>
+      <c r="AT383" t="inlineStr"/>
+      <c r="AU383" t="inlineStr"/>
+      <c r="AV383" t="inlineStr"/>
+      <c r="AW383" t="inlineStr"/>
+      <c r="AX383" t="inlineStr"/>
+      <c r="AY383" t="inlineStr"/>
+      <c r="AZ383" t="inlineStr"/>
+      <c r="BA383" t="inlineStr"/>
+      <c r="BB383" t="inlineStr"/>
+      <c r="BC383" t="inlineStr"/>
+      <c r="BD383" t="inlineStr"/>
+      <c r="BE383" t="inlineStr"/>
+      <c r="BF383" t="inlineStr"/>
+      <c r="BG383" t="inlineStr"/>
+      <c r="BH383" t="inlineStr"/>
+      <c r="BI383" t="inlineStr"/>
+      <c r="BJ383" t="inlineStr"/>
+      <c r="BK383" t="inlineStr"/>
+      <c r="BL383" t="inlineStr"/>
+      <c r="BM383" t="inlineStr"/>
+      <c r="BN383" t="inlineStr"/>
+      <c r="BO383" t="inlineStr"/>
+      <c r="BP383" t="inlineStr"/>
+      <c r="BQ383" t="inlineStr"/>
+      <c r="BR383" t="inlineStr"/>
+      <c r="BS383" t="inlineStr"/>
+      <c r="BT383" t="inlineStr"/>
+      <c r="BU383" t="inlineStr"/>
+      <c r="BV383" t="inlineStr"/>
+      <c r="BW383" t="inlineStr"/>
+      <c r="BX383" t="inlineStr"/>
+      <c r="BY383" t="inlineStr"/>
+      <c r="BZ383" t="inlineStr"/>
+      <c r="CA383" t="inlineStr"/>
+      <c r="CB383" t="inlineStr"/>
+      <c r="CC383" t="inlineStr"/>
+      <c r="CD383" t="inlineStr"/>
+      <c r="CE383" t="inlineStr"/>
+      <c r="CF383" t="inlineStr"/>
+      <c r="CG383" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH383" t="inlineStr"/>
+      <c r="CI383" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ383" t="inlineStr"/>
+      <c r="CK383" t="inlineStr"/>
+      <c r="CL383" t="inlineStr"/>
+      <c r="CM383" t="inlineStr"/>
+      <c r="CN383" t="inlineStr"/>
+      <c r="CO383" t="inlineStr"/>
+      <c r="CP383" t="inlineStr"/>
+      <c r="CQ383" t="inlineStr"/>
+      <c r="CR383" t="inlineStr"/>
+      <c r="CS383" t="inlineStr"/>
+      <c r="CT383" t="inlineStr"/>
+      <c r="CU383" t="inlineStr"/>
+      <c r="CV383" t="inlineStr"/>
+      <c r="CW383" t="inlineStr"/>
+      <c r="CX383" t="inlineStr"/>
+      <c r="CY383" t="inlineStr"/>
+      <c r="CZ383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>et:20715</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>populations</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>[Henderson's] n. a group of individuals of the same species living in a certain deﬁned area.</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>et:20708,cl:10372</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>http://en.wikipedia.org/wiki/populations,https://vocab.lternet.edu/vocab/vocab/?tema=439</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
+      <c r="M384" t="inlineStr"/>
+      <c r="N384" t="inlineStr"/>
+      <c r="O384" t="inlineStr"/>
+      <c r="P384" t="inlineStr"/>
+      <c r="Q384" t="inlineStr"/>
+      <c r="R384" t="inlineStr"/>
+      <c r="S384" t="inlineStr"/>
+      <c r="T384" t="inlineStr"/>
+      <c r="U384" t="inlineStr"/>
+      <c r="V384" t="inlineStr"/>
+      <c r="W384" t="inlineStr"/>
+      <c r="X384" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
+      <c r="Y384" t="inlineStr"/>
+      <c r="Z384" t="inlineStr"/>
+      <c r="AA384" t="inlineStr"/>
+      <c r="AB384" t="inlineStr"/>
+      <c r="AC384" t="inlineStr"/>
+      <c r="AD384" t="inlineStr"/>
+      <c r="AE384" t="inlineStr"/>
+      <c r="AF384" t="inlineStr"/>
+      <c r="AG384" t="inlineStr"/>
+      <c r="AH384" t="inlineStr"/>
+      <c r="AI384" t="inlineStr"/>
+      <c r="AJ384" t="inlineStr"/>
+      <c r="AK384" t="inlineStr"/>
+      <c r="AL384" t="inlineStr"/>
+      <c r="AM384" t="inlineStr"/>
+      <c r="AN384" t="inlineStr"/>
+      <c r="AO384" t="inlineStr"/>
+      <c r="AP384" t="inlineStr"/>
+      <c r="AQ384" t="inlineStr"/>
+      <c r="AR384" t="inlineStr"/>
+      <c r="AS384" t="inlineStr"/>
+      <c r="AT384" t="inlineStr"/>
+      <c r="AU384" t="inlineStr"/>
+      <c r="AV384" t="inlineStr"/>
+      <c r="AW384" t="inlineStr"/>
+      <c r="AX384" t="inlineStr"/>
+      <c r="AY384" t="inlineStr"/>
+      <c r="AZ384" t="inlineStr"/>
+      <c r="BA384" t="inlineStr"/>
+      <c r="BB384" t="inlineStr"/>
+      <c r="BC384" t="inlineStr"/>
+      <c r="BD384" t="inlineStr"/>
+      <c r="BE384" t="inlineStr"/>
+      <c r="BF384" t="inlineStr"/>
+      <c r="BG384" t="inlineStr"/>
+      <c r="BH384" t="inlineStr"/>
+      <c r="BI384" t="inlineStr"/>
+      <c r="BJ384" t="inlineStr"/>
+      <c r="BK384" t="inlineStr"/>
+      <c r="BL384" t="inlineStr"/>
+      <c r="BM384" t="inlineStr"/>
+      <c r="BN384" t="inlineStr"/>
+      <c r="BO384" t="inlineStr"/>
+      <c r="BP384" t="inlineStr"/>
+      <c r="BQ384" t="inlineStr"/>
+      <c r="BR384" t="inlineStr"/>
+      <c r="BS384" t="inlineStr"/>
+      <c r="BT384" t="inlineStr"/>
+      <c r="BU384" t="inlineStr"/>
+      <c r="BV384" t="inlineStr"/>
+      <c r="BW384" t="inlineStr"/>
+      <c r="BX384" t="inlineStr"/>
+      <c r="BY384" t="inlineStr"/>
+      <c r="BZ384" t="inlineStr"/>
+      <c r="CA384" t="inlineStr"/>
+      <c r="CB384" t="inlineStr"/>
+      <c r="CC384" t="inlineStr"/>
+      <c r="CD384" t="inlineStr"/>
+      <c r="CE384" t="inlineStr"/>
+      <c r="CF384" t="inlineStr"/>
+      <c r="CG384" t="inlineStr">
+        <is>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="CH384" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
+      <c r="CI384" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ384" t="inlineStr"/>
+      <c r="CK384" t="inlineStr"/>
+      <c r="CL384" t="inlineStr"/>
+      <c r="CM384" t="inlineStr"/>
+      <c r="CN384" t="inlineStr"/>
+      <c r="CO384" t="inlineStr"/>
+      <c r="CP384" t="inlineStr"/>
+      <c r="CQ384" t="inlineStr"/>
+      <c r="CR384" t="inlineStr"/>
+      <c r="CS384" t="inlineStr"/>
+      <c r="CT384" t="inlineStr"/>
+      <c r="CU384" t="inlineStr"/>
+      <c r="CV384" t="inlineStr"/>
+      <c r="CW384" t="inlineStr"/>
+      <c r="CX384" t="inlineStr"/>
+      <c r="CY384" t="inlineStr"/>
+      <c r="CZ384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>cl:10377</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>resource use</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr"/>
+      <c r="D385" t="inlineStr"/>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>cl:10372</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
+      <c r="M385" t="inlineStr"/>
+      <c r="N385" t="inlineStr"/>
+      <c r="O385" t="inlineStr"/>
+      <c r="P385" t="inlineStr"/>
+      <c r="Q385" t="inlineStr"/>
+      <c r="R385" t="inlineStr"/>
+      <c r="S385" t="inlineStr"/>
+      <c r="T385" t="inlineStr"/>
+      <c r="U385" t="inlineStr"/>
+      <c r="V385" t="inlineStr"/>
+      <c r="W385" t="inlineStr"/>
+      <c r="X385" t="inlineStr"/>
+      <c r="Y385" t="inlineStr"/>
+      <c r="Z385" t="inlineStr"/>
+      <c r="AA385" t="inlineStr"/>
+      <c r="AB385" t="inlineStr"/>
+      <c r="AC385" t="inlineStr"/>
+      <c r="AD385" t="inlineStr"/>
+      <c r="AE385" t="inlineStr"/>
+      <c r="AF385" t="inlineStr"/>
+      <c r="AG385" t="inlineStr"/>
+      <c r="AH385" t="inlineStr"/>
+      <c r="AI385" t="inlineStr"/>
+      <c r="AJ385" t="inlineStr"/>
+      <c r="AK385" t="inlineStr"/>
+      <c r="AL385" t="inlineStr"/>
+      <c r="AM385" t="inlineStr"/>
+      <c r="AN385" t="inlineStr"/>
+      <c r="AO385" t="inlineStr"/>
+      <c r="AP385" t="inlineStr"/>
+      <c r="AQ385" t="inlineStr"/>
+      <c r="AR385" t="inlineStr"/>
+      <c r="AS385" t="inlineStr"/>
+      <c r="AT385" t="inlineStr"/>
+      <c r="AU385" t="inlineStr"/>
+      <c r="AV385" t="inlineStr"/>
+      <c r="AW385" t="inlineStr"/>
+      <c r="AX385" t="inlineStr"/>
+      <c r="AY385" t="inlineStr"/>
+      <c r="AZ385" t="inlineStr"/>
+      <c r="BA385" t="inlineStr"/>
+      <c r="BB385" t="inlineStr"/>
+      <c r="BC385" t="inlineStr"/>
+      <c r="BD385" t="inlineStr"/>
+      <c r="BE385" t="inlineStr"/>
+      <c r="BF385" t="inlineStr"/>
+      <c r="BG385" t="inlineStr"/>
+      <c r="BH385" t="inlineStr"/>
+      <c r="BI385" t="inlineStr"/>
+      <c r="BJ385" t="inlineStr"/>
+      <c r="BK385" t="inlineStr"/>
+      <c r="BL385" t="inlineStr"/>
+      <c r="BM385" t="inlineStr"/>
+      <c r="BN385" t="inlineStr"/>
+      <c r="BO385" t="inlineStr"/>
+      <c r="BP385" t="inlineStr"/>
+      <c r="BQ385" t="inlineStr"/>
+      <c r="BR385" t="inlineStr"/>
+      <c r="BS385" t="inlineStr"/>
+      <c r="BT385" t="inlineStr"/>
+      <c r="BU385" t="inlineStr"/>
+      <c r="BV385" t="inlineStr"/>
+      <c r="BW385" t="inlineStr"/>
+      <c r="BX385" t="inlineStr"/>
+      <c r="BY385" t="inlineStr"/>
+      <c r="BZ385" t="inlineStr"/>
+      <c r="CA385" t="inlineStr"/>
+      <c r="CB385" t="inlineStr"/>
+      <c r="CC385" t="inlineStr"/>
+      <c r="CD385" t="inlineStr"/>
+      <c r="CE385" t="inlineStr"/>
+      <c r="CF385" t="inlineStr"/>
+      <c r="CG385" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH385" t="inlineStr"/>
+      <c r="CI385" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ385" t="inlineStr"/>
+      <c r="CK385" t="inlineStr"/>
+      <c r="CL385" t="inlineStr"/>
+      <c r="CM385" t="inlineStr"/>
+      <c r="CN385" t="inlineStr"/>
+      <c r="CO385" t="inlineStr"/>
+      <c r="CP385" t="inlineStr"/>
+      <c r="CQ385" t="inlineStr"/>
+      <c r="CR385" t="inlineStr"/>
+      <c r="CS385" t="inlineStr"/>
+      <c r="CT385" t="inlineStr"/>
+      <c r="CU385" t="inlineStr"/>
+      <c r="CV385" t="inlineStr"/>
+      <c r="CW385" t="inlineStr"/>
+      <c r="CX385" t="inlineStr"/>
+      <c r="CY385" t="inlineStr"/>
+      <c r="CZ385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>cl:10378</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>transportation and industry</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="inlineStr"/>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>cl:10372</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr"/>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
+      <c r="M386" t="inlineStr"/>
+      <c r="N386" t="inlineStr"/>
+      <c r="O386" t="inlineStr"/>
+      <c r="P386" t="inlineStr"/>
+      <c r="Q386" t="inlineStr"/>
+      <c r="R386" t="inlineStr"/>
+      <c r="S386" t="inlineStr"/>
+      <c r="T386" t="inlineStr"/>
+      <c r="U386" t="inlineStr"/>
+      <c r="V386" t="inlineStr"/>
+      <c r="W386" t="inlineStr"/>
+      <c r="X386" t="inlineStr"/>
+      <c r="Y386" t="inlineStr"/>
+      <c r="Z386" t="inlineStr"/>
+      <c r="AA386" t="inlineStr"/>
+      <c r="AB386" t="inlineStr"/>
+      <c r="AC386" t="inlineStr"/>
+      <c r="AD386" t="inlineStr"/>
+      <c r="AE386" t="inlineStr"/>
+      <c r="AF386" t="inlineStr"/>
+      <c r="AG386" t="inlineStr"/>
+      <c r="AH386" t="inlineStr"/>
+      <c r="AI386" t="inlineStr"/>
+      <c r="AJ386" t="inlineStr"/>
+      <c r="AK386" t="inlineStr"/>
+      <c r="AL386" t="inlineStr"/>
+      <c r="AM386" t="inlineStr"/>
+      <c r="AN386" t="inlineStr"/>
+      <c r="AO386" t="inlineStr"/>
+      <c r="AP386" t="inlineStr"/>
+      <c r="AQ386" t="inlineStr"/>
+      <c r="AR386" t="inlineStr"/>
+      <c r="AS386" t="inlineStr"/>
+      <c r="AT386" t="inlineStr"/>
+      <c r="AU386" t="inlineStr"/>
+      <c r="AV386" t="inlineStr"/>
+      <c r="AW386" t="inlineStr"/>
+      <c r="AX386" t="inlineStr"/>
+      <c r="AY386" t="inlineStr"/>
+      <c r="AZ386" t="inlineStr"/>
+      <c r="BA386" t="inlineStr"/>
+      <c r="BB386" t="inlineStr"/>
+      <c r="BC386" t="inlineStr"/>
+      <c r="BD386" t="inlineStr"/>
+      <c r="BE386" t="inlineStr"/>
+      <c r="BF386" t="inlineStr"/>
+      <c r="BG386" t="inlineStr"/>
+      <c r="BH386" t="inlineStr"/>
+      <c r="BI386" t="inlineStr"/>
+      <c r="BJ386" t="inlineStr"/>
+      <c r="BK386" t="inlineStr"/>
+      <c r="BL386" t="inlineStr"/>
+      <c r="BM386" t="inlineStr"/>
+      <c r="BN386" t="inlineStr"/>
+      <c r="BO386" t="inlineStr"/>
+      <c r="BP386" t="inlineStr"/>
+      <c r="BQ386" t="inlineStr"/>
+      <c r="BR386" t="inlineStr"/>
+      <c r="BS386" t="inlineStr"/>
+      <c r="BT386" t="inlineStr"/>
+      <c r="BU386" t="inlineStr"/>
+      <c r="BV386" t="inlineStr"/>
+      <c r="BW386" t="inlineStr"/>
+      <c r="BX386" t="inlineStr"/>
+      <c r="BY386" t="inlineStr"/>
+      <c r="BZ386" t="inlineStr"/>
+      <c r="CA386" t="inlineStr"/>
+      <c r="CB386" t="inlineStr"/>
+      <c r="CC386" t="inlineStr"/>
+      <c r="CD386" t="inlineStr"/>
+      <c r="CE386" t="inlineStr"/>
+      <c r="CF386" t="inlineStr"/>
+      <c r="CG386" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH386" t="inlineStr"/>
+      <c r="CI386" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ386" t="inlineStr"/>
+      <c r="CK386" t="inlineStr"/>
+      <c r="CL386" t="inlineStr"/>
+      <c r="CM386" t="inlineStr"/>
+      <c r="CN386" t="inlineStr"/>
+      <c r="CO386" t="inlineStr"/>
+      <c r="CP386" t="inlineStr"/>
+      <c r="CQ386" t="inlineStr"/>
+      <c r="CR386" t="inlineStr"/>
+      <c r="CS386" t="inlineStr"/>
+      <c r="CT386" t="inlineStr"/>
+      <c r="CU386" t="inlineStr"/>
+      <c r="CV386" t="inlineStr"/>
+      <c r="CW386" t="inlineStr"/>
+      <c r="CX386" t="inlineStr"/>
+      <c r="CY386" t="inlineStr"/>
+      <c r="CZ386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>cl:10379</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>biotic heterogeneity</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="inlineStr"/>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>cl:10365</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
+      <c r="M387" t="inlineStr"/>
+      <c r="N387" t="inlineStr"/>
+      <c r="O387" t="inlineStr"/>
+      <c r="P387" t="inlineStr"/>
+      <c r="Q387" t="inlineStr"/>
+      <c r="R387" t="inlineStr"/>
+      <c r="S387" t="inlineStr"/>
+      <c r="T387" t="inlineStr"/>
+      <c r="U387" t="inlineStr"/>
+      <c r="V387" t="inlineStr"/>
+      <c r="W387" t="inlineStr"/>
+      <c r="X387" t="inlineStr"/>
+      <c r="Y387" t="inlineStr"/>
+      <c r="Z387" t="inlineStr"/>
+      <c r="AA387" t="inlineStr"/>
+      <c r="AB387" t="inlineStr"/>
+      <c r="AC387" t="inlineStr"/>
+      <c r="AD387" t="inlineStr"/>
+      <c r="AE387" t="inlineStr"/>
+      <c r="AF387" t="inlineStr"/>
+      <c r="AG387" t="inlineStr"/>
+      <c r="AH387" t="inlineStr"/>
+      <c r="AI387" t="inlineStr"/>
+      <c r="AJ387" t="inlineStr"/>
+      <c r="AK387" t="inlineStr"/>
+      <c r="AL387" t="inlineStr"/>
+      <c r="AM387" t="inlineStr"/>
+      <c r="AN387" t="inlineStr"/>
+      <c r="AO387" t="inlineStr"/>
+      <c r="AP387" t="inlineStr"/>
+      <c r="AQ387" t="inlineStr"/>
+      <c r="AR387" t="inlineStr"/>
+      <c r="AS387" t="inlineStr"/>
+      <c r="AT387" t="inlineStr"/>
+      <c r="AU387" t="inlineStr"/>
+      <c r="AV387" t="inlineStr"/>
+      <c r="AW387" t="inlineStr"/>
+      <c r="AX387" t="inlineStr"/>
+      <c r="AY387" t="inlineStr"/>
+      <c r="AZ387" t="inlineStr"/>
+      <c r="BA387" t="inlineStr"/>
+      <c r="BB387" t="inlineStr"/>
+      <c r="BC387" t="inlineStr"/>
+      <c r="BD387" t="inlineStr"/>
+      <c r="BE387" t="inlineStr"/>
+      <c r="BF387" t="inlineStr"/>
+      <c r="BG387" t="inlineStr"/>
+      <c r="BH387" t="inlineStr"/>
+      <c r="BI387" t="inlineStr"/>
+      <c r="BJ387" t="inlineStr"/>
+      <c r="BK387" t="inlineStr"/>
+      <c r="BL387" t="inlineStr"/>
+      <c r="BM387" t="inlineStr"/>
+      <c r="BN387" t="inlineStr"/>
+      <c r="BO387" t="inlineStr"/>
+      <c r="BP387" t="inlineStr"/>
+      <c r="BQ387" t="inlineStr"/>
+      <c r="BR387" t="inlineStr"/>
+      <c r="BS387" t="inlineStr"/>
+      <c r="BT387" t="inlineStr"/>
+      <c r="BU387" t="inlineStr"/>
+      <c r="BV387" t="inlineStr"/>
+      <c r="BW387" t="inlineStr"/>
+      <c r="BX387" t="inlineStr"/>
+      <c r="BY387" t="inlineStr"/>
+      <c r="BZ387" t="inlineStr"/>
+      <c r="CA387" t="inlineStr"/>
+      <c r="CB387" t="inlineStr"/>
+      <c r="CC387" t="inlineStr"/>
+      <c r="CD387" t="inlineStr"/>
+      <c r="CE387" t="inlineStr"/>
+      <c r="CF387" t="inlineStr"/>
+      <c r="CG387" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH387" t="inlineStr"/>
+      <c r="CI387" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ387" t="inlineStr"/>
+      <c r="CK387" t="inlineStr"/>
+      <c r="CL387" t="inlineStr"/>
+      <c r="CM387" t="inlineStr"/>
+      <c r="CN387" t="inlineStr"/>
+      <c r="CO387" t="inlineStr"/>
+      <c r="CP387" t="inlineStr"/>
+      <c r="CQ387" t="inlineStr"/>
+      <c r="CR387" t="inlineStr"/>
+      <c r="CS387" t="inlineStr"/>
+      <c r="CT387" t="inlineStr"/>
+      <c r="CU387" t="inlineStr"/>
+      <c r="CV387" t="inlineStr"/>
+      <c r="CW387" t="inlineStr"/>
+      <c r="CX387" t="inlineStr"/>
+      <c r="CY387" t="inlineStr"/>
+      <c r="CZ387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>et:21880</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr"/>
+      <c r="D388" t="inlineStr"/>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>et:10313,cl:10379</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
+      <c r="M388" t="inlineStr"/>
+      <c r="N388" t="inlineStr"/>
+      <c r="O388" t="inlineStr"/>
+      <c r="P388" t="inlineStr"/>
+      <c r="Q388" t="inlineStr"/>
+      <c r="R388" t="inlineStr"/>
+      <c r="S388" t="inlineStr"/>
+      <c r="T388" t="inlineStr"/>
+      <c r="U388" t="inlineStr"/>
+      <c r="V388" t="inlineStr"/>
+      <c r="W388" t="inlineStr"/>
+      <c r="X388" t="inlineStr">
+        <is>
+          <t>GEO-BON Biome</t>
+        </is>
+      </c>
+      <c r="Y388" t="inlineStr"/>
+      <c r="Z388" t="inlineStr"/>
+      <c r="AA388" t="inlineStr"/>
+      <c r="AB388" t="inlineStr"/>
+      <c r="AC388" t="inlineStr"/>
+      <c r="AD388" t="inlineStr"/>
+      <c r="AE388" t="inlineStr"/>
+      <c r="AF388" t="inlineStr"/>
+      <c r="AG388" t="inlineStr"/>
+      <c r="AH388" t="inlineStr"/>
+      <c r="AI388" t="inlineStr"/>
+      <c r="AJ388" t="inlineStr"/>
+      <c r="AK388" t="inlineStr"/>
+      <c r="AL388" t="inlineStr"/>
+      <c r="AM388" t="inlineStr"/>
+      <c r="AN388" t="inlineStr"/>
+      <c r="AO388" t="inlineStr"/>
+      <c r="AP388" t="inlineStr"/>
+      <c r="AQ388" t="inlineStr"/>
+      <c r="AR388" t="inlineStr"/>
+      <c r="AS388" t="inlineStr"/>
+      <c r="AT388" t="inlineStr"/>
+      <c r="AU388" t="inlineStr"/>
+      <c r="AV388" t="inlineStr"/>
+      <c r="AW388" t="inlineStr"/>
+      <c r="AX388" t="inlineStr"/>
+      <c r="AY388" t="inlineStr"/>
+      <c r="AZ388" t="inlineStr"/>
+      <c r="BA388" t="inlineStr"/>
+      <c r="BB388" t="inlineStr"/>
+      <c r="BC388" t="inlineStr"/>
+      <c r="BD388" t="inlineStr"/>
+      <c r="BE388" t="inlineStr"/>
+      <c r="BF388" t="inlineStr"/>
+      <c r="BG388" t="inlineStr"/>
+      <c r="BH388" t="inlineStr"/>
+      <c r="BI388" t="inlineStr"/>
+      <c r="BJ388" t="inlineStr"/>
+      <c r="BK388" t="inlineStr"/>
+      <c r="BL388" t="inlineStr"/>
+      <c r="BM388" t="inlineStr"/>
+      <c r="BN388" t="inlineStr"/>
+      <c r="BO388" t="inlineStr"/>
+      <c r="BP388" t="inlineStr"/>
+      <c r="BQ388" t="inlineStr"/>
+      <c r="BR388" t="inlineStr"/>
+      <c r="BS388" t="inlineStr"/>
+      <c r="BT388" t="inlineStr"/>
+      <c r="BU388" t="inlineStr"/>
+      <c r="BV388" t="inlineStr"/>
+      <c r="BW388" t="inlineStr"/>
+      <c r="BX388" t="inlineStr"/>
+      <c r="BY388" t="inlineStr"/>
+      <c r="BZ388" t="inlineStr"/>
+      <c r="CA388" t="inlineStr"/>
+      <c r="CB388" t="inlineStr"/>
+      <c r="CC388" t="inlineStr"/>
+      <c r="CD388" t="inlineStr"/>
+      <c r="CE388" t="inlineStr"/>
+      <c r="CF388" t="inlineStr"/>
+      <c r="CG388" t="inlineStr">
+        <is>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="CH388" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
+      <c r="CI388" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ388" t="inlineStr"/>
+      <c r="CK388" t="inlineStr"/>
+      <c r="CL388" t="inlineStr"/>
+      <c r="CM388" t="inlineStr"/>
+      <c r="CN388" t="inlineStr"/>
+      <c r="CO388" t="inlineStr"/>
+      <c r="CP388" t="inlineStr"/>
+      <c r="CQ388" t="inlineStr"/>
+      <c r="CR388" t="inlineStr"/>
+      <c r="CS388" t="inlineStr"/>
+      <c r="CT388" t="inlineStr"/>
+      <c r="CU388" t="inlineStr"/>
+      <c r="CV388" t="inlineStr"/>
+      <c r="CW388" t="inlineStr"/>
+      <c r="CX388" t="inlineStr"/>
+      <c r="CY388" t="inlineStr"/>
+      <c r="CZ388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>cl:10379</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>terrestrial/aquatic</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr"/>
+      <c r="D389" t="inlineStr"/>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>cl:10379</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
+      <c r="M389" t="inlineStr"/>
+      <c r="N389" t="inlineStr"/>
+      <c r="O389" t="inlineStr"/>
+      <c r="P389" t="inlineStr"/>
+      <c r="Q389" t="inlineStr"/>
+      <c r="R389" t="inlineStr"/>
+      <c r="S389" t="inlineStr"/>
+      <c r="T389" t="inlineStr"/>
+      <c r="U389" t="inlineStr"/>
+      <c r="V389" t="inlineStr"/>
+      <c r="W389" t="inlineStr"/>
+      <c r="X389" t="inlineStr"/>
+      <c r="Y389" t="inlineStr"/>
+      <c r="Z389" t="inlineStr"/>
+      <c r="AA389" t="inlineStr"/>
+      <c r="AB389" t="inlineStr"/>
+      <c r="AC389" t="inlineStr"/>
+      <c r="AD389" t="inlineStr"/>
+      <c r="AE389" t="inlineStr"/>
+      <c r="AF389" t="inlineStr"/>
+      <c r="AG389" t="inlineStr"/>
+      <c r="AH389" t="inlineStr"/>
+      <c r="AI389" t="inlineStr"/>
+      <c r="AJ389" t="inlineStr"/>
+      <c r="AK389" t="inlineStr"/>
+      <c r="AL389" t="inlineStr"/>
+      <c r="AM389" t="inlineStr"/>
+      <c r="AN389" t="inlineStr"/>
+      <c r="AO389" t="inlineStr"/>
+      <c r="AP389" t="inlineStr"/>
+      <c r="AQ389" t="inlineStr"/>
+      <c r="AR389" t="inlineStr"/>
+      <c r="AS389" t="inlineStr"/>
+      <c r="AT389" t="inlineStr"/>
+      <c r="AU389" t="inlineStr"/>
+      <c r="AV389" t="inlineStr"/>
+      <c r="AW389" t="inlineStr"/>
+      <c r="AX389" t="inlineStr"/>
+      <c r="AY389" t="inlineStr"/>
+      <c r="AZ389" t="inlineStr"/>
+      <c r="BA389" t="inlineStr"/>
+      <c r="BB389" t="inlineStr"/>
+      <c r="BC389" t="inlineStr"/>
+      <c r="BD389" t="inlineStr"/>
+      <c r="BE389" t="inlineStr"/>
+      <c r="BF389" t="inlineStr"/>
+      <c r="BG389" t="inlineStr"/>
+      <c r="BH389" t="inlineStr"/>
+      <c r="BI389" t="inlineStr"/>
+      <c r="BJ389" t="inlineStr"/>
+      <c r="BK389" t="inlineStr"/>
+      <c r="BL389" t="inlineStr"/>
+      <c r="BM389" t="inlineStr"/>
+      <c r="BN389" t="inlineStr"/>
+      <c r="BO389" t="inlineStr"/>
+      <c r="BP389" t="inlineStr"/>
+      <c r="BQ389" t="inlineStr"/>
+      <c r="BR389" t="inlineStr"/>
+      <c r="BS389" t="inlineStr"/>
+      <c r="BT389" t="inlineStr"/>
+      <c r="BU389" t="inlineStr"/>
+      <c r="BV389" t="inlineStr"/>
+      <c r="BW389" t="inlineStr"/>
+      <c r="BX389" t="inlineStr"/>
+      <c r="BY389" t="inlineStr"/>
+      <c r="BZ389" t="inlineStr"/>
+      <c r="CA389" t="inlineStr"/>
+      <c r="CB389" t="inlineStr"/>
+      <c r="CC389" t="inlineStr"/>
+      <c r="CD389" t="inlineStr"/>
+      <c r="CE389" t="inlineStr"/>
+      <c r="CF389" t="inlineStr"/>
+      <c r="CG389" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH389" t="inlineStr"/>
+      <c r="CI389" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ389" t="inlineStr"/>
+      <c r="CK389" t="inlineStr"/>
+      <c r="CL389" t="inlineStr"/>
+      <c r="CM389" t="inlineStr"/>
+      <c r="CN389" t="inlineStr"/>
+      <c r="CO389" t="inlineStr"/>
+      <c r="CP389" t="inlineStr"/>
+      <c r="CQ389" t="inlineStr"/>
+      <c r="CR389" t="inlineStr"/>
+      <c r="CS389" t="inlineStr"/>
+      <c r="CT389" t="inlineStr"/>
+      <c r="CU389" t="inlineStr"/>
+      <c r="CV389" t="inlineStr"/>
+      <c r="CW389" t="inlineStr"/>
+      <c r="CX389" t="inlineStr"/>
+      <c r="CY389" t="inlineStr"/>
+      <c r="CZ389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>et:21155</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>energy budget</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr"/>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>[Henderson's] balance of energy input and use in a biological system. It is expressed as consumption (C) = production (P) + respiration (R) + rejecta (faeces and urine) (F + U). see also assimilated energy.</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>et:20950,cl:10365</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr"/>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
+      <c r="M390" t="inlineStr"/>
+      <c r="N390" t="inlineStr"/>
+      <c r="O390" t="inlineStr"/>
+      <c r="P390" t="inlineStr"/>
+      <c r="Q390" t="inlineStr"/>
+      <c r="R390" t="inlineStr"/>
+      <c r="S390" t="inlineStr"/>
+      <c r="T390" t="inlineStr"/>
+      <c r="U390" t="inlineStr"/>
+      <c r="V390" t="inlineStr"/>
+      <c r="W390" t="inlineStr"/>
+      <c r="X390" t="inlineStr"/>
+      <c r="Y390" t="inlineStr"/>
+      <c r="Z390" t="inlineStr"/>
+      <c r="AA390" t="inlineStr"/>
+      <c r="AB390" t="inlineStr"/>
+      <c r="AC390" t="inlineStr"/>
+      <c r="AD390" t="inlineStr"/>
+      <c r="AE390" t="inlineStr"/>
+      <c r="AF390" t="inlineStr"/>
+      <c r="AG390" t="inlineStr"/>
+      <c r="AH390" t="inlineStr"/>
+      <c r="AI390" t="inlineStr"/>
+      <c r="AJ390" t="inlineStr"/>
+      <c r="AK390" t="inlineStr"/>
+      <c r="AL390" t="inlineStr"/>
+      <c r="AM390" t="inlineStr"/>
+      <c r="AN390" t="inlineStr"/>
+      <c r="AO390" t="inlineStr"/>
+      <c r="AP390" t="inlineStr"/>
+      <c r="AQ390" t="inlineStr"/>
+      <c r="AR390" t="inlineStr"/>
+      <c r="AS390" t="inlineStr"/>
+      <c r="AT390" t="inlineStr"/>
+      <c r="AU390" t="inlineStr"/>
+      <c r="AV390" t="inlineStr"/>
+      <c r="AW390" t="inlineStr"/>
+      <c r="AX390" t="inlineStr"/>
+      <c r="AY390" t="inlineStr"/>
+      <c r="AZ390" t="inlineStr"/>
+      <c r="BA390" t="inlineStr"/>
+      <c r="BB390" t="inlineStr"/>
+      <c r="BC390" t="inlineStr"/>
+      <c r="BD390" t="inlineStr"/>
+      <c r="BE390" t="inlineStr"/>
+      <c r="BF390" t="inlineStr"/>
+      <c r="BG390" t="inlineStr"/>
+      <c r="BH390" t="inlineStr"/>
+      <c r="BI390" t="inlineStr"/>
+      <c r="BJ390" t="inlineStr"/>
+      <c r="BK390" t="inlineStr"/>
+      <c r="BL390" t="inlineStr"/>
+      <c r="BM390" t="inlineStr"/>
+      <c r="BN390" t="inlineStr"/>
+      <c r="BO390" t="inlineStr"/>
+      <c r="BP390" t="inlineStr"/>
+      <c r="BQ390" t="inlineStr"/>
+      <c r="BR390" t="inlineStr"/>
+      <c r="BS390" t="inlineStr"/>
+      <c r="BT390" t="inlineStr"/>
+      <c r="BU390" t="inlineStr"/>
+      <c r="BV390" t="inlineStr"/>
+      <c r="BW390" t="inlineStr"/>
+      <c r="BX390" t="inlineStr"/>
+      <c r="BY390" t="inlineStr"/>
+      <c r="BZ390" t="inlineStr"/>
+      <c r="CA390" t="inlineStr"/>
+      <c r="CB390" t="inlineStr"/>
+      <c r="CC390" t="inlineStr"/>
+      <c r="CD390" t="inlineStr"/>
+      <c r="CE390" t="inlineStr"/>
+      <c r="CF390" t="inlineStr"/>
+      <c r="CG390" t="inlineStr">
+        <is>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="CH390" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
+      <c r="CI390" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ390" t="inlineStr"/>
+      <c r="CK390" t="inlineStr"/>
+      <c r="CL390" t="inlineStr"/>
+      <c r="CM390" t="inlineStr"/>
+      <c r="CN390" t="inlineStr"/>
+      <c r="CO390" t="inlineStr"/>
+      <c r="CP390" t="inlineStr"/>
+      <c r="CQ390" t="inlineStr"/>
+      <c r="CR390" t="inlineStr"/>
+      <c r="CS390" t="inlineStr"/>
+      <c r="CT390" t="inlineStr"/>
+      <c r="CU390" t="inlineStr"/>
+      <c r="CV390" t="inlineStr"/>
+      <c r="CW390" t="inlineStr"/>
+      <c r="CX390" t="inlineStr"/>
+      <c r="CY390" t="inlineStr"/>
+      <c r="CZ390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>et:20790</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>biomass</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>[Henderson's] n. (1) total weight, volume or energy equivalent of organisms in a given area; (2) plant materials and animal wastes used as a source of fuel or other industrial products; (3) in biotechnology, the micro&amp;shy;bial matter in the system.</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>et:20935,cl:21155,cl:10365,et:21176</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>http://aims.fao.org/aos/agrovoc/c_926,https://vocab.lternet.edu/vocab/vocab/?tema=68,http://www.eionet.europa.eu/gemet/concept/883,http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/30170,http://eurovoc.europa.eu/4930,http://en.wikipedia.org/wiki/biomass</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
+      <c r="M391" t="inlineStr"/>
+      <c r="N391" t="inlineStr"/>
+      <c r="O391" t="inlineStr"/>
+      <c r="P391" t="inlineStr"/>
+      <c r="Q391" t="inlineStr"/>
+      <c r="R391" t="inlineStr"/>
+      <c r="S391" t="inlineStr"/>
+      <c r="T391" t="inlineStr"/>
+      <c r="U391" t="inlineStr"/>
+      <c r="V391" t="inlineStr"/>
+      <c r="W391" t="inlineStr">
+        <is>
+          <t>too unspecific for the concept of biological substance (this should be something which can be classified in a chemical way)</t>
+        </is>
+      </c>
+      <c r="X391" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
+      <c r="Y391" t="inlineStr"/>
+      <c r="Z391" t="inlineStr"/>
+      <c r="AA391" t="inlineStr"/>
+      <c r="AB391" t="inlineStr">
+        <is>
+          <t>Biomasse</t>
+        </is>
+      </c>
+      <c r="AC391" t="inlineStr">
+        <is>
+          <t>الكتلة الحيوية</t>
+        </is>
+      </c>
+      <c r="AD391" t="inlineStr">
+        <is>
+          <t>Биомаса</t>
+        </is>
+      </c>
+      <c r="AE391" t="inlineStr">
+        <is>
+          <t>biomasa</t>
+        </is>
+      </c>
+      <c r="AF391" t="inlineStr">
+        <is>
+          <t>biomasse</t>
+        </is>
+      </c>
+      <c r="AG391" t="inlineStr">
+        <is>
+          <t>βιομάζα</t>
+        </is>
+      </c>
+      <c r="AH391" t="inlineStr">
+        <is>
+          <t>biomasa</t>
+        </is>
+      </c>
+      <c r="AI391" t="inlineStr">
+        <is>
+          <t>biomass, elusaine hulk</t>
+        </is>
+      </c>
+      <c r="AJ391" t="inlineStr">
+        <is>
+          <t>biomassa</t>
+        </is>
+      </c>
+      <c r="AK391" t="inlineStr">
+        <is>
+          <t>biomasse</t>
+        </is>
+      </c>
+      <c r="AL391" t="inlineStr">
+        <is>
+          <t>biomass</t>
+        </is>
+      </c>
+      <c r="AM391" t="inlineStr">
+        <is>
+          <t>biomassza</t>
+        </is>
+      </c>
+      <c r="AN391" t="inlineStr">
+        <is>
+          <t>biomassa</t>
+        </is>
+      </c>
+      <c r="AO391" t="inlineStr">
+        <is>
+          <t>生物体系学</t>
+        </is>
+      </c>
+      <c r="AP391" t="inlineStr">
+        <is>
+          <t>biomasė</t>
+        </is>
+      </c>
+      <c r="AQ391" t="inlineStr">
+        <is>
+          <t>biomasa</t>
+        </is>
+      </c>
+      <c r="AR391" t="inlineStr">
+        <is>
+          <t>biomassa</t>
+        </is>
+      </c>
+      <c r="AS391" t="inlineStr">
+        <is>
+          <t>biomasse</t>
+        </is>
+      </c>
+      <c r="AT391" t="inlineStr">
+        <is>
+          <t>biomasa</t>
+        </is>
+      </c>
+      <c r="AU391" t="inlineStr">
+        <is>
+          <t>biomassa</t>
+        </is>
+      </c>
+      <c r="AV391" t="inlineStr">
+        <is>
+          <t>biomasă</t>
+        </is>
+      </c>
+      <c r="AW391" t="inlineStr">
+        <is>
+          <t>biomasa</t>
+        </is>
+      </c>
+      <c r="AX391" t="inlineStr">
+        <is>
+          <t>biomasa</t>
+        </is>
+      </c>
+      <c r="AY391" t="inlineStr">
+        <is>
+          <t>biomassa</t>
+        </is>
+      </c>
+      <c r="AZ391" t="inlineStr">
+        <is>
+          <t>生物产量</t>
+        </is>
+      </c>
+      <c r="BA391" t="inlineStr"/>
+      <c r="BB391" t="inlineStr"/>
+      <c r="BC391" t="inlineStr"/>
+      <c r="BD391" t="inlineStr"/>
+      <c r="BE391" t="inlineStr"/>
+      <c r="BF391" t="inlineStr"/>
+      <c r="BG391" t="inlineStr"/>
+      <c r="BH391" t="inlineStr"/>
+      <c r="BI391" t="inlineStr"/>
+      <c r="BJ391" t="inlineStr"/>
+      <c r="BK391" t="inlineStr"/>
+      <c r="BL391" t="inlineStr"/>
+      <c r="BM391" t="inlineStr"/>
+      <c r="BN391" t="inlineStr"/>
+      <c r="BO391" t="inlineStr"/>
+      <c r="BP391" t="inlineStr"/>
+      <c r="BQ391" t="inlineStr"/>
+      <c r="BR391" t="inlineStr"/>
+      <c r="BS391" t="inlineStr"/>
+      <c r="BT391" t="inlineStr"/>
+      <c r="BU391" t="inlineStr"/>
+      <c r="BV391" t="inlineStr"/>
+      <c r="BW391" t="inlineStr"/>
+      <c r="BX391" t="inlineStr"/>
+      <c r="BY391" t="inlineStr"/>
+      <c r="BZ391" t="inlineStr"/>
+      <c r="CA391" t="inlineStr"/>
+      <c r="CB391" t="inlineStr"/>
+      <c r="CC391" t="inlineStr"/>
+      <c r="CD391" t="inlineStr"/>
+      <c r="CE391" t="inlineStr"/>
+      <c r="CF391" t="inlineStr"/>
+      <c r="CG391" t="inlineStr">
+        <is>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="CH391" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
+      <c r="CI391" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ391" t="inlineStr"/>
+      <c r="CK391" t="inlineStr"/>
+      <c r="CL391" t="inlineStr"/>
+      <c r="CM391" t="inlineStr"/>
+      <c r="CN391" t="inlineStr"/>
+      <c r="CO391" t="inlineStr"/>
+      <c r="CP391" t="inlineStr"/>
+      <c r="CQ391" t="inlineStr"/>
+      <c r="CR391" t="inlineStr"/>
+      <c r="CS391" t="inlineStr"/>
+      <c r="CT391" t="inlineStr"/>
+      <c r="CU391" t="inlineStr"/>
+      <c r="CV391" t="inlineStr"/>
+      <c r="CW391" t="inlineStr"/>
+      <c r="CX391" t="inlineStr"/>
+      <c r="CY391" t="inlineStr"/>
+      <c r="CZ391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>et:20791</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>radiation budget</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>cl:21155</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
+      <c r="M392" t="inlineStr"/>
+      <c r="N392" t="inlineStr"/>
+      <c r="O392" t="inlineStr"/>
+      <c r="P392" t="inlineStr"/>
+      <c r="Q392" t="inlineStr"/>
+      <c r="R392" t="inlineStr"/>
+      <c r="S392" t="inlineStr"/>
+      <c r="T392" t="inlineStr"/>
+      <c r="U392" t="inlineStr"/>
+      <c r="V392" t="inlineStr"/>
+      <c r="W392" t="inlineStr"/>
+      <c r="X392" t="inlineStr"/>
+      <c r="Y392" t="inlineStr"/>
+      <c r="Z392" t="inlineStr"/>
+      <c r="AA392" t="inlineStr"/>
+      <c r="AB392" t="inlineStr"/>
+      <c r="AC392" t="inlineStr"/>
+      <c r="AD392" t="inlineStr"/>
+      <c r="AE392" t="inlineStr"/>
+      <c r="AF392" t="inlineStr"/>
+      <c r="AG392" t="inlineStr"/>
+      <c r="AH392" t="inlineStr"/>
+      <c r="AI392" t="inlineStr"/>
+      <c r="AJ392" t="inlineStr"/>
+      <c r="AK392" t="inlineStr"/>
+      <c r="AL392" t="inlineStr"/>
+      <c r="AM392" t="inlineStr"/>
+      <c r="AN392" t="inlineStr"/>
+      <c r="AO392" t="inlineStr"/>
+      <c r="AP392" t="inlineStr"/>
+      <c r="AQ392" t="inlineStr"/>
+      <c r="AR392" t="inlineStr"/>
+      <c r="AS392" t="inlineStr"/>
+      <c r="AT392" t="inlineStr"/>
+      <c r="AU392" t="inlineStr"/>
+      <c r="AV392" t="inlineStr"/>
+      <c r="AW392" t="inlineStr"/>
+      <c r="AX392" t="inlineStr"/>
+      <c r="AY392" t="inlineStr"/>
+      <c r="AZ392" t="inlineStr"/>
+      <c r="BA392" t="inlineStr"/>
+      <c r="BB392" t="inlineStr"/>
+      <c r="BC392" t="inlineStr"/>
+      <c r="BD392" t="inlineStr"/>
+      <c r="BE392" t="inlineStr"/>
+      <c r="BF392" t="inlineStr"/>
+      <c r="BG392" t="inlineStr"/>
+      <c r="BH392" t="inlineStr"/>
+      <c r="BI392" t="inlineStr"/>
+      <c r="BJ392" t="inlineStr"/>
+      <c r="BK392" t="inlineStr"/>
+      <c r="BL392" t="inlineStr"/>
+      <c r="BM392" t="inlineStr"/>
+      <c r="BN392" t="inlineStr"/>
+      <c r="BO392" t="inlineStr"/>
+      <c r="BP392" t="inlineStr"/>
+      <c r="BQ392" t="inlineStr"/>
+      <c r="BR392" t="inlineStr"/>
+      <c r="BS392" t="inlineStr"/>
+      <c r="BT392" t="inlineStr"/>
+      <c r="BU392" t="inlineStr"/>
+      <c r="BV392" t="inlineStr"/>
+      <c r="BW392" t="inlineStr"/>
+      <c r="BX392" t="inlineStr"/>
+      <c r="BY392" t="inlineStr"/>
+      <c r="BZ392" t="inlineStr"/>
+      <c r="CA392" t="inlineStr"/>
+      <c r="CB392" t="inlineStr"/>
+      <c r="CC392" t="inlineStr"/>
+      <c r="CD392" t="inlineStr"/>
+      <c r="CE392" t="inlineStr"/>
+      <c r="CF392" t="inlineStr"/>
+      <c r="CG392" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH392" t="inlineStr"/>
+      <c r="CI392" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ392" t="inlineStr"/>
+      <c r="CK392" t="inlineStr"/>
+      <c r="CL392" t="inlineStr"/>
+      <c r="CM392" t="inlineStr"/>
+      <c r="CN392" t="inlineStr"/>
+      <c r="CO392" t="inlineStr"/>
+      <c r="CP392" t="inlineStr"/>
+      <c r="CQ392" t="inlineStr"/>
+      <c r="CR392" t="inlineStr"/>
+      <c r="CS392" t="inlineStr"/>
+      <c r="CT392" t="inlineStr"/>
+      <c r="CU392" t="inlineStr"/>
+      <c r="CV392" t="inlineStr"/>
+      <c r="CW392" t="inlineStr"/>
+      <c r="CX392" t="inlineStr"/>
+      <c r="CY392" t="inlineStr"/>
+      <c r="CZ392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>et:21077</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>net ecosystem exchange</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>pNet Ecosystem Exchange (NEE) and Net Ecosystem Production (NEP) refer to net primary production minus carbon losses in heterotrophic respiration, Rh: NEE = NEP = NPP - Rh/p</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>et:20982,cl:21155,et:21176</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>https://vocab.lternet.edu/vocab/vocab/?tema=883</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
+      <c r="M393" t="inlineStr"/>
+      <c r="N393" t="inlineStr"/>
+      <c r="O393" t="inlineStr"/>
+      <c r="P393" t="inlineStr"/>
+      <c r="Q393" t="inlineStr"/>
+      <c r="R393" t="inlineStr"/>
+      <c r="S393" t="inlineStr"/>
+      <c r="T393" t="inlineStr"/>
+      <c r="U393" t="inlineStr">
+        <is>
+          <t>Definition from: http://www.steverox.info/Downloads/Software/C%20Accounting%20Definitions.pdf</t>
+        </is>
+      </c>
+      <c r="V393" t="inlineStr"/>
+      <c r="W393" t="inlineStr"/>
+      <c r="X393" t="inlineStr">
+        <is>
+          <t>MS Academic Keywords</t>
+        </is>
+      </c>
+      <c r="Y393" t="inlineStr"/>
+      <c r="Z393" t="inlineStr"/>
+      <c r="AA393" t="inlineStr"/>
+      <c r="AB393" t="inlineStr"/>
+      <c r="AC393" t="inlineStr"/>
+      <c r="AD393" t="inlineStr"/>
+      <c r="AE393" t="inlineStr"/>
+      <c r="AF393" t="inlineStr"/>
+      <c r="AG393" t="inlineStr"/>
+      <c r="AH393" t="inlineStr"/>
+      <c r="AI393" t="inlineStr"/>
+      <c r="AJ393" t="inlineStr"/>
+      <c r="AK393" t="inlineStr"/>
+      <c r="AL393" t="inlineStr"/>
+      <c r="AM393" t="inlineStr"/>
+      <c r="AN393" t="inlineStr"/>
+      <c r="AO393" t="inlineStr"/>
+      <c r="AP393" t="inlineStr"/>
+      <c r="AQ393" t="inlineStr"/>
+      <c r="AR393" t="inlineStr"/>
+      <c r="AS393" t="inlineStr"/>
+      <c r="AT393" t="inlineStr"/>
+      <c r="AU393" t="inlineStr"/>
+      <c r="AV393" t="inlineStr"/>
+      <c r="AW393" t="inlineStr"/>
+      <c r="AX393" t="inlineStr"/>
+      <c r="AY393" t="inlineStr"/>
+      <c r="AZ393" t="inlineStr"/>
+      <c r="BA393" t="inlineStr"/>
+      <c r="BB393" t="inlineStr"/>
+      <c r="BC393" t="inlineStr"/>
+      <c r="BD393" t="inlineStr"/>
+      <c r="BE393" t="inlineStr"/>
+      <c r="BF393" t="inlineStr"/>
+      <c r="BG393" t="inlineStr"/>
+      <c r="BH393" t="inlineStr"/>
+      <c r="BI393" t="inlineStr"/>
+      <c r="BJ393" t="inlineStr"/>
+      <c r="BK393" t="inlineStr"/>
+      <c r="BL393" t="inlineStr"/>
+      <c r="BM393" t="inlineStr"/>
+      <c r="BN393" t="inlineStr"/>
+      <c r="BO393" t="inlineStr"/>
+      <c r="BP393" t="inlineStr"/>
+      <c r="BQ393" t="inlineStr"/>
+      <c r="BR393" t="inlineStr"/>
+      <c r="BS393" t="inlineStr"/>
+      <c r="BT393" t="inlineStr"/>
+      <c r="BU393" t="inlineStr"/>
+      <c r="BV393" t="inlineStr"/>
+      <c r="BW393" t="inlineStr"/>
+      <c r="BX393" t="inlineStr"/>
+      <c r="BY393" t="inlineStr"/>
+      <c r="BZ393" t="inlineStr"/>
+      <c r="CA393" t="inlineStr"/>
+      <c r="CB393" t="inlineStr"/>
+      <c r="CC393" t="inlineStr"/>
+      <c r="CD393" t="inlineStr"/>
+      <c r="CE393" t="inlineStr"/>
+      <c r="CF393" t="inlineStr"/>
+      <c r="CG393" t="inlineStr">
+        <is>
+          <t>2016-10-12</t>
+        </is>
+      </c>
+      <c r="CH393" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="CI393" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ393" t="inlineStr"/>
+      <c r="CK393" t="inlineStr"/>
+      <c r="CL393" t="inlineStr"/>
+      <c r="CM393" t="inlineStr"/>
+      <c r="CN393" t="inlineStr"/>
+      <c r="CO393" t="inlineStr"/>
+      <c r="CP393" t="inlineStr"/>
+      <c r="CQ393" t="inlineStr"/>
+      <c r="CR393" t="inlineStr"/>
+      <c r="CS393" t="inlineStr"/>
+      <c r="CT393" t="inlineStr"/>
+      <c r="CU393" t="inlineStr"/>
+      <c r="CV393" t="inlineStr"/>
+      <c r="CW393" t="inlineStr"/>
+      <c r="CX393" t="inlineStr"/>
+      <c r="CY393" t="inlineStr"/>
+      <c r="CZ393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>et:21202</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>water balance</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>[Henderson's] the balance between the water intake of an organism directly, in food, and as metabolic water, and the water lost by excretion and evaporation.</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>et:21243,cl:10365</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/22220,http://aims.fao.org/aos/agrovoc/c_8311,http://en.wikipedia.org/wiki/water_balance,https://vocab.lternet.edu/vocab/vocab/?tema=618</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
+      <c r="M394" t="inlineStr"/>
+      <c r="N394" t="inlineStr"/>
+      <c r="O394" t="inlineStr"/>
+      <c r="P394" t="inlineStr"/>
+      <c r="Q394" t="inlineStr"/>
+      <c r="R394" t="inlineStr"/>
+      <c r="S394" t="inlineStr"/>
+      <c r="T394" t="inlineStr"/>
+      <c r="U394" t="inlineStr">
+        <is>
+          <t>[controlled by ] Leca Stefan 14.06.2013</t>
+        </is>
+      </c>
+      <c r="V394" t="inlineStr"/>
+      <c r="W394" t="inlineStr"/>
+      <c r="X394" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
+      <c r="Y394" t="inlineStr"/>
+      <c r="Z394" t="inlineStr"/>
+      <c r="AA394" t="inlineStr"/>
+      <c r="AB394" t="inlineStr"/>
+      <c r="AC394" t="inlineStr"/>
+      <c r="AD394" t="inlineStr"/>
+      <c r="AE394" t="inlineStr"/>
+      <c r="AF394" t="inlineStr"/>
+      <c r="AG394" t="inlineStr"/>
+      <c r="AH394" t="inlineStr"/>
+      <c r="AI394" t="inlineStr"/>
+      <c r="AJ394" t="inlineStr"/>
+      <c r="AK394" t="inlineStr"/>
+      <c r="AL394" t="inlineStr"/>
+      <c r="AM394" t="inlineStr"/>
+      <c r="AN394" t="inlineStr"/>
+      <c r="AO394" t="inlineStr">
+        <is>
+          <t>水収支</t>
+        </is>
+      </c>
+      <c r="AP394" t="inlineStr"/>
+      <c r="AQ394" t="inlineStr"/>
+      <c r="AR394" t="inlineStr"/>
+      <c r="AS394" t="inlineStr"/>
+      <c r="AT394" t="inlineStr"/>
+      <c r="AU394" t="inlineStr"/>
+      <c r="AV394" t="inlineStr"/>
+      <c r="AW394" t="inlineStr"/>
+      <c r="AX394" t="inlineStr"/>
+      <c r="AY394" t="inlineStr"/>
+      <c r="AZ394" t="inlineStr">
+        <is>
+          <t>水分平衡</t>
+        </is>
+      </c>
+      <c r="BA394" t="inlineStr"/>
+      <c r="BB394" t="inlineStr"/>
+      <c r="BC394" t="inlineStr"/>
+      <c r="BD394" t="inlineStr"/>
+      <c r="BE394" t="inlineStr"/>
+      <c r="BF394" t="inlineStr"/>
+      <c r="BG394" t="inlineStr"/>
+      <c r="BH394" t="inlineStr"/>
+      <c r="BI394" t="inlineStr"/>
+      <c r="BJ394" t="inlineStr"/>
+      <c r="BK394" t="inlineStr"/>
+      <c r="BL394" t="inlineStr"/>
+      <c r="BM394" t="inlineStr"/>
+      <c r="BN394" t="inlineStr"/>
+      <c r="BO394" t="inlineStr"/>
+      <c r="BP394" t="inlineStr"/>
+      <c r="BQ394" t="inlineStr"/>
+      <c r="BR394" t="inlineStr"/>
+      <c r="BS394" t="inlineStr"/>
+      <c r="BT394" t="inlineStr"/>
+      <c r="BU394" t="inlineStr"/>
+      <c r="BV394" t="inlineStr"/>
+      <c r="BW394" t="inlineStr"/>
+      <c r="BX394" t="inlineStr"/>
+      <c r="BY394" t="inlineStr"/>
+      <c r="BZ394" t="inlineStr"/>
+      <c r="CA394" t="inlineStr"/>
+      <c r="CB394" t="inlineStr"/>
+      <c r="CC394" t="inlineStr"/>
+      <c r="CD394" t="inlineStr"/>
+      <c r="CE394" t="inlineStr"/>
+      <c r="CF394" t="inlineStr"/>
+      <c r="CG394" t="inlineStr">
+        <is>
+          <t>2013-02-14</t>
+        </is>
+      </c>
+      <c r="CH394" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
+      <c r="CI394" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ394" t="inlineStr"/>
+      <c r="CK394" t="inlineStr"/>
+      <c r="CL394" t="inlineStr"/>
+      <c r="CM394" t="inlineStr"/>
+      <c r="CN394" t="inlineStr"/>
+      <c r="CO394" t="inlineStr"/>
+      <c r="CP394" t="inlineStr"/>
+      <c r="CQ394" t="inlineStr"/>
+      <c r="CR394" t="inlineStr"/>
+      <c r="CS394" t="inlineStr"/>
+      <c r="CT394" t="inlineStr"/>
+      <c r="CU394" t="inlineStr"/>
+      <c r="CV394" t="inlineStr"/>
+      <c r="CW394" t="inlineStr"/>
+      <c r="CX394" t="inlineStr"/>
+      <c r="CY394" t="inlineStr"/>
+      <c r="CZ394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>cl:10380</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>streams/rivers/lakes</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>et:21202</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr"/>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
+      <c r="M395" t="inlineStr"/>
+      <c r="N395" t="inlineStr"/>
+      <c r="O395" t="inlineStr"/>
+      <c r="P395" t="inlineStr"/>
+      <c r="Q395" t="inlineStr"/>
+      <c r="R395" t="inlineStr"/>
+      <c r="S395" t="inlineStr"/>
+      <c r="T395" t="inlineStr"/>
+      <c r="U395" t="inlineStr"/>
+      <c r="V395" t="inlineStr"/>
+      <c r="W395" t="inlineStr"/>
+      <c r="X395" t="inlineStr"/>
+      <c r="Y395" t="inlineStr"/>
+      <c r="Z395" t="inlineStr"/>
+      <c r="AA395" t="inlineStr"/>
+      <c r="AB395" t="inlineStr"/>
+      <c r="AC395" t="inlineStr"/>
+      <c r="AD395" t="inlineStr"/>
+      <c r="AE395" t="inlineStr"/>
+      <c r="AF395" t="inlineStr"/>
+      <c r="AG395" t="inlineStr"/>
+      <c r="AH395" t="inlineStr"/>
+      <c r="AI395" t="inlineStr"/>
+      <c r="AJ395" t="inlineStr"/>
+      <c r="AK395" t="inlineStr"/>
+      <c r="AL395" t="inlineStr"/>
+      <c r="AM395" t="inlineStr"/>
+      <c r="AN395" t="inlineStr"/>
+      <c r="AO395" t="inlineStr"/>
+      <c r="AP395" t="inlineStr"/>
+      <c r="AQ395" t="inlineStr"/>
+      <c r="AR395" t="inlineStr"/>
+      <c r="AS395" t="inlineStr"/>
+      <c r="AT395" t="inlineStr"/>
+      <c r="AU395" t="inlineStr"/>
+      <c r="AV395" t="inlineStr"/>
+      <c r="AW395" t="inlineStr"/>
+      <c r="AX395" t="inlineStr"/>
+      <c r="AY395" t="inlineStr"/>
+      <c r="AZ395" t="inlineStr"/>
+      <c r="BA395" t="inlineStr"/>
+      <c r="BB395" t="inlineStr"/>
+      <c r="BC395" t="inlineStr"/>
+      <c r="BD395" t="inlineStr"/>
+      <c r="BE395" t="inlineStr"/>
+      <c r="BF395" t="inlineStr"/>
+      <c r="BG395" t="inlineStr"/>
+      <c r="BH395" t="inlineStr"/>
+      <c r="BI395" t="inlineStr"/>
+      <c r="BJ395" t="inlineStr"/>
+      <c r="BK395" t="inlineStr"/>
+      <c r="BL395" t="inlineStr"/>
+      <c r="BM395" t="inlineStr"/>
+      <c r="BN395" t="inlineStr"/>
+      <c r="BO395" t="inlineStr"/>
+      <c r="BP395" t="inlineStr"/>
+      <c r="BQ395" t="inlineStr"/>
+      <c r="BR395" t="inlineStr"/>
+      <c r="BS395" t="inlineStr"/>
+      <c r="BT395" t="inlineStr"/>
+      <c r="BU395" t="inlineStr"/>
+      <c r="BV395" t="inlineStr"/>
+      <c r="BW395" t="inlineStr"/>
+      <c r="BX395" t="inlineStr"/>
+      <c r="BY395" t="inlineStr"/>
+      <c r="BZ395" t="inlineStr"/>
+      <c r="CA395" t="inlineStr"/>
+      <c r="CB395" t="inlineStr"/>
+      <c r="CC395" t="inlineStr"/>
+      <c r="CD395" t="inlineStr"/>
+      <c r="CE395" t="inlineStr"/>
+      <c r="CF395" t="inlineStr"/>
+      <c r="CG395" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH395" t="inlineStr"/>
+      <c r="CI395" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ395" t="inlineStr"/>
+      <c r="CK395" t="inlineStr"/>
+      <c r="CL395" t="inlineStr"/>
+      <c r="CM395" t="inlineStr"/>
+      <c r="CN395" t="inlineStr"/>
+      <c r="CO395" t="inlineStr"/>
+      <c r="CP395" t="inlineStr"/>
+      <c r="CQ395" t="inlineStr"/>
+      <c r="CR395" t="inlineStr"/>
+      <c r="CS395" t="inlineStr"/>
+      <c r="CT395" t="inlineStr"/>
+      <c r="CU395" t="inlineStr"/>
+      <c r="CV395" t="inlineStr"/>
+      <c r="CW395" t="inlineStr"/>
+      <c r="CX395" t="inlineStr"/>
+      <c r="CY395" t="inlineStr"/>
+      <c r="CZ395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>et:21176</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>matter budget</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="inlineStr"/>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>et:20950,cl:10365</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
+      <c r="M396" t="inlineStr"/>
+      <c r="N396" t="inlineStr"/>
+      <c r="O396" t="inlineStr"/>
+      <c r="P396" t="inlineStr"/>
+      <c r="Q396" t="inlineStr"/>
+      <c r="R396" t="inlineStr"/>
+      <c r="S396" t="inlineStr"/>
+      <c r="T396" t="inlineStr"/>
+      <c r="U396" t="inlineStr"/>
+      <c r="V396" t="inlineStr"/>
+      <c r="W396" t="inlineStr"/>
+      <c r="X396" t="inlineStr"/>
+      <c r="Y396" t="inlineStr"/>
+      <c r="Z396" t="inlineStr"/>
+      <c r="AA396" t="inlineStr"/>
+      <c r="AB396" t="inlineStr"/>
+      <c r="AC396" t="inlineStr"/>
+      <c r="AD396" t="inlineStr"/>
+      <c r="AE396" t="inlineStr"/>
+      <c r="AF396" t="inlineStr"/>
+      <c r="AG396" t="inlineStr"/>
+      <c r="AH396" t="inlineStr"/>
+      <c r="AI396" t="inlineStr"/>
+      <c r="AJ396" t="inlineStr"/>
+      <c r="AK396" t="inlineStr"/>
+      <c r="AL396" t="inlineStr"/>
+      <c r="AM396" t="inlineStr"/>
+      <c r="AN396" t="inlineStr"/>
+      <c r="AO396" t="inlineStr"/>
+      <c r="AP396" t="inlineStr"/>
+      <c r="AQ396" t="inlineStr"/>
+      <c r="AR396" t="inlineStr"/>
+      <c r="AS396" t="inlineStr"/>
+      <c r="AT396" t="inlineStr"/>
+      <c r="AU396" t="inlineStr"/>
+      <c r="AV396" t="inlineStr"/>
+      <c r="AW396" t="inlineStr"/>
+      <c r="AX396" t="inlineStr"/>
+      <c r="AY396" t="inlineStr"/>
+      <c r="AZ396" t="inlineStr"/>
+      <c r="BA396" t="inlineStr"/>
+      <c r="BB396" t="inlineStr"/>
+      <c r="BC396" t="inlineStr"/>
+      <c r="BD396" t="inlineStr"/>
+      <c r="BE396" t="inlineStr"/>
+      <c r="BF396" t="inlineStr"/>
+      <c r="BG396" t="inlineStr"/>
+      <c r="BH396" t="inlineStr"/>
+      <c r="BI396" t="inlineStr"/>
+      <c r="BJ396" t="inlineStr"/>
+      <c r="BK396" t="inlineStr"/>
+      <c r="BL396" t="inlineStr"/>
+      <c r="BM396" t="inlineStr"/>
+      <c r="BN396" t="inlineStr"/>
+      <c r="BO396" t="inlineStr"/>
+      <c r="BP396" t="inlineStr"/>
+      <c r="BQ396" t="inlineStr"/>
+      <c r="BR396" t="inlineStr"/>
+      <c r="BS396" t="inlineStr"/>
+      <c r="BT396" t="inlineStr"/>
+      <c r="BU396" t="inlineStr"/>
+      <c r="BV396" t="inlineStr"/>
+      <c r="BW396" t="inlineStr"/>
+      <c r="BX396" t="inlineStr"/>
+      <c r="BY396" t="inlineStr"/>
+      <c r="BZ396" t="inlineStr"/>
+      <c r="CA396" t="inlineStr"/>
+      <c r="CB396" t="inlineStr"/>
+      <c r="CC396" t="inlineStr"/>
+      <c r="CD396" t="inlineStr"/>
+      <c r="CE396" t="inlineStr"/>
+      <c r="CF396" t="inlineStr"/>
+      <c r="CG396" t="inlineStr">
+        <is>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="CH396" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
+      <c r="CI396" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ396" t="inlineStr"/>
+      <c r="CK396" t="inlineStr"/>
+      <c r="CL396" t="inlineStr"/>
+      <c r="CM396" t="inlineStr"/>
+      <c r="CN396" t="inlineStr"/>
+      <c r="CO396" t="inlineStr"/>
+      <c r="CP396" t="inlineStr"/>
+      <c r="CQ396" t="inlineStr"/>
+      <c r="CR396" t="inlineStr"/>
+      <c r="CS396" t="inlineStr"/>
+      <c r="CT396" t="inlineStr"/>
+      <c r="CU396" t="inlineStr"/>
+      <c r="CV396" t="inlineStr"/>
+      <c r="CW396" t="inlineStr"/>
+      <c r="CX396" t="inlineStr"/>
+      <c r="CY396" t="inlineStr"/>
+      <c r="CZ396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>et:21263</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>atmospheric deposition</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>The process by which polluting material is precipitated from the atmosphere and accumulates in ecosystems.</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>et:20950,cl:10365</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>https://vocab.lternet.edu/vocab/vocab/?tema=49,http://aims.fao.org/aos/agrovoc/c_36094</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
+      <c r="M397" t="inlineStr"/>
+      <c r="N397" t="inlineStr"/>
+      <c r="O397" t="inlineStr"/>
+      <c r="P397" t="inlineStr"/>
+      <c r="Q397" t="inlineStr"/>
+      <c r="R397" t="inlineStr"/>
+      <c r="S397" t="inlineStr"/>
+      <c r="T397" t="inlineStr"/>
+      <c r="U397" t="inlineStr"/>
+      <c r="V397" t="inlineStr"/>
+      <c r="W397" t="inlineStr"/>
+      <c r="X397" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
+      <c r="Y397" t="inlineStr"/>
+      <c r="Z397" t="inlineStr"/>
+      <c r="AA397" t="inlineStr"/>
+      <c r="AB397" t="inlineStr"/>
+      <c r="AC397" t="inlineStr"/>
+      <c r="AD397" t="inlineStr"/>
+      <c r="AE397" t="inlineStr"/>
+      <c r="AF397" t="inlineStr"/>
+      <c r="AG397" t="inlineStr"/>
+      <c r="AH397" t="inlineStr"/>
+      <c r="AI397" t="inlineStr"/>
+      <c r="AJ397" t="inlineStr"/>
+      <c r="AK397" t="inlineStr"/>
+      <c r="AL397" t="inlineStr"/>
+      <c r="AM397" t="inlineStr"/>
+      <c r="AN397" t="inlineStr"/>
+      <c r="AO397" t="inlineStr">
+        <is>
+          <t>大気降下物</t>
+        </is>
+      </c>
+      <c r="AP397" t="inlineStr"/>
+      <c r="AQ397" t="inlineStr"/>
+      <c r="AR397" t="inlineStr"/>
+      <c r="AS397" t="inlineStr"/>
+      <c r="AT397" t="inlineStr"/>
+      <c r="AU397" t="inlineStr"/>
+      <c r="AV397" t="inlineStr"/>
+      <c r="AW397" t="inlineStr"/>
+      <c r="AX397" t="inlineStr"/>
+      <c r="AY397" t="inlineStr"/>
+      <c r="AZ397" t="inlineStr">
+        <is>
+          <t>大气沉降</t>
+        </is>
+      </c>
+      <c r="BA397" t="inlineStr"/>
+      <c r="BB397" t="inlineStr"/>
+      <c r="BC397" t="inlineStr"/>
+      <c r="BD397" t="inlineStr"/>
+      <c r="BE397" t="inlineStr"/>
+      <c r="BF397" t="inlineStr"/>
+      <c r="BG397" t="inlineStr"/>
+      <c r="BH397" t="inlineStr"/>
+      <c r="BI397" t="inlineStr"/>
+      <c r="BJ397" t="inlineStr"/>
+      <c r="BK397" t="inlineStr"/>
+      <c r="BL397" t="inlineStr"/>
+      <c r="BM397" t="inlineStr"/>
+      <c r="BN397" t="inlineStr"/>
+      <c r="BO397" t="inlineStr"/>
+      <c r="BP397" t="inlineStr"/>
+      <c r="BQ397" t="inlineStr"/>
+      <c r="BR397" t="inlineStr"/>
+      <c r="BS397" t="inlineStr"/>
+      <c r="BT397" t="inlineStr"/>
+      <c r="BU397" t="inlineStr"/>
+      <c r="BV397" t="inlineStr"/>
+      <c r="BW397" t="inlineStr"/>
+      <c r="BX397" t="inlineStr"/>
+      <c r="BY397" t="inlineStr"/>
+      <c r="BZ397" t="inlineStr"/>
+      <c r="CA397" t="inlineStr"/>
+      <c r="CB397" t="inlineStr"/>
+      <c r="CC397" t="inlineStr"/>
+      <c r="CD397" t="inlineStr"/>
+      <c r="CE397" t="inlineStr"/>
+      <c r="CF397" t="inlineStr"/>
+      <c r="CG397" t="inlineStr">
+        <is>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="CH397" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
+      <c r="CI397" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CJ397" t="inlineStr"/>
+      <c r="CK397" t="inlineStr"/>
+      <c r="CL397" t="inlineStr"/>
+      <c r="CM397" t="inlineStr"/>
+      <c r="CN397" t="inlineStr"/>
+      <c r="CO397" t="inlineStr"/>
+      <c r="CP397" t="inlineStr"/>
+      <c r="CQ397" t="inlineStr"/>
+      <c r="CR397" t="inlineStr"/>
+      <c r="CS397" t="inlineStr"/>
+      <c r="CT397" t="inlineStr"/>
+      <c r="CU397" t="inlineStr"/>
+      <c r="CV397" t="inlineStr"/>
+      <c r="CW397" t="inlineStr"/>
+      <c r="CX397" t="inlineStr"/>
+      <c r="CY397" t="inlineStr"/>
+      <c r="CZ397" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -53344,7 +53344,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>cl:10379</t>
+          <t>cl:10381</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -53621,7 +53621,7 @@
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
-          <t>et:20935,cl:21155,cl:10365,et:21176</t>
+          <t>et:20935,et:21155,cl:10365,et:21176</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -54553,7 +54553,7 @@
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr">
         <is>
-          <t>et:20950,cl:10365</t>
+          <t>et:20950,et:21176</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ397"/>
+  <dimension ref="A1:CZ396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48454,20 +48454,20 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>cl:10348</t>
+          <t>cl:10349</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>spatial scale</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr"/>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>[Siquan Tian] Spatial scale is an important factor that needs to be considered in data collection and analysis in ecological studies. Studies focusing on the quantitative evaluation of impacts of spatial scales are, however, limited in fisheries...</t>
-        </is>
-      </c>
+          <t>temporal scale</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>temporal scales</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr"/>
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
@@ -48588,19 +48588,15 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>cl:10349</t>
+          <t>cl:10350</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>temporal scale</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>temporal scales</t>
-        </is>
-      </c>
+          <t>scale dependence</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr"/>
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
@@ -48722,12 +48718,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>cl:10350</t>
+          <t>cl:10351</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>scale dependence</t>
+          <t>ecosystem approach</t>
         </is>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -48852,12 +48848,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>cl:10351</t>
+          <t>cl:10352</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>ecosystem approach</t>
+          <t>local scale</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -48982,12 +48978,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>cl:10352</t>
+          <t>cl:10353</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>local scale</t>
+          <t>global scale</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -49112,12 +49108,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>cl:10353</t>
+          <t>cl:10354</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>global scale</t>
+          <t>regional scale</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -49242,12 +49238,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>cl:10354</t>
+          <t>cl:10355</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>regional scale</t>
+          <t>national scale</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -49372,12 +49368,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>cl:10355</t>
+          <t>cl:10356</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>national scale</t>
+          <t>field scale</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -49502,12 +49498,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>cl:10356</t>
+          <t>cl:10357</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>field scale</t>
+          <t>subcatchment scale</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -49632,12 +49628,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>cl:10357</t>
+          <t>cl:10358</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>subcatchment scale</t>
+          <t>continental scale</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -49762,12 +49758,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>cl:10358</t>
+          <t>cl:10359</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>continental scale</t>
+          <t>catchment scale</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -49892,12 +49888,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>cl:10359</t>
+          <t>cl:10360</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>catchment scale</t>
+          <t>plot scale</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -50022,12 +50018,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>cl:10360</t>
+          <t>cl:10361</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>plot scale</t>
+          <t>ecotron scale</t>
         </is>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -50152,12 +50148,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>cl:10361</t>
+          <t>cl:10362</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>ecotron scale</t>
+          <t>beyond catchment scale</t>
         </is>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -50282,12 +50278,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>cl:10362</t>
+          <t>cl:10363</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>beyond catchment scale</t>
+          <t>micro site scale</t>
         </is>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -50412,12 +50408,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>cl:10363</t>
+          <t>cl:10364</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>micro site scale</t>
+          <t>landscape scale</t>
         </is>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -50542,12 +50538,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>cl:10364</t>
+          <t>et:30212</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>landscape scale</t>
+          <t>catchment area</t>
         </is>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -50555,7 +50551,7 @@
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr">
         <is>
-          <t>cl:10346</t>
+          <t>et:20935,cl:10187</t>
         </is>
       </c>
       <c r="G370" t="inlineStr"/>
@@ -50563,8 +50559,16 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
-      <c r="M370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>et:21533</t>
+        </is>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>et:10092</t>
+        </is>
+      </c>
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr"/>
       <c r="P370" t="inlineStr"/>
@@ -50648,7 +50652,7 @@
       </c>
       <c r="CI370" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CJ370" t="inlineStr"/>
@@ -50672,37 +50676,25 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>et:30212</t>
+          <t>cl:10365</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>catchment area</t>
+          <t>eLTER Standard Observations</t>
         </is>
       </c>
       <c r="C371" t="inlineStr"/>
       <c r="D371" t="inlineStr"/>
       <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>et:20935,cl:10187</t>
-        </is>
-      </c>
+      <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>et:21533</t>
-        </is>
-      </c>
-      <c r="M371" t="inlineStr">
-        <is>
-          <t>et:10092</t>
-        </is>
-      </c>
+      <c r="L371" t="inlineStr"/>
+      <c r="M371" t="inlineStr"/>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="inlineStr"/>
@@ -50776,7 +50768,7 @@
       <c r="CF371" t="inlineStr"/>
       <c r="CG371" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="CH371" t="inlineStr">
@@ -50810,18 +50802,22 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>cl:10365</t>
+          <t>cl:10366</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>eLTER Standard Observations</t>
+          <t>abiotic site characteristics</t>
         </is>
       </c>
       <c r="C372" t="inlineStr"/>
       <c r="D372" t="inlineStr"/>
       <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr"/>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>cl:10365</t>
+        </is>
+      </c>
       <c r="G372" t="inlineStr"/>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr"/>
@@ -50936,23 +50932,31 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>cl:10366</t>
+          <t>et:20506</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>abiotic site characteristics</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr"/>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>[MESH] The longterm manifestations of WEATHER. (McGraw-Hill Dictionary of Scientific and Technical Terms, 6th ed)</t>
+        </is>
+      </c>
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr">
         <is>
-          <t>cl:10365</t>
-        </is>
-      </c>
-      <c r="G373" t="inlineStr"/>
+          <t>cl:10366,et:21753</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ENVO_01001082,http://purl.bioontology.org/ontology/MESH/D002980,https://vocab.lternet.edu/vocab/vocab/?tema=109,http://www.eionet.europa.eu/gemet/concept/1462</t>
+        </is>
+      </c>
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -50973,31 +50977,131 @@
       <c r="Y373" t="inlineStr"/>
       <c r="Z373" t="inlineStr"/>
       <c r="AA373" t="inlineStr"/>
-      <c r="AB373" t="inlineStr"/>
-      <c r="AC373" t="inlineStr"/>
-      <c r="AD373" t="inlineStr"/>
-      <c r="AE373" t="inlineStr"/>
-      <c r="AF373" t="inlineStr"/>
-      <c r="AG373" t="inlineStr"/>
-      <c r="AH373" t="inlineStr"/>
-      <c r="AI373" t="inlineStr"/>
-      <c r="AJ373" t="inlineStr"/>
-      <c r="AK373" t="inlineStr"/>
-      <c r="AL373" t="inlineStr"/>
-      <c r="AM373" t="inlineStr"/>
-      <c r="AN373" t="inlineStr"/>
-      <c r="AO373" t="inlineStr"/>
-      <c r="AP373" t="inlineStr"/>
-      <c r="AQ373" t="inlineStr"/>
-      <c r="AR373" t="inlineStr"/>
-      <c r="AS373" t="inlineStr"/>
-      <c r="AT373" t="inlineStr"/>
-      <c r="AU373" t="inlineStr"/>
-      <c r="AV373" t="inlineStr"/>
-      <c r="AW373" t="inlineStr"/>
-      <c r="AX373" t="inlineStr"/>
-      <c r="AY373" t="inlineStr"/>
-      <c r="AZ373" t="inlineStr"/>
+      <c r="AB373" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="AC373" t="inlineStr">
+        <is>
+          <t>مناخ</t>
+        </is>
+      </c>
+      <c r="AD373" t="inlineStr">
+        <is>
+          <t>Климат</t>
+        </is>
+      </c>
+      <c r="AE373" t="inlineStr">
+        <is>
+          <t>podnebí</t>
+        </is>
+      </c>
+      <c r="AF373" t="inlineStr">
+        <is>
+          <t>klima</t>
+        </is>
+      </c>
+      <c r="AG373" t="inlineStr">
+        <is>
+          <t>κλίμα</t>
+        </is>
+      </c>
+      <c r="AH373" t="inlineStr">
+        <is>
+          <t>clima</t>
+        </is>
+      </c>
+      <c r="AI373" t="inlineStr">
+        <is>
+          <t>kliima</t>
+        </is>
+      </c>
+      <c r="AJ373" t="inlineStr">
+        <is>
+          <t>ilmasto</t>
+        </is>
+      </c>
+      <c r="AK373" t="inlineStr">
+        <is>
+          <t>climat</t>
+        </is>
+      </c>
+      <c r="AL373" t="inlineStr">
+        <is>
+          <t>klima</t>
+        </is>
+      </c>
+      <c r="AM373" t="inlineStr">
+        <is>
+          <t>éghajlat</t>
+        </is>
+      </c>
+      <c r="AN373" t="inlineStr">
+        <is>
+          <t>clima</t>
+        </is>
+      </c>
+      <c r="AO373" t="inlineStr">
+        <is>
+          <t>気候</t>
+        </is>
+      </c>
+      <c r="AP373" t="inlineStr">
+        <is>
+          <t>klimatas</t>
+        </is>
+      </c>
+      <c r="AQ373" t="inlineStr">
+        <is>
+          <t>klimats</t>
+        </is>
+      </c>
+      <c r="AR373" t="inlineStr">
+        <is>
+          <t>klimaat</t>
+        </is>
+      </c>
+      <c r="AS373" t="inlineStr">
+        <is>
+          <t>klima</t>
+        </is>
+      </c>
+      <c r="AT373" t="inlineStr">
+        <is>
+          <t>klimat</t>
+        </is>
+      </c>
+      <c r="AU373" t="inlineStr">
+        <is>
+          <t>clima</t>
+        </is>
+      </c>
+      <c r="AV373" t="inlineStr">
+        <is>
+          <t>climă</t>
+        </is>
+      </c>
+      <c r="AW373" t="inlineStr">
+        <is>
+          <t>klíma</t>
+        </is>
+      </c>
+      <c r="AX373" t="inlineStr">
+        <is>
+          <t>podnebje, klima</t>
+        </is>
+      </c>
+      <c r="AY373" t="inlineStr">
+        <is>
+          <t>klimat</t>
+        </is>
+      </c>
+      <c r="AZ373" t="inlineStr">
+        <is>
+          <t>气候</t>
+        </is>
+      </c>
       <c r="BA373" t="inlineStr"/>
       <c r="BB373" t="inlineStr"/>
       <c r="BC373" t="inlineStr"/>
@@ -51032,12 +51136,12 @@
       <c r="CF373" t="inlineStr"/>
       <c r="CG373" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2016-03-31</t>
         </is>
       </c>
       <c r="CH373" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>herbert.schentz@umweltbundesamt.at</t>
         </is>
       </c>
       <c r="CI373" t="inlineStr">
@@ -51066,29 +51170,33 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>et:20506</t>
+          <t>et:20917</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>climate</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
+          <t>groundwater</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>ground water</t>
+        </is>
+      </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>[MESH] The longterm manifestations of WEATHER. (McGraw-Hill Dictionary of Scientific and Technical Terms, 6th ed)</t>
+          <t>[Henderson's] n. (1) water that sinks down through soil and rock and collects in underground aquifers.</t>
         </is>
       </c>
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr">
         <is>
-          <t>cl:10366,et:21753</t>
+          <t>et:20538,cl:10366,cl:10379,et:21202,et:21176</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_01001082,http://purl.bioontology.org/ontology/MESH/D002980,https://vocab.lternet.edu/vocab/vocab/?tema=109,http://www.eionet.europa.eu/gemet/concept/1462</t>
+          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/28120,https://vocab.lternet.edu/vocab/vocab/?tema=235,http://aims.fao.org/aos/agrovoc/c_3391,http://en.wikipedia.org/wiki/groundwater,http://www.eionet.europa.eu/gemet/concept/3780,</t>
         </is>
       </c>
       <c r="H374" t="inlineStr"/>
@@ -51107,133 +51215,129 @@
       <c r="U374" t="inlineStr"/>
       <c r="V374" t="inlineStr"/>
       <c r="W374" t="inlineStr"/>
-      <c r="X374" t="inlineStr"/>
+      <c r="X374" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
       <c r="Y374" t="inlineStr"/>
       <c r="Z374" t="inlineStr"/>
       <c r="AA374" t="inlineStr"/>
       <c r="AB374" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Grundwasser</t>
         </is>
       </c>
       <c r="AC374" t="inlineStr">
         <is>
-          <t>مناخ</t>
+          <t>مياه جوفية</t>
         </is>
       </c>
       <c r="AD374" t="inlineStr">
         <is>
-          <t>Климат</t>
+          <t>Подпочвени води</t>
         </is>
       </c>
       <c r="AE374" t="inlineStr">
         <is>
-          <t>podnebí</t>
-        </is>
-      </c>
-      <c r="AF374" t="inlineStr">
-        <is>
-          <t>klima</t>
-        </is>
-      </c>
+          <t>voda podzemní</t>
+        </is>
+      </c>
+      <c r="AF374" t="inlineStr"/>
       <c r="AG374" t="inlineStr">
         <is>
-          <t>κλίμα</t>
+          <t>υπόγειο νερό</t>
         </is>
       </c>
       <c r="AH374" t="inlineStr">
         <is>
-          <t>clima</t>
+          <t>agua subterránea</t>
         </is>
       </c>
       <c r="AI374" t="inlineStr">
         <is>
-          <t>kliima</t>
+          <t>põhjavesi</t>
         </is>
       </c>
       <c r="AJ374" t="inlineStr">
         <is>
-          <t>ilmasto</t>
+          <t>pohjavesi</t>
         </is>
       </c>
       <c r="AK374" t="inlineStr">
         <is>
-          <t>climat</t>
+          <t>eaux souterraines</t>
         </is>
       </c>
       <c r="AL374" t="inlineStr">
         <is>
-          <t>klima</t>
+          <t>podzemne vode</t>
         </is>
       </c>
       <c r="AM374" t="inlineStr">
         <is>
-          <t>éghajlat</t>
+          <t>talajvíz</t>
         </is>
       </c>
       <c r="AN374" t="inlineStr">
         <is>
-          <t>clima</t>
+          <t>acqua sotterranea</t>
         </is>
       </c>
       <c r="AO374" t="inlineStr">
         <is>
-          <t>気候</t>
+          <t>地下水</t>
         </is>
       </c>
       <c r="AP374" t="inlineStr">
         <is>
-          <t>klimatas</t>
+          <t>gruntinis vanduo</t>
         </is>
       </c>
       <c r="AQ374" t="inlineStr">
         <is>
-          <t>klimats</t>
+          <t>gruntsūdens</t>
         </is>
       </c>
       <c r="AR374" t="inlineStr">
         <is>
-          <t>klimaat</t>
+          <t>grondwater</t>
         </is>
       </c>
       <c r="AS374" t="inlineStr">
         <is>
-          <t>klima</t>
+          <t>grunnvann</t>
         </is>
       </c>
       <c r="AT374" t="inlineStr">
         <is>
-          <t>klimat</t>
+          <t>woda gruntowa</t>
         </is>
       </c>
       <c r="AU374" t="inlineStr">
         <is>
-          <t>clima</t>
+          <t>águas intersticiais</t>
         </is>
       </c>
       <c r="AV374" t="inlineStr">
         <is>
-          <t>climă</t>
+          <t>ape subterane</t>
         </is>
       </c>
       <c r="AW374" t="inlineStr">
         <is>
-          <t>klíma</t>
+          <t>podzemná voda</t>
         </is>
       </c>
       <c r="AX374" t="inlineStr">
         <is>
-          <t>podnebje, klima</t>
-        </is>
-      </c>
-      <c r="AY374" t="inlineStr">
-        <is>
-          <t>klimat</t>
-        </is>
-      </c>
+          <t>podtalnica</t>
+        </is>
+      </c>
+      <c r="AY374" t="inlineStr"/>
       <c r="AZ374" t="inlineStr">
         <is>
-          <t>气候</t>
+          <t>地下水</t>
         </is>
       </c>
       <c r="BA374" t="inlineStr"/>
@@ -51304,33 +51408,33 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>et:20917</t>
+          <t>et:20915</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>groundwater</t>
+          <t>lake</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>ground water</t>
+          <t>lakes</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[Henderson's] n. (1) water that sinks down through soil and rock and collects in underground aquifers.</t>
+          <t>[GEMET] An enclosed body of water, usually but not necessarily fresh water, from which the sea is excluded.</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr">
         <is>
-          <t>et:20538,cl:10366,cl:10379,et:21202,et:21176</t>
+          <t>et:32,cl:10366,cl:10379,et:21202,et:21176</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/28120,https://vocab.lternet.edu/vocab/vocab/?tema=235,http://aims.fao.org/aos/agrovoc/c_3391,http://en.wikipedia.org/wiki/groundwater,http://www.eionet.europa.eu/gemet/concept/3780,</t>
+          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/41590,https://vocab.lternet.edu/vocab/vocab/?tema=278,http://purl.obolibrary.org/obo/ENVO_00000020,http://aims.fao.org/aos/agrovoc/c_4160</t>
         </is>
       </c>
       <c r="H375" t="inlineStr"/>
@@ -51355,125 +51459,37 @@
         </is>
       </c>
       <c r="Y375" t="inlineStr"/>
-      <c r="Z375" t="inlineStr"/>
+      <c r="Z375" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
       <c r="AA375" t="inlineStr"/>
-      <c r="AB375" t="inlineStr">
-        <is>
-          <t>Grundwasser</t>
-        </is>
-      </c>
-      <c r="AC375" t="inlineStr">
-        <is>
-          <t>مياه جوفية</t>
-        </is>
-      </c>
-      <c r="AD375" t="inlineStr">
-        <is>
-          <t>Подпочвени води</t>
-        </is>
-      </c>
-      <c r="AE375" t="inlineStr">
-        <is>
-          <t>voda podzemní</t>
-        </is>
-      </c>
+      <c r="AB375" t="inlineStr"/>
+      <c r="AC375" t="inlineStr"/>
+      <c r="AD375" t="inlineStr"/>
+      <c r="AE375" t="inlineStr"/>
       <c r="AF375" t="inlineStr"/>
-      <c r="AG375" t="inlineStr">
-        <is>
-          <t>υπόγειο νερό</t>
-        </is>
-      </c>
-      <c r="AH375" t="inlineStr">
-        <is>
-          <t>agua subterránea</t>
-        </is>
-      </c>
-      <c r="AI375" t="inlineStr">
-        <is>
-          <t>põhjavesi</t>
-        </is>
-      </c>
-      <c r="AJ375" t="inlineStr">
-        <is>
-          <t>pohjavesi</t>
-        </is>
-      </c>
-      <c r="AK375" t="inlineStr">
-        <is>
-          <t>eaux souterraines</t>
-        </is>
-      </c>
-      <c r="AL375" t="inlineStr">
-        <is>
-          <t>podzemne vode</t>
-        </is>
-      </c>
-      <c r="AM375" t="inlineStr">
-        <is>
-          <t>talajvíz</t>
-        </is>
-      </c>
-      <c r="AN375" t="inlineStr">
-        <is>
-          <t>acqua sotterranea</t>
-        </is>
-      </c>
-      <c r="AO375" t="inlineStr">
-        <is>
-          <t>地下水</t>
-        </is>
-      </c>
-      <c r="AP375" t="inlineStr">
-        <is>
-          <t>gruntinis vanduo</t>
-        </is>
-      </c>
-      <c r="AQ375" t="inlineStr">
-        <is>
-          <t>gruntsūdens</t>
-        </is>
-      </c>
-      <c r="AR375" t="inlineStr">
-        <is>
-          <t>grondwater</t>
-        </is>
-      </c>
-      <c r="AS375" t="inlineStr">
-        <is>
-          <t>grunnvann</t>
-        </is>
-      </c>
-      <c r="AT375" t="inlineStr">
-        <is>
-          <t>woda gruntowa</t>
-        </is>
-      </c>
-      <c r="AU375" t="inlineStr">
-        <is>
-          <t>águas intersticiais</t>
-        </is>
-      </c>
-      <c r="AV375" t="inlineStr">
-        <is>
-          <t>ape subterane</t>
-        </is>
-      </c>
-      <c r="AW375" t="inlineStr">
-        <is>
-          <t>podzemná voda</t>
-        </is>
-      </c>
-      <c r="AX375" t="inlineStr">
-        <is>
-          <t>podtalnica</t>
-        </is>
-      </c>
+      <c r="AG375" t="inlineStr"/>
+      <c r="AH375" t="inlineStr"/>
+      <c r="AI375" t="inlineStr"/>
+      <c r="AJ375" t="inlineStr"/>
+      <c r="AK375" t="inlineStr"/>
+      <c r="AL375" t="inlineStr"/>
+      <c r="AM375" t="inlineStr"/>
+      <c r="AN375" t="inlineStr"/>
+      <c r="AO375" t="inlineStr"/>
+      <c r="AP375" t="inlineStr"/>
+      <c r="AQ375" t="inlineStr"/>
+      <c r="AR375" t="inlineStr"/>
+      <c r="AS375" t="inlineStr"/>
+      <c r="AT375" t="inlineStr"/>
+      <c r="AU375" t="inlineStr"/>
+      <c r="AV375" t="inlineStr"/>
+      <c r="AW375" t="inlineStr"/>
+      <c r="AX375" t="inlineStr"/>
       <c r="AY375" t="inlineStr"/>
-      <c r="AZ375" t="inlineStr">
-        <is>
-          <t>地下水</t>
-        </is>
-      </c>
+      <c r="AZ375" t="inlineStr"/>
       <c r="BA375" t="inlineStr"/>
       <c r="BB375" t="inlineStr"/>
       <c r="BC375" t="inlineStr"/>
@@ -51542,33 +51558,29 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>et:20915</t>
+          <t>et:24</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>lake</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>lakes</t>
-        </is>
-      </c>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr"/>
       <c r="D376" t="inlineStr">
         <is>
-          <t>[GEMET] An enclosed body of water, usually but not necessarily fresh water, from which the sea is excluded.</t>
+          <t>[GEMET] The top layer of the land surface of the earth that is composed of disintegrated rock particles, humus, water and air.</t>
         </is>
       </c>
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
-          <t>et:32,cl:10366,cl:10379,et:21202,et:21176</t>
+          <t>et:10003,cl:10366,et:21202</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/41590,https://vocab.lternet.edu/vocab/vocab/?tema=278,http://purl.obolibrary.org/obo/ENVO_00000020,http://aims.fao.org/aos/agrovoc/c_4160</t>
+          <t>http://www.eionet.europa.eu/gemet/concept/7843,https://vocab.lternet.edu/vocab/vocab/?tema=535,http://purl.obolibrary.org/obo/ENVO_00001998</t>
         </is>
       </c>
       <c r="H376" t="inlineStr"/>
@@ -51584,45 +51596,133 @@
       <c r="R376" t="inlineStr"/>
       <c r="S376" t="inlineStr"/>
       <c r="T376" t="inlineStr"/>
-      <c r="U376" t="inlineStr"/>
+      <c r="U376" t="inlineStr">
+        <is>
+          <t>[controlled by ] Lars Lundin 20130614</t>
+        </is>
+      </c>
       <c r="V376" t="inlineStr"/>
       <c r="W376" t="inlineStr"/>
-      <c r="X376" t="inlineStr">
-        <is>
-          <t>US LTER controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="X376" t="inlineStr"/>
       <c r="Y376" t="inlineStr"/>
-      <c r="Z376" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
+      <c r="Z376" t="inlineStr"/>
       <c r="AA376" t="inlineStr"/>
-      <c r="AB376" t="inlineStr"/>
-      <c r="AC376" t="inlineStr"/>
-      <c r="AD376" t="inlineStr"/>
-      <c r="AE376" t="inlineStr"/>
-      <c r="AF376" t="inlineStr"/>
-      <c r="AG376" t="inlineStr"/>
-      <c r="AH376" t="inlineStr"/>
-      <c r="AI376" t="inlineStr"/>
-      <c r="AJ376" t="inlineStr"/>
-      <c r="AK376" t="inlineStr"/>
-      <c r="AL376" t="inlineStr"/>
-      <c r="AM376" t="inlineStr"/>
-      <c r="AN376" t="inlineStr"/>
+      <c r="AB376" t="inlineStr">
+        <is>
+          <t>Boden</t>
+        </is>
+      </c>
+      <c r="AC376" t="inlineStr">
+        <is>
+          <t>تربة</t>
+        </is>
+      </c>
+      <c r="AD376" t="inlineStr">
+        <is>
+          <t>Почва</t>
+        </is>
+      </c>
+      <c r="AE376" t="inlineStr">
+        <is>
+          <t>půda</t>
+        </is>
+      </c>
+      <c r="AF376" t="inlineStr">
+        <is>
+          <t>jord</t>
+        </is>
+      </c>
+      <c r="AG376" t="inlineStr">
+        <is>
+          <t>έδαφος</t>
+        </is>
+      </c>
+      <c r="AH376" t="inlineStr">
+        <is>
+          <t>suelos</t>
+        </is>
+      </c>
+      <c r="AI376" t="inlineStr">
+        <is>
+          <t>muld</t>
+        </is>
+      </c>
+      <c r="AJ376" t="inlineStr">
+        <is>
+          <t>maaperä</t>
+        </is>
+      </c>
+      <c r="AK376" t="inlineStr">
+        <is>
+          <t>sol</t>
+        </is>
+      </c>
+      <c r="AL376" t="inlineStr">
+        <is>
+          <t>tlo</t>
+        </is>
+      </c>
+      <c r="AM376" t="inlineStr">
+        <is>
+          <t>talaj</t>
+        </is>
+      </c>
+      <c r="AN376" t="inlineStr">
+        <is>
+          <t>suolo</t>
+        </is>
+      </c>
       <c r="AO376" t="inlineStr"/>
-      <c r="AP376" t="inlineStr"/>
-      <c r="AQ376" t="inlineStr"/>
-      <c r="AR376" t="inlineStr"/>
-      <c r="AS376" t="inlineStr"/>
-      <c r="AT376" t="inlineStr"/>
-      <c r="AU376" t="inlineStr"/>
-      <c r="AV376" t="inlineStr"/>
-      <c r="AW376" t="inlineStr"/>
-      <c r="AX376" t="inlineStr"/>
-      <c r="AY376" t="inlineStr"/>
+      <c r="AP376" t="inlineStr">
+        <is>
+          <t>dirvožemis, gruntas</t>
+        </is>
+      </c>
+      <c r="AQ376" t="inlineStr">
+        <is>
+          <t>augsne</t>
+        </is>
+      </c>
+      <c r="AR376" t="inlineStr">
+        <is>
+          <t>bodem</t>
+        </is>
+      </c>
+      <c r="AS376" t="inlineStr">
+        <is>
+          <t>jordsmonn</t>
+        </is>
+      </c>
+      <c r="AT376" t="inlineStr">
+        <is>
+          <t>gleba</t>
+        </is>
+      </c>
+      <c r="AU376" t="inlineStr">
+        <is>
+          <t>solos</t>
+        </is>
+      </c>
+      <c r="AV376" t="inlineStr">
+        <is>
+          <t>sol</t>
+        </is>
+      </c>
+      <c r="AW376" t="inlineStr">
+        <is>
+          <t>pôda</t>
+        </is>
+      </c>
+      <c r="AX376" t="inlineStr">
+        <is>
+          <t>tla, prst, zemlja</t>
+        </is>
+      </c>
+      <c r="AY376" t="inlineStr">
+        <is>
+          <t>jord</t>
+        </is>
+      </c>
       <c r="AZ376" t="inlineStr"/>
       <c r="BA376" t="inlineStr"/>
       <c r="BB376" t="inlineStr"/>
@@ -51655,10 +51755,14 @@
       <c r="CC376" t="inlineStr"/>
       <c r="CD376" t="inlineStr"/>
       <c r="CE376" t="inlineStr"/>
-      <c r="CF376" t="inlineStr"/>
+      <c r="CF376" t="inlineStr">
+        <is>
+          <t>0000-0003-0631-8231</t>
+        </is>
+      </c>
       <c r="CG376" t="inlineStr">
         <is>
-          <t>2016-03-31</t>
+          <t>2013-02-14</t>
         </is>
       </c>
       <c r="CH376" t="inlineStr">
@@ -51692,31 +51796,23 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>et:24</t>
+          <t>cl:10371</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>soil</t>
+          <t>streams/rivers</t>
         </is>
       </c>
       <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>[GEMET] The top layer of the land surface of the earth that is composed of disintegrated rock particles, humus, water and air.</t>
-        </is>
-      </c>
+      <c r="D377" t="inlineStr"/>
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr">
         <is>
-          <t>et:10003,cl:10366,et:21202</t>
-        </is>
-      </c>
-      <c r="G377" t="inlineStr">
-        <is>
-          <t>http://www.eionet.europa.eu/gemet/concept/7843,https://vocab.lternet.edu/vocab/vocab/?tema=535,http://purl.obolibrary.org/obo/ENVO_00001998</t>
-        </is>
-      </c>
+          <t>cl:10366,cl:10379,et:21202,et:21176</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr"/>
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -51730,133 +51826,37 @@
       <c r="R377" t="inlineStr"/>
       <c r="S377" t="inlineStr"/>
       <c r="T377" t="inlineStr"/>
-      <c r="U377" t="inlineStr">
-        <is>
-          <t>[controlled by ] Lars Lundin 20130614</t>
-        </is>
-      </c>
+      <c r="U377" t="inlineStr"/>
       <c r="V377" t="inlineStr"/>
       <c r="W377" t="inlineStr"/>
       <c r="X377" t="inlineStr"/>
       <c r="Y377" t="inlineStr"/>
       <c r="Z377" t="inlineStr"/>
       <c r="AA377" t="inlineStr"/>
-      <c r="AB377" t="inlineStr">
-        <is>
-          <t>Boden</t>
-        </is>
-      </c>
-      <c r="AC377" t="inlineStr">
-        <is>
-          <t>تربة</t>
-        </is>
-      </c>
-      <c r="AD377" t="inlineStr">
-        <is>
-          <t>Почва</t>
-        </is>
-      </c>
-      <c r="AE377" t="inlineStr">
-        <is>
-          <t>půda</t>
-        </is>
-      </c>
-      <c r="AF377" t="inlineStr">
-        <is>
-          <t>jord</t>
-        </is>
-      </c>
-      <c r="AG377" t="inlineStr">
-        <is>
-          <t>έδαφος</t>
-        </is>
-      </c>
-      <c r="AH377" t="inlineStr">
-        <is>
-          <t>suelos</t>
-        </is>
-      </c>
-      <c r="AI377" t="inlineStr">
-        <is>
-          <t>muld</t>
-        </is>
-      </c>
-      <c r="AJ377" t="inlineStr">
-        <is>
-          <t>maaperä</t>
-        </is>
-      </c>
-      <c r="AK377" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-      <c r="AL377" t="inlineStr">
-        <is>
-          <t>tlo</t>
-        </is>
-      </c>
-      <c r="AM377" t="inlineStr">
-        <is>
-          <t>talaj</t>
-        </is>
-      </c>
-      <c r="AN377" t="inlineStr">
-        <is>
-          <t>suolo</t>
-        </is>
-      </c>
+      <c r="AB377" t="inlineStr"/>
+      <c r="AC377" t="inlineStr"/>
+      <c r="AD377" t="inlineStr"/>
+      <c r="AE377" t="inlineStr"/>
+      <c r="AF377" t="inlineStr"/>
+      <c r="AG377" t="inlineStr"/>
+      <c r="AH377" t="inlineStr"/>
+      <c r="AI377" t="inlineStr"/>
+      <c r="AJ377" t="inlineStr"/>
+      <c r="AK377" t="inlineStr"/>
+      <c r="AL377" t="inlineStr"/>
+      <c r="AM377" t="inlineStr"/>
+      <c r="AN377" t="inlineStr"/>
       <c r="AO377" t="inlineStr"/>
-      <c r="AP377" t="inlineStr">
-        <is>
-          <t>dirvožemis, gruntas</t>
-        </is>
-      </c>
-      <c r="AQ377" t="inlineStr">
-        <is>
-          <t>augsne</t>
-        </is>
-      </c>
-      <c r="AR377" t="inlineStr">
-        <is>
-          <t>bodem</t>
-        </is>
-      </c>
-      <c r="AS377" t="inlineStr">
-        <is>
-          <t>jordsmonn</t>
-        </is>
-      </c>
-      <c r="AT377" t="inlineStr">
-        <is>
-          <t>gleba</t>
-        </is>
-      </c>
-      <c r="AU377" t="inlineStr">
-        <is>
-          <t>solos</t>
-        </is>
-      </c>
-      <c r="AV377" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-      <c r="AW377" t="inlineStr">
-        <is>
-          <t>pôda</t>
-        </is>
-      </c>
-      <c r="AX377" t="inlineStr">
-        <is>
-          <t>tla, prst, zemlja</t>
-        </is>
-      </c>
-      <c r="AY377" t="inlineStr">
-        <is>
-          <t>jord</t>
-        </is>
-      </c>
+      <c r="AP377" t="inlineStr"/>
+      <c r="AQ377" t="inlineStr"/>
+      <c r="AR377" t="inlineStr"/>
+      <c r="AS377" t="inlineStr"/>
+      <c r="AT377" t="inlineStr"/>
+      <c r="AU377" t="inlineStr"/>
+      <c r="AV377" t="inlineStr"/>
+      <c r="AW377" t="inlineStr"/>
+      <c r="AX377" t="inlineStr"/>
+      <c r="AY377" t="inlineStr"/>
       <c r="AZ377" t="inlineStr"/>
       <c r="BA377" t="inlineStr"/>
       <c r="BB377" t="inlineStr"/>
@@ -51889,21 +51889,13 @@
       <c r="CC377" t="inlineStr"/>
       <c r="CD377" t="inlineStr"/>
       <c r="CE377" t="inlineStr"/>
-      <c r="CF377" t="inlineStr">
-        <is>
-          <t>0000-0003-0631-8231</t>
-        </is>
-      </c>
+      <c r="CF377" t="inlineStr"/>
       <c r="CG377" t="inlineStr">
         <is>
-          <t>2013-02-14</t>
-        </is>
-      </c>
-      <c r="CH377" t="inlineStr">
-        <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
-        </is>
-      </c>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH377" t="inlineStr"/>
       <c r="CI377" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -51930,12 +51922,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>cl:10371</t>
+          <t>cl:10372</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>streams/rivers</t>
+          <t>socio-ecology</t>
         </is>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -51943,7 +51935,7 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr">
         <is>
-          <t>cl:10366,cl:10379,et:21202,et:21176</t>
+          <t>cl:10365</t>
         </is>
       </c>
       <c r="G378" t="inlineStr"/>
@@ -52056,12 +52048,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>cl:10372</t>
+          <t>cl:10373</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>socio-ecology</t>
+          <t>agriculture and forestry</t>
         </is>
       </c>
       <c r="C379" t="inlineStr"/>
@@ -52069,7 +52061,7 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr">
         <is>
-          <t>cl:10365</t>
+          <t>cl:10372</t>
         </is>
       </c>
       <c r="G379" t="inlineStr"/>
@@ -52182,12 +52174,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>cl:10373</t>
+          <t>cl:10374</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>agriculture and forestry</t>
+          <t>governance and stakeholders</t>
         </is>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -52308,12 +52300,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>cl:10374</t>
+          <t>cl:10375</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>governance and stakeholders</t>
+          <t>land use and land cover change</t>
         </is>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -52434,12 +52426,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>cl:10375</t>
+          <t>cl:10376</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>land use and land cover change</t>
+          <t>platform characteristics</t>
         </is>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -52560,23 +52552,35 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>cl:10376</t>
+          <t>et:20715</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>platform characteristics</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr"/>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>populations</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>[Henderson's] n. a group of individuals of the same species living in a certain deﬁned area.</t>
+        </is>
+      </c>
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr">
         <is>
-          <t>cl:10372</t>
-        </is>
-      </c>
-      <c r="G383" t="inlineStr"/>
+          <t>et:20708,cl:10372</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>http://en.wikipedia.org/wiki/populations,https://vocab.lternet.edu/vocab/vocab/?tema=439</t>
+        </is>
+      </c>
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -52593,7 +52597,11 @@
       <c r="U383" t="inlineStr"/>
       <c r="V383" t="inlineStr"/>
       <c r="W383" t="inlineStr"/>
-      <c r="X383" t="inlineStr"/>
+      <c r="X383" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
       <c r="Y383" t="inlineStr"/>
       <c r="Z383" t="inlineStr"/>
       <c r="AA383" t="inlineStr"/>
@@ -52656,10 +52664,14 @@
       <c r="CF383" t="inlineStr"/>
       <c r="CG383" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
-        </is>
-      </c>
-      <c r="CH383" t="inlineStr"/>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="CH383" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
       <c r="CI383" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -52686,35 +52698,23 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>et:20715</t>
+          <t>cl:10377</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>populations</t>
-        </is>
-      </c>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>[Henderson's] n. a group of individuals of the same species living in a certain deﬁned area.</t>
-        </is>
-      </c>
+          <t>resource use</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" t="inlineStr"/>
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr">
         <is>
-          <t>et:20708,cl:10372</t>
-        </is>
-      </c>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>http://en.wikipedia.org/wiki/populations,https://vocab.lternet.edu/vocab/vocab/?tema=439</t>
-        </is>
-      </c>
+          <t>cl:10372</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr"/>
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -52731,11 +52731,7 @@
       <c r="U384" t="inlineStr"/>
       <c r="V384" t="inlineStr"/>
       <c r="W384" t="inlineStr"/>
-      <c r="X384" t="inlineStr">
-        <is>
-          <t>US LTER controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="X384" t="inlineStr"/>
       <c r="Y384" t="inlineStr"/>
       <c r="Z384" t="inlineStr"/>
       <c r="AA384" t="inlineStr"/>
@@ -52798,14 +52794,10 @@
       <c r="CF384" t="inlineStr"/>
       <c r="CG384" t="inlineStr">
         <is>
-          <t>2016-03-31</t>
-        </is>
-      </c>
-      <c r="CH384" t="inlineStr">
-        <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
-        </is>
-      </c>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH384" t="inlineStr"/>
       <c r="CI384" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -52832,12 +52824,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>cl:10377</t>
+          <t>cl:10378</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>resource use</t>
+          <t>transportation and industry</t>
         </is>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -52958,12 +52950,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>cl:10378</t>
+          <t>cl:10379</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>transportation and industry</t>
+          <t>biotic heterogeneity</t>
         </is>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -52971,7 +52963,7 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr">
         <is>
-          <t>cl:10372</t>
+          <t>cl:10365</t>
         </is>
       </c>
       <c r="G386" t="inlineStr"/>
@@ -53084,12 +53076,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>cl:10379</t>
+          <t>et:21880</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>biotic heterogeneity</t>
+          <t>terrestrial</t>
         </is>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -53097,7 +53089,7 @@
       <c r="E387" t="inlineStr"/>
       <c r="F387" t="inlineStr">
         <is>
-          <t>cl:10365</t>
+          <t>et:10313,cl:10379</t>
         </is>
       </c>
       <c r="G387" t="inlineStr"/>
@@ -53117,7 +53109,11 @@
       <c r="U387" t="inlineStr"/>
       <c r="V387" t="inlineStr"/>
       <c r="W387" t="inlineStr"/>
-      <c r="X387" t="inlineStr"/>
+      <c r="X387" t="inlineStr">
+        <is>
+          <t>GEO-BON Biome</t>
+        </is>
+      </c>
       <c r="Y387" t="inlineStr"/>
       <c r="Z387" t="inlineStr"/>
       <c r="AA387" t="inlineStr"/>
@@ -53180,10 +53176,14 @@
       <c r="CF387" t="inlineStr"/>
       <c r="CG387" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
-        </is>
-      </c>
-      <c r="CH387" t="inlineStr"/>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="CH387" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
       <c r="CI387" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -53210,12 +53210,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>et:21880</t>
+          <t>cl:10381</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>terrestrial</t>
+          <t>terrestrial/aquatic</t>
         </is>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -53223,7 +53223,7 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr">
         <is>
-          <t>et:10313,cl:10379</t>
+          <t>cl:10379</t>
         </is>
       </c>
       <c r="G388" t="inlineStr"/>
@@ -53243,11 +53243,7 @@
       <c r="U388" t="inlineStr"/>
       <c r="V388" t="inlineStr"/>
       <c r="W388" t="inlineStr"/>
-      <c r="X388" t="inlineStr">
-        <is>
-          <t>GEO-BON Biome</t>
-        </is>
-      </c>
+      <c r="X388" t="inlineStr"/>
       <c r="Y388" t="inlineStr"/>
       <c r="Z388" t="inlineStr"/>
       <c r="AA388" t="inlineStr"/>
@@ -53310,14 +53306,10 @@
       <c r="CF388" t="inlineStr"/>
       <c r="CG388" t="inlineStr">
         <is>
-          <t>2016-03-31</t>
-        </is>
-      </c>
-      <c r="CH388" t="inlineStr">
-        <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
-        </is>
-      </c>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH388" t="inlineStr"/>
       <c r="CI388" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -53344,20 +53336,24 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>cl:10381</t>
+          <t>et:21155</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>terrestrial/aquatic</t>
+          <t>energy budget</t>
         </is>
       </c>
       <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>[Henderson's] balance of energy input and use in a biological system. It is expressed as consumption (C) = production (P) + respiration (R) + rejecta (faeces and urine) (F + U). see also assimilated energy.</t>
+        </is>
+      </c>
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="inlineStr">
         <is>
-          <t>cl:10379</t>
+          <t>et:20950,cl:10365</t>
         </is>
       </c>
       <c r="G389" t="inlineStr"/>
@@ -53440,10 +53436,14 @@
       <c r="CF389" t="inlineStr"/>
       <c r="CG389" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
-        </is>
-      </c>
-      <c r="CH389" t="inlineStr"/>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="CH389" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
       <c r="CI389" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -53470,27 +53470,31 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>et:21155</t>
+          <t>et:20790</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>energy budget</t>
+          <t>biomass</t>
         </is>
       </c>
       <c r="C390" t="inlineStr"/>
       <c r="D390" t="inlineStr">
         <is>
-          <t>[Henderson's] balance of energy input and use in a biological system. It is expressed as consumption (C) = production (P) + respiration (R) + rejecta (faeces and urine) (F + U). see also assimilated energy.</t>
+          <t>[Henderson's] n. (1) total weight, volume or energy equivalent of organisms in a given area; (2) plant materials and animal wastes used as a source of fuel or other industrial products; (3) in biotechnology, the micro&amp;shy;bial matter in the system.</t>
         </is>
       </c>
       <c r="E390" t="inlineStr"/>
       <c r="F390" t="inlineStr">
         <is>
-          <t>et:20950,cl:10365</t>
-        </is>
-      </c>
-      <c r="G390" t="inlineStr"/>
+          <t>et:20935,et:21155,et:21176</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>http://aims.fao.org/aos/agrovoc/c_926,https://vocab.lternet.edu/vocab/vocab/?tema=68,http://www.eionet.europa.eu/gemet/concept/883,http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/30170,http://eurovoc.europa.eu/4930,http://en.wikipedia.org/wiki/biomass</t>
+        </is>
+      </c>
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -53506,36 +53510,144 @@
       <c r="T390" t="inlineStr"/>
       <c r="U390" t="inlineStr"/>
       <c r="V390" t="inlineStr"/>
-      <c r="W390" t="inlineStr"/>
-      <c r="X390" t="inlineStr"/>
+      <c r="W390" t="inlineStr">
+        <is>
+          <t>too unspecific for the concept of biological substance (this should be something which can be classified in a chemical way)</t>
+        </is>
+      </c>
+      <c r="X390" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
       <c r="Y390" t="inlineStr"/>
       <c r="Z390" t="inlineStr"/>
       <c r="AA390" t="inlineStr"/>
-      <c r="AB390" t="inlineStr"/>
-      <c r="AC390" t="inlineStr"/>
-      <c r="AD390" t="inlineStr"/>
-      <c r="AE390" t="inlineStr"/>
-      <c r="AF390" t="inlineStr"/>
-      <c r="AG390" t="inlineStr"/>
-      <c r="AH390" t="inlineStr"/>
-      <c r="AI390" t="inlineStr"/>
-      <c r="AJ390" t="inlineStr"/>
-      <c r="AK390" t="inlineStr"/>
-      <c r="AL390" t="inlineStr"/>
-      <c r="AM390" t="inlineStr"/>
-      <c r="AN390" t="inlineStr"/>
-      <c r="AO390" t="inlineStr"/>
-      <c r="AP390" t="inlineStr"/>
-      <c r="AQ390" t="inlineStr"/>
-      <c r="AR390" t="inlineStr"/>
-      <c r="AS390" t="inlineStr"/>
-      <c r="AT390" t="inlineStr"/>
-      <c r="AU390" t="inlineStr"/>
-      <c r="AV390" t="inlineStr"/>
-      <c r="AW390" t="inlineStr"/>
-      <c r="AX390" t="inlineStr"/>
-      <c r="AY390" t="inlineStr"/>
-      <c r="AZ390" t="inlineStr"/>
+      <c r="AB390" t="inlineStr">
+        <is>
+          <t>Biomasse</t>
+        </is>
+      </c>
+      <c r="AC390" t="inlineStr">
+        <is>
+          <t>الكتلة الحيوية</t>
+        </is>
+      </c>
+      <c r="AD390" t="inlineStr">
+        <is>
+          <t>Биомаса</t>
+        </is>
+      </c>
+      <c r="AE390" t="inlineStr">
+        <is>
+          <t>biomasa</t>
+        </is>
+      </c>
+      <c r="AF390" t="inlineStr">
+        <is>
+          <t>biomasse</t>
+        </is>
+      </c>
+      <c r="AG390" t="inlineStr">
+        <is>
+          <t>βιομάζα</t>
+        </is>
+      </c>
+      <c r="AH390" t="inlineStr">
+        <is>
+          <t>biomasa</t>
+        </is>
+      </c>
+      <c r="AI390" t="inlineStr">
+        <is>
+          <t>biomass, elusaine hulk</t>
+        </is>
+      </c>
+      <c r="AJ390" t="inlineStr">
+        <is>
+          <t>biomassa</t>
+        </is>
+      </c>
+      <c r="AK390" t="inlineStr">
+        <is>
+          <t>biomasse</t>
+        </is>
+      </c>
+      <c r="AL390" t="inlineStr">
+        <is>
+          <t>biomass</t>
+        </is>
+      </c>
+      <c r="AM390" t="inlineStr">
+        <is>
+          <t>biomassza</t>
+        </is>
+      </c>
+      <c r="AN390" t="inlineStr">
+        <is>
+          <t>biomassa</t>
+        </is>
+      </c>
+      <c r="AO390" t="inlineStr">
+        <is>
+          <t>生物体系学</t>
+        </is>
+      </c>
+      <c r="AP390" t="inlineStr">
+        <is>
+          <t>biomasė</t>
+        </is>
+      </c>
+      <c r="AQ390" t="inlineStr">
+        <is>
+          <t>biomasa</t>
+        </is>
+      </c>
+      <c r="AR390" t="inlineStr">
+        <is>
+          <t>biomassa</t>
+        </is>
+      </c>
+      <c r="AS390" t="inlineStr">
+        <is>
+          <t>biomasse</t>
+        </is>
+      </c>
+      <c r="AT390" t="inlineStr">
+        <is>
+          <t>biomasa</t>
+        </is>
+      </c>
+      <c r="AU390" t="inlineStr">
+        <is>
+          <t>biomassa</t>
+        </is>
+      </c>
+      <c r="AV390" t="inlineStr">
+        <is>
+          <t>biomasă</t>
+        </is>
+      </c>
+      <c r="AW390" t="inlineStr">
+        <is>
+          <t>biomasa</t>
+        </is>
+      </c>
+      <c r="AX390" t="inlineStr">
+        <is>
+          <t>biomasa</t>
+        </is>
+      </c>
+      <c r="AY390" t="inlineStr">
+        <is>
+          <t>biomassa</t>
+        </is>
+      </c>
+      <c r="AZ390" t="inlineStr">
+        <is>
+          <t>生物产量</t>
+        </is>
+      </c>
       <c r="BA390" t="inlineStr"/>
       <c r="BB390" t="inlineStr"/>
       <c r="BC390" t="inlineStr"/>
@@ -53604,31 +53716,23 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>et:20790</t>
+          <t>et:20791</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>radiation budget</t>
         </is>
       </c>
       <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>[Henderson's] n. (1) total weight, volume or energy equivalent of organisms in a given area; (2) plant materials and animal wastes used as a source of fuel or other industrial products; (3) in biotechnology, the micro&amp;shy;bial matter in the system.</t>
-        </is>
-      </c>
+      <c r="D391" t="inlineStr"/>
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
-          <t>et:20935,et:21155,cl:10365,et:21176</t>
-        </is>
-      </c>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>http://aims.fao.org/aos/agrovoc/c_926,https://vocab.lternet.edu/vocab/vocab/?tema=68,http://www.eionet.europa.eu/gemet/concept/883,http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/30170,http://eurovoc.europa.eu/4930,http://en.wikipedia.org/wiki/biomass</t>
-        </is>
-      </c>
+          <t>et:21155</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr"/>
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -53644,144 +53748,36 @@
       <c r="T391" t="inlineStr"/>
       <c r="U391" t="inlineStr"/>
       <c r="V391" t="inlineStr"/>
-      <c r="W391" t="inlineStr">
-        <is>
-          <t>too unspecific for the concept of biological substance (this should be something which can be classified in a chemical way)</t>
-        </is>
-      </c>
-      <c r="X391" t="inlineStr">
-        <is>
-          <t>US LTER controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="W391" t="inlineStr"/>
+      <c r="X391" t="inlineStr"/>
       <c r="Y391" t="inlineStr"/>
       <c r="Z391" t="inlineStr"/>
       <c r="AA391" t="inlineStr"/>
-      <c r="AB391" t="inlineStr">
-        <is>
-          <t>Biomasse</t>
-        </is>
-      </c>
-      <c r="AC391" t="inlineStr">
-        <is>
-          <t>الكتلة الحيوية</t>
-        </is>
-      </c>
-      <c r="AD391" t="inlineStr">
-        <is>
-          <t>Биомаса</t>
-        </is>
-      </c>
-      <c r="AE391" t="inlineStr">
-        <is>
-          <t>biomasa</t>
-        </is>
-      </c>
-      <c r="AF391" t="inlineStr">
-        <is>
-          <t>biomasse</t>
-        </is>
-      </c>
-      <c r="AG391" t="inlineStr">
-        <is>
-          <t>βιομάζα</t>
-        </is>
-      </c>
-      <c r="AH391" t="inlineStr">
-        <is>
-          <t>biomasa</t>
-        </is>
-      </c>
-      <c r="AI391" t="inlineStr">
-        <is>
-          <t>biomass, elusaine hulk</t>
-        </is>
-      </c>
-      <c r="AJ391" t="inlineStr">
-        <is>
-          <t>biomassa</t>
-        </is>
-      </c>
-      <c r="AK391" t="inlineStr">
-        <is>
-          <t>biomasse</t>
-        </is>
-      </c>
-      <c r="AL391" t="inlineStr">
-        <is>
-          <t>biomass</t>
-        </is>
-      </c>
-      <c r="AM391" t="inlineStr">
-        <is>
-          <t>biomassza</t>
-        </is>
-      </c>
-      <c r="AN391" t="inlineStr">
-        <is>
-          <t>biomassa</t>
-        </is>
-      </c>
-      <c r="AO391" t="inlineStr">
-        <is>
-          <t>生物体系学</t>
-        </is>
-      </c>
-      <c r="AP391" t="inlineStr">
-        <is>
-          <t>biomasė</t>
-        </is>
-      </c>
-      <c r="AQ391" t="inlineStr">
-        <is>
-          <t>biomasa</t>
-        </is>
-      </c>
-      <c r="AR391" t="inlineStr">
-        <is>
-          <t>biomassa</t>
-        </is>
-      </c>
-      <c r="AS391" t="inlineStr">
-        <is>
-          <t>biomasse</t>
-        </is>
-      </c>
-      <c r="AT391" t="inlineStr">
-        <is>
-          <t>biomasa</t>
-        </is>
-      </c>
-      <c r="AU391" t="inlineStr">
-        <is>
-          <t>biomassa</t>
-        </is>
-      </c>
-      <c r="AV391" t="inlineStr">
-        <is>
-          <t>biomasă</t>
-        </is>
-      </c>
-      <c r="AW391" t="inlineStr">
-        <is>
-          <t>biomasa</t>
-        </is>
-      </c>
-      <c r="AX391" t="inlineStr">
-        <is>
-          <t>biomasa</t>
-        </is>
-      </c>
-      <c r="AY391" t="inlineStr">
-        <is>
-          <t>biomassa</t>
-        </is>
-      </c>
-      <c r="AZ391" t="inlineStr">
-        <is>
-          <t>生物产量</t>
-        </is>
-      </c>
+      <c r="AB391" t="inlineStr"/>
+      <c r="AC391" t="inlineStr"/>
+      <c r="AD391" t="inlineStr"/>
+      <c r="AE391" t="inlineStr"/>
+      <c r="AF391" t="inlineStr"/>
+      <c r="AG391" t="inlineStr"/>
+      <c r="AH391" t="inlineStr"/>
+      <c r="AI391" t="inlineStr"/>
+      <c r="AJ391" t="inlineStr"/>
+      <c r="AK391" t="inlineStr"/>
+      <c r="AL391" t="inlineStr"/>
+      <c r="AM391" t="inlineStr"/>
+      <c r="AN391" t="inlineStr"/>
+      <c r="AO391" t="inlineStr"/>
+      <c r="AP391" t="inlineStr"/>
+      <c r="AQ391" t="inlineStr"/>
+      <c r="AR391" t="inlineStr"/>
+      <c r="AS391" t="inlineStr"/>
+      <c r="AT391" t="inlineStr"/>
+      <c r="AU391" t="inlineStr"/>
+      <c r="AV391" t="inlineStr"/>
+      <c r="AW391" t="inlineStr"/>
+      <c r="AX391" t="inlineStr"/>
+      <c r="AY391" t="inlineStr"/>
+      <c r="AZ391" t="inlineStr"/>
       <c r="BA391" t="inlineStr"/>
       <c r="BB391" t="inlineStr"/>
       <c r="BC391" t="inlineStr"/>
@@ -53816,14 +53812,10 @@
       <c r="CF391" t="inlineStr"/>
       <c r="CG391" t="inlineStr">
         <is>
-          <t>2016-03-31</t>
-        </is>
-      </c>
-      <c r="CH391" t="inlineStr">
-        <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
-        </is>
-      </c>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH391" t="inlineStr"/>
       <c r="CI391" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -53850,23 +53842,35 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>et:20791</t>
+          <t>et:21077</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>radiation budget</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
+          <t>net ecosystem exchange</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>pNet Ecosystem Exchange (NEE) and Net Ecosystem Production (NEP) refer to net primary production minus carbon losses in heterotrophic respiration, Rh: NEE = NEP = NPP - Rh/p</t>
+        </is>
+      </c>
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr">
         <is>
-          <t>cl:21155</t>
-        </is>
-      </c>
-      <c r="G392" t="inlineStr"/>
+          <t>et:20982,et:21155,et:21176</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>https://vocab.lternet.edu/vocab/vocab/?tema=883</t>
+        </is>
+      </c>
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -53880,10 +53884,18 @@
       <c r="R392" t="inlineStr"/>
       <c r="S392" t="inlineStr"/>
       <c r="T392" t="inlineStr"/>
-      <c r="U392" t="inlineStr"/>
+      <c r="U392" t="inlineStr">
+        <is>
+          <t>Definition from: http://www.steverox.info/Downloads/Software/C%20Accounting%20Definitions.pdf</t>
+        </is>
+      </c>
       <c r="V392" t="inlineStr"/>
       <c r="W392" t="inlineStr"/>
-      <c r="X392" t="inlineStr"/>
+      <c r="X392" t="inlineStr">
+        <is>
+          <t>MS Academic Keywords</t>
+        </is>
+      </c>
       <c r="Y392" t="inlineStr"/>
       <c r="Z392" t="inlineStr"/>
       <c r="AA392" t="inlineStr"/>
@@ -53946,10 +53958,14 @@
       <c r="CF392" t="inlineStr"/>
       <c r="CG392" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
-        </is>
-      </c>
-      <c r="CH392" t="inlineStr"/>
+          <t>2016-10-12</t>
+        </is>
+      </c>
+      <c r="CH392" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI392" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -53976,33 +53992,29 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>et:21077</t>
+          <t>et:21202</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>net ecosystem exchange</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>NEE</t>
-        </is>
-      </c>
+          <t>water balance</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr">
         <is>
-          <t>pNet Ecosystem Exchange (NEE) and Net Ecosystem Production (NEP) refer to net primary production minus carbon losses in heterotrophic respiration, Rh: NEE = NEP = NPP - Rh/p</t>
+          <t>[Henderson's] the balance between the water intake of an organism directly, in food, and as metabolic water, and the water lost by excretion and evaporation.</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr">
         <is>
-          <t>et:20982,cl:21155,et:21176</t>
+          <t>et:21243,cl:10365</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>https://vocab.lternet.edu/vocab/vocab/?tema=883</t>
+          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/22220,http://aims.fao.org/aos/agrovoc/c_8311,http://en.wikipedia.org/wiki/water_balance,https://vocab.lternet.edu/vocab/vocab/?tema=618</t>
         </is>
       </c>
       <c r="H393" t="inlineStr"/>
@@ -54020,14 +54032,14 @@
       <c r="T393" t="inlineStr"/>
       <c r="U393" t="inlineStr">
         <is>
-          <t>Definition from: http://www.steverox.info/Downloads/Software/C%20Accounting%20Definitions.pdf</t>
+          <t>[controlled by ] Leca Stefan 14.06.2013</t>
         </is>
       </c>
       <c r="V393" t="inlineStr"/>
       <c r="W393" t="inlineStr"/>
       <c r="X393" t="inlineStr">
         <is>
-          <t>MS Academic Keywords</t>
+          <t>US LTER controlled vocabulary</t>
         </is>
       </c>
       <c r="Y393" t="inlineStr"/>
@@ -54046,7 +54058,11 @@
       <c r="AL393" t="inlineStr"/>
       <c r="AM393" t="inlineStr"/>
       <c r="AN393" t="inlineStr"/>
-      <c r="AO393" t="inlineStr"/>
+      <c r="AO393" t="inlineStr">
+        <is>
+          <t>水収支</t>
+        </is>
+      </c>
       <c r="AP393" t="inlineStr"/>
       <c r="AQ393" t="inlineStr"/>
       <c r="AR393" t="inlineStr"/>
@@ -54057,7 +54073,11 @@
       <c r="AW393" t="inlineStr"/>
       <c r="AX393" t="inlineStr"/>
       <c r="AY393" t="inlineStr"/>
-      <c r="AZ393" t="inlineStr"/>
+      <c r="AZ393" t="inlineStr">
+        <is>
+          <t>水分平衡</t>
+        </is>
+      </c>
       <c r="BA393" t="inlineStr"/>
       <c r="BB393" t="inlineStr"/>
       <c r="BC393" t="inlineStr"/>
@@ -54092,12 +54112,12 @@
       <c r="CF393" t="inlineStr"/>
       <c r="CG393" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2013-02-14</t>
         </is>
       </c>
       <c r="CH393" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>herbert.schentz@umweltbundesamt.at</t>
         </is>
       </c>
       <c r="CI393" t="inlineStr">
@@ -54126,31 +54146,23 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>et:21202</t>
+          <t>cl:10380</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>water balance</t>
+          <t>streams/rivers/lakes</t>
         </is>
       </c>
       <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>[Henderson's] the balance between the water intake of an organism directly, in food, and as metabolic water, and the water lost by excretion and evaporation.</t>
-        </is>
-      </c>
+      <c r="D394" t="inlineStr"/>
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr">
         <is>
-          <t>et:21243,cl:10365</t>
-        </is>
-      </c>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/22220,http://aims.fao.org/aos/agrovoc/c_8311,http://en.wikipedia.org/wiki/water_balance,https://vocab.lternet.edu/vocab/vocab/?tema=618</t>
-        </is>
-      </c>
+          <t>et:21202</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr"/>
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -54164,18 +54176,10 @@
       <c r="R394" t="inlineStr"/>
       <c r="S394" t="inlineStr"/>
       <c r="T394" t="inlineStr"/>
-      <c r="U394" t="inlineStr">
-        <is>
-          <t>[controlled by ] Leca Stefan 14.06.2013</t>
-        </is>
-      </c>
+      <c r="U394" t="inlineStr"/>
       <c r="V394" t="inlineStr"/>
       <c r="W394" t="inlineStr"/>
-      <c r="X394" t="inlineStr">
-        <is>
-          <t>US LTER controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="X394" t="inlineStr"/>
       <c r="Y394" t="inlineStr"/>
       <c r="Z394" t="inlineStr"/>
       <c r="AA394" t="inlineStr"/>
@@ -54192,11 +54196,7 @@
       <c r="AL394" t="inlineStr"/>
       <c r="AM394" t="inlineStr"/>
       <c r="AN394" t="inlineStr"/>
-      <c r="AO394" t="inlineStr">
-        <is>
-          <t>水収支</t>
-        </is>
-      </c>
+      <c r="AO394" t="inlineStr"/>
       <c r="AP394" t="inlineStr"/>
       <c r="AQ394" t="inlineStr"/>
       <c r="AR394" t="inlineStr"/>
@@ -54207,11 +54207,7 @@
       <c r="AW394" t="inlineStr"/>
       <c r="AX394" t="inlineStr"/>
       <c r="AY394" t="inlineStr"/>
-      <c r="AZ394" t="inlineStr">
-        <is>
-          <t>水分平衡</t>
-        </is>
-      </c>
+      <c r="AZ394" t="inlineStr"/>
       <c r="BA394" t="inlineStr"/>
       <c r="BB394" t="inlineStr"/>
       <c r="BC394" t="inlineStr"/>
@@ -54246,14 +54242,10 @@
       <c r="CF394" t="inlineStr"/>
       <c r="CG394" t="inlineStr">
         <is>
-          <t>2013-02-14</t>
-        </is>
-      </c>
-      <c r="CH394" t="inlineStr">
-        <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
-        </is>
-      </c>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="CH394" t="inlineStr"/>
       <c r="CI394" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -54280,12 +54272,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>cl:10380</t>
+          <t>et:21176</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>streams/rivers/lakes</t>
+          <t>matter budget</t>
         </is>
       </c>
       <c r="C395" t="inlineStr"/>
@@ -54293,7 +54285,7 @@
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr">
         <is>
-          <t>et:21202</t>
+          <t>et:20950,cl:10365</t>
         </is>
       </c>
       <c r="G395" t="inlineStr"/>
@@ -54376,10 +54368,14 @@
       <c r="CF395" t="inlineStr"/>
       <c r="CG395" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
-        </is>
-      </c>
-      <c r="CH395" t="inlineStr"/>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="CH395" t="inlineStr">
+        <is>
+          <t>herbert.schentz@umweltbundesamt.at</t>
+        </is>
+      </c>
       <c r="CI395" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -54406,23 +54402,31 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>et:21176</t>
+          <t>et:21263</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>matter budget</t>
+          <t>atmospheric deposition</t>
         </is>
       </c>
       <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr"/>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>The process by which polluting material is precipitated from the atmosphere and accumulates in ecosystems.</t>
+        </is>
+      </c>
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr">
         <is>
-          <t>et:20950,cl:10365</t>
-        </is>
-      </c>
-      <c r="G396" t="inlineStr"/>
+          <t>et:20950,et:21176</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>https://vocab.lternet.edu/vocab/vocab/?tema=49,http://aims.fao.org/aos/agrovoc/c_36094</t>
+        </is>
+      </c>
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -54439,7 +54443,11 @@
       <c r="U396" t="inlineStr"/>
       <c r="V396" t="inlineStr"/>
       <c r="W396" t="inlineStr"/>
-      <c r="X396" t="inlineStr"/>
+      <c r="X396" t="inlineStr">
+        <is>
+          <t>US LTER controlled vocabulary</t>
+        </is>
+      </c>
       <c r="Y396" t="inlineStr"/>
       <c r="Z396" t="inlineStr"/>
       <c r="AA396" t="inlineStr"/>
@@ -54456,7 +54464,11 @@
       <c r="AL396" t="inlineStr"/>
       <c r="AM396" t="inlineStr"/>
       <c r="AN396" t="inlineStr"/>
-      <c r="AO396" t="inlineStr"/>
+      <c r="AO396" t="inlineStr">
+        <is>
+          <t>大気降下物</t>
+        </is>
+      </c>
       <c r="AP396" t="inlineStr"/>
       <c r="AQ396" t="inlineStr"/>
       <c r="AR396" t="inlineStr"/>
@@ -54467,7 +54479,11 @@
       <c r="AW396" t="inlineStr"/>
       <c r="AX396" t="inlineStr"/>
       <c r="AY396" t="inlineStr"/>
-      <c r="AZ396" t="inlineStr"/>
+      <c r="AZ396" t="inlineStr">
+        <is>
+          <t>大气沉降</t>
+        </is>
+      </c>
       <c r="BA396" t="inlineStr"/>
       <c r="BB396" t="inlineStr"/>
       <c r="BC396" t="inlineStr"/>
@@ -54533,156 +54549,6 @@
       <c r="CY396" t="inlineStr"/>
       <c r="CZ396" t="inlineStr"/>
     </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>et:21263</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>atmospheric deposition</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>The process by which polluting material is precipitated from the atmosphere and accumulates in ecosystems.</t>
-        </is>
-      </c>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr">
-        <is>
-          <t>et:20950,et:21176</t>
-        </is>
-      </c>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>https://vocab.lternet.edu/vocab/vocab/?tema=49,http://aims.fao.org/aos/agrovoc/c_36094</t>
-        </is>
-      </c>
-      <c r="H397" t="inlineStr"/>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
-      <c r="M397" t="inlineStr"/>
-      <c r="N397" t="inlineStr"/>
-      <c r="O397" t="inlineStr"/>
-      <c r="P397" t="inlineStr"/>
-      <c r="Q397" t="inlineStr"/>
-      <c r="R397" t="inlineStr"/>
-      <c r="S397" t="inlineStr"/>
-      <c r="T397" t="inlineStr"/>
-      <c r="U397" t="inlineStr"/>
-      <c r="V397" t="inlineStr"/>
-      <c r="W397" t="inlineStr"/>
-      <c r="X397" t="inlineStr">
-        <is>
-          <t>US LTER controlled vocabulary</t>
-        </is>
-      </c>
-      <c r="Y397" t="inlineStr"/>
-      <c r="Z397" t="inlineStr"/>
-      <c r="AA397" t="inlineStr"/>
-      <c r="AB397" t="inlineStr"/>
-      <c r="AC397" t="inlineStr"/>
-      <c r="AD397" t="inlineStr"/>
-      <c r="AE397" t="inlineStr"/>
-      <c r="AF397" t="inlineStr"/>
-      <c r="AG397" t="inlineStr"/>
-      <c r="AH397" t="inlineStr"/>
-      <c r="AI397" t="inlineStr"/>
-      <c r="AJ397" t="inlineStr"/>
-      <c r="AK397" t="inlineStr"/>
-      <c r="AL397" t="inlineStr"/>
-      <c r="AM397" t="inlineStr"/>
-      <c r="AN397" t="inlineStr"/>
-      <c r="AO397" t="inlineStr">
-        <is>
-          <t>大気降下物</t>
-        </is>
-      </c>
-      <c r="AP397" t="inlineStr"/>
-      <c r="AQ397" t="inlineStr"/>
-      <c r="AR397" t="inlineStr"/>
-      <c r="AS397" t="inlineStr"/>
-      <c r="AT397" t="inlineStr"/>
-      <c r="AU397" t="inlineStr"/>
-      <c r="AV397" t="inlineStr"/>
-      <c r="AW397" t="inlineStr"/>
-      <c r="AX397" t="inlineStr"/>
-      <c r="AY397" t="inlineStr"/>
-      <c r="AZ397" t="inlineStr">
-        <is>
-          <t>大气沉降</t>
-        </is>
-      </c>
-      <c r="BA397" t="inlineStr"/>
-      <c r="BB397" t="inlineStr"/>
-      <c r="BC397" t="inlineStr"/>
-      <c r="BD397" t="inlineStr"/>
-      <c r="BE397" t="inlineStr"/>
-      <c r="BF397" t="inlineStr"/>
-      <c r="BG397" t="inlineStr"/>
-      <c r="BH397" t="inlineStr"/>
-      <c r="BI397" t="inlineStr"/>
-      <c r="BJ397" t="inlineStr"/>
-      <c r="BK397" t="inlineStr"/>
-      <c r="BL397" t="inlineStr"/>
-      <c r="BM397" t="inlineStr"/>
-      <c r="BN397" t="inlineStr"/>
-      <c r="BO397" t="inlineStr"/>
-      <c r="BP397" t="inlineStr"/>
-      <c r="BQ397" t="inlineStr"/>
-      <c r="BR397" t="inlineStr"/>
-      <c r="BS397" t="inlineStr"/>
-      <c r="BT397" t="inlineStr"/>
-      <c r="BU397" t="inlineStr"/>
-      <c r="BV397" t="inlineStr"/>
-      <c r="BW397" t="inlineStr"/>
-      <c r="BX397" t="inlineStr"/>
-      <c r="BY397" t="inlineStr"/>
-      <c r="BZ397" t="inlineStr"/>
-      <c r="CA397" t="inlineStr"/>
-      <c r="CB397" t="inlineStr"/>
-      <c r="CC397" t="inlineStr"/>
-      <c r="CD397" t="inlineStr"/>
-      <c r="CE397" t="inlineStr"/>
-      <c r="CF397" t="inlineStr"/>
-      <c r="CG397" t="inlineStr">
-        <is>
-          <t>2016-03-31</t>
-        </is>
-      </c>
-      <c r="CH397" t="inlineStr">
-        <is>
-          <t>herbert.schentz@umweltbundesamt.at</t>
-        </is>
-      </c>
-      <c r="CI397" t="inlineStr">
-        <is>
-          <t>2022-04-11</t>
-        </is>
-      </c>
-      <c r="CJ397" t="inlineStr"/>
-      <c r="CK397" t="inlineStr"/>
-      <c r="CL397" t="inlineStr"/>
-      <c r="CM397" t="inlineStr"/>
-      <c r="CN397" t="inlineStr"/>
-      <c r="CO397" t="inlineStr"/>
-      <c r="CP397" t="inlineStr"/>
-      <c r="CQ397" t="inlineStr"/>
-      <c r="CR397" t="inlineStr"/>
-      <c r="CS397" t="inlineStr"/>
-      <c r="CT397" t="inlineStr"/>
-      <c r="CU397" t="inlineStr"/>
-      <c r="CV397" t="inlineStr"/>
-      <c r="CW397" t="inlineStr"/>
-      <c r="CX397" t="inlineStr"/>
-      <c r="CY397" t="inlineStr"/>
-      <c r="CZ397" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ396"/>
+  <dimension ref="A1:CZ431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47411,7 +47411,7 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>cl:10337</t>
+          <t>cl:10337,cl:10402</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -53692,7 +53692,7 @@
       </c>
       <c r="CI390" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="CJ390" t="inlineStr"/>
@@ -54528,7 +54528,7 @@
       </c>
       <c r="CI396" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="CJ396" t="inlineStr"/>
@@ -54549,6 +54549,4292 @@
       <c r="CY396" t="inlineStr"/>
       <c r="CZ396" t="inlineStr"/>
     </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>cl:10381</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>GEO-BON Biome</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
+      <c r="M397" t="inlineStr"/>
+      <c r="N397" t="inlineStr"/>
+      <c r="O397" t="inlineStr"/>
+      <c r="P397" t="inlineStr"/>
+      <c r="Q397" t="inlineStr"/>
+      <c r="R397" t="inlineStr"/>
+      <c r="S397" t="inlineStr"/>
+      <c r="T397" t="inlineStr"/>
+      <c r="U397" t="inlineStr"/>
+      <c r="V397" t="inlineStr"/>
+      <c r="W397" t="inlineStr"/>
+      <c r="X397" t="inlineStr"/>
+      <c r="Y397" t="inlineStr"/>
+      <c r="Z397" t="inlineStr"/>
+      <c r="AA397" t="inlineStr"/>
+      <c r="AB397" t="inlineStr"/>
+      <c r="AC397" t="inlineStr"/>
+      <c r="AD397" t="inlineStr"/>
+      <c r="AE397" t="inlineStr"/>
+      <c r="AF397" t="inlineStr"/>
+      <c r="AG397" t="inlineStr"/>
+      <c r="AH397" t="inlineStr"/>
+      <c r="AI397" t="inlineStr"/>
+      <c r="AJ397" t="inlineStr"/>
+      <c r="AK397" t="inlineStr"/>
+      <c r="AL397" t="inlineStr"/>
+      <c r="AM397" t="inlineStr"/>
+      <c r="AN397" t="inlineStr"/>
+      <c r="AO397" t="inlineStr"/>
+      <c r="AP397" t="inlineStr"/>
+      <c r="AQ397" t="inlineStr"/>
+      <c r="AR397" t="inlineStr"/>
+      <c r="AS397" t="inlineStr"/>
+      <c r="AT397" t="inlineStr"/>
+      <c r="AU397" t="inlineStr"/>
+      <c r="AV397" t="inlineStr"/>
+      <c r="AW397" t="inlineStr"/>
+      <c r="AX397" t="inlineStr"/>
+      <c r="AY397" t="inlineStr"/>
+      <c r="AZ397" t="inlineStr"/>
+      <c r="BA397" t="inlineStr"/>
+      <c r="BB397" t="inlineStr"/>
+      <c r="BC397" t="inlineStr"/>
+      <c r="BD397" t="inlineStr"/>
+      <c r="BE397" t="inlineStr"/>
+      <c r="BF397" t="inlineStr"/>
+      <c r="BG397" t="inlineStr"/>
+      <c r="BH397" t="inlineStr"/>
+      <c r="BI397" t="inlineStr"/>
+      <c r="BJ397" t="inlineStr"/>
+      <c r="BK397" t="inlineStr"/>
+      <c r="BL397" t="inlineStr"/>
+      <c r="BM397" t="inlineStr"/>
+      <c r="BN397" t="inlineStr"/>
+      <c r="BO397" t="inlineStr"/>
+      <c r="BP397" t="inlineStr"/>
+      <c r="BQ397" t="inlineStr"/>
+      <c r="BR397" t="inlineStr"/>
+      <c r="BS397" t="inlineStr"/>
+      <c r="BT397" t="inlineStr"/>
+      <c r="BU397" t="inlineStr"/>
+      <c r="BV397" t="inlineStr"/>
+      <c r="BW397" t="inlineStr"/>
+      <c r="BX397" t="inlineStr"/>
+      <c r="BY397" t="inlineStr"/>
+      <c r="BZ397" t="inlineStr"/>
+      <c r="CA397" t="inlineStr"/>
+      <c r="CB397" t="inlineStr"/>
+      <c r="CC397" t="inlineStr"/>
+      <c r="CD397" t="inlineStr"/>
+      <c r="CE397" t="inlineStr"/>
+      <c r="CF397" t="inlineStr"/>
+      <c r="CG397" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH397" t="inlineStr"/>
+      <c r="CI397" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ397" t="inlineStr"/>
+      <c r="CK397" t="inlineStr"/>
+      <c r="CL397" t="inlineStr"/>
+      <c r="CM397" t="inlineStr"/>
+      <c r="CN397" t="inlineStr"/>
+      <c r="CO397" t="inlineStr"/>
+      <c r="CP397" t="inlineStr"/>
+      <c r="CQ397" t="inlineStr"/>
+      <c r="CR397" t="inlineStr"/>
+      <c r="CS397" t="inlineStr"/>
+      <c r="CT397" t="inlineStr"/>
+      <c r="CU397" t="inlineStr"/>
+      <c r="CV397" t="inlineStr"/>
+      <c r="CW397" t="inlineStr"/>
+      <c r="CX397" t="inlineStr"/>
+      <c r="CY397" t="inlineStr"/>
+      <c r="CZ397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>cl:10382</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>cl:10381,cl:10387</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
+      <c r="M398" t="inlineStr"/>
+      <c r="N398" t="inlineStr"/>
+      <c r="O398" t="inlineStr"/>
+      <c r="P398" t="inlineStr"/>
+      <c r="Q398" t="inlineStr"/>
+      <c r="R398" t="inlineStr"/>
+      <c r="S398" t="inlineStr"/>
+      <c r="T398" t="inlineStr"/>
+      <c r="U398" t="inlineStr"/>
+      <c r="V398" t="inlineStr"/>
+      <c r="W398" t="inlineStr"/>
+      <c r="X398" t="inlineStr"/>
+      <c r="Y398" t="inlineStr"/>
+      <c r="Z398" t="inlineStr"/>
+      <c r="AA398" t="inlineStr"/>
+      <c r="AB398" t="inlineStr"/>
+      <c r="AC398" t="inlineStr"/>
+      <c r="AD398" t="inlineStr"/>
+      <c r="AE398" t="inlineStr"/>
+      <c r="AF398" t="inlineStr"/>
+      <c r="AG398" t="inlineStr"/>
+      <c r="AH398" t="inlineStr"/>
+      <c r="AI398" t="inlineStr"/>
+      <c r="AJ398" t="inlineStr"/>
+      <c r="AK398" t="inlineStr"/>
+      <c r="AL398" t="inlineStr"/>
+      <c r="AM398" t="inlineStr"/>
+      <c r="AN398" t="inlineStr"/>
+      <c r="AO398" t="inlineStr"/>
+      <c r="AP398" t="inlineStr"/>
+      <c r="AQ398" t="inlineStr"/>
+      <c r="AR398" t="inlineStr"/>
+      <c r="AS398" t="inlineStr"/>
+      <c r="AT398" t="inlineStr"/>
+      <c r="AU398" t="inlineStr"/>
+      <c r="AV398" t="inlineStr"/>
+      <c r="AW398" t="inlineStr"/>
+      <c r="AX398" t="inlineStr"/>
+      <c r="AY398" t="inlineStr"/>
+      <c r="AZ398" t="inlineStr"/>
+      <c r="BA398" t="inlineStr"/>
+      <c r="BB398" t="inlineStr"/>
+      <c r="BC398" t="inlineStr"/>
+      <c r="BD398" t="inlineStr"/>
+      <c r="BE398" t="inlineStr"/>
+      <c r="BF398" t="inlineStr"/>
+      <c r="BG398" t="inlineStr"/>
+      <c r="BH398" t="inlineStr"/>
+      <c r="BI398" t="inlineStr"/>
+      <c r="BJ398" t="inlineStr"/>
+      <c r="BK398" t="inlineStr"/>
+      <c r="BL398" t="inlineStr"/>
+      <c r="BM398" t="inlineStr"/>
+      <c r="BN398" t="inlineStr"/>
+      <c r="BO398" t="inlineStr"/>
+      <c r="BP398" t="inlineStr"/>
+      <c r="BQ398" t="inlineStr"/>
+      <c r="BR398" t="inlineStr"/>
+      <c r="BS398" t="inlineStr"/>
+      <c r="BT398" t="inlineStr"/>
+      <c r="BU398" t="inlineStr"/>
+      <c r="BV398" t="inlineStr"/>
+      <c r="BW398" t="inlineStr"/>
+      <c r="BX398" t="inlineStr"/>
+      <c r="BY398" t="inlineStr"/>
+      <c r="BZ398" t="inlineStr"/>
+      <c r="CA398" t="inlineStr"/>
+      <c r="CB398" t="inlineStr"/>
+      <c r="CC398" t="inlineStr"/>
+      <c r="CD398" t="inlineStr"/>
+      <c r="CE398" t="inlineStr"/>
+      <c r="CF398" t="inlineStr"/>
+      <c r="CG398" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH398" t="inlineStr"/>
+      <c r="CI398" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ398" t="inlineStr"/>
+      <c r="CK398" t="inlineStr"/>
+      <c r="CL398" t="inlineStr"/>
+      <c r="CM398" t="inlineStr"/>
+      <c r="CN398" t="inlineStr"/>
+      <c r="CO398" t="inlineStr"/>
+      <c r="CP398" t="inlineStr"/>
+      <c r="CQ398" t="inlineStr"/>
+      <c r="CR398" t="inlineStr"/>
+      <c r="CS398" t="inlineStr"/>
+      <c r="CT398" t="inlineStr"/>
+      <c r="CU398" t="inlineStr"/>
+      <c r="CV398" t="inlineStr"/>
+      <c r="CW398" t="inlineStr"/>
+      <c r="CX398" t="inlineStr"/>
+      <c r="CY398" t="inlineStr"/>
+      <c r="CZ398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>cl:10383</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Coastal</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>cl:10381,cl:10387</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
+      <c r="M399" t="inlineStr"/>
+      <c r="N399" t="inlineStr"/>
+      <c r="O399" t="inlineStr"/>
+      <c r="P399" t="inlineStr"/>
+      <c r="Q399" t="inlineStr"/>
+      <c r="R399" t="inlineStr"/>
+      <c r="S399" t="inlineStr"/>
+      <c r="T399" t="inlineStr"/>
+      <c r="U399" t="inlineStr"/>
+      <c r="V399" t="inlineStr"/>
+      <c r="W399" t="inlineStr"/>
+      <c r="X399" t="inlineStr"/>
+      <c r="Y399" t="inlineStr"/>
+      <c r="Z399" t="inlineStr"/>
+      <c r="AA399" t="inlineStr"/>
+      <c r="AB399" t="inlineStr"/>
+      <c r="AC399" t="inlineStr"/>
+      <c r="AD399" t="inlineStr"/>
+      <c r="AE399" t="inlineStr"/>
+      <c r="AF399" t="inlineStr"/>
+      <c r="AG399" t="inlineStr"/>
+      <c r="AH399" t="inlineStr"/>
+      <c r="AI399" t="inlineStr"/>
+      <c r="AJ399" t="inlineStr"/>
+      <c r="AK399" t="inlineStr"/>
+      <c r="AL399" t="inlineStr"/>
+      <c r="AM399" t="inlineStr"/>
+      <c r="AN399" t="inlineStr"/>
+      <c r="AO399" t="inlineStr"/>
+      <c r="AP399" t="inlineStr"/>
+      <c r="AQ399" t="inlineStr"/>
+      <c r="AR399" t="inlineStr"/>
+      <c r="AS399" t="inlineStr"/>
+      <c r="AT399" t="inlineStr"/>
+      <c r="AU399" t="inlineStr"/>
+      <c r="AV399" t="inlineStr"/>
+      <c r="AW399" t="inlineStr"/>
+      <c r="AX399" t="inlineStr"/>
+      <c r="AY399" t="inlineStr"/>
+      <c r="AZ399" t="inlineStr"/>
+      <c r="BA399" t="inlineStr"/>
+      <c r="BB399" t="inlineStr"/>
+      <c r="BC399" t="inlineStr"/>
+      <c r="BD399" t="inlineStr"/>
+      <c r="BE399" t="inlineStr"/>
+      <c r="BF399" t="inlineStr"/>
+      <c r="BG399" t="inlineStr"/>
+      <c r="BH399" t="inlineStr"/>
+      <c r="BI399" t="inlineStr"/>
+      <c r="BJ399" t="inlineStr"/>
+      <c r="BK399" t="inlineStr"/>
+      <c r="BL399" t="inlineStr"/>
+      <c r="BM399" t="inlineStr"/>
+      <c r="BN399" t="inlineStr"/>
+      <c r="BO399" t="inlineStr"/>
+      <c r="BP399" t="inlineStr"/>
+      <c r="BQ399" t="inlineStr"/>
+      <c r="BR399" t="inlineStr"/>
+      <c r="BS399" t="inlineStr"/>
+      <c r="BT399" t="inlineStr"/>
+      <c r="BU399" t="inlineStr"/>
+      <c r="BV399" t="inlineStr"/>
+      <c r="BW399" t="inlineStr"/>
+      <c r="BX399" t="inlineStr"/>
+      <c r="BY399" t="inlineStr"/>
+      <c r="BZ399" t="inlineStr"/>
+      <c r="CA399" t="inlineStr"/>
+      <c r="CB399" t="inlineStr"/>
+      <c r="CC399" t="inlineStr"/>
+      <c r="CD399" t="inlineStr"/>
+      <c r="CE399" t="inlineStr"/>
+      <c r="CF399" t="inlineStr"/>
+      <c r="CG399" t="inlineStr"/>
+      <c r="CH399" t="inlineStr"/>
+      <c r="CI399" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ399" t="inlineStr"/>
+      <c r="CK399" t="inlineStr"/>
+      <c r="CL399" t="inlineStr"/>
+      <c r="CM399" t="inlineStr"/>
+      <c r="CN399" t="inlineStr"/>
+      <c r="CO399" t="inlineStr"/>
+      <c r="CP399" t="inlineStr"/>
+      <c r="CQ399" t="inlineStr"/>
+      <c r="CR399" t="inlineStr"/>
+      <c r="CS399" t="inlineStr"/>
+      <c r="CT399" t="inlineStr"/>
+      <c r="CU399" t="inlineStr"/>
+      <c r="CV399" t="inlineStr"/>
+      <c r="CW399" t="inlineStr"/>
+      <c r="CX399" t="inlineStr"/>
+      <c r="CY399" t="inlineStr"/>
+      <c r="CZ399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>cl:10384</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Fresh water lakes</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>cl:10381,cl:10387</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
+      <c r="M400" t="inlineStr"/>
+      <c r="N400" t="inlineStr"/>
+      <c r="O400" t="inlineStr"/>
+      <c r="P400" t="inlineStr"/>
+      <c r="Q400" t="inlineStr"/>
+      <c r="R400" t="inlineStr"/>
+      <c r="S400" t="inlineStr"/>
+      <c r="T400" t="inlineStr"/>
+      <c r="U400" t="inlineStr"/>
+      <c r="V400" t="inlineStr"/>
+      <c r="W400" t="inlineStr"/>
+      <c r="X400" t="inlineStr"/>
+      <c r="Y400" t="inlineStr"/>
+      <c r="Z400" t="inlineStr"/>
+      <c r="AA400" t="inlineStr"/>
+      <c r="AB400" t="inlineStr"/>
+      <c r="AC400" t="inlineStr"/>
+      <c r="AD400" t="inlineStr"/>
+      <c r="AE400" t="inlineStr"/>
+      <c r="AF400" t="inlineStr"/>
+      <c r="AG400" t="inlineStr"/>
+      <c r="AH400" t="inlineStr"/>
+      <c r="AI400" t="inlineStr"/>
+      <c r="AJ400" t="inlineStr"/>
+      <c r="AK400" t="inlineStr"/>
+      <c r="AL400" t="inlineStr"/>
+      <c r="AM400" t="inlineStr"/>
+      <c r="AN400" t="inlineStr"/>
+      <c r="AO400" t="inlineStr"/>
+      <c r="AP400" t="inlineStr"/>
+      <c r="AQ400" t="inlineStr"/>
+      <c r="AR400" t="inlineStr"/>
+      <c r="AS400" t="inlineStr"/>
+      <c r="AT400" t="inlineStr"/>
+      <c r="AU400" t="inlineStr"/>
+      <c r="AV400" t="inlineStr"/>
+      <c r="AW400" t="inlineStr"/>
+      <c r="AX400" t="inlineStr"/>
+      <c r="AY400" t="inlineStr"/>
+      <c r="AZ400" t="inlineStr"/>
+      <c r="BA400" t="inlineStr"/>
+      <c r="BB400" t="inlineStr"/>
+      <c r="BC400" t="inlineStr"/>
+      <c r="BD400" t="inlineStr"/>
+      <c r="BE400" t="inlineStr"/>
+      <c r="BF400" t="inlineStr"/>
+      <c r="BG400" t="inlineStr"/>
+      <c r="BH400" t="inlineStr"/>
+      <c r="BI400" t="inlineStr"/>
+      <c r="BJ400" t="inlineStr"/>
+      <c r="BK400" t="inlineStr"/>
+      <c r="BL400" t="inlineStr"/>
+      <c r="BM400" t="inlineStr"/>
+      <c r="BN400" t="inlineStr"/>
+      <c r="BO400" t="inlineStr"/>
+      <c r="BP400" t="inlineStr"/>
+      <c r="BQ400" t="inlineStr"/>
+      <c r="BR400" t="inlineStr"/>
+      <c r="BS400" t="inlineStr"/>
+      <c r="BT400" t="inlineStr"/>
+      <c r="BU400" t="inlineStr"/>
+      <c r="BV400" t="inlineStr"/>
+      <c r="BW400" t="inlineStr"/>
+      <c r="BX400" t="inlineStr"/>
+      <c r="BY400" t="inlineStr"/>
+      <c r="BZ400" t="inlineStr"/>
+      <c r="CA400" t="inlineStr"/>
+      <c r="CB400" t="inlineStr"/>
+      <c r="CC400" t="inlineStr"/>
+      <c r="CD400" t="inlineStr"/>
+      <c r="CE400" t="inlineStr"/>
+      <c r="CF400" t="inlineStr"/>
+      <c r="CG400" t="inlineStr"/>
+      <c r="CH400" t="inlineStr"/>
+      <c r="CI400" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ400" t="inlineStr"/>
+      <c r="CK400" t="inlineStr"/>
+      <c r="CL400" t="inlineStr"/>
+      <c r="CM400" t="inlineStr"/>
+      <c r="CN400" t="inlineStr"/>
+      <c r="CO400" t="inlineStr"/>
+      <c r="CP400" t="inlineStr"/>
+      <c r="CQ400" t="inlineStr"/>
+      <c r="CR400" t="inlineStr"/>
+      <c r="CS400" t="inlineStr"/>
+      <c r="CT400" t="inlineStr"/>
+      <c r="CU400" t="inlineStr"/>
+      <c r="CV400" t="inlineStr"/>
+      <c r="CW400" t="inlineStr"/>
+      <c r="CX400" t="inlineStr"/>
+      <c r="CY400" t="inlineStr"/>
+      <c r="CZ400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>cl:10385</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Fresh water rivers</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>cl:10381,cl:10387</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
+      <c r="M401" t="inlineStr"/>
+      <c r="N401" t="inlineStr"/>
+      <c r="O401" t="inlineStr"/>
+      <c r="P401" t="inlineStr"/>
+      <c r="Q401" t="inlineStr"/>
+      <c r="R401" t="inlineStr"/>
+      <c r="S401" t="inlineStr"/>
+      <c r="T401" t="inlineStr"/>
+      <c r="U401" t="inlineStr"/>
+      <c r="V401" t="inlineStr"/>
+      <c r="W401" t="inlineStr"/>
+      <c r="X401" t="inlineStr"/>
+      <c r="Y401" t="inlineStr"/>
+      <c r="Z401" t="inlineStr"/>
+      <c r="AA401" t="inlineStr"/>
+      <c r="AB401" t="inlineStr"/>
+      <c r="AC401" t="inlineStr"/>
+      <c r="AD401" t="inlineStr"/>
+      <c r="AE401" t="inlineStr"/>
+      <c r="AF401" t="inlineStr"/>
+      <c r="AG401" t="inlineStr"/>
+      <c r="AH401" t="inlineStr"/>
+      <c r="AI401" t="inlineStr"/>
+      <c r="AJ401" t="inlineStr"/>
+      <c r="AK401" t="inlineStr"/>
+      <c r="AL401" t="inlineStr"/>
+      <c r="AM401" t="inlineStr"/>
+      <c r="AN401" t="inlineStr"/>
+      <c r="AO401" t="inlineStr"/>
+      <c r="AP401" t="inlineStr"/>
+      <c r="AQ401" t="inlineStr"/>
+      <c r="AR401" t="inlineStr"/>
+      <c r="AS401" t="inlineStr"/>
+      <c r="AT401" t="inlineStr"/>
+      <c r="AU401" t="inlineStr"/>
+      <c r="AV401" t="inlineStr"/>
+      <c r="AW401" t="inlineStr"/>
+      <c r="AX401" t="inlineStr"/>
+      <c r="AY401" t="inlineStr"/>
+      <c r="AZ401" t="inlineStr"/>
+      <c r="BA401" t="inlineStr"/>
+      <c r="BB401" t="inlineStr"/>
+      <c r="BC401" t="inlineStr"/>
+      <c r="BD401" t="inlineStr"/>
+      <c r="BE401" t="inlineStr"/>
+      <c r="BF401" t="inlineStr"/>
+      <c r="BG401" t="inlineStr"/>
+      <c r="BH401" t="inlineStr"/>
+      <c r="BI401" t="inlineStr"/>
+      <c r="BJ401" t="inlineStr"/>
+      <c r="BK401" t="inlineStr"/>
+      <c r="BL401" t="inlineStr"/>
+      <c r="BM401" t="inlineStr"/>
+      <c r="BN401" t="inlineStr"/>
+      <c r="BO401" t="inlineStr"/>
+      <c r="BP401" t="inlineStr"/>
+      <c r="BQ401" t="inlineStr"/>
+      <c r="BR401" t="inlineStr"/>
+      <c r="BS401" t="inlineStr"/>
+      <c r="BT401" t="inlineStr"/>
+      <c r="BU401" t="inlineStr"/>
+      <c r="BV401" t="inlineStr"/>
+      <c r="BW401" t="inlineStr"/>
+      <c r="BX401" t="inlineStr"/>
+      <c r="BY401" t="inlineStr"/>
+      <c r="BZ401" t="inlineStr"/>
+      <c r="CA401" t="inlineStr"/>
+      <c r="CB401" t="inlineStr"/>
+      <c r="CC401" t="inlineStr"/>
+      <c r="CD401" t="inlineStr"/>
+      <c r="CE401" t="inlineStr"/>
+      <c r="CF401" t="inlineStr"/>
+      <c r="CG401" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH401" t="inlineStr"/>
+      <c r="CI401" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ401" t="inlineStr"/>
+      <c r="CK401" t="inlineStr"/>
+      <c r="CL401" t="inlineStr"/>
+      <c r="CM401" t="inlineStr"/>
+      <c r="CN401" t="inlineStr"/>
+      <c r="CO401" t="inlineStr"/>
+      <c r="CP401" t="inlineStr"/>
+      <c r="CQ401" t="inlineStr"/>
+      <c r="CR401" t="inlineStr"/>
+      <c r="CS401" t="inlineStr"/>
+      <c r="CT401" t="inlineStr"/>
+      <c r="CU401" t="inlineStr"/>
+      <c r="CV401" t="inlineStr"/>
+      <c r="CW401" t="inlineStr"/>
+      <c r="CX401" t="inlineStr"/>
+      <c r="CY401" t="inlineStr"/>
+      <c r="CZ401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>cl:10386</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Terrestrial</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>cl:10381</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
+      <c r="M402" t="inlineStr"/>
+      <c r="N402" t="inlineStr"/>
+      <c r="O402" t="inlineStr"/>
+      <c r="P402" t="inlineStr"/>
+      <c r="Q402" t="inlineStr"/>
+      <c r="R402" t="inlineStr"/>
+      <c r="S402" t="inlineStr"/>
+      <c r="T402" t="inlineStr"/>
+      <c r="U402" t="inlineStr"/>
+      <c r="V402" t="inlineStr"/>
+      <c r="W402" t="inlineStr"/>
+      <c r="X402" t="inlineStr"/>
+      <c r="Y402" t="inlineStr"/>
+      <c r="Z402" t="inlineStr"/>
+      <c r="AA402" t="inlineStr"/>
+      <c r="AB402" t="inlineStr"/>
+      <c r="AC402" t="inlineStr"/>
+      <c r="AD402" t="inlineStr"/>
+      <c r="AE402" t="inlineStr"/>
+      <c r="AF402" t="inlineStr"/>
+      <c r="AG402" t="inlineStr"/>
+      <c r="AH402" t="inlineStr"/>
+      <c r="AI402" t="inlineStr"/>
+      <c r="AJ402" t="inlineStr"/>
+      <c r="AK402" t="inlineStr"/>
+      <c r="AL402" t="inlineStr"/>
+      <c r="AM402" t="inlineStr"/>
+      <c r="AN402" t="inlineStr"/>
+      <c r="AO402" t="inlineStr"/>
+      <c r="AP402" t="inlineStr"/>
+      <c r="AQ402" t="inlineStr"/>
+      <c r="AR402" t="inlineStr"/>
+      <c r="AS402" t="inlineStr"/>
+      <c r="AT402" t="inlineStr"/>
+      <c r="AU402" t="inlineStr"/>
+      <c r="AV402" t="inlineStr"/>
+      <c r="AW402" t="inlineStr"/>
+      <c r="AX402" t="inlineStr"/>
+      <c r="AY402" t="inlineStr"/>
+      <c r="AZ402" t="inlineStr"/>
+      <c r="BA402" t="inlineStr"/>
+      <c r="BB402" t="inlineStr"/>
+      <c r="BC402" t="inlineStr"/>
+      <c r="BD402" t="inlineStr"/>
+      <c r="BE402" t="inlineStr"/>
+      <c r="BF402" t="inlineStr"/>
+      <c r="BG402" t="inlineStr"/>
+      <c r="BH402" t="inlineStr"/>
+      <c r="BI402" t="inlineStr"/>
+      <c r="BJ402" t="inlineStr"/>
+      <c r="BK402" t="inlineStr"/>
+      <c r="BL402" t="inlineStr"/>
+      <c r="BM402" t="inlineStr"/>
+      <c r="BN402" t="inlineStr"/>
+      <c r="BO402" t="inlineStr"/>
+      <c r="BP402" t="inlineStr"/>
+      <c r="BQ402" t="inlineStr"/>
+      <c r="BR402" t="inlineStr"/>
+      <c r="BS402" t="inlineStr"/>
+      <c r="BT402" t="inlineStr"/>
+      <c r="BU402" t="inlineStr"/>
+      <c r="BV402" t="inlineStr"/>
+      <c r="BW402" t="inlineStr"/>
+      <c r="BX402" t="inlineStr"/>
+      <c r="BY402" t="inlineStr"/>
+      <c r="BZ402" t="inlineStr"/>
+      <c r="CA402" t="inlineStr"/>
+      <c r="CB402" t="inlineStr"/>
+      <c r="CC402" t="inlineStr"/>
+      <c r="CD402" t="inlineStr"/>
+      <c r="CE402" t="inlineStr"/>
+      <c r="CF402" t="inlineStr"/>
+      <c r="CG402" t="inlineStr"/>
+      <c r="CH402" t="inlineStr"/>
+      <c r="CI402" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ402" t="inlineStr"/>
+      <c r="CK402" t="inlineStr"/>
+      <c r="CL402" t="inlineStr"/>
+      <c r="CM402" t="inlineStr"/>
+      <c r="CN402" t="inlineStr"/>
+      <c r="CO402" t="inlineStr"/>
+      <c r="CP402" t="inlineStr"/>
+      <c r="CQ402" t="inlineStr"/>
+      <c r="CR402" t="inlineStr"/>
+      <c r="CS402" t="inlineStr"/>
+      <c r="CT402" t="inlineStr"/>
+      <c r="CU402" t="inlineStr"/>
+      <c r="CV402" t="inlineStr"/>
+      <c r="CW402" t="inlineStr"/>
+      <c r="CX402" t="inlineStr"/>
+      <c r="CY402" t="inlineStr"/>
+      <c r="CZ402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Biome</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
+      <c r="M403" t="inlineStr"/>
+      <c r="N403" t="inlineStr"/>
+      <c r="O403" t="inlineStr"/>
+      <c r="P403" t="inlineStr"/>
+      <c r="Q403" t="inlineStr"/>
+      <c r="R403" t="inlineStr"/>
+      <c r="S403" t="inlineStr"/>
+      <c r="T403" t="inlineStr"/>
+      <c r="U403" t="inlineStr"/>
+      <c r="V403" t="inlineStr"/>
+      <c r="W403" t="inlineStr"/>
+      <c r="X403" t="inlineStr"/>
+      <c r="Y403" t="inlineStr"/>
+      <c r="Z403" t="inlineStr"/>
+      <c r="AA403" t="inlineStr"/>
+      <c r="AB403" t="inlineStr"/>
+      <c r="AC403" t="inlineStr"/>
+      <c r="AD403" t="inlineStr"/>
+      <c r="AE403" t="inlineStr"/>
+      <c r="AF403" t="inlineStr"/>
+      <c r="AG403" t="inlineStr"/>
+      <c r="AH403" t="inlineStr"/>
+      <c r="AI403" t="inlineStr"/>
+      <c r="AJ403" t="inlineStr"/>
+      <c r="AK403" t="inlineStr"/>
+      <c r="AL403" t="inlineStr"/>
+      <c r="AM403" t="inlineStr"/>
+      <c r="AN403" t="inlineStr"/>
+      <c r="AO403" t="inlineStr"/>
+      <c r="AP403" t="inlineStr"/>
+      <c r="AQ403" t="inlineStr"/>
+      <c r="AR403" t="inlineStr"/>
+      <c r="AS403" t="inlineStr"/>
+      <c r="AT403" t="inlineStr"/>
+      <c r="AU403" t="inlineStr"/>
+      <c r="AV403" t="inlineStr"/>
+      <c r="AW403" t="inlineStr"/>
+      <c r="AX403" t="inlineStr"/>
+      <c r="AY403" t="inlineStr"/>
+      <c r="AZ403" t="inlineStr"/>
+      <c r="BA403" t="inlineStr"/>
+      <c r="BB403" t="inlineStr"/>
+      <c r="BC403" t="inlineStr"/>
+      <c r="BD403" t="inlineStr"/>
+      <c r="BE403" t="inlineStr"/>
+      <c r="BF403" t="inlineStr"/>
+      <c r="BG403" t="inlineStr"/>
+      <c r="BH403" t="inlineStr"/>
+      <c r="BI403" t="inlineStr"/>
+      <c r="BJ403" t="inlineStr"/>
+      <c r="BK403" t="inlineStr"/>
+      <c r="BL403" t="inlineStr"/>
+      <c r="BM403" t="inlineStr"/>
+      <c r="BN403" t="inlineStr"/>
+      <c r="BO403" t="inlineStr"/>
+      <c r="BP403" t="inlineStr"/>
+      <c r="BQ403" t="inlineStr"/>
+      <c r="BR403" t="inlineStr"/>
+      <c r="BS403" t="inlineStr"/>
+      <c r="BT403" t="inlineStr"/>
+      <c r="BU403" t="inlineStr"/>
+      <c r="BV403" t="inlineStr"/>
+      <c r="BW403" t="inlineStr"/>
+      <c r="BX403" t="inlineStr"/>
+      <c r="BY403" t="inlineStr"/>
+      <c r="BZ403" t="inlineStr"/>
+      <c r="CA403" t="inlineStr"/>
+      <c r="CB403" t="inlineStr"/>
+      <c r="CC403" t="inlineStr"/>
+      <c r="CD403" t="inlineStr"/>
+      <c r="CE403" t="inlineStr"/>
+      <c r="CF403" t="inlineStr"/>
+      <c r="CG403" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH403" t="inlineStr"/>
+      <c r="CI403" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ403" t="inlineStr"/>
+      <c r="CK403" t="inlineStr"/>
+      <c r="CL403" t="inlineStr"/>
+      <c r="CM403" t="inlineStr"/>
+      <c r="CN403" t="inlineStr"/>
+      <c r="CO403" t="inlineStr"/>
+      <c r="CP403" t="inlineStr"/>
+      <c r="CQ403" t="inlineStr"/>
+      <c r="CR403" t="inlineStr"/>
+      <c r="CS403" t="inlineStr"/>
+      <c r="CT403" t="inlineStr"/>
+      <c r="CU403" t="inlineStr"/>
+      <c r="CV403" t="inlineStr"/>
+      <c r="CW403" t="inlineStr"/>
+      <c r="CX403" t="inlineStr"/>
+      <c r="CY403" t="inlineStr"/>
+      <c r="CZ403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>cl:10388</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Agricultural</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr"/>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
+      <c r="M404" t="inlineStr"/>
+      <c r="N404" t="inlineStr"/>
+      <c r="O404" t="inlineStr"/>
+      <c r="P404" t="inlineStr"/>
+      <c r="Q404" t="inlineStr"/>
+      <c r="R404" t="inlineStr"/>
+      <c r="S404" t="inlineStr"/>
+      <c r="T404" t="inlineStr"/>
+      <c r="U404" t="inlineStr"/>
+      <c r="V404" t="inlineStr"/>
+      <c r="W404" t="inlineStr"/>
+      <c r="X404" t="inlineStr"/>
+      <c r="Y404" t="inlineStr"/>
+      <c r="Z404" t="inlineStr"/>
+      <c r="AA404" t="inlineStr"/>
+      <c r="AB404" t="inlineStr"/>
+      <c r="AC404" t="inlineStr"/>
+      <c r="AD404" t="inlineStr"/>
+      <c r="AE404" t="inlineStr"/>
+      <c r="AF404" t="inlineStr"/>
+      <c r="AG404" t="inlineStr"/>
+      <c r="AH404" t="inlineStr"/>
+      <c r="AI404" t="inlineStr"/>
+      <c r="AJ404" t="inlineStr"/>
+      <c r="AK404" t="inlineStr"/>
+      <c r="AL404" t="inlineStr"/>
+      <c r="AM404" t="inlineStr"/>
+      <c r="AN404" t="inlineStr"/>
+      <c r="AO404" t="inlineStr"/>
+      <c r="AP404" t="inlineStr"/>
+      <c r="AQ404" t="inlineStr"/>
+      <c r="AR404" t="inlineStr"/>
+      <c r="AS404" t="inlineStr"/>
+      <c r="AT404" t="inlineStr"/>
+      <c r="AU404" t="inlineStr"/>
+      <c r="AV404" t="inlineStr"/>
+      <c r="AW404" t="inlineStr"/>
+      <c r="AX404" t="inlineStr"/>
+      <c r="AY404" t="inlineStr"/>
+      <c r="AZ404" t="inlineStr"/>
+      <c r="BA404" t="inlineStr"/>
+      <c r="BB404" t="inlineStr"/>
+      <c r="BC404" t="inlineStr"/>
+      <c r="BD404" t="inlineStr"/>
+      <c r="BE404" t="inlineStr"/>
+      <c r="BF404" t="inlineStr"/>
+      <c r="BG404" t="inlineStr"/>
+      <c r="BH404" t="inlineStr"/>
+      <c r="BI404" t="inlineStr"/>
+      <c r="BJ404" t="inlineStr"/>
+      <c r="BK404" t="inlineStr"/>
+      <c r="BL404" t="inlineStr"/>
+      <c r="BM404" t="inlineStr"/>
+      <c r="BN404" t="inlineStr"/>
+      <c r="BO404" t="inlineStr"/>
+      <c r="BP404" t="inlineStr"/>
+      <c r="BQ404" t="inlineStr"/>
+      <c r="BR404" t="inlineStr"/>
+      <c r="BS404" t="inlineStr"/>
+      <c r="BT404" t="inlineStr"/>
+      <c r="BU404" t="inlineStr"/>
+      <c r="BV404" t="inlineStr"/>
+      <c r="BW404" t="inlineStr"/>
+      <c r="BX404" t="inlineStr"/>
+      <c r="BY404" t="inlineStr"/>
+      <c r="BZ404" t="inlineStr"/>
+      <c r="CA404" t="inlineStr"/>
+      <c r="CB404" t="inlineStr"/>
+      <c r="CC404" t="inlineStr"/>
+      <c r="CD404" t="inlineStr"/>
+      <c r="CE404" t="inlineStr"/>
+      <c r="CF404" t="inlineStr"/>
+      <c r="CG404" t="inlineStr"/>
+      <c r="CH404" t="inlineStr"/>
+      <c r="CI404" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ404" t="inlineStr"/>
+      <c r="CK404" t="inlineStr"/>
+      <c r="CL404" t="inlineStr"/>
+      <c r="CM404" t="inlineStr"/>
+      <c r="CN404" t="inlineStr"/>
+      <c r="CO404" t="inlineStr"/>
+      <c r="CP404" t="inlineStr"/>
+      <c r="CQ404" t="inlineStr"/>
+      <c r="CR404" t="inlineStr"/>
+      <c r="CS404" t="inlineStr"/>
+      <c r="CT404" t="inlineStr"/>
+      <c r="CU404" t="inlineStr"/>
+      <c r="CV404" t="inlineStr"/>
+      <c r="CW404" t="inlineStr"/>
+      <c r="CX404" t="inlineStr"/>
+      <c r="CY404" t="inlineStr"/>
+      <c r="CZ404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>cl:10389</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Alpine</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
+      <c r="M405" t="inlineStr"/>
+      <c r="N405" t="inlineStr"/>
+      <c r="O405" t="inlineStr"/>
+      <c r="P405" t="inlineStr"/>
+      <c r="Q405" t="inlineStr"/>
+      <c r="R405" t="inlineStr"/>
+      <c r="S405" t="inlineStr"/>
+      <c r="T405" t="inlineStr"/>
+      <c r="U405" t="inlineStr"/>
+      <c r="V405" t="inlineStr"/>
+      <c r="W405" t="inlineStr"/>
+      <c r="X405" t="inlineStr"/>
+      <c r="Y405" t="inlineStr"/>
+      <c r="Z405" t="inlineStr"/>
+      <c r="AA405" t="inlineStr"/>
+      <c r="AB405" t="inlineStr"/>
+      <c r="AC405" t="inlineStr"/>
+      <c r="AD405" t="inlineStr"/>
+      <c r="AE405" t="inlineStr"/>
+      <c r="AF405" t="inlineStr"/>
+      <c r="AG405" t="inlineStr"/>
+      <c r="AH405" t="inlineStr"/>
+      <c r="AI405" t="inlineStr"/>
+      <c r="AJ405" t="inlineStr"/>
+      <c r="AK405" t="inlineStr"/>
+      <c r="AL405" t="inlineStr"/>
+      <c r="AM405" t="inlineStr"/>
+      <c r="AN405" t="inlineStr"/>
+      <c r="AO405" t="inlineStr"/>
+      <c r="AP405" t="inlineStr"/>
+      <c r="AQ405" t="inlineStr"/>
+      <c r="AR405" t="inlineStr"/>
+      <c r="AS405" t="inlineStr"/>
+      <c r="AT405" t="inlineStr"/>
+      <c r="AU405" t="inlineStr"/>
+      <c r="AV405" t="inlineStr"/>
+      <c r="AW405" t="inlineStr"/>
+      <c r="AX405" t="inlineStr"/>
+      <c r="AY405" t="inlineStr"/>
+      <c r="AZ405" t="inlineStr"/>
+      <c r="BA405" t="inlineStr"/>
+      <c r="BB405" t="inlineStr"/>
+      <c r="BC405" t="inlineStr"/>
+      <c r="BD405" t="inlineStr"/>
+      <c r="BE405" t="inlineStr"/>
+      <c r="BF405" t="inlineStr"/>
+      <c r="BG405" t="inlineStr"/>
+      <c r="BH405" t="inlineStr"/>
+      <c r="BI405" t="inlineStr"/>
+      <c r="BJ405" t="inlineStr"/>
+      <c r="BK405" t="inlineStr"/>
+      <c r="BL405" t="inlineStr"/>
+      <c r="BM405" t="inlineStr"/>
+      <c r="BN405" t="inlineStr"/>
+      <c r="BO405" t="inlineStr"/>
+      <c r="BP405" t="inlineStr"/>
+      <c r="BQ405" t="inlineStr"/>
+      <c r="BR405" t="inlineStr"/>
+      <c r="BS405" t="inlineStr"/>
+      <c r="BT405" t="inlineStr"/>
+      <c r="BU405" t="inlineStr"/>
+      <c r="BV405" t="inlineStr"/>
+      <c r="BW405" t="inlineStr"/>
+      <c r="BX405" t="inlineStr"/>
+      <c r="BY405" t="inlineStr"/>
+      <c r="BZ405" t="inlineStr"/>
+      <c r="CA405" t="inlineStr"/>
+      <c r="CB405" t="inlineStr"/>
+      <c r="CC405" t="inlineStr"/>
+      <c r="CD405" t="inlineStr"/>
+      <c r="CE405" t="inlineStr"/>
+      <c r="CF405" t="inlineStr"/>
+      <c r="CG405" t="inlineStr"/>
+      <c r="CH405" t="inlineStr"/>
+      <c r="CI405" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ405" t="inlineStr"/>
+      <c r="CK405" t="inlineStr"/>
+      <c r="CL405" t="inlineStr"/>
+      <c r="CM405" t="inlineStr"/>
+      <c r="CN405" t="inlineStr"/>
+      <c r="CO405" t="inlineStr"/>
+      <c r="CP405" t="inlineStr"/>
+      <c r="CQ405" t="inlineStr"/>
+      <c r="CR405" t="inlineStr"/>
+      <c r="CS405" t="inlineStr"/>
+      <c r="CT405" t="inlineStr"/>
+      <c r="CU405" t="inlineStr"/>
+      <c r="CV405" t="inlineStr"/>
+      <c r="CW405" t="inlineStr"/>
+      <c r="CX405" t="inlineStr"/>
+      <c r="CY405" t="inlineStr"/>
+      <c r="CZ405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>cl:10390</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Chaparral</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="inlineStr"/>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr"/>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
+      <c r="M406" t="inlineStr"/>
+      <c r="N406" t="inlineStr"/>
+      <c r="O406" t="inlineStr"/>
+      <c r="P406" t="inlineStr"/>
+      <c r="Q406" t="inlineStr"/>
+      <c r="R406" t="inlineStr"/>
+      <c r="S406" t="inlineStr"/>
+      <c r="T406" t="inlineStr"/>
+      <c r="U406" t="inlineStr"/>
+      <c r="V406" t="inlineStr"/>
+      <c r="W406" t="inlineStr"/>
+      <c r="X406" t="inlineStr"/>
+      <c r="Y406" t="inlineStr"/>
+      <c r="Z406" t="inlineStr"/>
+      <c r="AA406" t="inlineStr"/>
+      <c r="AB406" t="inlineStr"/>
+      <c r="AC406" t="inlineStr"/>
+      <c r="AD406" t="inlineStr"/>
+      <c r="AE406" t="inlineStr"/>
+      <c r="AF406" t="inlineStr"/>
+      <c r="AG406" t="inlineStr"/>
+      <c r="AH406" t="inlineStr"/>
+      <c r="AI406" t="inlineStr"/>
+      <c r="AJ406" t="inlineStr"/>
+      <c r="AK406" t="inlineStr"/>
+      <c r="AL406" t="inlineStr"/>
+      <c r="AM406" t="inlineStr"/>
+      <c r="AN406" t="inlineStr"/>
+      <c r="AO406" t="inlineStr"/>
+      <c r="AP406" t="inlineStr"/>
+      <c r="AQ406" t="inlineStr"/>
+      <c r="AR406" t="inlineStr"/>
+      <c r="AS406" t="inlineStr"/>
+      <c r="AT406" t="inlineStr"/>
+      <c r="AU406" t="inlineStr"/>
+      <c r="AV406" t="inlineStr"/>
+      <c r="AW406" t="inlineStr"/>
+      <c r="AX406" t="inlineStr"/>
+      <c r="AY406" t="inlineStr"/>
+      <c r="AZ406" t="inlineStr"/>
+      <c r="BA406" t="inlineStr"/>
+      <c r="BB406" t="inlineStr"/>
+      <c r="BC406" t="inlineStr"/>
+      <c r="BD406" t="inlineStr"/>
+      <c r="BE406" t="inlineStr"/>
+      <c r="BF406" t="inlineStr"/>
+      <c r="BG406" t="inlineStr"/>
+      <c r="BH406" t="inlineStr"/>
+      <c r="BI406" t="inlineStr"/>
+      <c r="BJ406" t="inlineStr"/>
+      <c r="BK406" t="inlineStr"/>
+      <c r="BL406" t="inlineStr"/>
+      <c r="BM406" t="inlineStr"/>
+      <c r="BN406" t="inlineStr"/>
+      <c r="BO406" t="inlineStr"/>
+      <c r="BP406" t="inlineStr"/>
+      <c r="BQ406" t="inlineStr"/>
+      <c r="BR406" t="inlineStr"/>
+      <c r="BS406" t="inlineStr"/>
+      <c r="BT406" t="inlineStr"/>
+      <c r="BU406" t="inlineStr"/>
+      <c r="BV406" t="inlineStr"/>
+      <c r="BW406" t="inlineStr"/>
+      <c r="BX406" t="inlineStr"/>
+      <c r="BY406" t="inlineStr"/>
+      <c r="BZ406" t="inlineStr"/>
+      <c r="CA406" t="inlineStr"/>
+      <c r="CB406" t="inlineStr"/>
+      <c r="CC406" t="inlineStr"/>
+      <c r="CD406" t="inlineStr"/>
+      <c r="CE406" t="inlineStr"/>
+      <c r="CF406" t="inlineStr"/>
+      <c r="CG406" t="inlineStr"/>
+      <c r="CH406" t="inlineStr"/>
+      <c r="CI406" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ406" t="inlineStr"/>
+      <c r="CK406" t="inlineStr"/>
+      <c r="CL406" t="inlineStr"/>
+      <c r="CM406" t="inlineStr"/>
+      <c r="CN406" t="inlineStr"/>
+      <c r="CO406" t="inlineStr"/>
+      <c r="CP406" t="inlineStr"/>
+      <c r="CQ406" t="inlineStr"/>
+      <c r="CR406" t="inlineStr"/>
+      <c r="CS406" t="inlineStr"/>
+      <c r="CT406" t="inlineStr"/>
+      <c r="CU406" t="inlineStr"/>
+      <c r="CV406" t="inlineStr"/>
+      <c r="CW406" t="inlineStr"/>
+      <c r="CX406" t="inlineStr"/>
+      <c r="CY406" t="inlineStr"/>
+      <c r="CZ406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>cl:10391</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Deciduous Forest</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
+      <c r="M407" t="inlineStr"/>
+      <c r="N407" t="inlineStr"/>
+      <c r="O407" t="inlineStr"/>
+      <c r="P407" t="inlineStr"/>
+      <c r="Q407" t="inlineStr"/>
+      <c r="R407" t="inlineStr"/>
+      <c r="S407" t="inlineStr"/>
+      <c r="T407" t="inlineStr"/>
+      <c r="U407" t="inlineStr"/>
+      <c r="V407" t="inlineStr"/>
+      <c r="W407" t="inlineStr"/>
+      <c r="X407" t="inlineStr"/>
+      <c r="Y407" t="inlineStr"/>
+      <c r="Z407" t="inlineStr"/>
+      <c r="AA407" t="inlineStr"/>
+      <c r="AB407" t="inlineStr"/>
+      <c r="AC407" t="inlineStr"/>
+      <c r="AD407" t="inlineStr"/>
+      <c r="AE407" t="inlineStr"/>
+      <c r="AF407" t="inlineStr"/>
+      <c r="AG407" t="inlineStr"/>
+      <c r="AH407" t="inlineStr"/>
+      <c r="AI407" t="inlineStr"/>
+      <c r="AJ407" t="inlineStr"/>
+      <c r="AK407" t="inlineStr"/>
+      <c r="AL407" t="inlineStr"/>
+      <c r="AM407" t="inlineStr"/>
+      <c r="AN407" t="inlineStr"/>
+      <c r="AO407" t="inlineStr"/>
+      <c r="AP407" t="inlineStr"/>
+      <c r="AQ407" t="inlineStr"/>
+      <c r="AR407" t="inlineStr"/>
+      <c r="AS407" t="inlineStr"/>
+      <c r="AT407" t="inlineStr"/>
+      <c r="AU407" t="inlineStr"/>
+      <c r="AV407" t="inlineStr"/>
+      <c r="AW407" t="inlineStr"/>
+      <c r="AX407" t="inlineStr"/>
+      <c r="AY407" t="inlineStr"/>
+      <c r="AZ407" t="inlineStr"/>
+      <c r="BA407" t="inlineStr"/>
+      <c r="BB407" t="inlineStr"/>
+      <c r="BC407" t="inlineStr"/>
+      <c r="BD407" t="inlineStr"/>
+      <c r="BE407" t="inlineStr"/>
+      <c r="BF407" t="inlineStr"/>
+      <c r="BG407" t="inlineStr"/>
+      <c r="BH407" t="inlineStr"/>
+      <c r="BI407" t="inlineStr"/>
+      <c r="BJ407" t="inlineStr"/>
+      <c r="BK407" t="inlineStr"/>
+      <c r="BL407" t="inlineStr"/>
+      <c r="BM407" t="inlineStr"/>
+      <c r="BN407" t="inlineStr"/>
+      <c r="BO407" t="inlineStr"/>
+      <c r="BP407" t="inlineStr"/>
+      <c r="BQ407" t="inlineStr"/>
+      <c r="BR407" t="inlineStr"/>
+      <c r="BS407" t="inlineStr"/>
+      <c r="BT407" t="inlineStr"/>
+      <c r="BU407" t="inlineStr"/>
+      <c r="BV407" t="inlineStr"/>
+      <c r="BW407" t="inlineStr"/>
+      <c r="BX407" t="inlineStr"/>
+      <c r="BY407" t="inlineStr"/>
+      <c r="BZ407" t="inlineStr"/>
+      <c r="CA407" t="inlineStr"/>
+      <c r="CB407" t="inlineStr"/>
+      <c r="CC407" t="inlineStr"/>
+      <c r="CD407" t="inlineStr"/>
+      <c r="CE407" t="inlineStr"/>
+      <c r="CF407" t="inlineStr"/>
+      <c r="CG407" t="inlineStr"/>
+      <c r="CH407" t="inlineStr"/>
+      <c r="CI407" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ407" t="inlineStr"/>
+      <c r="CK407" t="inlineStr"/>
+      <c r="CL407" t="inlineStr"/>
+      <c r="CM407" t="inlineStr"/>
+      <c r="CN407" t="inlineStr"/>
+      <c r="CO407" t="inlineStr"/>
+      <c r="CP407" t="inlineStr"/>
+      <c r="CQ407" t="inlineStr"/>
+      <c r="CR407" t="inlineStr"/>
+      <c r="CS407" t="inlineStr"/>
+      <c r="CT407" t="inlineStr"/>
+      <c r="CU407" t="inlineStr"/>
+      <c r="CV407" t="inlineStr"/>
+      <c r="CW407" t="inlineStr"/>
+      <c r="CX407" t="inlineStr"/>
+      <c r="CY407" t="inlineStr"/>
+      <c r="CZ407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>cl:10392</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Evergreen Forest</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr"/>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr"/>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
+      <c r="M408" t="inlineStr"/>
+      <c r="N408" t="inlineStr"/>
+      <c r="O408" t="inlineStr"/>
+      <c r="P408" t="inlineStr"/>
+      <c r="Q408" t="inlineStr"/>
+      <c r="R408" t="inlineStr"/>
+      <c r="S408" t="inlineStr"/>
+      <c r="T408" t="inlineStr"/>
+      <c r="U408" t="inlineStr"/>
+      <c r="V408" t="inlineStr"/>
+      <c r="W408" t="inlineStr"/>
+      <c r="X408" t="inlineStr"/>
+      <c r="Y408" t="inlineStr"/>
+      <c r="Z408" t="inlineStr"/>
+      <c r="AA408" t="inlineStr"/>
+      <c r="AB408" t="inlineStr"/>
+      <c r="AC408" t="inlineStr"/>
+      <c r="AD408" t="inlineStr"/>
+      <c r="AE408" t="inlineStr"/>
+      <c r="AF408" t="inlineStr"/>
+      <c r="AG408" t="inlineStr"/>
+      <c r="AH408" t="inlineStr"/>
+      <c r="AI408" t="inlineStr"/>
+      <c r="AJ408" t="inlineStr"/>
+      <c r="AK408" t="inlineStr"/>
+      <c r="AL408" t="inlineStr"/>
+      <c r="AM408" t="inlineStr"/>
+      <c r="AN408" t="inlineStr"/>
+      <c r="AO408" t="inlineStr"/>
+      <c r="AP408" t="inlineStr"/>
+      <c r="AQ408" t="inlineStr"/>
+      <c r="AR408" t="inlineStr"/>
+      <c r="AS408" t="inlineStr"/>
+      <c r="AT408" t="inlineStr"/>
+      <c r="AU408" t="inlineStr"/>
+      <c r="AV408" t="inlineStr"/>
+      <c r="AW408" t="inlineStr"/>
+      <c r="AX408" t="inlineStr"/>
+      <c r="AY408" t="inlineStr"/>
+      <c r="AZ408" t="inlineStr"/>
+      <c r="BA408" t="inlineStr"/>
+      <c r="BB408" t="inlineStr"/>
+      <c r="BC408" t="inlineStr"/>
+      <c r="BD408" t="inlineStr"/>
+      <c r="BE408" t="inlineStr"/>
+      <c r="BF408" t="inlineStr"/>
+      <c r="BG408" t="inlineStr"/>
+      <c r="BH408" t="inlineStr"/>
+      <c r="BI408" t="inlineStr"/>
+      <c r="BJ408" t="inlineStr"/>
+      <c r="BK408" t="inlineStr"/>
+      <c r="BL408" t="inlineStr"/>
+      <c r="BM408" t="inlineStr"/>
+      <c r="BN408" t="inlineStr"/>
+      <c r="BO408" t="inlineStr"/>
+      <c r="BP408" t="inlineStr"/>
+      <c r="BQ408" t="inlineStr"/>
+      <c r="BR408" t="inlineStr"/>
+      <c r="BS408" t="inlineStr"/>
+      <c r="BT408" t="inlineStr"/>
+      <c r="BU408" t="inlineStr"/>
+      <c r="BV408" t="inlineStr"/>
+      <c r="BW408" t="inlineStr"/>
+      <c r="BX408" t="inlineStr"/>
+      <c r="BY408" t="inlineStr"/>
+      <c r="BZ408" t="inlineStr"/>
+      <c r="CA408" t="inlineStr"/>
+      <c r="CB408" t="inlineStr"/>
+      <c r="CC408" t="inlineStr"/>
+      <c r="CD408" t="inlineStr"/>
+      <c r="CE408" t="inlineStr"/>
+      <c r="CF408" t="inlineStr"/>
+      <c r="CG408" t="inlineStr"/>
+      <c r="CH408" t="inlineStr"/>
+      <c r="CI408" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ408" t="inlineStr"/>
+      <c r="CK408" t="inlineStr"/>
+      <c r="CL408" t="inlineStr"/>
+      <c r="CM408" t="inlineStr"/>
+      <c r="CN408" t="inlineStr"/>
+      <c r="CO408" t="inlineStr"/>
+      <c r="CP408" t="inlineStr"/>
+      <c r="CQ408" t="inlineStr"/>
+      <c r="CR408" t="inlineStr"/>
+      <c r="CS408" t="inlineStr"/>
+      <c r="CT408" t="inlineStr"/>
+      <c r="CU408" t="inlineStr"/>
+      <c r="CV408" t="inlineStr"/>
+      <c r="CW408" t="inlineStr"/>
+      <c r="CX408" t="inlineStr"/>
+      <c r="CY408" t="inlineStr"/>
+      <c r="CZ408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>cl:10393</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Mixed Forest</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
+      <c r="M409" t="inlineStr"/>
+      <c r="N409" t="inlineStr"/>
+      <c r="O409" t="inlineStr"/>
+      <c r="P409" t="inlineStr"/>
+      <c r="Q409" t="inlineStr"/>
+      <c r="R409" t="inlineStr"/>
+      <c r="S409" t="inlineStr"/>
+      <c r="T409" t="inlineStr"/>
+      <c r="U409" t="inlineStr"/>
+      <c r="V409" t="inlineStr"/>
+      <c r="W409" t="inlineStr"/>
+      <c r="X409" t="inlineStr"/>
+      <c r="Y409" t="inlineStr"/>
+      <c r="Z409" t="inlineStr"/>
+      <c r="AA409" t="inlineStr"/>
+      <c r="AB409" t="inlineStr"/>
+      <c r="AC409" t="inlineStr"/>
+      <c r="AD409" t="inlineStr"/>
+      <c r="AE409" t="inlineStr"/>
+      <c r="AF409" t="inlineStr"/>
+      <c r="AG409" t="inlineStr"/>
+      <c r="AH409" t="inlineStr"/>
+      <c r="AI409" t="inlineStr"/>
+      <c r="AJ409" t="inlineStr"/>
+      <c r="AK409" t="inlineStr"/>
+      <c r="AL409" t="inlineStr"/>
+      <c r="AM409" t="inlineStr"/>
+      <c r="AN409" t="inlineStr"/>
+      <c r="AO409" t="inlineStr"/>
+      <c r="AP409" t="inlineStr"/>
+      <c r="AQ409" t="inlineStr"/>
+      <c r="AR409" t="inlineStr"/>
+      <c r="AS409" t="inlineStr"/>
+      <c r="AT409" t="inlineStr"/>
+      <c r="AU409" t="inlineStr"/>
+      <c r="AV409" t="inlineStr"/>
+      <c r="AW409" t="inlineStr"/>
+      <c r="AX409" t="inlineStr"/>
+      <c r="AY409" t="inlineStr"/>
+      <c r="AZ409" t="inlineStr"/>
+      <c r="BA409" t="inlineStr"/>
+      <c r="BB409" t="inlineStr"/>
+      <c r="BC409" t="inlineStr"/>
+      <c r="BD409" t="inlineStr"/>
+      <c r="BE409" t="inlineStr"/>
+      <c r="BF409" t="inlineStr"/>
+      <c r="BG409" t="inlineStr"/>
+      <c r="BH409" t="inlineStr"/>
+      <c r="BI409" t="inlineStr"/>
+      <c r="BJ409" t="inlineStr"/>
+      <c r="BK409" t="inlineStr"/>
+      <c r="BL409" t="inlineStr"/>
+      <c r="BM409" t="inlineStr"/>
+      <c r="BN409" t="inlineStr"/>
+      <c r="BO409" t="inlineStr"/>
+      <c r="BP409" t="inlineStr"/>
+      <c r="BQ409" t="inlineStr"/>
+      <c r="BR409" t="inlineStr"/>
+      <c r="BS409" t="inlineStr"/>
+      <c r="BT409" t="inlineStr"/>
+      <c r="BU409" t="inlineStr"/>
+      <c r="BV409" t="inlineStr"/>
+      <c r="BW409" t="inlineStr"/>
+      <c r="BX409" t="inlineStr"/>
+      <c r="BY409" t="inlineStr"/>
+      <c r="BZ409" t="inlineStr"/>
+      <c r="CA409" t="inlineStr"/>
+      <c r="CB409" t="inlineStr"/>
+      <c r="CC409" t="inlineStr"/>
+      <c r="CD409" t="inlineStr"/>
+      <c r="CE409" t="inlineStr"/>
+      <c r="CF409" t="inlineStr"/>
+      <c r="CG409" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH409" t="inlineStr"/>
+      <c r="CI409" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ409" t="inlineStr"/>
+      <c r="CK409" t="inlineStr"/>
+      <c r="CL409" t="inlineStr"/>
+      <c r="CM409" t="inlineStr"/>
+      <c r="CN409" t="inlineStr"/>
+      <c r="CO409" t="inlineStr"/>
+      <c r="CP409" t="inlineStr"/>
+      <c r="CQ409" t="inlineStr"/>
+      <c r="CR409" t="inlineStr"/>
+      <c r="CS409" t="inlineStr"/>
+      <c r="CT409" t="inlineStr"/>
+      <c r="CU409" t="inlineStr"/>
+      <c r="CV409" t="inlineStr"/>
+      <c r="CW409" t="inlineStr"/>
+      <c r="CX409" t="inlineStr"/>
+      <c r="CY409" t="inlineStr"/>
+      <c r="CZ409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>cl:10394</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Desert</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
+      <c r="M410" t="inlineStr"/>
+      <c r="N410" t="inlineStr"/>
+      <c r="O410" t="inlineStr"/>
+      <c r="P410" t="inlineStr"/>
+      <c r="Q410" t="inlineStr"/>
+      <c r="R410" t="inlineStr"/>
+      <c r="S410" t="inlineStr"/>
+      <c r="T410" t="inlineStr"/>
+      <c r="U410" t="inlineStr"/>
+      <c r="V410" t="inlineStr"/>
+      <c r="W410" t="inlineStr"/>
+      <c r="X410" t="inlineStr"/>
+      <c r="Y410" t="inlineStr"/>
+      <c r="Z410" t="inlineStr"/>
+      <c r="AA410" t="inlineStr"/>
+      <c r="AB410" t="inlineStr"/>
+      <c r="AC410" t="inlineStr"/>
+      <c r="AD410" t="inlineStr"/>
+      <c r="AE410" t="inlineStr"/>
+      <c r="AF410" t="inlineStr"/>
+      <c r="AG410" t="inlineStr"/>
+      <c r="AH410" t="inlineStr"/>
+      <c r="AI410" t="inlineStr"/>
+      <c r="AJ410" t="inlineStr"/>
+      <c r="AK410" t="inlineStr"/>
+      <c r="AL410" t="inlineStr"/>
+      <c r="AM410" t="inlineStr"/>
+      <c r="AN410" t="inlineStr"/>
+      <c r="AO410" t="inlineStr"/>
+      <c r="AP410" t="inlineStr"/>
+      <c r="AQ410" t="inlineStr"/>
+      <c r="AR410" t="inlineStr"/>
+      <c r="AS410" t="inlineStr"/>
+      <c r="AT410" t="inlineStr"/>
+      <c r="AU410" t="inlineStr"/>
+      <c r="AV410" t="inlineStr"/>
+      <c r="AW410" t="inlineStr"/>
+      <c r="AX410" t="inlineStr"/>
+      <c r="AY410" t="inlineStr"/>
+      <c r="AZ410" t="inlineStr"/>
+      <c r="BA410" t="inlineStr"/>
+      <c r="BB410" t="inlineStr"/>
+      <c r="BC410" t="inlineStr"/>
+      <c r="BD410" t="inlineStr"/>
+      <c r="BE410" t="inlineStr"/>
+      <c r="BF410" t="inlineStr"/>
+      <c r="BG410" t="inlineStr"/>
+      <c r="BH410" t="inlineStr"/>
+      <c r="BI410" t="inlineStr"/>
+      <c r="BJ410" t="inlineStr"/>
+      <c r="BK410" t="inlineStr"/>
+      <c r="BL410" t="inlineStr"/>
+      <c r="BM410" t="inlineStr"/>
+      <c r="BN410" t="inlineStr"/>
+      <c r="BO410" t="inlineStr"/>
+      <c r="BP410" t="inlineStr"/>
+      <c r="BQ410" t="inlineStr"/>
+      <c r="BR410" t="inlineStr"/>
+      <c r="BS410" t="inlineStr"/>
+      <c r="BT410" t="inlineStr"/>
+      <c r="BU410" t="inlineStr"/>
+      <c r="BV410" t="inlineStr"/>
+      <c r="BW410" t="inlineStr"/>
+      <c r="BX410" t="inlineStr"/>
+      <c r="BY410" t="inlineStr"/>
+      <c r="BZ410" t="inlineStr"/>
+      <c r="CA410" t="inlineStr"/>
+      <c r="CB410" t="inlineStr"/>
+      <c r="CC410" t="inlineStr"/>
+      <c r="CD410" t="inlineStr"/>
+      <c r="CE410" t="inlineStr"/>
+      <c r="CF410" t="inlineStr"/>
+      <c r="CG410" t="inlineStr"/>
+      <c r="CH410" t="inlineStr"/>
+      <c r="CI410" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ410" t="inlineStr"/>
+      <c r="CK410" t="inlineStr"/>
+      <c r="CL410" t="inlineStr"/>
+      <c r="CM410" t="inlineStr"/>
+      <c r="CN410" t="inlineStr"/>
+      <c r="CO410" t="inlineStr"/>
+      <c r="CP410" t="inlineStr"/>
+      <c r="CQ410" t="inlineStr"/>
+      <c r="CR410" t="inlineStr"/>
+      <c r="CS410" t="inlineStr"/>
+      <c r="CT410" t="inlineStr"/>
+      <c r="CU410" t="inlineStr"/>
+      <c r="CV410" t="inlineStr"/>
+      <c r="CW410" t="inlineStr"/>
+      <c r="CX410" t="inlineStr"/>
+      <c r="CY410" t="inlineStr"/>
+      <c r="CZ410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>cl:10395</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Desert-scrub</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
+      <c r="M411" t="inlineStr"/>
+      <c r="N411" t="inlineStr"/>
+      <c r="O411" t="inlineStr"/>
+      <c r="P411" t="inlineStr"/>
+      <c r="Q411" t="inlineStr"/>
+      <c r="R411" t="inlineStr"/>
+      <c r="S411" t="inlineStr"/>
+      <c r="T411" t="inlineStr"/>
+      <c r="U411" t="inlineStr"/>
+      <c r="V411" t="inlineStr"/>
+      <c r="W411" t="inlineStr"/>
+      <c r="X411" t="inlineStr"/>
+      <c r="Y411" t="inlineStr"/>
+      <c r="Z411" t="inlineStr"/>
+      <c r="AA411" t="inlineStr"/>
+      <c r="AB411" t="inlineStr"/>
+      <c r="AC411" t="inlineStr"/>
+      <c r="AD411" t="inlineStr"/>
+      <c r="AE411" t="inlineStr"/>
+      <c r="AF411" t="inlineStr"/>
+      <c r="AG411" t="inlineStr"/>
+      <c r="AH411" t="inlineStr"/>
+      <c r="AI411" t="inlineStr"/>
+      <c r="AJ411" t="inlineStr"/>
+      <c r="AK411" t="inlineStr"/>
+      <c r="AL411" t="inlineStr"/>
+      <c r="AM411" t="inlineStr"/>
+      <c r="AN411" t="inlineStr"/>
+      <c r="AO411" t="inlineStr"/>
+      <c r="AP411" t="inlineStr"/>
+      <c r="AQ411" t="inlineStr"/>
+      <c r="AR411" t="inlineStr"/>
+      <c r="AS411" t="inlineStr"/>
+      <c r="AT411" t="inlineStr"/>
+      <c r="AU411" t="inlineStr"/>
+      <c r="AV411" t="inlineStr"/>
+      <c r="AW411" t="inlineStr"/>
+      <c r="AX411" t="inlineStr"/>
+      <c r="AY411" t="inlineStr"/>
+      <c r="AZ411" t="inlineStr"/>
+      <c r="BA411" t="inlineStr"/>
+      <c r="BB411" t="inlineStr"/>
+      <c r="BC411" t="inlineStr"/>
+      <c r="BD411" t="inlineStr"/>
+      <c r="BE411" t="inlineStr"/>
+      <c r="BF411" t="inlineStr"/>
+      <c r="BG411" t="inlineStr"/>
+      <c r="BH411" t="inlineStr"/>
+      <c r="BI411" t="inlineStr"/>
+      <c r="BJ411" t="inlineStr"/>
+      <c r="BK411" t="inlineStr"/>
+      <c r="BL411" t="inlineStr"/>
+      <c r="BM411" t="inlineStr"/>
+      <c r="BN411" t="inlineStr"/>
+      <c r="BO411" t="inlineStr"/>
+      <c r="BP411" t="inlineStr"/>
+      <c r="BQ411" t="inlineStr"/>
+      <c r="BR411" t="inlineStr"/>
+      <c r="BS411" t="inlineStr"/>
+      <c r="BT411" t="inlineStr"/>
+      <c r="BU411" t="inlineStr"/>
+      <c r="BV411" t="inlineStr"/>
+      <c r="BW411" t="inlineStr"/>
+      <c r="BX411" t="inlineStr"/>
+      <c r="BY411" t="inlineStr"/>
+      <c r="BZ411" t="inlineStr"/>
+      <c r="CA411" t="inlineStr"/>
+      <c r="CB411" t="inlineStr"/>
+      <c r="CC411" t="inlineStr"/>
+      <c r="CD411" t="inlineStr"/>
+      <c r="CE411" t="inlineStr"/>
+      <c r="CF411" t="inlineStr"/>
+      <c r="CG411" t="inlineStr"/>
+      <c r="CH411" t="inlineStr"/>
+      <c r="CI411" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ411" t="inlineStr"/>
+      <c r="CK411" t="inlineStr"/>
+      <c r="CL411" t="inlineStr"/>
+      <c r="CM411" t="inlineStr"/>
+      <c r="CN411" t="inlineStr"/>
+      <c r="CO411" t="inlineStr"/>
+      <c r="CP411" t="inlineStr"/>
+      <c r="CQ411" t="inlineStr"/>
+      <c r="CR411" t="inlineStr"/>
+      <c r="CS411" t="inlineStr"/>
+      <c r="CT411" t="inlineStr"/>
+      <c r="CU411" t="inlineStr"/>
+      <c r="CV411" t="inlineStr"/>
+      <c r="CW411" t="inlineStr"/>
+      <c r="CX411" t="inlineStr"/>
+      <c r="CY411" t="inlineStr"/>
+      <c r="CZ411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>cl:10396</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Grasslands</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
+      <c r="M412" t="inlineStr"/>
+      <c r="N412" t="inlineStr"/>
+      <c r="O412" t="inlineStr"/>
+      <c r="P412" t="inlineStr"/>
+      <c r="Q412" t="inlineStr"/>
+      <c r="R412" t="inlineStr"/>
+      <c r="S412" t="inlineStr"/>
+      <c r="T412" t="inlineStr"/>
+      <c r="U412" t="inlineStr"/>
+      <c r="V412" t="inlineStr"/>
+      <c r="W412" t="inlineStr"/>
+      <c r="X412" t="inlineStr"/>
+      <c r="Y412" t="inlineStr"/>
+      <c r="Z412" t="inlineStr"/>
+      <c r="AA412" t="inlineStr"/>
+      <c r="AB412" t="inlineStr"/>
+      <c r="AC412" t="inlineStr"/>
+      <c r="AD412" t="inlineStr"/>
+      <c r="AE412" t="inlineStr"/>
+      <c r="AF412" t="inlineStr"/>
+      <c r="AG412" t="inlineStr"/>
+      <c r="AH412" t="inlineStr"/>
+      <c r="AI412" t="inlineStr"/>
+      <c r="AJ412" t="inlineStr"/>
+      <c r="AK412" t="inlineStr"/>
+      <c r="AL412" t="inlineStr"/>
+      <c r="AM412" t="inlineStr"/>
+      <c r="AN412" t="inlineStr"/>
+      <c r="AO412" t="inlineStr"/>
+      <c r="AP412" t="inlineStr"/>
+      <c r="AQ412" t="inlineStr"/>
+      <c r="AR412" t="inlineStr"/>
+      <c r="AS412" t="inlineStr"/>
+      <c r="AT412" t="inlineStr"/>
+      <c r="AU412" t="inlineStr"/>
+      <c r="AV412" t="inlineStr"/>
+      <c r="AW412" t="inlineStr"/>
+      <c r="AX412" t="inlineStr"/>
+      <c r="AY412" t="inlineStr"/>
+      <c r="AZ412" t="inlineStr"/>
+      <c r="BA412" t="inlineStr"/>
+      <c r="BB412" t="inlineStr"/>
+      <c r="BC412" t="inlineStr"/>
+      <c r="BD412" t="inlineStr"/>
+      <c r="BE412" t="inlineStr"/>
+      <c r="BF412" t="inlineStr"/>
+      <c r="BG412" t="inlineStr"/>
+      <c r="BH412" t="inlineStr"/>
+      <c r="BI412" t="inlineStr"/>
+      <c r="BJ412" t="inlineStr"/>
+      <c r="BK412" t="inlineStr"/>
+      <c r="BL412" t="inlineStr"/>
+      <c r="BM412" t="inlineStr"/>
+      <c r="BN412" t="inlineStr"/>
+      <c r="BO412" t="inlineStr"/>
+      <c r="BP412" t="inlineStr"/>
+      <c r="BQ412" t="inlineStr"/>
+      <c r="BR412" t="inlineStr"/>
+      <c r="BS412" t="inlineStr"/>
+      <c r="BT412" t="inlineStr"/>
+      <c r="BU412" t="inlineStr"/>
+      <c r="BV412" t="inlineStr"/>
+      <c r="BW412" t="inlineStr"/>
+      <c r="BX412" t="inlineStr"/>
+      <c r="BY412" t="inlineStr"/>
+      <c r="BZ412" t="inlineStr"/>
+      <c r="CA412" t="inlineStr"/>
+      <c r="CB412" t="inlineStr"/>
+      <c r="CC412" t="inlineStr"/>
+      <c r="CD412" t="inlineStr"/>
+      <c r="CE412" t="inlineStr"/>
+      <c r="CF412" t="inlineStr"/>
+      <c r="CG412" t="inlineStr"/>
+      <c r="CH412" t="inlineStr"/>
+      <c r="CI412" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ412" t="inlineStr"/>
+      <c r="CK412" t="inlineStr"/>
+      <c r="CL412" t="inlineStr"/>
+      <c r="CM412" t="inlineStr"/>
+      <c r="CN412" t="inlineStr"/>
+      <c r="CO412" t="inlineStr"/>
+      <c r="CP412" t="inlineStr"/>
+      <c r="CQ412" t="inlineStr"/>
+      <c r="CR412" t="inlineStr"/>
+      <c r="CS412" t="inlineStr"/>
+      <c r="CT412" t="inlineStr"/>
+      <c r="CU412" t="inlineStr"/>
+      <c r="CV412" t="inlineStr"/>
+      <c r="CW412" t="inlineStr"/>
+      <c r="CX412" t="inlineStr"/>
+      <c r="CY412" t="inlineStr"/>
+      <c r="CZ412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>cl:10397</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Rainforest</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
+      <c r="M413" t="inlineStr"/>
+      <c r="N413" t="inlineStr"/>
+      <c r="O413" t="inlineStr"/>
+      <c r="P413" t="inlineStr"/>
+      <c r="Q413" t="inlineStr"/>
+      <c r="R413" t="inlineStr"/>
+      <c r="S413" t="inlineStr"/>
+      <c r="T413" t="inlineStr"/>
+      <c r="U413" t="inlineStr"/>
+      <c r="V413" t="inlineStr"/>
+      <c r="W413" t="inlineStr"/>
+      <c r="X413" t="inlineStr"/>
+      <c r="Y413" t="inlineStr"/>
+      <c r="Z413" t="inlineStr"/>
+      <c r="AA413" t="inlineStr"/>
+      <c r="AB413" t="inlineStr"/>
+      <c r="AC413" t="inlineStr"/>
+      <c r="AD413" t="inlineStr"/>
+      <c r="AE413" t="inlineStr"/>
+      <c r="AF413" t="inlineStr"/>
+      <c r="AG413" t="inlineStr"/>
+      <c r="AH413" t="inlineStr"/>
+      <c r="AI413" t="inlineStr"/>
+      <c r="AJ413" t="inlineStr"/>
+      <c r="AK413" t="inlineStr"/>
+      <c r="AL413" t="inlineStr"/>
+      <c r="AM413" t="inlineStr"/>
+      <c r="AN413" t="inlineStr"/>
+      <c r="AO413" t="inlineStr"/>
+      <c r="AP413" t="inlineStr"/>
+      <c r="AQ413" t="inlineStr"/>
+      <c r="AR413" t="inlineStr"/>
+      <c r="AS413" t="inlineStr"/>
+      <c r="AT413" t="inlineStr"/>
+      <c r="AU413" t="inlineStr"/>
+      <c r="AV413" t="inlineStr"/>
+      <c r="AW413" t="inlineStr"/>
+      <c r="AX413" t="inlineStr"/>
+      <c r="AY413" t="inlineStr"/>
+      <c r="AZ413" t="inlineStr"/>
+      <c r="BA413" t="inlineStr"/>
+      <c r="BB413" t="inlineStr"/>
+      <c r="BC413" t="inlineStr"/>
+      <c r="BD413" t="inlineStr"/>
+      <c r="BE413" t="inlineStr"/>
+      <c r="BF413" t="inlineStr"/>
+      <c r="BG413" t="inlineStr"/>
+      <c r="BH413" t="inlineStr"/>
+      <c r="BI413" t="inlineStr"/>
+      <c r="BJ413" t="inlineStr"/>
+      <c r="BK413" t="inlineStr"/>
+      <c r="BL413" t="inlineStr"/>
+      <c r="BM413" t="inlineStr"/>
+      <c r="BN413" t="inlineStr"/>
+      <c r="BO413" t="inlineStr"/>
+      <c r="BP413" t="inlineStr"/>
+      <c r="BQ413" t="inlineStr"/>
+      <c r="BR413" t="inlineStr"/>
+      <c r="BS413" t="inlineStr"/>
+      <c r="BT413" t="inlineStr"/>
+      <c r="BU413" t="inlineStr"/>
+      <c r="BV413" t="inlineStr"/>
+      <c r="BW413" t="inlineStr"/>
+      <c r="BX413" t="inlineStr"/>
+      <c r="BY413" t="inlineStr"/>
+      <c r="BZ413" t="inlineStr"/>
+      <c r="CA413" t="inlineStr"/>
+      <c r="CB413" t="inlineStr"/>
+      <c r="CC413" t="inlineStr"/>
+      <c r="CD413" t="inlineStr"/>
+      <c r="CE413" t="inlineStr"/>
+      <c r="CF413" t="inlineStr"/>
+      <c r="CG413" t="inlineStr"/>
+      <c r="CH413" t="inlineStr"/>
+      <c r="CI413" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ413" t="inlineStr"/>
+      <c r="CK413" t="inlineStr"/>
+      <c r="CL413" t="inlineStr"/>
+      <c r="CM413" t="inlineStr"/>
+      <c r="CN413" t="inlineStr"/>
+      <c r="CO413" t="inlineStr"/>
+      <c r="CP413" t="inlineStr"/>
+      <c r="CQ413" t="inlineStr"/>
+      <c r="CR413" t="inlineStr"/>
+      <c r="CS413" t="inlineStr"/>
+      <c r="CT413" t="inlineStr"/>
+      <c r="CU413" t="inlineStr"/>
+      <c r="CV413" t="inlineStr"/>
+      <c r="CW413" t="inlineStr"/>
+      <c r="CX413" t="inlineStr"/>
+      <c r="CY413" t="inlineStr"/>
+      <c r="CZ413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>cl:10398</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Savanna</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="inlineStr"/>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
+      <c r="M414" t="inlineStr"/>
+      <c r="N414" t="inlineStr"/>
+      <c r="O414" t="inlineStr"/>
+      <c r="P414" t="inlineStr"/>
+      <c r="Q414" t="inlineStr"/>
+      <c r="R414" t="inlineStr"/>
+      <c r="S414" t="inlineStr"/>
+      <c r="T414" t="inlineStr"/>
+      <c r="U414" t="inlineStr"/>
+      <c r="V414" t="inlineStr"/>
+      <c r="W414" t="inlineStr"/>
+      <c r="X414" t="inlineStr"/>
+      <c r="Y414" t="inlineStr"/>
+      <c r="Z414" t="inlineStr"/>
+      <c r="AA414" t="inlineStr"/>
+      <c r="AB414" t="inlineStr"/>
+      <c r="AC414" t="inlineStr"/>
+      <c r="AD414" t="inlineStr"/>
+      <c r="AE414" t="inlineStr"/>
+      <c r="AF414" t="inlineStr"/>
+      <c r="AG414" t="inlineStr"/>
+      <c r="AH414" t="inlineStr"/>
+      <c r="AI414" t="inlineStr"/>
+      <c r="AJ414" t="inlineStr"/>
+      <c r="AK414" t="inlineStr"/>
+      <c r="AL414" t="inlineStr"/>
+      <c r="AM414" t="inlineStr"/>
+      <c r="AN414" t="inlineStr"/>
+      <c r="AO414" t="inlineStr"/>
+      <c r="AP414" t="inlineStr"/>
+      <c r="AQ414" t="inlineStr"/>
+      <c r="AR414" t="inlineStr"/>
+      <c r="AS414" t="inlineStr"/>
+      <c r="AT414" t="inlineStr"/>
+      <c r="AU414" t="inlineStr"/>
+      <c r="AV414" t="inlineStr"/>
+      <c r="AW414" t="inlineStr"/>
+      <c r="AX414" t="inlineStr"/>
+      <c r="AY414" t="inlineStr"/>
+      <c r="AZ414" t="inlineStr"/>
+      <c r="BA414" t="inlineStr"/>
+      <c r="BB414" t="inlineStr"/>
+      <c r="BC414" t="inlineStr"/>
+      <c r="BD414" t="inlineStr"/>
+      <c r="BE414" t="inlineStr"/>
+      <c r="BF414" t="inlineStr"/>
+      <c r="BG414" t="inlineStr"/>
+      <c r="BH414" t="inlineStr"/>
+      <c r="BI414" t="inlineStr"/>
+      <c r="BJ414" t="inlineStr"/>
+      <c r="BK414" t="inlineStr"/>
+      <c r="BL414" t="inlineStr"/>
+      <c r="BM414" t="inlineStr"/>
+      <c r="BN414" t="inlineStr"/>
+      <c r="BO414" t="inlineStr"/>
+      <c r="BP414" t="inlineStr"/>
+      <c r="BQ414" t="inlineStr"/>
+      <c r="BR414" t="inlineStr"/>
+      <c r="BS414" t="inlineStr"/>
+      <c r="BT414" t="inlineStr"/>
+      <c r="BU414" t="inlineStr"/>
+      <c r="BV414" t="inlineStr"/>
+      <c r="BW414" t="inlineStr"/>
+      <c r="BX414" t="inlineStr"/>
+      <c r="BY414" t="inlineStr"/>
+      <c r="BZ414" t="inlineStr"/>
+      <c r="CA414" t="inlineStr"/>
+      <c r="CB414" t="inlineStr"/>
+      <c r="CC414" t="inlineStr"/>
+      <c r="CD414" t="inlineStr"/>
+      <c r="CE414" t="inlineStr"/>
+      <c r="CF414" t="inlineStr"/>
+      <c r="CG414" t="inlineStr"/>
+      <c r="CH414" t="inlineStr"/>
+      <c r="CI414" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ414" t="inlineStr"/>
+      <c r="CK414" t="inlineStr"/>
+      <c r="CL414" t="inlineStr"/>
+      <c r="CM414" t="inlineStr"/>
+      <c r="CN414" t="inlineStr"/>
+      <c r="CO414" t="inlineStr"/>
+      <c r="CP414" t="inlineStr"/>
+      <c r="CQ414" t="inlineStr"/>
+      <c r="CR414" t="inlineStr"/>
+      <c r="CS414" t="inlineStr"/>
+      <c r="CT414" t="inlineStr"/>
+      <c r="CU414" t="inlineStr"/>
+      <c r="CV414" t="inlineStr"/>
+      <c r="CW414" t="inlineStr"/>
+      <c r="CX414" t="inlineStr"/>
+      <c r="CY414" t="inlineStr"/>
+      <c r="CZ414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>cl:10399</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr"/>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
+      <c r="M415" t="inlineStr"/>
+      <c r="N415" t="inlineStr"/>
+      <c r="O415" t="inlineStr"/>
+      <c r="P415" t="inlineStr"/>
+      <c r="Q415" t="inlineStr"/>
+      <c r="R415" t="inlineStr"/>
+      <c r="S415" t="inlineStr"/>
+      <c r="T415" t="inlineStr"/>
+      <c r="U415" t="inlineStr"/>
+      <c r="V415" t="inlineStr"/>
+      <c r="W415" t="inlineStr"/>
+      <c r="X415" t="inlineStr"/>
+      <c r="Y415" t="inlineStr"/>
+      <c r="Z415" t="inlineStr"/>
+      <c r="AA415" t="inlineStr"/>
+      <c r="AB415" t="inlineStr"/>
+      <c r="AC415" t="inlineStr"/>
+      <c r="AD415" t="inlineStr"/>
+      <c r="AE415" t="inlineStr"/>
+      <c r="AF415" t="inlineStr"/>
+      <c r="AG415" t="inlineStr"/>
+      <c r="AH415" t="inlineStr"/>
+      <c r="AI415" t="inlineStr"/>
+      <c r="AJ415" t="inlineStr"/>
+      <c r="AK415" t="inlineStr"/>
+      <c r="AL415" t="inlineStr"/>
+      <c r="AM415" t="inlineStr"/>
+      <c r="AN415" t="inlineStr"/>
+      <c r="AO415" t="inlineStr"/>
+      <c r="AP415" t="inlineStr"/>
+      <c r="AQ415" t="inlineStr"/>
+      <c r="AR415" t="inlineStr"/>
+      <c r="AS415" t="inlineStr"/>
+      <c r="AT415" t="inlineStr"/>
+      <c r="AU415" t="inlineStr"/>
+      <c r="AV415" t="inlineStr"/>
+      <c r="AW415" t="inlineStr"/>
+      <c r="AX415" t="inlineStr"/>
+      <c r="AY415" t="inlineStr"/>
+      <c r="AZ415" t="inlineStr"/>
+      <c r="BA415" t="inlineStr"/>
+      <c r="BB415" t="inlineStr"/>
+      <c r="BC415" t="inlineStr"/>
+      <c r="BD415" t="inlineStr"/>
+      <c r="BE415" t="inlineStr"/>
+      <c r="BF415" t="inlineStr"/>
+      <c r="BG415" t="inlineStr"/>
+      <c r="BH415" t="inlineStr"/>
+      <c r="BI415" t="inlineStr"/>
+      <c r="BJ415" t="inlineStr"/>
+      <c r="BK415" t="inlineStr"/>
+      <c r="BL415" t="inlineStr"/>
+      <c r="BM415" t="inlineStr"/>
+      <c r="BN415" t="inlineStr"/>
+      <c r="BO415" t="inlineStr"/>
+      <c r="BP415" t="inlineStr"/>
+      <c r="BQ415" t="inlineStr"/>
+      <c r="BR415" t="inlineStr"/>
+      <c r="BS415" t="inlineStr"/>
+      <c r="BT415" t="inlineStr"/>
+      <c r="BU415" t="inlineStr"/>
+      <c r="BV415" t="inlineStr"/>
+      <c r="BW415" t="inlineStr"/>
+      <c r="BX415" t="inlineStr"/>
+      <c r="BY415" t="inlineStr"/>
+      <c r="BZ415" t="inlineStr"/>
+      <c r="CA415" t="inlineStr"/>
+      <c r="CB415" t="inlineStr"/>
+      <c r="CC415" t="inlineStr"/>
+      <c r="CD415" t="inlineStr"/>
+      <c r="CE415" t="inlineStr"/>
+      <c r="CF415" t="inlineStr"/>
+      <c r="CG415" t="inlineStr"/>
+      <c r="CH415" t="inlineStr"/>
+      <c r="CI415" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ415" t="inlineStr"/>
+      <c r="CK415" t="inlineStr"/>
+      <c r="CL415" t="inlineStr"/>
+      <c r="CM415" t="inlineStr"/>
+      <c r="CN415" t="inlineStr"/>
+      <c r="CO415" t="inlineStr"/>
+      <c r="CP415" t="inlineStr"/>
+      <c r="CQ415" t="inlineStr"/>
+      <c r="CR415" t="inlineStr"/>
+      <c r="CS415" t="inlineStr"/>
+      <c r="CT415" t="inlineStr"/>
+      <c r="CU415" t="inlineStr"/>
+      <c r="CV415" t="inlineStr"/>
+      <c r="CW415" t="inlineStr"/>
+      <c r="CX415" t="inlineStr"/>
+      <c r="CY415" t="inlineStr"/>
+      <c r="CZ415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>cl:10400</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Tundra</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
+      <c r="M416" t="inlineStr"/>
+      <c r="N416" t="inlineStr"/>
+      <c r="O416" t="inlineStr"/>
+      <c r="P416" t="inlineStr"/>
+      <c r="Q416" t="inlineStr"/>
+      <c r="R416" t="inlineStr"/>
+      <c r="S416" t="inlineStr"/>
+      <c r="T416" t="inlineStr"/>
+      <c r="U416" t="inlineStr"/>
+      <c r="V416" t="inlineStr"/>
+      <c r="W416" t="inlineStr"/>
+      <c r="X416" t="inlineStr"/>
+      <c r="Y416" t="inlineStr"/>
+      <c r="Z416" t="inlineStr"/>
+      <c r="AA416" t="inlineStr"/>
+      <c r="AB416" t="inlineStr"/>
+      <c r="AC416" t="inlineStr"/>
+      <c r="AD416" t="inlineStr"/>
+      <c r="AE416" t="inlineStr"/>
+      <c r="AF416" t="inlineStr"/>
+      <c r="AG416" t="inlineStr"/>
+      <c r="AH416" t="inlineStr"/>
+      <c r="AI416" t="inlineStr"/>
+      <c r="AJ416" t="inlineStr"/>
+      <c r="AK416" t="inlineStr"/>
+      <c r="AL416" t="inlineStr"/>
+      <c r="AM416" t="inlineStr"/>
+      <c r="AN416" t="inlineStr"/>
+      <c r="AO416" t="inlineStr"/>
+      <c r="AP416" t="inlineStr"/>
+      <c r="AQ416" t="inlineStr"/>
+      <c r="AR416" t="inlineStr"/>
+      <c r="AS416" t="inlineStr"/>
+      <c r="AT416" t="inlineStr"/>
+      <c r="AU416" t="inlineStr"/>
+      <c r="AV416" t="inlineStr"/>
+      <c r="AW416" t="inlineStr"/>
+      <c r="AX416" t="inlineStr"/>
+      <c r="AY416" t="inlineStr"/>
+      <c r="AZ416" t="inlineStr"/>
+      <c r="BA416" t="inlineStr"/>
+      <c r="BB416" t="inlineStr"/>
+      <c r="BC416" t="inlineStr"/>
+      <c r="BD416" t="inlineStr"/>
+      <c r="BE416" t="inlineStr"/>
+      <c r="BF416" t="inlineStr"/>
+      <c r="BG416" t="inlineStr"/>
+      <c r="BH416" t="inlineStr"/>
+      <c r="BI416" t="inlineStr"/>
+      <c r="BJ416" t="inlineStr"/>
+      <c r="BK416" t="inlineStr"/>
+      <c r="BL416" t="inlineStr"/>
+      <c r="BM416" t="inlineStr"/>
+      <c r="BN416" t="inlineStr"/>
+      <c r="BO416" t="inlineStr"/>
+      <c r="BP416" t="inlineStr"/>
+      <c r="BQ416" t="inlineStr"/>
+      <c r="BR416" t="inlineStr"/>
+      <c r="BS416" t="inlineStr"/>
+      <c r="BT416" t="inlineStr"/>
+      <c r="BU416" t="inlineStr"/>
+      <c r="BV416" t="inlineStr"/>
+      <c r="BW416" t="inlineStr"/>
+      <c r="BX416" t="inlineStr"/>
+      <c r="BY416" t="inlineStr"/>
+      <c r="BZ416" t="inlineStr"/>
+      <c r="CA416" t="inlineStr"/>
+      <c r="CB416" t="inlineStr"/>
+      <c r="CC416" t="inlineStr"/>
+      <c r="CD416" t="inlineStr"/>
+      <c r="CE416" t="inlineStr"/>
+      <c r="CF416" t="inlineStr"/>
+      <c r="CG416" t="inlineStr"/>
+      <c r="CH416" t="inlineStr"/>
+      <c r="CI416" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ416" t="inlineStr"/>
+      <c r="CK416" t="inlineStr"/>
+      <c r="CL416" t="inlineStr"/>
+      <c r="CM416" t="inlineStr"/>
+      <c r="CN416" t="inlineStr"/>
+      <c r="CO416" t="inlineStr"/>
+      <c r="CP416" t="inlineStr"/>
+      <c r="CQ416" t="inlineStr"/>
+      <c r="CR416" t="inlineStr"/>
+      <c r="CS416" t="inlineStr"/>
+      <c r="CT416" t="inlineStr"/>
+      <c r="CU416" t="inlineStr"/>
+      <c r="CV416" t="inlineStr"/>
+      <c r="CW416" t="inlineStr"/>
+      <c r="CX416" t="inlineStr"/>
+      <c r="CY416" t="inlineStr"/>
+      <c r="CZ416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>cl:10401</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>cl:10387</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
+      <c r="M417" t="inlineStr"/>
+      <c r="N417" t="inlineStr"/>
+      <c r="O417" t="inlineStr"/>
+      <c r="P417" t="inlineStr"/>
+      <c r="Q417" t="inlineStr"/>
+      <c r="R417" t="inlineStr"/>
+      <c r="S417" t="inlineStr"/>
+      <c r="T417" t="inlineStr"/>
+      <c r="U417" t="inlineStr"/>
+      <c r="V417" t="inlineStr"/>
+      <c r="W417" t="inlineStr"/>
+      <c r="X417" t="inlineStr"/>
+      <c r="Y417" t="inlineStr"/>
+      <c r="Z417" t="inlineStr"/>
+      <c r="AA417" t="inlineStr"/>
+      <c r="AB417" t="inlineStr"/>
+      <c r="AC417" t="inlineStr"/>
+      <c r="AD417" t="inlineStr"/>
+      <c r="AE417" t="inlineStr"/>
+      <c r="AF417" t="inlineStr"/>
+      <c r="AG417" t="inlineStr"/>
+      <c r="AH417" t="inlineStr"/>
+      <c r="AI417" t="inlineStr"/>
+      <c r="AJ417" t="inlineStr"/>
+      <c r="AK417" t="inlineStr"/>
+      <c r="AL417" t="inlineStr"/>
+      <c r="AM417" t="inlineStr"/>
+      <c r="AN417" t="inlineStr"/>
+      <c r="AO417" t="inlineStr"/>
+      <c r="AP417" t="inlineStr"/>
+      <c r="AQ417" t="inlineStr"/>
+      <c r="AR417" t="inlineStr"/>
+      <c r="AS417" t="inlineStr"/>
+      <c r="AT417" t="inlineStr"/>
+      <c r="AU417" t="inlineStr"/>
+      <c r="AV417" t="inlineStr"/>
+      <c r="AW417" t="inlineStr"/>
+      <c r="AX417" t="inlineStr"/>
+      <c r="AY417" t="inlineStr"/>
+      <c r="AZ417" t="inlineStr"/>
+      <c r="BA417" t="inlineStr"/>
+      <c r="BB417" t="inlineStr"/>
+      <c r="BC417" t="inlineStr"/>
+      <c r="BD417" t="inlineStr"/>
+      <c r="BE417" t="inlineStr"/>
+      <c r="BF417" t="inlineStr"/>
+      <c r="BG417" t="inlineStr"/>
+      <c r="BH417" t="inlineStr"/>
+      <c r="BI417" t="inlineStr"/>
+      <c r="BJ417" t="inlineStr"/>
+      <c r="BK417" t="inlineStr"/>
+      <c r="BL417" t="inlineStr"/>
+      <c r="BM417" t="inlineStr"/>
+      <c r="BN417" t="inlineStr"/>
+      <c r="BO417" t="inlineStr"/>
+      <c r="BP417" t="inlineStr"/>
+      <c r="BQ417" t="inlineStr"/>
+      <c r="BR417" t="inlineStr"/>
+      <c r="BS417" t="inlineStr"/>
+      <c r="BT417" t="inlineStr"/>
+      <c r="BU417" t="inlineStr"/>
+      <c r="BV417" t="inlineStr"/>
+      <c r="BW417" t="inlineStr"/>
+      <c r="BX417" t="inlineStr"/>
+      <c r="BY417" t="inlineStr"/>
+      <c r="BZ417" t="inlineStr"/>
+      <c r="CA417" t="inlineStr"/>
+      <c r="CB417" t="inlineStr"/>
+      <c r="CC417" t="inlineStr"/>
+      <c r="CD417" t="inlineStr"/>
+      <c r="CE417" t="inlineStr"/>
+      <c r="CF417" t="inlineStr"/>
+      <c r="CG417" t="inlineStr"/>
+      <c r="CH417" t="inlineStr"/>
+      <c r="CI417" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ417" t="inlineStr"/>
+      <c r="CK417" t="inlineStr"/>
+      <c r="CL417" t="inlineStr"/>
+      <c r="CM417" t="inlineStr"/>
+      <c r="CN417" t="inlineStr"/>
+      <c r="CO417" t="inlineStr"/>
+      <c r="CP417" t="inlineStr"/>
+      <c r="CQ417" t="inlineStr"/>
+      <c r="CR417" t="inlineStr"/>
+      <c r="CS417" t="inlineStr"/>
+      <c r="CT417" t="inlineStr"/>
+      <c r="CU417" t="inlineStr"/>
+      <c r="CV417" t="inlineStr"/>
+      <c r="CW417" t="inlineStr"/>
+      <c r="CX417" t="inlineStr"/>
+      <c r="CY417" t="inlineStr"/>
+      <c r="CZ417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>cl:10402</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>access type</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr"/>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
+      <c r="M418" t="inlineStr"/>
+      <c r="N418" t="inlineStr"/>
+      <c r="O418" t="inlineStr"/>
+      <c r="P418" t="inlineStr"/>
+      <c r="Q418" t="inlineStr"/>
+      <c r="R418" t="inlineStr"/>
+      <c r="S418" t="inlineStr"/>
+      <c r="T418" t="inlineStr"/>
+      <c r="U418" t="inlineStr"/>
+      <c r="V418" t="inlineStr"/>
+      <c r="W418" t="inlineStr"/>
+      <c r="X418" t="inlineStr"/>
+      <c r="Y418" t="inlineStr"/>
+      <c r="Z418" t="inlineStr"/>
+      <c r="AA418" t="inlineStr"/>
+      <c r="AB418" t="inlineStr"/>
+      <c r="AC418" t="inlineStr"/>
+      <c r="AD418" t="inlineStr"/>
+      <c r="AE418" t="inlineStr"/>
+      <c r="AF418" t="inlineStr"/>
+      <c r="AG418" t="inlineStr"/>
+      <c r="AH418" t="inlineStr"/>
+      <c r="AI418" t="inlineStr"/>
+      <c r="AJ418" t="inlineStr"/>
+      <c r="AK418" t="inlineStr"/>
+      <c r="AL418" t="inlineStr"/>
+      <c r="AM418" t="inlineStr"/>
+      <c r="AN418" t="inlineStr"/>
+      <c r="AO418" t="inlineStr"/>
+      <c r="AP418" t="inlineStr"/>
+      <c r="AQ418" t="inlineStr"/>
+      <c r="AR418" t="inlineStr"/>
+      <c r="AS418" t="inlineStr"/>
+      <c r="AT418" t="inlineStr"/>
+      <c r="AU418" t="inlineStr"/>
+      <c r="AV418" t="inlineStr"/>
+      <c r="AW418" t="inlineStr"/>
+      <c r="AX418" t="inlineStr"/>
+      <c r="AY418" t="inlineStr"/>
+      <c r="AZ418" t="inlineStr"/>
+      <c r="BA418" t="inlineStr"/>
+      <c r="BB418" t="inlineStr"/>
+      <c r="BC418" t="inlineStr"/>
+      <c r="BD418" t="inlineStr"/>
+      <c r="BE418" t="inlineStr"/>
+      <c r="BF418" t="inlineStr"/>
+      <c r="BG418" t="inlineStr"/>
+      <c r="BH418" t="inlineStr"/>
+      <c r="BI418" t="inlineStr"/>
+      <c r="BJ418" t="inlineStr"/>
+      <c r="BK418" t="inlineStr"/>
+      <c r="BL418" t="inlineStr"/>
+      <c r="BM418" t="inlineStr"/>
+      <c r="BN418" t="inlineStr"/>
+      <c r="BO418" t="inlineStr"/>
+      <c r="BP418" t="inlineStr"/>
+      <c r="BQ418" t="inlineStr"/>
+      <c r="BR418" t="inlineStr"/>
+      <c r="BS418" t="inlineStr"/>
+      <c r="BT418" t="inlineStr"/>
+      <c r="BU418" t="inlineStr"/>
+      <c r="BV418" t="inlineStr"/>
+      <c r="BW418" t="inlineStr"/>
+      <c r="BX418" t="inlineStr"/>
+      <c r="BY418" t="inlineStr"/>
+      <c r="BZ418" t="inlineStr"/>
+      <c r="CA418" t="inlineStr"/>
+      <c r="CB418" t="inlineStr"/>
+      <c r="CC418" t="inlineStr"/>
+      <c r="CD418" t="inlineStr"/>
+      <c r="CE418" t="inlineStr"/>
+      <c r="CF418" t="inlineStr"/>
+      <c r="CG418" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH418" t="inlineStr"/>
+      <c r="CI418" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ418" t="inlineStr"/>
+      <c r="CK418" t="inlineStr"/>
+      <c r="CL418" t="inlineStr"/>
+      <c r="CM418" t="inlineStr"/>
+      <c r="CN418" t="inlineStr"/>
+      <c r="CO418" t="inlineStr"/>
+      <c r="CP418" t="inlineStr"/>
+      <c r="CQ418" t="inlineStr"/>
+      <c r="CR418" t="inlineStr"/>
+      <c r="CS418" t="inlineStr"/>
+      <c r="CT418" t="inlineStr"/>
+      <c r="CU418" t="inlineStr"/>
+      <c r="CV418" t="inlineStr"/>
+      <c r="CW418" t="inlineStr"/>
+      <c r="CX418" t="inlineStr"/>
+      <c r="CY418" t="inlineStr"/>
+      <c r="CZ418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>cl:10403</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>cable car</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr"/>
+      <c r="D419" t="inlineStr"/>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>cl:10402</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr"/>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
+      <c r="M419" t="inlineStr"/>
+      <c r="N419" t="inlineStr"/>
+      <c r="O419" t="inlineStr"/>
+      <c r="P419" t="inlineStr"/>
+      <c r="Q419" t="inlineStr"/>
+      <c r="R419" t="inlineStr"/>
+      <c r="S419" t="inlineStr"/>
+      <c r="T419" t="inlineStr"/>
+      <c r="U419" t="inlineStr"/>
+      <c r="V419" t="inlineStr"/>
+      <c r="W419" t="inlineStr"/>
+      <c r="X419" t="inlineStr"/>
+      <c r="Y419" t="inlineStr"/>
+      <c r="Z419" t="inlineStr"/>
+      <c r="AA419" t="inlineStr"/>
+      <c r="AB419" t="inlineStr"/>
+      <c r="AC419" t="inlineStr"/>
+      <c r="AD419" t="inlineStr"/>
+      <c r="AE419" t="inlineStr"/>
+      <c r="AF419" t="inlineStr"/>
+      <c r="AG419" t="inlineStr"/>
+      <c r="AH419" t="inlineStr"/>
+      <c r="AI419" t="inlineStr"/>
+      <c r="AJ419" t="inlineStr"/>
+      <c r="AK419" t="inlineStr"/>
+      <c r="AL419" t="inlineStr"/>
+      <c r="AM419" t="inlineStr"/>
+      <c r="AN419" t="inlineStr"/>
+      <c r="AO419" t="inlineStr"/>
+      <c r="AP419" t="inlineStr"/>
+      <c r="AQ419" t="inlineStr"/>
+      <c r="AR419" t="inlineStr"/>
+      <c r="AS419" t="inlineStr"/>
+      <c r="AT419" t="inlineStr"/>
+      <c r="AU419" t="inlineStr"/>
+      <c r="AV419" t="inlineStr"/>
+      <c r="AW419" t="inlineStr"/>
+      <c r="AX419" t="inlineStr"/>
+      <c r="AY419" t="inlineStr"/>
+      <c r="AZ419" t="inlineStr"/>
+      <c r="BA419" t="inlineStr"/>
+      <c r="BB419" t="inlineStr"/>
+      <c r="BC419" t="inlineStr"/>
+      <c r="BD419" t="inlineStr"/>
+      <c r="BE419" t="inlineStr"/>
+      <c r="BF419" t="inlineStr"/>
+      <c r="BG419" t="inlineStr"/>
+      <c r="BH419" t="inlineStr"/>
+      <c r="BI419" t="inlineStr"/>
+      <c r="BJ419" t="inlineStr"/>
+      <c r="BK419" t="inlineStr"/>
+      <c r="BL419" t="inlineStr"/>
+      <c r="BM419" t="inlineStr"/>
+      <c r="BN419" t="inlineStr"/>
+      <c r="BO419" t="inlineStr"/>
+      <c r="BP419" t="inlineStr"/>
+      <c r="BQ419" t="inlineStr"/>
+      <c r="BR419" t="inlineStr"/>
+      <c r="BS419" t="inlineStr"/>
+      <c r="BT419" t="inlineStr"/>
+      <c r="BU419" t="inlineStr"/>
+      <c r="BV419" t="inlineStr"/>
+      <c r="BW419" t="inlineStr"/>
+      <c r="BX419" t="inlineStr"/>
+      <c r="BY419" t="inlineStr"/>
+      <c r="BZ419" t="inlineStr"/>
+      <c r="CA419" t="inlineStr"/>
+      <c r="CB419" t="inlineStr"/>
+      <c r="CC419" t="inlineStr"/>
+      <c r="CD419" t="inlineStr"/>
+      <c r="CE419" t="inlineStr"/>
+      <c r="CF419" t="inlineStr"/>
+      <c r="CG419" t="inlineStr"/>
+      <c r="CH419" t="inlineStr"/>
+      <c r="CI419" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ419" t="inlineStr"/>
+      <c r="CK419" t="inlineStr"/>
+      <c r="CL419" t="inlineStr"/>
+      <c r="CM419" t="inlineStr"/>
+      <c r="CN419" t="inlineStr"/>
+      <c r="CO419" t="inlineStr"/>
+      <c r="CP419" t="inlineStr"/>
+      <c r="CQ419" t="inlineStr"/>
+      <c r="CR419" t="inlineStr"/>
+      <c r="CS419" t="inlineStr"/>
+      <c r="CT419" t="inlineStr"/>
+      <c r="CU419" t="inlineStr"/>
+      <c r="CV419" t="inlineStr"/>
+      <c r="CW419" t="inlineStr"/>
+      <c r="CX419" t="inlineStr"/>
+      <c r="CY419" t="inlineStr"/>
+      <c r="CZ419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>cl:10404</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>dirt road</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>cl:10402</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
+      <c r="M420" t="inlineStr"/>
+      <c r="N420" t="inlineStr"/>
+      <c r="O420" t="inlineStr"/>
+      <c r="P420" t="inlineStr"/>
+      <c r="Q420" t="inlineStr"/>
+      <c r="R420" t="inlineStr"/>
+      <c r="S420" t="inlineStr"/>
+      <c r="T420" t="inlineStr"/>
+      <c r="U420" t="inlineStr"/>
+      <c r="V420" t="inlineStr"/>
+      <c r="W420" t="inlineStr"/>
+      <c r="X420" t="inlineStr"/>
+      <c r="Y420" t="inlineStr"/>
+      <c r="Z420" t="inlineStr"/>
+      <c r="AA420" t="inlineStr"/>
+      <c r="AB420" t="inlineStr"/>
+      <c r="AC420" t="inlineStr"/>
+      <c r="AD420" t="inlineStr"/>
+      <c r="AE420" t="inlineStr"/>
+      <c r="AF420" t="inlineStr"/>
+      <c r="AG420" t="inlineStr"/>
+      <c r="AH420" t="inlineStr"/>
+      <c r="AI420" t="inlineStr"/>
+      <c r="AJ420" t="inlineStr"/>
+      <c r="AK420" t="inlineStr"/>
+      <c r="AL420" t="inlineStr"/>
+      <c r="AM420" t="inlineStr"/>
+      <c r="AN420" t="inlineStr"/>
+      <c r="AO420" t="inlineStr"/>
+      <c r="AP420" t="inlineStr"/>
+      <c r="AQ420" t="inlineStr"/>
+      <c r="AR420" t="inlineStr"/>
+      <c r="AS420" t="inlineStr"/>
+      <c r="AT420" t="inlineStr"/>
+      <c r="AU420" t="inlineStr"/>
+      <c r="AV420" t="inlineStr"/>
+      <c r="AW420" t="inlineStr"/>
+      <c r="AX420" t="inlineStr"/>
+      <c r="AY420" t="inlineStr"/>
+      <c r="AZ420" t="inlineStr"/>
+      <c r="BA420" t="inlineStr"/>
+      <c r="BB420" t="inlineStr"/>
+      <c r="BC420" t="inlineStr"/>
+      <c r="BD420" t="inlineStr"/>
+      <c r="BE420" t="inlineStr"/>
+      <c r="BF420" t="inlineStr"/>
+      <c r="BG420" t="inlineStr"/>
+      <c r="BH420" t="inlineStr"/>
+      <c r="BI420" t="inlineStr"/>
+      <c r="BJ420" t="inlineStr"/>
+      <c r="BK420" t="inlineStr"/>
+      <c r="BL420" t="inlineStr"/>
+      <c r="BM420" t="inlineStr"/>
+      <c r="BN420" t="inlineStr"/>
+      <c r="BO420" t="inlineStr"/>
+      <c r="BP420" t="inlineStr"/>
+      <c r="BQ420" t="inlineStr"/>
+      <c r="BR420" t="inlineStr"/>
+      <c r="BS420" t="inlineStr"/>
+      <c r="BT420" t="inlineStr"/>
+      <c r="BU420" t="inlineStr"/>
+      <c r="BV420" t="inlineStr"/>
+      <c r="BW420" t="inlineStr"/>
+      <c r="BX420" t="inlineStr"/>
+      <c r="BY420" t="inlineStr"/>
+      <c r="BZ420" t="inlineStr"/>
+      <c r="CA420" t="inlineStr"/>
+      <c r="CB420" t="inlineStr"/>
+      <c r="CC420" t="inlineStr"/>
+      <c r="CD420" t="inlineStr"/>
+      <c r="CE420" t="inlineStr"/>
+      <c r="CF420" t="inlineStr"/>
+      <c r="CG420" t="inlineStr"/>
+      <c r="CH420" t="inlineStr"/>
+      <c r="CI420" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ420" t="inlineStr"/>
+      <c r="CK420" t="inlineStr"/>
+      <c r="CL420" t="inlineStr"/>
+      <c r="CM420" t="inlineStr"/>
+      <c r="CN420" t="inlineStr"/>
+      <c r="CO420" t="inlineStr"/>
+      <c r="CP420" t="inlineStr"/>
+      <c r="CQ420" t="inlineStr"/>
+      <c r="CR420" t="inlineStr"/>
+      <c r="CS420" t="inlineStr"/>
+      <c r="CT420" t="inlineStr"/>
+      <c r="CU420" t="inlineStr"/>
+      <c r="CV420" t="inlineStr"/>
+      <c r="CW420" t="inlineStr"/>
+      <c r="CX420" t="inlineStr"/>
+      <c r="CY420" t="inlineStr"/>
+      <c r="CZ420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>cl:10405</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>trail</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>cl:10402</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
+      <c r="M421" t="inlineStr"/>
+      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr"/>
+      <c r="P421" t="inlineStr"/>
+      <c r="Q421" t="inlineStr"/>
+      <c r="R421" t="inlineStr"/>
+      <c r="S421" t="inlineStr"/>
+      <c r="T421" t="inlineStr"/>
+      <c r="U421" t="inlineStr"/>
+      <c r="V421" t="inlineStr"/>
+      <c r="W421" t="inlineStr"/>
+      <c r="X421" t="inlineStr"/>
+      <c r="Y421" t="inlineStr"/>
+      <c r="Z421" t="inlineStr"/>
+      <c r="AA421" t="inlineStr"/>
+      <c r="AB421" t="inlineStr"/>
+      <c r="AC421" t="inlineStr"/>
+      <c r="AD421" t="inlineStr"/>
+      <c r="AE421" t="inlineStr"/>
+      <c r="AF421" t="inlineStr"/>
+      <c r="AG421" t="inlineStr"/>
+      <c r="AH421" t="inlineStr"/>
+      <c r="AI421" t="inlineStr"/>
+      <c r="AJ421" t="inlineStr"/>
+      <c r="AK421" t="inlineStr"/>
+      <c r="AL421" t="inlineStr"/>
+      <c r="AM421" t="inlineStr"/>
+      <c r="AN421" t="inlineStr"/>
+      <c r="AO421" t="inlineStr"/>
+      <c r="AP421" t="inlineStr"/>
+      <c r="AQ421" t="inlineStr"/>
+      <c r="AR421" t="inlineStr"/>
+      <c r="AS421" t="inlineStr"/>
+      <c r="AT421" t="inlineStr"/>
+      <c r="AU421" t="inlineStr"/>
+      <c r="AV421" t="inlineStr"/>
+      <c r="AW421" t="inlineStr"/>
+      <c r="AX421" t="inlineStr"/>
+      <c r="AY421" t="inlineStr"/>
+      <c r="AZ421" t="inlineStr"/>
+      <c r="BA421" t="inlineStr"/>
+      <c r="BB421" t="inlineStr"/>
+      <c r="BC421" t="inlineStr"/>
+      <c r="BD421" t="inlineStr"/>
+      <c r="BE421" t="inlineStr"/>
+      <c r="BF421" t="inlineStr"/>
+      <c r="BG421" t="inlineStr"/>
+      <c r="BH421" t="inlineStr"/>
+      <c r="BI421" t="inlineStr"/>
+      <c r="BJ421" t="inlineStr"/>
+      <c r="BK421" t="inlineStr"/>
+      <c r="BL421" t="inlineStr"/>
+      <c r="BM421" t="inlineStr"/>
+      <c r="BN421" t="inlineStr"/>
+      <c r="BO421" t="inlineStr"/>
+      <c r="BP421" t="inlineStr"/>
+      <c r="BQ421" t="inlineStr"/>
+      <c r="BR421" t="inlineStr"/>
+      <c r="BS421" t="inlineStr"/>
+      <c r="BT421" t="inlineStr"/>
+      <c r="BU421" t="inlineStr"/>
+      <c r="BV421" t="inlineStr"/>
+      <c r="BW421" t="inlineStr"/>
+      <c r="BX421" t="inlineStr"/>
+      <c r="BY421" t="inlineStr"/>
+      <c r="BZ421" t="inlineStr"/>
+      <c r="CA421" t="inlineStr"/>
+      <c r="CB421" t="inlineStr"/>
+      <c r="CC421" t="inlineStr"/>
+      <c r="CD421" t="inlineStr"/>
+      <c r="CE421" t="inlineStr"/>
+      <c r="CF421" t="inlineStr"/>
+      <c r="CG421" t="inlineStr"/>
+      <c r="CH421" t="inlineStr"/>
+      <c r="CI421" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ421" t="inlineStr"/>
+      <c r="CK421" t="inlineStr"/>
+      <c r="CL421" t="inlineStr"/>
+      <c r="CM421" t="inlineStr"/>
+      <c r="CN421" t="inlineStr"/>
+      <c r="CO421" t="inlineStr"/>
+      <c r="CP421" t="inlineStr"/>
+      <c r="CQ421" t="inlineStr"/>
+      <c r="CR421" t="inlineStr"/>
+      <c r="CS421" t="inlineStr"/>
+      <c r="CT421" t="inlineStr"/>
+      <c r="CU421" t="inlineStr"/>
+      <c r="CV421" t="inlineStr"/>
+      <c r="CW421" t="inlineStr"/>
+      <c r="CX421" t="inlineStr"/>
+      <c r="CY421" t="inlineStr"/>
+      <c r="CZ421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>cl:10406</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>paved road</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>cl:10402</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
+      <c r="M422" t="inlineStr"/>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="inlineStr"/>
+      <c r="P422" t="inlineStr"/>
+      <c r="Q422" t="inlineStr"/>
+      <c r="R422" t="inlineStr"/>
+      <c r="S422" t="inlineStr"/>
+      <c r="T422" t="inlineStr"/>
+      <c r="U422" t="inlineStr"/>
+      <c r="V422" t="inlineStr"/>
+      <c r="W422" t="inlineStr"/>
+      <c r="X422" t="inlineStr"/>
+      <c r="Y422" t="inlineStr"/>
+      <c r="Z422" t="inlineStr"/>
+      <c r="AA422" t="inlineStr"/>
+      <c r="AB422" t="inlineStr"/>
+      <c r="AC422" t="inlineStr"/>
+      <c r="AD422" t="inlineStr"/>
+      <c r="AE422" t="inlineStr"/>
+      <c r="AF422" t="inlineStr"/>
+      <c r="AG422" t="inlineStr"/>
+      <c r="AH422" t="inlineStr"/>
+      <c r="AI422" t="inlineStr"/>
+      <c r="AJ422" t="inlineStr"/>
+      <c r="AK422" t="inlineStr"/>
+      <c r="AL422" t="inlineStr"/>
+      <c r="AM422" t="inlineStr"/>
+      <c r="AN422" t="inlineStr"/>
+      <c r="AO422" t="inlineStr"/>
+      <c r="AP422" t="inlineStr"/>
+      <c r="AQ422" t="inlineStr"/>
+      <c r="AR422" t="inlineStr"/>
+      <c r="AS422" t="inlineStr"/>
+      <c r="AT422" t="inlineStr"/>
+      <c r="AU422" t="inlineStr"/>
+      <c r="AV422" t="inlineStr"/>
+      <c r="AW422" t="inlineStr"/>
+      <c r="AX422" t="inlineStr"/>
+      <c r="AY422" t="inlineStr"/>
+      <c r="AZ422" t="inlineStr"/>
+      <c r="BA422" t="inlineStr"/>
+      <c r="BB422" t="inlineStr"/>
+      <c r="BC422" t="inlineStr"/>
+      <c r="BD422" t="inlineStr"/>
+      <c r="BE422" t="inlineStr"/>
+      <c r="BF422" t="inlineStr"/>
+      <c r="BG422" t="inlineStr"/>
+      <c r="BH422" t="inlineStr"/>
+      <c r="BI422" t="inlineStr"/>
+      <c r="BJ422" t="inlineStr"/>
+      <c r="BK422" t="inlineStr"/>
+      <c r="BL422" t="inlineStr"/>
+      <c r="BM422" t="inlineStr"/>
+      <c r="BN422" t="inlineStr"/>
+      <c r="BO422" t="inlineStr"/>
+      <c r="BP422" t="inlineStr"/>
+      <c r="BQ422" t="inlineStr"/>
+      <c r="BR422" t="inlineStr"/>
+      <c r="BS422" t="inlineStr"/>
+      <c r="BT422" t="inlineStr"/>
+      <c r="BU422" t="inlineStr"/>
+      <c r="BV422" t="inlineStr"/>
+      <c r="BW422" t="inlineStr"/>
+      <c r="BX422" t="inlineStr"/>
+      <c r="BY422" t="inlineStr"/>
+      <c r="BZ422" t="inlineStr"/>
+      <c r="CA422" t="inlineStr"/>
+      <c r="CB422" t="inlineStr"/>
+      <c r="CC422" t="inlineStr"/>
+      <c r="CD422" t="inlineStr"/>
+      <c r="CE422" t="inlineStr"/>
+      <c r="CF422" t="inlineStr"/>
+      <c r="CG422" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH422" t="inlineStr"/>
+      <c r="CI422" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ422" t="inlineStr"/>
+      <c r="CK422" t="inlineStr"/>
+      <c r="CL422" t="inlineStr"/>
+      <c r="CM422" t="inlineStr"/>
+      <c r="CN422" t="inlineStr"/>
+      <c r="CO422" t="inlineStr"/>
+      <c r="CP422" t="inlineStr"/>
+      <c r="CQ422" t="inlineStr"/>
+      <c r="CR422" t="inlineStr"/>
+      <c r="CS422" t="inlineStr"/>
+      <c r="CT422" t="inlineStr"/>
+      <c r="CU422" t="inlineStr"/>
+      <c r="CV422" t="inlineStr"/>
+      <c r="CW422" t="inlineStr"/>
+      <c r="CX422" t="inlineStr"/>
+      <c r="CY422" t="inlineStr"/>
+      <c r="CZ422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>cl:10407</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>regular car</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>cl:10402</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
+      <c r="M423" t="inlineStr"/>
+      <c r="N423" t="inlineStr"/>
+      <c r="O423" t="inlineStr"/>
+      <c r="P423" t="inlineStr"/>
+      <c r="Q423" t="inlineStr"/>
+      <c r="R423" t="inlineStr"/>
+      <c r="S423" t="inlineStr"/>
+      <c r="T423" t="inlineStr"/>
+      <c r="U423" t="inlineStr"/>
+      <c r="V423" t="inlineStr"/>
+      <c r="W423" t="inlineStr"/>
+      <c r="X423" t="inlineStr"/>
+      <c r="Y423" t="inlineStr"/>
+      <c r="Z423" t="inlineStr"/>
+      <c r="AA423" t="inlineStr"/>
+      <c r="AB423" t="inlineStr"/>
+      <c r="AC423" t="inlineStr"/>
+      <c r="AD423" t="inlineStr"/>
+      <c r="AE423" t="inlineStr"/>
+      <c r="AF423" t="inlineStr"/>
+      <c r="AG423" t="inlineStr"/>
+      <c r="AH423" t="inlineStr"/>
+      <c r="AI423" t="inlineStr"/>
+      <c r="AJ423" t="inlineStr"/>
+      <c r="AK423" t="inlineStr"/>
+      <c r="AL423" t="inlineStr"/>
+      <c r="AM423" t="inlineStr"/>
+      <c r="AN423" t="inlineStr"/>
+      <c r="AO423" t="inlineStr"/>
+      <c r="AP423" t="inlineStr"/>
+      <c r="AQ423" t="inlineStr"/>
+      <c r="AR423" t="inlineStr"/>
+      <c r="AS423" t="inlineStr"/>
+      <c r="AT423" t="inlineStr"/>
+      <c r="AU423" t="inlineStr"/>
+      <c r="AV423" t="inlineStr"/>
+      <c r="AW423" t="inlineStr"/>
+      <c r="AX423" t="inlineStr"/>
+      <c r="AY423" t="inlineStr"/>
+      <c r="AZ423" t="inlineStr"/>
+      <c r="BA423" t="inlineStr"/>
+      <c r="BB423" t="inlineStr"/>
+      <c r="BC423" t="inlineStr"/>
+      <c r="BD423" t="inlineStr"/>
+      <c r="BE423" t="inlineStr"/>
+      <c r="BF423" t="inlineStr"/>
+      <c r="BG423" t="inlineStr"/>
+      <c r="BH423" t="inlineStr"/>
+      <c r="BI423" t="inlineStr"/>
+      <c r="BJ423" t="inlineStr"/>
+      <c r="BK423" t="inlineStr"/>
+      <c r="BL423" t="inlineStr"/>
+      <c r="BM423" t="inlineStr"/>
+      <c r="BN423" t="inlineStr"/>
+      <c r="BO423" t="inlineStr"/>
+      <c r="BP423" t="inlineStr"/>
+      <c r="BQ423" t="inlineStr"/>
+      <c r="BR423" t="inlineStr"/>
+      <c r="BS423" t="inlineStr"/>
+      <c r="BT423" t="inlineStr"/>
+      <c r="BU423" t="inlineStr"/>
+      <c r="BV423" t="inlineStr"/>
+      <c r="BW423" t="inlineStr"/>
+      <c r="BX423" t="inlineStr"/>
+      <c r="BY423" t="inlineStr"/>
+      <c r="BZ423" t="inlineStr"/>
+      <c r="CA423" t="inlineStr"/>
+      <c r="CB423" t="inlineStr"/>
+      <c r="CC423" t="inlineStr"/>
+      <c r="CD423" t="inlineStr"/>
+      <c r="CE423" t="inlineStr"/>
+      <c r="CF423" t="inlineStr"/>
+      <c r="CG423" t="inlineStr"/>
+      <c r="CH423" t="inlineStr"/>
+      <c r="CI423" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ423" t="inlineStr"/>
+      <c r="CK423" t="inlineStr"/>
+      <c r="CL423" t="inlineStr"/>
+      <c r="CM423" t="inlineStr"/>
+      <c r="CN423" t="inlineStr"/>
+      <c r="CO423" t="inlineStr"/>
+      <c r="CP423" t="inlineStr"/>
+      <c r="CQ423" t="inlineStr"/>
+      <c r="CR423" t="inlineStr"/>
+      <c r="CS423" t="inlineStr"/>
+      <c r="CT423" t="inlineStr"/>
+      <c r="CU423" t="inlineStr"/>
+      <c r="CV423" t="inlineStr"/>
+      <c r="CW423" t="inlineStr"/>
+      <c r="CX423" t="inlineStr"/>
+      <c r="CY423" t="inlineStr"/>
+      <c r="CZ423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>cl:10408</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>design of observation</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr"/>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr"/>
+      <c r="G424" t="inlineStr"/>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
+      <c r="M424" t="inlineStr"/>
+      <c r="N424" t="inlineStr"/>
+      <c r="O424" t="inlineStr"/>
+      <c r="P424" t="inlineStr"/>
+      <c r="Q424" t="inlineStr"/>
+      <c r="R424" t="inlineStr"/>
+      <c r="S424" t="inlineStr"/>
+      <c r="T424" t="inlineStr"/>
+      <c r="U424" t="inlineStr"/>
+      <c r="V424" t="inlineStr"/>
+      <c r="W424" t="inlineStr"/>
+      <c r="X424" t="inlineStr"/>
+      <c r="Y424" t="inlineStr"/>
+      <c r="Z424" t="inlineStr"/>
+      <c r="AA424" t="inlineStr"/>
+      <c r="AB424" t="inlineStr"/>
+      <c r="AC424" t="inlineStr"/>
+      <c r="AD424" t="inlineStr"/>
+      <c r="AE424" t="inlineStr"/>
+      <c r="AF424" t="inlineStr"/>
+      <c r="AG424" t="inlineStr"/>
+      <c r="AH424" t="inlineStr"/>
+      <c r="AI424" t="inlineStr"/>
+      <c r="AJ424" t="inlineStr"/>
+      <c r="AK424" t="inlineStr"/>
+      <c r="AL424" t="inlineStr"/>
+      <c r="AM424" t="inlineStr"/>
+      <c r="AN424" t="inlineStr"/>
+      <c r="AO424" t="inlineStr"/>
+      <c r="AP424" t="inlineStr"/>
+      <c r="AQ424" t="inlineStr"/>
+      <c r="AR424" t="inlineStr"/>
+      <c r="AS424" t="inlineStr"/>
+      <c r="AT424" t="inlineStr"/>
+      <c r="AU424" t="inlineStr"/>
+      <c r="AV424" t="inlineStr"/>
+      <c r="AW424" t="inlineStr"/>
+      <c r="AX424" t="inlineStr"/>
+      <c r="AY424" t="inlineStr"/>
+      <c r="AZ424" t="inlineStr"/>
+      <c r="BA424" t="inlineStr"/>
+      <c r="BB424" t="inlineStr"/>
+      <c r="BC424" t="inlineStr"/>
+      <c r="BD424" t="inlineStr"/>
+      <c r="BE424" t="inlineStr"/>
+      <c r="BF424" t="inlineStr"/>
+      <c r="BG424" t="inlineStr"/>
+      <c r="BH424" t="inlineStr"/>
+      <c r="BI424" t="inlineStr"/>
+      <c r="BJ424" t="inlineStr"/>
+      <c r="BK424" t="inlineStr"/>
+      <c r="BL424" t="inlineStr"/>
+      <c r="BM424" t="inlineStr"/>
+      <c r="BN424" t="inlineStr"/>
+      <c r="BO424" t="inlineStr"/>
+      <c r="BP424" t="inlineStr"/>
+      <c r="BQ424" t="inlineStr"/>
+      <c r="BR424" t="inlineStr"/>
+      <c r="BS424" t="inlineStr"/>
+      <c r="BT424" t="inlineStr"/>
+      <c r="BU424" t="inlineStr"/>
+      <c r="BV424" t="inlineStr"/>
+      <c r="BW424" t="inlineStr"/>
+      <c r="BX424" t="inlineStr"/>
+      <c r="BY424" t="inlineStr"/>
+      <c r="BZ424" t="inlineStr"/>
+      <c r="CA424" t="inlineStr"/>
+      <c r="CB424" t="inlineStr"/>
+      <c r="CC424" t="inlineStr"/>
+      <c r="CD424" t="inlineStr"/>
+      <c r="CE424" t="inlineStr"/>
+      <c r="CF424" t="inlineStr"/>
+      <c r="CG424" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH424" t="inlineStr"/>
+      <c r="CI424" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ424" t="inlineStr"/>
+      <c r="CK424" t="inlineStr"/>
+      <c r="CL424" t="inlineStr"/>
+      <c r="CM424" t="inlineStr"/>
+      <c r="CN424" t="inlineStr"/>
+      <c r="CO424" t="inlineStr"/>
+      <c r="CP424" t="inlineStr"/>
+      <c r="CQ424" t="inlineStr"/>
+      <c r="CR424" t="inlineStr"/>
+      <c r="CS424" t="inlineStr"/>
+      <c r="CT424" t="inlineStr"/>
+      <c r="CU424" t="inlineStr"/>
+      <c r="CV424" t="inlineStr"/>
+      <c r="CW424" t="inlineStr"/>
+      <c r="CX424" t="inlineStr"/>
+      <c r="CY424" t="inlineStr"/>
+      <c r="CZ424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>cl:10409</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>mainly observation</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>cl:10408</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
+      <c r="M425" t="inlineStr"/>
+      <c r="N425" t="inlineStr"/>
+      <c r="O425" t="inlineStr"/>
+      <c r="P425" t="inlineStr"/>
+      <c r="Q425" t="inlineStr"/>
+      <c r="R425" t="inlineStr"/>
+      <c r="S425" t="inlineStr"/>
+      <c r="T425" t="inlineStr"/>
+      <c r="U425" t="inlineStr"/>
+      <c r="V425" t="inlineStr"/>
+      <c r="W425" t="inlineStr"/>
+      <c r="X425" t="inlineStr"/>
+      <c r="Y425" t="inlineStr"/>
+      <c r="Z425" t="inlineStr"/>
+      <c r="AA425" t="inlineStr"/>
+      <c r="AB425" t="inlineStr"/>
+      <c r="AC425" t="inlineStr"/>
+      <c r="AD425" t="inlineStr"/>
+      <c r="AE425" t="inlineStr"/>
+      <c r="AF425" t="inlineStr"/>
+      <c r="AG425" t="inlineStr"/>
+      <c r="AH425" t="inlineStr"/>
+      <c r="AI425" t="inlineStr"/>
+      <c r="AJ425" t="inlineStr"/>
+      <c r="AK425" t="inlineStr"/>
+      <c r="AL425" t="inlineStr"/>
+      <c r="AM425" t="inlineStr"/>
+      <c r="AN425" t="inlineStr"/>
+      <c r="AO425" t="inlineStr"/>
+      <c r="AP425" t="inlineStr"/>
+      <c r="AQ425" t="inlineStr"/>
+      <c r="AR425" t="inlineStr"/>
+      <c r="AS425" t="inlineStr"/>
+      <c r="AT425" t="inlineStr"/>
+      <c r="AU425" t="inlineStr"/>
+      <c r="AV425" t="inlineStr"/>
+      <c r="AW425" t="inlineStr"/>
+      <c r="AX425" t="inlineStr"/>
+      <c r="AY425" t="inlineStr"/>
+      <c r="AZ425" t="inlineStr"/>
+      <c r="BA425" t="inlineStr"/>
+      <c r="BB425" t="inlineStr"/>
+      <c r="BC425" t="inlineStr"/>
+      <c r="BD425" t="inlineStr"/>
+      <c r="BE425" t="inlineStr"/>
+      <c r="BF425" t="inlineStr"/>
+      <c r="BG425" t="inlineStr"/>
+      <c r="BH425" t="inlineStr"/>
+      <c r="BI425" t="inlineStr"/>
+      <c r="BJ425" t="inlineStr"/>
+      <c r="BK425" t="inlineStr"/>
+      <c r="BL425" t="inlineStr"/>
+      <c r="BM425" t="inlineStr"/>
+      <c r="BN425" t="inlineStr"/>
+      <c r="BO425" t="inlineStr"/>
+      <c r="BP425" t="inlineStr"/>
+      <c r="BQ425" t="inlineStr"/>
+      <c r="BR425" t="inlineStr"/>
+      <c r="BS425" t="inlineStr"/>
+      <c r="BT425" t="inlineStr"/>
+      <c r="BU425" t="inlineStr"/>
+      <c r="BV425" t="inlineStr"/>
+      <c r="BW425" t="inlineStr"/>
+      <c r="BX425" t="inlineStr"/>
+      <c r="BY425" t="inlineStr"/>
+      <c r="BZ425" t="inlineStr"/>
+      <c r="CA425" t="inlineStr"/>
+      <c r="CB425" t="inlineStr"/>
+      <c r="CC425" t="inlineStr"/>
+      <c r="CD425" t="inlineStr"/>
+      <c r="CE425" t="inlineStr"/>
+      <c r="CF425" t="inlineStr"/>
+      <c r="CG425" t="inlineStr"/>
+      <c r="CH425" t="inlineStr"/>
+      <c r="CI425" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ425" t="inlineStr"/>
+      <c r="CK425" t="inlineStr"/>
+      <c r="CL425" t="inlineStr"/>
+      <c r="CM425" t="inlineStr"/>
+      <c r="CN425" t="inlineStr"/>
+      <c r="CO425" t="inlineStr"/>
+      <c r="CP425" t="inlineStr"/>
+      <c r="CQ425" t="inlineStr"/>
+      <c r="CR425" t="inlineStr"/>
+      <c r="CS425" t="inlineStr"/>
+      <c r="CT425" t="inlineStr"/>
+      <c r="CU425" t="inlineStr"/>
+      <c r="CV425" t="inlineStr"/>
+      <c r="CW425" t="inlineStr"/>
+      <c r="CX425" t="inlineStr"/>
+      <c r="CY425" t="inlineStr"/>
+      <c r="CZ425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>cl:10410</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>no observation of natural environment</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr"/>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>cl:10408</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
+      <c r="M426" t="inlineStr"/>
+      <c r="N426" t="inlineStr"/>
+      <c r="O426" t="inlineStr"/>
+      <c r="P426" t="inlineStr"/>
+      <c r="Q426" t="inlineStr"/>
+      <c r="R426" t="inlineStr"/>
+      <c r="S426" t="inlineStr"/>
+      <c r="T426" t="inlineStr"/>
+      <c r="U426" t="inlineStr"/>
+      <c r="V426" t="inlineStr"/>
+      <c r="W426" t="inlineStr"/>
+      <c r="X426" t="inlineStr"/>
+      <c r="Y426" t="inlineStr"/>
+      <c r="Z426" t="inlineStr"/>
+      <c r="AA426" t="inlineStr"/>
+      <c r="AB426" t="inlineStr"/>
+      <c r="AC426" t="inlineStr"/>
+      <c r="AD426" t="inlineStr"/>
+      <c r="AE426" t="inlineStr"/>
+      <c r="AF426" t="inlineStr"/>
+      <c r="AG426" t="inlineStr"/>
+      <c r="AH426" t="inlineStr"/>
+      <c r="AI426" t="inlineStr"/>
+      <c r="AJ426" t="inlineStr"/>
+      <c r="AK426" t="inlineStr"/>
+      <c r="AL426" t="inlineStr"/>
+      <c r="AM426" t="inlineStr"/>
+      <c r="AN426" t="inlineStr"/>
+      <c r="AO426" t="inlineStr"/>
+      <c r="AP426" t="inlineStr"/>
+      <c r="AQ426" t="inlineStr"/>
+      <c r="AR426" t="inlineStr"/>
+      <c r="AS426" t="inlineStr"/>
+      <c r="AT426" t="inlineStr"/>
+      <c r="AU426" t="inlineStr"/>
+      <c r="AV426" t="inlineStr"/>
+      <c r="AW426" t="inlineStr"/>
+      <c r="AX426" t="inlineStr"/>
+      <c r="AY426" t="inlineStr"/>
+      <c r="AZ426" t="inlineStr"/>
+      <c r="BA426" t="inlineStr"/>
+      <c r="BB426" t="inlineStr"/>
+      <c r="BC426" t="inlineStr"/>
+      <c r="BD426" t="inlineStr"/>
+      <c r="BE426" t="inlineStr"/>
+      <c r="BF426" t="inlineStr"/>
+      <c r="BG426" t="inlineStr"/>
+      <c r="BH426" t="inlineStr"/>
+      <c r="BI426" t="inlineStr"/>
+      <c r="BJ426" t="inlineStr"/>
+      <c r="BK426" t="inlineStr"/>
+      <c r="BL426" t="inlineStr"/>
+      <c r="BM426" t="inlineStr"/>
+      <c r="BN426" t="inlineStr"/>
+      <c r="BO426" t="inlineStr"/>
+      <c r="BP426" t="inlineStr"/>
+      <c r="BQ426" t="inlineStr"/>
+      <c r="BR426" t="inlineStr"/>
+      <c r="BS426" t="inlineStr"/>
+      <c r="BT426" t="inlineStr"/>
+      <c r="BU426" t="inlineStr"/>
+      <c r="BV426" t="inlineStr"/>
+      <c r="BW426" t="inlineStr"/>
+      <c r="BX426" t="inlineStr"/>
+      <c r="BY426" t="inlineStr"/>
+      <c r="BZ426" t="inlineStr"/>
+      <c r="CA426" t="inlineStr"/>
+      <c r="CB426" t="inlineStr"/>
+      <c r="CC426" t="inlineStr"/>
+      <c r="CD426" t="inlineStr"/>
+      <c r="CE426" t="inlineStr"/>
+      <c r="CF426" t="inlineStr"/>
+      <c r="CG426" t="inlineStr"/>
+      <c r="CH426" t="inlineStr"/>
+      <c r="CI426" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ426" t="inlineStr"/>
+      <c r="CK426" t="inlineStr"/>
+      <c r="CL426" t="inlineStr"/>
+      <c r="CM426" t="inlineStr"/>
+      <c r="CN426" t="inlineStr"/>
+      <c r="CO426" t="inlineStr"/>
+      <c r="CP426" t="inlineStr"/>
+      <c r="CQ426" t="inlineStr"/>
+      <c r="CR426" t="inlineStr"/>
+      <c r="CS426" t="inlineStr"/>
+      <c r="CT426" t="inlineStr"/>
+      <c r="CU426" t="inlineStr"/>
+      <c r="CV426" t="inlineStr"/>
+      <c r="CW426" t="inlineStr"/>
+      <c r="CX426" t="inlineStr"/>
+      <c r="CY426" t="inlineStr"/>
+      <c r="CZ426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>cl:10411</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>only observation</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>cl:10408</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
+      <c r="M427" t="inlineStr"/>
+      <c r="N427" t="inlineStr"/>
+      <c r="O427" t="inlineStr"/>
+      <c r="P427" t="inlineStr"/>
+      <c r="Q427" t="inlineStr"/>
+      <c r="R427" t="inlineStr"/>
+      <c r="S427" t="inlineStr"/>
+      <c r="T427" t="inlineStr"/>
+      <c r="U427" t="inlineStr"/>
+      <c r="V427" t="inlineStr"/>
+      <c r="W427" t="inlineStr"/>
+      <c r="X427" t="inlineStr"/>
+      <c r="Y427" t="inlineStr"/>
+      <c r="Z427" t="inlineStr"/>
+      <c r="AA427" t="inlineStr"/>
+      <c r="AB427" t="inlineStr"/>
+      <c r="AC427" t="inlineStr"/>
+      <c r="AD427" t="inlineStr"/>
+      <c r="AE427" t="inlineStr"/>
+      <c r="AF427" t="inlineStr"/>
+      <c r="AG427" t="inlineStr"/>
+      <c r="AH427" t="inlineStr"/>
+      <c r="AI427" t="inlineStr"/>
+      <c r="AJ427" t="inlineStr"/>
+      <c r="AK427" t="inlineStr"/>
+      <c r="AL427" t="inlineStr"/>
+      <c r="AM427" t="inlineStr"/>
+      <c r="AN427" t="inlineStr"/>
+      <c r="AO427" t="inlineStr"/>
+      <c r="AP427" t="inlineStr"/>
+      <c r="AQ427" t="inlineStr"/>
+      <c r="AR427" t="inlineStr"/>
+      <c r="AS427" t="inlineStr"/>
+      <c r="AT427" t="inlineStr"/>
+      <c r="AU427" t="inlineStr"/>
+      <c r="AV427" t="inlineStr"/>
+      <c r="AW427" t="inlineStr"/>
+      <c r="AX427" t="inlineStr"/>
+      <c r="AY427" t="inlineStr"/>
+      <c r="AZ427" t="inlineStr"/>
+      <c r="BA427" t="inlineStr"/>
+      <c r="BB427" t="inlineStr"/>
+      <c r="BC427" t="inlineStr"/>
+      <c r="BD427" t="inlineStr"/>
+      <c r="BE427" t="inlineStr"/>
+      <c r="BF427" t="inlineStr"/>
+      <c r="BG427" t="inlineStr"/>
+      <c r="BH427" t="inlineStr"/>
+      <c r="BI427" t="inlineStr"/>
+      <c r="BJ427" t="inlineStr"/>
+      <c r="BK427" t="inlineStr"/>
+      <c r="BL427" t="inlineStr"/>
+      <c r="BM427" t="inlineStr"/>
+      <c r="BN427" t="inlineStr"/>
+      <c r="BO427" t="inlineStr"/>
+      <c r="BP427" t="inlineStr"/>
+      <c r="BQ427" t="inlineStr"/>
+      <c r="BR427" t="inlineStr"/>
+      <c r="BS427" t="inlineStr"/>
+      <c r="BT427" t="inlineStr"/>
+      <c r="BU427" t="inlineStr"/>
+      <c r="BV427" t="inlineStr"/>
+      <c r="BW427" t="inlineStr"/>
+      <c r="BX427" t="inlineStr"/>
+      <c r="BY427" t="inlineStr"/>
+      <c r="BZ427" t="inlineStr"/>
+      <c r="CA427" t="inlineStr"/>
+      <c r="CB427" t="inlineStr"/>
+      <c r="CC427" t="inlineStr"/>
+      <c r="CD427" t="inlineStr"/>
+      <c r="CE427" t="inlineStr"/>
+      <c r="CF427" t="inlineStr"/>
+      <c r="CG427" t="inlineStr"/>
+      <c r="CH427" t="inlineStr"/>
+      <c r="CI427" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ427" t="inlineStr"/>
+      <c r="CK427" t="inlineStr"/>
+      <c r="CL427" t="inlineStr"/>
+      <c r="CM427" t="inlineStr"/>
+      <c r="CN427" t="inlineStr"/>
+      <c r="CO427" t="inlineStr"/>
+      <c r="CP427" t="inlineStr"/>
+      <c r="CQ427" t="inlineStr"/>
+      <c r="CR427" t="inlineStr"/>
+      <c r="CS427" t="inlineStr"/>
+      <c r="CT427" t="inlineStr"/>
+      <c r="CU427" t="inlineStr"/>
+      <c r="CV427" t="inlineStr"/>
+      <c r="CW427" t="inlineStr"/>
+      <c r="CX427" t="inlineStr"/>
+      <c r="CY427" t="inlineStr"/>
+      <c r="CZ427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>cl:10412</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>partly observation</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>cl:10408</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
+      <c r="M428" t="inlineStr"/>
+      <c r="N428" t="inlineStr"/>
+      <c r="O428" t="inlineStr"/>
+      <c r="P428" t="inlineStr"/>
+      <c r="Q428" t="inlineStr"/>
+      <c r="R428" t="inlineStr"/>
+      <c r="S428" t="inlineStr"/>
+      <c r="T428" t="inlineStr"/>
+      <c r="U428" t="inlineStr"/>
+      <c r="V428" t="inlineStr"/>
+      <c r="W428" t="inlineStr"/>
+      <c r="X428" t="inlineStr"/>
+      <c r="Y428" t="inlineStr"/>
+      <c r="Z428" t="inlineStr"/>
+      <c r="AA428" t="inlineStr"/>
+      <c r="AB428" t="inlineStr"/>
+      <c r="AC428" t="inlineStr"/>
+      <c r="AD428" t="inlineStr"/>
+      <c r="AE428" t="inlineStr"/>
+      <c r="AF428" t="inlineStr"/>
+      <c r="AG428" t="inlineStr"/>
+      <c r="AH428" t="inlineStr"/>
+      <c r="AI428" t="inlineStr"/>
+      <c r="AJ428" t="inlineStr"/>
+      <c r="AK428" t="inlineStr"/>
+      <c r="AL428" t="inlineStr"/>
+      <c r="AM428" t="inlineStr"/>
+      <c r="AN428" t="inlineStr"/>
+      <c r="AO428" t="inlineStr"/>
+      <c r="AP428" t="inlineStr"/>
+      <c r="AQ428" t="inlineStr"/>
+      <c r="AR428" t="inlineStr"/>
+      <c r="AS428" t="inlineStr"/>
+      <c r="AT428" t="inlineStr"/>
+      <c r="AU428" t="inlineStr"/>
+      <c r="AV428" t="inlineStr"/>
+      <c r="AW428" t="inlineStr"/>
+      <c r="AX428" t="inlineStr"/>
+      <c r="AY428" t="inlineStr"/>
+      <c r="AZ428" t="inlineStr"/>
+      <c r="BA428" t="inlineStr"/>
+      <c r="BB428" t="inlineStr"/>
+      <c r="BC428" t="inlineStr"/>
+      <c r="BD428" t="inlineStr"/>
+      <c r="BE428" t="inlineStr"/>
+      <c r="BF428" t="inlineStr"/>
+      <c r="BG428" t="inlineStr"/>
+      <c r="BH428" t="inlineStr"/>
+      <c r="BI428" t="inlineStr"/>
+      <c r="BJ428" t="inlineStr"/>
+      <c r="BK428" t="inlineStr"/>
+      <c r="BL428" t="inlineStr"/>
+      <c r="BM428" t="inlineStr"/>
+      <c r="BN428" t="inlineStr"/>
+      <c r="BO428" t="inlineStr"/>
+      <c r="BP428" t="inlineStr"/>
+      <c r="BQ428" t="inlineStr"/>
+      <c r="BR428" t="inlineStr"/>
+      <c r="BS428" t="inlineStr"/>
+      <c r="BT428" t="inlineStr"/>
+      <c r="BU428" t="inlineStr"/>
+      <c r="BV428" t="inlineStr"/>
+      <c r="BW428" t="inlineStr"/>
+      <c r="BX428" t="inlineStr"/>
+      <c r="BY428" t="inlineStr"/>
+      <c r="BZ428" t="inlineStr"/>
+      <c r="CA428" t="inlineStr"/>
+      <c r="CB428" t="inlineStr"/>
+      <c r="CC428" t="inlineStr"/>
+      <c r="CD428" t="inlineStr"/>
+      <c r="CE428" t="inlineStr"/>
+      <c r="CF428" t="inlineStr"/>
+      <c r="CG428" t="inlineStr"/>
+      <c r="CH428" t="inlineStr"/>
+      <c r="CI428" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ428" t="inlineStr"/>
+      <c r="CK428" t="inlineStr"/>
+      <c r="CL428" t="inlineStr"/>
+      <c r="CM428" t="inlineStr"/>
+      <c r="CN428" t="inlineStr"/>
+      <c r="CO428" t="inlineStr"/>
+      <c r="CP428" t="inlineStr"/>
+      <c r="CQ428" t="inlineStr"/>
+      <c r="CR428" t="inlineStr"/>
+      <c r="CS428" t="inlineStr"/>
+      <c r="CT428" t="inlineStr"/>
+      <c r="CU428" t="inlineStr"/>
+      <c r="CV428" t="inlineStr"/>
+      <c r="CW428" t="inlineStr"/>
+      <c r="CX428" t="inlineStr"/>
+      <c r="CY428" t="inlineStr"/>
+      <c r="CZ428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>cl:10413</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>permanent power supply location</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
+      <c r="M429" t="inlineStr"/>
+      <c r="N429" t="inlineStr"/>
+      <c r="O429" t="inlineStr"/>
+      <c r="P429" t="inlineStr"/>
+      <c r="Q429" t="inlineStr"/>
+      <c r="R429" t="inlineStr"/>
+      <c r="S429" t="inlineStr"/>
+      <c r="T429" t="inlineStr"/>
+      <c r="U429" t="inlineStr"/>
+      <c r="V429" t="inlineStr"/>
+      <c r="W429" t="inlineStr"/>
+      <c r="X429" t="inlineStr"/>
+      <c r="Y429" t="inlineStr"/>
+      <c r="Z429" t="inlineStr"/>
+      <c r="AA429" t="inlineStr"/>
+      <c r="AB429" t="inlineStr"/>
+      <c r="AC429" t="inlineStr"/>
+      <c r="AD429" t="inlineStr"/>
+      <c r="AE429" t="inlineStr"/>
+      <c r="AF429" t="inlineStr"/>
+      <c r="AG429" t="inlineStr"/>
+      <c r="AH429" t="inlineStr"/>
+      <c r="AI429" t="inlineStr"/>
+      <c r="AJ429" t="inlineStr"/>
+      <c r="AK429" t="inlineStr"/>
+      <c r="AL429" t="inlineStr"/>
+      <c r="AM429" t="inlineStr"/>
+      <c r="AN429" t="inlineStr"/>
+      <c r="AO429" t="inlineStr"/>
+      <c r="AP429" t="inlineStr"/>
+      <c r="AQ429" t="inlineStr"/>
+      <c r="AR429" t="inlineStr"/>
+      <c r="AS429" t="inlineStr"/>
+      <c r="AT429" t="inlineStr"/>
+      <c r="AU429" t="inlineStr"/>
+      <c r="AV429" t="inlineStr"/>
+      <c r="AW429" t="inlineStr"/>
+      <c r="AX429" t="inlineStr"/>
+      <c r="AY429" t="inlineStr"/>
+      <c r="AZ429" t="inlineStr"/>
+      <c r="BA429" t="inlineStr"/>
+      <c r="BB429" t="inlineStr"/>
+      <c r="BC429" t="inlineStr"/>
+      <c r="BD429" t="inlineStr"/>
+      <c r="BE429" t="inlineStr"/>
+      <c r="BF429" t="inlineStr"/>
+      <c r="BG429" t="inlineStr"/>
+      <c r="BH429" t="inlineStr"/>
+      <c r="BI429" t="inlineStr"/>
+      <c r="BJ429" t="inlineStr"/>
+      <c r="BK429" t="inlineStr"/>
+      <c r="BL429" t="inlineStr"/>
+      <c r="BM429" t="inlineStr"/>
+      <c r="BN429" t="inlineStr"/>
+      <c r="BO429" t="inlineStr"/>
+      <c r="BP429" t="inlineStr"/>
+      <c r="BQ429" t="inlineStr"/>
+      <c r="BR429" t="inlineStr"/>
+      <c r="BS429" t="inlineStr"/>
+      <c r="BT429" t="inlineStr"/>
+      <c r="BU429" t="inlineStr"/>
+      <c r="BV429" t="inlineStr"/>
+      <c r="BW429" t="inlineStr"/>
+      <c r="BX429" t="inlineStr"/>
+      <c r="BY429" t="inlineStr"/>
+      <c r="BZ429" t="inlineStr"/>
+      <c r="CA429" t="inlineStr"/>
+      <c r="CB429" t="inlineStr"/>
+      <c r="CC429" t="inlineStr"/>
+      <c r="CD429" t="inlineStr"/>
+      <c r="CE429" t="inlineStr"/>
+      <c r="CF429" t="inlineStr"/>
+      <c r="CG429" t="inlineStr"/>
+      <c r="CH429" t="inlineStr"/>
+      <c r="CI429" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ429" t="inlineStr"/>
+      <c r="CK429" t="inlineStr"/>
+      <c r="CL429" t="inlineStr"/>
+      <c r="CM429" t="inlineStr"/>
+      <c r="CN429" t="inlineStr"/>
+      <c r="CO429" t="inlineStr"/>
+      <c r="CP429" t="inlineStr"/>
+      <c r="CQ429" t="inlineStr"/>
+      <c r="CR429" t="inlineStr"/>
+      <c r="CS429" t="inlineStr"/>
+      <c r="CT429" t="inlineStr"/>
+      <c r="CU429" t="inlineStr"/>
+      <c r="CV429" t="inlineStr"/>
+      <c r="CW429" t="inlineStr"/>
+      <c r="CX429" t="inlineStr"/>
+      <c r="CY429" t="inlineStr"/>
+      <c r="CZ429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>cl:10414</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>catchment</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="inlineStr"/>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>cl:10413</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr"/>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
+      <c r="M430" t="inlineStr"/>
+      <c r="N430" t="inlineStr"/>
+      <c r="O430" t="inlineStr"/>
+      <c r="P430" t="inlineStr"/>
+      <c r="Q430" t="inlineStr"/>
+      <c r="R430" t="inlineStr"/>
+      <c r="S430" t="inlineStr"/>
+      <c r="T430" t="inlineStr"/>
+      <c r="U430" t="inlineStr"/>
+      <c r="V430" t="inlineStr"/>
+      <c r="W430" t="inlineStr"/>
+      <c r="X430" t="inlineStr"/>
+      <c r="Y430" t="inlineStr"/>
+      <c r="Z430" t="inlineStr"/>
+      <c r="AA430" t="inlineStr"/>
+      <c r="AB430" t="inlineStr"/>
+      <c r="AC430" t="inlineStr"/>
+      <c r="AD430" t="inlineStr"/>
+      <c r="AE430" t="inlineStr"/>
+      <c r="AF430" t="inlineStr"/>
+      <c r="AG430" t="inlineStr"/>
+      <c r="AH430" t="inlineStr"/>
+      <c r="AI430" t="inlineStr"/>
+      <c r="AJ430" t="inlineStr"/>
+      <c r="AK430" t="inlineStr"/>
+      <c r="AL430" t="inlineStr"/>
+      <c r="AM430" t="inlineStr"/>
+      <c r="AN430" t="inlineStr"/>
+      <c r="AO430" t="inlineStr"/>
+      <c r="AP430" t="inlineStr"/>
+      <c r="AQ430" t="inlineStr"/>
+      <c r="AR430" t="inlineStr"/>
+      <c r="AS430" t="inlineStr"/>
+      <c r="AT430" t="inlineStr"/>
+      <c r="AU430" t="inlineStr"/>
+      <c r="AV430" t="inlineStr"/>
+      <c r="AW430" t="inlineStr"/>
+      <c r="AX430" t="inlineStr"/>
+      <c r="AY430" t="inlineStr"/>
+      <c r="AZ430" t="inlineStr"/>
+      <c r="BA430" t="inlineStr"/>
+      <c r="BB430" t="inlineStr"/>
+      <c r="BC430" t="inlineStr"/>
+      <c r="BD430" t="inlineStr"/>
+      <c r="BE430" t="inlineStr"/>
+      <c r="BF430" t="inlineStr"/>
+      <c r="BG430" t="inlineStr"/>
+      <c r="BH430" t="inlineStr"/>
+      <c r="BI430" t="inlineStr"/>
+      <c r="BJ430" t="inlineStr"/>
+      <c r="BK430" t="inlineStr"/>
+      <c r="BL430" t="inlineStr"/>
+      <c r="BM430" t="inlineStr"/>
+      <c r="BN430" t="inlineStr"/>
+      <c r="BO430" t="inlineStr"/>
+      <c r="BP430" t="inlineStr"/>
+      <c r="BQ430" t="inlineStr"/>
+      <c r="BR430" t="inlineStr"/>
+      <c r="BS430" t="inlineStr"/>
+      <c r="BT430" t="inlineStr"/>
+      <c r="BU430" t="inlineStr"/>
+      <c r="BV430" t="inlineStr"/>
+      <c r="BW430" t="inlineStr"/>
+      <c r="BX430" t="inlineStr"/>
+      <c r="BY430" t="inlineStr"/>
+      <c r="BZ430" t="inlineStr"/>
+      <c r="CA430" t="inlineStr"/>
+      <c r="CB430" t="inlineStr"/>
+      <c r="CC430" t="inlineStr"/>
+      <c r="CD430" t="inlineStr"/>
+      <c r="CE430" t="inlineStr"/>
+      <c r="CF430" t="inlineStr"/>
+      <c r="CG430" t="inlineStr"/>
+      <c r="CH430" t="inlineStr"/>
+      <c r="CI430" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ430" t="inlineStr"/>
+      <c r="CK430" t="inlineStr"/>
+      <c r="CL430" t="inlineStr"/>
+      <c r="CM430" t="inlineStr"/>
+      <c r="CN430" t="inlineStr"/>
+      <c r="CO430" t="inlineStr"/>
+      <c r="CP430" t="inlineStr"/>
+      <c r="CQ430" t="inlineStr"/>
+      <c r="CR430" t="inlineStr"/>
+      <c r="CS430" t="inlineStr"/>
+      <c r="CT430" t="inlineStr"/>
+      <c r="CU430" t="inlineStr"/>
+      <c r="CV430" t="inlineStr"/>
+      <c r="CW430" t="inlineStr"/>
+      <c r="CX430" t="inlineStr"/>
+      <c r="CY430" t="inlineStr"/>
+      <c r="CZ430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>cl:10415</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>central station</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr"/>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>cl:10413</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
+      <c r="M431" t="inlineStr"/>
+      <c r="N431" t="inlineStr"/>
+      <c r="O431" t="inlineStr"/>
+      <c r="P431" t="inlineStr"/>
+      <c r="Q431" t="inlineStr"/>
+      <c r="R431" t="inlineStr"/>
+      <c r="S431" t="inlineStr"/>
+      <c r="T431" t="inlineStr"/>
+      <c r="U431" t="inlineStr"/>
+      <c r="V431" t="inlineStr"/>
+      <c r="W431" t="inlineStr"/>
+      <c r="X431" t="inlineStr"/>
+      <c r="Y431" t="inlineStr"/>
+      <c r="Z431" t="inlineStr"/>
+      <c r="AA431" t="inlineStr"/>
+      <c r="AB431" t="inlineStr"/>
+      <c r="AC431" t="inlineStr"/>
+      <c r="AD431" t="inlineStr"/>
+      <c r="AE431" t="inlineStr"/>
+      <c r="AF431" t="inlineStr"/>
+      <c r="AG431" t="inlineStr"/>
+      <c r="AH431" t="inlineStr"/>
+      <c r="AI431" t="inlineStr"/>
+      <c r="AJ431" t="inlineStr"/>
+      <c r="AK431" t="inlineStr"/>
+      <c r="AL431" t="inlineStr"/>
+      <c r="AM431" t="inlineStr"/>
+      <c r="AN431" t="inlineStr"/>
+      <c r="AO431" t="inlineStr"/>
+      <c r="AP431" t="inlineStr"/>
+      <c r="AQ431" t="inlineStr"/>
+      <c r="AR431" t="inlineStr"/>
+      <c r="AS431" t="inlineStr"/>
+      <c r="AT431" t="inlineStr"/>
+      <c r="AU431" t="inlineStr"/>
+      <c r="AV431" t="inlineStr"/>
+      <c r="AW431" t="inlineStr"/>
+      <c r="AX431" t="inlineStr"/>
+      <c r="AY431" t="inlineStr"/>
+      <c r="AZ431" t="inlineStr"/>
+      <c r="BA431" t="inlineStr"/>
+      <c r="BB431" t="inlineStr"/>
+      <c r="BC431" t="inlineStr"/>
+      <c r="BD431" t="inlineStr"/>
+      <c r="BE431" t="inlineStr"/>
+      <c r="BF431" t="inlineStr"/>
+      <c r="BG431" t="inlineStr"/>
+      <c r="BH431" t="inlineStr"/>
+      <c r="BI431" t="inlineStr"/>
+      <c r="BJ431" t="inlineStr"/>
+      <c r="BK431" t="inlineStr"/>
+      <c r="BL431" t="inlineStr"/>
+      <c r="BM431" t="inlineStr"/>
+      <c r="BN431" t="inlineStr"/>
+      <c r="BO431" t="inlineStr"/>
+      <c r="BP431" t="inlineStr"/>
+      <c r="BQ431" t="inlineStr"/>
+      <c r="BR431" t="inlineStr"/>
+      <c r="BS431" t="inlineStr"/>
+      <c r="BT431" t="inlineStr"/>
+      <c r="BU431" t="inlineStr"/>
+      <c r="BV431" t="inlineStr"/>
+      <c r="BW431" t="inlineStr"/>
+      <c r="BX431" t="inlineStr"/>
+      <c r="BY431" t="inlineStr"/>
+      <c r="BZ431" t="inlineStr"/>
+      <c r="CA431" t="inlineStr"/>
+      <c r="CB431" t="inlineStr"/>
+      <c r="CC431" t="inlineStr"/>
+      <c r="CD431" t="inlineStr"/>
+      <c r="CE431" t="inlineStr"/>
+      <c r="CF431" t="inlineStr"/>
+      <c r="CG431" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH431" t="inlineStr"/>
+      <c r="CI431" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CJ431" t="inlineStr"/>
+      <c r="CK431" t="inlineStr"/>
+      <c r="CL431" t="inlineStr"/>
+      <c r="CM431" t="inlineStr"/>
+      <c r="CN431" t="inlineStr"/>
+      <c r="CO431" t="inlineStr"/>
+      <c r="CP431" t="inlineStr"/>
+      <c r="CQ431" t="inlineStr"/>
+      <c r="CR431" t="inlineStr"/>
+      <c r="CS431" t="inlineStr"/>
+      <c r="CT431" t="inlineStr"/>
+      <c r="CU431" t="inlineStr"/>
+      <c r="CV431" t="inlineStr"/>
+      <c r="CW431" t="inlineStr"/>
+      <c r="CX431" t="inlineStr"/>
+      <c r="CY431" t="inlineStr"/>
+      <c r="CZ431" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -54552,7 +54552,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>cl:10381</t>
+          <t>cl:10415</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -54687,7 +54687,7 @@
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr">
         <is>
-          <t>cl:10381,cl:10387</t>
+          <t>cl:10415,cl:10387</t>
         </is>
       </c>
       <c r="G398" t="inlineStr"/>
@@ -54813,7 +54813,7 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr">
         <is>
-          <t>cl:10381,cl:10387</t>
+          <t>cl:10415,cl:10387</t>
         </is>
       </c>
       <c r="G399" t="inlineStr"/>
@@ -54935,7 +54935,7 @@
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr">
         <is>
-          <t>cl:10381,cl:10387</t>
+          <t>cl:10415,cl:10387</t>
         </is>
       </c>
       <c r="G400" t="inlineStr"/>
@@ -55057,7 +55057,7 @@
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr">
         <is>
-          <t>cl:10381,cl:10387</t>
+          <t>cl:10415,cl:10387</t>
         </is>
       </c>
       <c r="G401" t="inlineStr"/>
@@ -55183,7 +55183,7 @@
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr">
         <is>
-          <t>cl:10381</t>
+          <t>cl:10415</t>
         </is>
       </c>
       <c r="G402" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -58712,7 +58712,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>cl:10415</t>
+          <t>cl:10416</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -54552,7 +54552,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>cl:10415</t>
+          <t>cl:10416</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -54687,7 +54687,7 @@
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr">
         <is>
-          <t>cl:10415,cl:10387</t>
+          <t>cl:10416,cl:10387</t>
         </is>
       </c>
       <c r="G398" t="inlineStr"/>
@@ -54813,7 +54813,7 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr">
         <is>
-          <t>cl:10415,cl:10387</t>
+          <t>cl:10416,cl:10387</t>
         </is>
       </c>
       <c r="G399" t="inlineStr"/>
@@ -54935,7 +54935,7 @@
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr">
         <is>
-          <t>cl:10415,cl:10387</t>
+          <t>cl:10416,cl:10387</t>
         </is>
       </c>
       <c r="G400" t="inlineStr"/>
@@ -55057,7 +55057,7 @@
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr">
         <is>
-          <t>cl:10415,cl:10387</t>
+          <t>cl:10416,cl:10387</t>
         </is>
       </c>
       <c r="G401" t="inlineStr"/>
@@ -55183,7 +55183,7 @@
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr">
         <is>
-          <t>cl:10415</t>
+          <t>cl:10416</t>
         </is>
       </c>
       <c r="G402" t="inlineStr"/>
@@ -58712,7 +58712,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>cl:10416</t>
+          <t>cl:10415</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ431"/>
+  <dimension ref="A1:CZ465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16687,7 +16687,7 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>cl:10008</t>
+          <t>cl:10008,cl:10441</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -16780,7 +16780,7 @@
       </c>
       <c r="CI122" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ122" t="inlineStr"/>
@@ -16817,7 +16817,7 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>cl:10008</t>
+          <t>cl:10008,cl:10441</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -16910,7 +16910,7 @@
       </c>
       <c r="CI123" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ123" t="inlineStr"/>
@@ -16947,7 +16947,7 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>cl:10008</t>
+          <t>cl:10008,cl:10441</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -17040,7 +17040,7 @@
       </c>
       <c r="CI124" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ124" t="inlineStr"/>
@@ -36729,7 +36729,11 @@
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>cl:10421</t>
+        </is>
+      </c>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
@@ -36824,7 +36828,7 @@
       </c>
       <c r="CI264" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ264" t="inlineStr"/>
@@ -36861,7 +36865,7 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>cl:10200</t>
+          <t>cl:10200,cl:10421</t>
         </is>
       </c>
       <c r="G265" t="inlineStr"/>
@@ -36962,7 +36966,7 @@
       </c>
       <c r="CI265" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ265" t="inlineStr"/>
@@ -36994,12 +36998,16 @@
           <t>Web Map Service</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr"/>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>WMS</t>
+        </is>
+      </c>
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>cl:10200</t>
+          <t>cl:10200,cl:10421</t>
         </is>
       </c>
       <c r="G266" t="inlineStr"/>
@@ -37092,7 +37100,7 @@
       </c>
       <c r="CI266" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ266" t="inlineStr"/>
@@ -37124,12 +37132,16 @@
           <t>Web Feature Service</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr"/>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>WFS</t>
+        </is>
+      </c>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr">
         <is>
-          <t>cl:10200</t>
+          <t>cl:10200,cl:10421</t>
         </is>
       </c>
       <c r="G267" t="inlineStr"/>
@@ -37222,7 +37234,7 @@
       </c>
       <c r="CI267" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ267" t="inlineStr"/>
@@ -37254,12 +37266,16 @@
           <t>Web Coverage Service</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>WCS</t>
+        </is>
+      </c>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
-          <t>cl:10200</t>
+          <t>cl:10200,cl:10421</t>
         </is>
       </c>
       <c r="G268" t="inlineStr"/>
@@ -37352,7 +37368,7 @@
       </c>
       <c r="CI268" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ268" t="inlineStr"/>
@@ -37381,10 +37397,14 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>no data service</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr"/>
+          <t>no data service implemented</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>no_data_service</t>
+        </is>
+      </c>
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr">
@@ -37482,7 +37502,7 @@
       </c>
       <c r="CI269" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ269" t="inlineStr"/>
@@ -37514,7 +37534,11 @@
           <t>REST API</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>rest_api</t>
+        </is>
+      </c>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr">
@@ -37612,7 +37636,7 @@
       </c>
       <c r="CI270" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ270" t="inlineStr"/>
@@ -37644,7 +37668,11 @@
           <t>Sensor Web Enablement</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr"/>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>SWE</t>
+        </is>
+      </c>
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr">
@@ -37742,7 +37770,7 @@
       </c>
       <c r="CI271" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ271" t="inlineStr"/>
@@ -37774,7 +37802,11 @@
           <t>Web Catalog Service</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr"/>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>CSW</t>
+        </is>
+      </c>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
@@ -37872,7 +37904,7 @@
       </c>
       <c r="CI272" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ272" t="inlineStr"/>
@@ -38039,7 +38071,7 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>cl:10200</t>
+          <t>cl:10200,cl:10421</t>
         </is>
       </c>
       <c r="G274" t="inlineStr"/>
@@ -38132,7 +38164,7 @@
       </c>
       <c r="CI274" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ274" t="inlineStr"/>
@@ -40269,7 +40301,7 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr">
         <is>
-          <t>cl:10223</t>
+          <t>cl:10223,cl:10317,cl:10435</t>
         </is>
       </c>
       <c r="G291" t="inlineStr"/>
@@ -40362,7 +40394,7 @@
       </c>
       <c r="CI291" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ291" t="inlineStr"/>
@@ -41435,19 +41467,15 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>GMS</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>UMTS</t>
-        </is>
-      </c>
+          <t>GMS/UMTS</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr">
         <is>
-          <t>cl:10235</t>
+          <t>cl:10235,cl:10423</t>
         </is>
       </c>
       <c r="G300" t="inlineStr"/>
@@ -41540,7 +41568,7 @@
       </c>
       <c r="CI300" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ300" t="inlineStr"/>
@@ -41707,7 +41735,7 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t>cl:10235</t>
+          <t>cl:10235,cl:10423</t>
         </is>
       </c>
       <c r="G302" t="inlineStr"/>
@@ -41800,7 +41828,7 @@
       </c>
       <c r="CI302" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ302" t="inlineStr"/>
@@ -41837,7 +41865,7 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t>cl:10235</t>
+          <t>cl:10235,cl:10423</t>
         </is>
       </c>
       <c r="G303" t="inlineStr"/>
@@ -41930,7 +41958,7 @@
       </c>
       <c r="CI303" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ303" t="inlineStr"/>
@@ -41967,7 +41995,7 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
         <is>
-          <t>cl:10235</t>
+          <t>cl:10235,cl:10423</t>
         </is>
       </c>
       <c r="G304" t="inlineStr"/>
@@ -42060,7 +42088,7 @@
       </c>
       <c r="CI304" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ304" t="inlineStr"/>
@@ -42089,7 +42117,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>no data transmission</t>
+          <t>no data transmission from site</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -42190,7 +42218,7 @@
       </c>
       <c r="CI305" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ305" t="inlineStr"/>
@@ -42219,7 +42247,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>satellite transmission system</t>
+          <t xml:space="preserve">satellite </t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -42227,7 +42255,7 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t>cl:10235</t>
+          <t>cl:10235,cl:10423</t>
         </is>
       </c>
       <c r="G306" t="inlineStr"/>
@@ -42320,7 +42348,7 @@
       </c>
       <c r="CI306" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ306" t="inlineStr"/>
@@ -44413,7 +44441,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>organisation design</t>
+          <t>site type (spatial design)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -44514,7 +44542,7 @@
       </c>
       <c r="CI323" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ323" t="inlineStr"/>
@@ -44546,7 +44574,11 @@
           <t>platform</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr"/>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>lter_platform</t>
+        </is>
+      </c>
       <c r="D324" t="inlineStr">
         <is>
           <t>a local or regional socio-ecological complex, containing – natural, man-controlled and man-created and dominated ecosystems –, provides not only a multi-site research platform where inter and trans-disciplinary knowledge are produced, a space where the operational infrastructure, policies and adaptive management plans for sustainability can be designed, developed and tested. , "[http://www.lter-europe.net/sites-platforms/categories] (Long-Term Socio-Ecological Research): Modular LTER-facility consisting of sites which are located in an area with defined boundaries. Besides this physical component, LTSER-Platforms provide multiple services like the networking of client groups (e.g. research, local stakeholders), data management, communication and representation (management component). The elements of LTSER Platforms represent the main habitats, land use forms and practices relevant for the broader region (up to 10000 km²) and cover all scales and levels relevant for LTSER (from local to landscape). LTSER-Platforms should represent economic and social units or coincide/overlap with such units where adequate information on land use history, economy and demography is available to allow for socio-ecological research.</t>
@@ -44648,7 +44680,7 @@
       </c>
       <c r="CI324" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ324" t="inlineStr"/>
@@ -44810,7 +44842,11 @@
           <t>complex site</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr"/>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>complex_site</t>
+        </is>
+      </c>
       <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
@@ -44908,7 +44944,7 @@
       </c>
       <c r="CI326" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ326" t="inlineStr"/>
@@ -44940,7 +44976,11 @@
           <t>sub site</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr"/>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>sub_site</t>
+        </is>
+      </c>
       <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
@@ -45038,7 +45078,7 @@
       </c>
       <c r="CI327" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ327" t="inlineStr"/>
@@ -45070,7 +45110,11 @@
           <t>simple site</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr"/>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>simple_site</t>
+        </is>
+      </c>
       <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
@@ -45168,7 +45212,7 @@
       </c>
       <c r="CI328" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ328" t="inlineStr"/>
@@ -45457,7 +45501,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>lodging</t>
+          <t>lodging at site</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -45554,7 +45598,7 @@
       </c>
       <c r="CI331" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ331" t="inlineStr"/>
@@ -46233,7 +46277,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>staff room</t>
+          <t>staff room at site</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -46334,7 +46378,7 @@
       </c>
       <c r="CI337" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ337" t="inlineStr"/>
@@ -46464,7 +46508,7 @@
       </c>
       <c r="CI338" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ338" t="inlineStr"/>
@@ -46594,7 +46638,7 @@
       </c>
       <c r="CI339" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ339" t="inlineStr"/>
@@ -46724,7 +46768,7 @@
       </c>
       <c r="CI340" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ340" t="inlineStr"/>
@@ -54682,7 +54726,11 @@
           <t>Marine</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr"/>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
       <c r="D398" t="inlineStr"/>
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr">
@@ -54776,7 +54824,7 @@
       <c r="CH398" t="inlineStr"/>
       <c r="CI398" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ398" t="inlineStr"/>
@@ -54808,7 +54856,11 @@
           <t>Coastal</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr"/>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>coastal</t>
+        </is>
+      </c>
       <c r="D399" t="inlineStr"/>
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr">
@@ -54898,7 +54950,7 @@
       <c r="CH399" t="inlineStr"/>
       <c r="CI399" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ399" t="inlineStr"/>
@@ -54927,10 +54979,14 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Fresh water lakes</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr"/>
+          <t>Fresh Water Lakes</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>freshwater_lakes</t>
+        </is>
+      </c>
       <c r="D400" t="inlineStr"/>
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr">
@@ -55020,7 +55076,7 @@
       <c r="CH400" t="inlineStr"/>
       <c r="CI400" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ400" t="inlineStr"/>
@@ -55049,10 +55105,14 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Fresh water rivers</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
+          <t>Fresh Water Rivers</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>fresthwater_rivers</t>
+        </is>
+      </c>
       <c r="D401" t="inlineStr"/>
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr">
@@ -55146,7 +55206,7 @@
       <c r="CH401" t="inlineStr"/>
       <c r="CI401" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ401" t="inlineStr"/>
@@ -55178,7 +55238,11 @@
           <t>Terrestrial</t>
         </is>
       </c>
-      <c r="C402" t="inlineStr"/>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
       <c r="D402" t="inlineStr"/>
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr">
@@ -55268,7 +55332,7 @@
       <c r="CH402" t="inlineStr"/>
       <c r="CI402" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ402" t="inlineStr"/>
@@ -55422,7 +55486,11 @@
           <t>Agricultural</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr"/>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>agricultural</t>
+        </is>
+      </c>
       <c r="D404" t="inlineStr"/>
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr">
@@ -55512,7 +55580,7 @@
       <c r="CH404" t="inlineStr"/>
       <c r="CI404" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ404" t="inlineStr"/>
@@ -55544,7 +55612,11 @@
           <t>Alpine</t>
         </is>
       </c>
-      <c r="C405" t="inlineStr"/>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>alpine</t>
+        </is>
+      </c>
       <c r="D405" t="inlineStr"/>
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr">
@@ -55634,7 +55706,7 @@
       <c r="CH405" t="inlineStr"/>
       <c r="CI405" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ405" t="inlineStr"/>
@@ -55666,7 +55738,11 @@
           <t>Chaparral</t>
         </is>
       </c>
-      <c r="C406" t="inlineStr"/>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>chaparral</t>
+        </is>
+      </c>
       <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr">
@@ -55756,7 +55832,7 @@
       <c r="CH406" t="inlineStr"/>
       <c r="CI406" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ406" t="inlineStr"/>
@@ -55788,7 +55864,11 @@
           <t>Deciduous Forest</t>
         </is>
       </c>
-      <c r="C407" t="inlineStr"/>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>deciduous_forest</t>
+        </is>
+      </c>
       <c r="D407" t="inlineStr"/>
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr">
@@ -55878,7 +55958,7 @@
       <c r="CH407" t="inlineStr"/>
       <c r="CI407" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ407" t="inlineStr"/>
@@ -55910,7 +55990,11 @@
           <t>Evergreen Forest</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr"/>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>evergreen_forest</t>
+        </is>
+      </c>
       <c r="D408" t="inlineStr"/>
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr">
@@ -56000,7 +56084,7 @@
       <c r="CH408" t="inlineStr"/>
       <c r="CI408" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ408" t="inlineStr"/>
@@ -56032,7 +56116,11 @@
           <t>Mixed Forest</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr"/>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>mixed_forest</t>
+        </is>
+      </c>
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr">
@@ -56126,7 +56214,7 @@
       <c r="CH409" t="inlineStr"/>
       <c r="CI409" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ409" t="inlineStr"/>
@@ -56158,7 +56246,11 @@
           <t>Desert</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr"/>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>desert</t>
+        </is>
+      </c>
       <c r="D410" t="inlineStr"/>
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr">
@@ -56248,7 +56340,7 @@
       <c r="CH410" t="inlineStr"/>
       <c r="CI410" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ410" t="inlineStr"/>
@@ -56280,7 +56372,11 @@
           <t>Desert-scrub</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr"/>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>desert_scub</t>
+        </is>
+      </c>
       <c r="D411" t="inlineStr"/>
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr">
@@ -56370,7 +56466,7 @@
       <c r="CH411" t="inlineStr"/>
       <c r="CI411" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ411" t="inlineStr"/>
@@ -56402,7 +56498,11 @@
           <t>Grasslands</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr"/>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>grasslands</t>
+        </is>
+      </c>
       <c r="D412" t="inlineStr"/>
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr">
@@ -56492,7 +56592,7 @@
       <c r="CH412" t="inlineStr"/>
       <c r="CI412" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ412" t="inlineStr"/>
@@ -56524,7 +56624,11 @@
           <t>Rainforest</t>
         </is>
       </c>
-      <c r="C413" t="inlineStr"/>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>rainforest</t>
+        </is>
+      </c>
       <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr">
@@ -56614,7 +56718,7 @@
       <c r="CH413" t="inlineStr"/>
       <c r="CI413" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ413" t="inlineStr"/>
@@ -56646,7 +56750,11 @@
           <t>Savanna</t>
         </is>
       </c>
-      <c r="C414" t="inlineStr"/>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>savanna</t>
+        </is>
+      </c>
       <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr"/>
       <c r="F414" t="inlineStr">
@@ -56736,7 +56844,7 @@
       <c r="CH414" t="inlineStr"/>
       <c r="CI414" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ414" t="inlineStr"/>
@@ -56768,7 +56876,11 @@
           <t>Taiga</t>
         </is>
       </c>
-      <c r="C415" t="inlineStr"/>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>taiga</t>
+        </is>
+      </c>
       <c r="D415" t="inlineStr"/>
       <c r="E415" t="inlineStr"/>
       <c r="F415" t="inlineStr">
@@ -56858,7 +56970,7 @@
       <c r="CH415" t="inlineStr"/>
       <c r="CI415" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ415" t="inlineStr"/>
@@ -56890,7 +57002,11 @@
           <t>Tundra</t>
         </is>
       </c>
-      <c r="C416" t="inlineStr"/>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>tundra</t>
+        </is>
+      </c>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="inlineStr">
@@ -56980,7 +57096,7 @@
       <c r="CH416" t="inlineStr"/>
       <c r="CI416" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ416" t="inlineStr"/>
@@ -57012,7 +57128,11 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="C417" t="inlineStr"/>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>urban</t>
+        </is>
+      </c>
       <c r="D417" t="inlineStr"/>
       <c r="E417" t="inlineStr"/>
       <c r="F417" t="inlineStr">
@@ -57102,7 +57222,7 @@
       <c r="CH417" t="inlineStr"/>
       <c r="CI417" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ417" t="inlineStr"/>
@@ -57256,7 +57376,11 @@
           <t>cable car</t>
         </is>
       </c>
-      <c r="C419" t="inlineStr"/>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>cable_car</t>
+        </is>
+      </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr"/>
       <c r="F419" t="inlineStr">
@@ -57346,7 +57470,7 @@
       <c r="CH419" t="inlineStr"/>
       <c r="CI419" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ419" t="inlineStr"/>
@@ -57378,7 +57502,11 @@
           <t>dirt road</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr"/>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>dirt_road</t>
+        </is>
+      </c>
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr"/>
       <c r="F420" t="inlineStr">
@@ -57468,7 +57596,7 @@
       <c r="CH420" t="inlineStr"/>
       <c r="CI420" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ420" t="inlineStr"/>
@@ -57500,7 +57628,11 @@
           <t>trail</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr"/>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>footpath</t>
+        </is>
+      </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr"/>
       <c r="F421" t="inlineStr">
@@ -57590,7 +57722,7 @@
       <c r="CH421" t="inlineStr"/>
       <c r="CI421" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ421" t="inlineStr"/>
@@ -57622,7 +57754,11 @@
           <t>paved road</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr"/>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>paved_road</t>
+        </is>
+      </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr"/>
       <c r="F422" t="inlineStr">
@@ -57716,7 +57852,7 @@
       <c r="CH422" t="inlineStr"/>
       <c r="CI422" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ422" t="inlineStr"/>
@@ -57748,7 +57884,11 @@
           <t>regular car</t>
         </is>
       </c>
-      <c r="C423" t="inlineStr"/>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>regular_car</t>
+        </is>
+      </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="inlineStr">
@@ -57838,7 +57978,7 @@
       <c r="CH423" t="inlineStr"/>
       <c r="CI423" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ423" t="inlineStr"/>
@@ -58814,7 +58954,7 @@
       <c r="CH431" t="inlineStr"/>
       <c r="CI431" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ431" t="inlineStr"/>
@@ -58835,6 +58975,4190 @@
       <c r="CY431" t="inlineStr"/>
       <c r="CZ431" t="inlineStr"/>
     </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>cl:10416</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>design of experimentation</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr"/>
+      <c r="D432" t="inlineStr"/>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr"/>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
+      <c r="M432" t="inlineStr"/>
+      <c r="N432" t="inlineStr"/>
+      <c r="O432" t="inlineStr"/>
+      <c r="P432" t="inlineStr"/>
+      <c r="Q432" t="inlineStr"/>
+      <c r="R432" t="inlineStr"/>
+      <c r="S432" t="inlineStr"/>
+      <c r="T432" t="inlineStr"/>
+      <c r="U432" t="inlineStr"/>
+      <c r="V432" t="inlineStr"/>
+      <c r="W432" t="inlineStr"/>
+      <c r="X432" t="inlineStr"/>
+      <c r="Y432" t="inlineStr"/>
+      <c r="Z432" t="inlineStr"/>
+      <c r="AA432" t="inlineStr"/>
+      <c r="AB432" t="inlineStr"/>
+      <c r="AC432" t="inlineStr"/>
+      <c r="AD432" t="inlineStr"/>
+      <c r="AE432" t="inlineStr"/>
+      <c r="AF432" t="inlineStr"/>
+      <c r="AG432" t="inlineStr"/>
+      <c r="AH432" t="inlineStr"/>
+      <c r="AI432" t="inlineStr"/>
+      <c r="AJ432" t="inlineStr"/>
+      <c r="AK432" t="inlineStr"/>
+      <c r="AL432" t="inlineStr"/>
+      <c r="AM432" t="inlineStr"/>
+      <c r="AN432" t="inlineStr"/>
+      <c r="AO432" t="inlineStr"/>
+      <c r="AP432" t="inlineStr"/>
+      <c r="AQ432" t="inlineStr"/>
+      <c r="AR432" t="inlineStr"/>
+      <c r="AS432" t="inlineStr"/>
+      <c r="AT432" t="inlineStr"/>
+      <c r="AU432" t="inlineStr"/>
+      <c r="AV432" t="inlineStr"/>
+      <c r="AW432" t="inlineStr"/>
+      <c r="AX432" t="inlineStr"/>
+      <c r="AY432" t="inlineStr"/>
+      <c r="AZ432" t="inlineStr"/>
+      <c r="BA432" t="inlineStr"/>
+      <c r="BB432" t="inlineStr"/>
+      <c r="BC432" t="inlineStr"/>
+      <c r="BD432" t="inlineStr"/>
+      <c r="BE432" t="inlineStr"/>
+      <c r="BF432" t="inlineStr"/>
+      <c r="BG432" t="inlineStr"/>
+      <c r="BH432" t="inlineStr"/>
+      <c r="BI432" t="inlineStr"/>
+      <c r="BJ432" t="inlineStr"/>
+      <c r="BK432" t="inlineStr"/>
+      <c r="BL432" t="inlineStr"/>
+      <c r="BM432" t="inlineStr"/>
+      <c r="BN432" t="inlineStr"/>
+      <c r="BO432" t="inlineStr"/>
+      <c r="BP432" t="inlineStr"/>
+      <c r="BQ432" t="inlineStr"/>
+      <c r="BR432" t="inlineStr"/>
+      <c r="BS432" t="inlineStr"/>
+      <c r="BT432" t="inlineStr"/>
+      <c r="BU432" t="inlineStr"/>
+      <c r="BV432" t="inlineStr"/>
+      <c r="BW432" t="inlineStr"/>
+      <c r="BX432" t="inlineStr"/>
+      <c r="BY432" t="inlineStr"/>
+      <c r="BZ432" t="inlineStr"/>
+      <c r="CA432" t="inlineStr"/>
+      <c r="CB432" t="inlineStr"/>
+      <c r="CC432" t="inlineStr"/>
+      <c r="CD432" t="inlineStr"/>
+      <c r="CE432" t="inlineStr"/>
+      <c r="CF432" t="inlineStr"/>
+      <c r="CG432" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH432" t="inlineStr"/>
+      <c r="CI432" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ432" t="inlineStr"/>
+      <c r="CK432" t="inlineStr"/>
+      <c r="CL432" t="inlineStr"/>
+      <c r="CM432" t="inlineStr"/>
+      <c r="CN432" t="inlineStr"/>
+      <c r="CO432" t="inlineStr"/>
+      <c r="CP432" t="inlineStr"/>
+      <c r="CQ432" t="inlineStr"/>
+      <c r="CR432" t="inlineStr"/>
+      <c r="CS432" t="inlineStr"/>
+      <c r="CT432" t="inlineStr"/>
+      <c r="CU432" t="inlineStr"/>
+      <c r="CV432" t="inlineStr"/>
+      <c r="CW432" t="inlineStr"/>
+      <c r="CX432" t="inlineStr"/>
+      <c r="CY432" t="inlineStr"/>
+      <c r="CZ432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>cl:10417</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>mainly experimentation</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>cl:10416</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
+      <c r="M433" t="inlineStr"/>
+      <c r="N433" t="inlineStr"/>
+      <c r="O433" t="inlineStr"/>
+      <c r="P433" t="inlineStr"/>
+      <c r="Q433" t="inlineStr"/>
+      <c r="R433" t="inlineStr"/>
+      <c r="S433" t="inlineStr"/>
+      <c r="T433" t="inlineStr"/>
+      <c r="U433" t="inlineStr"/>
+      <c r="V433" t="inlineStr"/>
+      <c r="W433" t="inlineStr"/>
+      <c r="X433" t="inlineStr"/>
+      <c r="Y433" t="inlineStr"/>
+      <c r="Z433" t="inlineStr"/>
+      <c r="AA433" t="inlineStr"/>
+      <c r="AB433" t="inlineStr"/>
+      <c r="AC433" t="inlineStr"/>
+      <c r="AD433" t="inlineStr"/>
+      <c r="AE433" t="inlineStr"/>
+      <c r="AF433" t="inlineStr"/>
+      <c r="AG433" t="inlineStr"/>
+      <c r="AH433" t="inlineStr"/>
+      <c r="AI433" t="inlineStr"/>
+      <c r="AJ433" t="inlineStr"/>
+      <c r="AK433" t="inlineStr"/>
+      <c r="AL433" t="inlineStr"/>
+      <c r="AM433" t="inlineStr"/>
+      <c r="AN433" t="inlineStr"/>
+      <c r="AO433" t="inlineStr"/>
+      <c r="AP433" t="inlineStr"/>
+      <c r="AQ433" t="inlineStr"/>
+      <c r="AR433" t="inlineStr"/>
+      <c r="AS433" t="inlineStr"/>
+      <c r="AT433" t="inlineStr"/>
+      <c r="AU433" t="inlineStr"/>
+      <c r="AV433" t="inlineStr"/>
+      <c r="AW433" t="inlineStr"/>
+      <c r="AX433" t="inlineStr"/>
+      <c r="AY433" t="inlineStr"/>
+      <c r="AZ433" t="inlineStr"/>
+      <c r="BA433" t="inlineStr"/>
+      <c r="BB433" t="inlineStr"/>
+      <c r="BC433" t="inlineStr"/>
+      <c r="BD433" t="inlineStr"/>
+      <c r="BE433" t="inlineStr"/>
+      <c r="BF433" t="inlineStr"/>
+      <c r="BG433" t="inlineStr"/>
+      <c r="BH433" t="inlineStr"/>
+      <c r="BI433" t="inlineStr"/>
+      <c r="BJ433" t="inlineStr"/>
+      <c r="BK433" t="inlineStr"/>
+      <c r="BL433" t="inlineStr"/>
+      <c r="BM433" t="inlineStr"/>
+      <c r="BN433" t="inlineStr"/>
+      <c r="BO433" t="inlineStr"/>
+      <c r="BP433" t="inlineStr"/>
+      <c r="BQ433" t="inlineStr"/>
+      <c r="BR433" t="inlineStr"/>
+      <c r="BS433" t="inlineStr"/>
+      <c r="BT433" t="inlineStr"/>
+      <c r="BU433" t="inlineStr"/>
+      <c r="BV433" t="inlineStr"/>
+      <c r="BW433" t="inlineStr"/>
+      <c r="BX433" t="inlineStr"/>
+      <c r="BY433" t="inlineStr"/>
+      <c r="BZ433" t="inlineStr"/>
+      <c r="CA433" t="inlineStr"/>
+      <c r="CB433" t="inlineStr"/>
+      <c r="CC433" t="inlineStr"/>
+      <c r="CD433" t="inlineStr"/>
+      <c r="CE433" t="inlineStr"/>
+      <c r="CF433" t="inlineStr"/>
+      <c r="CG433" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH433" t="inlineStr"/>
+      <c r="CI433" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ433" t="inlineStr"/>
+      <c r="CK433" t="inlineStr"/>
+      <c r="CL433" t="inlineStr"/>
+      <c r="CM433" t="inlineStr"/>
+      <c r="CN433" t="inlineStr"/>
+      <c r="CO433" t="inlineStr"/>
+      <c r="CP433" t="inlineStr"/>
+      <c r="CQ433" t="inlineStr"/>
+      <c r="CR433" t="inlineStr"/>
+      <c r="CS433" t="inlineStr"/>
+      <c r="CT433" t="inlineStr"/>
+      <c r="CU433" t="inlineStr"/>
+      <c r="CV433" t="inlineStr"/>
+      <c r="CW433" t="inlineStr"/>
+      <c r="CX433" t="inlineStr"/>
+      <c r="CY433" t="inlineStr"/>
+      <c r="CZ433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>cl:10418</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>partly experimentation</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>cl:10416</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
+      <c r="M434" t="inlineStr"/>
+      <c r="N434" t="inlineStr"/>
+      <c r="O434" t="inlineStr"/>
+      <c r="P434" t="inlineStr"/>
+      <c r="Q434" t="inlineStr"/>
+      <c r="R434" t="inlineStr"/>
+      <c r="S434" t="inlineStr"/>
+      <c r="T434" t="inlineStr"/>
+      <c r="U434" t="inlineStr"/>
+      <c r="V434" t="inlineStr"/>
+      <c r="W434" t="inlineStr"/>
+      <c r="X434" t="inlineStr"/>
+      <c r="Y434" t="inlineStr"/>
+      <c r="Z434" t="inlineStr"/>
+      <c r="AA434" t="inlineStr"/>
+      <c r="AB434" t="inlineStr"/>
+      <c r="AC434" t="inlineStr"/>
+      <c r="AD434" t="inlineStr"/>
+      <c r="AE434" t="inlineStr"/>
+      <c r="AF434" t="inlineStr"/>
+      <c r="AG434" t="inlineStr"/>
+      <c r="AH434" t="inlineStr"/>
+      <c r="AI434" t="inlineStr"/>
+      <c r="AJ434" t="inlineStr"/>
+      <c r="AK434" t="inlineStr"/>
+      <c r="AL434" t="inlineStr"/>
+      <c r="AM434" t="inlineStr"/>
+      <c r="AN434" t="inlineStr"/>
+      <c r="AO434" t="inlineStr"/>
+      <c r="AP434" t="inlineStr"/>
+      <c r="AQ434" t="inlineStr"/>
+      <c r="AR434" t="inlineStr"/>
+      <c r="AS434" t="inlineStr"/>
+      <c r="AT434" t="inlineStr"/>
+      <c r="AU434" t="inlineStr"/>
+      <c r="AV434" t="inlineStr"/>
+      <c r="AW434" t="inlineStr"/>
+      <c r="AX434" t="inlineStr"/>
+      <c r="AY434" t="inlineStr"/>
+      <c r="AZ434" t="inlineStr"/>
+      <c r="BA434" t="inlineStr"/>
+      <c r="BB434" t="inlineStr"/>
+      <c r="BC434" t="inlineStr"/>
+      <c r="BD434" t="inlineStr"/>
+      <c r="BE434" t="inlineStr"/>
+      <c r="BF434" t="inlineStr"/>
+      <c r="BG434" t="inlineStr"/>
+      <c r="BH434" t="inlineStr"/>
+      <c r="BI434" t="inlineStr"/>
+      <c r="BJ434" t="inlineStr"/>
+      <c r="BK434" t="inlineStr"/>
+      <c r="BL434" t="inlineStr"/>
+      <c r="BM434" t="inlineStr"/>
+      <c r="BN434" t="inlineStr"/>
+      <c r="BO434" t="inlineStr"/>
+      <c r="BP434" t="inlineStr"/>
+      <c r="BQ434" t="inlineStr"/>
+      <c r="BR434" t="inlineStr"/>
+      <c r="BS434" t="inlineStr"/>
+      <c r="BT434" t="inlineStr"/>
+      <c r="BU434" t="inlineStr"/>
+      <c r="BV434" t="inlineStr"/>
+      <c r="BW434" t="inlineStr"/>
+      <c r="BX434" t="inlineStr"/>
+      <c r="BY434" t="inlineStr"/>
+      <c r="BZ434" t="inlineStr"/>
+      <c r="CA434" t="inlineStr"/>
+      <c r="CB434" t="inlineStr"/>
+      <c r="CC434" t="inlineStr"/>
+      <c r="CD434" t="inlineStr"/>
+      <c r="CE434" t="inlineStr"/>
+      <c r="CF434" t="inlineStr"/>
+      <c r="CG434" t="inlineStr"/>
+      <c r="CH434" t="inlineStr"/>
+      <c r="CI434" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ434" t="inlineStr"/>
+      <c r="CK434" t="inlineStr"/>
+      <c r="CL434" t="inlineStr"/>
+      <c r="CM434" t="inlineStr"/>
+      <c r="CN434" t="inlineStr"/>
+      <c r="CO434" t="inlineStr"/>
+      <c r="CP434" t="inlineStr"/>
+      <c r="CQ434" t="inlineStr"/>
+      <c r="CR434" t="inlineStr"/>
+      <c r="CS434" t="inlineStr"/>
+      <c r="CT434" t="inlineStr"/>
+      <c r="CU434" t="inlineStr"/>
+      <c r="CV434" t="inlineStr"/>
+      <c r="CW434" t="inlineStr"/>
+      <c r="CX434" t="inlineStr"/>
+      <c r="CY434" t="inlineStr"/>
+      <c r="CZ434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>cl:10419</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>only experimentation</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>cl:10416</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
+      <c r="M435" t="inlineStr"/>
+      <c r="N435" t="inlineStr"/>
+      <c r="O435" t="inlineStr"/>
+      <c r="P435" t="inlineStr"/>
+      <c r="Q435" t="inlineStr"/>
+      <c r="R435" t="inlineStr"/>
+      <c r="S435" t="inlineStr"/>
+      <c r="T435" t="inlineStr"/>
+      <c r="U435" t="inlineStr"/>
+      <c r="V435" t="inlineStr"/>
+      <c r="W435" t="inlineStr"/>
+      <c r="X435" t="inlineStr"/>
+      <c r="Y435" t="inlineStr"/>
+      <c r="Z435" t="inlineStr"/>
+      <c r="AA435" t="inlineStr"/>
+      <c r="AB435" t="inlineStr"/>
+      <c r="AC435" t="inlineStr"/>
+      <c r="AD435" t="inlineStr"/>
+      <c r="AE435" t="inlineStr"/>
+      <c r="AF435" t="inlineStr"/>
+      <c r="AG435" t="inlineStr"/>
+      <c r="AH435" t="inlineStr"/>
+      <c r="AI435" t="inlineStr"/>
+      <c r="AJ435" t="inlineStr"/>
+      <c r="AK435" t="inlineStr"/>
+      <c r="AL435" t="inlineStr"/>
+      <c r="AM435" t="inlineStr"/>
+      <c r="AN435" t="inlineStr"/>
+      <c r="AO435" t="inlineStr"/>
+      <c r="AP435" t="inlineStr"/>
+      <c r="AQ435" t="inlineStr"/>
+      <c r="AR435" t="inlineStr"/>
+      <c r="AS435" t="inlineStr"/>
+      <c r="AT435" t="inlineStr"/>
+      <c r="AU435" t="inlineStr"/>
+      <c r="AV435" t="inlineStr"/>
+      <c r="AW435" t="inlineStr"/>
+      <c r="AX435" t="inlineStr"/>
+      <c r="AY435" t="inlineStr"/>
+      <c r="AZ435" t="inlineStr"/>
+      <c r="BA435" t="inlineStr"/>
+      <c r="BB435" t="inlineStr"/>
+      <c r="BC435" t="inlineStr"/>
+      <c r="BD435" t="inlineStr"/>
+      <c r="BE435" t="inlineStr"/>
+      <c r="BF435" t="inlineStr"/>
+      <c r="BG435" t="inlineStr"/>
+      <c r="BH435" t="inlineStr"/>
+      <c r="BI435" t="inlineStr"/>
+      <c r="BJ435" t="inlineStr"/>
+      <c r="BK435" t="inlineStr"/>
+      <c r="BL435" t="inlineStr"/>
+      <c r="BM435" t="inlineStr"/>
+      <c r="BN435" t="inlineStr"/>
+      <c r="BO435" t="inlineStr"/>
+      <c r="BP435" t="inlineStr"/>
+      <c r="BQ435" t="inlineStr"/>
+      <c r="BR435" t="inlineStr"/>
+      <c r="BS435" t="inlineStr"/>
+      <c r="BT435" t="inlineStr"/>
+      <c r="BU435" t="inlineStr"/>
+      <c r="BV435" t="inlineStr"/>
+      <c r="BW435" t="inlineStr"/>
+      <c r="BX435" t="inlineStr"/>
+      <c r="BY435" t="inlineStr"/>
+      <c r="BZ435" t="inlineStr"/>
+      <c r="CA435" t="inlineStr"/>
+      <c r="CB435" t="inlineStr"/>
+      <c r="CC435" t="inlineStr"/>
+      <c r="CD435" t="inlineStr"/>
+      <c r="CE435" t="inlineStr"/>
+      <c r="CF435" t="inlineStr"/>
+      <c r="CG435" t="inlineStr"/>
+      <c r="CH435" t="inlineStr"/>
+      <c r="CI435" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ435" t="inlineStr"/>
+      <c r="CK435" t="inlineStr"/>
+      <c r="CL435" t="inlineStr"/>
+      <c r="CM435" t="inlineStr"/>
+      <c r="CN435" t="inlineStr"/>
+      <c r="CO435" t="inlineStr"/>
+      <c r="CP435" t="inlineStr"/>
+      <c r="CQ435" t="inlineStr"/>
+      <c r="CR435" t="inlineStr"/>
+      <c r="CS435" t="inlineStr"/>
+      <c r="CT435" t="inlineStr"/>
+      <c r="CU435" t="inlineStr"/>
+      <c r="CV435" t="inlineStr"/>
+      <c r="CW435" t="inlineStr"/>
+      <c r="CX435" t="inlineStr"/>
+      <c r="CY435" t="inlineStr"/>
+      <c r="CZ435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>cl:10420</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>no experimentation</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>cl:10416</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
+      <c r="M436" t="inlineStr"/>
+      <c r="N436" t="inlineStr"/>
+      <c r="O436" t="inlineStr"/>
+      <c r="P436" t="inlineStr"/>
+      <c r="Q436" t="inlineStr"/>
+      <c r="R436" t="inlineStr"/>
+      <c r="S436" t="inlineStr"/>
+      <c r="T436" t="inlineStr"/>
+      <c r="U436" t="inlineStr"/>
+      <c r="V436" t="inlineStr"/>
+      <c r="W436" t="inlineStr"/>
+      <c r="X436" t="inlineStr"/>
+      <c r="Y436" t="inlineStr"/>
+      <c r="Z436" t="inlineStr"/>
+      <c r="AA436" t="inlineStr"/>
+      <c r="AB436" t="inlineStr"/>
+      <c r="AC436" t="inlineStr"/>
+      <c r="AD436" t="inlineStr"/>
+      <c r="AE436" t="inlineStr"/>
+      <c r="AF436" t="inlineStr"/>
+      <c r="AG436" t="inlineStr"/>
+      <c r="AH436" t="inlineStr"/>
+      <c r="AI436" t="inlineStr"/>
+      <c r="AJ436" t="inlineStr"/>
+      <c r="AK436" t="inlineStr"/>
+      <c r="AL436" t="inlineStr"/>
+      <c r="AM436" t="inlineStr"/>
+      <c r="AN436" t="inlineStr"/>
+      <c r="AO436" t="inlineStr"/>
+      <c r="AP436" t="inlineStr"/>
+      <c r="AQ436" t="inlineStr"/>
+      <c r="AR436" t="inlineStr"/>
+      <c r="AS436" t="inlineStr"/>
+      <c r="AT436" t="inlineStr"/>
+      <c r="AU436" t="inlineStr"/>
+      <c r="AV436" t="inlineStr"/>
+      <c r="AW436" t="inlineStr"/>
+      <c r="AX436" t="inlineStr"/>
+      <c r="AY436" t="inlineStr"/>
+      <c r="AZ436" t="inlineStr"/>
+      <c r="BA436" t="inlineStr"/>
+      <c r="BB436" t="inlineStr"/>
+      <c r="BC436" t="inlineStr"/>
+      <c r="BD436" t="inlineStr"/>
+      <c r="BE436" t="inlineStr"/>
+      <c r="BF436" t="inlineStr"/>
+      <c r="BG436" t="inlineStr"/>
+      <c r="BH436" t="inlineStr"/>
+      <c r="BI436" t="inlineStr"/>
+      <c r="BJ436" t="inlineStr"/>
+      <c r="BK436" t="inlineStr"/>
+      <c r="BL436" t="inlineStr"/>
+      <c r="BM436" t="inlineStr"/>
+      <c r="BN436" t="inlineStr"/>
+      <c r="BO436" t="inlineStr"/>
+      <c r="BP436" t="inlineStr"/>
+      <c r="BQ436" t="inlineStr"/>
+      <c r="BR436" t="inlineStr"/>
+      <c r="BS436" t="inlineStr"/>
+      <c r="BT436" t="inlineStr"/>
+      <c r="BU436" t="inlineStr"/>
+      <c r="BV436" t="inlineStr"/>
+      <c r="BW436" t="inlineStr"/>
+      <c r="BX436" t="inlineStr"/>
+      <c r="BY436" t="inlineStr"/>
+      <c r="BZ436" t="inlineStr"/>
+      <c r="CA436" t="inlineStr"/>
+      <c r="CB436" t="inlineStr"/>
+      <c r="CC436" t="inlineStr"/>
+      <c r="CD436" t="inlineStr"/>
+      <c r="CE436" t="inlineStr"/>
+      <c r="CF436" t="inlineStr"/>
+      <c r="CG436" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH436" t="inlineStr"/>
+      <c r="CI436" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ436" t="inlineStr"/>
+      <c r="CK436" t="inlineStr"/>
+      <c r="CL436" t="inlineStr"/>
+      <c r="CM436" t="inlineStr"/>
+      <c r="CN436" t="inlineStr"/>
+      <c r="CO436" t="inlineStr"/>
+      <c r="CP436" t="inlineStr"/>
+      <c r="CQ436" t="inlineStr"/>
+      <c r="CR436" t="inlineStr"/>
+      <c r="CS436" t="inlineStr"/>
+      <c r="CT436" t="inlineStr"/>
+      <c r="CU436" t="inlineStr"/>
+      <c r="CV436" t="inlineStr"/>
+      <c r="CW436" t="inlineStr"/>
+      <c r="CX436" t="inlineStr"/>
+      <c r="CY436" t="inlineStr"/>
+      <c r="CZ436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>cl:10421</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>data infrastructure</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
+      <c r="M437" t="inlineStr"/>
+      <c r="N437" t="inlineStr"/>
+      <c r="O437" t="inlineStr"/>
+      <c r="P437" t="inlineStr"/>
+      <c r="Q437" t="inlineStr"/>
+      <c r="R437" t="inlineStr"/>
+      <c r="S437" t="inlineStr"/>
+      <c r="T437" t="inlineStr"/>
+      <c r="U437" t="inlineStr"/>
+      <c r="V437" t="inlineStr"/>
+      <c r="W437" t="inlineStr"/>
+      <c r="X437" t="inlineStr"/>
+      <c r="Y437" t="inlineStr"/>
+      <c r="Z437" t="inlineStr"/>
+      <c r="AA437" t="inlineStr"/>
+      <c r="AB437" t="inlineStr"/>
+      <c r="AC437" t="inlineStr"/>
+      <c r="AD437" t="inlineStr"/>
+      <c r="AE437" t="inlineStr"/>
+      <c r="AF437" t="inlineStr"/>
+      <c r="AG437" t="inlineStr"/>
+      <c r="AH437" t="inlineStr"/>
+      <c r="AI437" t="inlineStr"/>
+      <c r="AJ437" t="inlineStr"/>
+      <c r="AK437" t="inlineStr"/>
+      <c r="AL437" t="inlineStr"/>
+      <c r="AM437" t="inlineStr"/>
+      <c r="AN437" t="inlineStr"/>
+      <c r="AO437" t="inlineStr"/>
+      <c r="AP437" t="inlineStr"/>
+      <c r="AQ437" t="inlineStr"/>
+      <c r="AR437" t="inlineStr"/>
+      <c r="AS437" t="inlineStr"/>
+      <c r="AT437" t="inlineStr"/>
+      <c r="AU437" t="inlineStr"/>
+      <c r="AV437" t="inlineStr"/>
+      <c r="AW437" t="inlineStr"/>
+      <c r="AX437" t="inlineStr"/>
+      <c r="AY437" t="inlineStr"/>
+      <c r="AZ437" t="inlineStr"/>
+      <c r="BA437" t="inlineStr"/>
+      <c r="BB437" t="inlineStr"/>
+      <c r="BC437" t="inlineStr"/>
+      <c r="BD437" t="inlineStr"/>
+      <c r="BE437" t="inlineStr"/>
+      <c r="BF437" t="inlineStr"/>
+      <c r="BG437" t="inlineStr"/>
+      <c r="BH437" t="inlineStr"/>
+      <c r="BI437" t="inlineStr"/>
+      <c r="BJ437" t="inlineStr"/>
+      <c r="BK437" t="inlineStr"/>
+      <c r="BL437" t="inlineStr"/>
+      <c r="BM437" t="inlineStr"/>
+      <c r="BN437" t="inlineStr"/>
+      <c r="BO437" t="inlineStr"/>
+      <c r="BP437" t="inlineStr"/>
+      <c r="BQ437" t="inlineStr"/>
+      <c r="BR437" t="inlineStr"/>
+      <c r="BS437" t="inlineStr"/>
+      <c r="BT437" t="inlineStr"/>
+      <c r="BU437" t="inlineStr"/>
+      <c r="BV437" t="inlineStr"/>
+      <c r="BW437" t="inlineStr"/>
+      <c r="BX437" t="inlineStr"/>
+      <c r="BY437" t="inlineStr"/>
+      <c r="BZ437" t="inlineStr"/>
+      <c r="CA437" t="inlineStr"/>
+      <c r="CB437" t="inlineStr"/>
+      <c r="CC437" t="inlineStr"/>
+      <c r="CD437" t="inlineStr"/>
+      <c r="CE437" t="inlineStr"/>
+      <c r="CF437" t="inlineStr"/>
+      <c r="CG437" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH437" t="inlineStr"/>
+      <c r="CI437" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ437" t="inlineStr"/>
+      <c r="CK437" t="inlineStr"/>
+      <c r="CL437" t="inlineStr"/>
+      <c r="CM437" t="inlineStr"/>
+      <c r="CN437" t="inlineStr"/>
+      <c r="CO437" t="inlineStr"/>
+      <c r="CP437" t="inlineStr"/>
+      <c r="CQ437" t="inlineStr"/>
+      <c r="CR437" t="inlineStr"/>
+      <c r="CS437" t="inlineStr"/>
+      <c r="CT437" t="inlineStr"/>
+      <c r="CU437" t="inlineStr"/>
+      <c r="CV437" t="inlineStr"/>
+      <c r="CW437" t="inlineStr"/>
+      <c r="CX437" t="inlineStr"/>
+      <c r="CY437" t="inlineStr"/>
+      <c r="CZ437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>cl:10422</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>data transmission type (from site)</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>cl:10235</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
+      <c r="M438" t="inlineStr"/>
+      <c r="N438" t="inlineStr"/>
+      <c r="O438" t="inlineStr"/>
+      <c r="P438" t="inlineStr"/>
+      <c r="Q438" t="inlineStr"/>
+      <c r="R438" t="inlineStr"/>
+      <c r="S438" t="inlineStr"/>
+      <c r="T438" t="inlineStr"/>
+      <c r="U438" t="inlineStr"/>
+      <c r="V438" t="inlineStr"/>
+      <c r="W438" t="inlineStr"/>
+      <c r="X438" t="inlineStr"/>
+      <c r="Y438" t="inlineStr"/>
+      <c r="Z438" t="inlineStr"/>
+      <c r="AA438" t="inlineStr"/>
+      <c r="AB438" t="inlineStr"/>
+      <c r="AC438" t="inlineStr"/>
+      <c r="AD438" t="inlineStr"/>
+      <c r="AE438" t="inlineStr"/>
+      <c r="AF438" t="inlineStr"/>
+      <c r="AG438" t="inlineStr"/>
+      <c r="AH438" t="inlineStr"/>
+      <c r="AI438" t="inlineStr"/>
+      <c r="AJ438" t="inlineStr"/>
+      <c r="AK438" t="inlineStr"/>
+      <c r="AL438" t="inlineStr"/>
+      <c r="AM438" t="inlineStr"/>
+      <c r="AN438" t="inlineStr"/>
+      <c r="AO438" t="inlineStr"/>
+      <c r="AP438" t="inlineStr"/>
+      <c r="AQ438" t="inlineStr"/>
+      <c r="AR438" t="inlineStr"/>
+      <c r="AS438" t="inlineStr"/>
+      <c r="AT438" t="inlineStr"/>
+      <c r="AU438" t="inlineStr"/>
+      <c r="AV438" t="inlineStr"/>
+      <c r="AW438" t="inlineStr"/>
+      <c r="AX438" t="inlineStr"/>
+      <c r="AY438" t="inlineStr"/>
+      <c r="AZ438" t="inlineStr"/>
+      <c r="BA438" t="inlineStr"/>
+      <c r="BB438" t="inlineStr"/>
+      <c r="BC438" t="inlineStr"/>
+      <c r="BD438" t="inlineStr"/>
+      <c r="BE438" t="inlineStr"/>
+      <c r="BF438" t="inlineStr"/>
+      <c r="BG438" t="inlineStr"/>
+      <c r="BH438" t="inlineStr"/>
+      <c r="BI438" t="inlineStr"/>
+      <c r="BJ438" t="inlineStr"/>
+      <c r="BK438" t="inlineStr"/>
+      <c r="BL438" t="inlineStr"/>
+      <c r="BM438" t="inlineStr"/>
+      <c r="BN438" t="inlineStr"/>
+      <c r="BO438" t="inlineStr"/>
+      <c r="BP438" t="inlineStr"/>
+      <c r="BQ438" t="inlineStr"/>
+      <c r="BR438" t="inlineStr"/>
+      <c r="BS438" t="inlineStr"/>
+      <c r="BT438" t="inlineStr"/>
+      <c r="BU438" t="inlineStr"/>
+      <c r="BV438" t="inlineStr"/>
+      <c r="BW438" t="inlineStr"/>
+      <c r="BX438" t="inlineStr"/>
+      <c r="BY438" t="inlineStr"/>
+      <c r="BZ438" t="inlineStr"/>
+      <c r="CA438" t="inlineStr"/>
+      <c r="CB438" t="inlineStr"/>
+      <c r="CC438" t="inlineStr"/>
+      <c r="CD438" t="inlineStr"/>
+      <c r="CE438" t="inlineStr"/>
+      <c r="CF438" t="inlineStr"/>
+      <c r="CG438" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH438" t="inlineStr"/>
+      <c r="CI438" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ438" t="inlineStr"/>
+      <c r="CK438" t="inlineStr"/>
+      <c r="CL438" t="inlineStr"/>
+      <c r="CM438" t="inlineStr"/>
+      <c r="CN438" t="inlineStr"/>
+      <c r="CO438" t="inlineStr"/>
+      <c r="CP438" t="inlineStr"/>
+      <c r="CQ438" t="inlineStr"/>
+      <c r="CR438" t="inlineStr"/>
+      <c r="CS438" t="inlineStr"/>
+      <c r="CT438" t="inlineStr"/>
+      <c r="CU438" t="inlineStr"/>
+      <c r="CV438" t="inlineStr"/>
+      <c r="CW438" t="inlineStr"/>
+      <c r="CX438" t="inlineStr"/>
+      <c r="CY438" t="inlineStr"/>
+      <c r="CZ438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>cl:10423</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>data transmission type (within site)</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
+      <c r="M439" t="inlineStr"/>
+      <c r="N439" t="inlineStr"/>
+      <c r="O439" t="inlineStr"/>
+      <c r="P439" t="inlineStr"/>
+      <c r="Q439" t="inlineStr"/>
+      <c r="R439" t="inlineStr"/>
+      <c r="S439" t="inlineStr"/>
+      <c r="T439" t="inlineStr"/>
+      <c r="U439" t="inlineStr"/>
+      <c r="V439" t="inlineStr"/>
+      <c r="W439" t="inlineStr"/>
+      <c r="X439" t="inlineStr"/>
+      <c r="Y439" t="inlineStr"/>
+      <c r="Z439" t="inlineStr"/>
+      <c r="AA439" t="inlineStr"/>
+      <c r="AB439" t="inlineStr"/>
+      <c r="AC439" t="inlineStr"/>
+      <c r="AD439" t="inlineStr"/>
+      <c r="AE439" t="inlineStr"/>
+      <c r="AF439" t="inlineStr"/>
+      <c r="AG439" t="inlineStr"/>
+      <c r="AH439" t="inlineStr"/>
+      <c r="AI439" t="inlineStr"/>
+      <c r="AJ439" t="inlineStr"/>
+      <c r="AK439" t="inlineStr"/>
+      <c r="AL439" t="inlineStr"/>
+      <c r="AM439" t="inlineStr"/>
+      <c r="AN439" t="inlineStr"/>
+      <c r="AO439" t="inlineStr"/>
+      <c r="AP439" t="inlineStr"/>
+      <c r="AQ439" t="inlineStr"/>
+      <c r="AR439" t="inlineStr"/>
+      <c r="AS439" t="inlineStr"/>
+      <c r="AT439" t="inlineStr"/>
+      <c r="AU439" t="inlineStr"/>
+      <c r="AV439" t="inlineStr"/>
+      <c r="AW439" t="inlineStr"/>
+      <c r="AX439" t="inlineStr"/>
+      <c r="AY439" t="inlineStr"/>
+      <c r="AZ439" t="inlineStr"/>
+      <c r="BA439" t="inlineStr"/>
+      <c r="BB439" t="inlineStr"/>
+      <c r="BC439" t="inlineStr"/>
+      <c r="BD439" t="inlineStr"/>
+      <c r="BE439" t="inlineStr"/>
+      <c r="BF439" t="inlineStr"/>
+      <c r="BG439" t="inlineStr"/>
+      <c r="BH439" t="inlineStr"/>
+      <c r="BI439" t="inlineStr"/>
+      <c r="BJ439" t="inlineStr"/>
+      <c r="BK439" t="inlineStr"/>
+      <c r="BL439" t="inlineStr"/>
+      <c r="BM439" t="inlineStr"/>
+      <c r="BN439" t="inlineStr"/>
+      <c r="BO439" t="inlineStr"/>
+      <c r="BP439" t="inlineStr"/>
+      <c r="BQ439" t="inlineStr"/>
+      <c r="BR439" t="inlineStr"/>
+      <c r="BS439" t="inlineStr"/>
+      <c r="BT439" t="inlineStr"/>
+      <c r="BU439" t="inlineStr"/>
+      <c r="BV439" t="inlineStr"/>
+      <c r="BW439" t="inlineStr"/>
+      <c r="BX439" t="inlineStr"/>
+      <c r="BY439" t="inlineStr"/>
+      <c r="BZ439" t="inlineStr"/>
+      <c r="CA439" t="inlineStr"/>
+      <c r="CB439" t="inlineStr"/>
+      <c r="CC439" t="inlineStr"/>
+      <c r="CD439" t="inlineStr"/>
+      <c r="CE439" t="inlineStr"/>
+      <c r="CF439" t="inlineStr"/>
+      <c r="CG439" t="inlineStr"/>
+      <c r="CH439" t="inlineStr"/>
+      <c r="CI439" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ439" t="inlineStr"/>
+      <c r="CK439" t="inlineStr"/>
+      <c r="CL439" t="inlineStr"/>
+      <c r="CM439" t="inlineStr"/>
+      <c r="CN439" t="inlineStr"/>
+      <c r="CO439" t="inlineStr"/>
+      <c r="CP439" t="inlineStr"/>
+      <c r="CQ439" t="inlineStr"/>
+      <c r="CR439" t="inlineStr"/>
+      <c r="CS439" t="inlineStr"/>
+      <c r="CT439" t="inlineStr"/>
+      <c r="CU439" t="inlineStr"/>
+      <c r="CV439" t="inlineStr"/>
+      <c r="CW439" t="inlineStr"/>
+      <c r="CX439" t="inlineStr"/>
+      <c r="CY439" t="inlineStr"/>
+      <c r="CZ439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>cl:10424</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>no data transmission from site</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>cl:10423</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
+      <c r="M440" t="inlineStr"/>
+      <c r="N440" t="inlineStr"/>
+      <c r="O440" t="inlineStr"/>
+      <c r="P440" t="inlineStr"/>
+      <c r="Q440" t="inlineStr"/>
+      <c r="R440" t="inlineStr"/>
+      <c r="S440" t="inlineStr"/>
+      <c r="T440" t="inlineStr"/>
+      <c r="U440" t="inlineStr"/>
+      <c r="V440" t="inlineStr"/>
+      <c r="W440" t="inlineStr"/>
+      <c r="X440" t="inlineStr"/>
+      <c r="Y440" t="inlineStr"/>
+      <c r="Z440" t="inlineStr"/>
+      <c r="AA440" t="inlineStr"/>
+      <c r="AB440" t="inlineStr"/>
+      <c r="AC440" t="inlineStr"/>
+      <c r="AD440" t="inlineStr"/>
+      <c r="AE440" t="inlineStr"/>
+      <c r="AF440" t="inlineStr"/>
+      <c r="AG440" t="inlineStr"/>
+      <c r="AH440" t="inlineStr"/>
+      <c r="AI440" t="inlineStr"/>
+      <c r="AJ440" t="inlineStr"/>
+      <c r="AK440" t="inlineStr"/>
+      <c r="AL440" t="inlineStr"/>
+      <c r="AM440" t="inlineStr"/>
+      <c r="AN440" t="inlineStr"/>
+      <c r="AO440" t="inlineStr"/>
+      <c r="AP440" t="inlineStr"/>
+      <c r="AQ440" t="inlineStr"/>
+      <c r="AR440" t="inlineStr"/>
+      <c r="AS440" t="inlineStr"/>
+      <c r="AT440" t="inlineStr"/>
+      <c r="AU440" t="inlineStr"/>
+      <c r="AV440" t="inlineStr"/>
+      <c r="AW440" t="inlineStr"/>
+      <c r="AX440" t="inlineStr"/>
+      <c r="AY440" t="inlineStr"/>
+      <c r="AZ440" t="inlineStr"/>
+      <c r="BA440" t="inlineStr"/>
+      <c r="BB440" t="inlineStr"/>
+      <c r="BC440" t="inlineStr"/>
+      <c r="BD440" t="inlineStr"/>
+      <c r="BE440" t="inlineStr"/>
+      <c r="BF440" t="inlineStr"/>
+      <c r="BG440" t="inlineStr"/>
+      <c r="BH440" t="inlineStr"/>
+      <c r="BI440" t="inlineStr"/>
+      <c r="BJ440" t="inlineStr"/>
+      <c r="BK440" t="inlineStr"/>
+      <c r="BL440" t="inlineStr"/>
+      <c r="BM440" t="inlineStr"/>
+      <c r="BN440" t="inlineStr"/>
+      <c r="BO440" t="inlineStr"/>
+      <c r="BP440" t="inlineStr"/>
+      <c r="BQ440" t="inlineStr"/>
+      <c r="BR440" t="inlineStr"/>
+      <c r="BS440" t="inlineStr"/>
+      <c r="BT440" t="inlineStr"/>
+      <c r="BU440" t="inlineStr"/>
+      <c r="BV440" t="inlineStr"/>
+      <c r="BW440" t="inlineStr"/>
+      <c r="BX440" t="inlineStr"/>
+      <c r="BY440" t="inlineStr"/>
+      <c r="BZ440" t="inlineStr"/>
+      <c r="CA440" t="inlineStr"/>
+      <c r="CB440" t="inlineStr"/>
+      <c r="CC440" t="inlineStr"/>
+      <c r="CD440" t="inlineStr"/>
+      <c r="CE440" t="inlineStr"/>
+      <c r="CF440" t="inlineStr"/>
+      <c r="CG440" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH440" t="inlineStr"/>
+      <c r="CI440" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ440" t="inlineStr"/>
+      <c r="CK440" t="inlineStr"/>
+      <c r="CL440" t="inlineStr"/>
+      <c r="CM440" t="inlineStr"/>
+      <c r="CN440" t="inlineStr"/>
+      <c r="CO440" t="inlineStr"/>
+      <c r="CP440" t="inlineStr"/>
+      <c r="CQ440" t="inlineStr"/>
+      <c r="CR440" t="inlineStr"/>
+      <c r="CS440" t="inlineStr"/>
+      <c r="CT440" t="inlineStr"/>
+      <c r="CU440" t="inlineStr"/>
+      <c r="CV440" t="inlineStr"/>
+      <c r="CW440" t="inlineStr"/>
+      <c r="CX440" t="inlineStr"/>
+      <c r="CY440" t="inlineStr"/>
+      <c r="CZ440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>cl:10425</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>site status</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
+      <c r="M441" t="inlineStr"/>
+      <c r="N441" t="inlineStr"/>
+      <c r="O441" t="inlineStr"/>
+      <c r="P441" t="inlineStr"/>
+      <c r="Q441" t="inlineStr"/>
+      <c r="R441" t="inlineStr"/>
+      <c r="S441" t="inlineStr"/>
+      <c r="T441" t="inlineStr"/>
+      <c r="U441" t="inlineStr"/>
+      <c r="V441" t="inlineStr"/>
+      <c r="W441" t="inlineStr"/>
+      <c r="X441" t="inlineStr"/>
+      <c r="Y441" t="inlineStr"/>
+      <c r="Z441" t="inlineStr"/>
+      <c r="AA441" t="inlineStr"/>
+      <c r="AB441" t="inlineStr"/>
+      <c r="AC441" t="inlineStr"/>
+      <c r="AD441" t="inlineStr"/>
+      <c r="AE441" t="inlineStr"/>
+      <c r="AF441" t="inlineStr"/>
+      <c r="AG441" t="inlineStr"/>
+      <c r="AH441" t="inlineStr"/>
+      <c r="AI441" t="inlineStr"/>
+      <c r="AJ441" t="inlineStr"/>
+      <c r="AK441" t="inlineStr"/>
+      <c r="AL441" t="inlineStr"/>
+      <c r="AM441" t="inlineStr"/>
+      <c r="AN441" t="inlineStr"/>
+      <c r="AO441" t="inlineStr"/>
+      <c r="AP441" t="inlineStr"/>
+      <c r="AQ441" t="inlineStr"/>
+      <c r="AR441" t="inlineStr"/>
+      <c r="AS441" t="inlineStr"/>
+      <c r="AT441" t="inlineStr"/>
+      <c r="AU441" t="inlineStr"/>
+      <c r="AV441" t="inlineStr"/>
+      <c r="AW441" t="inlineStr"/>
+      <c r="AX441" t="inlineStr"/>
+      <c r="AY441" t="inlineStr"/>
+      <c r="AZ441" t="inlineStr"/>
+      <c r="BA441" t="inlineStr"/>
+      <c r="BB441" t="inlineStr"/>
+      <c r="BC441" t="inlineStr"/>
+      <c r="BD441" t="inlineStr"/>
+      <c r="BE441" t="inlineStr"/>
+      <c r="BF441" t="inlineStr"/>
+      <c r="BG441" t="inlineStr"/>
+      <c r="BH441" t="inlineStr"/>
+      <c r="BI441" t="inlineStr"/>
+      <c r="BJ441" t="inlineStr"/>
+      <c r="BK441" t="inlineStr"/>
+      <c r="BL441" t="inlineStr"/>
+      <c r="BM441" t="inlineStr"/>
+      <c r="BN441" t="inlineStr"/>
+      <c r="BO441" t="inlineStr"/>
+      <c r="BP441" t="inlineStr"/>
+      <c r="BQ441" t="inlineStr"/>
+      <c r="BR441" t="inlineStr"/>
+      <c r="BS441" t="inlineStr"/>
+      <c r="BT441" t="inlineStr"/>
+      <c r="BU441" t="inlineStr"/>
+      <c r="BV441" t="inlineStr"/>
+      <c r="BW441" t="inlineStr"/>
+      <c r="BX441" t="inlineStr"/>
+      <c r="BY441" t="inlineStr"/>
+      <c r="BZ441" t="inlineStr"/>
+      <c r="CA441" t="inlineStr"/>
+      <c r="CB441" t="inlineStr"/>
+      <c r="CC441" t="inlineStr"/>
+      <c r="CD441" t="inlineStr"/>
+      <c r="CE441" t="inlineStr"/>
+      <c r="CF441" t="inlineStr"/>
+      <c r="CG441" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH441" t="inlineStr"/>
+      <c r="CI441" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ441" t="inlineStr"/>
+      <c r="CK441" t="inlineStr"/>
+      <c r="CL441" t="inlineStr"/>
+      <c r="CM441" t="inlineStr"/>
+      <c r="CN441" t="inlineStr"/>
+      <c r="CO441" t="inlineStr"/>
+      <c r="CP441" t="inlineStr"/>
+      <c r="CQ441" t="inlineStr"/>
+      <c r="CR441" t="inlineStr"/>
+      <c r="CS441" t="inlineStr"/>
+      <c r="CT441" t="inlineStr"/>
+      <c r="CU441" t="inlineStr"/>
+      <c r="CV441" t="inlineStr"/>
+      <c r="CW441" t="inlineStr"/>
+      <c r="CX441" t="inlineStr"/>
+      <c r="CY441" t="inlineStr"/>
+      <c r="CZ441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>cl:10426</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>existing</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>cl:10425</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
+      <c r="M442" t="inlineStr"/>
+      <c r="N442" t="inlineStr"/>
+      <c r="O442" t="inlineStr"/>
+      <c r="P442" t="inlineStr"/>
+      <c r="Q442" t="inlineStr"/>
+      <c r="R442" t="inlineStr"/>
+      <c r="S442" t="inlineStr"/>
+      <c r="T442" t="inlineStr"/>
+      <c r="U442" t="inlineStr"/>
+      <c r="V442" t="inlineStr"/>
+      <c r="W442" t="inlineStr"/>
+      <c r="X442" t="inlineStr"/>
+      <c r="Y442" t="inlineStr"/>
+      <c r="Z442" t="inlineStr"/>
+      <c r="AA442" t="inlineStr"/>
+      <c r="AB442" t="inlineStr"/>
+      <c r="AC442" t="inlineStr"/>
+      <c r="AD442" t="inlineStr"/>
+      <c r="AE442" t="inlineStr"/>
+      <c r="AF442" t="inlineStr"/>
+      <c r="AG442" t="inlineStr"/>
+      <c r="AH442" t="inlineStr"/>
+      <c r="AI442" t="inlineStr"/>
+      <c r="AJ442" t="inlineStr"/>
+      <c r="AK442" t="inlineStr"/>
+      <c r="AL442" t="inlineStr"/>
+      <c r="AM442" t="inlineStr"/>
+      <c r="AN442" t="inlineStr"/>
+      <c r="AO442" t="inlineStr"/>
+      <c r="AP442" t="inlineStr"/>
+      <c r="AQ442" t="inlineStr"/>
+      <c r="AR442" t="inlineStr"/>
+      <c r="AS442" t="inlineStr"/>
+      <c r="AT442" t="inlineStr"/>
+      <c r="AU442" t="inlineStr"/>
+      <c r="AV442" t="inlineStr"/>
+      <c r="AW442" t="inlineStr"/>
+      <c r="AX442" t="inlineStr"/>
+      <c r="AY442" t="inlineStr"/>
+      <c r="AZ442" t="inlineStr"/>
+      <c r="BA442" t="inlineStr"/>
+      <c r="BB442" t="inlineStr"/>
+      <c r="BC442" t="inlineStr"/>
+      <c r="BD442" t="inlineStr"/>
+      <c r="BE442" t="inlineStr"/>
+      <c r="BF442" t="inlineStr"/>
+      <c r="BG442" t="inlineStr"/>
+      <c r="BH442" t="inlineStr"/>
+      <c r="BI442" t="inlineStr"/>
+      <c r="BJ442" t="inlineStr"/>
+      <c r="BK442" t="inlineStr"/>
+      <c r="BL442" t="inlineStr"/>
+      <c r="BM442" t="inlineStr"/>
+      <c r="BN442" t="inlineStr"/>
+      <c r="BO442" t="inlineStr"/>
+      <c r="BP442" t="inlineStr"/>
+      <c r="BQ442" t="inlineStr"/>
+      <c r="BR442" t="inlineStr"/>
+      <c r="BS442" t="inlineStr"/>
+      <c r="BT442" t="inlineStr"/>
+      <c r="BU442" t="inlineStr"/>
+      <c r="BV442" t="inlineStr"/>
+      <c r="BW442" t="inlineStr"/>
+      <c r="BX442" t="inlineStr"/>
+      <c r="BY442" t="inlineStr"/>
+      <c r="BZ442" t="inlineStr"/>
+      <c r="CA442" t="inlineStr"/>
+      <c r="CB442" t="inlineStr"/>
+      <c r="CC442" t="inlineStr"/>
+      <c r="CD442" t="inlineStr"/>
+      <c r="CE442" t="inlineStr"/>
+      <c r="CF442" t="inlineStr"/>
+      <c r="CG442" t="inlineStr"/>
+      <c r="CH442" t="inlineStr"/>
+      <c r="CI442" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ442" t="inlineStr"/>
+      <c r="CK442" t="inlineStr"/>
+      <c r="CL442" t="inlineStr"/>
+      <c r="CM442" t="inlineStr"/>
+      <c r="CN442" t="inlineStr"/>
+      <c r="CO442" t="inlineStr"/>
+      <c r="CP442" t="inlineStr"/>
+      <c r="CQ442" t="inlineStr"/>
+      <c r="CR442" t="inlineStr"/>
+      <c r="CS442" t="inlineStr"/>
+      <c r="CT442" t="inlineStr"/>
+      <c r="CU442" t="inlineStr"/>
+      <c r="CV442" t="inlineStr"/>
+      <c r="CW442" t="inlineStr"/>
+      <c r="CX442" t="inlineStr"/>
+      <c r="CY442" t="inlineStr"/>
+      <c r="CZ442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>cl:10427</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>preliminary</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>cl:10425</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr"/>
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
+      <c r="M443" t="inlineStr"/>
+      <c r="N443" t="inlineStr"/>
+      <c r="O443" t="inlineStr"/>
+      <c r="P443" t="inlineStr"/>
+      <c r="Q443" t="inlineStr"/>
+      <c r="R443" t="inlineStr"/>
+      <c r="S443" t="inlineStr"/>
+      <c r="T443" t="inlineStr"/>
+      <c r="U443" t="inlineStr"/>
+      <c r="V443" t="inlineStr"/>
+      <c r="W443" t="inlineStr"/>
+      <c r="X443" t="inlineStr"/>
+      <c r="Y443" t="inlineStr"/>
+      <c r="Z443" t="inlineStr"/>
+      <c r="AA443" t="inlineStr"/>
+      <c r="AB443" t="inlineStr"/>
+      <c r="AC443" t="inlineStr"/>
+      <c r="AD443" t="inlineStr"/>
+      <c r="AE443" t="inlineStr"/>
+      <c r="AF443" t="inlineStr"/>
+      <c r="AG443" t="inlineStr"/>
+      <c r="AH443" t="inlineStr"/>
+      <c r="AI443" t="inlineStr"/>
+      <c r="AJ443" t="inlineStr"/>
+      <c r="AK443" t="inlineStr"/>
+      <c r="AL443" t="inlineStr"/>
+      <c r="AM443" t="inlineStr"/>
+      <c r="AN443" t="inlineStr"/>
+      <c r="AO443" t="inlineStr"/>
+      <c r="AP443" t="inlineStr"/>
+      <c r="AQ443" t="inlineStr"/>
+      <c r="AR443" t="inlineStr"/>
+      <c r="AS443" t="inlineStr"/>
+      <c r="AT443" t="inlineStr"/>
+      <c r="AU443" t="inlineStr"/>
+      <c r="AV443" t="inlineStr"/>
+      <c r="AW443" t="inlineStr"/>
+      <c r="AX443" t="inlineStr"/>
+      <c r="AY443" t="inlineStr"/>
+      <c r="AZ443" t="inlineStr"/>
+      <c r="BA443" t="inlineStr"/>
+      <c r="BB443" t="inlineStr"/>
+      <c r="BC443" t="inlineStr"/>
+      <c r="BD443" t="inlineStr"/>
+      <c r="BE443" t="inlineStr"/>
+      <c r="BF443" t="inlineStr"/>
+      <c r="BG443" t="inlineStr"/>
+      <c r="BH443" t="inlineStr"/>
+      <c r="BI443" t="inlineStr"/>
+      <c r="BJ443" t="inlineStr"/>
+      <c r="BK443" t="inlineStr"/>
+      <c r="BL443" t="inlineStr"/>
+      <c r="BM443" t="inlineStr"/>
+      <c r="BN443" t="inlineStr"/>
+      <c r="BO443" t="inlineStr"/>
+      <c r="BP443" t="inlineStr"/>
+      <c r="BQ443" t="inlineStr"/>
+      <c r="BR443" t="inlineStr"/>
+      <c r="BS443" t="inlineStr"/>
+      <c r="BT443" t="inlineStr"/>
+      <c r="BU443" t="inlineStr"/>
+      <c r="BV443" t="inlineStr"/>
+      <c r="BW443" t="inlineStr"/>
+      <c r="BX443" t="inlineStr"/>
+      <c r="BY443" t="inlineStr"/>
+      <c r="BZ443" t="inlineStr"/>
+      <c r="CA443" t="inlineStr"/>
+      <c r="CB443" t="inlineStr"/>
+      <c r="CC443" t="inlineStr"/>
+      <c r="CD443" t="inlineStr"/>
+      <c r="CE443" t="inlineStr"/>
+      <c r="CF443" t="inlineStr"/>
+      <c r="CG443" t="inlineStr"/>
+      <c r="CH443" t="inlineStr"/>
+      <c r="CI443" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ443" t="inlineStr"/>
+      <c r="CK443" t="inlineStr"/>
+      <c r="CL443" t="inlineStr"/>
+      <c r="CM443" t="inlineStr"/>
+      <c r="CN443" t="inlineStr"/>
+      <c r="CO443" t="inlineStr"/>
+      <c r="CP443" t="inlineStr"/>
+      <c r="CQ443" t="inlineStr"/>
+      <c r="CR443" t="inlineStr"/>
+      <c r="CS443" t="inlineStr"/>
+      <c r="CT443" t="inlineStr"/>
+      <c r="CU443" t="inlineStr"/>
+      <c r="CV443" t="inlineStr"/>
+      <c r="CW443" t="inlineStr"/>
+      <c r="CX443" t="inlineStr"/>
+      <c r="CY443" t="inlineStr"/>
+      <c r="CZ443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>cl:10428</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>abandoned</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>cl:10425</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr"/>
+      <c r="M444" t="inlineStr"/>
+      <c r="N444" t="inlineStr"/>
+      <c r="O444" t="inlineStr"/>
+      <c r="P444" t="inlineStr"/>
+      <c r="Q444" t="inlineStr"/>
+      <c r="R444" t="inlineStr"/>
+      <c r="S444" t="inlineStr"/>
+      <c r="T444" t="inlineStr"/>
+      <c r="U444" t="inlineStr"/>
+      <c r="V444" t="inlineStr"/>
+      <c r="W444" t="inlineStr"/>
+      <c r="X444" t="inlineStr"/>
+      <c r="Y444" t="inlineStr"/>
+      <c r="Z444" t="inlineStr"/>
+      <c r="AA444" t="inlineStr"/>
+      <c r="AB444" t="inlineStr"/>
+      <c r="AC444" t="inlineStr"/>
+      <c r="AD444" t="inlineStr"/>
+      <c r="AE444" t="inlineStr"/>
+      <c r="AF444" t="inlineStr"/>
+      <c r="AG444" t="inlineStr"/>
+      <c r="AH444" t="inlineStr"/>
+      <c r="AI444" t="inlineStr"/>
+      <c r="AJ444" t="inlineStr"/>
+      <c r="AK444" t="inlineStr"/>
+      <c r="AL444" t="inlineStr"/>
+      <c r="AM444" t="inlineStr"/>
+      <c r="AN444" t="inlineStr"/>
+      <c r="AO444" t="inlineStr"/>
+      <c r="AP444" t="inlineStr"/>
+      <c r="AQ444" t="inlineStr"/>
+      <c r="AR444" t="inlineStr"/>
+      <c r="AS444" t="inlineStr"/>
+      <c r="AT444" t="inlineStr"/>
+      <c r="AU444" t="inlineStr"/>
+      <c r="AV444" t="inlineStr"/>
+      <c r="AW444" t="inlineStr"/>
+      <c r="AX444" t="inlineStr"/>
+      <c r="AY444" t="inlineStr"/>
+      <c r="AZ444" t="inlineStr"/>
+      <c r="BA444" t="inlineStr"/>
+      <c r="BB444" t="inlineStr"/>
+      <c r="BC444" t="inlineStr"/>
+      <c r="BD444" t="inlineStr"/>
+      <c r="BE444" t="inlineStr"/>
+      <c r="BF444" t="inlineStr"/>
+      <c r="BG444" t="inlineStr"/>
+      <c r="BH444" t="inlineStr"/>
+      <c r="BI444" t="inlineStr"/>
+      <c r="BJ444" t="inlineStr"/>
+      <c r="BK444" t="inlineStr"/>
+      <c r="BL444" t="inlineStr"/>
+      <c r="BM444" t="inlineStr"/>
+      <c r="BN444" t="inlineStr"/>
+      <c r="BO444" t="inlineStr"/>
+      <c r="BP444" t="inlineStr"/>
+      <c r="BQ444" t="inlineStr"/>
+      <c r="BR444" t="inlineStr"/>
+      <c r="BS444" t="inlineStr"/>
+      <c r="BT444" t="inlineStr"/>
+      <c r="BU444" t="inlineStr"/>
+      <c r="BV444" t="inlineStr"/>
+      <c r="BW444" t="inlineStr"/>
+      <c r="BX444" t="inlineStr"/>
+      <c r="BY444" t="inlineStr"/>
+      <c r="BZ444" t="inlineStr"/>
+      <c r="CA444" t="inlineStr"/>
+      <c r="CB444" t="inlineStr"/>
+      <c r="CC444" t="inlineStr"/>
+      <c r="CD444" t="inlineStr"/>
+      <c r="CE444" t="inlineStr"/>
+      <c r="CF444" t="inlineStr"/>
+      <c r="CG444" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH444" t="inlineStr"/>
+      <c r="CI444" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ444" t="inlineStr"/>
+      <c r="CK444" t="inlineStr"/>
+      <c r="CL444" t="inlineStr"/>
+      <c r="CM444" t="inlineStr"/>
+      <c r="CN444" t="inlineStr"/>
+      <c r="CO444" t="inlineStr"/>
+      <c r="CP444" t="inlineStr"/>
+      <c r="CQ444" t="inlineStr"/>
+      <c r="CR444" t="inlineStr"/>
+      <c r="CS444" t="inlineStr"/>
+      <c r="CT444" t="inlineStr"/>
+      <c r="CU444" t="inlineStr"/>
+      <c r="CV444" t="inlineStr"/>
+      <c r="CW444" t="inlineStr"/>
+      <c r="CX444" t="inlineStr"/>
+      <c r="CY444" t="inlineStr"/>
+      <c r="CZ444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>cl:10429</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>scale of observation</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr"/>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="inlineStr"/>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
+      <c r="M445" t="inlineStr"/>
+      <c r="N445" t="inlineStr"/>
+      <c r="O445" t="inlineStr"/>
+      <c r="P445" t="inlineStr"/>
+      <c r="Q445" t="inlineStr"/>
+      <c r="R445" t="inlineStr"/>
+      <c r="S445" t="inlineStr"/>
+      <c r="T445" t="inlineStr"/>
+      <c r="U445" t="inlineStr"/>
+      <c r="V445" t="inlineStr"/>
+      <c r="W445" t="inlineStr"/>
+      <c r="X445" t="inlineStr"/>
+      <c r="Y445" t="inlineStr"/>
+      <c r="Z445" t="inlineStr"/>
+      <c r="AA445" t="inlineStr"/>
+      <c r="AB445" t="inlineStr"/>
+      <c r="AC445" t="inlineStr"/>
+      <c r="AD445" t="inlineStr"/>
+      <c r="AE445" t="inlineStr"/>
+      <c r="AF445" t="inlineStr"/>
+      <c r="AG445" t="inlineStr"/>
+      <c r="AH445" t="inlineStr"/>
+      <c r="AI445" t="inlineStr"/>
+      <c r="AJ445" t="inlineStr"/>
+      <c r="AK445" t="inlineStr"/>
+      <c r="AL445" t="inlineStr"/>
+      <c r="AM445" t="inlineStr"/>
+      <c r="AN445" t="inlineStr"/>
+      <c r="AO445" t="inlineStr"/>
+      <c r="AP445" t="inlineStr"/>
+      <c r="AQ445" t="inlineStr"/>
+      <c r="AR445" t="inlineStr"/>
+      <c r="AS445" t="inlineStr"/>
+      <c r="AT445" t="inlineStr"/>
+      <c r="AU445" t="inlineStr"/>
+      <c r="AV445" t="inlineStr"/>
+      <c r="AW445" t="inlineStr"/>
+      <c r="AX445" t="inlineStr"/>
+      <c r="AY445" t="inlineStr"/>
+      <c r="AZ445" t="inlineStr"/>
+      <c r="BA445" t="inlineStr"/>
+      <c r="BB445" t="inlineStr"/>
+      <c r="BC445" t="inlineStr"/>
+      <c r="BD445" t="inlineStr"/>
+      <c r="BE445" t="inlineStr"/>
+      <c r="BF445" t="inlineStr"/>
+      <c r="BG445" t="inlineStr"/>
+      <c r="BH445" t="inlineStr"/>
+      <c r="BI445" t="inlineStr"/>
+      <c r="BJ445" t="inlineStr"/>
+      <c r="BK445" t="inlineStr"/>
+      <c r="BL445" t="inlineStr"/>
+      <c r="BM445" t="inlineStr"/>
+      <c r="BN445" t="inlineStr"/>
+      <c r="BO445" t="inlineStr"/>
+      <c r="BP445" t="inlineStr"/>
+      <c r="BQ445" t="inlineStr"/>
+      <c r="BR445" t="inlineStr"/>
+      <c r="BS445" t="inlineStr"/>
+      <c r="BT445" t="inlineStr"/>
+      <c r="BU445" t="inlineStr"/>
+      <c r="BV445" t="inlineStr"/>
+      <c r="BW445" t="inlineStr"/>
+      <c r="BX445" t="inlineStr"/>
+      <c r="BY445" t="inlineStr"/>
+      <c r="BZ445" t="inlineStr"/>
+      <c r="CA445" t="inlineStr"/>
+      <c r="CB445" t="inlineStr"/>
+      <c r="CC445" t="inlineStr"/>
+      <c r="CD445" t="inlineStr"/>
+      <c r="CE445" t="inlineStr"/>
+      <c r="CF445" t="inlineStr"/>
+      <c r="CG445" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH445" t="inlineStr"/>
+      <c r="CI445" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ445" t="inlineStr"/>
+      <c r="CK445" t="inlineStr"/>
+      <c r="CL445" t="inlineStr"/>
+      <c r="CM445" t="inlineStr"/>
+      <c r="CN445" t="inlineStr"/>
+      <c r="CO445" t="inlineStr"/>
+      <c r="CP445" t="inlineStr"/>
+      <c r="CQ445" t="inlineStr"/>
+      <c r="CR445" t="inlineStr"/>
+      <c r="CS445" t="inlineStr"/>
+      <c r="CT445" t="inlineStr"/>
+      <c r="CU445" t="inlineStr"/>
+      <c r="CV445" t="inlineStr"/>
+      <c r="CW445" t="inlineStr"/>
+      <c r="CX445" t="inlineStr"/>
+      <c r="CY445" t="inlineStr"/>
+      <c r="CZ445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>cl:10430</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>entire catchment</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr"/>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>cl:10429</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
+      <c r="M446" t="inlineStr"/>
+      <c r="N446" t="inlineStr"/>
+      <c r="O446" t="inlineStr"/>
+      <c r="P446" t="inlineStr"/>
+      <c r="Q446" t="inlineStr"/>
+      <c r="R446" t="inlineStr"/>
+      <c r="S446" t="inlineStr"/>
+      <c r="T446" t="inlineStr"/>
+      <c r="U446" t="inlineStr"/>
+      <c r="V446" t="inlineStr"/>
+      <c r="W446" t="inlineStr"/>
+      <c r="X446" t="inlineStr"/>
+      <c r="Y446" t="inlineStr"/>
+      <c r="Z446" t="inlineStr"/>
+      <c r="AA446" t="inlineStr"/>
+      <c r="AB446" t="inlineStr"/>
+      <c r="AC446" t="inlineStr"/>
+      <c r="AD446" t="inlineStr"/>
+      <c r="AE446" t="inlineStr"/>
+      <c r="AF446" t="inlineStr"/>
+      <c r="AG446" t="inlineStr"/>
+      <c r="AH446" t="inlineStr"/>
+      <c r="AI446" t="inlineStr"/>
+      <c r="AJ446" t="inlineStr"/>
+      <c r="AK446" t="inlineStr"/>
+      <c r="AL446" t="inlineStr"/>
+      <c r="AM446" t="inlineStr"/>
+      <c r="AN446" t="inlineStr"/>
+      <c r="AO446" t="inlineStr"/>
+      <c r="AP446" t="inlineStr"/>
+      <c r="AQ446" t="inlineStr"/>
+      <c r="AR446" t="inlineStr"/>
+      <c r="AS446" t="inlineStr"/>
+      <c r="AT446" t="inlineStr"/>
+      <c r="AU446" t="inlineStr"/>
+      <c r="AV446" t="inlineStr"/>
+      <c r="AW446" t="inlineStr"/>
+      <c r="AX446" t="inlineStr"/>
+      <c r="AY446" t="inlineStr"/>
+      <c r="AZ446" t="inlineStr"/>
+      <c r="BA446" t="inlineStr"/>
+      <c r="BB446" t="inlineStr"/>
+      <c r="BC446" t="inlineStr"/>
+      <c r="BD446" t="inlineStr"/>
+      <c r="BE446" t="inlineStr"/>
+      <c r="BF446" t="inlineStr"/>
+      <c r="BG446" t="inlineStr"/>
+      <c r="BH446" t="inlineStr"/>
+      <c r="BI446" t="inlineStr"/>
+      <c r="BJ446" t="inlineStr"/>
+      <c r="BK446" t="inlineStr"/>
+      <c r="BL446" t="inlineStr"/>
+      <c r="BM446" t="inlineStr"/>
+      <c r="BN446" t="inlineStr"/>
+      <c r="BO446" t="inlineStr"/>
+      <c r="BP446" t="inlineStr"/>
+      <c r="BQ446" t="inlineStr"/>
+      <c r="BR446" t="inlineStr"/>
+      <c r="BS446" t="inlineStr"/>
+      <c r="BT446" t="inlineStr"/>
+      <c r="BU446" t="inlineStr"/>
+      <c r="BV446" t="inlineStr"/>
+      <c r="BW446" t="inlineStr"/>
+      <c r="BX446" t="inlineStr"/>
+      <c r="BY446" t="inlineStr"/>
+      <c r="BZ446" t="inlineStr"/>
+      <c r="CA446" t="inlineStr"/>
+      <c r="CB446" t="inlineStr"/>
+      <c r="CC446" t="inlineStr"/>
+      <c r="CD446" t="inlineStr"/>
+      <c r="CE446" t="inlineStr"/>
+      <c r="CF446" t="inlineStr"/>
+      <c r="CG446" t="inlineStr"/>
+      <c r="CH446" t="inlineStr"/>
+      <c r="CI446" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ446" t="inlineStr"/>
+      <c r="CK446" t="inlineStr"/>
+      <c r="CL446" t="inlineStr"/>
+      <c r="CM446" t="inlineStr"/>
+      <c r="CN446" t="inlineStr"/>
+      <c r="CO446" t="inlineStr"/>
+      <c r="CP446" t="inlineStr"/>
+      <c r="CQ446" t="inlineStr"/>
+      <c r="CR446" t="inlineStr"/>
+      <c r="CS446" t="inlineStr"/>
+      <c r="CT446" t="inlineStr"/>
+      <c r="CU446" t="inlineStr"/>
+      <c r="CV446" t="inlineStr"/>
+      <c r="CW446" t="inlineStr"/>
+      <c r="CX446" t="inlineStr"/>
+      <c r="CY446" t="inlineStr"/>
+      <c r="CZ446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>cl:10431</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>plot within catchment</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr"/>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>cl:10429</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
+      <c r="M447" t="inlineStr"/>
+      <c r="N447" t="inlineStr"/>
+      <c r="O447" t="inlineStr"/>
+      <c r="P447" t="inlineStr"/>
+      <c r="Q447" t="inlineStr"/>
+      <c r="R447" t="inlineStr"/>
+      <c r="S447" t="inlineStr"/>
+      <c r="T447" t="inlineStr"/>
+      <c r="U447" t="inlineStr"/>
+      <c r="V447" t="inlineStr"/>
+      <c r="W447" t="inlineStr"/>
+      <c r="X447" t="inlineStr"/>
+      <c r="Y447" t="inlineStr"/>
+      <c r="Z447" t="inlineStr"/>
+      <c r="AA447" t="inlineStr"/>
+      <c r="AB447" t="inlineStr"/>
+      <c r="AC447" t="inlineStr"/>
+      <c r="AD447" t="inlineStr"/>
+      <c r="AE447" t="inlineStr"/>
+      <c r="AF447" t="inlineStr"/>
+      <c r="AG447" t="inlineStr"/>
+      <c r="AH447" t="inlineStr"/>
+      <c r="AI447" t="inlineStr"/>
+      <c r="AJ447" t="inlineStr"/>
+      <c r="AK447" t="inlineStr"/>
+      <c r="AL447" t="inlineStr"/>
+      <c r="AM447" t="inlineStr"/>
+      <c r="AN447" t="inlineStr"/>
+      <c r="AO447" t="inlineStr"/>
+      <c r="AP447" t="inlineStr"/>
+      <c r="AQ447" t="inlineStr"/>
+      <c r="AR447" t="inlineStr"/>
+      <c r="AS447" t="inlineStr"/>
+      <c r="AT447" t="inlineStr"/>
+      <c r="AU447" t="inlineStr"/>
+      <c r="AV447" t="inlineStr"/>
+      <c r="AW447" t="inlineStr"/>
+      <c r="AX447" t="inlineStr"/>
+      <c r="AY447" t="inlineStr"/>
+      <c r="AZ447" t="inlineStr"/>
+      <c r="BA447" t="inlineStr"/>
+      <c r="BB447" t="inlineStr"/>
+      <c r="BC447" t="inlineStr"/>
+      <c r="BD447" t="inlineStr"/>
+      <c r="BE447" t="inlineStr"/>
+      <c r="BF447" t="inlineStr"/>
+      <c r="BG447" t="inlineStr"/>
+      <c r="BH447" t="inlineStr"/>
+      <c r="BI447" t="inlineStr"/>
+      <c r="BJ447" t="inlineStr"/>
+      <c r="BK447" t="inlineStr"/>
+      <c r="BL447" t="inlineStr"/>
+      <c r="BM447" t="inlineStr"/>
+      <c r="BN447" t="inlineStr"/>
+      <c r="BO447" t="inlineStr"/>
+      <c r="BP447" t="inlineStr"/>
+      <c r="BQ447" t="inlineStr"/>
+      <c r="BR447" t="inlineStr"/>
+      <c r="BS447" t="inlineStr"/>
+      <c r="BT447" t="inlineStr"/>
+      <c r="BU447" t="inlineStr"/>
+      <c r="BV447" t="inlineStr"/>
+      <c r="BW447" t="inlineStr"/>
+      <c r="BX447" t="inlineStr"/>
+      <c r="BY447" t="inlineStr"/>
+      <c r="BZ447" t="inlineStr"/>
+      <c r="CA447" t="inlineStr"/>
+      <c r="CB447" t="inlineStr"/>
+      <c r="CC447" t="inlineStr"/>
+      <c r="CD447" t="inlineStr"/>
+      <c r="CE447" t="inlineStr"/>
+      <c r="CF447" t="inlineStr"/>
+      <c r="CG447" t="inlineStr"/>
+      <c r="CH447" t="inlineStr"/>
+      <c r="CI447" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ447" t="inlineStr"/>
+      <c r="CK447" t="inlineStr"/>
+      <c r="CL447" t="inlineStr"/>
+      <c r="CM447" t="inlineStr"/>
+      <c r="CN447" t="inlineStr"/>
+      <c r="CO447" t="inlineStr"/>
+      <c r="CP447" t="inlineStr"/>
+      <c r="CQ447" t="inlineStr"/>
+      <c r="CR447" t="inlineStr"/>
+      <c r="CS447" t="inlineStr"/>
+      <c r="CT447" t="inlineStr"/>
+      <c r="CU447" t="inlineStr"/>
+      <c r="CV447" t="inlineStr"/>
+      <c r="CW447" t="inlineStr"/>
+      <c r="CX447" t="inlineStr"/>
+      <c r="CY447" t="inlineStr"/>
+      <c r="CZ447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>cl:10432</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>plot without link to explicit catchment</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>cl:10429</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr"/>
+      <c r="H448" t="inlineStr"/>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
+      <c r="M448" t="inlineStr"/>
+      <c r="N448" t="inlineStr"/>
+      <c r="O448" t="inlineStr"/>
+      <c r="P448" t="inlineStr"/>
+      <c r="Q448" t="inlineStr"/>
+      <c r="R448" t="inlineStr"/>
+      <c r="S448" t="inlineStr"/>
+      <c r="T448" t="inlineStr"/>
+      <c r="U448" t="inlineStr"/>
+      <c r="V448" t="inlineStr"/>
+      <c r="W448" t="inlineStr"/>
+      <c r="X448" t="inlineStr"/>
+      <c r="Y448" t="inlineStr"/>
+      <c r="Z448" t="inlineStr"/>
+      <c r="AA448" t="inlineStr"/>
+      <c r="AB448" t="inlineStr"/>
+      <c r="AC448" t="inlineStr"/>
+      <c r="AD448" t="inlineStr"/>
+      <c r="AE448" t="inlineStr"/>
+      <c r="AF448" t="inlineStr"/>
+      <c r="AG448" t="inlineStr"/>
+      <c r="AH448" t="inlineStr"/>
+      <c r="AI448" t="inlineStr"/>
+      <c r="AJ448" t="inlineStr"/>
+      <c r="AK448" t="inlineStr"/>
+      <c r="AL448" t="inlineStr"/>
+      <c r="AM448" t="inlineStr"/>
+      <c r="AN448" t="inlineStr"/>
+      <c r="AO448" t="inlineStr"/>
+      <c r="AP448" t="inlineStr"/>
+      <c r="AQ448" t="inlineStr"/>
+      <c r="AR448" t="inlineStr"/>
+      <c r="AS448" t="inlineStr"/>
+      <c r="AT448" t="inlineStr"/>
+      <c r="AU448" t="inlineStr"/>
+      <c r="AV448" t="inlineStr"/>
+      <c r="AW448" t="inlineStr"/>
+      <c r="AX448" t="inlineStr"/>
+      <c r="AY448" t="inlineStr"/>
+      <c r="AZ448" t="inlineStr"/>
+      <c r="BA448" t="inlineStr"/>
+      <c r="BB448" t="inlineStr"/>
+      <c r="BC448" t="inlineStr"/>
+      <c r="BD448" t="inlineStr"/>
+      <c r="BE448" t="inlineStr"/>
+      <c r="BF448" t="inlineStr"/>
+      <c r="BG448" t="inlineStr"/>
+      <c r="BH448" t="inlineStr"/>
+      <c r="BI448" t="inlineStr"/>
+      <c r="BJ448" t="inlineStr"/>
+      <c r="BK448" t="inlineStr"/>
+      <c r="BL448" t="inlineStr"/>
+      <c r="BM448" t="inlineStr"/>
+      <c r="BN448" t="inlineStr"/>
+      <c r="BO448" t="inlineStr"/>
+      <c r="BP448" t="inlineStr"/>
+      <c r="BQ448" t="inlineStr"/>
+      <c r="BR448" t="inlineStr"/>
+      <c r="BS448" t="inlineStr"/>
+      <c r="BT448" t="inlineStr"/>
+      <c r="BU448" t="inlineStr"/>
+      <c r="BV448" t="inlineStr"/>
+      <c r="BW448" t="inlineStr"/>
+      <c r="BX448" t="inlineStr"/>
+      <c r="BY448" t="inlineStr"/>
+      <c r="BZ448" t="inlineStr"/>
+      <c r="CA448" t="inlineStr"/>
+      <c r="CB448" t="inlineStr"/>
+      <c r="CC448" t="inlineStr"/>
+      <c r="CD448" t="inlineStr"/>
+      <c r="CE448" t="inlineStr"/>
+      <c r="CF448" t="inlineStr"/>
+      <c r="CG448" t="inlineStr"/>
+      <c r="CH448" t="inlineStr"/>
+      <c r="CI448" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ448" t="inlineStr"/>
+      <c r="CK448" t="inlineStr"/>
+      <c r="CL448" t="inlineStr"/>
+      <c r="CM448" t="inlineStr"/>
+      <c r="CN448" t="inlineStr"/>
+      <c r="CO448" t="inlineStr"/>
+      <c r="CP448" t="inlineStr"/>
+      <c r="CQ448" t="inlineStr"/>
+      <c r="CR448" t="inlineStr"/>
+      <c r="CS448" t="inlineStr"/>
+      <c r="CT448" t="inlineStr"/>
+      <c r="CU448" t="inlineStr"/>
+      <c r="CV448" t="inlineStr"/>
+      <c r="CW448" t="inlineStr"/>
+      <c r="CX448" t="inlineStr"/>
+      <c r="CY448" t="inlineStr"/>
+      <c r="CZ448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>cl:10433</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>sub-catchment within catchment</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>cl:10429</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr"/>
+      <c r="H449" t="inlineStr"/>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
+      <c r="M449" t="inlineStr"/>
+      <c r="N449" t="inlineStr"/>
+      <c r="O449" t="inlineStr"/>
+      <c r="P449" t="inlineStr"/>
+      <c r="Q449" t="inlineStr"/>
+      <c r="R449" t="inlineStr"/>
+      <c r="S449" t="inlineStr"/>
+      <c r="T449" t="inlineStr"/>
+      <c r="U449" t="inlineStr"/>
+      <c r="V449" t="inlineStr"/>
+      <c r="W449" t="inlineStr"/>
+      <c r="X449" t="inlineStr"/>
+      <c r="Y449" t="inlineStr"/>
+      <c r="Z449" t="inlineStr"/>
+      <c r="AA449" t="inlineStr"/>
+      <c r="AB449" t="inlineStr"/>
+      <c r="AC449" t="inlineStr"/>
+      <c r="AD449" t="inlineStr"/>
+      <c r="AE449" t="inlineStr"/>
+      <c r="AF449" t="inlineStr"/>
+      <c r="AG449" t="inlineStr"/>
+      <c r="AH449" t="inlineStr"/>
+      <c r="AI449" t="inlineStr"/>
+      <c r="AJ449" t="inlineStr"/>
+      <c r="AK449" t="inlineStr"/>
+      <c r="AL449" t="inlineStr"/>
+      <c r="AM449" t="inlineStr"/>
+      <c r="AN449" t="inlineStr"/>
+      <c r="AO449" t="inlineStr"/>
+      <c r="AP449" t="inlineStr"/>
+      <c r="AQ449" t="inlineStr"/>
+      <c r="AR449" t="inlineStr"/>
+      <c r="AS449" t="inlineStr"/>
+      <c r="AT449" t="inlineStr"/>
+      <c r="AU449" t="inlineStr"/>
+      <c r="AV449" t="inlineStr"/>
+      <c r="AW449" t="inlineStr"/>
+      <c r="AX449" t="inlineStr"/>
+      <c r="AY449" t="inlineStr"/>
+      <c r="AZ449" t="inlineStr"/>
+      <c r="BA449" t="inlineStr"/>
+      <c r="BB449" t="inlineStr"/>
+      <c r="BC449" t="inlineStr"/>
+      <c r="BD449" t="inlineStr"/>
+      <c r="BE449" t="inlineStr"/>
+      <c r="BF449" t="inlineStr"/>
+      <c r="BG449" t="inlineStr"/>
+      <c r="BH449" t="inlineStr"/>
+      <c r="BI449" t="inlineStr"/>
+      <c r="BJ449" t="inlineStr"/>
+      <c r="BK449" t="inlineStr"/>
+      <c r="BL449" t="inlineStr"/>
+      <c r="BM449" t="inlineStr"/>
+      <c r="BN449" t="inlineStr"/>
+      <c r="BO449" t="inlineStr"/>
+      <c r="BP449" t="inlineStr"/>
+      <c r="BQ449" t="inlineStr"/>
+      <c r="BR449" t="inlineStr"/>
+      <c r="BS449" t="inlineStr"/>
+      <c r="BT449" t="inlineStr"/>
+      <c r="BU449" t="inlineStr"/>
+      <c r="BV449" t="inlineStr"/>
+      <c r="BW449" t="inlineStr"/>
+      <c r="BX449" t="inlineStr"/>
+      <c r="BY449" t="inlineStr"/>
+      <c r="BZ449" t="inlineStr"/>
+      <c r="CA449" t="inlineStr"/>
+      <c r="CB449" t="inlineStr"/>
+      <c r="CC449" t="inlineStr"/>
+      <c r="CD449" t="inlineStr"/>
+      <c r="CE449" t="inlineStr"/>
+      <c r="CF449" t="inlineStr"/>
+      <c r="CG449" t="inlineStr"/>
+      <c r="CH449" t="inlineStr"/>
+      <c r="CI449" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ449" t="inlineStr"/>
+      <c r="CK449" t="inlineStr"/>
+      <c r="CL449" t="inlineStr"/>
+      <c r="CM449" t="inlineStr"/>
+      <c r="CN449" t="inlineStr"/>
+      <c r="CO449" t="inlineStr"/>
+      <c r="CP449" t="inlineStr"/>
+      <c r="CQ449" t="inlineStr"/>
+      <c r="CR449" t="inlineStr"/>
+      <c r="CS449" t="inlineStr"/>
+      <c r="CT449" t="inlineStr"/>
+      <c r="CU449" t="inlineStr"/>
+      <c r="CV449" t="inlineStr"/>
+      <c r="CW449" t="inlineStr"/>
+      <c r="CX449" t="inlineStr"/>
+      <c r="CY449" t="inlineStr"/>
+      <c r="CZ449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>cl:10434</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>beyond catchment</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>cl:10429</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr"/>
+      <c r="H450" t="inlineStr"/>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="inlineStr"/>
+      <c r="M450" t="inlineStr"/>
+      <c r="N450" t="inlineStr"/>
+      <c r="O450" t="inlineStr"/>
+      <c r="P450" t="inlineStr"/>
+      <c r="Q450" t="inlineStr"/>
+      <c r="R450" t="inlineStr"/>
+      <c r="S450" t="inlineStr"/>
+      <c r="T450" t="inlineStr"/>
+      <c r="U450" t="inlineStr"/>
+      <c r="V450" t="inlineStr"/>
+      <c r="W450" t="inlineStr"/>
+      <c r="X450" t="inlineStr"/>
+      <c r="Y450" t="inlineStr"/>
+      <c r="Z450" t="inlineStr"/>
+      <c r="AA450" t="inlineStr"/>
+      <c r="AB450" t="inlineStr"/>
+      <c r="AC450" t="inlineStr"/>
+      <c r="AD450" t="inlineStr"/>
+      <c r="AE450" t="inlineStr"/>
+      <c r="AF450" t="inlineStr"/>
+      <c r="AG450" t="inlineStr"/>
+      <c r="AH450" t="inlineStr"/>
+      <c r="AI450" t="inlineStr"/>
+      <c r="AJ450" t="inlineStr"/>
+      <c r="AK450" t="inlineStr"/>
+      <c r="AL450" t="inlineStr"/>
+      <c r="AM450" t="inlineStr"/>
+      <c r="AN450" t="inlineStr"/>
+      <c r="AO450" t="inlineStr"/>
+      <c r="AP450" t="inlineStr"/>
+      <c r="AQ450" t="inlineStr"/>
+      <c r="AR450" t="inlineStr"/>
+      <c r="AS450" t="inlineStr"/>
+      <c r="AT450" t="inlineStr"/>
+      <c r="AU450" t="inlineStr"/>
+      <c r="AV450" t="inlineStr"/>
+      <c r="AW450" t="inlineStr"/>
+      <c r="AX450" t="inlineStr"/>
+      <c r="AY450" t="inlineStr"/>
+      <c r="AZ450" t="inlineStr"/>
+      <c r="BA450" t="inlineStr"/>
+      <c r="BB450" t="inlineStr"/>
+      <c r="BC450" t="inlineStr"/>
+      <c r="BD450" t="inlineStr"/>
+      <c r="BE450" t="inlineStr"/>
+      <c r="BF450" t="inlineStr"/>
+      <c r="BG450" t="inlineStr"/>
+      <c r="BH450" t="inlineStr"/>
+      <c r="BI450" t="inlineStr"/>
+      <c r="BJ450" t="inlineStr"/>
+      <c r="BK450" t="inlineStr"/>
+      <c r="BL450" t="inlineStr"/>
+      <c r="BM450" t="inlineStr"/>
+      <c r="BN450" t="inlineStr"/>
+      <c r="BO450" t="inlineStr"/>
+      <c r="BP450" t="inlineStr"/>
+      <c r="BQ450" t="inlineStr"/>
+      <c r="BR450" t="inlineStr"/>
+      <c r="BS450" t="inlineStr"/>
+      <c r="BT450" t="inlineStr"/>
+      <c r="BU450" t="inlineStr"/>
+      <c r="BV450" t="inlineStr"/>
+      <c r="BW450" t="inlineStr"/>
+      <c r="BX450" t="inlineStr"/>
+      <c r="BY450" t="inlineStr"/>
+      <c r="BZ450" t="inlineStr"/>
+      <c r="CA450" t="inlineStr"/>
+      <c r="CB450" t="inlineStr"/>
+      <c r="CC450" t="inlineStr"/>
+      <c r="CD450" t="inlineStr"/>
+      <c r="CE450" t="inlineStr"/>
+      <c r="CF450" t="inlineStr"/>
+      <c r="CG450" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH450" t="inlineStr"/>
+      <c r="CI450" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ450" t="inlineStr"/>
+      <c r="CK450" t="inlineStr"/>
+      <c r="CL450" t="inlineStr"/>
+      <c r="CM450" t="inlineStr"/>
+      <c r="CN450" t="inlineStr"/>
+      <c r="CO450" t="inlineStr"/>
+      <c r="CP450" t="inlineStr"/>
+      <c r="CQ450" t="inlineStr"/>
+      <c r="CR450" t="inlineStr"/>
+      <c r="CS450" t="inlineStr"/>
+      <c r="CT450" t="inlineStr"/>
+      <c r="CU450" t="inlineStr"/>
+      <c r="CV450" t="inlineStr"/>
+      <c r="CW450" t="inlineStr"/>
+      <c r="CX450" t="inlineStr"/>
+      <c r="CY450" t="inlineStr"/>
+      <c r="CZ450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>cl:10435</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>LTER site classification</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr"/>
+      <c r="D451" t="inlineStr"/>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr"/>
+      <c r="M451" t="inlineStr"/>
+      <c r="N451" t="inlineStr"/>
+      <c r="O451" t="inlineStr"/>
+      <c r="P451" t="inlineStr"/>
+      <c r="Q451" t="inlineStr"/>
+      <c r="R451" t="inlineStr"/>
+      <c r="S451" t="inlineStr"/>
+      <c r="T451" t="inlineStr"/>
+      <c r="U451" t="inlineStr"/>
+      <c r="V451" t="inlineStr"/>
+      <c r="W451" t="inlineStr"/>
+      <c r="X451" t="inlineStr"/>
+      <c r="Y451" t="inlineStr"/>
+      <c r="Z451" t="inlineStr"/>
+      <c r="AA451" t="inlineStr"/>
+      <c r="AB451" t="inlineStr"/>
+      <c r="AC451" t="inlineStr"/>
+      <c r="AD451" t="inlineStr"/>
+      <c r="AE451" t="inlineStr"/>
+      <c r="AF451" t="inlineStr"/>
+      <c r="AG451" t="inlineStr"/>
+      <c r="AH451" t="inlineStr"/>
+      <c r="AI451" t="inlineStr"/>
+      <c r="AJ451" t="inlineStr"/>
+      <c r="AK451" t="inlineStr"/>
+      <c r="AL451" t="inlineStr"/>
+      <c r="AM451" t="inlineStr"/>
+      <c r="AN451" t="inlineStr"/>
+      <c r="AO451" t="inlineStr"/>
+      <c r="AP451" t="inlineStr"/>
+      <c r="AQ451" t="inlineStr"/>
+      <c r="AR451" t="inlineStr"/>
+      <c r="AS451" t="inlineStr"/>
+      <c r="AT451" t="inlineStr"/>
+      <c r="AU451" t="inlineStr"/>
+      <c r="AV451" t="inlineStr"/>
+      <c r="AW451" t="inlineStr"/>
+      <c r="AX451" t="inlineStr"/>
+      <c r="AY451" t="inlineStr"/>
+      <c r="AZ451" t="inlineStr"/>
+      <c r="BA451" t="inlineStr"/>
+      <c r="BB451" t="inlineStr"/>
+      <c r="BC451" t="inlineStr"/>
+      <c r="BD451" t="inlineStr"/>
+      <c r="BE451" t="inlineStr"/>
+      <c r="BF451" t="inlineStr"/>
+      <c r="BG451" t="inlineStr"/>
+      <c r="BH451" t="inlineStr"/>
+      <c r="BI451" t="inlineStr"/>
+      <c r="BJ451" t="inlineStr"/>
+      <c r="BK451" t="inlineStr"/>
+      <c r="BL451" t="inlineStr"/>
+      <c r="BM451" t="inlineStr"/>
+      <c r="BN451" t="inlineStr"/>
+      <c r="BO451" t="inlineStr"/>
+      <c r="BP451" t="inlineStr"/>
+      <c r="BQ451" t="inlineStr"/>
+      <c r="BR451" t="inlineStr"/>
+      <c r="BS451" t="inlineStr"/>
+      <c r="BT451" t="inlineStr"/>
+      <c r="BU451" t="inlineStr"/>
+      <c r="BV451" t="inlineStr"/>
+      <c r="BW451" t="inlineStr"/>
+      <c r="BX451" t="inlineStr"/>
+      <c r="BY451" t="inlineStr"/>
+      <c r="BZ451" t="inlineStr"/>
+      <c r="CA451" t="inlineStr"/>
+      <c r="CB451" t="inlineStr"/>
+      <c r="CC451" t="inlineStr"/>
+      <c r="CD451" t="inlineStr"/>
+      <c r="CE451" t="inlineStr"/>
+      <c r="CF451" t="inlineStr"/>
+      <c r="CG451" t="inlineStr"/>
+      <c r="CH451" t="inlineStr"/>
+      <c r="CI451" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ451" t="inlineStr"/>
+      <c r="CK451" t="inlineStr"/>
+      <c r="CL451" t="inlineStr"/>
+      <c r="CM451" t="inlineStr"/>
+      <c r="CN451" t="inlineStr"/>
+      <c r="CO451" t="inlineStr"/>
+      <c r="CP451" t="inlineStr"/>
+      <c r="CQ451" t="inlineStr"/>
+      <c r="CR451" t="inlineStr"/>
+      <c r="CS451" t="inlineStr"/>
+      <c r="CT451" t="inlineStr"/>
+      <c r="CU451" t="inlineStr"/>
+      <c r="CV451" t="inlineStr"/>
+      <c r="CW451" t="inlineStr"/>
+      <c r="CX451" t="inlineStr"/>
+      <c r="CY451" t="inlineStr"/>
+      <c r="CZ451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>cl:10436</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>LTSER</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="inlineStr"/>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>cl:10435</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr"/>
+      <c r="H452" t="inlineStr"/>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
+      <c r="M452" t="inlineStr"/>
+      <c r="N452" t="inlineStr"/>
+      <c r="O452" t="inlineStr"/>
+      <c r="P452" t="inlineStr"/>
+      <c r="Q452" t="inlineStr"/>
+      <c r="R452" t="inlineStr"/>
+      <c r="S452" t="inlineStr"/>
+      <c r="T452" t="inlineStr"/>
+      <c r="U452" t="inlineStr"/>
+      <c r="V452" t="inlineStr"/>
+      <c r="W452" t="inlineStr"/>
+      <c r="X452" t="inlineStr"/>
+      <c r="Y452" t="inlineStr"/>
+      <c r="Z452" t="inlineStr"/>
+      <c r="AA452" t="inlineStr"/>
+      <c r="AB452" t="inlineStr"/>
+      <c r="AC452" t="inlineStr"/>
+      <c r="AD452" t="inlineStr"/>
+      <c r="AE452" t="inlineStr"/>
+      <c r="AF452" t="inlineStr"/>
+      <c r="AG452" t="inlineStr"/>
+      <c r="AH452" t="inlineStr"/>
+      <c r="AI452" t="inlineStr"/>
+      <c r="AJ452" t="inlineStr"/>
+      <c r="AK452" t="inlineStr"/>
+      <c r="AL452" t="inlineStr"/>
+      <c r="AM452" t="inlineStr"/>
+      <c r="AN452" t="inlineStr"/>
+      <c r="AO452" t="inlineStr"/>
+      <c r="AP452" t="inlineStr"/>
+      <c r="AQ452" t="inlineStr"/>
+      <c r="AR452" t="inlineStr"/>
+      <c r="AS452" t="inlineStr"/>
+      <c r="AT452" t="inlineStr"/>
+      <c r="AU452" t="inlineStr"/>
+      <c r="AV452" t="inlineStr"/>
+      <c r="AW452" t="inlineStr"/>
+      <c r="AX452" t="inlineStr"/>
+      <c r="AY452" t="inlineStr"/>
+      <c r="AZ452" t="inlineStr"/>
+      <c r="BA452" t="inlineStr"/>
+      <c r="BB452" t="inlineStr"/>
+      <c r="BC452" t="inlineStr"/>
+      <c r="BD452" t="inlineStr"/>
+      <c r="BE452" t="inlineStr"/>
+      <c r="BF452" t="inlineStr"/>
+      <c r="BG452" t="inlineStr"/>
+      <c r="BH452" t="inlineStr"/>
+      <c r="BI452" t="inlineStr"/>
+      <c r="BJ452" t="inlineStr"/>
+      <c r="BK452" t="inlineStr"/>
+      <c r="BL452" t="inlineStr"/>
+      <c r="BM452" t="inlineStr"/>
+      <c r="BN452" t="inlineStr"/>
+      <c r="BO452" t="inlineStr"/>
+      <c r="BP452" t="inlineStr"/>
+      <c r="BQ452" t="inlineStr"/>
+      <c r="BR452" t="inlineStr"/>
+      <c r="BS452" t="inlineStr"/>
+      <c r="BT452" t="inlineStr"/>
+      <c r="BU452" t="inlineStr"/>
+      <c r="BV452" t="inlineStr"/>
+      <c r="BW452" t="inlineStr"/>
+      <c r="BX452" t="inlineStr"/>
+      <c r="BY452" t="inlineStr"/>
+      <c r="BZ452" t="inlineStr"/>
+      <c r="CA452" t="inlineStr"/>
+      <c r="CB452" t="inlineStr"/>
+      <c r="CC452" t="inlineStr"/>
+      <c r="CD452" t="inlineStr"/>
+      <c r="CE452" t="inlineStr"/>
+      <c r="CF452" t="inlineStr"/>
+      <c r="CG452" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH452" t="inlineStr"/>
+      <c r="CI452" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ452" t="inlineStr"/>
+      <c r="CK452" t="inlineStr"/>
+      <c r="CL452" t="inlineStr"/>
+      <c r="CM452" t="inlineStr"/>
+      <c r="CN452" t="inlineStr"/>
+      <c r="CO452" t="inlineStr"/>
+      <c r="CP452" t="inlineStr"/>
+      <c r="CQ452" t="inlineStr"/>
+      <c r="CR452" t="inlineStr"/>
+      <c r="CS452" t="inlineStr"/>
+      <c r="CT452" t="inlineStr"/>
+      <c r="CU452" t="inlineStr"/>
+      <c r="CV452" t="inlineStr"/>
+      <c r="CW452" t="inlineStr"/>
+      <c r="CX452" t="inlineStr"/>
+      <c r="CY452" t="inlineStr"/>
+      <c r="CZ452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>cl:10437</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>master site</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>master</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr"/>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>cl:10435</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr"/>
+      <c r="H453" t="inlineStr"/>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
+      <c r="M453" t="inlineStr"/>
+      <c r="N453" t="inlineStr"/>
+      <c r="O453" t="inlineStr"/>
+      <c r="P453" t="inlineStr"/>
+      <c r="Q453" t="inlineStr"/>
+      <c r="R453" t="inlineStr"/>
+      <c r="S453" t="inlineStr"/>
+      <c r="T453" t="inlineStr"/>
+      <c r="U453" t="inlineStr"/>
+      <c r="V453" t="inlineStr"/>
+      <c r="W453" t="inlineStr"/>
+      <c r="X453" t="inlineStr"/>
+      <c r="Y453" t="inlineStr"/>
+      <c r="Z453" t="inlineStr"/>
+      <c r="AA453" t="inlineStr"/>
+      <c r="AB453" t="inlineStr"/>
+      <c r="AC453" t="inlineStr"/>
+      <c r="AD453" t="inlineStr"/>
+      <c r="AE453" t="inlineStr"/>
+      <c r="AF453" t="inlineStr"/>
+      <c r="AG453" t="inlineStr"/>
+      <c r="AH453" t="inlineStr"/>
+      <c r="AI453" t="inlineStr"/>
+      <c r="AJ453" t="inlineStr"/>
+      <c r="AK453" t="inlineStr"/>
+      <c r="AL453" t="inlineStr"/>
+      <c r="AM453" t="inlineStr"/>
+      <c r="AN453" t="inlineStr"/>
+      <c r="AO453" t="inlineStr"/>
+      <c r="AP453" t="inlineStr"/>
+      <c r="AQ453" t="inlineStr"/>
+      <c r="AR453" t="inlineStr"/>
+      <c r="AS453" t="inlineStr"/>
+      <c r="AT453" t="inlineStr"/>
+      <c r="AU453" t="inlineStr"/>
+      <c r="AV453" t="inlineStr"/>
+      <c r="AW453" t="inlineStr"/>
+      <c r="AX453" t="inlineStr"/>
+      <c r="AY453" t="inlineStr"/>
+      <c r="AZ453" t="inlineStr"/>
+      <c r="BA453" t="inlineStr"/>
+      <c r="BB453" t="inlineStr"/>
+      <c r="BC453" t="inlineStr"/>
+      <c r="BD453" t="inlineStr"/>
+      <c r="BE453" t="inlineStr"/>
+      <c r="BF453" t="inlineStr"/>
+      <c r="BG453" t="inlineStr"/>
+      <c r="BH453" t="inlineStr"/>
+      <c r="BI453" t="inlineStr"/>
+      <c r="BJ453" t="inlineStr"/>
+      <c r="BK453" t="inlineStr"/>
+      <c r="BL453" t="inlineStr"/>
+      <c r="BM453" t="inlineStr"/>
+      <c r="BN453" t="inlineStr"/>
+      <c r="BO453" t="inlineStr"/>
+      <c r="BP453" t="inlineStr"/>
+      <c r="BQ453" t="inlineStr"/>
+      <c r="BR453" t="inlineStr"/>
+      <c r="BS453" t="inlineStr"/>
+      <c r="BT453" t="inlineStr"/>
+      <c r="BU453" t="inlineStr"/>
+      <c r="BV453" t="inlineStr"/>
+      <c r="BW453" t="inlineStr"/>
+      <c r="BX453" t="inlineStr"/>
+      <c r="BY453" t="inlineStr"/>
+      <c r="BZ453" t="inlineStr"/>
+      <c r="CA453" t="inlineStr"/>
+      <c r="CB453" t="inlineStr"/>
+      <c r="CC453" t="inlineStr"/>
+      <c r="CD453" t="inlineStr"/>
+      <c r="CE453" t="inlineStr"/>
+      <c r="CF453" t="inlineStr"/>
+      <c r="CG453" t="inlineStr"/>
+      <c r="CH453" t="inlineStr"/>
+      <c r="CI453" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ453" t="inlineStr"/>
+      <c r="CK453" t="inlineStr"/>
+      <c r="CL453" t="inlineStr"/>
+      <c r="CM453" t="inlineStr"/>
+      <c r="CN453" t="inlineStr"/>
+      <c r="CO453" t="inlineStr"/>
+      <c r="CP453" t="inlineStr"/>
+      <c r="CQ453" t="inlineStr"/>
+      <c r="CR453" t="inlineStr"/>
+      <c r="CS453" t="inlineStr"/>
+      <c r="CT453" t="inlineStr"/>
+      <c r="CU453" t="inlineStr"/>
+      <c r="CV453" t="inlineStr"/>
+      <c r="CW453" t="inlineStr"/>
+      <c r="CX453" t="inlineStr"/>
+      <c r="CY453" t="inlineStr"/>
+      <c r="CZ453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>cl:10438</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>regular site</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>cl:10435</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
+      <c r="M454" t="inlineStr"/>
+      <c r="N454" t="inlineStr"/>
+      <c r="O454" t="inlineStr"/>
+      <c r="P454" t="inlineStr"/>
+      <c r="Q454" t="inlineStr"/>
+      <c r="R454" t="inlineStr"/>
+      <c r="S454" t="inlineStr"/>
+      <c r="T454" t="inlineStr"/>
+      <c r="U454" t="inlineStr"/>
+      <c r="V454" t="inlineStr"/>
+      <c r="W454" t="inlineStr"/>
+      <c r="X454" t="inlineStr"/>
+      <c r="Y454" t="inlineStr"/>
+      <c r="Z454" t="inlineStr"/>
+      <c r="AA454" t="inlineStr"/>
+      <c r="AB454" t="inlineStr"/>
+      <c r="AC454" t="inlineStr"/>
+      <c r="AD454" t="inlineStr"/>
+      <c r="AE454" t="inlineStr"/>
+      <c r="AF454" t="inlineStr"/>
+      <c r="AG454" t="inlineStr"/>
+      <c r="AH454" t="inlineStr"/>
+      <c r="AI454" t="inlineStr"/>
+      <c r="AJ454" t="inlineStr"/>
+      <c r="AK454" t="inlineStr"/>
+      <c r="AL454" t="inlineStr"/>
+      <c r="AM454" t="inlineStr"/>
+      <c r="AN454" t="inlineStr"/>
+      <c r="AO454" t="inlineStr"/>
+      <c r="AP454" t="inlineStr"/>
+      <c r="AQ454" t="inlineStr"/>
+      <c r="AR454" t="inlineStr"/>
+      <c r="AS454" t="inlineStr"/>
+      <c r="AT454" t="inlineStr"/>
+      <c r="AU454" t="inlineStr"/>
+      <c r="AV454" t="inlineStr"/>
+      <c r="AW454" t="inlineStr"/>
+      <c r="AX454" t="inlineStr"/>
+      <c r="AY454" t="inlineStr"/>
+      <c r="AZ454" t="inlineStr"/>
+      <c r="BA454" t="inlineStr"/>
+      <c r="BB454" t="inlineStr"/>
+      <c r="BC454" t="inlineStr"/>
+      <c r="BD454" t="inlineStr"/>
+      <c r="BE454" t="inlineStr"/>
+      <c r="BF454" t="inlineStr"/>
+      <c r="BG454" t="inlineStr"/>
+      <c r="BH454" t="inlineStr"/>
+      <c r="BI454" t="inlineStr"/>
+      <c r="BJ454" t="inlineStr"/>
+      <c r="BK454" t="inlineStr"/>
+      <c r="BL454" t="inlineStr"/>
+      <c r="BM454" t="inlineStr"/>
+      <c r="BN454" t="inlineStr"/>
+      <c r="BO454" t="inlineStr"/>
+      <c r="BP454" t="inlineStr"/>
+      <c r="BQ454" t="inlineStr"/>
+      <c r="BR454" t="inlineStr"/>
+      <c r="BS454" t="inlineStr"/>
+      <c r="BT454" t="inlineStr"/>
+      <c r="BU454" t="inlineStr"/>
+      <c r="BV454" t="inlineStr"/>
+      <c r="BW454" t="inlineStr"/>
+      <c r="BX454" t="inlineStr"/>
+      <c r="BY454" t="inlineStr"/>
+      <c r="BZ454" t="inlineStr"/>
+      <c r="CA454" t="inlineStr"/>
+      <c r="CB454" t="inlineStr"/>
+      <c r="CC454" t="inlineStr"/>
+      <c r="CD454" t="inlineStr"/>
+      <c r="CE454" t="inlineStr"/>
+      <c r="CF454" t="inlineStr"/>
+      <c r="CG454" t="inlineStr"/>
+      <c r="CH454" t="inlineStr"/>
+      <c r="CI454" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ454" t="inlineStr"/>
+      <c r="CK454" t="inlineStr"/>
+      <c r="CL454" t="inlineStr"/>
+      <c r="CM454" t="inlineStr"/>
+      <c r="CN454" t="inlineStr"/>
+      <c r="CO454" t="inlineStr"/>
+      <c r="CP454" t="inlineStr"/>
+      <c r="CQ454" t="inlineStr"/>
+      <c r="CR454" t="inlineStr"/>
+      <c r="CS454" t="inlineStr"/>
+      <c r="CT454" t="inlineStr"/>
+      <c r="CU454" t="inlineStr"/>
+      <c r="CV454" t="inlineStr"/>
+      <c r="CW454" t="inlineStr"/>
+      <c r="CX454" t="inlineStr"/>
+      <c r="CY454" t="inlineStr"/>
+      <c r="CZ454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>cl:10439</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>extensive site</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>extensive</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr"/>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>cl:10435</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr"/>
+      <c r="H455" t="inlineStr"/>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
+      <c r="M455" t="inlineStr"/>
+      <c r="N455" t="inlineStr"/>
+      <c r="O455" t="inlineStr"/>
+      <c r="P455" t="inlineStr"/>
+      <c r="Q455" t="inlineStr"/>
+      <c r="R455" t="inlineStr"/>
+      <c r="S455" t="inlineStr"/>
+      <c r="T455" t="inlineStr"/>
+      <c r="U455" t="inlineStr"/>
+      <c r="V455" t="inlineStr"/>
+      <c r="W455" t="inlineStr"/>
+      <c r="X455" t="inlineStr"/>
+      <c r="Y455" t="inlineStr"/>
+      <c r="Z455" t="inlineStr"/>
+      <c r="AA455" t="inlineStr"/>
+      <c r="AB455" t="inlineStr"/>
+      <c r="AC455" t="inlineStr"/>
+      <c r="AD455" t="inlineStr"/>
+      <c r="AE455" t="inlineStr"/>
+      <c r="AF455" t="inlineStr"/>
+      <c r="AG455" t="inlineStr"/>
+      <c r="AH455" t="inlineStr"/>
+      <c r="AI455" t="inlineStr"/>
+      <c r="AJ455" t="inlineStr"/>
+      <c r="AK455" t="inlineStr"/>
+      <c r="AL455" t="inlineStr"/>
+      <c r="AM455" t="inlineStr"/>
+      <c r="AN455" t="inlineStr"/>
+      <c r="AO455" t="inlineStr"/>
+      <c r="AP455" t="inlineStr"/>
+      <c r="AQ455" t="inlineStr"/>
+      <c r="AR455" t="inlineStr"/>
+      <c r="AS455" t="inlineStr"/>
+      <c r="AT455" t="inlineStr"/>
+      <c r="AU455" t="inlineStr"/>
+      <c r="AV455" t="inlineStr"/>
+      <c r="AW455" t="inlineStr"/>
+      <c r="AX455" t="inlineStr"/>
+      <c r="AY455" t="inlineStr"/>
+      <c r="AZ455" t="inlineStr"/>
+      <c r="BA455" t="inlineStr"/>
+      <c r="BB455" t="inlineStr"/>
+      <c r="BC455" t="inlineStr"/>
+      <c r="BD455" t="inlineStr"/>
+      <c r="BE455" t="inlineStr"/>
+      <c r="BF455" t="inlineStr"/>
+      <c r="BG455" t="inlineStr"/>
+      <c r="BH455" t="inlineStr"/>
+      <c r="BI455" t="inlineStr"/>
+      <c r="BJ455" t="inlineStr"/>
+      <c r="BK455" t="inlineStr"/>
+      <c r="BL455" t="inlineStr"/>
+      <c r="BM455" t="inlineStr"/>
+      <c r="BN455" t="inlineStr"/>
+      <c r="BO455" t="inlineStr"/>
+      <c r="BP455" t="inlineStr"/>
+      <c r="BQ455" t="inlineStr"/>
+      <c r="BR455" t="inlineStr"/>
+      <c r="BS455" t="inlineStr"/>
+      <c r="BT455" t="inlineStr"/>
+      <c r="BU455" t="inlineStr"/>
+      <c r="BV455" t="inlineStr"/>
+      <c r="BW455" t="inlineStr"/>
+      <c r="BX455" t="inlineStr"/>
+      <c r="BY455" t="inlineStr"/>
+      <c r="BZ455" t="inlineStr"/>
+      <c r="CA455" t="inlineStr"/>
+      <c r="CB455" t="inlineStr"/>
+      <c r="CC455" t="inlineStr"/>
+      <c r="CD455" t="inlineStr"/>
+      <c r="CE455" t="inlineStr"/>
+      <c r="CF455" t="inlineStr"/>
+      <c r="CG455" t="inlineStr"/>
+      <c r="CH455" t="inlineStr"/>
+      <c r="CI455" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ455" t="inlineStr"/>
+      <c r="CK455" t="inlineStr"/>
+      <c r="CL455" t="inlineStr"/>
+      <c r="CM455" t="inlineStr"/>
+      <c r="CN455" t="inlineStr"/>
+      <c r="CO455" t="inlineStr"/>
+      <c r="CP455" t="inlineStr"/>
+      <c r="CQ455" t="inlineStr"/>
+      <c r="CR455" t="inlineStr"/>
+      <c r="CS455" t="inlineStr"/>
+      <c r="CT455" t="inlineStr"/>
+      <c r="CU455" t="inlineStr"/>
+      <c r="CV455" t="inlineStr"/>
+      <c r="CW455" t="inlineStr"/>
+      <c r="CX455" t="inlineStr"/>
+      <c r="CY455" t="inlineStr"/>
+      <c r="CZ455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>cl:10440</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>emerging site</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>emerging</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr"/>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>cl:10435</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr"/>
+      <c r="H456" t="inlineStr"/>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
+      <c r="M456" t="inlineStr"/>
+      <c r="N456" t="inlineStr"/>
+      <c r="O456" t="inlineStr"/>
+      <c r="P456" t="inlineStr"/>
+      <c r="Q456" t="inlineStr"/>
+      <c r="R456" t="inlineStr"/>
+      <c r="S456" t="inlineStr"/>
+      <c r="T456" t="inlineStr"/>
+      <c r="U456" t="inlineStr"/>
+      <c r="V456" t="inlineStr"/>
+      <c r="W456" t="inlineStr"/>
+      <c r="X456" t="inlineStr"/>
+      <c r="Y456" t="inlineStr"/>
+      <c r="Z456" t="inlineStr"/>
+      <c r="AA456" t="inlineStr"/>
+      <c r="AB456" t="inlineStr"/>
+      <c r="AC456" t="inlineStr"/>
+      <c r="AD456" t="inlineStr"/>
+      <c r="AE456" t="inlineStr"/>
+      <c r="AF456" t="inlineStr"/>
+      <c r="AG456" t="inlineStr"/>
+      <c r="AH456" t="inlineStr"/>
+      <c r="AI456" t="inlineStr"/>
+      <c r="AJ456" t="inlineStr"/>
+      <c r="AK456" t="inlineStr"/>
+      <c r="AL456" t="inlineStr"/>
+      <c r="AM456" t="inlineStr"/>
+      <c r="AN456" t="inlineStr"/>
+      <c r="AO456" t="inlineStr"/>
+      <c r="AP456" t="inlineStr"/>
+      <c r="AQ456" t="inlineStr"/>
+      <c r="AR456" t="inlineStr"/>
+      <c r="AS456" t="inlineStr"/>
+      <c r="AT456" t="inlineStr"/>
+      <c r="AU456" t="inlineStr"/>
+      <c r="AV456" t="inlineStr"/>
+      <c r="AW456" t="inlineStr"/>
+      <c r="AX456" t="inlineStr"/>
+      <c r="AY456" t="inlineStr"/>
+      <c r="AZ456" t="inlineStr"/>
+      <c r="BA456" t="inlineStr"/>
+      <c r="BB456" t="inlineStr"/>
+      <c r="BC456" t="inlineStr"/>
+      <c r="BD456" t="inlineStr"/>
+      <c r="BE456" t="inlineStr"/>
+      <c r="BF456" t="inlineStr"/>
+      <c r="BG456" t="inlineStr"/>
+      <c r="BH456" t="inlineStr"/>
+      <c r="BI456" t="inlineStr"/>
+      <c r="BJ456" t="inlineStr"/>
+      <c r="BK456" t="inlineStr"/>
+      <c r="BL456" t="inlineStr"/>
+      <c r="BM456" t="inlineStr"/>
+      <c r="BN456" t="inlineStr"/>
+      <c r="BO456" t="inlineStr"/>
+      <c r="BP456" t="inlineStr"/>
+      <c r="BQ456" t="inlineStr"/>
+      <c r="BR456" t="inlineStr"/>
+      <c r="BS456" t="inlineStr"/>
+      <c r="BT456" t="inlineStr"/>
+      <c r="BU456" t="inlineStr"/>
+      <c r="BV456" t="inlineStr"/>
+      <c r="BW456" t="inlineStr"/>
+      <c r="BX456" t="inlineStr"/>
+      <c r="BY456" t="inlineStr"/>
+      <c r="BZ456" t="inlineStr"/>
+      <c r="CA456" t="inlineStr"/>
+      <c r="CB456" t="inlineStr"/>
+      <c r="CC456" t="inlineStr"/>
+      <c r="CD456" t="inlineStr"/>
+      <c r="CE456" t="inlineStr"/>
+      <c r="CF456" t="inlineStr"/>
+      <c r="CG456" t="inlineStr"/>
+      <c r="CH456" t="inlineStr"/>
+      <c r="CI456" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ456" t="inlineStr"/>
+      <c r="CK456" t="inlineStr"/>
+      <c r="CL456" t="inlineStr"/>
+      <c r="CM456" t="inlineStr"/>
+      <c r="CN456" t="inlineStr"/>
+      <c r="CO456" t="inlineStr"/>
+      <c r="CP456" t="inlineStr"/>
+      <c r="CQ456" t="inlineStr"/>
+      <c r="CR456" t="inlineStr"/>
+      <c r="CS456" t="inlineStr"/>
+      <c r="CT456" t="inlineStr"/>
+      <c r="CU456" t="inlineStr"/>
+      <c r="CV456" t="inlineStr"/>
+      <c r="CW456" t="inlineStr"/>
+      <c r="CX456" t="inlineStr"/>
+      <c r="CY456" t="inlineStr"/>
+      <c r="CZ456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>cl:10441</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>snow clearing frequency</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="inlineStr"/>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>cl:10315</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr"/>
+      <c r="H457" t="inlineStr"/>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
+      <c r="M457" t="inlineStr"/>
+      <c r="N457" t="inlineStr"/>
+      <c r="O457" t="inlineStr"/>
+      <c r="P457" t="inlineStr"/>
+      <c r="Q457" t="inlineStr"/>
+      <c r="R457" t="inlineStr"/>
+      <c r="S457" t="inlineStr"/>
+      <c r="T457" t="inlineStr"/>
+      <c r="U457" t="inlineStr"/>
+      <c r="V457" t="inlineStr"/>
+      <c r="W457" t="inlineStr"/>
+      <c r="X457" t="inlineStr"/>
+      <c r="Y457" t="inlineStr"/>
+      <c r="Z457" t="inlineStr"/>
+      <c r="AA457" t="inlineStr"/>
+      <c r="AB457" t="inlineStr"/>
+      <c r="AC457" t="inlineStr"/>
+      <c r="AD457" t="inlineStr"/>
+      <c r="AE457" t="inlineStr"/>
+      <c r="AF457" t="inlineStr"/>
+      <c r="AG457" t="inlineStr"/>
+      <c r="AH457" t="inlineStr"/>
+      <c r="AI457" t="inlineStr"/>
+      <c r="AJ457" t="inlineStr"/>
+      <c r="AK457" t="inlineStr"/>
+      <c r="AL457" t="inlineStr"/>
+      <c r="AM457" t="inlineStr"/>
+      <c r="AN457" t="inlineStr"/>
+      <c r="AO457" t="inlineStr"/>
+      <c r="AP457" t="inlineStr"/>
+      <c r="AQ457" t="inlineStr"/>
+      <c r="AR457" t="inlineStr"/>
+      <c r="AS457" t="inlineStr"/>
+      <c r="AT457" t="inlineStr"/>
+      <c r="AU457" t="inlineStr"/>
+      <c r="AV457" t="inlineStr"/>
+      <c r="AW457" t="inlineStr"/>
+      <c r="AX457" t="inlineStr"/>
+      <c r="AY457" t="inlineStr"/>
+      <c r="AZ457" t="inlineStr"/>
+      <c r="BA457" t="inlineStr"/>
+      <c r="BB457" t="inlineStr"/>
+      <c r="BC457" t="inlineStr"/>
+      <c r="BD457" t="inlineStr"/>
+      <c r="BE457" t="inlineStr"/>
+      <c r="BF457" t="inlineStr"/>
+      <c r="BG457" t="inlineStr"/>
+      <c r="BH457" t="inlineStr"/>
+      <c r="BI457" t="inlineStr"/>
+      <c r="BJ457" t="inlineStr"/>
+      <c r="BK457" t="inlineStr"/>
+      <c r="BL457" t="inlineStr"/>
+      <c r="BM457" t="inlineStr"/>
+      <c r="BN457" t="inlineStr"/>
+      <c r="BO457" t="inlineStr"/>
+      <c r="BP457" t="inlineStr"/>
+      <c r="BQ457" t="inlineStr"/>
+      <c r="BR457" t="inlineStr"/>
+      <c r="BS457" t="inlineStr"/>
+      <c r="BT457" t="inlineStr"/>
+      <c r="BU457" t="inlineStr"/>
+      <c r="BV457" t="inlineStr"/>
+      <c r="BW457" t="inlineStr"/>
+      <c r="BX457" t="inlineStr"/>
+      <c r="BY457" t="inlineStr"/>
+      <c r="BZ457" t="inlineStr"/>
+      <c r="CA457" t="inlineStr"/>
+      <c r="CB457" t="inlineStr"/>
+      <c r="CC457" t="inlineStr"/>
+      <c r="CD457" t="inlineStr"/>
+      <c r="CE457" t="inlineStr"/>
+      <c r="CF457" t="inlineStr"/>
+      <c r="CG457" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH457" t="inlineStr"/>
+      <c r="CI457" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ457" t="inlineStr"/>
+      <c r="CK457" t="inlineStr"/>
+      <c r="CL457" t="inlineStr"/>
+      <c r="CM457" t="inlineStr"/>
+      <c r="CN457" t="inlineStr"/>
+      <c r="CO457" t="inlineStr"/>
+      <c r="CP457" t="inlineStr"/>
+      <c r="CQ457" t="inlineStr"/>
+      <c r="CR457" t="inlineStr"/>
+      <c r="CS457" t="inlineStr"/>
+      <c r="CT457" t="inlineStr"/>
+      <c r="CU457" t="inlineStr"/>
+      <c r="CV457" t="inlineStr"/>
+      <c r="CW457" t="inlineStr"/>
+      <c r="CX457" t="inlineStr"/>
+      <c r="CY457" t="inlineStr"/>
+      <c r="CZ457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>cl:10442</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>intermittent</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
+      <c r="D458" t="inlineStr"/>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>cl:10441</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
+      <c r="M458" t="inlineStr"/>
+      <c r="N458" t="inlineStr"/>
+      <c r="O458" t="inlineStr"/>
+      <c r="P458" t="inlineStr"/>
+      <c r="Q458" t="inlineStr"/>
+      <c r="R458" t="inlineStr"/>
+      <c r="S458" t="inlineStr"/>
+      <c r="T458" t="inlineStr"/>
+      <c r="U458" t="inlineStr"/>
+      <c r="V458" t="inlineStr"/>
+      <c r="W458" t="inlineStr"/>
+      <c r="X458" t="inlineStr"/>
+      <c r="Y458" t="inlineStr"/>
+      <c r="Z458" t="inlineStr"/>
+      <c r="AA458" t="inlineStr"/>
+      <c r="AB458" t="inlineStr"/>
+      <c r="AC458" t="inlineStr"/>
+      <c r="AD458" t="inlineStr"/>
+      <c r="AE458" t="inlineStr"/>
+      <c r="AF458" t="inlineStr"/>
+      <c r="AG458" t="inlineStr"/>
+      <c r="AH458" t="inlineStr"/>
+      <c r="AI458" t="inlineStr"/>
+      <c r="AJ458" t="inlineStr"/>
+      <c r="AK458" t="inlineStr"/>
+      <c r="AL458" t="inlineStr"/>
+      <c r="AM458" t="inlineStr"/>
+      <c r="AN458" t="inlineStr"/>
+      <c r="AO458" t="inlineStr"/>
+      <c r="AP458" t="inlineStr"/>
+      <c r="AQ458" t="inlineStr"/>
+      <c r="AR458" t="inlineStr"/>
+      <c r="AS458" t="inlineStr"/>
+      <c r="AT458" t="inlineStr"/>
+      <c r="AU458" t="inlineStr"/>
+      <c r="AV458" t="inlineStr"/>
+      <c r="AW458" t="inlineStr"/>
+      <c r="AX458" t="inlineStr"/>
+      <c r="AY458" t="inlineStr"/>
+      <c r="AZ458" t="inlineStr"/>
+      <c r="BA458" t="inlineStr"/>
+      <c r="BB458" t="inlineStr"/>
+      <c r="BC458" t="inlineStr"/>
+      <c r="BD458" t="inlineStr"/>
+      <c r="BE458" t="inlineStr"/>
+      <c r="BF458" t="inlineStr"/>
+      <c r="BG458" t="inlineStr"/>
+      <c r="BH458" t="inlineStr"/>
+      <c r="BI458" t="inlineStr"/>
+      <c r="BJ458" t="inlineStr"/>
+      <c r="BK458" t="inlineStr"/>
+      <c r="BL458" t="inlineStr"/>
+      <c r="BM458" t="inlineStr"/>
+      <c r="BN458" t="inlineStr"/>
+      <c r="BO458" t="inlineStr"/>
+      <c r="BP458" t="inlineStr"/>
+      <c r="BQ458" t="inlineStr"/>
+      <c r="BR458" t="inlineStr"/>
+      <c r="BS458" t="inlineStr"/>
+      <c r="BT458" t="inlineStr"/>
+      <c r="BU458" t="inlineStr"/>
+      <c r="BV458" t="inlineStr"/>
+      <c r="BW458" t="inlineStr"/>
+      <c r="BX458" t="inlineStr"/>
+      <c r="BY458" t="inlineStr"/>
+      <c r="BZ458" t="inlineStr"/>
+      <c r="CA458" t="inlineStr"/>
+      <c r="CB458" t="inlineStr"/>
+      <c r="CC458" t="inlineStr"/>
+      <c r="CD458" t="inlineStr"/>
+      <c r="CE458" t="inlineStr"/>
+      <c r="CF458" t="inlineStr"/>
+      <c r="CG458" t="inlineStr"/>
+      <c r="CH458" t="inlineStr"/>
+      <c r="CI458" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ458" t="inlineStr"/>
+      <c r="CK458" t="inlineStr"/>
+      <c r="CL458" t="inlineStr"/>
+      <c r="CM458" t="inlineStr"/>
+      <c r="CN458" t="inlineStr"/>
+      <c r="CO458" t="inlineStr"/>
+      <c r="CP458" t="inlineStr"/>
+      <c r="CQ458" t="inlineStr"/>
+      <c r="CR458" t="inlineStr"/>
+      <c r="CS458" t="inlineStr"/>
+      <c r="CT458" t="inlineStr"/>
+      <c r="CU458" t="inlineStr"/>
+      <c r="CV458" t="inlineStr"/>
+      <c r="CW458" t="inlineStr"/>
+      <c r="CX458" t="inlineStr"/>
+      <c r="CY458" t="inlineStr"/>
+      <c r="CZ458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>cl:10443</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>permanent power produced</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
+      <c r="M459" t="inlineStr"/>
+      <c r="N459" t="inlineStr"/>
+      <c r="O459" t="inlineStr"/>
+      <c r="P459" t="inlineStr"/>
+      <c r="Q459" t="inlineStr"/>
+      <c r="R459" t="inlineStr"/>
+      <c r="S459" t="inlineStr"/>
+      <c r="T459" t="inlineStr"/>
+      <c r="U459" t="inlineStr"/>
+      <c r="V459" t="inlineStr"/>
+      <c r="W459" t="inlineStr"/>
+      <c r="X459" t="inlineStr"/>
+      <c r="Y459" t="inlineStr"/>
+      <c r="Z459" t="inlineStr"/>
+      <c r="AA459" t="inlineStr"/>
+      <c r="AB459" t="inlineStr"/>
+      <c r="AC459" t="inlineStr"/>
+      <c r="AD459" t="inlineStr"/>
+      <c r="AE459" t="inlineStr"/>
+      <c r="AF459" t="inlineStr"/>
+      <c r="AG459" t="inlineStr"/>
+      <c r="AH459" t="inlineStr"/>
+      <c r="AI459" t="inlineStr"/>
+      <c r="AJ459" t="inlineStr"/>
+      <c r="AK459" t="inlineStr"/>
+      <c r="AL459" t="inlineStr"/>
+      <c r="AM459" t="inlineStr"/>
+      <c r="AN459" t="inlineStr"/>
+      <c r="AO459" t="inlineStr"/>
+      <c r="AP459" t="inlineStr"/>
+      <c r="AQ459" t="inlineStr"/>
+      <c r="AR459" t="inlineStr"/>
+      <c r="AS459" t="inlineStr"/>
+      <c r="AT459" t="inlineStr"/>
+      <c r="AU459" t="inlineStr"/>
+      <c r="AV459" t="inlineStr"/>
+      <c r="AW459" t="inlineStr"/>
+      <c r="AX459" t="inlineStr"/>
+      <c r="AY459" t="inlineStr"/>
+      <c r="AZ459" t="inlineStr"/>
+      <c r="BA459" t="inlineStr"/>
+      <c r="BB459" t="inlineStr"/>
+      <c r="BC459" t="inlineStr"/>
+      <c r="BD459" t="inlineStr"/>
+      <c r="BE459" t="inlineStr"/>
+      <c r="BF459" t="inlineStr"/>
+      <c r="BG459" t="inlineStr"/>
+      <c r="BH459" t="inlineStr"/>
+      <c r="BI459" t="inlineStr"/>
+      <c r="BJ459" t="inlineStr"/>
+      <c r="BK459" t="inlineStr"/>
+      <c r="BL459" t="inlineStr"/>
+      <c r="BM459" t="inlineStr"/>
+      <c r="BN459" t="inlineStr"/>
+      <c r="BO459" t="inlineStr"/>
+      <c r="BP459" t="inlineStr"/>
+      <c r="BQ459" t="inlineStr"/>
+      <c r="BR459" t="inlineStr"/>
+      <c r="BS459" t="inlineStr"/>
+      <c r="BT459" t="inlineStr"/>
+      <c r="BU459" t="inlineStr"/>
+      <c r="BV459" t="inlineStr"/>
+      <c r="BW459" t="inlineStr"/>
+      <c r="BX459" t="inlineStr"/>
+      <c r="BY459" t="inlineStr"/>
+      <c r="BZ459" t="inlineStr"/>
+      <c r="CA459" t="inlineStr"/>
+      <c r="CB459" t="inlineStr"/>
+      <c r="CC459" t="inlineStr"/>
+      <c r="CD459" t="inlineStr"/>
+      <c r="CE459" t="inlineStr"/>
+      <c r="CF459" t="inlineStr"/>
+      <c r="CG459" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH459" t="inlineStr"/>
+      <c r="CI459" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ459" t="inlineStr"/>
+      <c r="CK459" t="inlineStr"/>
+      <c r="CL459" t="inlineStr"/>
+      <c r="CM459" t="inlineStr"/>
+      <c r="CN459" t="inlineStr"/>
+      <c r="CO459" t="inlineStr"/>
+      <c r="CP459" t="inlineStr"/>
+      <c r="CQ459" t="inlineStr"/>
+      <c r="CR459" t="inlineStr"/>
+      <c r="CS459" t="inlineStr"/>
+      <c r="CT459" t="inlineStr"/>
+      <c r="CU459" t="inlineStr"/>
+      <c r="CV459" t="inlineStr"/>
+      <c r="CW459" t="inlineStr"/>
+      <c r="CX459" t="inlineStr"/>
+      <c r="CY459" t="inlineStr"/>
+      <c r="CZ459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>cl:10444</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>1-5 kW</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>cl:10444</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr"/>
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
+      <c r="M460" t="inlineStr"/>
+      <c r="N460" t="inlineStr"/>
+      <c r="O460" t="inlineStr"/>
+      <c r="P460" t="inlineStr"/>
+      <c r="Q460" t="inlineStr"/>
+      <c r="R460" t="inlineStr"/>
+      <c r="S460" t="inlineStr"/>
+      <c r="T460" t="inlineStr"/>
+      <c r="U460" t="inlineStr"/>
+      <c r="V460" t="inlineStr"/>
+      <c r="W460" t="inlineStr"/>
+      <c r="X460" t="inlineStr"/>
+      <c r="Y460" t="inlineStr"/>
+      <c r="Z460" t="inlineStr"/>
+      <c r="AA460" t="inlineStr"/>
+      <c r="AB460" t="inlineStr"/>
+      <c r="AC460" t="inlineStr"/>
+      <c r="AD460" t="inlineStr"/>
+      <c r="AE460" t="inlineStr"/>
+      <c r="AF460" t="inlineStr"/>
+      <c r="AG460" t="inlineStr"/>
+      <c r="AH460" t="inlineStr"/>
+      <c r="AI460" t="inlineStr"/>
+      <c r="AJ460" t="inlineStr"/>
+      <c r="AK460" t="inlineStr"/>
+      <c r="AL460" t="inlineStr"/>
+      <c r="AM460" t="inlineStr"/>
+      <c r="AN460" t="inlineStr"/>
+      <c r="AO460" t="inlineStr"/>
+      <c r="AP460" t="inlineStr"/>
+      <c r="AQ460" t="inlineStr"/>
+      <c r="AR460" t="inlineStr"/>
+      <c r="AS460" t="inlineStr"/>
+      <c r="AT460" t="inlineStr"/>
+      <c r="AU460" t="inlineStr"/>
+      <c r="AV460" t="inlineStr"/>
+      <c r="AW460" t="inlineStr"/>
+      <c r="AX460" t="inlineStr"/>
+      <c r="AY460" t="inlineStr"/>
+      <c r="AZ460" t="inlineStr"/>
+      <c r="BA460" t="inlineStr"/>
+      <c r="BB460" t="inlineStr"/>
+      <c r="BC460" t="inlineStr"/>
+      <c r="BD460" t="inlineStr"/>
+      <c r="BE460" t="inlineStr"/>
+      <c r="BF460" t="inlineStr"/>
+      <c r="BG460" t="inlineStr"/>
+      <c r="BH460" t="inlineStr"/>
+      <c r="BI460" t="inlineStr"/>
+      <c r="BJ460" t="inlineStr"/>
+      <c r="BK460" t="inlineStr"/>
+      <c r="BL460" t="inlineStr"/>
+      <c r="BM460" t="inlineStr"/>
+      <c r="BN460" t="inlineStr"/>
+      <c r="BO460" t="inlineStr"/>
+      <c r="BP460" t="inlineStr"/>
+      <c r="BQ460" t="inlineStr"/>
+      <c r="BR460" t="inlineStr"/>
+      <c r="BS460" t="inlineStr"/>
+      <c r="BT460" t="inlineStr"/>
+      <c r="BU460" t="inlineStr"/>
+      <c r="BV460" t="inlineStr"/>
+      <c r="BW460" t="inlineStr"/>
+      <c r="BX460" t="inlineStr"/>
+      <c r="BY460" t="inlineStr"/>
+      <c r="BZ460" t="inlineStr"/>
+      <c r="CA460" t="inlineStr"/>
+      <c r="CB460" t="inlineStr"/>
+      <c r="CC460" t="inlineStr"/>
+      <c r="CD460" t="inlineStr"/>
+      <c r="CE460" t="inlineStr"/>
+      <c r="CF460" t="inlineStr"/>
+      <c r="CG460" t="inlineStr"/>
+      <c r="CH460" t="inlineStr"/>
+      <c r="CI460" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ460" t="inlineStr"/>
+      <c r="CK460" t="inlineStr"/>
+      <c r="CL460" t="inlineStr"/>
+      <c r="CM460" t="inlineStr"/>
+      <c r="CN460" t="inlineStr"/>
+      <c r="CO460" t="inlineStr"/>
+      <c r="CP460" t="inlineStr"/>
+      <c r="CQ460" t="inlineStr"/>
+      <c r="CR460" t="inlineStr"/>
+      <c r="CS460" t="inlineStr"/>
+      <c r="CT460" t="inlineStr"/>
+      <c r="CU460" t="inlineStr"/>
+      <c r="CV460" t="inlineStr"/>
+      <c r="CW460" t="inlineStr"/>
+      <c r="CX460" t="inlineStr"/>
+      <c r="CY460" t="inlineStr"/>
+      <c r="CZ460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>cl:10445</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>10-100 kW</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>cl:10444</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
+      <c r="M461" t="inlineStr"/>
+      <c r="N461" t="inlineStr"/>
+      <c r="O461" t="inlineStr"/>
+      <c r="P461" t="inlineStr"/>
+      <c r="Q461" t="inlineStr"/>
+      <c r="R461" t="inlineStr"/>
+      <c r="S461" t="inlineStr"/>
+      <c r="T461" t="inlineStr"/>
+      <c r="U461" t="inlineStr"/>
+      <c r="V461" t="inlineStr"/>
+      <c r="W461" t="inlineStr"/>
+      <c r="X461" t="inlineStr"/>
+      <c r="Y461" t="inlineStr"/>
+      <c r="Z461" t="inlineStr"/>
+      <c r="AA461" t="inlineStr"/>
+      <c r="AB461" t="inlineStr"/>
+      <c r="AC461" t="inlineStr"/>
+      <c r="AD461" t="inlineStr"/>
+      <c r="AE461" t="inlineStr"/>
+      <c r="AF461" t="inlineStr"/>
+      <c r="AG461" t="inlineStr"/>
+      <c r="AH461" t="inlineStr"/>
+      <c r="AI461" t="inlineStr"/>
+      <c r="AJ461" t="inlineStr"/>
+      <c r="AK461" t="inlineStr"/>
+      <c r="AL461" t="inlineStr"/>
+      <c r="AM461" t="inlineStr"/>
+      <c r="AN461" t="inlineStr"/>
+      <c r="AO461" t="inlineStr"/>
+      <c r="AP461" t="inlineStr"/>
+      <c r="AQ461" t="inlineStr"/>
+      <c r="AR461" t="inlineStr"/>
+      <c r="AS461" t="inlineStr"/>
+      <c r="AT461" t="inlineStr"/>
+      <c r="AU461" t="inlineStr"/>
+      <c r="AV461" t="inlineStr"/>
+      <c r="AW461" t="inlineStr"/>
+      <c r="AX461" t="inlineStr"/>
+      <c r="AY461" t="inlineStr"/>
+      <c r="AZ461" t="inlineStr"/>
+      <c r="BA461" t="inlineStr"/>
+      <c r="BB461" t="inlineStr"/>
+      <c r="BC461" t="inlineStr"/>
+      <c r="BD461" t="inlineStr"/>
+      <c r="BE461" t="inlineStr"/>
+      <c r="BF461" t="inlineStr"/>
+      <c r="BG461" t="inlineStr"/>
+      <c r="BH461" t="inlineStr"/>
+      <c r="BI461" t="inlineStr"/>
+      <c r="BJ461" t="inlineStr"/>
+      <c r="BK461" t="inlineStr"/>
+      <c r="BL461" t="inlineStr"/>
+      <c r="BM461" t="inlineStr"/>
+      <c r="BN461" t="inlineStr"/>
+      <c r="BO461" t="inlineStr"/>
+      <c r="BP461" t="inlineStr"/>
+      <c r="BQ461" t="inlineStr"/>
+      <c r="BR461" t="inlineStr"/>
+      <c r="BS461" t="inlineStr"/>
+      <c r="BT461" t="inlineStr"/>
+      <c r="BU461" t="inlineStr"/>
+      <c r="BV461" t="inlineStr"/>
+      <c r="BW461" t="inlineStr"/>
+      <c r="BX461" t="inlineStr"/>
+      <c r="BY461" t="inlineStr"/>
+      <c r="BZ461" t="inlineStr"/>
+      <c r="CA461" t="inlineStr"/>
+      <c r="CB461" t="inlineStr"/>
+      <c r="CC461" t="inlineStr"/>
+      <c r="CD461" t="inlineStr"/>
+      <c r="CE461" t="inlineStr"/>
+      <c r="CF461" t="inlineStr"/>
+      <c r="CG461" t="inlineStr"/>
+      <c r="CH461" t="inlineStr"/>
+      <c r="CI461" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ461" t="inlineStr"/>
+      <c r="CK461" t="inlineStr"/>
+      <c r="CL461" t="inlineStr"/>
+      <c r="CM461" t="inlineStr"/>
+      <c r="CN461" t="inlineStr"/>
+      <c r="CO461" t="inlineStr"/>
+      <c r="CP461" t="inlineStr"/>
+      <c r="CQ461" t="inlineStr"/>
+      <c r="CR461" t="inlineStr"/>
+      <c r="CS461" t="inlineStr"/>
+      <c r="CT461" t="inlineStr"/>
+      <c r="CU461" t="inlineStr"/>
+      <c r="CV461" t="inlineStr"/>
+      <c r="CW461" t="inlineStr"/>
+      <c r="CX461" t="inlineStr"/>
+      <c r="CY461" t="inlineStr"/>
+      <c r="CZ461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>cl:10446</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>5-10 kW</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>cl:10444</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
+      <c r="M462" t="inlineStr"/>
+      <c r="N462" t="inlineStr"/>
+      <c r="O462" t="inlineStr"/>
+      <c r="P462" t="inlineStr"/>
+      <c r="Q462" t="inlineStr"/>
+      <c r="R462" t="inlineStr"/>
+      <c r="S462" t="inlineStr"/>
+      <c r="T462" t="inlineStr"/>
+      <c r="U462" t="inlineStr"/>
+      <c r="V462" t="inlineStr"/>
+      <c r="W462" t="inlineStr"/>
+      <c r="X462" t="inlineStr"/>
+      <c r="Y462" t="inlineStr"/>
+      <c r="Z462" t="inlineStr"/>
+      <c r="AA462" t="inlineStr"/>
+      <c r="AB462" t="inlineStr"/>
+      <c r="AC462" t="inlineStr"/>
+      <c r="AD462" t="inlineStr"/>
+      <c r="AE462" t="inlineStr"/>
+      <c r="AF462" t="inlineStr"/>
+      <c r="AG462" t="inlineStr"/>
+      <c r="AH462" t="inlineStr"/>
+      <c r="AI462" t="inlineStr"/>
+      <c r="AJ462" t="inlineStr"/>
+      <c r="AK462" t="inlineStr"/>
+      <c r="AL462" t="inlineStr"/>
+      <c r="AM462" t="inlineStr"/>
+      <c r="AN462" t="inlineStr"/>
+      <c r="AO462" t="inlineStr"/>
+      <c r="AP462" t="inlineStr"/>
+      <c r="AQ462" t="inlineStr"/>
+      <c r="AR462" t="inlineStr"/>
+      <c r="AS462" t="inlineStr"/>
+      <c r="AT462" t="inlineStr"/>
+      <c r="AU462" t="inlineStr"/>
+      <c r="AV462" t="inlineStr"/>
+      <c r="AW462" t="inlineStr"/>
+      <c r="AX462" t="inlineStr"/>
+      <c r="AY462" t="inlineStr"/>
+      <c r="AZ462" t="inlineStr"/>
+      <c r="BA462" t="inlineStr"/>
+      <c r="BB462" t="inlineStr"/>
+      <c r="BC462" t="inlineStr"/>
+      <c r="BD462" t="inlineStr"/>
+      <c r="BE462" t="inlineStr"/>
+      <c r="BF462" t="inlineStr"/>
+      <c r="BG462" t="inlineStr"/>
+      <c r="BH462" t="inlineStr"/>
+      <c r="BI462" t="inlineStr"/>
+      <c r="BJ462" t="inlineStr"/>
+      <c r="BK462" t="inlineStr"/>
+      <c r="BL462" t="inlineStr"/>
+      <c r="BM462" t="inlineStr"/>
+      <c r="BN462" t="inlineStr"/>
+      <c r="BO462" t="inlineStr"/>
+      <c r="BP462" t="inlineStr"/>
+      <c r="BQ462" t="inlineStr"/>
+      <c r="BR462" t="inlineStr"/>
+      <c r="BS462" t="inlineStr"/>
+      <c r="BT462" t="inlineStr"/>
+      <c r="BU462" t="inlineStr"/>
+      <c r="BV462" t="inlineStr"/>
+      <c r="BW462" t="inlineStr"/>
+      <c r="BX462" t="inlineStr"/>
+      <c r="BY462" t="inlineStr"/>
+      <c r="BZ462" t="inlineStr"/>
+      <c r="CA462" t="inlineStr"/>
+      <c r="CB462" t="inlineStr"/>
+      <c r="CC462" t="inlineStr"/>
+      <c r="CD462" t="inlineStr"/>
+      <c r="CE462" t="inlineStr"/>
+      <c r="CF462" t="inlineStr"/>
+      <c r="CG462" t="inlineStr"/>
+      <c r="CH462" t="inlineStr"/>
+      <c r="CI462" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ462" t="inlineStr"/>
+      <c r="CK462" t="inlineStr"/>
+      <c r="CL462" t="inlineStr"/>
+      <c r="CM462" t="inlineStr"/>
+      <c r="CN462" t="inlineStr"/>
+      <c r="CO462" t="inlineStr"/>
+      <c r="CP462" t="inlineStr"/>
+      <c r="CQ462" t="inlineStr"/>
+      <c r="CR462" t="inlineStr"/>
+      <c r="CS462" t="inlineStr"/>
+      <c r="CT462" t="inlineStr"/>
+      <c r="CU462" t="inlineStr"/>
+      <c r="CV462" t="inlineStr"/>
+      <c r="CW462" t="inlineStr"/>
+      <c r="CX462" t="inlineStr"/>
+      <c r="CY462" t="inlineStr"/>
+      <c r="CZ462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>cl:10447</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>less than 1 kW</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>cl:10444</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
+      <c r="M463" t="inlineStr"/>
+      <c r="N463" t="inlineStr"/>
+      <c r="O463" t="inlineStr"/>
+      <c r="P463" t="inlineStr"/>
+      <c r="Q463" t="inlineStr"/>
+      <c r="R463" t="inlineStr"/>
+      <c r="S463" t="inlineStr"/>
+      <c r="T463" t="inlineStr"/>
+      <c r="U463" t="inlineStr"/>
+      <c r="V463" t="inlineStr"/>
+      <c r="W463" t="inlineStr"/>
+      <c r="X463" t="inlineStr"/>
+      <c r="Y463" t="inlineStr"/>
+      <c r="Z463" t="inlineStr"/>
+      <c r="AA463" t="inlineStr"/>
+      <c r="AB463" t="inlineStr"/>
+      <c r="AC463" t="inlineStr"/>
+      <c r="AD463" t="inlineStr"/>
+      <c r="AE463" t="inlineStr"/>
+      <c r="AF463" t="inlineStr"/>
+      <c r="AG463" t="inlineStr"/>
+      <c r="AH463" t="inlineStr"/>
+      <c r="AI463" t="inlineStr"/>
+      <c r="AJ463" t="inlineStr"/>
+      <c r="AK463" t="inlineStr"/>
+      <c r="AL463" t="inlineStr"/>
+      <c r="AM463" t="inlineStr"/>
+      <c r="AN463" t="inlineStr"/>
+      <c r="AO463" t="inlineStr"/>
+      <c r="AP463" t="inlineStr"/>
+      <c r="AQ463" t="inlineStr"/>
+      <c r="AR463" t="inlineStr"/>
+      <c r="AS463" t="inlineStr"/>
+      <c r="AT463" t="inlineStr"/>
+      <c r="AU463" t="inlineStr"/>
+      <c r="AV463" t="inlineStr"/>
+      <c r="AW463" t="inlineStr"/>
+      <c r="AX463" t="inlineStr"/>
+      <c r="AY463" t="inlineStr"/>
+      <c r="AZ463" t="inlineStr"/>
+      <c r="BA463" t="inlineStr"/>
+      <c r="BB463" t="inlineStr"/>
+      <c r="BC463" t="inlineStr"/>
+      <c r="BD463" t="inlineStr"/>
+      <c r="BE463" t="inlineStr"/>
+      <c r="BF463" t="inlineStr"/>
+      <c r="BG463" t="inlineStr"/>
+      <c r="BH463" t="inlineStr"/>
+      <c r="BI463" t="inlineStr"/>
+      <c r="BJ463" t="inlineStr"/>
+      <c r="BK463" t="inlineStr"/>
+      <c r="BL463" t="inlineStr"/>
+      <c r="BM463" t="inlineStr"/>
+      <c r="BN463" t="inlineStr"/>
+      <c r="BO463" t="inlineStr"/>
+      <c r="BP463" t="inlineStr"/>
+      <c r="BQ463" t="inlineStr"/>
+      <c r="BR463" t="inlineStr"/>
+      <c r="BS463" t="inlineStr"/>
+      <c r="BT463" t="inlineStr"/>
+      <c r="BU463" t="inlineStr"/>
+      <c r="BV463" t="inlineStr"/>
+      <c r="BW463" t="inlineStr"/>
+      <c r="BX463" t="inlineStr"/>
+      <c r="BY463" t="inlineStr"/>
+      <c r="BZ463" t="inlineStr"/>
+      <c r="CA463" t="inlineStr"/>
+      <c r="CB463" t="inlineStr"/>
+      <c r="CC463" t="inlineStr"/>
+      <c r="CD463" t="inlineStr"/>
+      <c r="CE463" t="inlineStr"/>
+      <c r="CF463" t="inlineStr"/>
+      <c r="CG463" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH463" t="inlineStr"/>
+      <c r="CI463" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ463" t="inlineStr"/>
+      <c r="CK463" t="inlineStr"/>
+      <c r="CL463" t="inlineStr"/>
+      <c r="CM463" t="inlineStr"/>
+      <c r="CN463" t="inlineStr"/>
+      <c r="CO463" t="inlineStr"/>
+      <c r="CP463" t="inlineStr"/>
+      <c r="CQ463" t="inlineStr"/>
+      <c r="CR463" t="inlineStr"/>
+      <c r="CS463" t="inlineStr"/>
+      <c r="CT463" t="inlineStr"/>
+      <c r="CU463" t="inlineStr"/>
+      <c r="CV463" t="inlineStr"/>
+      <c r="CW463" t="inlineStr"/>
+      <c r="CX463" t="inlineStr"/>
+      <c r="CY463" t="inlineStr"/>
+      <c r="CZ463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>cl:10448</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>more than 100 kW</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>cl:10444</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
+      <c r="M464" t="inlineStr"/>
+      <c r="N464" t="inlineStr"/>
+      <c r="O464" t="inlineStr"/>
+      <c r="P464" t="inlineStr"/>
+      <c r="Q464" t="inlineStr"/>
+      <c r="R464" t="inlineStr"/>
+      <c r="S464" t="inlineStr"/>
+      <c r="T464" t="inlineStr"/>
+      <c r="U464" t="inlineStr"/>
+      <c r="V464" t="inlineStr"/>
+      <c r="W464" t="inlineStr"/>
+      <c r="X464" t="inlineStr"/>
+      <c r="Y464" t="inlineStr"/>
+      <c r="Z464" t="inlineStr"/>
+      <c r="AA464" t="inlineStr"/>
+      <c r="AB464" t="inlineStr"/>
+      <c r="AC464" t="inlineStr"/>
+      <c r="AD464" t="inlineStr"/>
+      <c r="AE464" t="inlineStr"/>
+      <c r="AF464" t="inlineStr"/>
+      <c r="AG464" t="inlineStr"/>
+      <c r="AH464" t="inlineStr"/>
+      <c r="AI464" t="inlineStr"/>
+      <c r="AJ464" t="inlineStr"/>
+      <c r="AK464" t="inlineStr"/>
+      <c r="AL464" t="inlineStr"/>
+      <c r="AM464" t="inlineStr"/>
+      <c r="AN464" t="inlineStr"/>
+      <c r="AO464" t="inlineStr"/>
+      <c r="AP464" t="inlineStr"/>
+      <c r="AQ464" t="inlineStr"/>
+      <c r="AR464" t="inlineStr"/>
+      <c r="AS464" t="inlineStr"/>
+      <c r="AT464" t="inlineStr"/>
+      <c r="AU464" t="inlineStr"/>
+      <c r="AV464" t="inlineStr"/>
+      <c r="AW464" t="inlineStr"/>
+      <c r="AX464" t="inlineStr"/>
+      <c r="AY464" t="inlineStr"/>
+      <c r="AZ464" t="inlineStr"/>
+      <c r="BA464" t="inlineStr"/>
+      <c r="BB464" t="inlineStr"/>
+      <c r="BC464" t="inlineStr"/>
+      <c r="BD464" t="inlineStr"/>
+      <c r="BE464" t="inlineStr"/>
+      <c r="BF464" t="inlineStr"/>
+      <c r="BG464" t="inlineStr"/>
+      <c r="BH464" t="inlineStr"/>
+      <c r="BI464" t="inlineStr"/>
+      <c r="BJ464" t="inlineStr"/>
+      <c r="BK464" t="inlineStr"/>
+      <c r="BL464" t="inlineStr"/>
+      <c r="BM464" t="inlineStr"/>
+      <c r="BN464" t="inlineStr"/>
+      <c r="BO464" t="inlineStr"/>
+      <c r="BP464" t="inlineStr"/>
+      <c r="BQ464" t="inlineStr"/>
+      <c r="BR464" t="inlineStr"/>
+      <c r="BS464" t="inlineStr"/>
+      <c r="BT464" t="inlineStr"/>
+      <c r="BU464" t="inlineStr"/>
+      <c r="BV464" t="inlineStr"/>
+      <c r="BW464" t="inlineStr"/>
+      <c r="BX464" t="inlineStr"/>
+      <c r="BY464" t="inlineStr"/>
+      <c r="BZ464" t="inlineStr"/>
+      <c r="CA464" t="inlineStr"/>
+      <c r="CB464" t="inlineStr"/>
+      <c r="CC464" t="inlineStr"/>
+      <c r="CD464" t="inlineStr"/>
+      <c r="CE464" t="inlineStr"/>
+      <c r="CF464" t="inlineStr"/>
+      <c r="CG464" t="inlineStr"/>
+      <c r="CH464" t="inlineStr"/>
+      <c r="CI464" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ464" t="inlineStr"/>
+      <c r="CK464" t="inlineStr"/>
+      <c r="CL464" t="inlineStr"/>
+      <c r="CM464" t="inlineStr"/>
+      <c r="CN464" t="inlineStr"/>
+      <c r="CO464" t="inlineStr"/>
+      <c r="CP464" t="inlineStr"/>
+      <c r="CQ464" t="inlineStr"/>
+      <c r="CR464" t="inlineStr"/>
+      <c r="CS464" t="inlineStr"/>
+      <c r="CT464" t="inlineStr"/>
+      <c r="CU464" t="inlineStr"/>
+      <c r="CV464" t="inlineStr"/>
+      <c r="CW464" t="inlineStr"/>
+      <c r="CX464" t="inlineStr"/>
+      <c r="CY464" t="inlineStr"/>
+      <c r="CZ464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr"/>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
+      <c r="G465" t="inlineStr"/>
+      <c r="H465" t="inlineStr"/>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
+      <c r="M465" t="inlineStr"/>
+      <c r="N465" t="inlineStr"/>
+      <c r="O465" t="inlineStr"/>
+      <c r="P465" t="inlineStr"/>
+      <c r="Q465" t="inlineStr"/>
+      <c r="R465" t="inlineStr"/>
+      <c r="S465" t="inlineStr"/>
+      <c r="T465" t="inlineStr"/>
+      <c r="U465" t="inlineStr"/>
+      <c r="V465" t="inlineStr"/>
+      <c r="W465" t="inlineStr"/>
+      <c r="X465" t="inlineStr"/>
+      <c r="Y465" t="inlineStr"/>
+      <c r="Z465" t="inlineStr"/>
+      <c r="AA465" t="inlineStr"/>
+      <c r="AB465" t="inlineStr"/>
+      <c r="AC465" t="inlineStr"/>
+      <c r="AD465" t="inlineStr"/>
+      <c r="AE465" t="inlineStr"/>
+      <c r="AF465" t="inlineStr"/>
+      <c r="AG465" t="inlineStr"/>
+      <c r="AH465" t="inlineStr"/>
+      <c r="AI465" t="inlineStr"/>
+      <c r="AJ465" t="inlineStr"/>
+      <c r="AK465" t="inlineStr"/>
+      <c r="AL465" t="inlineStr"/>
+      <c r="AM465" t="inlineStr"/>
+      <c r="AN465" t="inlineStr"/>
+      <c r="AO465" t="inlineStr"/>
+      <c r="AP465" t="inlineStr"/>
+      <c r="AQ465" t="inlineStr"/>
+      <c r="AR465" t="inlineStr"/>
+      <c r="AS465" t="inlineStr"/>
+      <c r="AT465" t="inlineStr"/>
+      <c r="AU465" t="inlineStr"/>
+      <c r="AV465" t="inlineStr"/>
+      <c r="AW465" t="inlineStr"/>
+      <c r="AX465" t="inlineStr"/>
+      <c r="AY465" t="inlineStr"/>
+      <c r="AZ465" t="inlineStr"/>
+      <c r="BA465" t="inlineStr"/>
+      <c r="BB465" t="inlineStr"/>
+      <c r="BC465" t="inlineStr"/>
+      <c r="BD465" t="inlineStr"/>
+      <c r="BE465" t="inlineStr"/>
+      <c r="BF465" t="inlineStr"/>
+      <c r="BG465" t="inlineStr"/>
+      <c r="BH465" t="inlineStr"/>
+      <c r="BI465" t="inlineStr"/>
+      <c r="BJ465" t="inlineStr"/>
+      <c r="BK465" t="inlineStr"/>
+      <c r="BL465" t="inlineStr"/>
+      <c r="BM465" t="inlineStr"/>
+      <c r="BN465" t="inlineStr"/>
+      <c r="BO465" t="inlineStr"/>
+      <c r="BP465" t="inlineStr"/>
+      <c r="BQ465" t="inlineStr"/>
+      <c r="BR465" t="inlineStr"/>
+      <c r="BS465" t="inlineStr"/>
+      <c r="BT465" t="inlineStr"/>
+      <c r="BU465" t="inlineStr"/>
+      <c r="BV465" t="inlineStr"/>
+      <c r="BW465" t="inlineStr"/>
+      <c r="BX465" t="inlineStr"/>
+      <c r="BY465" t="inlineStr"/>
+      <c r="BZ465" t="inlineStr"/>
+      <c r="CA465" t="inlineStr"/>
+      <c r="CB465" t="inlineStr"/>
+      <c r="CC465" t="inlineStr"/>
+      <c r="CD465" t="inlineStr"/>
+      <c r="CE465" t="inlineStr"/>
+      <c r="CF465" t="inlineStr"/>
+      <c r="CG465" t="inlineStr"/>
+      <c r="CH465" t="inlineStr"/>
+      <c r="CI465" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ465" t="inlineStr"/>
+      <c r="CK465" t="inlineStr"/>
+      <c r="CL465" t="inlineStr"/>
+      <c r="CM465" t="inlineStr"/>
+      <c r="CN465" t="inlineStr"/>
+      <c r="CO465" t="inlineStr"/>
+      <c r="CP465" t="inlineStr"/>
+      <c r="CQ465" t="inlineStr"/>
+      <c r="CR465" t="inlineStr"/>
+      <c r="CS465" t="inlineStr"/>
+      <c r="CT465" t="inlineStr"/>
+      <c r="CU465" t="inlineStr"/>
+      <c r="CV465" t="inlineStr"/>
+      <c r="CW465" t="inlineStr"/>
+      <c r="CX465" t="inlineStr"/>
+      <c r="CY465" t="inlineStr"/>
+      <c r="CZ465" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ465"/>
+  <dimension ref="A1:CZ472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63050,8 +63050,16 @@
       <c r="CZ464" t="inlineStr"/>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr"/>
-      <c r="B465" t="inlineStr"/>
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>cl:10449</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>observation device</t>
+        </is>
+      </c>
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr"/>
@@ -63134,7 +63142,11 @@
       <c r="CD465" t="inlineStr"/>
       <c r="CE465" t="inlineStr"/>
       <c r="CF465" t="inlineStr"/>
-      <c r="CG465" t="inlineStr"/>
+      <c r="CG465" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
       <c r="CH465" t="inlineStr"/>
       <c r="CI465" t="inlineStr">
         <is>
@@ -63159,6 +63171,868 @@
       <c r="CY465" t="inlineStr"/>
       <c r="CZ465" t="inlineStr"/>
     </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>cl:10450</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>measurement tower</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr"/>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>cl:10449</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr"/>
+      <c r="H466" t="inlineStr"/>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
+      <c r="M466" t="inlineStr"/>
+      <c r="N466" t="inlineStr"/>
+      <c r="O466" t="inlineStr"/>
+      <c r="P466" t="inlineStr"/>
+      <c r="Q466" t="inlineStr"/>
+      <c r="R466" t="inlineStr"/>
+      <c r="S466" t="inlineStr"/>
+      <c r="T466" t="inlineStr"/>
+      <c r="U466" t="inlineStr"/>
+      <c r="V466" t="inlineStr"/>
+      <c r="W466" t="inlineStr"/>
+      <c r="X466" t="inlineStr"/>
+      <c r="Y466" t="inlineStr"/>
+      <c r="Z466" t="inlineStr"/>
+      <c r="AA466" t="inlineStr"/>
+      <c r="AB466" t="inlineStr"/>
+      <c r="AC466" t="inlineStr"/>
+      <c r="AD466" t="inlineStr"/>
+      <c r="AE466" t="inlineStr"/>
+      <c r="AF466" t="inlineStr"/>
+      <c r="AG466" t="inlineStr"/>
+      <c r="AH466" t="inlineStr"/>
+      <c r="AI466" t="inlineStr"/>
+      <c r="AJ466" t="inlineStr"/>
+      <c r="AK466" t="inlineStr"/>
+      <c r="AL466" t="inlineStr"/>
+      <c r="AM466" t="inlineStr"/>
+      <c r="AN466" t="inlineStr"/>
+      <c r="AO466" t="inlineStr"/>
+      <c r="AP466" t="inlineStr"/>
+      <c r="AQ466" t="inlineStr"/>
+      <c r="AR466" t="inlineStr"/>
+      <c r="AS466" t="inlineStr"/>
+      <c r="AT466" t="inlineStr"/>
+      <c r="AU466" t="inlineStr"/>
+      <c r="AV466" t="inlineStr"/>
+      <c r="AW466" t="inlineStr"/>
+      <c r="AX466" t="inlineStr"/>
+      <c r="AY466" t="inlineStr"/>
+      <c r="AZ466" t="inlineStr"/>
+      <c r="BA466" t="inlineStr"/>
+      <c r="BB466" t="inlineStr"/>
+      <c r="BC466" t="inlineStr"/>
+      <c r="BD466" t="inlineStr"/>
+      <c r="BE466" t="inlineStr"/>
+      <c r="BF466" t="inlineStr"/>
+      <c r="BG466" t="inlineStr"/>
+      <c r="BH466" t="inlineStr"/>
+      <c r="BI466" t="inlineStr"/>
+      <c r="BJ466" t="inlineStr"/>
+      <c r="BK466" t="inlineStr"/>
+      <c r="BL466" t="inlineStr"/>
+      <c r="BM466" t="inlineStr"/>
+      <c r="BN466" t="inlineStr"/>
+      <c r="BO466" t="inlineStr"/>
+      <c r="BP466" t="inlineStr"/>
+      <c r="BQ466" t="inlineStr"/>
+      <c r="BR466" t="inlineStr"/>
+      <c r="BS466" t="inlineStr"/>
+      <c r="BT466" t="inlineStr"/>
+      <c r="BU466" t="inlineStr"/>
+      <c r="BV466" t="inlineStr"/>
+      <c r="BW466" t="inlineStr"/>
+      <c r="BX466" t="inlineStr"/>
+      <c r="BY466" t="inlineStr"/>
+      <c r="BZ466" t="inlineStr"/>
+      <c r="CA466" t="inlineStr"/>
+      <c r="CB466" t="inlineStr"/>
+      <c r="CC466" t="inlineStr"/>
+      <c r="CD466" t="inlineStr"/>
+      <c r="CE466" t="inlineStr"/>
+      <c r="CF466" t="inlineStr"/>
+      <c r="CG466" t="inlineStr"/>
+      <c r="CH466" t="inlineStr"/>
+      <c r="CI466" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ466" t="inlineStr"/>
+      <c r="CK466" t="inlineStr"/>
+      <c r="CL466" t="inlineStr"/>
+      <c r="CM466" t="inlineStr"/>
+      <c r="CN466" t="inlineStr"/>
+      <c r="CO466" t="inlineStr"/>
+      <c r="CP466" t="inlineStr"/>
+      <c r="CQ466" t="inlineStr"/>
+      <c r="CR466" t="inlineStr"/>
+      <c r="CS466" t="inlineStr"/>
+      <c r="CT466" t="inlineStr"/>
+      <c r="CU466" t="inlineStr"/>
+      <c r="CV466" t="inlineStr"/>
+      <c r="CW466" t="inlineStr"/>
+      <c r="CX466" t="inlineStr"/>
+      <c r="CY466" t="inlineStr"/>
+      <c r="CZ466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>cl:10451</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>temperature controlled container</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>cl:10449</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr"/>
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
+      <c r="M467" t="inlineStr"/>
+      <c r="N467" t="inlineStr"/>
+      <c r="O467" t="inlineStr"/>
+      <c r="P467" t="inlineStr"/>
+      <c r="Q467" t="inlineStr"/>
+      <c r="R467" t="inlineStr"/>
+      <c r="S467" t="inlineStr"/>
+      <c r="T467" t="inlineStr"/>
+      <c r="U467" t="inlineStr"/>
+      <c r="V467" t="inlineStr"/>
+      <c r="W467" t="inlineStr"/>
+      <c r="X467" t="inlineStr"/>
+      <c r="Y467" t="inlineStr"/>
+      <c r="Z467" t="inlineStr"/>
+      <c r="AA467" t="inlineStr"/>
+      <c r="AB467" t="inlineStr"/>
+      <c r="AC467" t="inlineStr"/>
+      <c r="AD467" t="inlineStr"/>
+      <c r="AE467" t="inlineStr"/>
+      <c r="AF467" t="inlineStr"/>
+      <c r="AG467" t="inlineStr"/>
+      <c r="AH467" t="inlineStr"/>
+      <c r="AI467" t="inlineStr"/>
+      <c r="AJ467" t="inlineStr"/>
+      <c r="AK467" t="inlineStr"/>
+      <c r="AL467" t="inlineStr"/>
+      <c r="AM467" t="inlineStr"/>
+      <c r="AN467" t="inlineStr"/>
+      <c r="AO467" t="inlineStr"/>
+      <c r="AP467" t="inlineStr"/>
+      <c r="AQ467" t="inlineStr"/>
+      <c r="AR467" t="inlineStr"/>
+      <c r="AS467" t="inlineStr"/>
+      <c r="AT467" t="inlineStr"/>
+      <c r="AU467" t="inlineStr"/>
+      <c r="AV467" t="inlineStr"/>
+      <c r="AW467" t="inlineStr"/>
+      <c r="AX467" t="inlineStr"/>
+      <c r="AY467" t="inlineStr"/>
+      <c r="AZ467" t="inlineStr"/>
+      <c r="BA467" t="inlineStr"/>
+      <c r="BB467" t="inlineStr"/>
+      <c r="BC467" t="inlineStr"/>
+      <c r="BD467" t="inlineStr"/>
+      <c r="BE467" t="inlineStr"/>
+      <c r="BF467" t="inlineStr"/>
+      <c r="BG467" t="inlineStr"/>
+      <c r="BH467" t="inlineStr"/>
+      <c r="BI467" t="inlineStr"/>
+      <c r="BJ467" t="inlineStr"/>
+      <c r="BK467" t="inlineStr"/>
+      <c r="BL467" t="inlineStr"/>
+      <c r="BM467" t="inlineStr"/>
+      <c r="BN467" t="inlineStr"/>
+      <c r="BO467" t="inlineStr"/>
+      <c r="BP467" t="inlineStr"/>
+      <c r="BQ467" t="inlineStr"/>
+      <c r="BR467" t="inlineStr"/>
+      <c r="BS467" t="inlineStr"/>
+      <c r="BT467" t="inlineStr"/>
+      <c r="BU467" t="inlineStr"/>
+      <c r="BV467" t="inlineStr"/>
+      <c r="BW467" t="inlineStr"/>
+      <c r="BX467" t="inlineStr"/>
+      <c r="BY467" t="inlineStr"/>
+      <c r="BZ467" t="inlineStr"/>
+      <c r="CA467" t="inlineStr"/>
+      <c r="CB467" t="inlineStr"/>
+      <c r="CC467" t="inlineStr"/>
+      <c r="CD467" t="inlineStr"/>
+      <c r="CE467" t="inlineStr"/>
+      <c r="CF467" t="inlineStr"/>
+      <c r="CG467" t="inlineStr"/>
+      <c r="CH467" t="inlineStr"/>
+      <c r="CI467" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ467" t="inlineStr"/>
+      <c r="CK467" t="inlineStr"/>
+      <c r="CL467" t="inlineStr"/>
+      <c r="CM467" t="inlineStr"/>
+      <c r="CN467" t="inlineStr"/>
+      <c r="CO467" t="inlineStr"/>
+      <c r="CP467" t="inlineStr"/>
+      <c r="CQ467" t="inlineStr"/>
+      <c r="CR467" t="inlineStr"/>
+      <c r="CS467" t="inlineStr"/>
+      <c r="CT467" t="inlineStr"/>
+      <c r="CU467" t="inlineStr"/>
+      <c r="CV467" t="inlineStr"/>
+      <c r="CW467" t="inlineStr"/>
+      <c r="CX467" t="inlineStr"/>
+      <c r="CY467" t="inlineStr"/>
+      <c r="CZ467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>cl:10452</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>in canopy</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>cl:10450</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr"/>
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
+      <c r="M468" t="inlineStr"/>
+      <c r="N468" t="inlineStr"/>
+      <c r="O468" t="inlineStr"/>
+      <c r="P468" t="inlineStr"/>
+      <c r="Q468" t="inlineStr"/>
+      <c r="R468" t="inlineStr"/>
+      <c r="S468" t="inlineStr"/>
+      <c r="T468" t="inlineStr"/>
+      <c r="U468" t="inlineStr"/>
+      <c r="V468" t="inlineStr"/>
+      <c r="W468" t="inlineStr"/>
+      <c r="X468" t="inlineStr"/>
+      <c r="Y468" t="inlineStr"/>
+      <c r="Z468" t="inlineStr"/>
+      <c r="AA468" t="inlineStr"/>
+      <c r="AB468" t="inlineStr"/>
+      <c r="AC468" t="inlineStr"/>
+      <c r="AD468" t="inlineStr"/>
+      <c r="AE468" t="inlineStr"/>
+      <c r="AF468" t="inlineStr"/>
+      <c r="AG468" t="inlineStr"/>
+      <c r="AH468" t="inlineStr"/>
+      <c r="AI468" t="inlineStr"/>
+      <c r="AJ468" t="inlineStr"/>
+      <c r="AK468" t="inlineStr"/>
+      <c r="AL468" t="inlineStr"/>
+      <c r="AM468" t="inlineStr"/>
+      <c r="AN468" t="inlineStr"/>
+      <c r="AO468" t="inlineStr"/>
+      <c r="AP468" t="inlineStr"/>
+      <c r="AQ468" t="inlineStr"/>
+      <c r="AR468" t="inlineStr"/>
+      <c r="AS468" t="inlineStr"/>
+      <c r="AT468" t="inlineStr"/>
+      <c r="AU468" t="inlineStr"/>
+      <c r="AV468" t="inlineStr"/>
+      <c r="AW468" t="inlineStr"/>
+      <c r="AX468" t="inlineStr"/>
+      <c r="AY468" t="inlineStr"/>
+      <c r="AZ468" t="inlineStr"/>
+      <c r="BA468" t="inlineStr"/>
+      <c r="BB468" t="inlineStr"/>
+      <c r="BC468" t="inlineStr"/>
+      <c r="BD468" t="inlineStr"/>
+      <c r="BE468" t="inlineStr"/>
+      <c r="BF468" t="inlineStr"/>
+      <c r="BG468" t="inlineStr"/>
+      <c r="BH468" t="inlineStr"/>
+      <c r="BI468" t="inlineStr"/>
+      <c r="BJ468" t="inlineStr"/>
+      <c r="BK468" t="inlineStr"/>
+      <c r="BL468" t="inlineStr"/>
+      <c r="BM468" t="inlineStr"/>
+      <c r="BN468" t="inlineStr"/>
+      <c r="BO468" t="inlineStr"/>
+      <c r="BP468" t="inlineStr"/>
+      <c r="BQ468" t="inlineStr"/>
+      <c r="BR468" t="inlineStr"/>
+      <c r="BS468" t="inlineStr"/>
+      <c r="BT468" t="inlineStr"/>
+      <c r="BU468" t="inlineStr"/>
+      <c r="BV468" t="inlineStr"/>
+      <c r="BW468" t="inlineStr"/>
+      <c r="BX468" t="inlineStr"/>
+      <c r="BY468" t="inlineStr"/>
+      <c r="BZ468" t="inlineStr"/>
+      <c r="CA468" t="inlineStr"/>
+      <c r="CB468" t="inlineStr"/>
+      <c r="CC468" t="inlineStr"/>
+      <c r="CD468" t="inlineStr"/>
+      <c r="CE468" t="inlineStr"/>
+      <c r="CF468" t="inlineStr"/>
+      <c r="CG468" t="inlineStr"/>
+      <c r="CH468" t="inlineStr"/>
+      <c r="CI468" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ468" t="inlineStr"/>
+      <c r="CK468" t="inlineStr"/>
+      <c r="CL468" t="inlineStr"/>
+      <c r="CM468" t="inlineStr"/>
+      <c r="CN468" t="inlineStr"/>
+      <c r="CO468" t="inlineStr"/>
+      <c r="CP468" t="inlineStr"/>
+      <c r="CQ468" t="inlineStr"/>
+      <c r="CR468" t="inlineStr"/>
+      <c r="CS468" t="inlineStr"/>
+      <c r="CT468" t="inlineStr"/>
+      <c r="CU468" t="inlineStr"/>
+      <c r="CV468" t="inlineStr"/>
+      <c r="CW468" t="inlineStr"/>
+      <c r="CX468" t="inlineStr"/>
+      <c r="CY468" t="inlineStr"/>
+      <c r="CZ468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>cl:10453</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>less than 10 m above canopy</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>cl:10450</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr"/>
+      <c r="H469" t="inlineStr"/>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
+      <c r="M469" t="inlineStr"/>
+      <c r="N469" t="inlineStr"/>
+      <c r="O469" t="inlineStr"/>
+      <c r="P469" t="inlineStr"/>
+      <c r="Q469" t="inlineStr"/>
+      <c r="R469" t="inlineStr"/>
+      <c r="S469" t="inlineStr"/>
+      <c r="T469" t="inlineStr"/>
+      <c r="U469" t="inlineStr"/>
+      <c r="V469" t="inlineStr"/>
+      <c r="W469" t="inlineStr"/>
+      <c r="X469" t="inlineStr"/>
+      <c r="Y469" t="inlineStr"/>
+      <c r="Z469" t="inlineStr"/>
+      <c r="AA469" t="inlineStr"/>
+      <c r="AB469" t="inlineStr"/>
+      <c r="AC469" t="inlineStr"/>
+      <c r="AD469" t="inlineStr"/>
+      <c r="AE469" t="inlineStr"/>
+      <c r="AF469" t="inlineStr"/>
+      <c r="AG469" t="inlineStr"/>
+      <c r="AH469" t="inlineStr"/>
+      <c r="AI469" t="inlineStr"/>
+      <c r="AJ469" t="inlineStr"/>
+      <c r="AK469" t="inlineStr"/>
+      <c r="AL469" t="inlineStr"/>
+      <c r="AM469" t="inlineStr"/>
+      <c r="AN469" t="inlineStr"/>
+      <c r="AO469" t="inlineStr"/>
+      <c r="AP469" t="inlineStr"/>
+      <c r="AQ469" t="inlineStr"/>
+      <c r="AR469" t="inlineStr"/>
+      <c r="AS469" t="inlineStr"/>
+      <c r="AT469" t="inlineStr"/>
+      <c r="AU469" t="inlineStr"/>
+      <c r="AV469" t="inlineStr"/>
+      <c r="AW469" t="inlineStr"/>
+      <c r="AX469" t="inlineStr"/>
+      <c r="AY469" t="inlineStr"/>
+      <c r="AZ469" t="inlineStr"/>
+      <c r="BA469" t="inlineStr"/>
+      <c r="BB469" t="inlineStr"/>
+      <c r="BC469" t="inlineStr"/>
+      <c r="BD469" t="inlineStr"/>
+      <c r="BE469" t="inlineStr"/>
+      <c r="BF469" t="inlineStr"/>
+      <c r="BG469" t="inlineStr"/>
+      <c r="BH469" t="inlineStr"/>
+      <c r="BI469" t="inlineStr"/>
+      <c r="BJ469" t="inlineStr"/>
+      <c r="BK469" t="inlineStr"/>
+      <c r="BL469" t="inlineStr"/>
+      <c r="BM469" t="inlineStr"/>
+      <c r="BN469" t="inlineStr"/>
+      <c r="BO469" t="inlineStr"/>
+      <c r="BP469" t="inlineStr"/>
+      <c r="BQ469" t="inlineStr"/>
+      <c r="BR469" t="inlineStr"/>
+      <c r="BS469" t="inlineStr"/>
+      <c r="BT469" t="inlineStr"/>
+      <c r="BU469" t="inlineStr"/>
+      <c r="BV469" t="inlineStr"/>
+      <c r="BW469" t="inlineStr"/>
+      <c r="BX469" t="inlineStr"/>
+      <c r="BY469" t="inlineStr"/>
+      <c r="BZ469" t="inlineStr"/>
+      <c r="CA469" t="inlineStr"/>
+      <c r="CB469" t="inlineStr"/>
+      <c r="CC469" t="inlineStr"/>
+      <c r="CD469" t="inlineStr"/>
+      <c r="CE469" t="inlineStr"/>
+      <c r="CF469" t="inlineStr"/>
+      <c r="CG469" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH469" t="inlineStr"/>
+      <c r="CI469" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ469" t="inlineStr"/>
+      <c r="CK469" t="inlineStr"/>
+      <c r="CL469" t="inlineStr"/>
+      <c r="CM469" t="inlineStr"/>
+      <c r="CN469" t="inlineStr"/>
+      <c r="CO469" t="inlineStr"/>
+      <c r="CP469" t="inlineStr"/>
+      <c r="CQ469" t="inlineStr"/>
+      <c r="CR469" t="inlineStr"/>
+      <c r="CS469" t="inlineStr"/>
+      <c r="CT469" t="inlineStr"/>
+      <c r="CU469" t="inlineStr"/>
+      <c r="CV469" t="inlineStr"/>
+      <c r="CW469" t="inlineStr"/>
+      <c r="CX469" t="inlineStr"/>
+      <c r="CY469" t="inlineStr"/>
+      <c r="CZ469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>cl:10454</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>more than 10 m above canopy</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr"/>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>cl:10450</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr"/>
+      <c r="H470" t="inlineStr"/>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
+      <c r="M470" t="inlineStr"/>
+      <c r="N470" t="inlineStr"/>
+      <c r="O470" t="inlineStr"/>
+      <c r="P470" t="inlineStr"/>
+      <c r="Q470" t="inlineStr"/>
+      <c r="R470" t="inlineStr"/>
+      <c r="S470" t="inlineStr"/>
+      <c r="T470" t="inlineStr"/>
+      <c r="U470" t="inlineStr"/>
+      <c r="V470" t="inlineStr"/>
+      <c r="W470" t="inlineStr"/>
+      <c r="X470" t="inlineStr"/>
+      <c r="Y470" t="inlineStr"/>
+      <c r="Z470" t="inlineStr"/>
+      <c r="AA470" t="inlineStr"/>
+      <c r="AB470" t="inlineStr"/>
+      <c r="AC470" t="inlineStr"/>
+      <c r="AD470" t="inlineStr"/>
+      <c r="AE470" t="inlineStr"/>
+      <c r="AF470" t="inlineStr"/>
+      <c r="AG470" t="inlineStr"/>
+      <c r="AH470" t="inlineStr"/>
+      <c r="AI470" t="inlineStr"/>
+      <c r="AJ470" t="inlineStr"/>
+      <c r="AK470" t="inlineStr"/>
+      <c r="AL470" t="inlineStr"/>
+      <c r="AM470" t="inlineStr"/>
+      <c r="AN470" t="inlineStr"/>
+      <c r="AO470" t="inlineStr"/>
+      <c r="AP470" t="inlineStr"/>
+      <c r="AQ470" t="inlineStr"/>
+      <c r="AR470" t="inlineStr"/>
+      <c r="AS470" t="inlineStr"/>
+      <c r="AT470" t="inlineStr"/>
+      <c r="AU470" t="inlineStr"/>
+      <c r="AV470" t="inlineStr"/>
+      <c r="AW470" t="inlineStr"/>
+      <c r="AX470" t="inlineStr"/>
+      <c r="AY470" t="inlineStr"/>
+      <c r="AZ470" t="inlineStr"/>
+      <c r="BA470" t="inlineStr"/>
+      <c r="BB470" t="inlineStr"/>
+      <c r="BC470" t="inlineStr"/>
+      <c r="BD470" t="inlineStr"/>
+      <c r="BE470" t="inlineStr"/>
+      <c r="BF470" t="inlineStr"/>
+      <c r="BG470" t="inlineStr"/>
+      <c r="BH470" t="inlineStr"/>
+      <c r="BI470" t="inlineStr"/>
+      <c r="BJ470" t="inlineStr"/>
+      <c r="BK470" t="inlineStr"/>
+      <c r="BL470" t="inlineStr"/>
+      <c r="BM470" t="inlineStr"/>
+      <c r="BN470" t="inlineStr"/>
+      <c r="BO470" t="inlineStr"/>
+      <c r="BP470" t="inlineStr"/>
+      <c r="BQ470" t="inlineStr"/>
+      <c r="BR470" t="inlineStr"/>
+      <c r="BS470" t="inlineStr"/>
+      <c r="BT470" t="inlineStr"/>
+      <c r="BU470" t="inlineStr"/>
+      <c r="BV470" t="inlineStr"/>
+      <c r="BW470" t="inlineStr"/>
+      <c r="BX470" t="inlineStr"/>
+      <c r="BY470" t="inlineStr"/>
+      <c r="BZ470" t="inlineStr"/>
+      <c r="CA470" t="inlineStr"/>
+      <c r="CB470" t="inlineStr"/>
+      <c r="CC470" t="inlineStr"/>
+      <c r="CD470" t="inlineStr"/>
+      <c r="CE470" t="inlineStr"/>
+      <c r="CF470" t="inlineStr"/>
+      <c r="CG470" t="inlineStr"/>
+      <c r="CH470" t="inlineStr"/>
+      <c r="CI470" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ470" t="inlineStr"/>
+      <c r="CK470" t="inlineStr"/>
+      <c r="CL470" t="inlineStr"/>
+      <c r="CM470" t="inlineStr"/>
+      <c r="CN470" t="inlineStr"/>
+      <c r="CO470" t="inlineStr"/>
+      <c r="CP470" t="inlineStr"/>
+      <c r="CQ470" t="inlineStr"/>
+      <c r="CR470" t="inlineStr"/>
+      <c r="CS470" t="inlineStr"/>
+      <c r="CT470" t="inlineStr"/>
+      <c r="CU470" t="inlineStr"/>
+      <c r="CV470" t="inlineStr"/>
+      <c r="CW470" t="inlineStr"/>
+      <c r="CX470" t="inlineStr"/>
+      <c r="CY470" t="inlineStr"/>
+      <c r="CZ470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>cl:10455</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>no tower on site</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr"/>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>cl:10450</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr"/>
+      <c r="H471" t="inlineStr"/>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
+      <c r="M471" t="inlineStr"/>
+      <c r="N471" t="inlineStr"/>
+      <c r="O471" t="inlineStr"/>
+      <c r="P471" t="inlineStr"/>
+      <c r="Q471" t="inlineStr"/>
+      <c r="R471" t="inlineStr"/>
+      <c r="S471" t="inlineStr"/>
+      <c r="T471" t="inlineStr"/>
+      <c r="U471" t="inlineStr"/>
+      <c r="V471" t="inlineStr"/>
+      <c r="W471" t="inlineStr"/>
+      <c r="X471" t="inlineStr"/>
+      <c r="Y471" t="inlineStr"/>
+      <c r="Z471" t="inlineStr"/>
+      <c r="AA471" t="inlineStr"/>
+      <c r="AB471" t="inlineStr"/>
+      <c r="AC471" t="inlineStr"/>
+      <c r="AD471" t="inlineStr"/>
+      <c r="AE471" t="inlineStr"/>
+      <c r="AF471" t="inlineStr"/>
+      <c r="AG471" t="inlineStr"/>
+      <c r="AH471" t="inlineStr"/>
+      <c r="AI471" t="inlineStr"/>
+      <c r="AJ471" t="inlineStr"/>
+      <c r="AK471" t="inlineStr"/>
+      <c r="AL471" t="inlineStr"/>
+      <c r="AM471" t="inlineStr"/>
+      <c r="AN471" t="inlineStr"/>
+      <c r="AO471" t="inlineStr"/>
+      <c r="AP471" t="inlineStr"/>
+      <c r="AQ471" t="inlineStr"/>
+      <c r="AR471" t="inlineStr"/>
+      <c r="AS471" t="inlineStr"/>
+      <c r="AT471" t="inlineStr"/>
+      <c r="AU471" t="inlineStr"/>
+      <c r="AV471" t="inlineStr"/>
+      <c r="AW471" t="inlineStr"/>
+      <c r="AX471" t="inlineStr"/>
+      <c r="AY471" t="inlineStr"/>
+      <c r="AZ471" t="inlineStr"/>
+      <c r="BA471" t="inlineStr"/>
+      <c r="BB471" t="inlineStr"/>
+      <c r="BC471" t="inlineStr"/>
+      <c r="BD471" t="inlineStr"/>
+      <c r="BE471" t="inlineStr"/>
+      <c r="BF471" t="inlineStr"/>
+      <c r="BG471" t="inlineStr"/>
+      <c r="BH471" t="inlineStr"/>
+      <c r="BI471" t="inlineStr"/>
+      <c r="BJ471" t="inlineStr"/>
+      <c r="BK471" t="inlineStr"/>
+      <c r="BL471" t="inlineStr"/>
+      <c r="BM471" t="inlineStr"/>
+      <c r="BN471" t="inlineStr"/>
+      <c r="BO471" t="inlineStr"/>
+      <c r="BP471" t="inlineStr"/>
+      <c r="BQ471" t="inlineStr"/>
+      <c r="BR471" t="inlineStr"/>
+      <c r="BS471" t="inlineStr"/>
+      <c r="BT471" t="inlineStr"/>
+      <c r="BU471" t="inlineStr"/>
+      <c r="BV471" t="inlineStr"/>
+      <c r="BW471" t="inlineStr"/>
+      <c r="BX471" t="inlineStr"/>
+      <c r="BY471" t="inlineStr"/>
+      <c r="BZ471" t="inlineStr"/>
+      <c r="CA471" t="inlineStr"/>
+      <c r="CB471" t="inlineStr"/>
+      <c r="CC471" t="inlineStr"/>
+      <c r="CD471" t="inlineStr"/>
+      <c r="CE471" t="inlineStr"/>
+      <c r="CF471" t="inlineStr"/>
+      <c r="CG471" t="inlineStr"/>
+      <c r="CH471" t="inlineStr"/>
+      <c r="CI471" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ471" t="inlineStr"/>
+      <c r="CK471" t="inlineStr"/>
+      <c r="CL471" t="inlineStr"/>
+      <c r="CM471" t="inlineStr"/>
+      <c r="CN471" t="inlineStr"/>
+      <c r="CO471" t="inlineStr"/>
+      <c r="CP471" t="inlineStr"/>
+      <c r="CQ471" t="inlineStr"/>
+      <c r="CR471" t="inlineStr"/>
+      <c r="CS471" t="inlineStr"/>
+      <c r="CT471" t="inlineStr"/>
+      <c r="CU471" t="inlineStr"/>
+      <c r="CV471" t="inlineStr"/>
+      <c r="CW471" t="inlineStr"/>
+      <c r="CX471" t="inlineStr"/>
+      <c r="CY471" t="inlineStr"/>
+      <c r="CZ471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>cl:10456</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>marine platform</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr"/>
+      <c r="D472" t="inlineStr"/>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>cl:10449</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr"/>
+      <c r="H472" t="inlineStr"/>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
+      <c r="M472" t="inlineStr"/>
+      <c r="N472" t="inlineStr"/>
+      <c r="O472" t="inlineStr"/>
+      <c r="P472" t="inlineStr"/>
+      <c r="Q472" t="inlineStr"/>
+      <c r="R472" t="inlineStr"/>
+      <c r="S472" t="inlineStr"/>
+      <c r="T472" t="inlineStr"/>
+      <c r="U472" t="inlineStr"/>
+      <c r="V472" t="inlineStr"/>
+      <c r="W472" t="inlineStr"/>
+      <c r="X472" t="inlineStr"/>
+      <c r="Y472" t="inlineStr"/>
+      <c r="Z472" t="inlineStr"/>
+      <c r="AA472" t="inlineStr"/>
+      <c r="AB472" t="inlineStr"/>
+      <c r="AC472" t="inlineStr"/>
+      <c r="AD472" t="inlineStr"/>
+      <c r="AE472" t="inlineStr"/>
+      <c r="AF472" t="inlineStr"/>
+      <c r="AG472" t="inlineStr"/>
+      <c r="AH472" t="inlineStr"/>
+      <c r="AI472" t="inlineStr"/>
+      <c r="AJ472" t="inlineStr"/>
+      <c r="AK472" t="inlineStr"/>
+      <c r="AL472" t="inlineStr"/>
+      <c r="AM472" t="inlineStr"/>
+      <c r="AN472" t="inlineStr"/>
+      <c r="AO472" t="inlineStr"/>
+      <c r="AP472" t="inlineStr"/>
+      <c r="AQ472" t="inlineStr"/>
+      <c r="AR472" t="inlineStr"/>
+      <c r="AS472" t="inlineStr"/>
+      <c r="AT472" t="inlineStr"/>
+      <c r="AU472" t="inlineStr"/>
+      <c r="AV472" t="inlineStr"/>
+      <c r="AW472" t="inlineStr"/>
+      <c r="AX472" t="inlineStr"/>
+      <c r="AY472" t="inlineStr"/>
+      <c r="AZ472" t="inlineStr"/>
+      <c r="BA472" t="inlineStr"/>
+      <c r="BB472" t="inlineStr"/>
+      <c r="BC472" t="inlineStr"/>
+      <c r="BD472" t="inlineStr"/>
+      <c r="BE472" t="inlineStr"/>
+      <c r="BF472" t="inlineStr"/>
+      <c r="BG472" t="inlineStr"/>
+      <c r="BH472" t="inlineStr"/>
+      <c r="BI472" t="inlineStr"/>
+      <c r="BJ472" t="inlineStr"/>
+      <c r="BK472" t="inlineStr"/>
+      <c r="BL472" t="inlineStr"/>
+      <c r="BM472" t="inlineStr"/>
+      <c r="BN472" t="inlineStr"/>
+      <c r="BO472" t="inlineStr"/>
+      <c r="BP472" t="inlineStr"/>
+      <c r="BQ472" t="inlineStr"/>
+      <c r="BR472" t="inlineStr"/>
+      <c r="BS472" t="inlineStr"/>
+      <c r="BT472" t="inlineStr"/>
+      <c r="BU472" t="inlineStr"/>
+      <c r="BV472" t="inlineStr"/>
+      <c r="BW472" t="inlineStr"/>
+      <c r="BX472" t="inlineStr"/>
+      <c r="BY472" t="inlineStr"/>
+      <c r="BZ472" t="inlineStr"/>
+      <c r="CA472" t="inlineStr"/>
+      <c r="CB472" t="inlineStr"/>
+      <c r="CC472" t="inlineStr"/>
+      <c r="CD472" t="inlineStr"/>
+      <c r="CE472" t="inlineStr"/>
+      <c r="CF472" t="inlineStr"/>
+      <c r="CG472" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH472" t="inlineStr"/>
+      <c r="CI472" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CJ472" t="inlineStr"/>
+      <c r="CK472" t="inlineStr"/>
+      <c r="CL472" t="inlineStr"/>
+      <c r="CM472" t="inlineStr"/>
+      <c r="CN472" t="inlineStr"/>
+      <c r="CO472" t="inlineStr"/>
+      <c r="CP472" t="inlineStr"/>
+      <c r="CQ472" t="inlineStr"/>
+      <c r="CR472" t="inlineStr"/>
+      <c r="CS472" t="inlineStr"/>
+      <c r="CT472" t="inlineStr"/>
+      <c r="CU472" t="inlineStr"/>
+      <c r="CV472" t="inlineStr"/>
+      <c r="CW472" t="inlineStr"/>
+      <c r="CX472" t="inlineStr"/>
+      <c r="CY472" t="inlineStr"/>
+      <c r="CZ472" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -51939,10 +51939,14 @@
           <t>2022-04-11</t>
         </is>
       </c>
-      <c r="CH377" t="inlineStr"/>
+      <c r="CH377" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI377" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ377" t="inlineStr"/>
@@ -52065,7 +52069,11 @@
           <t>2022-04-11</t>
         </is>
       </c>
-      <c r="CH378" t="inlineStr"/>
+      <c r="CH378" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI378" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -52191,7 +52199,11 @@
           <t>2022-04-11</t>
         </is>
       </c>
-      <c r="CH379" t="inlineStr"/>
+      <c r="CH379" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI379" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -52317,7 +52329,11 @@
           <t>2022-04-11</t>
         </is>
       </c>
-      <c r="CH380" t="inlineStr"/>
+      <c r="CH380" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI380" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -52443,7 +52459,11 @@
           <t>2022-04-11</t>
         </is>
       </c>
-      <c r="CH381" t="inlineStr"/>
+      <c r="CH381" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI381" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -52569,7 +52589,11 @@
           <t>2022-04-11</t>
         </is>
       </c>
-      <c r="CH382" t="inlineStr"/>
+      <c r="CH382" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI382" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -52841,10 +52865,14 @@
           <t>2022-04-11</t>
         </is>
       </c>
-      <c r="CH384" t="inlineStr"/>
+      <c r="CH384" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI384" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ384" t="inlineStr"/>
@@ -52967,7 +52995,11 @@
           <t>2022-04-11</t>
         </is>
       </c>
-      <c r="CH385" t="inlineStr"/>
+      <c r="CH385" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI385" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -53093,7 +53125,11 @@
           <t>2022-04-11</t>
         </is>
       </c>
-      <c r="CH386" t="inlineStr"/>
+      <c r="CH386" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI386" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -53353,10 +53389,14 @@
           <t>2022-04-11</t>
         </is>
       </c>
-      <c r="CH388" t="inlineStr"/>
+      <c r="CH388" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI388" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ388" t="inlineStr"/>
@@ -53859,10 +53899,14 @@
           <t>2022-04-11</t>
         </is>
       </c>
-      <c r="CH391" t="inlineStr"/>
+      <c r="CH391" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI391" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ391" t="inlineStr"/>
@@ -54289,10 +54333,14 @@
           <t>2022-04-11</t>
         </is>
       </c>
-      <c r="CH394" t="inlineStr"/>
+      <c r="CH394" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI394" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ394" t="inlineStr"/>
@@ -54691,10 +54739,14 @@
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="CH397" t="inlineStr"/>
+      <c r="CH397" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI397" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="CJ397" t="inlineStr"/>
@@ -54821,7 +54873,11 @@
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="CH398" t="inlineStr"/>
+      <c r="CH398" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI398" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -54946,8 +55002,16 @@
       <c r="CD399" t="inlineStr"/>
       <c r="CE399" t="inlineStr"/>
       <c r="CF399" t="inlineStr"/>
-      <c r="CG399" t="inlineStr"/>
-      <c r="CH399" t="inlineStr"/>
+      <c r="CG399" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH399" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI399" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -55072,8 +55136,16 @@
       <c r="CD400" t="inlineStr"/>
       <c r="CE400" t="inlineStr"/>
       <c r="CF400" t="inlineStr"/>
-      <c r="CG400" t="inlineStr"/>
-      <c r="CH400" t="inlineStr"/>
+      <c r="CG400" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH400" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI400" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -55203,7 +55275,11 @@
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="CH401" t="inlineStr"/>
+      <c r="CH401" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI401" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -55328,8 +55404,16 @@
       <c r="CD402" t="inlineStr"/>
       <c r="CE402" t="inlineStr"/>
       <c r="CF402" t="inlineStr"/>
-      <c r="CG402" t="inlineStr"/>
-      <c r="CH402" t="inlineStr"/>
+      <c r="CG402" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH402" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI402" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -55451,7 +55535,11 @@
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="CH403" t="inlineStr"/>
+      <c r="CH403" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI403" t="inlineStr">
         <is>
           <t>2022-04-15</t>
@@ -55576,8 +55664,16 @@
       <c r="CD404" t="inlineStr"/>
       <c r="CE404" t="inlineStr"/>
       <c r="CF404" t="inlineStr"/>
-      <c r="CG404" t="inlineStr"/>
-      <c r="CH404" t="inlineStr"/>
+      <c r="CG404" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH404" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI404" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -55702,8 +55798,16 @@
       <c r="CD405" t="inlineStr"/>
       <c r="CE405" t="inlineStr"/>
       <c r="CF405" t="inlineStr"/>
-      <c r="CG405" t="inlineStr"/>
-      <c r="CH405" t="inlineStr"/>
+      <c r="CG405" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH405" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI405" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -55828,8 +55932,16 @@
       <c r="CD406" t="inlineStr"/>
       <c r="CE406" t="inlineStr"/>
       <c r="CF406" t="inlineStr"/>
-      <c r="CG406" t="inlineStr"/>
-      <c r="CH406" t="inlineStr"/>
+      <c r="CG406" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH406" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI406" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -55954,8 +56066,16 @@
       <c r="CD407" t="inlineStr"/>
       <c r="CE407" t="inlineStr"/>
       <c r="CF407" t="inlineStr"/>
-      <c r="CG407" t="inlineStr"/>
-      <c r="CH407" t="inlineStr"/>
+      <c r="CG407" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH407" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI407" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -56080,8 +56200,16 @@
       <c r="CD408" t="inlineStr"/>
       <c r="CE408" t="inlineStr"/>
       <c r="CF408" t="inlineStr"/>
-      <c r="CG408" t="inlineStr"/>
-      <c r="CH408" t="inlineStr"/>
+      <c r="CG408" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH408" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI408" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -56211,7 +56339,11 @@
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="CH409" t="inlineStr"/>
+      <c r="CH409" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI409" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -56336,8 +56468,16 @@
       <c r="CD410" t="inlineStr"/>
       <c r="CE410" t="inlineStr"/>
       <c r="CF410" t="inlineStr"/>
-      <c r="CG410" t="inlineStr"/>
-      <c r="CH410" t="inlineStr"/>
+      <c r="CG410" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH410" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI410" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -56462,8 +56602,16 @@
       <c r="CD411" t="inlineStr"/>
       <c r="CE411" t="inlineStr"/>
       <c r="CF411" t="inlineStr"/>
-      <c r="CG411" t="inlineStr"/>
-      <c r="CH411" t="inlineStr"/>
+      <c r="CG411" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH411" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI411" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -56588,8 +56736,16 @@
       <c r="CD412" t="inlineStr"/>
       <c r="CE412" t="inlineStr"/>
       <c r="CF412" t="inlineStr"/>
-      <c r="CG412" t="inlineStr"/>
-      <c r="CH412" t="inlineStr"/>
+      <c r="CG412" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH412" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI412" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -56714,8 +56870,16 @@
       <c r="CD413" t="inlineStr"/>
       <c r="CE413" t="inlineStr"/>
       <c r="CF413" t="inlineStr"/>
-      <c r="CG413" t="inlineStr"/>
-      <c r="CH413" t="inlineStr"/>
+      <c r="CG413" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH413" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI413" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -56840,8 +57004,16 @@
       <c r="CD414" t="inlineStr"/>
       <c r="CE414" t="inlineStr"/>
       <c r="CF414" t="inlineStr"/>
-      <c r="CG414" t="inlineStr"/>
-      <c r="CH414" t="inlineStr"/>
+      <c r="CG414" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH414" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI414" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -56966,8 +57138,16 @@
       <c r="CD415" t="inlineStr"/>
       <c r="CE415" t="inlineStr"/>
       <c r="CF415" t="inlineStr"/>
-      <c r="CG415" t="inlineStr"/>
-      <c r="CH415" t="inlineStr"/>
+      <c r="CG415" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH415" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI415" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -57092,8 +57272,16 @@
       <c r="CD416" t="inlineStr"/>
       <c r="CE416" t="inlineStr"/>
       <c r="CF416" t="inlineStr"/>
-      <c r="CG416" t="inlineStr"/>
-      <c r="CH416" t="inlineStr"/>
+      <c r="CG416" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH416" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI416" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -57218,8 +57406,16 @@
       <c r="CD417" t="inlineStr"/>
       <c r="CE417" t="inlineStr"/>
       <c r="CF417" t="inlineStr"/>
-      <c r="CG417" t="inlineStr"/>
-      <c r="CH417" t="inlineStr"/>
+      <c r="CG417" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH417" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI417" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -57341,7 +57537,11 @@
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="CH418" t="inlineStr"/>
+      <c r="CH418" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI418" t="inlineStr">
         <is>
           <t>2022-04-15</t>
@@ -57466,8 +57666,16 @@
       <c r="CD419" t="inlineStr"/>
       <c r="CE419" t="inlineStr"/>
       <c r="CF419" t="inlineStr"/>
-      <c r="CG419" t="inlineStr"/>
-      <c r="CH419" t="inlineStr"/>
+      <c r="CG419" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH419" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI419" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -57592,8 +57800,16 @@
       <c r="CD420" t="inlineStr"/>
       <c r="CE420" t="inlineStr"/>
       <c r="CF420" t="inlineStr"/>
-      <c r="CG420" t="inlineStr"/>
-      <c r="CH420" t="inlineStr"/>
+      <c r="CG420" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH420" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI420" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -57718,8 +57934,16 @@
       <c r="CD421" t="inlineStr"/>
       <c r="CE421" t="inlineStr"/>
       <c r="CF421" t="inlineStr"/>
-      <c r="CG421" t="inlineStr"/>
-      <c r="CH421" t="inlineStr"/>
+      <c r="CG421" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH421" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI421" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -57849,7 +58073,11 @@
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="CH422" t="inlineStr"/>
+      <c r="CH422" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI422" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -57974,8 +58202,16 @@
       <c r="CD423" t="inlineStr"/>
       <c r="CE423" t="inlineStr"/>
       <c r="CF423" t="inlineStr"/>
-      <c r="CG423" t="inlineStr"/>
-      <c r="CH423" t="inlineStr"/>
+      <c r="CG423" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH423" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI423" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -58097,7 +58333,11 @@
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="CH424" t="inlineStr"/>
+      <c r="CH424" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI424" t="inlineStr">
         <is>
           <t>2022-04-15</t>
@@ -58218,8 +58458,16 @@
       <c r="CD425" t="inlineStr"/>
       <c r="CE425" t="inlineStr"/>
       <c r="CF425" t="inlineStr"/>
-      <c r="CG425" t="inlineStr"/>
-      <c r="CH425" t="inlineStr"/>
+      <c r="CG425" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH425" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI425" t="inlineStr">
         <is>
           <t>2022-04-15</t>
@@ -58340,8 +58588,16 @@
       <c r="CD426" t="inlineStr"/>
       <c r="CE426" t="inlineStr"/>
       <c r="CF426" t="inlineStr"/>
-      <c r="CG426" t="inlineStr"/>
-      <c r="CH426" t="inlineStr"/>
+      <c r="CG426" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH426" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI426" t="inlineStr">
         <is>
           <t>2022-04-15</t>
@@ -58462,8 +58718,16 @@
       <c r="CD427" t="inlineStr"/>
       <c r="CE427" t="inlineStr"/>
       <c r="CF427" t="inlineStr"/>
-      <c r="CG427" t="inlineStr"/>
-      <c r="CH427" t="inlineStr"/>
+      <c r="CG427" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH427" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI427" t="inlineStr">
         <is>
           <t>2022-04-15</t>
@@ -58584,8 +58848,16 @@
       <c r="CD428" t="inlineStr"/>
       <c r="CE428" t="inlineStr"/>
       <c r="CF428" t="inlineStr"/>
-      <c r="CG428" t="inlineStr"/>
-      <c r="CH428" t="inlineStr"/>
+      <c r="CG428" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH428" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI428" t="inlineStr">
         <is>
           <t>2022-04-15</t>
@@ -58702,8 +58974,16 @@
       <c r="CD429" t="inlineStr"/>
       <c r="CE429" t="inlineStr"/>
       <c r="CF429" t="inlineStr"/>
-      <c r="CG429" t="inlineStr"/>
-      <c r="CH429" t="inlineStr"/>
+      <c r="CG429" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH429" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI429" t="inlineStr">
         <is>
           <t>2022-04-15</t>
@@ -58824,8 +59104,16 @@
       <c r="CD430" t="inlineStr"/>
       <c r="CE430" t="inlineStr"/>
       <c r="CF430" t="inlineStr"/>
-      <c r="CG430" t="inlineStr"/>
-      <c r="CH430" t="inlineStr"/>
+      <c r="CG430" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="CH430" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI430" t="inlineStr">
         <is>
           <t>2022-04-15</t>
@@ -58951,7 +59239,11 @@
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="CH431" t="inlineStr"/>
+      <c r="CH431" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI431" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -59073,7 +59365,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH432" t="inlineStr"/>
+      <c r="CH432" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI432" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -59199,7 +59495,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH433" t="inlineStr"/>
+      <c r="CH433" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI433" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -59320,8 +59620,16 @@
       <c r="CD434" t="inlineStr"/>
       <c r="CE434" t="inlineStr"/>
       <c r="CF434" t="inlineStr"/>
-      <c r="CG434" t="inlineStr"/>
-      <c r="CH434" t="inlineStr"/>
+      <c r="CG434" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH434" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI434" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -59442,8 +59750,16 @@
       <c r="CD435" t="inlineStr"/>
       <c r="CE435" t="inlineStr"/>
       <c r="CF435" t="inlineStr"/>
-      <c r="CG435" t="inlineStr"/>
-      <c r="CH435" t="inlineStr"/>
+      <c r="CG435" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH435" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI435" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -59569,7 +59885,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH436" t="inlineStr"/>
+      <c r="CH436" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI436" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -59691,7 +60011,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH437" t="inlineStr"/>
+      <c r="CH437" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI437" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -59817,7 +60141,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH438" t="inlineStr"/>
+      <c r="CH438" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI438" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -59934,8 +60262,16 @@
       <c r="CD439" t="inlineStr"/>
       <c r="CE439" t="inlineStr"/>
       <c r="CF439" t="inlineStr"/>
-      <c r="CG439" t="inlineStr"/>
-      <c r="CH439" t="inlineStr"/>
+      <c r="CG439" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH439" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI439" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -60061,7 +60397,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH440" t="inlineStr"/>
+      <c r="CH440" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI440" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -60183,7 +60523,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH441" t="inlineStr"/>
+      <c r="CH441" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI441" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -60304,8 +60648,16 @@
       <c r="CD442" t="inlineStr"/>
       <c r="CE442" t="inlineStr"/>
       <c r="CF442" t="inlineStr"/>
-      <c r="CG442" t="inlineStr"/>
-      <c r="CH442" t="inlineStr"/>
+      <c r="CG442" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH442" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI442" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -60426,8 +60778,16 @@
       <c r="CD443" t="inlineStr"/>
       <c r="CE443" t="inlineStr"/>
       <c r="CF443" t="inlineStr"/>
-      <c r="CG443" t="inlineStr"/>
-      <c r="CH443" t="inlineStr"/>
+      <c r="CG443" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH443" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI443" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -60557,7 +60917,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH444" t="inlineStr"/>
+      <c r="CH444" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI444" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -60679,7 +61043,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH445" t="inlineStr"/>
+      <c r="CH445" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI445" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -60800,8 +61168,16 @@
       <c r="CD446" t="inlineStr"/>
       <c r="CE446" t="inlineStr"/>
       <c r="CF446" t="inlineStr"/>
-      <c r="CG446" t="inlineStr"/>
-      <c r="CH446" t="inlineStr"/>
+      <c r="CG446" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH446" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI446" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -60922,8 +61298,16 @@
       <c r="CD447" t="inlineStr"/>
       <c r="CE447" t="inlineStr"/>
       <c r="CF447" t="inlineStr"/>
-      <c r="CG447" t="inlineStr"/>
-      <c r="CH447" t="inlineStr"/>
+      <c r="CG447" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH447" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI447" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -61044,8 +61428,16 @@
       <c r="CD448" t="inlineStr"/>
       <c r="CE448" t="inlineStr"/>
       <c r="CF448" t="inlineStr"/>
-      <c r="CG448" t="inlineStr"/>
-      <c r="CH448" t="inlineStr"/>
+      <c r="CG448" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH448" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI448" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -61166,8 +61558,16 @@
       <c r="CD449" t="inlineStr"/>
       <c r="CE449" t="inlineStr"/>
       <c r="CF449" t="inlineStr"/>
-      <c r="CG449" t="inlineStr"/>
-      <c r="CH449" t="inlineStr"/>
+      <c r="CG449" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH449" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI449" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -61293,7 +61693,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH450" t="inlineStr"/>
+      <c r="CH450" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI450" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -61410,8 +61814,16 @@
       <c r="CD451" t="inlineStr"/>
       <c r="CE451" t="inlineStr"/>
       <c r="CF451" t="inlineStr"/>
-      <c r="CG451" t="inlineStr"/>
-      <c r="CH451" t="inlineStr"/>
+      <c r="CG451" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH451" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI451" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -61537,7 +61949,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH452" t="inlineStr"/>
+      <c r="CH452" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI452" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -61662,8 +62078,16 @@
       <c r="CD453" t="inlineStr"/>
       <c r="CE453" t="inlineStr"/>
       <c r="CF453" t="inlineStr"/>
-      <c r="CG453" t="inlineStr"/>
-      <c r="CH453" t="inlineStr"/>
+      <c r="CG453" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH453" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI453" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -61788,8 +62212,16 @@
       <c r="CD454" t="inlineStr"/>
       <c r="CE454" t="inlineStr"/>
       <c r="CF454" t="inlineStr"/>
-      <c r="CG454" t="inlineStr"/>
-      <c r="CH454" t="inlineStr"/>
+      <c r="CG454" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH454" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI454" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -61914,8 +62346,16 @@
       <c r="CD455" t="inlineStr"/>
       <c r="CE455" t="inlineStr"/>
       <c r="CF455" t="inlineStr"/>
-      <c r="CG455" t="inlineStr"/>
-      <c r="CH455" t="inlineStr"/>
+      <c r="CG455" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH455" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI455" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -62040,8 +62480,16 @@
       <c r="CD456" t="inlineStr"/>
       <c r="CE456" t="inlineStr"/>
       <c r="CF456" t="inlineStr"/>
-      <c r="CG456" t="inlineStr"/>
-      <c r="CH456" t="inlineStr"/>
+      <c r="CG456" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH456" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI456" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -62167,7 +62615,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH457" t="inlineStr"/>
+      <c r="CH457" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI457" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -62288,8 +62740,16 @@
       <c r="CD458" t="inlineStr"/>
       <c r="CE458" t="inlineStr"/>
       <c r="CF458" t="inlineStr"/>
-      <c r="CG458" t="inlineStr"/>
-      <c r="CH458" t="inlineStr"/>
+      <c r="CG458" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH458" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI458" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -62411,7 +62871,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH459" t="inlineStr"/>
+      <c r="CH459" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI459" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -62532,8 +62996,16 @@
       <c r="CD460" t="inlineStr"/>
       <c r="CE460" t="inlineStr"/>
       <c r="CF460" t="inlineStr"/>
-      <c r="CG460" t="inlineStr"/>
-      <c r="CH460" t="inlineStr"/>
+      <c r="CG460" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH460" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI460" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -62654,8 +63126,16 @@
       <c r="CD461" t="inlineStr"/>
       <c r="CE461" t="inlineStr"/>
       <c r="CF461" t="inlineStr"/>
-      <c r="CG461" t="inlineStr"/>
-      <c r="CH461" t="inlineStr"/>
+      <c r="CG461" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH461" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI461" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -62776,8 +63256,16 @@
       <c r="CD462" t="inlineStr"/>
       <c r="CE462" t="inlineStr"/>
       <c r="CF462" t="inlineStr"/>
-      <c r="CG462" t="inlineStr"/>
-      <c r="CH462" t="inlineStr"/>
+      <c r="CG462" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH462" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI462" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -62903,7 +63391,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH463" t="inlineStr"/>
+      <c r="CH463" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI463" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -63024,8 +63516,16 @@
       <c r="CD464" t="inlineStr"/>
       <c r="CE464" t="inlineStr"/>
       <c r="CF464" t="inlineStr"/>
-      <c r="CG464" t="inlineStr"/>
-      <c r="CH464" t="inlineStr"/>
+      <c r="CG464" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH464" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI464" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -63147,7 +63647,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH465" t="inlineStr"/>
+      <c r="CH465" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI465" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -63268,8 +63772,16 @@
       <c r="CD466" t="inlineStr"/>
       <c r="CE466" t="inlineStr"/>
       <c r="CF466" t="inlineStr"/>
-      <c r="CG466" t="inlineStr"/>
-      <c r="CH466" t="inlineStr"/>
+      <c r="CG466" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH466" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI466" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -63390,8 +63902,16 @@
       <c r="CD467" t="inlineStr"/>
       <c r="CE467" t="inlineStr"/>
       <c r="CF467" t="inlineStr"/>
-      <c r="CG467" t="inlineStr"/>
-      <c r="CH467" t="inlineStr"/>
+      <c r="CG467" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH467" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI467" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -63512,8 +64032,16 @@
       <c r="CD468" t="inlineStr"/>
       <c r="CE468" t="inlineStr"/>
       <c r="CF468" t="inlineStr"/>
-      <c r="CG468" t="inlineStr"/>
-      <c r="CH468" t="inlineStr"/>
+      <c r="CG468" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH468" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI468" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -63639,7 +64167,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH469" t="inlineStr"/>
+      <c r="CH469" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI469" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -63760,8 +64292,16 @@
       <c r="CD470" t="inlineStr"/>
       <c r="CE470" t="inlineStr"/>
       <c r="CF470" t="inlineStr"/>
-      <c r="CG470" t="inlineStr"/>
-      <c r="CH470" t="inlineStr"/>
+      <c r="CG470" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH470" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI470" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -63882,8 +64422,16 @@
       <c r="CD471" t="inlineStr"/>
       <c r="CE471" t="inlineStr"/>
       <c r="CF471" t="inlineStr"/>
-      <c r="CG471" t="inlineStr"/>
-      <c r="CH471" t="inlineStr"/>
+      <c r="CG471" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CH471" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI471" t="inlineStr">
         <is>
           <t>2022-04-16</t>
@@ -64009,7 +64557,11 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="CH472" t="inlineStr"/>
+      <c r="CH472" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="CI472" t="inlineStr">
         <is>
           <t>2022-04-16</t>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -3015,7 +3015,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>owl:deprecated</t>
+          <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ472"/>
+  <dimension ref="A1:CZ473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64585,6 +64585,124 @@
       <c r="CY472" t="inlineStr"/>
       <c r="CZ472" t="inlineStr"/>
     </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>cl:10457</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr"/>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="inlineStr"/>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr"/>
+      <c r="H473" t="inlineStr"/>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
+      <c r="M473" t="inlineStr"/>
+      <c r="N473" t="inlineStr"/>
+      <c r="O473" t="inlineStr"/>
+      <c r="P473" t="inlineStr"/>
+      <c r="Q473" t="inlineStr"/>
+      <c r="R473" t="inlineStr"/>
+      <c r="S473" t="inlineStr"/>
+      <c r="T473" t="inlineStr"/>
+      <c r="U473" t="inlineStr"/>
+      <c r="V473" t="inlineStr"/>
+      <c r="W473" t="inlineStr"/>
+      <c r="X473" t="inlineStr"/>
+      <c r="Y473" t="inlineStr"/>
+      <c r="Z473" t="inlineStr"/>
+      <c r="AA473" t="inlineStr"/>
+      <c r="AB473" t="inlineStr"/>
+      <c r="AC473" t="inlineStr"/>
+      <c r="AD473" t="inlineStr"/>
+      <c r="AE473" t="inlineStr"/>
+      <c r="AF473" t="inlineStr"/>
+      <c r="AG473" t="inlineStr"/>
+      <c r="AH473" t="inlineStr"/>
+      <c r="AI473" t="inlineStr"/>
+      <c r="AJ473" t="inlineStr"/>
+      <c r="AK473" t="inlineStr"/>
+      <c r="AL473" t="inlineStr"/>
+      <c r="AM473" t="inlineStr"/>
+      <c r="AN473" t="inlineStr"/>
+      <c r="AO473" t="inlineStr"/>
+      <c r="AP473" t="inlineStr"/>
+      <c r="AQ473" t="inlineStr"/>
+      <c r="AR473" t="inlineStr"/>
+      <c r="AS473" t="inlineStr"/>
+      <c r="AT473" t="inlineStr"/>
+      <c r="AU473" t="inlineStr"/>
+      <c r="AV473" t="inlineStr"/>
+      <c r="AW473" t="inlineStr"/>
+      <c r="AX473" t="inlineStr"/>
+      <c r="AY473" t="inlineStr"/>
+      <c r="AZ473" t="inlineStr"/>
+      <c r="BA473" t="inlineStr"/>
+      <c r="BB473" t="inlineStr"/>
+      <c r="BC473" t="inlineStr"/>
+      <c r="BD473" t="inlineStr"/>
+      <c r="BE473" t="inlineStr"/>
+      <c r="BF473" t="inlineStr"/>
+      <c r="BG473" t="inlineStr"/>
+      <c r="BH473" t="inlineStr"/>
+      <c r="BI473" t="inlineStr"/>
+      <c r="BJ473" t="inlineStr"/>
+      <c r="BK473" t="inlineStr"/>
+      <c r="BL473" t="inlineStr"/>
+      <c r="BM473" t="inlineStr"/>
+      <c r="BN473" t="inlineStr"/>
+      <c r="BO473" t="inlineStr"/>
+      <c r="BP473" t="inlineStr"/>
+      <c r="BQ473" t="inlineStr"/>
+      <c r="BR473" t="inlineStr"/>
+      <c r="BS473" t="inlineStr"/>
+      <c r="BT473" t="inlineStr"/>
+      <c r="BU473" t="inlineStr"/>
+      <c r="BV473" t="inlineStr"/>
+      <c r="BW473" t="inlineStr"/>
+      <c r="BX473" t="inlineStr"/>
+      <c r="BY473" t="inlineStr"/>
+      <c r="BZ473" t="inlineStr"/>
+      <c r="CA473" t="inlineStr"/>
+      <c r="CB473" t="inlineStr"/>
+      <c r="CC473" t="inlineStr"/>
+      <c r="CD473" t="inlineStr"/>
+      <c r="CE473" t="inlineStr"/>
+      <c r="CF473" t="inlineStr"/>
+      <c r="CG473" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="CH473" t="inlineStr"/>
+      <c r="CI473" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="CJ473" t="inlineStr"/>
+      <c r="CK473" t="inlineStr"/>
+      <c r="CL473" t="inlineStr"/>
+      <c r="CM473" t="inlineStr"/>
+      <c r="CN473" t="inlineStr"/>
+      <c r="CO473" t="inlineStr"/>
+      <c r="CP473" t="inlineStr"/>
+      <c r="CQ473" t="inlineStr"/>
+      <c r="CR473" t="inlineStr"/>
+      <c r="CS473" t="inlineStr"/>
+      <c r="CT473" t="inlineStr"/>
+      <c r="CU473" t="inlineStr"/>
+      <c r="CV473" t="inlineStr"/>
+      <c r="CW473" t="inlineStr"/>
+      <c r="CX473" t="inlineStr"/>
+      <c r="CY473" t="inlineStr"/>
+      <c r="CZ473" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -64591,7 +64591,11 @@
           <t>cl:10457</t>
         </is>
       </c>
-      <c r="B473" t="inlineStr"/>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>infrastructure</t>
+        </is>
+      </c>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ473"/>
+  <dimension ref="A1:CZ474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64707,6 +64707,128 @@
       <c r="CY473" t="inlineStr"/>
       <c r="CZ473" t="inlineStr"/>
     </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>cl:10458</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="inlineStr"/>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr"/>
+      <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
+      <c r="M474" t="inlineStr"/>
+      <c r="N474" t="inlineStr"/>
+      <c r="O474" t="inlineStr"/>
+      <c r="P474" t="inlineStr"/>
+      <c r="Q474" t="inlineStr"/>
+      <c r="R474" t="inlineStr"/>
+      <c r="S474" t="inlineStr"/>
+      <c r="T474" t="inlineStr"/>
+      <c r="U474" t="inlineStr"/>
+      <c r="V474" t="inlineStr"/>
+      <c r="W474" t="inlineStr"/>
+      <c r="X474" t="inlineStr"/>
+      <c r="Y474" t="inlineStr"/>
+      <c r="Z474" t="inlineStr"/>
+      <c r="AA474" t="inlineStr"/>
+      <c r="AB474" t="inlineStr"/>
+      <c r="AC474" t="inlineStr"/>
+      <c r="AD474" t="inlineStr"/>
+      <c r="AE474" t="inlineStr"/>
+      <c r="AF474" t="inlineStr"/>
+      <c r="AG474" t="inlineStr"/>
+      <c r="AH474" t="inlineStr"/>
+      <c r="AI474" t="inlineStr"/>
+      <c r="AJ474" t="inlineStr"/>
+      <c r="AK474" t="inlineStr"/>
+      <c r="AL474" t="inlineStr"/>
+      <c r="AM474" t="inlineStr"/>
+      <c r="AN474" t="inlineStr"/>
+      <c r="AO474" t="inlineStr"/>
+      <c r="AP474" t="inlineStr"/>
+      <c r="AQ474" t="inlineStr"/>
+      <c r="AR474" t="inlineStr"/>
+      <c r="AS474" t="inlineStr"/>
+      <c r="AT474" t="inlineStr"/>
+      <c r="AU474" t="inlineStr"/>
+      <c r="AV474" t="inlineStr"/>
+      <c r="AW474" t="inlineStr"/>
+      <c r="AX474" t="inlineStr"/>
+      <c r="AY474" t="inlineStr"/>
+      <c r="AZ474" t="inlineStr"/>
+      <c r="BA474" t="inlineStr"/>
+      <c r="BB474" t="inlineStr"/>
+      <c r="BC474" t="inlineStr"/>
+      <c r="BD474" t="inlineStr"/>
+      <c r="BE474" t="inlineStr"/>
+      <c r="BF474" t="inlineStr"/>
+      <c r="BG474" t="inlineStr"/>
+      <c r="BH474" t="inlineStr"/>
+      <c r="BI474" t="inlineStr"/>
+      <c r="BJ474" t="inlineStr"/>
+      <c r="BK474" t="inlineStr"/>
+      <c r="BL474" t="inlineStr"/>
+      <c r="BM474" t="inlineStr"/>
+      <c r="BN474" t="inlineStr"/>
+      <c r="BO474" t="inlineStr"/>
+      <c r="BP474" t="inlineStr"/>
+      <c r="BQ474" t="inlineStr"/>
+      <c r="BR474" t="inlineStr"/>
+      <c r="BS474" t="inlineStr"/>
+      <c r="BT474" t="inlineStr"/>
+      <c r="BU474" t="inlineStr"/>
+      <c r="BV474" t="inlineStr"/>
+      <c r="BW474" t="inlineStr"/>
+      <c r="BX474" t="inlineStr"/>
+      <c r="BY474" t="inlineStr"/>
+      <c r="BZ474" t="inlineStr"/>
+      <c r="CA474" t="inlineStr"/>
+      <c r="CB474" t="inlineStr"/>
+      <c r="CC474" t="inlineStr"/>
+      <c r="CD474" t="inlineStr"/>
+      <c r="CE474" t="inlineStr"/>
+      <c r="CF474" t="inlineStr"/>
+      <c r="CG474" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="CH474" t="inlineStr"/>
+      <c r="CI474" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="CJ474" t="inlineStr"/>
+      <c r="CK474" t="inlineStr"/>
+      <c r="CL474" t="inlineStr"/>
+      <c r="CM474" t="inlineStr"/>
+      <c r="CN474" t="inlineStr"/>
+      <c r="CO474" t="inlineStr"/>
+      <c r="CP474" t="inlineStr"/>
+      <c r="CQ474" t="inlineStr"/>
+      <c r="CR474" t="inlineStr"/>
+      <c r="CS474" t="inlineStr"/>
+      <c r="CT474" t="inlineStr"/>
+      <c r="CU474" t="inlineStr"/>
+      <c r="CV474" t="inlineStr"/>
+      <c r="CW474" t="inlineStr"/>
+      <c r="CX474" t="inlineStr"/>
+      <c r="CY474" t="inlineStr"/>
+      <c r="CZ474" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -17645,7 +17645,7 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -17682,7 +17682,7 @@
       <c r="AL208" t="inlineStr"/>
       <c r="AM208" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AN208" t="inlineStr"/>
@@ -17713,7 +17713,7 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -17777,7 +17777,7 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -17841,7 +17841,7 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
@@ -17905,7 +17905,7 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
@@ -17969,7 +17969,7 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
@@ -18033,7 +18033,7 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
@@ -18161,7 +18161,7 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
@@ -18225,7 +18225,7 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
@@ -18289,7 +18289,7 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
@@ -18353,7 +18353,7 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
@@ -18417,7 +18417,7 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
@@ -18481,7 +18481,7 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
@@ -18545,7 +18545,7 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
@@ -18609,7 +18609,7 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
@@ -18673,7 +18673,7 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
@@ -18737,7 +18737,7 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
@@ -18801,7 +18801,7 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
@@ -18836,7 +18836,11 @@
       <c r="AJ226" t="inlineStr"/>
       <c r="AK226" t="inlineStr"/>
       <c r="AL226" t="inlineStr"/>
-      <c r="AM226" t="inlineStr"/>
+      <c r="AM226" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
       <c r="AN226" t="inlineStr"/>
       <c r="AO226" t="inlineStr"/>
       <c r="AP226" t="inlineStr"/>
@@ -18865,7 +18869,7 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G227" t="inlineStr"/>
@@ -18900,7 +18904,11 @@
       <c r="AJ227" t="inlineStr"/>
       <c r="AK227" t="inlineStr"/>
       <c r="AL227" t="inlineStr"/>
-      <c r="AM227" t="inlineStr"/>
+      <c r="AM227" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
       <c r="AN227" t="inlineStr"/>
       <c r="AO227" t="inlineStr"/>
       <c r="AP227" t="inlineStr"/>
@@ -18929,7 +18937,7 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
@@ -18964,7 +18972,11 @@
       <c r="AJ228" t="inlineStr"/>
       <c r="AK228" t="inlineStr"/>
       <c r="AL228" t="inlineStr"/>
-      <c r="AM228" t="inlineStr"/>
+      <c r="AM228" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
       <c r="AN228" t="inlineStr"/>
       <c r="AO228" t="inlineStr"/>
       <c r="AP228" t="inlineStr"/>
@@ -18993,7 +19005,7 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
@@ -19057,7 +19069,7 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
@@ -19121,7 +19133,7 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
@@ -19185,7 +19197,7 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
@@ -19249,7 +19261,7 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
@@ -19313,7 +19325,7 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
@@ -19377,7 +19389,7 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
@@ -19441,7 +19453,7 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
@@ -19505,7 +19517,7 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
@@ -19569,7 +19581,7 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G238" t="inlineStr"/>
@@ -19633,7 +19645,7 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G239" t="inlineStr"/>
@@ -19697,7 +19709,7 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G240" t="inlineStr"/>
@@ -19761,7 +19773,7 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G241" t="inlineStr"/>
@@ -19825,7 +19837,7 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
@@ -19889,7 +19901,7 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
@@ -19953,7 +19965,7 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G244" t="inlineStr"/>
@@ -20017,7 +20029,7 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G245" t="inlineStr"/>
@@ -20081,7 +20093,7 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
         <is>
-          <t>cl:10187</t>
+          <t>cl:10187,et:20935</t>
         </is>
       </c>
       <c r="G246" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -49839,11 +49839,7 @@
       <c r="C585" t="inlineStr"/>
       <c r="D585" t="inlineStr"/>
       <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr">
-        <is>
-          <t>cl:10673</t>
-        </is>
-      </c>
+      <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr"/>
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB601"/>
+  <dimension ref="A1:BB602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47913,7 +47913,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>marine habitats</t>
+          <t>Marine habitats</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
@@ -47966,7 +47966,7 @@
       <c r="AL561" t="inlineStr"/>
       <c r="AM561" t="inlineStr">
         <is>
-          <t>2023-03-18</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="AN561" t="inlineStr"/>
@@ -47993,7 +47993,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>coastal and halophytic habitats</t>
+          <t>Coastal habitats</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       <c r="AL562" t="inlineStr"/>
       <c r="AM562" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="AN562" t="inlineStr"/>
@@ -48073,7 +48073,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>freshwater aquatic habitats</t>
+          <t>Inland surface waters</t>
         </is>
       </c>
       <c r="C563" t="inlineStr"/>
@@ -48126,7 +48126,7 @@
       <c r="AL563" t="inlineStr"/>
       <c r="AM563" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="AN563" t="inlineStr"/>
@@ -48153,7 +48153,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>wetland habitats</t>
+          <t>Mires, bogs and fens</t>
         </is>
       </c>
       <c r="C564" t="inlineStr"/>
@@ -48206,7 +48206,7 @@
       <c r="AL564" t="inlineStr"/>
       <c r="AM564" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="AN564" t="inlineStr"/>
@@ -48233,7 +48233,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>grassland habitats</t>
+          <t>Grasslands and lands dominated by forbs, mosses or lichens</t>
         </is>
       </c>
       <c r="C565" t="inlineStr"/>
@@ -48286,7 +48286,7 @@
       <c r="AL565" t="inlineStr"/>
       <c r="AM565" t="inlineStr">
         <is>
-          <t>2023-03-18</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="AN565" t="inlineStr"/>
@@ -48313,7 +48313,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>heathland and scrub habitats</t>
+          <t>Heathlands, scrub and tundra</t>
         </is>
       </c>
       <c r="C566" t="inlineStr"/>
@@ -48366,7 +48366,7 @@
       <c r="AL566" t="inlineStr"/>
       <c r="AM566" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="AN566" t="inlineStr"/>
@@ -48393,7 +48393,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>woodland and forest habitats and other wooded lands</t>
+          <t>Woodland, forest and other wooded land</t>
         </is>
       </c>
       <c r="C567" t="inlineStr"/>
@@ -48446,7 +48446,7 @@
       <c r="AL567" t="inlineStr"/>
       <c r="AM567" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="AN567" t="inlineStr"/>
@@ -48473,7 +48473,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>inland sparsely vegetated or unvegetated habitats</t>
+          <t>Inland unvegetated or sparsely vegetated habitats</t>
         </is>
       </c>
       <c r="C568" t="inlineStr"/>
@@ -48526,7 +48526,7 @@
       <c r="AL568" t="inlineStr"/>
       <c r="AM568" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="AN568" t="inlineStr"/>
@@ -48553,7 +48553,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>regularly or recently cultivated habitats and gardens</t>
+          <t>Regularly or recently cultivated agricultural, horticultural and domestic habitats</t>
         </is>
       </c>
       <c r="C569" t="inlineStr"/>
@@ -48606,7 +48606,7 @@
       <c r="AL569" t="inlineStr"/>
       <c r="AM569" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="AN569" t="inlineStr"/>
@@ -48633,7 +48633,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>constructed industrial and other artificial habitats</t>
+          <t>Constructed, industrial and other artificial habitats</t>
         </is>
       </c>
       <c r="C570" t="inlineStr"/>
@@ -48686,7 +48686,7 @@
       <c r="AL570" t="inlineStr"/>
       <c r="AM570" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="AN570" t="inlineStr"/>
@@ -51265,6 +51265,82 @@
       <c r="BA601" t="inlineStr"/>
       <c r="BB601" t="inlineStr"/>
     </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>cl:10691</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Habitats complexes</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="inlineStr"/>
+      <c r="E602" t="inlineStr"/>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>cl:10597</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr"/>
+      <c r="H602" t="inlineStr"/>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="inlineStr"/>
+      <c r="M602" t="inlineStr"/>
+      <c r="N602" t="inlineStr"/>
+      <c r="O602" t="inlineStr"/>
+      <c r="P602" t="inlineStr"/>
+      <c r="Q602" t="inlineStr"/>
+      <c r="R602" t="inlineStr"/>
+      <c r="S602" t="inlineStr"/>
+      <c r="T602" t="inlineStr"/>
+      <c r="U602" t="inlineStr"/>
+      <c r="V602" t="inlineStr"/>
+      <c r="W602" t="inlineStr"/>
+      <c r="X602" t="inlineStr"/>
+      <c r="Y602" t="inlineStr"/>
+      <c r="Z602" t="inlineStr"/>
+      <c r="AA602" t="inlineStr"/>
+      <c r="AB602" t="inlineStr"/>
+      <c r="AC602" t="inlineStr"/>
+      <c r="AD602" t="inlineStr"/>
+      <c r="AE602" t="inlineStr"/>
+      <c r="AF602" t="inlineStr"/>
+      <c r="AG602" t="inlineStr"/>
+      <c r="AH602" t="inlineStr"/>
+      <c r="AI602" t="inlineStr"/>
+      <c r="AJ602" t="inlineStr"/>
+      <c r="AK602" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="AL602" t="inlineStr"/>
+      <c r="AM602" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="AN602" t="inlineStr"/>
+      <c r="AO602" t="inlineStr"/>
+      <c r="AP602" t="inlineStr"/>
+      <c r="AQ602" t="inlineStr"/>
+      <c r="AR602" t="inlineStr"/>
+      <c r="AS602" t="inlineStr"/>
+      <c r="AT602" t="inlineStr"/>
+      <c r="AU602" t="inlineStr"/>
+      <c r="AV602" t="inlineStr"/>
+      <c r="AW602" t="inlineStr"/>
+      <c r="AX602" t="inlineStr"/>
+      <c r="AY602" t="inlineStr"/>
+      <c r="AZ602" t="inlineStr"/>
+      <c r="BA602" t="inlineStr"/>
+      <c r="BB602" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB602"/>
+  <dimension ref="A1:BB603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48046,7 +48046,7 @@
       <c r="AL562" t="inlineStr"/>
       <c r="AM562" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="AN562" t="inlineStr"/>
@@ -51341,6 +51341,82 @@
       <c r="BA602" t="inlineStr"/>
       <c r="BB602" t="inlineStr"/>
     </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>cl:10692</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>coastal and halophytic habitats</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr"/>
+      <c r="E603" t="inlineStr"/>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>cl:10599</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr"/>
+      <c r="H603" t="inlineStr"/>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="inlineStr"/>
+      <c r="M603" t="inlineStr"/>
+      <c r="N603" t="inlineStr"/>
+      <c r="O603" t="inlineStr"/>
+      <c r="P603" t="inlineStr"/>
+      <c r="Q603" t="inlineStr"/>
+      <c r="R603" t="inlineStr"/>
+      <c r="S603" t="inlineStr"/>
+      <c r="T603" t="inlineStr"/>
+      <c r="U603" t="inlineStr"/>
+      <c r="V603" t="inlineStr"/>
+      <c r="W603" t="inlineStr"/>
+      <c r="X603" t="inlineStr"/>
+      <c r="Y603" t="inlineStr"/>
+      <c r="Z603" t="inlineStr"/>
+      <c r="AA603" t="inlineStr"/>
+      <c r="AB603" t="inlineStr"/>
+      <c r="AC603" t="inlineStr"/>
+      <c r="AD603" t="inlineStr"/>
+      <c r="AE603" t="inlineStr"/>
+      <c r="AF603" t="inlineStr"/>
+      <c r="AG603" t="inlineStr"/>
+      <c r="AH603" t="inlineStr"/>
+      <c r="AI603" t="inlineStr"/>
+      <c r="AJ603" t="inlineStr"/>
+      <c r="AK603" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="AL603" t="inlineStr"/>
+      <c r="AM603" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="AN603" t="inlineStr"/>
+      <c r="AO603" t="inlineStr"/>
+      <c r="AP603" t="inlineStr"/>
+      <c r="AQ603" t="inlineStr"/>
+      <c r="AR603" t="inlineStr"/>
+      <c r="AS603" t="inlineStr"/>
+      <c r="AT603" t="inlineStr"/>
+      <c r="AU603" t="inlineStr"/>
+      <c r="AV603" t="inlineStr"/>
+      <c r="AW603" t="inlineStr"/>
+      <c r="AX603" t="inlineStr"/>
+      <c r="AY603" t="inlineStr"/>
+      <c r="AZ603" t="inlineStr"/>
+      <c r="BA603" t="inlineStr"/>
+      <c r="BB603" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -48001,7 +48001,7 @@
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr">
         <is>
-          <t>cl:10597,cl:10599</t>
+          <t>cl:10599</t>
         </is>
       </c>
       <c r="G562" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       <c r="AL562" t="inlineStr"/>
       <c r="AM562" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="AN562" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB603"/>
+  <dimension ref="A1:BB602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47988,12 +47988,12 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>cl:10650</t>
+          <t>cl:10651</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Coastal habitats</t>
+          <t>Inland surface waters</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
@@ -48001,7 +48001,7 @@
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr">
         <is>
-          <t>cl:10599</t>
+          <t>cl:10597</t>
         </is>
       </c>
       <c r="G562" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       <c r="AL562" t="inlineStr"/>
       <c r="AM562" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="AN562" t="inlineStr"/>
@@ -48068,12 +48068,12 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>cl:10651</t>
+          <t>cl:10652</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Inland surface waters</t>
+          <t>Mires, bogs and fens</t>
         </is>
       </c>
       <c r="C563" t="inlineStr"/>
@@ -48148,12 +48148,12 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>cl:10652</t>
+          <t>cl:10653</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Mires, bogs and fens</t>
+          <t>Grasslands and lands dominated by forbs, mosses or lichens</t>
         </is>
       </c>
       <c r="C564" t="inlineStr"/>
@@ -48228,12 +48228,12 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>cl:10653</t>
+          <t>cl:10654</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Grasslands and lands dominated by forbs, mosses or lichens</t>
+          <t>Heathlands, scrub and tundra</t>
         </is>
       </c>
       <c r="C565" t="inlineStr"/>
@@ -48308,12 +48308,12 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>cl:10654</t>
+          <t>cl:10655</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Heathlands, scrub and tundra</t>
+          <t>Woodland, forest and other wooded land</t>
         </is>
       </c>
       <c r="C566" t="inlineStr"/>
@@ -48388,12 +48388,12 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>cl:10655</t>
+          <t>cl:10656</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Woodland, forest and other wooded land</t>
+          <t>Inland unvegetated or sparsely vegetated habitats</t>
         </is>
       </c>
       <c r="C567" t="inlineStr"/>
@@ -48468,12 +48468,12 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>cl:10656</t>
+          <t>cl:10657</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Inland unvegetated or sparsely vegetated habitats</t>
+          <t>Regularly or recently cultivated agricultural, horticultural and domestic habitats</t>
         </is>
       </c>
       <c r="C568" t="inlineStr"/>
@@ -48548,12 +48548,12 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>cl:10657</t>
+          <t>cl:10658</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Regularly or recently cultivated agricultural, horticultural and domestic habitats</t>
+          <t>Constructed, industrial and other artificial habitats</t>
         </is>
       </c>
       <c r="C569" t="inlineStr"/>
@@ -48628,12 +48628,12 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>cl:10658</t>
+          <t>cl:10659</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Constructed, industrial and other artificial habitats</t>
+          <t>coastal and halophytic communities</t>
         </is>
       </c>
       <c r="C570" t="inlineStr"/>
@@ -48641,7 +48641,7 @@
       <c r="E570" t="inlineStr"/>
       <c r="F570" t="inlineStr">
         <is>
-          <t>cl:10597</t>
+          <t>cl:10598</t>
         </is>
       </c>
       <c r="G570" t="inlineStr"/>
@@ -48686,7 +48686,7 @@
       <c r="AL570" t="inlineStr"/>
       <c r="AM570" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2022-10-09</t>
         </is>
       </c>
       <c r="AN570" t="inlineStr"/>
@@ -48708,12 +48708,12 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>cl:10659</t>
+          <t>cl:10660</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>coastal and halophytic communities</t>
+          <t>non-marine waters</t>
         </is>
       </c>
       <c r="C571" t="inlineStr"/>
@@ -48788,12 +48788,12 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>cl:10660</t>
+          <t>cl:10661</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>non-marine waters</t>
+          <t>scrub and grassland</t>
         </is>
       </c>
       <c r="C572" t="inlineStr"/>
@@ -48868,12 +48868,12 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>cl:10661</t>
+          <t>cl:10662</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>scrub and grassland</t>
+          <t>forests</t>
         </is>
       </c>
       <c r="C573" t="inlineStr"/>
@@ -48881,7 +48881,7 @@
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr">
         <is>
-          <t>cl:10598</t>
+          <t>cl:10598,cl:10599</t>
         </is>
       </c>
       <c r="G573" t="inlineStr"/>
@@ -48948,12 +48948,12 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>cl:10662</t>
+          <t>cl:10663</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>forests</t>
+          <t>bogs and marshes</t>
         </is>
       </c>
       <c r="C574" t="inlineStr"/>
@@ -48961,7 +48961,7 @@
       <c r="E574" t="inlineStr"/>
       <c r="F574" t="inlineStr">
         <is>
-          <t>cl:10598,cl:10599</t>
+          <t>cl:10598</t>
         </is>
       </c>
       <c r="G574" t="inlineStr"/>
@@ -49028,12 +49028,12 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>cl:10663</t>
+          <t>cl:10664</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>bogs and marshes</t>
+          <t>inland rocks, screes and sands</t>
         </is>
       </c>
       <c r="C575" t="inlineStr"/>
@@ -49108,12 +49108,12 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>cl:10664</t>
+          <t>cl:10665</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>inland rocks, screes and sands</t>
+          <t>agricultural land and artificial landscapes</t>
         </is>
       </c>
       <c r="C576" t="inlineStr"/>
@@ -49188,12 +49188,12 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>cl:10665</t>
+          <t>cl:10666</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>agricultural land and artificial landscapes</t>
+          <t>coastal sand dunes and inland dunes</t>
         </is>
       </c>
       <c r="C577" t="inlineStr"/>
@@ -49201,7 +49201,7 @@
       <c r="E577" t="inlineStr"/>
       <c r="F577" t="inlineStr">
         <is>
-          <t>cl:10598</t>
+          <t>cl:10599</t>
         </is>
       </c>
       <c r="G577" t="inlineStr"/>
@@ -49268,12 +49268,12 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>cl:10666</t>
+          <t>cl:10667</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>coastal sand dunes and inland dunes</t>
+          <t>freshwater habitats</t>
         </is>
       </c>
       <c r="C578" t="inlineStr"/>
@@ -49348,12 +49348,12 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>cl:10667</t>
+          <t>cl:10668</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>freshwater habitats</t>
+          <t>temperate heath and scrub</t>
         </is>
       </c>
       <c r="C579" t="inlineStr"/>
@@ -49428,12 +49428,12 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>cl:10668</t>
+          <t>cl:10669</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>temperate heath and scrub</t>
+          <t>sclerophyllous scrub (matorral)</t>
         </is>
       </c>
       <c r="C580" t="inlineStr"/>
@@ -49508,12 +49508,12 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>cl:10669</t>
+          <t>cl:10670</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>sclerophyllous scrub (matorral)</t>
+          <t>natural and semi-natural grassland formations</t>
         </is>
       </c>
       <c r="C581" t="inlineStr"/>
@@ -49588,12 +49588,12 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>cl:10670</t>
+          <t>cl:10671</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>natural and semi-natural grassland formations</t>
+          <t>raised bogs and mires and fens</t>
         </is>
       </c>
       <c r="C582" t="inlineStr"/>
@@ -49668,12 +49668,12 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>cl:10671</t>
+          <t>cl:10672</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>raised bogs and mires and fens</t>
+          <t>rocky habitats and caves</t>
         </is>
       </c>
       <c r="C583" t="inlineStr"/>
@@ -49720,13 +49720,13 @@
       </c>
       <c r="AK583" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2023-03-18</t>
         </is>
       </c>
       <c r="AL583" t="inlineStr"/>
       <c r="AM583" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2023-03-18</t>
         </is>
       </c>
       <c r="AN583" t="inlineStr"/>
@@ -49748,22 +49748,18 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>cl:10672</t>
+          <t>cl:10673</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>rocky habitats and caves</t>
+          <t>organism group</t>
         </is>
       </c>
       <c r="C584" t="inlineStr"/>
       <c r="D584" t="inlineStr"/>
       <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr">
-        <is>
-          <t>cl:10599</t>
-        </is>
-      </c>
+      <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
       <c r="H584" t="inlineStr"/>
       <c r="I584" t="inlineStr"/>
@@ -49800,13 +49796,17 @@
       </c>
       <c r="AK584" t="inlineStr">
         <is>
-          <t>2023-03-18</t>
-        </is>
-      </c>
-      <c r="AL584" t="inlineStr"/>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="AL584" t="inlineStr">
+        <is>
+          <t>0000-0002-6968-8275</t>
+        </is>
+      </c>
       <c r="AM584" t="inlineStr">
         <is>
-          <t>2023-03-18</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AN584" t="inlineStr"/>
@@ -49828,18 +49828,22 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>cl:10673</t>
+          <t>cl:10679</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>organism group</t>
+          <t>other birds</t>
         </is>
       </c>
       <c r="C585" t="inlineStr"/>
       <c r="D585" t="inlineStr"/>
       <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr"/>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>cl:10626</t>
+        </is>
+      </c>
       <c r="G585" t="inlineStr"/>
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr"/>
@@ -49908,12 +49912,12 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>cl:10679</t>
+          <t>cl:10674</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>other birds</t>
+          <t>other vertebrates</t>
         </is>
       </c>
       <c r="C586" t="inlineStr"/>
@@ -49921,7 +49925,7 @@
       <c r="E586" t="inlineStr"/>
       <c r="F586" t="inlineStr">
         <is>
-          <t>cl:10626</t>
+          <t>cl:10673</t>
         </is>
       </c>
       <c r="G586" t="inlineStr"/>
@@ -49970,7 +49974,7 @@
       </c>
       <c r="AM586" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AN586" t="inlineStr"/>
@@ -49992,12 +49996,12 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>cl:10674</t>
+          <t>cl:10675</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>other vertebrates</t>
+          <t>other insects</t>
         </is>
       </c>
       <c r="C587" t="inlineStr"/>
@@ -50054,7 +50058,7 @@
       </c>
       <c r="AM587" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AN587" t="inlineStr"/>
@@ -50076,12 +50080,12 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>cl:10675</t>
+          <t>cl:10677</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>other insects</t>
+          <t>other plants</t>
         </is>
       </c>
       <c r="C588" t="inlineStr"/>
@@ -50160,12 +50164,12 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>cl:10677</t>
+          <t>cl:10678</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>other plants</t>
+          <t>other organisms</t>
         </is>
       </c>
       <c r="C589" t="inlineStr"/>
@@ -50222,7 +50226,7 @@
       </c>
       <c r="AM589" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AN589" t="inlineStr"/>
@@ -50244,22 +50248,18 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>cl:10678</t>
+          <t>cl:10680</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>other organisms</t>
+          <t>access scheme</t>
         </is>
       </c>
       <c r="C590" t="inlineStr"/>
       <c r="D590" t="inlineStr"/>
       <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr">
-        <is>
-          <t>cl:10673</t>
-        </is>
-      </c>
+      <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr"/>
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr"/>
@@ -50296,12 +50296,12 @@
       </c>
       <c r="AK590" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AL590" t="inlineStr">
         <is>
-          <t>0000-0002-6968-8275</t>
+          <t>0000-0003-0631-8231</t>
         </is>
       </c>
       <c r="AM590" t="inlineStr">
@@ -50328,18 +50328,26 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>cl:10680</t>
+          <t>cl:10681</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>access scheme</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr"/>
+          <t>Remote Access</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
       <c r="D591" t="inlineStr"/>
       <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr"/>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>cl:10680</t>
+        </is>
+      </c>
       <c r="G591" t="inlineStr"/>
       <c r="H591" t="inlineStr"/>
       <c r="I591" t="inlineStr"/>
@@ -50408,17 +50416,17 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>cl:10681</t>
+          <t>cl:10682</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Remote Access</t>
+          <t>Transnational Access</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>RA</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
@@ -50496,20 +50504,24 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>cl:10682</t>
+          <t>cl:10683</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Transnational Access</t>
+          <t>Transnational Access and Remote Access</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>TA</t>
-        </is>
-      </c>
-      <c r="D593" t="inlineStr"/>
+          <t>TA-RA</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Through its dedicated access scheme, the eLTER PLUS project opens up the eLTER Research Infrastructure (eLTER RI) and aims to attract a wide range of users from various disciplines. The scheme addresses both physical access to long-term research sites (Transnational Access-TA) and an access mode in which local site staff perform measurements/sampling according to user defined protocols (Remote Access-RA), or a combination of both. Additionally the Virtual Access scheme provides access to the data from selected research sites. All access within the scheme is free of charge for users. TA and RA typically aid small to medium scale ecological and socio-ecological projects.</t>
+        </is>
+      </c>
       <c r="E593" t="inlineStr"/>
       <c r="F593" t="inlineStr">
         <is>
@@ -50584,28 +50596,24 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
+          <t>cl:10684</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>TA-RA project</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr"/>
+      <c r="D594" t="inlineStr"/>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>https://elter-ri.eu/transnational-remote-access-ta-ra</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
           <t>cl:10683</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>Transnational Access and Remote Access</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr">
-        <is>
-          <t>TA-RA</t>
-        </is>
-      </c>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>Through its dedicated access scheme, the eLTER PLUS project opens up the eLTER Research Infrastructure (eLTER RI) and aims to attract a wide range of users from various disciplines. The scheme addresses both physical access to long-term research sites (Transnational Access-TA) and an access mode in which local site staff perform measurements/sampling according to user defined protocols (Remote Access-RA), or a combination of both. Additionally the Virtual Access scheme provides access to the data from selected research sites. All access within the scheme is free of charge for users. TA and RA typically aid small to medium scale ecological and socio-ecological projects.</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr">
-        <is>
-          <t>cl:10680</t>
         </is>
       </c>
       <c r="G594" t="inlineStr"/>
@@ -50676,24 +50684,20 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>cl:10684</t>
+          <t>cl:10685</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>TA-RA project</t>
+          <t>under certain conditions</t>
         </is>
       </c>
       <c r="C595" t="inlineStr"/>
       <c r="D595" t="inlineStr"/>
-      <c r="E595" t="inlineStr">
-        <is>
-          <t>https://elter-ri.eu/transnational-remote-access-ta-ra</t>
-        </is>
-      </c>
+      <c r="E595" t="inlineStr"/>
       <c r="F595" t="inlineStr">
         <is>
-          <t>cl:10683</t>
+          <t>cl:10466</t>
         </is>
       </c>
       <c r="G595" t="inlineStr"/>
@@ -50732,12 +50736,12 @@
       </c>
       <c r="AK595" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AL595" t="inlineStr">
         <is>
-          <t>0000-0003-0631-8231</t>
+          <t>0000-0002-6968-8275</t>
         </is>
       </c>
       <c r="AM595" t="inlineStr">
@@ -50764,12 +50768,12 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>cl:10685</t>
+          <t>cl:10686</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>under certain conditions</t>
+          <t xml:space="preserve">private company </t>
         </is>
       </c>
       <c r="C596" t="inlineStr"/>
@@ -50777,7 +50781,7 @@
       <c r="E596" t="inlineStr"/>
       <c r="F596" t="inlineStr">
         <is>
-          <t>cl:10466</t>
+          <t>cl:10461</t>
         </is>
       </c>
       <c r="G596" t="inlineStr"/>
@@ -50848,12 +50852,12 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>cl:10686</t>
+          <t>cl:10687</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t xml:space="preserve">private company </t>
+          <t>impact assessment</t>
         </is>
       </c>
       <c r="C597" t="inlineStr"/>
@@ -50861,7 +50865,7 @@
       <c r="E597" t="inlineStr"/>
       <c r="F597" t="inlineStr">
         <is>
-          <t>cl:10461</t>
+          <t>cl:10569</t>
         </is>
       </c>
       <c r="G597" t="inlineStr"/>
@@ -50910,7 +50914,7 @@
       </c>
       <c r="AM597" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AN597" t="inlineStr"/>
@@ -50932,12 +50936,12 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>cl:10687</t>
+          <t>cl:10688</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>impact assessment</t>
+          <t>gymnosperms</t>
         </is>
       </c>
       <c r="C598" t="inlineStr"/>
@@ -50945,7 +50949,7 @@
       <c r="E598" t="inlineStr"/>
       <c r="F598" t="inlineStr">
         <is>
-          <t>cl:10569</t>
+          <t>cl:10673</t>
         </is>
       </c>
       <c r="G598" t="inlineStr"/>
@@ -50994,7 +50998,7 @@
       </c>
       <c r="AM598" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AN598" t="inlineStr"/>
@@ -51016,12 +51020,12 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>cl:10688</t>
+          <t>cl:10689</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>gymnosperms</t>
+          <t>other angiosperms</t>
         </is>
       </c>
       <c r="C599" t="inlineStr"/>
@@ -51068,7 +51072,7 @@
       </c>
       <c r="AK599" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AL599" t="inlineStr">
@@ -51100,12 +51104,12 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>cl:10689</t>
+          <t>cl:10690</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>other angiosperms</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="C600" t="inlineStr"/>
@@ -51113,7 +51117,7 @@
       <c r="E600" t="inlineStr"/>
       <c r="F600" t="inlineStr">
         <is>
-          <t>cl:10673</t>
+          <t>cl:10461</t>
         </is>
       </c>
       <c r="G600" t="inlineStr"/>
@@ -51162,7 +51166,7 @@
       </c>
       <c r="AM600" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AN600" t="inlineStr"/>
@@ -51184,12 +51188,12 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>cl:10690</t>
+          <t>cl:10691</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Habitats complexes</t>
         </is>
       </c>
       <c r="C601" t="inlineStr"/>
@@ -51197,7 +51201,7 @@
       <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr">
         <is>
-          <t>cl:10461</t>
+          <t>cl:10597</t>
         </is>
       </c>
       <c r="G601" t="inlineStr"/>
@@ -51229,24 +51233,16 @@
       <c r="AG601" t="inlineStr"/>
       <c r="AH601" t="inlineStr"/>
       <c r="AI601" t="inlineStr"/>
-      <c r="AJ601" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
+      <c r="AJ601" t="inlineStr"/>
       <c r="AK601" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="AL601" t="inlineStr">
-        <is>
-          <t>0000-0002-6968-8275</t>
-        </is>
-      </c>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="AL601" t="inlineStr"/>
       <c r="AM601" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="AN601" t="inlineStr"/>
@@ -51268,12 +51264,12 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>cl:10691</t>
+          <t>cl:10692</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Habitats complexes</t>
+          <t>coastal and halophytic habitats</t>
         </is>
       </c>
       <c r="C602" t="inlineStr"/>
@@ -51281,7 +51277,7 @@
       <c r="E602" t="inlineStr"/>
       <c r="F602" t="inlineStr">
         <is>
-          <t>cl:10597</t>
+          <t>cl:10599</t>
         </is>
       </c>
       <c r="G602" t="inlineStr"/>
@@ -51316,13 +51312,13 @@
       <c r="AJ602" t="inlineStr"/>
       <c r="AK602" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="AL602" t="inlineStr"/>
       <c r="AM602" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="AN602" t="inlineStr"/>
@@ -51341,82 +51337,6 @@
       <c r="BA602" t="inlineStr"/>
       <c r="BB602" t="inlineStr"/>
     </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>cl:10692</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>coastal and halophytic habitats</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr">
-        <is>
-          <t>cl:10599</t>
-        </is>
-      </c>
-      <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr"/>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
-      <c r="M603" t="inlineStr"/>
-      <c r="N603" t="inlineStr"/>
-      <c r="O603" t="inlineStr"/>
-      <c r="P603" t="inlineStr"/>
-      <c r="Q603" t="inlineStr"/>
-      <c r="R603" t="inlineStr"/>
-      <c r="S603" t="inlineStr"/>
-      <c r="T603" t="inlineStr"/>
-      <c r="U603" t="inlineStr"/>
-      <c r="V603" t="inlineStr"/>
-      <c r="W603" t="inlineStr"/>
-      <c r="X603" t="inlineStr"/>
-      <c r="Y603" t="inlineStr"/>
-      <c r="Z603" t="inlineStr"/>
-      <c r="AA603" t="inlineStr"/>
-      <c r="AB603" t="inlineStr"/>
-      <c r="AC603" t="inlineStr"/>
-      <c r="AD603" t="inlineStr"/>
-      <c r="AE603" t="inlineStr"/>
-      <c r="AF603" t="inlineStr"/>
-      <c r="AG603" t="inlineStr"/>
-      <c r="AH603" t="inlineStr"/>
-      <c r="AI603" t="inlineStr"/>
-      <c r="AJ603" t="inlineStr"/>
-      <c r="AK603" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
-      </c>
-      <c r="AL603" t="inlineStr"/>
-      <c r="AM603" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
-      </c>
-      <c r="AN603" t="inlineStr"/>
-      <c r="AO603" t="inlineStr"/>
-      <c r="AP603" t="inlineStr"/>
-      <c r="AQ603" t="inlineStr"/>
-      <c r="AR603" t="inlineStr"/>
-      <c r="AS603" t="inlineStr"/>
-      <c r="AT603" t="inlineStr"/>
-      <c r="AU603" t="inlineStr"/>
-      <c r="AV603" t="inlineStr"/>
-      <c r="AW603" t="inlineStr"/>
-      <c r="AX603" t="inlineStr"/>
-      <c r="AY603" t="inlineStr"/>
-      <c r="AZ603" t="inlineStr"/>
-      <c r="BA603" t="inlineStr"/>
-      <c r="BB603" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB602"/>
+  <dimension ref="A1:BB603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51337,6 +51337,82 @@
       <c r="BA602" t="inlineStr"/>
       <c r="BB602" t="inlineStr"/>
     </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>cl:10693</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr"/>
+      <c r="E603" t="inlineStr"/>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>cl:10599</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr"/>
+      <c r="H603" t="inlineStr"/>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="inlineStr"/>
+      <c r="M603" t="inlineStr"/>
+      <c r="N603" t="inlineStr"/>
+      <c r="O603" t="inlineStr"/>
+      <c r="P603" t="inlineStr"/>
+      <c r="Q603" t="inlineStr"/>
+      <c r="R603" t="inlineStr"/>
+      <c r="S603" t="inlineStr"/>
+      <c r="T603" t="inlineStr"/>
+      <c r="U603" t="inlineStr"/>
+      <c r="V603" t="inlineStr"/>
+      <c r="W603" t="inlineStr"/>
+      <c r="X603" t="inlineStr"/>
+      <c r="Y603" t="inlineStr"/>
+      <c r="Z603" t="inlineStr"/>
+      <c r="AA603" t="inlineStr"/>
+      <c r="AB603" t="inlineStr"/>
+      <c r="AC603" t="inlineStr"/>
+      <c r="AD603" t="inlineStr"/>
+      <c r="AE603" t="inlineStr"/>
+      <c r="AF603" t="inlineStr"/>
+      <c r="AG603" t="inlineStr"/>
+      <c r="AH603" t="inlineStr"/>
+      <c r="AI603" t="inlineStr"/>
+      <c r="AJ603" t="inlineStr"/>
+      <c r="AK603" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="AL603" t="inlineStr"/>
+      <c r="AM603" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="AN603" t="inlineStr"/>
+      <c r="AO603" t="inlineStr"/>
+      <c r="AP603" t="inlineStr"/>
+      <c r="AQ603" t="inlineStr"/>
+      <c r="AR603" t="inlineStr"/>
+      <c r="AS603" t="inlineStr"/>
+      <c r="AT603" t="inlineStr"/>
+      <c r="AU603" t="inlineStr"/>
+      <c r="AV603" t="inlineStr"/>
+      <c r="AW603" t="inlineStr"/>
+      <c r="AX603" t="inlineStr"/>
+      <c r="AY603" t="inlineStr"/>
+      <c r="AZ603" t="inlineStr"/>
+      <c r="BA603" t="inlineStr"/>
+      <c r="BB603" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB603"/>
+  <dimension ref="A1:BB602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51337,82 +51337,6 @@
       <c r="BA602" t="inlineStr"/>
       <c r="BB602" t="inlineStr"/>
     </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>cl:10693</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr">
-        <is>
-          <t>cl:10599</t>
-        </is>
-      </c>
-      <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr"/>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
-      <c r="M603" t="inlineStr"/>
-      <c r="N603" t="inlineStr"/>
-      <c r="O603" t="inlineStr"/>
-      <c r="P603" t="inlineStr"/>
-      <c r="Q603" t="inlineStr"/>
-      <c r="R603" t="inlineStr"/>
-      <c r="S603" t="inlineStr"/>
-      <c r="T603" t="inlineStr"/>
-      <c r="U603" t="inlineStr"/>
-      <c r="V603" t="inlineStr"/>
-      <c r="W603" t="inlineStr"/>
-      <c r="X603" t="inlineStr"/>
-      <c r="Y603" t="inlineStr"/>
-      <c r="Z603" t="inlineStr"/>
-      <c r="AA603" t="inlineStr"/>
-      <c r="AB603" t="inlineStr"/>
-      <c r="AC603" t="inlineStr"/>
-      <c r="AD603" t="inlineStr"/>
-      <c r="AE603" t="inlineStr"/>
-      <c r="AF603" t="inlineStr"/>
-      <c r="AG603" t="inlineStr"/>
-      <c r="AH603" t="inlineStr"/>
-      <c r="AI603" t="inlineStr"/>
-      <c r="AJ603" t="inlineStr"/>
-      <c r="AK603" t="inlineStr">
-        <is>
-          <t>2023-10-21</t>
-        </is>
-      </c>
-      <c r="AL603" t="inlineStr"/>
-      <c r="AM603" t="inlineStr">
-        <is>
-          <t>2023-10-21</t>
-        </is>
-      </c>
-      <c r="AN603" t="inlineStr"/>
-      <c r="AO603" t="inlineStr"/>
-      <c r="AP603" t="inlineStr"/>
-      <c r="AQ603" t="inlineStr"/>
-      <c r="AR603" t="inlineStr"/>
-      <c r="AS603" t="inlineStr"/>
-      <c r="AT603" t="inlineStr"/>
-      <c r="AU603" t="inlineStr"/>
-      <c r="AV603" t="inlineStr"/>
-      <c r="AW603" t="inlineStr"/>
-      <c r="AX603" t="inlineStr"/>
-      <c r="AY603" t="inlineStr"/>
-      <c r="AZ603" t="inlineStr"/>
-      <c r="BA603" t="inlineStr"/>
-      <c r="BB603" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB602"/>
+  <dimension ref="A1:BB603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51337,6 +51337,82 @@
       <c r="BA602" t="inlineStr"/>
       <c r="BB602" t="inlineStr"/>
     </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>cl:10693</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Coastal habitats</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr"/>
+      <c r="E603" t="inlineStr"/>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>cl:10597</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr"/>
+      <c r="H603" t="inlineStr"/>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="inlineStr"/>
+      <c r="M603" t="inlineStr"/>
+      <c r="N603" t="inlineStr"/>
+      <c r="O603" t="inlineStr"/>
+      <c r="P603" t="inlineStr"/>
+      <c r="Q603" t="inlineStr"/>
+      <c r="R603" t="inlineStr"/>
+      <c r="S603" t="inlineStr"/>
+      <c r="T603" t="inlineStr"/>
+      <c r="U603" t="inlineStr"/>
+      <c r="V603" t="inlineStr"/>
+      <c r="W603" t="inlineStr"/>
+      <c r="X603" t="inlineStr"/>
+      <c r="Y603" t="inlineStr"/>
+      <c r="Z603" t="inlineStr"/>
+      <c r="AA603" t="inlineStr"/>
+      <c r="AB603" t="inlineStr"/>
+      <c r="AC603" t="inlineStr"/>
+      <c r="AD603" t="inlineStr"/>
+      <c r="AE603" t="inlineStr"/>
+      <c r="AF603" t="inlineStr"/>
+      <c r="AG603" t="inlineStr"/>
+      <c r="AH603" t="inlineStr"/>
+      <c r="AI603" t="inlineStr"/>
+      <c r="AJ603" t="inlineStr"/>
+      <c r="AK603" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="AL603" t="inlineStr"/>
+      <c r="AM603" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="AN603" t="inlineStr"/>
+      <c r="AO603" t="inlineStr"/>
+      <c r="AP603" t="inlineStr"/>
+      <c r="AQ603" t="inlineStr"/>
+      <c r="AR603" t="inlineStr"/>
+      <c r="AS603" t="inlineStr"/>
+      <c r="AT603" t="inlineStr"/>
+      <c r="AU603" t="inlineStr"/>
+      <c r="AV603" t="inlineStr"/>
+      <c r="AW603" t="inlineStr"/>
+      <c r="AX603" t="inlineStr"/>
+      <c r="AY603" t="inlineStr"/>
+      <c r="AZ603" t="inlineStr"/>
+      <c r="BA603" t="inlineStr"/>
+      <c r="BB603" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD622"/>
+  <dimension ref="A1:BD643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,11 +534,7 @@
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
+      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
@@ -1716,11 +1712,7 @@
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
@@ -1786,11 +1778,7 @@
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
@@ -2122,11 +2110,7 @@
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
@@ -2192,11 +2176,7 @@
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
@@ -2262,11 +2242,7 @@
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
@@ -2332,11 +2308,7 @@
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
@@ -2402,11 +2374,7 @@
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
@@ -2472,11 +2440,7 @@
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="inlineStr"/>
@@ -2540,17 +2504,9 @@
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr"/>
@@ -2614,17 +2570,9 @@
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
@@ -2688,17 +2636,9 @@
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
@@ -2764,11 +2704,7 @@
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
@@ -2832,17 +2768,9 @@
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
@@ -2910,17 +2838,9 @@
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
@@ -2984,17 +2904,9 @@
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="inlineStr"/>
@@ -3064,11 +2976,7 @@
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
       <c r="AR38" t="inlineStr"/>
@@ -3163,7 +3071,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-11-06T12:00+02:00</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3208,11 +3116,7 @@
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
@@ -3272,11 +3176,7 @@
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
+      <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
@@ -3488,12 +3388,12 @@
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -53367,7 +53267,7 @@
       <c r="G615" t="inlineStr"/>
       <c r="H615" t="inlineStr">
         <is>
-          <t>cl:10673</t>
+          <t>cl:10708</t>
         </is>
       </c>
       <c r="I615" t="inlineStr"/>
@@ -53406,7 +53306,7 @@
       </c>
       <c r="AM615" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AN615" t="inlineStr">
@@ -53453,7 +53353,7 @@
       <c r="G616" t="inlineStr"/>
       <c r="H616" t="inlineStr">
         <is>
-          <t>cl:10673</t>
+          <t>cl:10708</t>
         </is>
       </c>
       <c r="I616" t="inlineStr"/>
@@ -53492,7 +53392,7 @@
       </c>
       <c r="AM616" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AN616" t="inlineStr">
@@ -53657,13 +53557,21 @@
       <c r="AI618" t="inlineStr"/>
       <c r="AJ618" t="inlineStr"/>
       <c r="AK618" t="inlineStr"/>
-      <c r="AL618" t="inlineStr"/>
+      <c r="AL618" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="AM618" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
-      <c r="AN618" t="inlineStr"/>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN618" t="inlineStr">
+        <is>
+          <t>0000-0002-6968-8275</t>
+        </is>
+      </c>
       <c r="AO618" t="inlineStr">
         <is>
           <t>2023-10-16</t>
@@ -53735,13 +53643,21 @@
       <c r="AI619" t="inlineStr"/>
       <c r="AJ619" t="inlineStr"/>
       <c r="AK619" t="inlineStr"/>
-      <c r="AL619" t="inlineStr"/>
+      <c r="AL619" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="AM619" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
-        </is>
-      </c>
-      <c r="AN619" t="inlineStr"/>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN619" t="inlineStr">
+        <is>
+          <t>0000-0002-6968-8275</t>
+        </is>
+      </c>
       <c r="AO619" t="inlineStr">
         <is>
           <t>2023-10-18</t>
@@ -53813,13 +53729,21 @@
       <c r="AI620" t="inlineStr"/>
       <c r="AJ620" t="inlineStr"/>
       <c r="AK620" t="inlineStr"/>
-      <c r="AL620" t="inlineStr"/>
+      <c r="AL620" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="AM620" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
-        </is>
-      </c>
-      <c r="AN620" t="inlineStr"/>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN620" t="inlineStr">
+        <is>
+          <t>0000-0002-6968-8275</t>
+        </is>
+      </c>
       <c r="AO620" t="inlineStr">
         <is>
           <t>2023-10-24</t>
@@ -53849,20 +53773,24 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>soil type classification list</t>
+          <t>birds</t>
         </is>
       </c>
       <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr">
-        <is>
-          <t>skos:collection</t>
-        </is>
-      </c>
+      <c r="D621" t="inlineStr"/>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="inlineStr"/>
-      <c r="I621" t="inlineStr"/>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>cl:10673</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>et:20626</t>
+        </is>
+      </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr"/>
@@ -53891,18 +53819,22 @@
       <c r="AI621" t="inlineStr"/>
       <c r="AJ621" t="inlineStr"/>
       <c r="AK621" t="inlineStr"/>
-      <c r="AL621" t="inlineStr">
-        <is>
-          <t>2024-01-05</t>
-        </is>
-      </c>
-      <c r="AM621" t="inlineStr"/>
+      <c r="AL621" t="inlineStr"/>
+      <c r="AM621" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
       <c r="AN621" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
-        </is>
-      </c>
-      <c r="AO621" t="inlineStr"/>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO621" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
       <c r="AP621" t="inlineStr"/>
       <c r="AQ621" t="inlineStr"/>
       <c r="AR621" t="inlineStr"/>
@@ -53927,24 +53859,24 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>podsol</t>
+          <t>waterbirds</t>
         </is>
       </c>
       <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>skos:concept</t>
-        </is>
-      </c>
-      <c r="E622" t="inlineStr">
-        <is>
-          <t>cl:10694</t>
-        </is>
-      </c>
+      <c r="D622" t="inlineStr"/>
+      <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
       <c r="G622" t="inlineStr"/>
-      <c r="H622" t="inlineStr"/>
-      <c r="I622" t="inlineStr"/>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>cl:10694</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>et:30301</t>
+        </is>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr"/>
@@ -53973,22 +53905,22 @@
       <c r="AI622" t="inlineStr"/>
       <c r="AJ622" t="inlineStr"/>
       <c r="AK622" t="inlineStr"/>
-      <c r="AL622" t="inlineStr">
+      <c r="AL622" t="inlineStr"/>
+      <c r="AM622" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN622" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO622" t="inlineStr">
         <is>
           <t>2024-01-05</t>
         </is>
       </c>
-      <c r="AM622" t="inlineStr">
-        <is>
-          <t>2024-01-05</t>
-        </is>
-      </c>
-      <c r="AN622" t="inlineStr">
-        <is>
-          <t>2024-01-05</t>
-        </is>
-      </c>
-      <c r="AO622" t="inlineStr"/>
       <c r="AP622" t="inlineStr"/>
       <c r="AQ622" t="inlineStr"/>
       <c r="AR622" t="inlineStr"/>
@@ -54005,6 +53937,1812 @@
       <c r="BC622" t="inlineStr"/>
       <c r="BD622" t="inlineStr"/>
     </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>cl:10696</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>raptors</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr"/>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="inlineStr"/>
+      <c r="G623" t="inlineStr"/>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>cl:10694</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>et:30302</t>
+        </is>
+      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="inlineStr"/>
+      <c r="M623" t="inlineStr"/>
+      <c r="N623" t="inlineStr"/>
+      <c r="O623" t="inlineStr"/>
+      <c r="P623" t="inlineStr"/>
+      <c r="Q623" t="inlineStr"/>
+      <c r="R623" t="inlineStr"/>
+      <c r="S623" t="inlineStr"/>
+      <c r="T623" t="inlineStr"/>
+      <c r="U623" t="inlineStr"/>
+      <c r="V623" t="inlineStr"/>
+      <c r="W623" t="inlineStr"/>
+      <c r="X623" t="inlineStr"/>
+      <c r="Y623" t="inlineStr"/>
+      <c r="Z623" t="inlineStr"/>
+      <c r="AA623" t="inlineStr"/>
+      <c r="AB623" t="inlineStr"/>
+      <c r="AC623" t="inlineStr"/>
+      <c r="AD623" t="inlineStr"/>
+      <c r="AE623" t="inlineStr"/>
+      <c r="AF623" t="inlineStr"/>
+      <c r="AG623" t="inlineStr"/>
+      <c r="AH623" t="inlineStr"/>
+      <c r="AI623" t="inlineStr"/>
+      <c r="AJ623" t="inlineStr"/>
+      <c r="AK623" t="inlineStr"/>
+      <c r="AL623" t="inlineStr"/>
+      <c r="AM623" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN623" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO623" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP623" t="inlineStr"/>
+      <c r="AQ623" t="inlineStr"/>
+      <c r="AR623" t="inlineStr"/>
+      <c r="AS623" t="inlineStr"/>
+      <c r="AT623" t="inlineStr"/>
+      <c r="AU623" t="inlineStr"/>
+      <c r="AV623" t="inlineStr"/>
+      <c r="AW623" t="inlineStr"/>
+      <c r="AX623" t="inlineStr"/>
+      <c r="AY623" t="inlineStr"/>
+      <c r="AZ623" t="inlineStr"/>
+      <c r="BA623" t="inlineStr"/>
+      <c r="BB623" t="inlineStr"/>
+      <c r="BC623" t="inlineStr"/>
+      <c r="BD623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>cl:10697</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>songbirds</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr"/>
+      <c r="E624" t="inlineStr"/>
+      <c r="F624" t="inlineStr"/>
+      <c r="G624" t="inlineStr"/>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>cl:10694</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>et:30303</t>
+        </is>
+      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="inlineStr"/>
+      <c r="M624" t="inlineStr"/>
+      <c r="N624" t="inlineStr"/>
+      <c r="O624" t="inlineStr"/>
+      <c r="P624" t="inlineStr"/>
+      <c r="Q624" t="inlineStr"/>
+      <c r="R624" t="inlineStr"/>
+      <c r="S624" t="inlineStr"/>
+      <c r="T624" t="inlineStr"/>
+      <c r="U624" t="inlineStr"/>
+      <c r="V624" t="inlineStr"/>
+      <c r="W624" t="inlineStr"/>
+      <c r="X624" t="inlineStr"/>
+      <c r="Y624" t="inlineStr"/>
+      <c r="Z624" t="inlineStr"/>
+      <c r="AA624" t="inlineStr"/>
+      <c r="AB624" t="inlineStr"/>
+      <c r="AC624" t="inlineStr"/>
+      <c r="AD624" t="inlineStr"/>
+      <c r="AE624" t="inlineStr"/>
+      <c r="AF624" t="inlineStr"/>
+      <c r="AG624" t="inlineStr"/>
+      <c r="AH624" t="inlineStr"/>
+      <c r="AI624" t="inlineStr"/>
+      <c r="AJ624" t="inlineStr"/>
+      <c r="AK624" t="inlineStr"/>
+      <c r="AL624" t="inlineStr"/>
+      <c r="AM624" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN624" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO624" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP624" t="inlineStr"/>
+      <c r="AQ624" t="inlineStr"/>
+      <c r="AR624" t="inlineStr"/>
+      <c r="AS624" t="inlineStr"/>
+      <c r="AT624" t="inlineStr"/>
+      <c r="AU624" t="inlineStr"/>
+      <c r="AV624" t="inlineStr"/>
+      <c r="AW624" t="inlineStr"/>
+      <c r="AX624" t="inlineStr"/>
+      <c r="AY624" t="inlineStr"/>
+      <c r="AZ624" t="inlineStr"/>
+      <c r="BA624" t="inlineStr"/>
+      <c r="BB624" t="inlineStr"/>
+      <c r="BC624" t="inlineStr"/>
+      <c r="BD624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>cl:10698</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>near-passerines</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr"/>
+      <c r="D625" t="inlineStr"/>
+      <c r="E625" t="inlineStr"/>
+      <c r="F625" t="inlineStr"/>
+      <c r="G625" t="inlineStr"/>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>cl:10694</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>et:30304</t>
+        </is>
+      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="inlineStr"/>
+      <c r="M625" t="inlineStr"/>
+      <c r="N625" t="inlineStr"/>
+      <c r="O625" t="inlineStr"/>
+      <c r="P625" t="inlineStr"/>
+      <c r="Q625" t="inlineStr"/>
+      <c r="R625" t="inlineStr"/>
+      <c r="S625" t="inlineStr"/>
+      <c r="T625" t="inlineStr"/>
+      <c r="U625" t="inlineStr"/>
+      <c r="V625" t="inlineStr"/>
+      <c r="W625" t="inlineStr"/>
+      <c r="X625" t="inlineStr"/>
+      <c r="Y625" t="inlineStr"/>
+      <c r="Z625" t="inlineStr"/>
+      <c r="AA625" t="inlineStr"/>
+      <c r="AB625" t="inlineStr"/>
+      <c r="AC625" t="inlineStr"/>
+      <c r="AD625" t="inlineStr"/>
+      <c r="AE625" t="inlineStr"/>
+      <c r="AF625" t="inlineStr"/>
+      <c r="AG625" t="inlineStr"/>
+      <c r="AH625" t="inlineStr"/>
+      <c r="AI625" t="inlineStr"/>
+      <c r="AJ625" t="inlineStr"/>
+      <c r="AK625" t="inlineStr"/>
+      <c r="AL625" t="inlineStr"/>
+      <c r="AM625" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN625" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO625" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP625" t="inlineStr"/>
+      <c r="AQ625" t="inlineStr"/>
+      <c r="AR625" t="inlineStr"/>
+      <c r="AS625" t="inlineStr"/>
+      <c r="AT625" t="inlineStr"/>
+      <c r="AU625" t="inlineStr"/>
+      <c r="AV625" t="inlineStr"/>
+      <c r="AW625" t="inlineStr"/>
+      <c r="AX625" t="inlineStr"/>
+      <c r="AY625" t="inlineStr"/>
+      <c r="AZ625" t="inlineStr"/>
+      <c r="BA625" t="inlineStr"/>
+      <c r="BB625" t="inlineStr"/>
+      <c r="BC625" t="inlineStr"/>
+      <c r="BD625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>cl:10699</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>invertebrates</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr"/>
+      <c r="E626" t="inlineStr"/>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr"/>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>cl:10673</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>et:20593</t>
+        </is>
+      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="inlineStr"/>
+      <c r="M626" t="inlineStr"/>
+      <c r="N626" t="inlineStr"/>
+      <c r="O626" t="inlineStr"/>
+      <c r="P626" t="inlineStr"/>
+      <c r="Q626" t="inlineStr"/>
+      <c r="R626" t="inlineStr"/>
+      <c r="S626" t="inlineStr"/>
+      <c r="T626" t="inlineStr"/>
+      <c r="U626" t="inlineStr"/>
+      <c r="V626" t="inlineStr"/>
+      <c r="W626" t="inlineStr"/>
+      <c r="X626" t="inlineStr"/>
+      <c r="Y626" t="inlineStr"/>
+      <c r="Z626" t="inlineStr"/>
+      <c r="AA626" t="inlineStr"/>
+      <c r="AB626" t="inlineStr"/>
+      <c r="AC626" t="inlineStr"/>
+      <c r="AD626" t="inlineStr"/>
+      <c r="AE626" t="inlineStr"/>
+      <c r="AF626" t="inlineStr"/>
+      <c r="AG626" t="inlineStr"/>
+      <c r="AH626" t="inlineStr"/>
+      <c r="AI626" t="inlineStr"/>
+      <c r="AJ626" t="inlineStr"/>
+      <c r="AK626" t="inlineStr"/>
+      <c r="AL626" t="inlineStr"/>
+      <c r="AM626" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN626" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO626" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP626" t="inlineStr"/>
+      <c r="AQ626" t="inlineStr"/>
+      <c r="AR626" t="inlineStr"/>
+      <c r="AS626" t="inlineStr"/>
+      <c r="AT626" t="inlineStr"/>
+      <c r="AU626" t="inlineStr"/>
+      <c r="AV626" t="inlineStr"/>
+      <c r="AW626" t="inlineStr"/>
+      <c r="AX626" t="inlineStr"/>
+      <c r="AY626" t="inlineStr"/>
+      <c r="AZ626" t="inlineStr"/>
+      <c r="BA626" t="inlineStr"/>
+      <c r="BB626" t="inlineStr"/>
+      <c r="BC626" t="inlineStr"/>
+      <c r="BD626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>cl:10700</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>beetles</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>cl:10699</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>et:20600</t>
+        </is>
+      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="inlineStr"/>
+      <c r="M627" t="inlineStr"/>
+      <c r="N627" t="inlineStr"/>
+      <c r="O627" t="inlineStr"/>
+      <c r="P627" t="inlineStr"/>
+      <c r="Q627" t="inlineStr"/>
+      <c r="R627" t="inlineStr"/>
+      <c r="S627" t="inlineStr"/>
+      <c r="T627" t="inlineStr"/>
+      <c r="U627" t="inlineStr"/>
+      <c r="V627" t="inlineStr"/>
+      <c r="W627" t="inlineStr"/>
+      <c r="X627" t="inlineStr"/>
+      <c r="Y627" t="inlineStr"/>
+      <c r="Z627" t="inlineStr"/>
+      <c r="AA627" t="inlineStr"/>
+      <c r="AB627" t="inlineStr"/>
+      <c r="AC627" t="inlineStr"/>
+      <c r="AD627" t="inlineStr"/>
+      <c r="AE627" t="inlineStr"/>
+      <c r="AF627" t="inlineStr"/>
+      <c r="AG627" t="inlineStr"/>
+      <c r="AH627" t="inlineStr"/>
+      <c r="AI627" t="inlineStr"/>
+      <c r="AJ627" t="inlineStr"/>
+      <c r="AK627" t="inlineStr"/>
+      <c r="AL627" t="inlineStr"/>
+      <c r="AM627" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN627" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO627" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP627" t="inlineStr"/>
+      <c r="AQ627" t="inlineStr"/>
+      <c r="AR627" t="inlineStr"/>
+      <c r="AS627" t="inlineStr"/>
+      <c r="AT627" t="inlineStr"/>
+      <c r="AU627" t="inlineStr"/>
+      <c r="AV627" t="inlineStr"/>
+      <c r="AW627" t="inlineStr"/>
+      <c r="AX627" t="inlineStr"/>
+      <c r="AY627" t="inlineStr"/>
+      <c r="AZ627" t="inlineStr"/>
+      <c r="BA627" t="inlineStr"/>
+      <c r="BB627" t="inlineStr"/>
+      <c r="BC627" t="inlineStr"/>
+      <c r="BD627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>cl:10701</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>butterflies</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr"/>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
+      <c r="G628" t="inlineStr"/>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>cl:10699</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>et:20602</t>
+        </is>
+      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="inlineStr"/>
+      <c r="M628" t="inlineStr"/>
+      <c r="N628" t="inlineStr"/>
+      <c r="O628" t="inlineStr"/>
+      <c r="P628" t="inlineStr"/>
+      <c r="Q628" t="inlineStr"/>
+      <c r="R628" t="inlineStr"/>
+      <c r="S628" t="inlineStr"/>
+      <c r="T628" t="inlineStr"/>
+      <c r="U628" t="inlineStr"/>
+      <c r="V628" t="inlineStr"/>
+      <c r="W628" t="inlineStr"/>
+      <c r="X628" t="inlineStr"/>
+      <c r="Y628" t="inlineStr"/>
+      <c r="Z628" t="inlineStr"/>
+      <c r="AA628" t="inlineStr"/>
+      <c r="AB628" t="inlineStr"/>
+      <c r="AC628" t="inlineStr"/>
+      <c r="AD628" t="inlineStr"/>
+      <c r="AE628" t="inlineStr"/>
+      <c r="AF628" t="inlineStr"/>
+      <c r="AG628" t="inlineStr"/>
+      <c r="AH628" t="inlineStr"/>
+      <c r="AI628" t="inlineStr"/>
+      <c r="AJ628" t="inlineStr"/>
+      <c r="AK628" t="inlineStr"/>
+      <c r="AL628" t="inlineStr"/>
+      <c r="AM628" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN628" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO628" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP628" t="inlineStr"/>
+      <c r="AQ628" t="inlineStr"/>
+      <c r="AR628" t="inlineStr"/>
+      <c r="AS628" t="inlineStr"/>
+      <c r="AT628" t="inlineStr"/>
+      <c r="AU628" t="inlineStr"/>
+      <c r="AV628" t="inlineStr"/>
+      <c r="AW628" t="inlineStr"/>
+      <c r="AX628" t="inlineStr"/>
+      <c r="AY628" t="inlineStr"/>
+      <c r="AZ628" t="inlineStr"/>
+      <c r="BA628" t="inlineStr"/>
+      <c r="BB628" t="inlineStr"/>
+      <c r="BC628" t="inlineStr"/>
+      <c r="BD628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>cl:10702</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>dragonflies</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr"/>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr"/>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>cl:10699</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>et:30312</t>
+        </is>
+      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="inlineStr"/>
+      <c r="M629" t="inlineStr"/>
+      <c r="N629" t="inlineStr"/>
+      <c r="O629" t="inlineStr"/>
+      <c r="P629" t="inlineStr"/>
+      <c r="Q629" t="inlineStr"/>
+      <c r="R629" t="inlineStr"/>
+      <c r="S629" t="inlineStr"/>
+      <c r="T629" t="inlineStr"/>
+      <c r="U629" t="inlineStr"/>
+      <c r="V629" t="inlineStr"/>
+      <c r="W629" t="inlineStr"/>
+      <c r="X629" t="inlineStr"/>
+      <c r="Y629" t="inlineStr"/>
+      <c r="Z629" t="inlineStr"/>
+      <c r="AA629" t="inlineStr"/>
+      <c r="AB629" t="inlineStr"/>
+      <c r="AC629" t="inlineStr"/>
+      <c r="AD629" t="inlineStr"/>
+      <c r="AE629" t="inlineStr"/>
+      <c r="AF629" t="inlineStr"/>
+      <c r="AG629" t="inlineStr"/>
+      <c r="AH629" t="inlineStr"/>
+      <c r="AI629" t="inlineStr"/>
+      <c r="AJ629" t="inlineStr"/>
+      <c r="AK629" t="inlineStr"/>
+      <c r="AL629" t="inlineStr"/>
+      <c r="AM629" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN629" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO629" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP629" t="inlineStr"/>
+      <c r="AQ629" t="inlineStr"/>
+      <c r="AR629" t="inlineStr"/>
+      <c r="AS629" t="inlineStr"/>
+      <c r="AT629" t="inlineStr"/>
+      <c r="AU629" t="inlineStr"/>
+      <c r="AV629" t="inlineStr"/>
+      <c r="AW629" t="inlineStr"/>
+      <c r="AX629" t="inlineStr"/>
+      <c r="AY629" t="inlineStr"/>
+      <c r="AZ629" t="inlineStr"/>
+      <c r="BA629" t="inlineStr"/>
+      <c r="BB629" t="inlineStr"/>
+      <c r="BC629" t="inlineStr"/>
+      <c r="BD629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>cl:10703</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>grasshoppers</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr"/>
+      <c r="D630" t="inlineStr"/>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
+      <c r="G630" t="inlineStr"/>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>cl:10699</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>et:20603</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="inlineStr"/>
+      <c r="M630" t="inlineStr"/>
+      <c r="N630" t="inlineStr"/>
+      <c r="O630" t="inlineStr"/>
+      <c r="P630" t="inlineStr"/>
+      <c r="Q630" t="inlineStr"/>
+      <c r="R630" t="inlineStr"/>
+      <c r="S630" t="inlineStr"/>
+      <c r="T630" t="inlineStr"/>
+      <c r="U630" t="inlineStr"/>
+      <c r="V630" t="inlineStr"/>
+      <c r="W630" t="inlineStr"/>
+      <c r="X630" t="inlineStr"/>
+      <c r="Y630" t="inlineStr"/>
+      <c r="Z630" t="inlineStr"/>
+      <c r="AA630" t="inlineStr"/>
+      <c r="AB630" t="inlineStr"/>
+      <c r="AC630" t="inlineStr"/>
+      <c r="AD630" t="inlineStr"/>
+      <c r="AE630" t="inlineStr"/>
+      <c r="AF630" t="inlineStr"/>
+      <c r="AG630" t="inlineStr"/>
+      <c r="AH630" t="inlineStr"/>
+      <c r="AI630" t="inlineStr"/>
+      <c r="AJ630" t="inlineStr"/>
+      <c r="AK630" t="inlineStr"/>
+      <c r="AL630" t="inlineStr"/>
+      <c r="AM630" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN630" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO630" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP630" t="inlineStr"/>
+      <c r="AQ630" t="inlineStr"/>
+      <c r="AR630" t="inlineStr"/>
+      <c r="AS630" t="inlineStr"/>
+      <c r="AT630" t="inlineStr"/>
+      <c r="AU630" t="inlineStr"/>
+      <c r="AV630" t="inlineStr"/>
+      <c r="AW630" t="inlineStr"/>
+      <c r="AX630" t="inlineStr"/>
+      <c r="AY630" t="inlineStr"/>
+      <c r="AZ630" t="inlineStr"/>
+      <c r="BA630" t="inlineStr"/>
+      <c r="BB630" t="inlineStr"/>
+      <c r="BC630" t="inlineStr"/>
+      <c r="BD630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>cl:10704</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>crickets</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr"/>
+      <c r="D631" t="inlineStr"/>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr"/>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>cl:10699</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>et:30313</t>
+        </is>
+      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
+      <c r="L631" t="inlineStr"/>
+      <c r="M631" t="inlineStr"/>
+      <c r="N631" t="inlineStr"/>
+      <c r="O631" t="inlineStr"/>
+      <c r="P631" t="inlineStr"/>
+      <c r="Q631" t="inlineStr"/>
+      <c r="R631" t="inlineStr"/>
+      <c r="S631" t="inlineStr"/>
+      <c r="T631" t="inlineStr"/>
+      <c r="U631" t="inlineStr"/>
+      <c r="V631" t="inlineStr"/>
+      <c r="W631" t="inlineStr"/>
+      <c r="X631" t="inlineStr"/>
+      <c r="Y631" t="inlineStr"/>
+      <c r="Z631" t="inlineStr"/>
+      <c r="AA631" t="inlineStr"/>
+      <c r="AB631" t="inlineStr"/>
+      <c r="AC631" t="inlineStr"/>
+      <c r="AD631" t="inlineStr"/>
+      <c r="AE631" t="inlineStr"/>
+      <c r="AF631" t="inlineStr"/>
+      <c r="AG631" t="inlineStr"/>
+      <c r="AH631" t="inlineStr"/>
+      <c r="AI631" t="inlineStr"/>
+      <c r="AJ631" t="inlineStr"/>
+      <c r="AK631" t="inlineStr"/>
+      <c r="AL631" t="inlineStr"/>
+      <c r="AM631" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN631" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO631" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP631" t="inlineStr"/>
+      <c r="AQ631" t="inlineStr"/>
+      <c r="AR631" t="inlineStr"/>
+      <c r="AS631" t="inlineStr"/>
+      <c r="AT631" t="inlineStr"/>
+      <c r="AU631" t="inlineStr"/>
+      <c r="AV631" t="inlineStr"/>
+      <c r="AW631" t="inlineStr"/>
+      <c r="AX631" t="inlineStr"/>
+      <c r="AY631" t="inlineStr"/>
+      <c r="AZ631" t="inlineStr"/>
+      <c r="BA631" t="inlineStr"/>
+      <c r="BB631" t="inlineStr"/>
+      <c r="BC631" t="inlineStr"/>
+      <c r="BD631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>cl:10705</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>bivalvia</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr"/>
+      <c r="D632" t="inlineStr"/>
+      <c r="E632" t="inlineStr"/>
+      <c r="F632" t="inlineStr"/>
+      <c r="G632" t="inlineStr"/>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>cl:10699</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>et:30314</t>
+        </is>
+      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="inlineStr"/>
+      <c r="M632" t="inlineStr"/>
+      <c r="N632" t="inlineStr"/>
+      <c r="O632" t="inlineStr"/>
+      <c r="P632" t="inlineStr"/>
+      <c r="Q632" t="inlineStr"/>
+      <c r="R632" t="inlineStr"/>
+      <c r="S632" t="inlineStr"/>
+      <c r="T632" t="inlineStr"/>
+      <c r="U632" t="inlineStr"/>
+      <c r="V632" t="inlineStr"/>
+      <c r="W632" t="inlineStr"/>
+      <c r="X632" t="inlineStr"/>
+      <c r="Y632" t="inlineStr"/>
+      <c r="Z632" t="inlineStr"/>
+      <c r="AA632" t="inlineStr"/>
+      <c r="AB632" t="inlineStr"/>
+      <c r="AC632" t="inlineStr"/>
+      <c r="AD632" t="inlineStr"/>
+      <c r="AE632" t="inlineStr"/>
+      <c r="AF632" t="inlineStr"/>
+      <c r="AG632" t="inlineStr"/>
+      <c r="AH632" t="inlineStr"/>
+      <c r="AI632" t="inlineStr"/>
+      <c r="AJ632" t="inlineStr"/>
+      <c r="AK632" t="inlineStr"/>
+      <c r="AL632" t="inlineStr"/>
+      <c r="AM632" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN632" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO632" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP632" t="inlineStr"/>
+      <c r="AQ632" t="inlineStr"/>
+      <c r="AR632" t="inlineStr"/>
+      <c r="AS632" t="inlineStr"/>
+      <c r="AT632" t="inlineStr"/>
+      <c r="AU632" t="inlineStr"/>
+      <c r="AV632" t="inlineStr"/>
+      <c r="AW632" t="inlineStr"/>
+      <c r="AX632" t="inlineStr"/>
+      <c r="AY632" t="inlineStr"/>
+      <c r="AZ632" t="inlineStr"/>
+      <c r="BA632" t="inlineStr"/>
+      <c r="BB632" t="inlineStr"/>
+      <c r="BC632" t="inlineStr"/>
+      <c r="BD632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>cl:10706</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>gastropods</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr"/>
+      <c r="D633" t="inlineStr"/>
+      <c r="E633" t="inlineStr"/>
+      <c r="F633" t="inlineStr"/>
+      <c r="G633" t="inlineStr"/>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>cl:10699</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>et:20619</t>
+        </is>
+      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="inlineStr"/>
+      <c r="M633" t="inlineStr"/>
+      <c r="N633" t="inlineStr"/>
+      <c r="O633" t="inlineStr"/>
+      <c r="P633" t="inlineStr"/>
+      <c r="Q633" t="inlineStr"/>
+      <c r="R633" t="inlineStr"/>
+      <c r="S633" t="inlineStr"/>
+      <c r="T633" t="inlineStr"/>
+      <c r="U633" t="inlineStr"/>
+      <c r="V633" t="inlineStr"/>
+      <c r="W633" t="inlineStr"/>
+      <c r="X633" t="inlineStr"/>
+      <c r="Y633" t="inlineStr"/>
+      <c r="Z633" t="inlineStr"/>
+      <c r="AA633" t="inlineStr"/>
+      <c r="AB633" t="inlineStr"/>
+      <c r="AC633" t="inlineStr"/>
+      <c r="AD633" t="inlineStr"/>
+      <c r="AE633" t="inlineStr"/>
+      <c r="AF633" t="inlineStr"/>
+      <c r="AG633" t="inlineStr"/>
+      <c r="AH633" t="inlineStr"/>
+      <c r="AI633" t="inlineStr"/>
+      <c r="AJ633" t="inlineStr"/>
+      <c r="AK633" t="inlineStr"/>
+      <c r="AL633" t="inlineStr"/>
+      <c r="AM633" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN633" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO633" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP633" t="inlineStr"/>
+      <c r="AQ633" t="inlineStr"/>
+      <c r="AR633" t="inlineStr"/>
+      <c r="AS633" t="inlineStr"/>
+      <c r="AT633" t="inlineStr"/>
+      <c r="AU633" t="inlineStr"/>
+      <c r="AV633" t="inlineStr"/>
+      <c r="AW633" t="inlineStr"/>
+      <c r="AX633" t="inlineStr"/>
+      <c r="AY633" t="inlineStr"/>
+      <c r="AZ633" t="inlineStr"/>
+      <c r="BA633" t="inlineStr"/>
+      <c r="BB633" t="inlineStr"/>
+      <c r="BC633" t="inlineStr"/>
+      <c r="BD633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>cl:10707</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>crustaceans</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr"/>
+      <c r="D634" t="inlineStr"/>
+      <c r="E634" t="inlineStr"/>
+      <c r="F634" t="inlineStr"/>
+      <c r="G634" t="inlineStr"/>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>cl:10699</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>et:20613</t>
+        </is>
+      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="inlineStr"/>
+      <c r="M634" t="inlineStr"/>
+      <c r="N634" t="inlineStr"/>
+      <c r="O634" t="inlineStr"/>
+      <c r="P634" t="inlineStr"/>
+      <c r="Q634" t="inlineStr"/>
+      <c r="R634" t="inlineStr"/>
+      <c r="S634" t="inlineStr"/>
+      <c r="T634" t="inlineStr"/>
+      <c r="U634" t="inlineStr"/>
+      <c r="V634" t="inlineStr"/>
+      <c r="W634" t="inlineStr"/>
+      <c r="X634" t="inlineStr"/>
+      <c r="Y634" t="inlineStr"/>
+      <c r="Z634" t="inlineStr"/>
+      <c r="AA634" t="inlineStr"/>
+      <c r="AB634" t="inlineStr"/>
+      <c r="AC634" t="inlineStr"/>
+      <c r="AD634" t="inlineStr"/>
+      <c r="AE634" t="inlineStr"/>
+      <c r="AF634" t="inlineStr"/>
+      <c r="AG634" t="inlineStr"/>
+      <c r="AH634" t="inlineStr"/>
+      <c r="AI634" t="inlineStr"/>
+      <c r="AJ634" t="inlineStr"/>
+      <c r="AK634" t="inlineStr"/>
+      <c r="AL634" t="inlineStr"/>
+      <c r="AM634" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN634" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO634" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP634" t="inlineStr"/>
+      <c r="AQ634" t="inlineStr"/>
+      <c r="AR634" t="inlineStr"/>
+      <c r="AS634" t="inlineStr"/>
+      <c r="AT634" t="inlineStr"/>
+      <c r="AU634" t="inlineStr"/>
+      <c r="AV634" t="inlineStr"/>
+      <c r="AW634" t="inlineStr"/>
+      <c r="AX634" t="inlineStr"/>
+      <c r="AY634" t="inlineStr"/>
+      <c r="AZ634" t="inlineStr"/>
+      <c r="BA634" t="inlineStr"/>
+      <c r="BB634" t="inlineStr"/>
+      <c r="BC634" t="inlineStr"/>
+      <c r="BD634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>cl:10708</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>plants</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr"/>
+      <c r="D635" t="inlineStr"/>
+      <c r="E635" t="inlineStr"/>
+      <c r="F635" t="inlineStr"/>
+      <c r="G635" t="inlineStr"/>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>cl:10673</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>et:20676</t>
+        </is>
+      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="inlineStr"/>
+      <c r="M635" t="inlineStr"/>
+      <c r="N635" t="inlineStr"/>
+      <c r="O635" t="inlineStr"/>
+      <c r="P635" t="inlineStr"/>
+      <c r="Q635" t="inlineStr"/>
+      <c r="R635" t="inlineStr"/>
+      <c r="S635" t="inlineStr"/>
+      <c r="T635" t="inlineStr"/>
+      <c r="U635" t="inlineStr"/>
+      <c r="V635" t="inlineStr"/>
+      <c r="W635" t="inlineStr"/>
+      <c r="X635" t="inlineStr"/>
+      <c r="Y635" t="inlineStr"/>
+      <c r="Z635" t="inlineStr"/>
+      <c r="AA635" t="inlineStr"/>
+      <c r="AB635" t="inlineStr"/>
+      <c r="AC635" t="inlineStr"/>
+      <c r="AD635" t="inlineStr"/>
+      <c r="AE635" t="inlineStr"/>
+      <c r="AF635" t="inlineStr"/>
+      <c r="AG635" t="inlineStr"/>
+      <c r="AH635" t="inlineStr"/>
+      <c r="AI635" t="inlineStr"/>
+      <c r="AJ635" t="inlineStr"/>
+      <c r="AK635" t="inlineStr"/>
+      <c r="AL635" t="inlineStr"/>
+      <c r="AM635" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN635" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO635" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP635" t="inlineStr"/>
+      <c r="AQ635" t="inlineStr"/>
+      <c r="AR635" t="inlineStr"/>
+      <c r="AS635" t="inlineStr"/>
+      <c r="AT635" t="inlineStr"/>
+      <c r="AU635" t="inlineStr"/>
+      <c r="AV635" t="inlineStr"/>
+      <c r="AW635" t="inlineStr"/>
+      <c r="AX635" t="inlineStr"/>
+      <c r="AY635" t="inlineStr"/>
+      <c r="AZ635" t="inlineStr"/>
+      <c r="BA635" t="inlineStr"/>
+      <c r="BB635" t="inlineStr"/>
+      <c r="BC635" t="inlineStr"/>
+      <c r="BD635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>cl:10709</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>liverworts</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr"/>
+      <c r="D636" t="inlineStr"/>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr"/>
+      <c r="G636" t="inlineStr"/>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>cl:10708</t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>et:20692</t>
+        </is>
+      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="inlineStr"/>
+      <c r="M636" t="inlineStr"/>
+      <c r="N636" t="inlineStr"/>
+      <c r="O636" t="inlineStr"/>
+      <c r="P636" t="inlineStr"/>
+      <c r="Q636" t="inlineStr"/>
+      <c r="R636" t="inlineStr"/>
+      <c r="S636" t="inlineStr"/>
+      <c r="T636" t="inlineStr"/>
+      <c r="U636" t="inlineStr"/>
+      <c r="V636" t="inlineStr"/>
+      <c r="W636" t="inlineStr"/>
+      <c r="X636" t="inlineStr"/>
+      <c r="Y636" t="inlineStr"/>
+      <c r="Z636" t="inlineStr"/>
+      <c r="AA636" t="inlineStr"/>
+      <c r="AB636" t="inlineStr"/>
+      <c r="AC636" t="inlineStr"/>
+      <c r="AD636" t="inlineStr"/>
+      <c r="AE636" t="inlineStr"/>
+      <c r="AF636" t="inlineStr"/>
+      <c r="AG636" t="inlineStr"/>
+      <c r="AH636" t="inlineStr"/>
+      <c r="AI636" t="inlineStr"/>
+      <c r="AJ636" t="inlineStr"/>
+      <c r="AK636" t="inlineStr"/>
+      <c r="AL636" t="inlineStr"/>
+      <c r="AM636" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN636" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO636" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP636" t="inlineStr"/>
+      <c r="AQ636" t="inlineStr"/>
+      <c r="AR636" t="inlineStr"/>
+      <c r="AS636" t="inlineStr"/>
+      <c r="AT636" t="inlineStr"/>
+      <c r="AU636" t="inlineStr"/>
+      <c r="AV636" t="inlineStr"/>
+      <c r="AW636" t="inlineStr"/>
+      <c r="AX636" t="inlineStr"/>
+      <c r="AY636" t="inlineStr"/>
+      <c r="AZ636" t="inlineStr"/>
+      <c r="BA636" t="inlineStr"/>
+      <c r="BB636" t="inlineStr"/>
+      <c r="BC636" t="inlineStr"/>
+      <c r="BD636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>cl:10710</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>mosses</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr"/>
+      <c r="D637" t="inlineStr"/>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr"/>
+      <c r="G637" t="inlineStr"/>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>cl:10708</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>et:20691</t>
+        </is>
+      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="inlineStr"/>
+      <c r="M637" t="inlineStr"/>
+      <c r="N637" t="inlineStr"/>
+      <c r="O637" t="inlineStr"/>
+      <c r="P637" t="inlineStr"/>
+      <c r="Q637" t="inlineStr"/>
+      <c r="R637" t="inlineStr"/>
+      <c r="S637" t="inlineStr"/>
+      <c r="T637" t="inlineStr"/>
+      <c r="U637" t="inlineStr"/>
+      <c r="V637" t="inlineStr"/>
+      <c r="W637" t="inlineStr"/>
+      <c r="X637" t="inlineStr"/>
+      <c r="Y637" t="inlineStr"/>
+      <c r="Z637" t="inlineStr"/>
+      <c r="AA637" t="inlineStr"/>
+      <c r="AB637" t="inlineStr"/>
+      <c r="AC637" t="inlineStr"/>
+      <c r="AD637" t="inlineStr"/>
+      <c r="AE637" t="inlineStr"/>
+      <c r="AF637" t="inlineStr"/>
+      <c r="AG637" t="inlineStr"/>
+      <c r="AH637" t="inlineStr"/>
+      <c r="AI637" t="inlineStr"/>
+      <c r="AJ637" t="inlineStr"/>
+      <c r="AK637" t="inlineStr"/>
+      <c r="AL637" t="inlineStr"/>
+      <c r="AM637" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN637" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO637" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP637" t="inlineStr"/>
+      <c r="AQ637" t="inlineStr"/>
+      <c r="AR637" t="inlineStr"/>
+      <c r="AS637" t="inlineStr"/>
+      <c r="AT637" t="inlineStr"/>
+      <c r="AU637" t="inlineStr"/>
+      <c r="AV637" t="inlineStr"/>
+      <c r="AW637" t="inlineStr"/>
+      <c r="AX637" t="inlineStr"/>
+      <c r="AY637" t="inlineStr"/>
+      <c r="AZ637" t="inlineStr"/>
+      <c r="BA637" t="inlineStr"/>
+      <c r="BB637" t="inlineStr"/>
+      <c r="BC637" t="inlineStr"/>
+      <c r="BD637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>cl:10711</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>ferns</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="inlineStr"/>
+      <c r="E638" t="inlineStr"/>
+      <c r="F638" t="inlineStr"/>
+      <c r="G638" t="inlineStr"/>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>cl:10708</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>et:20687</t>
+        </is>
+      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="inlineStr"/>
+      <c r="M638" t="inlineStr"/>
+      <c r="N638" t="inlineStr"/>
+      <c r="O638" t="inlineStr"/>
+      <c r="P638" t="inlineStr"/>
+      <c r="Q638" t="inlineStr"/>
+      <c r="R638" t="inlineStr"/>
+      <c r="S638" t="inlineStr"/>
+      <c r="T638" t="inlineStr"/>
+      <c r="U638" t="inlineStr"/>
+      <c r="V638" t="inlineStr"/>
+      <c r="W638" t="inlineStr"/>
+      <c r="X638" t="inlineStr"/>
+      <c r="Y638" t="inlineStr"/>
+      <c r="Z638" t="inlineStr"/>
+      <c r="AA638" t="inlineStr"/>
+      <c r="AB638" t="inlineStr"/>
+      <c r="AC638" t="inlineStr"/>
+      <c r="AD638" t="inlineStr"/>
+      <c r="AE638" t="inlineStr"/>
+      <c r="AF638" t="inlineStr"/>
+      <c r="AG638" t="inlineStr"/>
+      <c r="AH638" t="inlineStr"/>
+      <c r="AI638" t="inlineStr"/>
+      <c r="AJ638" t="inlineStr"/>
+      <c r="AK638" t="inlineStr"/>
+      <c r="AL638" t="inlineStr"/>
+      <c r="AM638" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN638" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO638" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP638" t="inlineStr"/>
+      <c r="AQ638" t="inlineStr"/>
+      <c r="AR638" t="inlineStr"/>
+      <c r="AS638" t="inlineStr"/>
+      <c r="AT638" t="inlineStr"/>
+      <c r="AU638" t="inlineStr"/>
+      <c r="AV638" t="inlineStr"/>
+      <c r="AW638" t="inlineStr"/>
+      <c r="AX638" t="inlineStr"/>
+      <c r="AY638" t="inlineStr"/>
+      <c r="AZ638" t="inlineStr"/>
+      <c r="BA638" t="inlineStr"/>
+      <c r="BB638" t="inlineStr"/>
+      <c r="BC638" t="inlineStr"/>
+      <c r="BD638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>cl:10712</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>orchids</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr"/>
+      <c r="D639" t="inlineStr"/>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
+      <c r="G639" t="inlineStr"/>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>cl:10708</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>et:30315</t>
+        </is>
+      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="inlineStr"/>
+      <c r="M639" t="inlineStr"/>
+      <c r="N639" t="inlineStr"/>
+      <c r="O639" t="inlineStr"/>
+      <c r="P639" t="inlineStr"/>
+      <c r="Q639" t="inlineStr"/>
+      <c r="R639" t="inlineStr"/>
+      <c r="S639" t="inlineStr"/>
+      <c r="T639" t="inlineStr"/>
+      <c r="U639" t="inlineStr"/>
+      <c r="V639" t="inlineStr"/>
+      <c r="W639" t="inlineStr"/>
+      <c r="X639" t="inlineStr"/>
+      <c r="Y639" t="inlineStr"/>
+      <c r="Z639" t="inlineStr"/>
+      <c r="AA639" t="inlineStr"/>
+      <c r="AB639" t="inlineStr"/>
+      <c r="AC639" t="inlineStr"/>
+      <c r="AD639" t="inlineStr"/>
+      <c r="AE639" t="inlineStr"/>
+      <c r="AF639" t="inlineStr"/>
+      <c r="AG639" t="inlineStr"/>
+      <c r="AH639" t="inlineStr"/>
+      <c r="AI639" t="inlineStr"/>
+      <c r="AJ639" t="inlineStr"/>
+      <c r="AK639" t="inlineStr"/>
+      <c r="AL639" t="inlineStr"/>
+      <c r="AM639" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN639" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO639" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP639" t="inlineStr"/>
+      <c r="AQ639" t="inlineStr"/>
+      <c r="AR639" t="inlineStr"/>
+      <c r="AS639" t="inlineStr"/>
+      <c r="AT639" t="inlineStr"/>
+      <c r="AU639" t="inlineStr"/>
+      <c r="AV639" t="inlineStr"/>
+      <c r="AW639" t="inlineStr"/>
+      <c r="AX639" t="inlineStr"/>
+      <c r="AY639" t="inlineStr"/>
+      <c r="AZ639" t="inlineStr"/>
+      <c r="BA639" t="inlineStr"/>
+      <c r="BB639" t="inlineStr"/>
+      <c r="BC639" t="inlineStr"/>
+      <c r="BD639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>cl:10713</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>algae</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr"/>
+      <c r="D640" t="inlineStr"/>
+      <c r="E640" t="inlineStr"/>
+      <c r="F640" t="inlineStr"/>
+      <c r="G640" t="inlineStr"/>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>cl:10678</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>et:20587</t>
+        </is>
+      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="inlineStr"/>
+      <c r="M640" t="inlineStr"/>
+      <c r="N640" t="inlineStr"/>
+      <c r="O640" t="inlineStr"/>
+      <c r="P640" t="inlineStr"/>
+      <c r="Q640" t="inlineStr"/>
+      <c r="R640" t="inlineStr"/>
+      <c r="S640" t="inlineStr"/>
+      <c r="T640" t="inlineStr"/>
+      <c r="U640" t="inlineStr"/>
+      <c r="V640" t="inlineStr"/>
+      <c r="W640" t="inlineStr"/>
+      <c r="X640" t="inlineStr"/>
+      <c r="Y640" t="inlineStr"/>
+      <c r="Z640" t="inlineStr"/>
+      <c r="AA640" t="inlineStr"/>
+      <c r="AB640" t="inlineStr"/>
+      <c r="AC640" t="inlineStr"/>
+      <c r="AD640" t="inlineStr"/>
+      <c r="AE640" t="inlineStr"/>
+      <c r="AF640" t="inlineStr"/>
+      <c r="AG640" t="inlineStr"/>
+      <c r="AH640" t="inlineStr"/>
+      <c r="AI640" t="inlineStr"/>
+      <c r="AJ640" t="inlineStr"/>
+      <c r="AK640" t="inlineStr"/>
+      <c r="AL640" t="inlineStr"/>
+      <c r="AM640" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN640" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO640" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP640" t="inlineStr"/>
+      <c r="AQ640" t="inlineStr"/>
+      <c r="AR640" t="inlineStr"/>
+      <c r="AS640" t="inlineStr"/>
+      <c r="AT640" t="inlineStr"/>
+      <c r="AU640" t="inlineStr"/>
+      <c r="AV640" t="inlineStr"/>
+      <c r="AW640" t="inlineStr"/>
+      <c r="AX640" t="inlineStr"/>
+      <c r="AY640" t="inlineStr"/>
+      <c r="AZ640" t="inlineStr"/>
+      <c r="BA640" t="inlineStr"/>
+      <c r="BB640" t="inlineStr"/>
+      <c r="BC640" t="inlineStr"/>
+      <c r="BD640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>cl:10714</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>fungi</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr"/>
+      <c r="D641" t="inlineStr"/>
+      <c r="E641" t="inlineStr"/>
+      <c r="F641" t="inlineStr"/>
+      <c r="G641" t="inlineStr"/>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>cl:10678</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>et:20650</t>
+        </is>
+      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="inlineStr"/>
+      <c r="M641" t="inlineStr"/>
+      <c r="N641" t="inlineStr"/>
+      <c r="O641" t="inlineStr"/>
+      <c r="P641" t="inlineStr"/>
+      <c r="Q641" t="inlineStr"/>
+      <c r="R641" t="inlineStr"/>
+      <c r="S641" t="inlineStr"/>
+      <c r="T641" t="inlineStr"/>
+      <c r="U641" t="inlineStr"/>
+      <c r="V641" t="inlineStr"/>
+      <c r="W641" t="inlineStr"/>
+      <c r="X641" t="inlineStr"/>
+      <c r="Y641" t="inlineStr"/>
+      <c r="Z641" t="inlineStr"/>
+      <c r="AA641" t="inlineStr"/>
+      <c r="AB641" t="inlineStr"/>
+      <c r="AC641" t="inlineStr"/>
+      <c r="AD641" t="inlineStr"/>
+      <c r="AE641" t="inlineStr"/>
+      <c r="AF641" t="inlineStr"/>
+      <c r="AG641" t="inlineStr"/>
+      <c r="AH641" t="inlineStr"/>
+      <c r="AI641" t="inlineStr"/>
+      <c r="AJ641" t="inlineStr"/>
+      <c r="AK641" t="inlineStr"/>
+      <c r="AL641" t="inlineStr"/>
+      <c r="AM641" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN641" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO641" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP641" t="inlineStr"/>
+      <c r="AQ641" t="inlineStr"/>
+      <c r="AR641" t="inlineStr"/>
+      <c r="AS641" t="inlineStr"/>
+      <c r="AT641" t="inlineStr"/>
+      <c r="AU641" t="inlineStr"/>
+      <c r="AV641" t="inlineStr"/>
+      <c r="AW641" t="inlineStr"/>
+      <c r="AX641" t="inlineStr"/>
+      <c r="AY641" t="inlineStr"/>
+      <c r="AZ641" t="inlineStr"/>
+      <c r="BA641" t="inlineStr"/>
+      <c r="BB641" t="inlineStr"/>
+      <c r="BC641" t="inlineStr"/>
+      <c r="BD641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>cl:10715</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>lichens</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr"/>
+      <c r="D642" t="inlineStr"/>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr"/>
+      <c r="G642" t="inlineStr"/>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>cl:10678</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>et:20660</t>
+        </is>
+      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="inlineStr"/>
+      <c r="M642" t="inlineStr"/>
+      <c r="N642" t="inlineStr"/>
+      <c r="O642" t="inlineStr"/>
+      <c r="P642" t="inlineStr"/>
+      <c r="Q642" t="inlineStr"/>
+      <c r="R642" t="inlineStr"/>
+      <c r="S642" t="inlineStr"/>
+      <c r="T642" t="inlineStr"/>
+      <c r="U642" t="inlineStr"/>
+      <c r="V642" t="inlineStr"/>
+      <c r="W642" t="inlineStr"/>
+      <c r="X642" t="inlineStr"/>
+      <c r="Y642" t="inlineStr"/>
+      <c r="Z642" t="inlineStr"/>
+      <c r="AA642" t="inlineStr"/>
+      <c r="AB642" t="inlineStr"/>
+      <c r="AC642" t="inlineStr"/>
+      <c r="AD642" t="inlineStr"/>
+      <c r="AE642" t="inlineStr"/>
+      <c r="AF642" t="inlineStr"/>
+      <c r="AG642" t="inlineStr"/>
+      <c r="AH642" t="inlineStr"/>
+      <c r="AI642" t="inlineStr"/>
+      <c r="AJ642" t="inlineStr"/>
+      <c r="AK642" t="inlineStr"/>
+      <c r="AL642" t="inlineStr"/>
+      <c r="AM642" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN642" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO642" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP642" t="inlineStr"/>
+      <c r="AQ642" t="inlineStr"/>
+      <c r="AR642" t="inlineStr"/>
+      <c r="AS642" t="inlineStr"/>
+      <c r="AT642" t="inlineStr"/>
+      <c r="AU642" t="inlineStr"/>
+      <c r="AV642" t="inlineStr"/>
+      <c r="AW642" t="inlineStr"/>
+      <c r="AX642" t="inlineStr"/>
+      <c r="AY642" t="inlineStr"/>
+      <c r="AZ642" t="inlineStr"/>
+      <c r="BA642" t="inlineStr"/>
+      <c r="BB642" t="inlineStr"/>
+      <c r="BC642" t="inlineStr"/>
+      <c r="BD642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>cl:10716</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>bacteria</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr"/>
+      <c r="D643" t="inlineStr"/>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="inlineStr"/>
+      <c r="G643" t="inlineStr"/>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>cl:10678</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>et:20662</t>
+        </is>
+      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="inlineStr"/>
+      <c r="M643" t="inlineStr"/>
+      <c r="N643" t="inlineStr"/>
+      <c r="O643" t="inlineStr"/>
+      <c r="P643" t="inlineStr"/>
+      <c r="Q643" t="inlineStr"/>
+      <c r="R643" t="inlineStr"/>
+      <c r="S643" t="inlineStr"/>
+      <c r="T643" t="inlineStr"/>
+      <c r="U643" t="inlineStr"/>
+      <c r="V643" t="inlineStr"/>
+      <c r="W643" t="inlineStr"/>
+      <c r="X643" t="inlineStr"/>
+      <c r="Y643" t="inlineStr"/>
+      <c r="Z643" t="inlineStr"/>
+      <c r="AA643" t="inlineStr"/>
+      <c r="AB643" t="inlineStr"/>
+      <c r="AC643" t="inlineStr"/>
+      <c r="AD643" t="inlineStr"/>
+      <c r="AE643" t="inlineStr"/>
+      <c r="AF643" t="inlineStr"/>
+      <c r="AG643" t="inlineStr"/>
+      <c r="AH643" t="inlineStr"/>
+      <c r="AI643" t="inlineStr"/>
+      <c r="AJ643" t="inlineStr"/>
+      <c r="AK643" t="inlineStr"/>
+      <c r="AL643" t="inlineStr"/>
+      <c r="AM643" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN643" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO643" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP643" t="inlineStr"/>
+      <c r="AQ643" t="inlineStr"/>
+      <c r="AR643" t="inlineStr"/>
+      <c r="AS643" t="inlineStr"/>
+      <c r="AT643" t="inlineStr"/>
+      <c r="AU643" t="inlineStr"/>
+      <c r="AV643" t="inlineStr"/>
+      <c r="AW643" t="inlineStr"/>
+      <c r="AX643" t="inlineStr"/>
+      <c r="AY643" t="inlineStr"/>
+      <c r="AZ643" t="inlineStr"/>
+      <c r="BA643" t="inlineStr"/>
+      <c r="BB643" t="inlineStr"/>
+      <c r="BC643" t="inlineStr"/>
+      <c r="BD643" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD643"/>
+  <dimension ref="A1:BD646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55743,6 +55743,264 @@
       <c r="BC643" t="inlineStr"/>
       <c r="BD643" t="inlineStr"/>
     </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>cl:10717</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>reptiles</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr"/>
+      <c r="E644" t="inlineStr"/>
+      <c r="F644" t="inlineStr"/>
+      <c r="G644" t="inlineStr"/>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>cl:10674</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>et:20640</t>
+        </is>
+      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="inlineStr"/>
+      <c r="M644" t="inlineStr"/>
+      <c r="N644" t="inlineStr"/>
+      <c r="O644" t="inlineStr"/>
+      <c r="P644" t="inlineStr"/>
+      <c r="Q644" t="inlineStr"/>
+      <c r="R644" t="inlineStr"/>
+      <c r="S644" t="inlineStr"/>
+      <c r="T644" t="inlineStr"/>
+      <c r="U644" t="inlineStr"/>
+      <c r="V644" t="inlineStr"/>
+      <c r="W644" t="inlineStr"/>
+      <c r="X644" t="inlineStr"/>
+      <c r="Y644" t="inlineStr"/>
+      <c r="Z644" t="inlineStr"/>
+      <c r="AA644" t="inlineStr"/>
+      <c r="AB644" t="inlineStr"/>
+      <c r="AC644" t="inlineStr"/>
+      <c r="AD644" t="inlineStr"/>
+      <c r="AE644" t="inlineStr"/>
+      <c r="AF644" t="inlineStr"/>
+      <c r="AG644" t="inlineStr"/>
+      <c r="AH644" t="inlineStr"/>
+      <c r="AI644" t="inlineStr"/>
+      <c r="AJ644" t="inlineStr"/>
+      <c r="AK644" t="inlineStr"/>
+      <c r="AL644" t="inlineStr"/>
+      <c r="AM644" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN644" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO644" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP644" t="inlineStr"/>
+      <c r="AQ644" t="inlineStr"/>
+      <c r="AR644" t="inlineStr"/>
+      <c r="AS644" t="inlineStr"/>
+      <c r="AT644" t="inlineStr"/>
+      <c r="AU644" t="inlineStr"/>
+      <c r="AV644" t="inlineStr"/>
+      <c r="AW644" t="inlineStr"/>
+      <c r="AX644" t="inlineStr"/>
+      <c r="AY644" t="inlineStr"/>
+      <c r="AZ644" t="inlineStr"/>
+      <c r="BA644" t="inlineStr"/>
+      <c r="BB644" t="inlineStr"/>
+      <c r="BC644" t="inlineStr"/>
+      <c r="BD644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>cl:10718</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>amphibians</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr"/>
+      <c r="D645" t="inlineStr"/>
+      <c r="E645" t="inlineStr"/>
+      <c r="F645" t="inlineStr"/>
+      <c r="G645" t="inlineStr"/>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>cl:10674</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>et:20624</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="inlineStr"/>
+      <c r="M645" t="inlineStr"/>
+      <c r="N645" t="inlineStr"/>
+      <c r="O645" t="inlineStr"/>
+      <c r="P645" t="inlineStr"/>
+      <c r="Q645" t="inlineStr"/>
+      <c r="R645" t="inlineStr"/>
+      <c r="S645" t="inlineStr"/>
+      <c r="T645" t="inlineStr"/>
+      <c r="U645" t="inlineStr"/>
+      <c r="V645" t="inlineStr"/>
+      <c r="W645" t="inlineStr"/>
+      <c r="X645" t="inlineStr"/>
+      <c r="Y645" t="inlineStr"/>
+      <c r="Z645" t="inlineStr"/>
+      <c r="AA645" t="inlineStr"/>
+      <c r="AB645" t="inlineStr"/>
+      <c r="AC645" t="inlineStr"/>
+      <c r="AD645" t="inlineStr"/>
+      <c r="AE645" t="inlineStr"/>
+      <c r="AF645" t="inlineStr"/>
+      <c r="AG645" t="inlineStr"/>
+      <c r="AH645" t="inlineStr"/>
+      <c r="AI645" t="inlineStr"/>
+      <c r="AJ645" t="inlineStr"/>
+      <c r="AK645" t="inlineStr"/>
+      <c r="AL645" t="inlineStr"/>
+      <c r="AM645" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN645" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO645" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP645" t="inlineStr"/>
+      <c r="AQ645" t="inlineStr"/>
+      <c r="AR645" t="inlineStr"/>
+      <c r="AS645" t="inlineStr"/>
+      <c r="AT645" t="inlineStr"/>
+      <c r="AU645" t="inlineStr"/>
+      <c r="AV645" t="inlineStr"/>
+      <c r="AW645" t="inlineStr"/>
+      <c r="AX645" t="inlineStr"/>
+      <c r="AY645" t="inlineStr"/>
+      <c r="AZ645" t="inlineStr"/>
+      <c r="BA645" t="inlineStr"/>
+      <c r="BB645" t="inlineStr"/>
+      <c r="BC645" t="inlineStr"/>
+      <c r="BD645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>cl:10719</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>fishes</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr"/>
+      <c r="D646" t="inlineStr"/>
+      <c r="E646" t="inlineStr"/>
+      <c r="F646" t="inlineStr"/>
+      <c r="G646" t="inlineStr"/>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>cl:10674</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>et:20633</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="inlineStr"/>
+      <c r="M646" t="inlineStr"/>
+      <c r="N646" t="inlineStr"/>
+      <c r="O646" t="inlineStr"/>
+      <c r="P646" t="inlineStr"/>
+      <c r="Q646" t="inlineStr"/>
+      <c r="R646" t="inlineStr"/>
+      <c r="S646" t="inlineStr"/>
+      <c r="T646" t="inlineStr"/>
+      <c r="U646" t="inlineStr"/>
+      <c r="V646" t="inlineStr"/>
+      <c r="W646" t="inlineStr"/>
+      <c r="X646" t="inlineStr"/>
+      <c r="Y646" t="inlineStr"/>
+      <c r="Z646" t="inlineStr"/>
+      <c r="AA646" t="inlineStr"/>
+      <c r="AB646" t="inlineStr"/>
+      <c r="AC646" t="inlineStr"/>
+      <c r="AD646" t="inlineStr"/>
+      <c r="AE646" t="inlineStr"/>
+      <c r="AF646" t="inlineStr"/>
+      <c r="AG646" t="inlineStr"/>
+      <c r="AH646" t="inlineStr"/>
+      <c r="AI646" t="inlineStr"/>
+      <c r="AJ646" t="inlineStr"/>
+      <c r="AK646" t="inlineStr"/>
+      <c r="AL646" t="inlineStr"/>
+      <c r="AM646" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN646" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO646" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP646" t="inlineStr"/>
+      <c r="AQ646" t="inlineStr"/>
+      <c r="AR646" t="inlineStr"/>
+      <c r="AS646" t="inlineStr"/>
+      <c r="AT646" t="inlineStr"/>
+      <c r="AU646" t="inlineStr"/>
+      <c r="AV646" t="inlineStr"/>
+      <c r="AW646" t="inlineStr"/>
+      <c r="AX646" t="inlineStr"/>
+      <c r="AY646" t="inlineStr"/>
+      <c r="AZ646" t="inlineStr"/>
+      <c r="BA646" t="inlineStr"/>
+      <c r="BB646" t="inlineStr"/>
+      <c r="BC646" t="inlineStr"/>
+      <c r="BD646" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD646"/>
+  <dimension ref="A1:BD666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56001,6 +56001,1642 @@
       <c r="BC646" t="inlineStr"/>
       <c r="BD646" t="inlineStr"/>
     </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>cl:10720</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>contact role</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr"/>
+      <c r="D647" t="inlineStr"/>
+      <c r="E647" t="inlineStr"/>
+      <c r="F647" t="inlineStr"/>
+      <c r="G647" t="inlineStr"/>
+      <c r="H647" t="inlineStr"/>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="inlineStr"/>
+      <c r="M647" t="inlineStr"/>
+      <c r="N647" t="inlineStr"/>
+      <c r="O647" t="inlineStr"/>
+      <c r="P647" t="inlineStr"/>
+      <c r="Q647" t="inlineStr"/>
+      <c r="R647" t="inlineStr"/>
+      <c r="S647" t="inlineStr"/>
+      <c r="T647" t="inlineStr"/>
+      <c r="U647" t="inlineStr"/>
+      <c r="V647" t="inlineStr"/>
+      <c r="W647" t="inlineStr"/>
+      <c r="X647" t="inlineStr"/>
+      <c r="Y647" t="inlineStr"/>
+      <c r="Z647" t="inlineStr"/>
+      <c r="AA647" t="inlineStr"/>
+      <c r="AB647" t="inlineStr"/>
+      <c r="AC647" t="inlineStr"/>
+      <c r="AD647" t="inlineStr"/>
+      <c r="AE647" t="inlineStr"/>
+      <c r="AF647" t="inlineStr"/>
+      <c r="AG647" t="inlineStr"/>
+      <c r="AH647" t="inlineStr"/>
+      <c r="AI647" t="inlineStr"/>
+      <c r="AJ647" t="inlineStr"/>
+      <c r="AK647" t="inlineStr"/>
+      <c r="AL647" t="inlineStr"/>
+      <c r="AM647" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN647" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO647" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP647" t="inlineStr"/>
+      <c r="AQ647" t="inlineStr"/>
+      <c r="AR647" t="inlineStr"/>
+      <c r="AS647" t="inlineStr"/>
+      <c r="AT647" t="inlineStr"/>
+      <c r="AU647" t="inlineStr"/>
+      <c r="AV647" t="inlineStr"/>
+      <c r="AW647" t="inlineStr"/>
+      <c r="AX647" t="inlineStr"/>
+      <c r="AY647" t="inlineStr"/>
+      <c r="AZ647" t="inlineStr"/>
+      <c r="BA647" t="inlineStr"/>
+      <c r="BB647" t="inlineStr"/>
+      <c r="BC647" t="inlineStr"/>
+      <c r="BD647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>cl:10721</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr"/>
+      <c r="D648" t="inlineStr"/>
+      <c r="E648" t="inlineStr"/>
+      <c r="F648" t="inlineStr"/>
+      <c r="G648" t="inlineStr"/>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="inlineStr"/>
+      <c r="M648" t="inlineStr"/>
+      <c r="N648" t="inlineStr"/>
+      <c r="O648" t="inlineStr"/>
+      <c r="P648" t="inlineStr"/>
+      <c r="Q648" t="inlineStr"/>
+      <c r="R648" t="inlineStr"/>
+      <c r="S648" t="inlineStr"/>
+      <c r="T648" t="inlineStr"/>
+      <c r="U648" t="inlineStr"/>
+      <c r="V648" t="inlineStr"/>
+      <c r="W648" t="inlineStr"/>
+      <c r="X648" t="inlineStr"/>
+      <c r="Y648" t="inlineStr"/>
+      <c r="Z648" t="inlineStr"/>
+      <c r="AA648" t="inlineStr"/>
+      <c r="AB648" t="inlineStr"/>
+      <c r="AC648" t="inlineStr"/>
+      <c r="AD648" t="inlineStr"/>
+      <c r="AE648" t="inlineStr"/>
+      <c r="AF648" t="inlineStr"/>
+      <c r="AG648" t="inlineStr"/>
+      <c r="AH648" t="inlineStr"/>
+      <c r="AI648" t="inlineStr"/>
+      <c r="AJ648" t="inlineStr"/>
+      <c r="AK648" t="inlineStr"/>
+      <c r="AL648" t="inlineStr"/>
+      <c r="AM648" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN648" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO648" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP648" t="inlineStr"/>
+      <c r="AQ648" t="inlineStr"/>
+      <c r="AR648" t="inlineStr"/>
+      <c r="AS648" t="inlineStr"/>
+      <c r="AT648" t="inlineStr"/>
+      <c r="AU648" t="inlineStr"/>
+      <c r="AV648" t="inlineStr"/>
+      <c r="AW648" t="inlineStr"/>
+      <c r="AX648" t="inlineStr"/>
+      <c r="AY648" t="inlineStr"/>
+      <c r="AZ648" t="inlineStr"/>
+      <c r="BA648" t="inlineStr"/>
+      <c r="BB648" t="inlineStr"/>
+      <c r="BC648" t="inlineStr"/>
+      <c r="BD648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>cl:10722</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr"/>
+      <c r="D649" t="inlineStr"/>
+      <c r="E649" t="inlineStr"/>
+      <c r="F649" t="inlineStr"/>
+      <c r="G649" t="inlineStr"/>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="inlineStr"/>
+      <c r="M649" t="inlineStr"/>
+      <c r="N649" t="inlineStr"/>
+      <c r="O649" t="inlineStr"/>
+      <c r="P649" t="inlineStr"/>
+      <c r="Q649" t="inlineStr"/>
+      <c r="R649" t="inlineStr"/>
+      <c r="S649" t="inlineStr"/>
+      <c r="T649" t="inlineStr"/>
+      <c r="U649" t="inlineStr"/>
+      <c r="V649" t="inlineStr"/>
+      <c r="W649" t="inlineStr"/>
+      <c r="X649" t="inlineStr"/>
+      <c r="Y649" t="inlineStr"/>
+      <c r="Z649" t="inlineStr"/>
+      <c r="AA649" t="inlineStr"/>
+      <c r="AB649" t="inlineStr"/>
+      <c r="AC649" t="inlineStr"/>
+      <c r="AD649" t="inlineStr"/>
+      <c r="AE649" t="inlineStr"/>
+      <c r="AF649" t="inlineStr"/>
+      <c r="AG649" t="inlineStr"/>
+      <c r="AH649" t="inlineStr"/>
+      <c r="AI649" t="inlineStr"/>
+      <c r="AJ649" t="inlineStr"/>
+      <c r="AK649" t="inlineStr"/>
+      <c r="AL649" t="inlineStr"/>
+      <c r="AM649" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN649" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO649" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP649" t="inlineStr"/>
+      <c r="AQ649" t="inlineStr"/>
+      <c r="AR649" t="inlineStr"/>
+      <c r="AS649" t="inlineStr"/>
+      <c r="AT649" t="inlineStr"/>
+      <c r="AU649" t="inlineStr"/>
+      <c r="AV649" t="inlineStr"/>
+      <c r="AW649" t="inlineStr"/>
+      <c r="AX649" t="inlineStr"/>
+      <c r="AY649" t="inlineStr"/>
+      <c r="AZ649" t="inlineStr"/>
+      <c r="BA649" t="inlineStr"/>
+      <c r="BB649" t="inlineStr"/>
+      <c r="BC649" t="inlineStr"/>
+      <c r="BD649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>cl:10723</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>coAuthor</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr"/>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr"/>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="inlineStr"/>
+      <c r="M650" t="inlineStr"/>
+      <c r="N650" t="inlineStr"/>
+      <c r="O650" t="inlineStr"/>
+      <c r="P650" t="inlineStr"/>
+      <c r="Q650" t="inlineStr"/>
+      <c r="R650" t="inlineStr"/>
+      <c r="S650" t="inlineStr"/>
+      <c r="T650" t="inlineStr"/>
+      <c r="U650" t="inlineStr"/>
+      <c r="V650" t="inlineStr"/>
+      <c r="W650" t="inlineStr"/>
+      <c r="X650" t="inlineStr"/>
+      <c r="Y650" t="inlineStr"/>
+      <c r="Z650" t="inlineStr"/>
+      <c r="AA650" t="inlineStr"/>
+      <c r="AB650" t="inlineStr"/>
+      <c r="AC650" t="inlineStr"/>
+      <c r="AD650" t="inlineStr"/>
+      <c r="AE650" t="inlineStr"/>
+      <c r="AF650" t="inlineStr"/>
+      <c r="AG650" t="inlineStr"/>
+      <c r="AH650" t="inlineStr"/>
+      <c r="AI650" t="inlineStr"/>
+      <c r="AJ650" t="inlineStr"/>
+      <c r="AK650" t="inlineStr"/>
+      <c r="AL650" t="inlineStr"/>
+      <c r="AM650" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN650" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO650" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP650" t="inlineStr"/>
+      <c r="AQ650" t="inlineStr"/>
+      <c r="AR650" t="inlineStr"/>
+      <c r="AS650" t="inlineStr"/>
+      <c r="AT650" t="inlineStr"/>
+      <c r="AU650" t="inlineStr"/>
+      <c r="AV650" t="inlineStr"/>
+      <c r="AW650" t="inlineStr"/>
+      <c r="AX650" t="inlineStr"/>
+      <c r="AY650" t="inlineStr"/>
+      <c r="AZ650" t="inlineStr"/>
+      <c r="BA650" t="inlineStr"/>
+      <c r="BB650" t="inlineStr"/>
+      <c r="BC650" t="inlineStr"/>
+      <c r="BD650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>cl:10724</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>collaborator</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr"/>
+      <c r="D651" t="inlineStr"/>
+      <c r="E651" t="inlineStr"/>
+      <c r="F651" t="inlineStr"/>
+      <c r="G651" t="inlineStr"/>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="inlineStr"/>
+      <c r="M651" t="inlineStr"/>
+      <c r="N651" t="inlineStr"/>
+      <c r="O651" t="inlineStr"/>
+      <c r="P651" t="inlineStr"/>
+      <c r="Q651" t="inlineStr"/>
+      <c r="R651" t="inlineStr"/>
+      <c r="S651" t="inlineStr"/>
+      <c r="T651" t="inlineStr"/>
+      <c r="U651" t="inlineStr"/>
+      <c r="V651" t="inlineStr"/>
+      <c r="W651" t="inlineStr"/>
+      <c r="X651" t="inlineStr"/>
+      <c r="Y651" t="inlineStr"/>
+      <c r="Z651" t="inlineStr"/>
+      <c r="AA651" t="inlineStr"/>
+      <c r="AB651" t="inlineStr"/>
+      <c r="AC651" t="inlineStr"/>
+      <c r="AD651" t="inlineStr"/>
+      <c r="AE651" t="inlineStr"/>
+      <c r="AF651" t="inlineStr"/>
+      <c r="AG651" t="inlineStr"/>
+      <c r="AH651" t="inlineStr"/>
+      <c r="AI651" t="inlineStr"/>
+      <c r="AJ651" t="inlineStr"/>
+      <c r="AK651" t="inlineStr"/>
+      <c r="AL651" t="inlineStr"/>
+      <c r="AM651" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN651" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO651" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP651" t="inlineStr"/>
+      <c r="AQ651" t="inlineStr"/>
+      <c r="AR651" t="inlineStr"/>
+      <c r="AS651" t="inlineStr"/>
+      <c r="AT651" t="inlineStr"/>
+      <c r="AU651" t="inlineStr"/>
+      <c r="AV651" t="inlineStr"/>
+      <c r="AW651" t="inlineStr"/>
+      <c r="AX651" t="inlineStr"/>
+      <c r="AY651" t="inlineStr"/>
+      <c r="AZ651" t="inlineStr"/>
+      <c r="BA651" t="inlineStr"/>
+      <c r="BB651" t="inlineStr"/>
+      <c r="BC651" t="inlineStr"/>
+      <c r="BD651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>cl:10725</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>contributor</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr"/>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr"/>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="inlineStr"/>
+      <c r="M652" t="inlineStr"/>
+      <c r="N652" t="inlineStr"/>
+      <c r="O652" t="inlineStr"/>
+      <c r="P652" t="inlineStr"/>
+      <c r="Q652" t="inlineStr"/>
+      <c r="R652" t="inlineStr"/>
+      <c r="S652" t="inlineStr"/>
+      <c r="T652" t="inlineStr"/>
+      <c r="U652" t="inlineStr"/>
+      <c r="V652" t="inlineStr"/>
+      <c r="W652" t="inlineStr"/>
+      <c r="X652" t="inlineStr"/>
+      <c r="Y652" t="inlineStr"/>
+      <c r="Z652" t="inlineStr"/>
+      <c r="AA652" t="inlineStr"/>
+      <c r="AB652" t="inlineStr"/>
+      <c r="AC652" t="inlineStr"/>
+      <c r="AD652" t="inlineStr"/>
+      <c r="AE652" t="inlineStr"/>
+      <c r="AF652" t="inlineStr"/>
+      <c r="AG652" t="inlineStr"/>
+      <c r="AH652" t="inlineStr"/>
+      <c r="AI652" t="inlineStr"/>
+      <c r="AJ652" t="inlineStr"/>
+      <c r="AK652" t="inlineStr"/>
+      <c r="AL652" t="inlineStr"/>
+      <c r="AM652" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN652" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO652" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP652" t="inlineStr"/>
+      <c r="AQ652" t="inlineStr"/>
+      <c r="AR652" t="inlineStr"/>
+      <c r="AS652" t="inlineStr"/>
+      <c r="AT652" t="inlineStr"/>
+      <c r="AU652" t="inlineStr"/>
+      <c r="AV652" t="inlineStr"/>
+      <c r="AW652" t="inlineStr"/>
+      <c r="AX652" t="inlineStr"/>
+      <c r="AY652" t="inlineStr"/>
+      <c r="AZ652" t="inlineStr"/>
+      <c r="BA652" t="inlineStr"/>
+      <c r="BB652" t="inlineStr"/>
+      <c r="BC652" t="inlineStr"/>
+      <c r="BD652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>cl:10726</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>custodian</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr"/>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="inlineStr"/>
+      <c r="G653" t="inlineStr"/>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="inlineStr"/>
+      <c r="M653" t="inlineStr"/>
+      <c r="N653" t="inlineStr"/>
+      <c r="O653" t="inlineStr"/>
+      <c r="P653" t="inlineStr"/>
+      <c r="Q653" t="inlineStr"/>
+      <c r="R653" t="inlineStr"/>
+      <c r="S653" t="inlineStr"/>
+      <c r="T653" t="inlineStr"/>
+      <c r="U653" t="inlineStr"/>
+      <c r="V653" t="inlineStr"/>
+      <c r="W653" t="inlineStr"/>
+      <c r="X653" t="inlineStr"/>
+      <c r="Y653" t="inlineStr"/>
+      <c r="Z653" t="inlineStr"/>
+      <c r="AA653" t="inlineStr"/>
+      <c r="AB653" t="inlineStr"/>
+      <c r="AC653" t="inlineStr"/>
+      <c r="AD653" t="inlineStr"/>
+      <c r="AE653" t="inlineStr"/>
+      <c r="AF653" t="inlineStr"/>
+      <c r="AG653" t="inlineStr"/>
+      <c r="AH653" t="inlineStr"/>
+      <c r="AI653" t="inlineStr"/>
+      <c r="AJ653" t="inlineStr"/>
+      <c r="AK653" t="inlineStr"/>
+      <c r="AL653" t="inlineStr"/>
+      <c r="AM653" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN653" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO653" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP653" t="inlineStr"/>
+      <c r="AQ653" t="inlineStr"/>
+      <c r="AR653" t="inlineStr"/>
+      <c r="AS653" t="inlineStr"/>
+      <c r="AT653" t="inlineStr"/>
+      <c r="AU653" t="inlineStr"/>
+      <c r="AV653" t="inlineStr"/>
+      <c r="AW653" t="inlineStr"/>
+      <c r="AX653" t="inlineStr"/>
+      <c r="AY653" t="inlineStr"/>
+      <c r="AZ653" t="inlineStr"/>
+      <c r="BA653" t="inlineStr"/>
+      <c r="BB653" t="inlineStr"/>
+      <c r="BC653" t="inlineStr"/>
+      <c r="BD653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>cl:10727</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="inlineStr"/>
+      <c r="E654" t="inlineStr"/>
+      <c r="F654" t="inlineStr"/>
+      <c r="G654" t="inlineStr"/>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="inlineStr"/>
+      <c r="M654" t="inlineStr"/>
+      <c r="N654" t="inlineStr"/>
+      <c r="O654" t="inlineStr"/>
+      <c r="P654" t="inlineStr"/>
+      <c r="Q654" t="inlineStr"/>
+      <c r="R654" t="inlineStr"/>
+      <c r="S654" t="inlineStr"/>
+      <c r="T654" t="inlineStr"/>
+      <c r="U654" t="inlineStr"/>
+      <c r="V654" t="inlineStr"/>
+      <c r="W654" t="inlineStr"/>
+      <c r="X654" t="inlineStr"/>
+      <c r="Y654" t="inlineStr"/>
+      <c r="Z654" t="inlineStr"/>
+      <c r="AA654" t="inlineStr"/>
+      <c r="AB654" t="inlineStr"/>
+      <c r="AC654" t="inlineStr"/>
+      <c r="AD654" t="inlineStr"/>
+      <c r="AE654" t="inlineStr"/>
+      <c r="AF654" t="inlineStr"/>
+      <c r="AG654" t="inlineStr"/>
+      <c r="AH654" t="inlineStr"/>
+      <c r="AI654" t="inlineStr"/>
+      <c r="AJ654" t="inlineStr"/>
+      <c r="AK654" t="inlineStr"/>
+      <c r="AL654" t="inlineStr"/>
+      <c r="AM654" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN654" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO654" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP654" t="inlineStr"/>
+      <c r="AQ654" t="inlineStr"/>
+      <c r="AR654" t="inlineStr"/>
+      <c r="AS654" t="inlineStr"/>
+      <c r="AT654" t="inlineStr"/>
+      <c r="AU654" t="inlineStr"/>
+      <c r="AV654" t="inlineStr"/>
+      <c r="AW654" t="inlineStr"/>
+      <c r="AX654" t="inlineStr"/>
+      <c r="AY654" t="inlineStr"/>
+      <c r="AZ654" t="inlineStr"/>
+      <c r="BA654" t="inlineStr"/>
+      <c r="BB654" t="inlineStr"/>
+      <c r="BC654" t="inlineStr"/>
+      <c r="BD654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>cl:10728</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>editor</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr"/>
+      <c r="E655" t="inlineStr"/>
+      <c r="F655" t="inlineStr"/>
+      <c r="G655" t="inlineStr"/>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="inlineStr"/>
+      <c r="M655" t="inlineStr"/>
+      <c r="N655" t="inlineStr"/>
+      <c r="O655" t="inlineStr"/>
+      <c r="P655" t="inlineStr"/>
+      <c r="Q655" t="inlineStr"/>
+      <c r="R655" t="inlineStr"/>
+      <c r="S655" t="inlineStr"/>
+      <c r="T655" t="inlineStr"/>
+      <c r="U655" t="inlineStr"/>
+      <c r="V655" t="inlineStr"/>
+      <c r="W655" t="inlineStr"/>
+      <c r="X655" t="inlineStr"/>
+      <c r="Y655" t="inlineStr"/>
+      <c r="Z655" t="inlineStr"/>
+      <c r="AA655" t="inlineStr"/>
+      <c r="AB655" t="inlineStr"/>
+      <c r="AC655" t="inlineStr"/>
+      <c r="AD655" t="inlineStr"/>
+      <c r="AE655" t="inlineStr"/>
+      <c r="AF655" t="inlineStr"/>
+      <c r="AG655" t="inlineStr"/>
+      <c r="AH655" t="inlineStr"/>
+      <c r="AI655" t="inlineStr"/>
+      <c r="AJ655" t="inlineStr"/>
+      <c r="AK655" t="inlineStr"/>
+      <c r="AL655" t="inlineStr"/>
+      <c r="AM655" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN655" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO655" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP655" t="inlineStr"/>
+      <c r="AQ655" t="inlineStr"/>
+      <c r="AR655" t="inlineStr"/>
+      <c r="AS655" t="inlineStr"/>
+      <c r="AT655" t="inlineStr"/>
+      <c r="AU655" t="inlineStr"/>
+      <c r="AV655" t="inlineStr"/>
+      <c r="AW655" t="inlineStr"/>
+      <c r="AX655" t="inlineStr"/>
+      <c r="AY655" t="inlineStr"/>
+      <c r="AZ655" t="inlineStr"/>
+      <c r="BA655" t="inlineStr"/>
+      <c r="BB655" t="inlineStr"/>
+      <c r="BC655" t="inlineStr"/>
+      <c r="BD655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>cl:10729</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>funder</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr"/>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="inlineStr"/>
+      <c r="M656" t="inlineStr"/>
+      <c r="N656" t="inlineStr"/>
+      <c r="O656" t="inlineStr"/>
+      <c r="P656" t="inlineStr"/>
+      <c r="Q656" t="inlineStr"/>
+      <c r="R656" t="inlineStr"/>
+      <c r="S656" t="inlineStr"/>
+      <c r="T656" t="inlineStr"/>
+      <c r="U656" t="inlineStr"/>
+      <c r="V656" t="inlineStr"/>
+      <c r="W656" t="inlineStr"/>
+      <c r="X656" t="inlineStr"/>
+      <c r="Y656" t="inlineStr"/>
+      <c r="Z656" t="inlineStr"/>
+      <c r="AA656" t="inlineStr"/>
+      <c r="AB656" t="inlineStr"/>
+      <c r="AC656" t="inlineStr"/>
+      <c r="AD656" t="inlineStr"/>
+      <c r="AE656" t="inlineStr"/>
+      <c r="AF656" t="inlineStr"/>
+      <c r="AG656" t="inlineStr"/>
+      <c r="AH656" t="inlineStr"/>
+      <c r="AI656" t="inlineStr"/>
+      <c r="AJ656" t="inlineStr"/>
+      <c r="AK656" t="inlineStr"/>
+      <c r="AL656" t="inlineStr"/>
+      <c r="AM656" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN656" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO656" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP656" t="inlineStr"/>
+      <c r="AQ656" t="inlineStr"/>
+      <c r="AR656" t="inlineStr"/>
+      <c r="AS656" t="inlineStr"/>
+      <c r="AT656" t="inlineStr"/>
+      <c r="AU656" t="inlineStr"/>
+      <c r="AV656" t="inlineStr"/>
+      <c r="AW656" t="inlineStr"/>
+      <c r="AX656" t="inlineStr"/>
+      <c r="AY656" t="inlineStr"/>
+      <c r="AZ656" t="inlineStr"/>
+      <c r="BA656" t="inlineStr"/>
+      <c r="BB656" t="inlineStr"/>
+      <c r="BC656" t="inlineStr"/>
+      <c r="BD656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>cl:10730</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>mediator</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="inlineStr"/>
+      <c r="F657" t="inlineStr"/>
+      <c r="G657" t="inlineStr"/>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
+      <c r="L657" t="inlineStr"/>
+      <c r="M657" t="inlineStr"/>
+      <c r="N657" t="inlineStr"/>
+      <c r="O657" t="inlineStr"/>
+      <c r="P657" t="inlineStr"/>
+      <c r="Q657" t="inlineStr"/>
+      <c r="R657" t="inlineStr"/>
+      <c r="S657" t="inlineStr"/>
+      <c r="T657" t="inlineStr"/>
+      <c r="U657" t="inlineStr"/>
+      <c r="V657" t="inlineStr"/>
+      <c r="W657" t="inlineStr"/>
+      <c r="X657" t="inlineStr"/>
+      <c r="Y657" t="inlineStr"/>
+      <c r="Z657" t="inlineStr"/>
+      <c r="AA657" t="inlineStr"/>
+      <c r="AB657" t="inlineStr"/>
+      <c r="AC657" t="inlineStr"/>
+      <c r="AD657" t="inlineStr"/>
+      <c r="AE657" t="inlineStr"/>
+      <c r="AF657" t="inlineStr"/>
+      <c r="AG657" t="inlineStr"/>
+      <c r="AH657" t="inlineStr"/>
+      <c r="AI657" t="inlineStr"/>
+      <c r="AJ657" t="inlineStr"/>
+      <c r="AK657" t="inlineStr"/>
+      <c r="AL657" t="inlineStr"/>
+      <c r="AM657" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN657" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO657" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP657" t="inlineStr"/>
+      <c r="AQ657" t="inlineStr"/>
+      <c r="AR657" t="inlineStr"/>
+      <c r="AS657" t="inlineStr"/>
+      <c r="AT657" t="inlineStr"/>
+      <c r="AU657" t="inlineStr"/>
+      <c r="AV657" t="inlineStr"/>
+      <c r="AW657" t="inlineStr"/>
+      <c r="AX657" t="inlineStr"/>
+      <c r="AY657" t="inlineStr"/>
+      <c r="AZ657" t="inlineStr"/>
+      <c r="BA657" t="inlineStr"/>
+      <c r="BB657" t="inlineStr"/>
+      <c r="BC657" t="inlineStr"/>
+      <c r="BD657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>cl:10731</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>originator</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr"/>
+      <c r="E658" t="inlineStr"/>
+      <c r="F658" t="inlineStr"/>
+      <c r="G658" t="inlineStr"/>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
+      <c r="L658" t="inlineStr"/>
+      <c r="M658" t="inlineStr"/>
+      <c r="N658" t="inlineStr"/>
+      <c r="O658" t="inlineStr"/>
+      <c r="P658" t="inlineStr"/>
+      <c r="Q658" t="inlineStr"/>
+      <c r="R658" t="inlineStr"/>
+      <c r="S658" t="inlineStr"/>
+      <c r="T658" t="inlineStr"/>
+      <c r="U658" t="inlineStr"/>
+      <c r="V658" t="inlineStr"/>
+      <c r="W658" t="inlineStr"/>
+      <c r="X658" t="inlineStr"/>
+      <c r="Y658" t="inlineStr"/>
+      <c r="Z658" t="inlineStr"/>
+      <c r="AA658" t="inlineStr"/>
+      <c r="AB658" t="inlineStr"/>
+      <c r="AC658" t="inlineStr"/>
+      <c r="AD658" t="inlineStr"/>
+      <c r="AE658" t="inlineStr"/>
+      <c r="AF658" t="inlineStr"/>
+      <c r="AG658" t="inlineStr"/>
+      <c r="AH658" t="inlineStr"/>
+      <c r="AI658" t="inlineStr"/>
+      <c r="AJ658" t="inlineStr"/>
+      <c r="AK658" t="inlineStr"/>
+      <c r="AL658" t="inlineStr"/>
+      <c r="AM658" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN658" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO658" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP658" t="inlineStr"/>
+      <c r="AQ658" t="inlineStr"/>
+      <c r="AR658" t="inlineStr"/>
+      <c r="AS658" t="inlineStr"/>
+      <c r="AT658" t="inlineStr"/>
+      <c r="AU658" t="inlineStr"/>
+      <c r="AV658" t="inlineStr"/>
+      <c r="AW658" t="inlineStr"/>
+      <c r="AX658" t="inlineStr"/>
+      <c r="AY658" t="inlineStr"/>
+      <c r="AZ658" t="inlineStr"/>
+      <c r="BA658" t="inlineStr"/>
+      <c r="BB658" t="inlineStr"/>
+      <c r="BC658" t="inlineStr"/>
+      <c r="BD658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>cl:10732</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>pointOfContact</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="inlineStr"/>
+      <c r="G659" t="inlineStr"/>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="inlineStr"/>
+      <c r="M659" t="inlineStr"/>
+      <c r="N659" t="inlineStr"/>
+      <c r="O659" t="inlineStr"/>
+      <c r="P659" t="inlineStr"/>
+      <c r="Q659" t="inlineStr"/>
+      <c r="R659" t="inlineStr"/>
+      <c r="S659" t="inlineStr"/>
+      <c r="T659" t="inlineStr"/>
+      <c r="U659" t="inlineStr"/>
+      <c r="V659" t="inlineStr"/>
+      <c r="W659" t="inlineStr"/>
+      <c r="X659" t="inlineStr"/>
+      <c r="Y659" t="inlineStr"/>
+      <c r="Z659" t="inlineStr"/>
+      <c r="AA659" t="inlineStr"/>
+      <c r="AB659" t="inlineStr"/>
+      <c r="AC659" t="inlineStr"/>
+      <c r="AD659" t="inlineStr"/>
+      <c r="AE659" t="inlineStr"/>
+      <c r="AF659" t="inlineStr"/>
+      <c r="AG659" t="inlineStr"/>
+      <c r="AH659" t="inlineStr"/>
+      <c r="AI659" t="inlineStr"/>
+      <c r="AJ659" t="inlineStr"/>
+      <c r="AK659" t="inlineStr"/>
+      <c r="AL659" t="inlineStr"/>
+      <c r="AM659" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN659" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO659" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP659" t="inlineStr"/>
+      <c r="AQ659" t="inlineStr"/>
+      <c r="AR659" t="inlineStr"/>
+      <c r="AS659" t="inlineStr"/>
+      <c r="AT659" t="inlineStr"/>
+      <c r="AU659" t="inlineStr"/>
+      <c r="AV659" t="inlineStr"/>
+      <c r="AW659" t="inlineStr"/>
+      <c r="AX659" t="inlineStr"/>
+      <c r="AY659" t="inlineStr"/>
+      <c r="AZ659" t="inlineStr"/>
+      <c r="BA659" t="inlineStr"/>
+      <c r="BB659" t="inlineStr"/>
+      <c r="BC659" t="inlineStr"/>
+      <c r="BD659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>cl:10733</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>principalInvestigator</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr"/>
+      <c r="E660" t="inlineStr"/>
+      <c r="F660" t="inlineStr"/>
+      <c r="G660" t="inlineStr"/>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="inlineStr"/>
+      <c r="M660" t="inlineStr"/>
+      <c r="N660" t="inlineStr"/>
+      <c r="O660" t="inlineStr"/>
+      <c r="P660" t="inlineStr"/>
+      <c r="Q660" t="inlineStr"/>
+      <c r="R660" t="inlineStr"/>
+      <c r="S660" t="inlineStr"/>
+      <c r="T660" t="inlineStr"/>
+      <c r="U660" t="inlineStr"/>
+      <c r="V660" t="inlineStr"/>
+      <c r="W660" t="inlineStr"/>
+      <c r="X660" t="inlineStr"/>
+      <c r="Y660" t="inlineStr"/>
+      <c r="Z660" t="inlineStr"/>
+      <c r="AA660" t="inlineStr"/>
+      <c r="AB660" t="inlineStr"/>
+      <c r="AC660" t="inlineStr"/>
+      <c r="AD660" t="inlineStr"/>
+      <c r="AE660" t="inlineStr"/>
+      <c r="AF660" t="inlineStr"/>
+      <c r="AG660" t="inlineStr"/>
+      <c r="AH660" t="inlineStr"/>
+      <c r="AI660" t="inlineStr"/>
+      <c r="AJ660" t="inlineStr"/>
+      <c r="AK660" t="inlineStr"/>
+      <c r="AL660" t="inlineStr"/>
+      <c r="AM660" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN660" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO660" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP660" t="inlineStr"/>
+      <c r="AQ660" t="inlineStr"/>
+      <c r="AR660" t="inlineStr"/>
+      <c r="AS660" t="inlineStr"/>
+      <c r="AT660" t="inlineStr"/>
+      <c r="AU660" t="inlineStr"/>
+      <c r="AV660" t="inlineStr"/>
+      <c r="AW660" t="inlineStr"/>
+      <c r="AX660" t="inlineStr"/>
+      <c r="AY660" t="inlineStr"/>
+      <c r="AZ660" t="inlineStr"/>
+      <c r="BA660" t="inlineStr"/>
+      <c r="BB660" t="inlineStr"/>
+      <c r="BC660" t="inlineStr"/>
+      <c r="BD660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>cl:10734</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>processor</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr"/>
+      <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr"/>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="inlineStr"/>
+      <c r="M661" t="inlineStr"/>
+      <c r="N661" t="inlineStr"/>
+      <c r="O661" t="inlineStr"/>
+      <c r="P661" t="inlineStr"/>
+      <c r="Q661" t="inlineStr"/>
+      <c r="R661" t="inlineStr"/>
+      <c r="S661" t="inlineStr"/>
+      <c r="T661" t="inlineStr"/>
+      <c r="U661" t="inlineStr"/>
+      <c r="V661" t="inlineStr"/>
+      <c r="W661" t="inlineStr"/>
+      <c r="X661" t="inlineStr"/>
+      <c r="Y661" t="inlineStr"/>
+      <c r="Z661" t="inlineStr"/>
+      <c r="AA661" t="inlineStr"/>
+      <c r="AB661" t="inlineStr"/>
+      <c r="AC661" t="inlineStr"/>
+      <c r="AD661" t="inlineStr"/>
+      <c r="AE661" t="inlineStr"/>
+      <c r="AF661" t="inlineStr"/>
+      <c r="AG661" t="inlineStr"/>
+      <c r="AH661" t="inlineStr"/>
+      <c r="AI661" t="inlineStr"/>
+      <c r="AJ661" t="inlineStr"/>
+      <c r="AK661" t="inlineStr"/>
+      <c r="AL661" t="inlineStr"/>
+      <c r="AM661" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN661" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO661" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP661" t="inlineStr"/>
+      <c r="AQ661" t="inlineStr"/>
+      <c r="AR661" t="inlineStr"/>
+      <c r="AS661" t="inlineStr"/>
+      <c r="AT661" t="inlineStr"/>
+      <c r="AU661" t="inlineStr"/>
+      <c r="AV661" t="inlineStr"/>
+      <c r="AW661" t="inlineStr"/>
+      <c r="AX661" t="inlineStr"/>
+      <c r="AY661" t="inlineStr"/>
+      <c r="AZ661" t="inlineStr"/>
+      <c r="BA661" t="inlineStr"/>
+      <c r="BB661" t="inlineStr"/>
+      <c r="BC661" t="inlineStr"/>
+      <c r="BD661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>cl:10735</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr"/>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="inlineStr"/>
+      <c r="G662" t="inlineStr"/>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="inlineStr"/>
+      <c r="M662" t="inlineStr"/>
+      <c r="N662" t="inlineStr"/>
+      <c r="O662" t="inlineStr"/>
+      <c r="P662" t="inlineStr"/>
+      <c r="Q662" t="inlineStr"/>
+      <c r="R662" t="inlineStr"/>
+      <c r="S662" t="inlineStr"/>
+      <c r="T662" t="inlineStr"/>
+      <c r="U662" t="inlineStr"/>
+      <c r="V662" t="inlineStr"/>
+      <c r="W662" t="inlineStr"/>
+      <c r="X662" t="inlineStr"/>
+      <c r="Y662" t="inlineStr"/>
+      <c r="Z662" t="inlineStr"/>
+      <c r="AA662" t="inlineStr"/>
+      <c r="AB662" t="inlineStr"/>
+      <c r="AC662" t="inlineStr"/>
+      <c r="AD662" t="inlineStr"/>
+      <c r="AE662" t="inlineStr"/>
+      <c r="AF662" t="inlineStr"/>
+      <c r="AG662" t="inlineStr"/>
+      <c r="AH662" t="inlineStr"/>
+      <c r="AI662" t="inlineStr"/>
+      <c r="AJ662" t="inlineStr"/>
+      <c r="AK662" t="inlineStr"/>
+      <c r="AL662" t="inlineStr"/>
+      <c r="AM662" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN662" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO662" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP662" t="inlineStr"/>
+      <c r="AQ662" t="inlineStr"/>
+      <c r="AR662" t="inlineStr"/>
+      <c r="AS662" t="inlineStr"/>
+      <c r="AT662" t="inlineStr"/>
+      <c r="AU662" t="inlineStr"/>
+      <c r="AV662" t="inlineStr"/>
+      <c r="AW662" t="inlineStr"/>
+      <c r="AX662" t="inlineStr"/>
+      <c r="AY662" t="inlineStr"/>
+      <c r="AZ662" t="inlineStr"/>
+      <c r="BA662" t="inlineStr"/>
+      <c r="BB662" t="inlineStr"/>
+      <c r="BC662" t="inlineStr"/>
+      <c r="BD662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>cl:10736</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>resource provider</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr"/>
+      <c r="F663" t="inlineStr"/>
+      <c r="G663" t="inlineStr"/>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
+      <c r="L663" t="inlineStr"/>
+      <c r="M663" t="inlineStr"/>
+      <c r="N663" t="inlineStr"/>
+      <c r="O663" t="inlineStr"/>
+      <c r="P663" t="inlineStr"/>
+      <c r="Q663" t="inlineStr"/>
+      <c r="R663" t="inlineStr"/>
+      <c r="S663" t="inlineStr"/>
+      <c r="T663" t="inlineStr"/>
+      <c r="U663" t="inlineStr"/>
+      <c r="V663" t="inlineStr"/>
+      <c r="W663" t="inlineStr"/>
+      <c r="X663" t="inlineStr"/>
+      <c r="Y663" t="inlineStr"/>
+      <c r="Z663" t="inlineStr"/>
+      <c r="AA663" t="inlineStr"/>
+      <c r="AB663" t="inlineStr"/>
+      <c r="AC663" t="inlineStr"/>
+      <c r="AD663" t="inlineStr"/>
+      <c r="AE663" t="inlineStr"/>
+      <c r="AF663" t="inlineStr"/>
+      <c r="AG663" t="inlineStr"/>
+      <c r="AH663" t="inlineStr"/>
+      <c r="AI663" t="inlineStr"/>
+      <c r="AJ663" t="inlineStr"/>
+      <c r="AK663" t="inlineStr"/>
+      <c r="AL663" t="inlineStr"/>
+      <c r="AM663" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN663" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO663" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP663" t="inlineStr"/>
+      <c r="AQ663" t="inlineStr"/>
+      <c r="AR663" t="inlineStr"/>
+      <c r="AS663" t="inlineStr"/>
+      <c r="AT663" t="inlineStr"/>
+      <c r="AU663" t="inlineStr"/>
+      <c r="AV663" t="inlineStr"/>
+      <c r="AW663" t="inlineStr"/>
+      <c r="AX663" t="inlineStr"/>
+      <c r="AY663" t="inlineStr"/>
+      <c r="AZ663" t="inlineStr"/>
+      <c r="BA663" t="inlineStr"/>
+      <c r="BB663" t="inlineStr"/>
+      <c r="BC663" t="inlineStr"/>
+      <c r="BD663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>cl:10737</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>rights holder</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr"/>
+      <c r="E664" t="inlineStr"/>
+      <c r="F664" t="inlineStr"/>
+      <c r="G664" t="inlineStr"/>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
+      <c r="L664" t="inlineStr"/>
+      <c r="M664" t="inlineStr"/>
+      <c r="N664" t="inlineStr"/>
+      <c r="O664" t="inlineStr"/>
+      <c r="P664" t="inlineStr"/>
+      <c r="Q664" t="inlineStr"/>
+      <c r="R664" t="inlineStr"/>
+      <c r="S664" t="inlineStr"/>
+      <c r="T664" t="inlineStr"/>
+      <c r="U664" t="inlineStr"/>
+      <c r="V664" t="inlineStr"/>
+      <c r="W664" t="inlineStr"/>
+      <c r="X664" t="inlineStr"/>
+      <c r="Y664" t="inlineStr"/>
+      <c r="Z664" t="inlineStr"/>
+      <c r="AA664" t="inlineStr"/>
+      <c r="AB664" t="inlineStr"/>
+      <c r="AC664" t="inlineStr"/>
+      <c r="AD664" t="inlineStr"/>
+      <c r="AE664" t="inlineStr"/>
+      <c r="AF664" t="inlineStr"/>
+      <c r="AG664" t="inlineStr"/>
+      <c r="AH664" t="inlineStr"/>
+      <c r="AI664" t="inlineStr"/>
+      <c r="AJ664" t="inlineStr"/>
+      <c r="AK664" t="inlineStr"/>
+      <c r="AL664" t="inlineStr"/>
+      <c r="AM664" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN664" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO664" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP664" t="inlineStr"/>
+      <c r="AQ664" t="inlineStr"/>
+      <c r="AR664" t="inlineStr"/>
+      <c r="AS664" t="inlineStr"/>
+      <c r="AT664" t="inlineStr"/>
+      <c r="AU664" t="inlineStr"/>
+      <c r="AV664" t="inlineStr"/>
+      <c r="AW664" t="inlineStr"/>
+      <c r="AX664" t="inlineStr"/>
+      <c r="AY664" t="inlineStr"/>
+      <c r="AZ664" t="inlineStr"/>
+      <c r="BA664" t="inlineStr"/>
+      <c r="BB664" t="inlineStr"/>
+      <c r="BC664" t="inlineStr"/>
+      <c r="BD664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>cl:10738</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>stakeholder</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr"/>
+      <c r="E665" t="inlineStr"/>
+      <c r="F665" t="inlineStr"/>
+      <c r="G665" t="inlineStr"/>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
+      <c r="L665" t="inlineStr"/>
+      <c r="M665" t="inlineStr"/>
+      <c r="N665" t="inlineStr"/>
+      <c r="O665" t="inlineStr"/>
+      <c r="P665" t="inlineStr"/>
+      <c r="Q665" t="inlineStr"/>
+      <c r="R665" t="inlineStr"/>
+      <c r="S665" t="inlineStr"/>
+      <c r="T665" t="inlineStr"/>
+      <c r="U665" t="inlineStr"/>
+      <c r="V665" t="inlineStr"/>
+      <c r="W665" t="inlineStr"/>
+      <c r="X665" t="inlineStr"/>
+      <c r="Y665" t="inlineStr"/>
+      <c r="Z665" t="inlineStr"/>
+      <c r="AA665" t="inlineStr"/>
+      <c r="AB665" t="inlineStr"/>
+      <c r="AC665" t="inlineStr"/>
+      <c r="AD665" t="inlineStr"/>
+      <c r="AE665" t="inlineStr"/>
+      <c r="AF665" t="inlineStr"/>
+      <c r="AG665" t="inlineStr"/>
+      <c r="AH665" t="inlineStr"/>
+      <c r="AI665" t="inlineStr"/>
+      <c r="AJ665" t="inlineStr"/>
+      <c r="AK665" t="inlineStr"/>
+      <c r="AL665" t="inlineStr"/>
+      <c r="AM665" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN665" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO665" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP665" t="inlineStr"/>
+      <c r="AQ665" t="inlineStr"/>
+      <c r="AR665" t="inlineStr"/>
+      <c r="AS665" t="inlineStr"/>
+      <c r="AT665" t="inlineStr"/>
+      <c r="AU665" t="inlineStr"/>
+      <c r="AV665" t="inlineStr"/>
+      <c r="AW665" t="inlineStr"/>
+      <c r="AX665" t="inlineStr"/>
+      <c r="AY665" t="inlineStr"/>
+      <c r="AZ665" t="inlineStr"/>
+      <c r="BA665" t="inlineStr"/>
+      <c r="BB665" t="inlineStr"/>
+      <c r="BC665" t="inlineStr"/>
+      <c r="BD665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>cl:10739</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr"/>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr"/>
+      <c r="G666" t="inlineStr"/>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>c.10720</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
+      <c r="L666" t="inlineStr"/>
+      <c r="M666" t="inlineStr"/>
+      <c r="N666" t="inlineStr"/>
+      <c r="O666" t="inlineStr"/>
+      <c r="P666" t="inlineStr"/>
+      <c r="Q666" t="inlineStr"/>
+      <c r="R666" t="inlineStr"/>
+      <c r="S666" t="inlineStr"/>
+      <c r="T666" t="inlineStr"/>
+      <c r="U666" t="inlineStr"/>
+      <c r="V666" t="inlineStr"/>
+      <c r="W666" t="inlineStr"/>
+      <c r="X666" t="inlineStr"/>
+      <c r="Y666" t="inlineStr"/>
+      <c r="Z666" t="inlineStr"/>
+      <c r="AA666" t="inlineStr"/>
+      <c r="AB666" t="inlineStr"/>
+      <c r="AC666" t="inlineStr"/>
+      <c r="AD666" t="inlineStr"/>
+      <c r="AE666" t="inlineStr"/>
+      <c r="AF666" t="inlineStr"/>
+      <c r="AG666" t="inlineStr"/>
+      <c r="AH666" t="inlineStr"/>
+      <c r="AI666" t="inlineStr"/>
+      <c r="AJ666" t="inlineStr"/>
+      <c r="AK666" t="inlineStr"/>
+      <c r="AL666" t="inlineStr"/>
+      <c r="AM666" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AN666" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO666" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="AP666" t="inlineStr"/>
+      <c r="AQ666" t="inlineStr"/>
+      <c r="AR666" t="inlineStr"/>
+      <c r="AS666" t="inlineStr"/>
+      <c r="AT666" t="inlineStr"/>
+      <c r="AU666" t="inlineStr"/>
+      <c r="AV666" t="inlineStr"/>
+      <c r="AW666" t="inlineStr"/>
+      <c r="AX666" t="inlineStr"/>
+      <c r="AY666" t="inlineStr"/>
+      <c r="AZ666" t="inlineStr"/>
+      <c r="BA666" t="inlineStr"/>
+      <c r="BB666" t="inlineStr"/>
+      <c r="BC666" t="inlineStr"/>
+      <c r="BD666" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -56097,7 +56097,7 @@
       <c r="G648" t="inlineStr"/>
       <c r="H648" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I648" t="inlineStr"/>
@@ -56179,7 +56179,7 @@
       <c r="G649" t="inlineStr"/>
       <c r="H649" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I649" t="inlineStr"/>
@@ -56261,7 +56261,7 @@
       <c r="G650" t="inlineStr"/>
       <c r="H650" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I650" t="inlineStr"/>
@@ -56343,7 +56343,7 @@
       <c r="G651" t="inlineStr"/>
       <c r="H651" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I651" t="inlineStr"/>
@@ -56425,7 +56425,7 @@
       <c r="G652" t="inlineStr"/>
       <c r="H652" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I652" t="inlineStr"/>
@@ -56507,7 +56507,7 @@
       <c r="G653" t="inlineStr"/>
       <c r="H653" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I653" t="inlineStr"/>
@@ -56589,7 +56589,7 @@
       <c r="G654" t="inlineStr"/>
       <c r="H654" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I654" t="inlineStr"/>
@@ -56671,7 +56671,7 @@
       <c r="G655" t="inlineStr"/>
       <c r="H655" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I655" t="inlineStr"/>
@@ -56753,7 +56753,7 @@
       <c r="G656" t="inlineStr"/>
       <c r="H656" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I656" t="inlineStr"/>
@@ -56835,7 +56835,7 @@
       <c r="G657" t="inlineStr"/>
       <c r="H657" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I657" t="inlineStr"/>
@@ -56917,7 +56917,7 @@
       <c r="G658" t="inlineStr"/>
       <c r="H658" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I658" t="inlineStr"/>
@@ -56999,7 +56999,7 @@
       <c r="G659" t="inlineStr"/>
       <c r="H659" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I659" t="inlineStr"/>
@@ -57081,7 +57081,7 @@
       <c r="G660" t="inlineStr"/>
       <c r="H660" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I660" t="inlineStr"/>
@@ -57163,7 +57163,7 @@
       <c r="G661" t="inlineStr"/>
       <c r="H661" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I661" t="inlineStr"/>
@@ -57245,7 +57245,7 @@
       <c r="G662" t="inlineStr"/>
       <c r="H662" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I662" t="inlineStr"/>
@@ -57327,7 +57327,7 @@
       <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I663" t="inlineStr"/>
@@ -57409,7 +57409,7 @@
       <c r="G664" t="inlineStr"/>
       <c r="H664" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I664" t="inlineStr"/>
@@ -57491,7 +57491,7 @@
       <c r="G665" t="inlineStr"/>
       <c r="H665" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I665" t="inlineStr"/>
@@ -57573,7 +57573,7 @@
       <c r="G666" t="inlineStr"/>
       <c r="H666" t="inlineStr">
         <is>
-          <t>c.10720</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="I666" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -34251,7 +34251,11 @@
         </is>
       </c>
       <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_011343,skos:Concept</t>
+        </is>
+      </c>
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr"/>
       <c r="G392" t="inlineStr"/>
@@ -34306,7 +34310,7 @@
       </c>
       <c r="AO392" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AP392" t="inlineStr"/>
@@ -34337,7 +34341,11 @@
         </is>
       </c>
       <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr"/>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_011343,skos:Concept</t>
+        </is>
+      </c>
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr"/>
       <c r="G393" t="inlineStr"/>
@@ -34392,7 +34400,7 @@
       </c>
       <c r="AO393" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AP393" t="inlineStr"/>
@@ -34423,7 +34431,11 @@
         </is>
       </c>
       <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_011343,skos:Concept</t>
+        </is>
+      </c>
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr"/>
@@ -34478,7 +34490,7 @@
       </c>
       <c r="AO394" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AP394" t="inlineStr"/>
@@ -34509,7 +34521,11 @@
         </is>
       </c>
       <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr"/>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_011343,skos:Concept</t>
+        </is>
+      </c>
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
@@ -34564,7 +34580,7 @@
       </c>
       <c r="AO395" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AP395" t="inlineStr"/>
@@ -53089,7 +53105,11 @@
         </is>
       </c>
       <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr"/>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_011343,skos:Concept</t>
+        </is>
+      </c>
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="inlineStr"/>
       <c r="G613" t="inlineStr"/>
@@ -53144,7 +53164,7 @@
       </c>
       <c r="AO613" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AP613" t="inlineStr"/>
@@ -53433,7 +53453,11 @@
         </is>
       </c>
       <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr"/>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_011343,skos:Concept</t>
+        </is>
+      </c>
       <c r="E617" t="inlineStr"/>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
@@ -53488,7 +53512,7 @@
       </c>
       <c r="AO617" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AP617" t="inlineStr"/>
@@ -56091,7 +56115,11 @@
         </is>
       </c>
       <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E648" t="inlineStr"/>
       <c r="F648" t="inlineStr"/>
       <c r="G648" t="inlineStr"/>
@@ -56142,7 +56170,7 @@
       </c>
       <c r="AO648" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP648" t="inlineStr"/>
@@ -56173,7 +56201,11 @@
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
-      <c r="D649" t="inlineStr"/>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr"/>
@@ -56224,7 +56256,7 @@
       </c>
       <c r="AO649" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP649" t="inlineStr"/>
@@ -56255,7 +56287,11 @@
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
-      <c r="D650" t="inlineStr"/>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E650" t="inlineStr"/>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr"/>
@@ -56306,7 +56342,7 @@
       </c>
       <c r="AO650" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP650" t="inlineStr"/>
@@ -56337,7 +56373,11 @@
         </is>
       </c>
       <c r="C651" t="inlineStr"/>
-      <c r="D651" t="inlineStr"/>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E651" t="inlineStr"/>
       <c r="F651" t="inlineStr"/>
       <c r="G651" t="inlineStr"/>
@@ -56388,7 +56428,7 @@
       </c>
       <c r="AO651" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP651" t="inlineStr"/>
@@ -56419,7 +56459,11 @@
         </is>
       </c>
       <c r="C652" t="inlineStr"/>
-      <c r="D652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E652" t="inlineStr"/>
       <c r="F652" t="inlineStr"/>
       <c r="G652" t="inlineStr"/>
@@ -56470,7 +56514,7 @@
       </c>
       <c r="AO652" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP652" t="inlineStr"/>
@@ -56501,7 +56545,11 @@
         </is>
       </c>
       <c r="C653" t="inlineStr"/>
-      <c r="D653" t="inlineStr"/>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E653" t="inlineStr"/>
       <c r="F653" t="inlineStr"/>
       <c r="G653" t="inlineStr"/>
@@ -56552,7 +56600,7 @@
       </c>
       <c r="AO653" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP653" t="inlineStr"/>
@@ -56583,7 +56631,11 @@
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E654" t="inlineStr"/>
       <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr"/>
@@ -56634,7 +56686,7 @@
       </c>
       <c r="AO654" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP654" t="inlineStr"/>
@@ -56665,7 +56717,11 @@
         </is>
       </c>
       <c r="C655" t="inlineStr"/>
-      <c r="D655" t="inlineStr"/>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E655" t="inlineStr"/>
       <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr"/>
@@ -56716,7 +56772,7 @@
       </c>
       <c r="AO655" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP655" t="inlineStr"/>
@@ -56747,7 +56803,11 @@
         </is>
       </c>
       <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
@@ -56798,7 +56858,7 @@
       </c>
       <c r="AO656" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP656" t="inlineStr"/>
@@ -56829,7 +56889,11 @@
         </is>
       </c>
       <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr"/>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr"/>
@@ -56880,7 +56944,7 @@
       </c>
       <c r="AO657" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP657" t="inlineStr"/>
@@ -56911,7 +56975,11 @@
         </is>
       </c>
       <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
@@ -56962,7 +57030,7 @@
       </c>
       <c r="AO658" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP658" t="inlineStr"/>
@@ -56993,7 +57061,11 @@
         </is>
       </c>
       <c r="C659" t="inlineStr"/>
-      <c r="D659" t="inlineStr"/>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E659" t="inlineStr"/>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr"/>
@@ -57044,7 +57116,7 @@
       </c>
       <c r="AO659" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP659" t="inlineStr"/>
@@ -57075,7 +57147,11 @@
         </is>
       </c>
       <c r="C660" t="inlineStr"/>
-      <c r="D660" t="inlineStr"/>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E660" t="inlineStr"/>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr"/>
@@ -57126,7 +57202,7 @@
       </c>
       <c r="AO660" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP660" t="inlineStr"/>
@@ -57157,7 +57233,11 @@
         </is>
       </c>
       <c r="C661" t="inlineStr"/>
-      <c r="D661" t="inlineStr"/>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E661" t="inlineStr"/>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr"/>
@@ -57208,7 +57288,7 @@
       </c>
       <c r="AO661" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP661" t="inlineStr"/>
@@ -57239,7 +57319,11 @@
         </is>
       </c>
       <c r="C662" t="inlineStr"/>
-      <c r="D662" t="inlineStr"/>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E662" t="inlineStr"/>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr"/>
@@ -57290,7 +57374,7 @@
       </c>
       <c r="AO662" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP662" t="inlineStr"/>
@@ -57321,7 +57405,11 @@
         </is>
       </c>
       <c r="C663" t="inlineStr"/>
-      <c r="D663" t="inlineStr"/>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E663" t="inlineStr"/>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr"/>
@@ -57372,7 +57460,7 @@
       </c>
       <c r="AO663" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP663" t="inlineStr"/>
@@ -57403,7 +57491,11 @@
         </is>
       </c>
       <c r="C664" t="inlineStr"/>
-      <c r="D664" t="inlineStr"/>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E664" t="inlineStr"/>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr"/>
@@ -57454,7 +57546,7 @@
       </c>
       <c r="AO664" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP664" t="inlineStr"/>
@@ -57485,7 +57577,11 @@
         </is>
       </c>
       <c r="C665" t="inlineStr"/>
-      <c r="D665" t="inlineStr"/>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E665" t="inlineStr"/>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr"/>
@@ -57536,7 +57632,7 @@
       </c>
       <c r="AO665" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP665" t="inlineStr"/>
@@ -57567,7 +57663,11 @@
         </is>
       </c>
       <c r="C666" t="inlineStr"/>
-      <c r="D666" t="inlineStr"/>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E666" t="inlineStr"/>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr"/>
@@ -57618,7 +57718,7 @@
       </c>
       <c r="AO666" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP666" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.1.0</t>
+          <t>1.1.1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr"/>
@@ -42671,11 +42671,15 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>funding source</t>
+          <t>funding source level</t>
         </is>
       </c>
       <c r="C492" t="inlineStr"/>
-      <c r="D492" t="inlineStr"/>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAP2yIXzEVXe6gQye6xUgfnj10rcFGRvp9OnplW7ZqMDs#fund_source_level,skos:Concept</t>
+        </is>
+      </c>
       <c r="E492" t="inlineStr"/>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
@@ -42726,7 +42730,7 @@
       </c>
       <c r="AO492" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP492" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD666"/>
+  <dimension ref="A1:BE666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,7 @@
       <c r="BB1" t="inlineStr"/>
       <c r="BC1" t="inlineStr"/>
       <c r="BD1" t="inlineStr"/>
+      <c r="BE1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -552,6 +553,7 @@
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -622,6 +624,7 @@
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -692,6 +695,7 @@
       <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -762,6 +766,7 @@
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -832,6 +837,7 @@
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -902,6 +908,7 @@
       <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -972,6 +979,7 @@
       <c r="BB8" t="inlineStr"/>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1042,6 +1050,7 @@
       <c r="BB9" t="inlineStr"/>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1112,6 +1121,7 @@
       <c r="BB10" t="inlineStr"/>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1182,6 +1192,7 @@
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1252,6 +1263,7 @@
       <c r="BB12" t="inlineStr"/>
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1322,6 +1334,7 @@
       <c r="BB13" t="inlineStr"/>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1392,6 +1405,7 @@
       <c r="BB14" t="inlineStr"/>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1462,6 +1476,7 @@
       <c r="BB15" t="inlineStr"/>
       <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1524,6 +1539,7 @@
       <c r="BB16" t="inlineStr"/>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1594,6 +1610,7 @@
       <c r="BB17" t="inlineStr"/>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1664,6 +1681,7 @@
       <c r="BB18" t="inlineStr"/>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1730,6 +1748,7 @@
       <c r="BB19" t="inlineStr"/>
       <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1796,6 +1815,7 @@
       <c r="BB20" t="inlineStr"/>
       <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1862,6 +1882,7 @@
       <c r="BB21" t="inlineStr"/>
       <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1928,6 +1949,7 @@
       <c r="BB22" t="inlineStr"/>
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1994,6 +2016,7 @@
       <c r="BB23" t="inlineStr"/>
       <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2060,6 +2083,7 @@
       <c r="BB24" t="inlineStr"/>
       <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2126,6 +2150,7 @@
       <c r="BB25" t="inlineStr"/>
       <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2192,6 +2217,7 @@
       <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2258,6 +2284,7 @@
       <c r="BB27" t="inlineStr"/>
       <c r="BC27" t="inlineStr"/>
       <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2324,6 +2351,7 @@
       <c r="BB28" t="inlineStr"/>
       <c r="BC28" t="inlineStr"/>
       <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2390,6 +2418,7 @@
       <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr"/>
       <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2456,6 +2485,7 @@
       <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2522,6 +2552,7 @@
       <c r="BB31" t="inlineStr"/>
       <c r="BC31" t="inlineStr"/>
       <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2588,6 +2619,7 @@
       <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr"/>
       <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2654,6 +2686,7 @@
       <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="inlineStr"/>
       <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2720,6 +2753,7 @@
       <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="inlineStr"/>
       <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2786,6 +2820,7 @@
       <c r="BB35" t="inlineStr"/>
       <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2856,6 +2891,7 @@
       <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr"/>
       <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2922,6 +2958,7 @@
       <c r="BB37" t="inlineStr"/>
       <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2992,6 +3029,7 @@
       <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3062,6 +3100,7 @@
       <c r="BB39" t="inlineStr"/>
       <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3132,6 +3171,7 @@
       <c r="BB40" t="inlineStr"/>
       <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="inlineStr"/>
+      <c r="BE40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3194,6 +3234,7 @@
       <c r="BB41" t="inlineStr"/>
       <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3213,7 +3254,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rdf:type</t>
+          <t>rdf:type(separtor=",")</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3416,6 +3457,7 @@
       <c r="BB42" t="inlineStr"/>
       <c r="BC42" t="inlineStr"/>
       <c r="BD42" t="inlineStr"/>
+      <c r="BE42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3498,6 +3540,7 @@
       <c r="BB43" t="inlineStr"/>
       <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="inlineStr"/>
+      <c r="BE43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3580,6 +3623,7 @@
       <c r="BB44" t="inlineStr"/>
       <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="inlineStr"/>
+      <c r="BE44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3662,6 +3706,7 @@
       <c r="BB45" t="inlineStr"/>
       <c r="BC45" t="inlineStr"/>
       <c r="BD45" t="inlineStr"/>
+      <c r="BE45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3744,6 +3789,7 @@
       <c r="BB46" t="inlineStr"/>
       <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="inlineStr"/>
+      <c r="BE46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3826,6 +3872,7 @@
       <c r="BB47" t="inlineStr"/>
       <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="inlineStr"/>
+      <c r="BE47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3908,6 +3955,7 @@
       <c r="BB48" t="inlineStr"/>
       <c r="BC48" t="inlineStr"/>
       <c r="BD48" t="inlineStr"/>
+      <c r="BE48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3990,6 +4038,7 @@
       <c r="BB49" t="inlineStr"/>
       <c r="BC49" t="inlineStr"/>
       <c r="BD49" t="inlineStr"/>
+      <c r="BE49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4072,6 +4121,7 @@
       <c r="BB50" t="inlineStr"/>
       <c r="BC50" t="inlineStr"/>
       <c r="BD50" t="inlineStr"/>
+      <c r="BE50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4154,6 +4204,7 @@
       <c r="BB51" t="inlineStr"/>
       <c r="BC51" t="inlineStr"/>
       <c r="BD51" t="inlineStr"/>
+      <c r="BE51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4236,6 +4287,7 @@
       <c r="BB52" t="inlineStr"/>
       <c r="BC52" t="inlineStr"/>
       <c r="BD52" t="inlineStr"/>
+      <c r="BE52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4318,6 +4370,7 @@
       <c r="BB53" t="inlineStr"/>
       <c r="BC53" t="inlineStr"/>
       <c r="BD53" t="inlineStr"/>
+      <c r="BE53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4400,6 +4453,7 @@
       <c r="BB54" t="inlineStr"/>
       <c r="BC54" t="inlineStr"/>
       <c r="BD54" t="inlineStr"/>
+      <c r="BE54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4482,6 +4536,7 @@
       <c r="BB55" t="inlineStr"/>
       <c r="BC55" t="inlineStr"/>
       <c r="BD55" t="inlineStr"/>
+      <c r="BE55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4564,6 +4619,7 @@
       <c r="BB56" t="inlineStr"/>
       <c r="BC56" t="inlineStr"/>
       <c r="BD56" t="inlineStr"/>
+      <c r="BE56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4646,6 +4702,7 @@
       <c r="BB57" t="inlineStr"/>
       <c r="BC57" t="inlineStr"/>
       <c r="BD57" t="inlineStr"/>
+      <c r="BE57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4732,6 +4789,7 @@
       <c r="BB58" t="inlineStr"/>
       <c r="BC58" t="inlineStr"/>
       <c r="BD58" t="inlineStr"/>
+      <c r="BE58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4818,6 +4876,7 @@
       <c r="BB59" t="inlineStr"/>
       <c r="BC59" t="inlineStr"/>
       <c r="BD59" t="inlineStr"/>
+      <c r="BE59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4904,6 +4963,7 @@
       <c r="BB60" t="inlineStr"/>
       <c r="BC60" t="inlineStr"/>
       <c r="BD60" t="inlineStr"/>
+      <c r="BE60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4990,6 +5050,7 @@
       <c r="BB61" t="inlineStr"/>
       <c r="BC61" t="inlineStr"/>
       <c r="BD61" t="inlineStr"/>
+      <c r="BE61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5076,6 +5137,7 @@
       <c r="BB62" t="inlineStr"/>
       <c r="BC62" t="inlineStr"/>
       <c r="BD62" t="inlineStr"/>
+      <c r="BE62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5162,6 +5224,7 @@
       <c r="BB63" t="inlineStr"/>
       <c r="BC63" t="inlineStr"/>
       <c r="BD63" t="inlineStr"/>
+      <c r="BE63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5248,6 +5311,7 @@
       <c r="BB64" t="inlineStr"/>
       <c r="BC64" t="inlineStr"/>
       <c r="BD64" t="inlineStr"/>
+      <c r="BE64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5346,6 +5410,7 @@
       <c r="BB65" t="inlineStr"/>
       <c r="BC65" t="inlineStr"/>
       <c r="BD65" t="inlineStr"/>
+      <c r="BE65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5444,6 +5509,7 @@
       <c r="BB66" t="inlineStr"/>
       <c r="BC66" t="inlineStr"/>
       <c r="BD66" t="inlineStr"/>
+      <c r="BE66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5542,6 +5608,7 @@
       <c r="BB67" t="inlineStr"/>
       <c r="BC67" t="inlineStr"/>
       <c r="BD67" t="inlineStr"/>
+      <c r="BE67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5640,6 +5707,7 @@
       <c r="BB68" t="inlineStr"/>
       <c r="BC68" t="inlineStr"/>
       <c r="BD68" t="inlineStr"/>
+      <c r="BE68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5738,6 +5806,7 @@
       <c r="BB69" t="inlineStr"/>
       <c r="BC69" t="inlineStr"/>
       <c r="BD69" t="inlineStr"/>
+      <c r="BE69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5836,6 +5905,7 @@
       <c r="BB70" t="inlineStr"/>
       <c r="BC70" t="inlineStr"/>
       <c r="BD70" t="inlineStr"/>
+      <c r="BE70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5934,6 +6004,7 @@
       <c r="BB71" t="inlineStr"/>
       <c r="BC71" t="inlineStr"/>
       <c r="BD71" t="inlineStr"/>
+      <c r="BE71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6032,6 +6103,7 @@
       <c r="BB72" t="inlineStr"/>
       <c r="BC72" t="inlineStr"/>
       <c r="BD72" t="inlineStr"/>
+      <c r="BE72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6130,6 +6202,7 @@
       <c r="BB73" t="inlineStr"/>
       <c r="BC73" t="inlineStr"/>
       <c r="BD73" t="inlineStr"/>
+      <c r="BE73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6228,6 +6301,7 @@
       <c r="BB74" t="inlineStr"/>
       <c r="BC74" t="inlineStr"/>
       <c r="BD74" t="inlineStr"/>
+      <c r="BE74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6326,6 +6400,7 @@
       <c r="BB75" t="inlineStr"/>
       <c r="BC75" t="inlineStr"/>
       <c r="BD75" t="inlineStr"/>
+      <c r="BE75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6424,6 +6499,7 @@
       <c r="BB76" t="inlineStr"/>
       <c r="BC76" t="inlineStr"/>
       <c r="BD76" t="inlineStr"/>
+      <c r="BE76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6522,6 +6598,7 @@
       <c r="BB77" t="inlineStr"/>
       <c r="BC77" t="inlineStr"/>
       <c r="BD77" t="inlineStr"/>
+      <c r="BE77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6620,6 +6697,7 @@
       <c r="BB78" t="inlineStr"/>
       <c r="BC78" t="inlineStr"/>
       <c r="BD78" t="inlineStr"/>
+      <c r="BE78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6718,6 +6796,7 @@
       <c r="BB79" t="inlineStr"/>
       <c r="BC79" t="inlineStr"/>
       <c r="BD79" t="inlineStr"/>
+      <c r="BE79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6816,6 +6895,7 @@
       <c r="BB80" t="inlineStr"/>
       <c r="BC80" t="inlineStr"/>
       <c r="BD80" t="inlineStr"/>
+      <c r="BE80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6914,6 +6994,7 @@
       <c r="BB81" t="inlineStr"/>
       <c r="BC81" t="inlineStr"/>
       <c r="BD81" t="inlineStr"/>
+      <c r="BE81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7012,6 +7093,7 @@
       <c r="BB82" t="inlineStr"/>
       <c r="BC82" t="inlineStr"/>
       <c r="BD82" t="inlineStr"/>
+      <c r="BE82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7110,6 +7192,7 @@
       <c r="BB83" t="inlineStr"/>
       <c r="BC83" t="inlineStr"/>
       <c r="BD83" t="inlineStr"/>
+      <c r="BE83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7208,6 +7291,7 @@
       <c r="BB84" t="inlineStr"/>
       <c r="BC84" t="inlineStr"/>
       <c r="BD84" t="inlineStr"/>
+      <c r="BE84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7306,6 +7390,7 @@
       <c r="BB85" t="inlineStr"/>
       <c r="BC85" t="inlineStr"/>
       <c r="BD85" t="inlineStr"/>
+      <c r="BE85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7404,6 +7489,7 @@
       <c r="BB86" t="inlineStr"/>
       <c r="BC86" t="inlineStr"/>
       <c r="BD86" t="inlineStr"/>
+      <c r="BE86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7502,6 +7588,7 @@
       <c r="BB87" t="inlineStr"/>
       <c r="BC87" t="inlineStr"/>
       <c r="BD87" t="inlineStr"/>
+      <c r="BE87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7600,6 +7687,7 @@
       <c r="BB88" t="inlineStr"/>
       <c r="BC88" t="inlineStr"/>
       <c r="BD88" t="inlineStr"/>
+      <c r="BE88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7698,6 +7786,7 @@
       <c r="BB89" t="inlineStr"/>
       <c r="BC89" t="inlineStr"/>
       <c r="BD89" t="inlineStr"/>
+      <c r="BE89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7796,6 +7885,7 @@
       <c r="BB90" t="inlineStr"/>
       <c r="BC90" t="inlineStr"/>
       <c r="BD90" t="inlineStr"/>
+      <c r="BE90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7894,6 +7984,7 @@
       <c r="BB91" t="inlineStr"/>
       <c r="BC91" t="inlineStr"/>
       <c r="BD91" t="inlineStr"/>
+      <c r="BE91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7992,6 +8083,7 @@
       <c r="BB92" t="inlineStr"/>
       <c r="BC92" t="inlineStr"/>
       <c r="BD92" t="inlineStr"/>
+      <c r="BE92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8090,6 +8182,7 @@
       <c r="BB93" t="inlineStr"/>
       <c r="BC93" t="inlineStr"/>
       <c r="BD93" t="inlineStr"/>
+      <c r="BE93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8188,6 +8281,7 @@
       <c r="BB94" t="inlineStr"/>
       <c r="BC94" t="inlineStr"/>
       <c r="BD94" t="inlineStr"/>
+      <c r="BE94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8286,6 +8380,7 @@
       <c r="BB95" t="inlineStr"/>
       <c r="BC95" t="inlineStr"/>
       <c r="BD95" t="inlineStr"/>
+      <c r="BE95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8384,6 +8479,7 @@
       <c r="BB96" t="inlineStr"/>
       <c r="BC96" t="inlineStr"/>
       <c r="BD96" t="inlineStr"/>
+      <c r="BE96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8482,6 +8578,7 @@
       <c r="BB97" t="inlineStr"/>
       <c r="BC97" t="inlineStr"/>
       <c r="BD97" t="inlineStr"/>
+      <c r="BE97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8580,6 +8677,7 @@
       <c r="BB98" t="inlineStr"/>
       <c r="BC98" t="inlineStr"/>
       <c r="BD98" t="inlineStr"/>
+      <c r="BE98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8678,6 +8776,7 @@
       <c r="BB99" t="inlineStr"/>
       <c r="BC99" t="inlineStr"/>
       <c r="BD99" t="inlineStr"/>
+      <c r="BE99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8764,6 +8863,7 @@
       <c r="BB100" t="inlineStr"/>
       <c r="BC100" t="inlineStr"/>
       <c r="BD100" t="inlineStr"/>
+      <c r="BE100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8850,6 +8950,7 @@
       <c r="BB101" t="inlineStr"/>
       <c r="BC101" t="inlineStr"/>
       <c r="BD101" t="inlineStr"/>
+      <c r="BE101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8936,6 +9037,7 @@
       <c r="BB102" t="inlineStr"/>
       <c r="BC102" t="inlineStr"/>
       <c r="BD102" t="inlineStr"/>
+      <c r="BE102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9034,6 +9136,7 @@
       <c r="BB103" t="inlineStr"/>
       <c r="BC103" t="inlineStr"/>
       <c r="BD103" t="inlineStr"/>
+      <c r="BE103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9132,6 +9235,7 @@
       <c r="BB104" t="inlineStr"/>
       <c r="BC104" t="inlineStr"/>
       <c r="BD104" t="inlineStr"/>
+      <c r="BE104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9234,6 +9338,7 @@
       <c r="BB105" t="inlineStr"/>
       <c r="BC105" t="inlineStr"/>
       <c r="BD105" t="inlineStr"/>
+      <c r="BE105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9332,6 +9437,7 @@
       <c r="BB106" t="inlineStr"/>
       <c r="BC106" t="inlineStr"/>
       <c r="BD106" t="inlineStr"/>
+      <c r="BE106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9430,6 +9536,7 @@
       <c r="BB107" t="inlineStr"/>
       <c r="BC107" t="inlineStr"/>
       <c r="BD107" t="inlineStr"/>
+      <c r="BE107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9528,6 +9635,7 @@
       <c r="BB108" t="inlineStr"/>
       <c r="BC108" t="inlineStr"/>
       <c r="BD108" t="inlineStr"/>
+      <c r="BE108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9630,6 +9738,7 @@
       <c r="BB109" t="inlineStr"/>
       <c r="BC109" t="inlineStr"/>
       <c r="BD109" t="inlineStr"/>
+      <c r="BE109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9716,6 +9825,7 @@
       <c r="BB110" t="inlineStr"/>
       <c r="BC110" t="inlineStr"/>
       <c r="BD110" t="inlineStr"/>
+      <c r="BE110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9806,6 +9916,7 @@
       <c r="BB111" t="inlineStr"/>
       <c r="BC111" t="inlineStr"/>
       <c r="BD111" t="inlineStr"/>
+      <c r="BE111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9896,6 +10007,7 @@
       <c r="BB112" t="inlineStr"/>
       <c r="BC112" t="inlineStr"/>
       <c r="BD112" t="inlineStr"/>
+      <c r="BE112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9982,6 +10094,7 @@
       <c r="BB113" t="inlineStr"/>
       <c r="BC113" t="inlineStr"/>
       <c r="BD113" t="inlineStr"/>
+      <c r="BE113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10068,6 +10181,7 @@
       <c r="BB114" t="inlineStr"/>
       <c r="BC114" t="inlineStr"/>
       <c r="BD114" t="inlineStr"/>
+      <c r="BE114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10154,6 +10268,7 @@
       <c r="BB115" t="inlineStr"/>
       <c r="BC115" t="inlineStr"/>
       <c r="BD115" t="inlineStr"/>
+      <c r="BE115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10240,6 +10355,7 @@
       <c r="BB116" t="inlineStr"/>
       <c r="BC116" t="inlineStr"/>
       <c r="BD116" t="inlineStr"/>
+      <c r="BE116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10326,6 +10442,7 @@
       <c r="BB117" t="inlineStr"/>
       <c r="BC117" t="inlineStr"/>
       <c r="BD117" t="inlineStr"/>
+      <c r="BE117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10412,6 +10529,7 @@
       <c r="BB118" t="inlineStr"/>
       <c r="BC118" t="inlineStr"/>
       <c r="BD118" t="inlineStr"/>
+      <c r="BE118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10498,6 +10616,7 @@
       <c r="BB119" t="inlineStr"/>
       <c r="BC119" t="inlineStr"/>
       <c r="BD119" t="inlineStr"/>
+      <c r="BE119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10584,6 +10703,7 @@
       <c r="BB120" t="inlineStr"/>
       <c r="BC120" t="inlineStr"/>
       <c r="BD120" t="inlineStr"/>
+      <c r="BE120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10670,6 +10790,7 @@
       <c r="BB121" t="inlineStr"/>
       <c r="BC121" t="inlineStr"/>
       <c r="BD121" t="inlineStr"/>
+      <c r="BE121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10756,6 +10877,7 @@
       <c r="BB122" t="inlineStr"/>
       <c r="BC122" t="inlineStr"/>
       <c r="BD122" t="inlineStr"/>
+      <c r="BE122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10842,6 +10964,7 @@
       <c r="BB123" t="inlineStr"/>
       <c r="BC123" t="inlineStr"/>
       <c r="BD123" t="inlineStr"/>
+      <c r="BE123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10928,6 +11051,7 @@
       <c r="BB124" t="inlineStr"/>
       <c r="BC124" t="inlineStr"/>
       <c r="BD124" t="inlineStr"/>
+      <c r="BE124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11014,6 +11138,7 @@
       <c r="BB125" t="inlineStr"/>
       <c r="BC125" t="inlineStr"/>
       <c r="BD125" t="inlineStr"/>
+      <c r="BE125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -11100,6 +11225,7 @@
       <c r="BB126" t="inlineStr"/>
       <c r="BC126" t="inlineStr"/>
       <c r="BD126" t="inlineStr"/>
+      <c r="BE126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11186,6 +11312,7 @@
       <c r="BB127" t="inlineStr"/>
       <c r="BC127" t="inlineStr"/>
       <c r="BD127" t="inlineStr"/>
+      <c r="BE127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -11272,6 +11399,7 @@
       <c r="BB128" t="inlineStr"/>
       <c r="BC128" t="inlineStr"/>
       <c r="BD128" t="inlineStr"/>
+      <c r="BE128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -11358,6 +11486,7 @@
       <c r="BB129" t="inlineStr"/>
       <c r="BC129" t="inlineStr"/>
       <c r="BD129" t="inlineStr"/>
+      <c r="BE129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -11444,6 +11573,7 @@
       <c r="BB130" t="inlineStr"/>
       <c r="BC130" t="inlineStr"/>
       <c r="BD130" t="inlineStr"/>
+      <c r="BE130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11530,6 +11660,7 @@
       <c r="BB131" t="inlineStr"/>
       <c r="BC131" t="inlineStr"/>
       <c r="BD131" t="inlineStr"/>
+      <c r="BE131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11616,6 +11747,7 @@
       <c r="BB132" t="inlineStr"/>
       <c r="BC132" t="inlineStr"/>
       <c r="BD132" t="inlineStr"/>
+      <c r="BE132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11702,6 +11834,7 @@
       <c r="BB133" t="inlineStr"/>
       <c r="BC133" t="inlineStr"/>
       <c r="BD133" t="inlineStr"/>
+      <c r="BE133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11788,6 +11921,7 @@
       <c r="BB134" t="inlineStr"/>
       <c r="BC134" t="inlineStr"/>
       <c r="BD134" t="inlineStr"/>
+      <c r="BE134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11874,6 +12008,7 @@
       <c r="BB135" t="inlineStr"/>
       <c r="BC135" t="inlineStr"/>
       <c r="BD135" t="inlineStr"/>
+      <c r="BE135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11960,6 +12095,7 @@
       <c r="BB136" t="inlineStr"/>
       <c r="BC136" t="inlineStr"/>
       <c r="BD136" t="inlineStr"/>
+      <c r="BE136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -12046,6 +12182,7 @@
       <c r="BB137" t="inlineStr"/>
       <c r="BC137" t="inlineStr"/>
       <c r="BD137" t="inlineStr"/>
+      <c r="BE137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -12132,6 +12269,7 @@
       <c r="BB138" t="inlineStr"/>
       <c r="BC138" t="inlineStr"/>
       <c r="BD138" t="inlineStr"/>
+      <c r="BE138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -12218,6 +12356,7 @@
       <c r="BB139" t="inlineStr"/>
       <c r="BC139" t="inlineStr"/>
       <c r="BD139" t="inlineStr"/>
+      <c r="BE139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -12304,6 +12443,7 @@
       <c r="BB140" t="inlineStr"/>
       <c r="BC140" t="inlineStr"/>
       <c r="BD140" t="inlineStr"/>
+      <c r="BE140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -12390,6 +12530,7 @@
       <c r="BB141" t="inlineStr"/>
       <c r="BC141" t="inlineStr"/>
       <c r="BD141" t="inlineStr"/>
+      <c r="BE141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -12476,6 +12617,7 @@
       <c r="BB142" t="inlineStr"/>
       <c r="BC142" t="inlineStr"/>
       <c r="BD142" t="inlineStr"/>
+      <c r="BE142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -12562,6 +12704,7 @@
       <c r="BB143" t="inlineStr"/>
       <c r="BC143" t="inlineStr"/>
       <c r="BD143" t="inlineStr"/>
+      <c r="BE143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -12648,6 +12791,7 @@
       <c r="BB144" t="inlineStr"/>
       <c r="BC144" t="inlineStr"/>
       <c r="BD144" t="inlineStr"/>
+      <c r="BE144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -12734,6 +12878,7 @@
       <c r="BB145" t="inlineStr"/>
       <c r="BC145" t="inlineStr"/>
       <c r="BD145" t="inlineStr"/>
+      <c r="BE145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -12820,6 +12965,7 @@
       <c r="BB146" t="inlineStr"/>
       <c r="BC146" t="inlineStr"/>
       <c r="BD146" t="inlineStr"/>
+      <c r="BE146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -12906,6 +13052,7 @@
       <c r="BB147" t="inlineStr"/>
       <c r="BC147" t="inlineStr"/>
       <c r="BD147" t="inlineStr"/>
+      <c r="BE147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12992,6 +13139,7 @@
       <c r="BB148" t="inlineStr"/>
       <c r="BC148" t="inlineStr"/>
       <c r="BD148" t="inlineStr"/>
+      <c r="BE148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -13078,6 +13226,7 @@
       <c r="BB149" t="inlineStr"/>
       <c r="BC149" t="inlineStr"/>
       <c r="BD149" t="inlineStr"/>
+      <c r="BE149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -13164,6 +13313,7 @@
       <c r="BB150" t="inlineStr"/>
       <c r="BC150" t="inlineStr"/>
       <c r="BD150" t="inlineStr"/>
+      <c r="BE150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -13250,6 +13400,7 @@
       <c r="BB151" t="inlineStr"/>
       <c r="BC151" t="inlineStr"/>
       <c r="BD151" t="inlineStr"/>
+      <c r="BE151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -13336,6 +13487,7 @@
       <c r="BB152" t="inlineStr"/>
       <c r="BC152" t="inlineStr"/>
       <c r="BD152" t="inlineStr"/>
+      <c r="BE152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -13422,6 +13574,7 @@
       <c r="BB153" t="inlineStr"/>
       <c r="BC153" t="inlineStr"/>
       <c r="BD153" t="inlineStr"/>
+      <c r="BE153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -13508,6 +13661,7 @@
       <c r="BB154" t="inlineStr"/>
       <c r="BC154" t="inlineStr"/>
       <c r="BD154" t="inlineStr"/>
+      <c r="BE154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -13594,6 +13748,7 @@
       <c r="BB155" t="inlineStr"/>
       <c r="BC155" t="inlineStr"/>
       <c r="BD155" t="inlineStr"/>
+      <c r="BE155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -13680,6 +13835,7 @@
       <c r="BB156" t="inlineStr"/>
       <c r="BC156" t="inlineStr"/>
       <c r="BD156" t="inlineStr"/>
+      <c r="BE156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -13766,6 +13922,7 @@
       <c r="BB157" t="inlineStr"/>
       <c r="BC157" t="inlineStr"/>
       <c r="BD157" t="inlineStr"/>
+      <c r="BE157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -13852,6 +14009,7 @@
       <c r="BB158" t="inlineStr"/>
       <c r="BC158" t="inlineStr"/>
       <c r="BD158" t="inlineStr"/>
+      <c r="BE158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -13938,6 +14096,7 @@
       <c r="BB159" t="inlineStr"/>
       <c r="BC159" t="inlineStr"/>
       <c r="BD159" t="inlineStr"/>
+      <c r="BE159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -14024,6 +14183,7 @@
       <c r="BB160" t="inlineStr"/>
       <c r="BC160" t="inlineStr"/>
       <c r="BD160" t="inlineStr"/>
+      <c r="BE160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -14110,6 +14270,7 @@
       <c r="BB161" t="inlineStr"/>
       <c r="BC161" t="inlineStr"/>
       <c r="BD161" t="inlineStr"/>
+      <c r="BE161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -14196,6 +14357,7 @@
       <c r="BB162" t="inlineStr"/>
       <c r="BC162" t="inlineStr"/>
       <c r="BD162" t="inlineStr"/>
+      <c r="BE162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -14286,6 +14448,7 @@
       <c r="BB163" t="inlineStr"/>
       <c r="BC163" t="inlineStr"/>
       <c r="BD163" t="inlineStr"/>
+      <c r="BE163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -14384,6 +14547,7 @@
       <c r="BB164" t="inlineStr"/>
       <c r="BC164" t="inlineStr"/>
       <c r="BD164" t="inlineStr"/>
+      <c r="BE164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -14482,6 +14646,7 @@
       <c r="BB165" t="inlineStr"/>
       <c r="BC165" t="inlineStr"/>
       <c r="BD165" t="inlineStr"/>
+      <c r="BE165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -14580,6 +14745,7 @@
       <c r="BB166" t="inlineStr"/>
       <c r="BC166" t="inlineStr"/>
       <c r="BD166" t="inlineStr"/>
+      <c r="BE166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -14678,6 +14844,7 @@
       <c r="BB167" t="inlineStr"/>
       <c r="BC167" t="inlineStr"/>
       <c r="BD167" t="inlineStr"/>
+      <c r="BE167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -14776,6 +14943,7 @@
       <c r="BB168" t="inlineStr"/>
       <c r="BC168" t="inlineStr"/>
       <c r="BD168" t="inlineStr"/>
+      <c r="BE168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -14874,6 +15042,7 @@
       <c r="BB169" t="inlineStr"/>
       <c r="BC169" t="inlineStr"/>
       <c r="BD169" t="inlineStr"/>
+      <c r="BE169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -14968,6 +15137,7 @@
       <c r="BB170" t="inlineStr"/>
       <c r="BC170" t="inlineStr"/>
       <c r="BD170" t="inlineStr"/>
+      <c r="BE170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -15062,6 +15232,7 @@
       <c r="BB171" t="inlineStr"/>
       <c r="BC171" t="inlineStr"/>
       <c r="BD171" t="inlineStr"/>
+      <c r="BE171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -15156,6 +15327,7 @@
       <c r="BB172" t="inlineStr"/>
       <c r="BC172" t="inlineStr"/>
       <c r="BD172" t="inlineStr"/>
+      <c r="BE172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -15250,6 +15422,7 @@
       <c r="BB173" t="inlineStr"/>
       <c r="BC173" t="inlineStr"/>
       <c r="BD173" t="inlineStr"/>
+      <c r="BE173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -15344,6 +15517,7 @@
       <c r="BB174" t="inlineStr"/>
       <c r="BC174" t="inlineStr"/>
       <c r="BD174" t="inlineStr"/>
+      <c r="BE174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -15430,6 +15604,7 @@
       <c r="BB175" t="inlineStr"/>
       <c r="BC175" t="inlineStr"/>
       <c r="BD175" t="inlineStr"/>
+      <c r="BE175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -15520,6 +15695,7 @@
       <c r="BB176" t="inlineStr"/>
       <c r="BC176" t="inlineStr"/>
       <c r="BD176" t="inlineStr"/>
+      <c r="BE176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -15610,6 +15786,7 @@
       <c r="BB177" t="inlineStr"/>
       <c r="BC177" t="inlineStr"/>
       <c r="BD177" t="inlineStr"/>
+      <c r="BE177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -15700,6 +15877,7 @@
       <c r="BB178" t="inlineStr"/>
       <c r="BC178" t="inlineStr"/>
       <c r="BD178" t="inlineStr"/>
+      <c r="BE178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -15790,6 +15968,7 @@
       <c r="BB179" t="inlineStr"/>
       <c r="BC179" t="inlineStr"/>
       <c r="BD179" t="inlineStr"/>
+      <c r="BE179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -15880,6 +16059,7 @@
       <c r="BB180" t="inlineStr"/>
       <c r="BC180" t="inlineStr"/>
       <c r="BD180" t="inlineStr"/>
+      <c r="BE180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -15970,6 +16150,7 @@
       <c r="BB181" t="inlineStr"/>
       <c r="BC181" t="inlineStr"/>
       <c r="BD181" t="inlineStr"/>
+      <c r="BE181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -16060,6 +16241,7 @@
       <c r="BB182" t="inlineStr"/>
       <c r="BC182" t="inlineStr"/>
       <c r="BD182" t="inlineStr"/>
+      <c r="BE182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -16154,6 +16336,7 @@
       <c r="BB183" t="inlineStr"/>
       <c r="BC183" t="inlineStr"/>
       <c r="BD183" t="inlineStr"/>
+      <c r="BE183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -16244,6 +16427,7 @@
       <c r="BB184" t="inlineStr"/>
       <c r="BC184" t="inlineStr"/>
       <c r="BD184" t="inlineStr"/>
+      <c r="BE184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -16334,6 +16518,7 @@
       <c r="BB185" t="inlineStr"/>
       <c r="BC185" t="inlineStr"/>
       <c r="BD185" t="inlineStr"/>
+      <c r="BE185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -16424,6 +16609,7 @@
       <c r="BB186" t="inlineStr"/>
       <c r="BC186" t="inlineStr"/>
       <c r="BD186" t="inlineStr"/>
+      <c r="BE186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -16514,6 +16700,7 @@
       <c r="BB187" t="inlineStr"/>
       <c r="BC187" t="inlineStr"/>
       <c r="BD187" t="inlineStr"/>
+      <c r="BE187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -16604,6 +16791,7 @@
       <c r="BB188" t="inlineStr"/>
       <c r="BC188" t="inlineStr"/>
       <c r="BD188" t="inlineStr"/>
+      <c r="BE188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -16694,6 +16882,7 @@
       <c r="BB189" t="inlineStr"/>
       <c r="BC189" t="inlineStr"/>
       <c r="BD189" t="inlineStr"/>
+      <c r="BE189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -16784,6 +16973,7 @@
       <c r="BB190" t="inlineStr"/>
       <c r="BC190" t="inlineStr"/>
       <c r="BD190" t="inlineStr"/>
+      <c r="BE190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -16874,6 +17064,7 @@
       <c r="BB191" t="inlineStr"/>
       <c r="BC191" t="inlineStr"/>
       <c r="BD191" t="inlineStr"/>
+      <c r="BE191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -16960,6 +17151,7 @@
       <c r="BB192" t="inlineStr"/>
       <c r="BC192" t="inlineStr"/>
       <c r="BD192" t="inlineStr"/>
+      <c r="BE192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -17046,6 +17238,7 @@
       <c r="BB193" t="inlineStr"/>
       <c r="BC193" t="inlineStr"/>
       <c r="BD193" t="inlineStr"/>
+      <c r="BE193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -17132,6 +17325,7 @@
       <c r="BB194" t="inlineStr"/>
       <c r="BC194" t="inlineStr"/>
       <c r="BD194" t="inlineStr"/>
+      <c r="BE194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -17218,6 +17412,7 @@
       <c r="BB195" t="inlineStr"/>
       <c r="BC195" t="inlineStr"/>
       <c r="BD195" t="inlineStr"/>
+      <c r="BE195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -17304,6 +17499,7 @@
       <c r="BB196" t="inlineStr"/>
       <c r="BC196" t="inlineStr"/>
       <c r="BD196" t="inlineStr"/>
+      <c r="BE196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -17386,6 +17582,7 @@
       <c r="BB197" t="inlineStr"/>
       <c r="BC197" t="inlineStr"/>
       <c r="BD197" t="inlineStr"/>
+      <c r="BE197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -17484,6 +17681,7 @@
       <c r="BB198" t="inlineStr"/>
       <c r="BC198" t="inlineStr"/>
       <c r="BD198" t="inlineStr"/>
+      <c r="BE198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -17566,6 +17764,7 @@
       <c r="BB199" t="inlineStr"/>
       <c r="BC199" t="inlineStr"/>
       <c r="BD199" t="inlineStr"/>
+      <c r="BE199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -17652,6 +17851,7 @@
       <c r="BB200" t="inlineStr"/>
       <c r="BC200" t="inlineStr"/>
       <c r="BD200" t="inlineStr"/>
+      <c r="BE200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -17738,6 +17938,7 @@
       <c r="BB201" t="inlineStr"/>
       <c r="BC201" t="inlineStr"/>
       <c r="BD201" t="inlineStr"/>
+      <c r="BE201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -17820,6 +18021,7 @@
       <c r="BB202" t="inlineStr"/>
       <c r="BC202" t="inlineStr"/>
       <c r="BD202" t="inlineStr"/>
+      <c r="BE202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -17906,6 +18108,7 @@
       <c r="BB203" t="inlineStr"/>
       <c r="BC203" t="inlineStr"/>
       <c r="BD203" t="inlineStr"/>
+      <c r="BE203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -17992,6 +18195,7 @@
       <c r="BB204" t="inlineStr"/>
       <c r="BC204" t="inlineStr"/>
       <c r="BD204" t="inlineStr"/>
+      <c r="BE204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -18078,6 +18282,7 @@
       <c r="BB205" t="inlineStr"/>
       <c r="BC205" t="inlineStr"/>
       <c r="BD205" t="inlineStr"/>
+      <c r="BE205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -18164,6 +18369,7 @@
       <c r="BB206" t="inlineStr"/>
       <c r="BC206" t="inlineStr"/>
       <c r="BD206" t="inlineStr"/>
+      <c r="BE206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -18250,6 +18456,7 @@
       <c r="BB207" t="inlineStr"/>
       <c r="BC207" t="inlineStr"/>
       <c r="BD207" t="inlineStr"/>
+      <c r="BE207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -18332,6 +18539,7 @@
       <c r="BB208" t="inlineStr"/>
       <c r="BC208" t="inlineStr"/>
       <c r="BD208" t="inlineStr"/>
+      <c r="BE208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -18422,6 +18630,7 @@
       <c r="BB209" t="inlineStr"/>
       <c r="BC209" t="inlineStr"/>
       <c r="BD209" t="inlineStr"/>
+      <c r="BE209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -18508,6 +18717,7 @@
       <c r="BB210" t="inlineStr"/>
       <c r="BC210" t="inlineStr"/>
       <c r="BD210" t="inlineStr"/>
+      <c r="BE210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -18594,6 +18804,7 @@
       <c r="BB211" t="inlineStr"/>
       <c r="BC211" t="inlineStr"/>
       <c r="BD211" t="inlineStr"/>
+      <c r="BE211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -18684,6 +18895,7 @@
       <c r="BB212" t="inlineStr"/>
       <c r="BC212" t="inlineStr"/>
       <c r="BD212" t="inlineStr"/>
+      <c r="BE212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -18774,6 +18986,7 @@
       <c r="BB213" t="inlineStr"/>
       <c r="BC213" t="inlineStr"/>
       <c r="BD213" t="inlineStr"/>
+      <c r="BE213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -18864,6 +19077,7 @@
       <c r="BB214" t="inlineStr"/>
       <c r="BC214" t="inlineStr"/>
       <c r="BD214" t="inlineStr"/>
+      <c r="BE214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -18954,6 +19168,7 @@
       <c r="BB215" t="inlineStr"/>
       <c r="BC215" t="inlineStr"/>
       <c r="BD215" t="inlineStr"/>
+      <c r="BE215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -19044,6 +19259,7 @@
       <c r="BB216" t="inlineStr"/>
       <c r="BC216" t="inlineStr"/>
       <c r="BD216" t="inlineStr"/>
+      <c r="BE216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -19134,6 +19350,7 @@
       <c r="BB217" t="inlineStr"/>
       <c r="BC217" t="inlineStr"/>
       <c r="BD217" t="inlineStr"/>
+      <c r="BE217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -19224,6 +19441,7 @@
       <c r="BB218" t="inlineStr"/>
       <c r="BC218" t="inlineStr"/>
       <c r="BD218" t="inlineStr"/>
+      <c r="BE218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -19310,6 +19528,7 @@
       <c r="BB219" t="inlineStr"/>
       <c r="BC219" t="inlineStr"/>
       <c r="BD219" t="inlineStr"/>
+      <c r="BE219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -19396,6 +19615,7 @@
       <c r="BB220" t="inlineStr"/>
       <c r="BC220" t="inlineStr"/>
       <c r="BD220" t="inlineStr"/>
+      <c r="BE220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -19486,6 +19706,7 @@
       <c r="BB221" t="inlineStr"/>
       <c r="BC221" t="inlineStr"/>
       <c r="BD221" t="inlineStr"/>
+      <c r="BE221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -19576,6 +19797,7 @@
       <c r="BB222" t="inlineStr"/>
       <c r="BC222" t="inlineStr"/>
       <c r="BD222" t="inlineStr"/>
+      <c r="BE222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -19666,6 +19888,7 @@
       <c r="BB223" t="inlineStr"/>
       <c r="BC223" t="inlineStr"/>
       <c r="BD223" t="inlineStr"/>
+      <c r="BE223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -19752,6 +19975,7 @@
       <c r="BB224" t="inlineStr"/>
       <c r="BC224" t="inlineStr"/>
       <c r="BD224" t="inlineStr"/>
+      <c r="BE224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -19838,6 +20062,7 @@
       <c r="BB225" t="inlineStr"/>
       <c r="BC225" t="inlineStr"/>
       <c r="BD225" t="inlineStr"/>
+      <c r="BE225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -19924,6 +20149,7 @@
       <c r="BB226" t="inlineStr"/>
       <c r="BC226" t="inlineStr"/>
       <c r="BD226" t="inlineStr"/>
+      <c r="BE226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -20010,6 +20236,7 @@
       <c r="BB227" t="inlineStr"/>
       <c r="BC227" t="inlineStr"/>
       <c r="BD227" t="inlineStr"/>
+      <c r="BE227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -20096,6 +20323,7 @@
       <c r="BB228" t="inlineStr"/>
       <c r="BC228" t="inlineStr"/>
       <c r="BD228" t="inlineStr"/>
+      <c r="BE228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -20182,6 +20410,7 @@
       <c r="BB229" t="inlineStr"/>
       <c r="BC229" t="inlineStr"/>
       <c r="BD229" t="inlineStr"/>
+      <c r="BE229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -20268,6 +20497,7 @@
       <c r="BB230" t="inlineStr"/>
       <c r="BC230" t="inlineStr"/>
       <c r="BD230" t="inlineStr"/>
+      <c r="BE230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -20354,6 +20584,7 @@
       <c r="BB231" t="inlineStr"/>
       <c r="BC231" t="inlineStr"/>
       <c r="BD231" t="inlineStr"/>
+      <c r="BE231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -20440,6 +20671,7 @@
       <c r="BB232" t="inlineStr"/>
       <c r="BC232" t="inlineStr"/>
       <c r="BD232" t="inlineStr"/>
+      <c r="BE232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -20530,6 +20762,7 @@
       <c r="BB233" t="inlineStr"/>
       <c r="BC233" t="inlineStr"/>
       <c r="BD233" t="inlineStr"/>
+      <c r="BE233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -20612,6 +20845,7 @@
       <c r="BB234" t="inlineStr"/>
       <c r="BC234" t="inlineStr"/>
       <c r="BD234" t="inlineStr"/>
+      <c r="BE234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -20702,6 +20936,7 @@
       <c r="BB235" t="inlineStr"/>
       <c r="BC235" t="inlineStr"/>
       <c r="BD235" t="inlineStr"/>
+      <c r="BE235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -20792,6 +21027,7 @@
       <c r="BB236" t="inlineStr"/>
       <c r="BC236" t="inlineStr"/>
       <c r="BD236" t="inlineStr"/>
+      <c r="BE236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -20882,6 +21118,7 @@
       <c r="BB237" t="inlineStr"/>
       <c r="BC237" t="inlineStr"/>
       <c r="BD237" t="inlineStr"/>
+      <c r="BE237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -20968,6 +21205,7 @@
       <c r="BB238" t="inlineStr"/>
       <c r="BC238" t="inlineStr"/>
       <c r="BD238" t="inlineStr"/>
+      <c r="BE238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -21054,6 +21292,7 @@
       <c r="BB239" t="inlineStr"/>
       <c r="BC239" t="inlineStr"/>
       <c r="BD239" t="inlineStr"/>
+      <c r="BE239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -21140,6 +21379,7 @@
       <c r="BB240" t="inlineStr"/>
       <c r="BC240" t="inlineStr"/>
       <c r="BD240" t="inlineStr"/>
+      <c r="BE240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -21226,6 +21466,7 @@
       <c r="BB241" t="inlineStr"/>
       <c r="BC241" t="inlineStr"/>
       <c r="BD241" t="inlineStr"/>
+      <c r="BE241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -21312,6 +21553,7 @@
       <c r="BB242" t="inlineStr"/>
       <c r="BC242" t="inlineStr"/>
       <c r="BD242" t="inlineStr"/>
+      <c r="BE242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -21398,6 +21640,7 @@
       <c r="BB243" t="inlineStr"/>
       <c r="BC243" t="inlineStr"/>
       <c r="BD243" t="inlineStr"/>
+      <c r="BE243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -21484,6 +21727,7 @@
       <c r="BB244" t="inlineStr"/>
       <c r="BC244" t="inlineStr"/>
       <c r="BD244" t="inlineStr"/>
+      <c r="BE244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -21570,6 +21814,7 @@
       <c r="BB245" t="inlineStr"/>
       <c r="BC245" t="inlineStr"/>
       <c r="BD245" t="inlineStr"/>
+      <c r="BE245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -21656,6 +21901,7 @@
       <c r="BB246" t="inlineStr"/>
       <c r="BC246" t="inlineStr"/>
       <c r="BD246" t="inlineStr"/>
+      <c r="BE246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -21742,6 +21988,7 @@
       <c r="BB247" t="inlineStr"/>
       <c r="BC247" t="inlineStr"/>
       <c r="BD247" t="inlineStr"/>
+      <c r="BE247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -21828,6 +22075,7 @@
       <c r="BB248" t="inlineStr"/>
       <c r="BC248" t="inlineStr"/>
       <c r="BD248" t="inlineStr"/>
+      <c r="BE248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -21910,6 +22158,7 @@
       <c r="BB249" t="inlineStr"/>
       <c r="BC249" t="inlineStr"/>
       <c r="BD249" t="inlineStr"/>
+      <c r="BE249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -21996,6 +22245,7 @@
       <c r="BB250" t="inlineStr"/>
       <c r="BC250" t="inlineStr"/>
       <c r="BD250" t="inlineStr"/>
+      <c r="BE250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -22082,6 +22332,7 @@
       <c r="BB251" t="inlineStr"/>
       <c r="BC251" t="inlineStr"/>
       <c r="BD251" t="inlineStr"/>
+      <c r="BE251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -22164,6 +22415,7 @@
       <c r="BB252" t="inlineStr"/>
       <c r="BC252" t="inlineStr"/>
       <c r="BD252" t="inlineStr"/>
+      <c r="BE252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -22250,6 +22502,7 @@
       <c r="BB253" t="inlineStr"/>
       <c r="BC253" t="inlineStr"/>
       <c r="BD253" t="inlineStr"/>
+      <c r="BE253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -22336,6 +22589,7 @@
       <c r="BB254" t="inlineStr"/>
       <c r="BC254" t="inlineStr"/>
       <c r="BD254" t="inlineStr"/>
+      <c r="BE254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -22422,6 +22676,7 @@
       <c r="BB255" t="inlineStr"/>
       <c r="BC255" t="inlineStr"/>
       <c r="BD255" t="inlineStr"/>
+      <c r="BE255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -22508,6 +22763,7 @@
       <c r="BB256" t="inlineStr"/>
       <c r="BC256" t="inlineStr"/>
       <c r="BD256" t="inlineStr"/>
+      <c r="BE256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -22594,6 +22850,7 @@
       <c r="BB257" t="inlineStr"/>
       <c r="BC257" t="inlineStr"/>
       <c r="BD257" t="inlineStr"/>
+      <c r="BE257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -22680,6 +22937,7 @@
       <c r="BB258" t="inlineStr"/>
       <c r="BC258" t="inlineStr"/>
       <c r="BD258" t="inlineStr"/>
+      <c r="BE258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -22762,6 +23020,7 @@
       <c r="BB259" t="inlineStr"/>
       <c r="BC259" t="inlineStr"/>
       <c r="BD259" t="inlineStr"/>
+      <c r="BE259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -22848,6 +23107,7 @@
       <c r="BB260" t="inlineStr"/>
       <c r="BC260" t="inlineStr"/>
       <c r="BD260" t="inlineStr"/>
+      <c r="BE260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -22934,6 +23194,7 @@
       <c r="BB261" t="inlineStr"/>
       <c r="BC261" t="inlineStr"/>
       <c r="BD261" t="inlineStr"/>
+      <c r="BE261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -23020,6 +23281,7 @@
       <c r="BB262" t="inlineStr"/>
       <c r="BC262" t="inlineStr"/>
       <c r="BD262" t="inlineStr"/>
+      <c r="BE262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -23106,6 +23368,7 @@
       <c r="BB263" t="inlineStr"/>
       <c r="BC263" t="inlineStr"/>
       <c r="BD263" t="inlineStr"/>
+      <c r="BE263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -23192,6 +23455,7 @@
       <c r="BB264" t="inlineStr"/>
       <c r="BC264" t="inlineStr"/>
       <c r="BD264" t="inlineStr"/>
+      <c r="BE264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -23278,6 +23542,7 @@
       <c r="BB265" t="inlineStr"/>
       <c r="BC265" t="inlineStr"/>
       <c r="BD265" t="inlineStr"/>
+      <c r="BE265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -23372,6 +23637,7 @@
       <c r="BB266" t="inlineStr"/>
       <c r="BC266" t="inlineStr"/>
       <c r="BD266" t="inlineStr"/>
+      <c r="BE266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -23458,6 +23724,7 @@
       <c r="BB267" t="inlineStr"/>
       <c r="BC267" t="inlineStr"/>
       <c r="BD267" t="inlineStr"/>
+      <c r="BE267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -23548,6 +23815,7 @@
       <c r="BB268" t="inlineStr"/>
       <c r="BC268" t="inlineStr"/>
       <c r="BD268" t="inlineStr"/>
+      <c r="BE268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -23638,6 +23906,7 @@
       <c r="BB269" t="inlineStr"/>
       <c r="BC269" t="inlineStr"/>
       <c r="BD269" t="inlineStr"/>
+      <c r="BE269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -23728,6 +23997,7 @@
       <c r="BB270" t="inlineStr"/>
       <c r="BC270" t="inlineStr"/>
       <c r="BD270" t="inlineStr"/>
+      <c r="BE270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -23814,6 +24084,7 @@
       <c r="BB271" t="inlineStr"/>
       <c r="BC271" t="inlineStr"/>
       <c r="BD271" t="inlineStr"/>
+      <c r="BE271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -23900,6 +24171,7 @@
       <c r="BB272" t="inlineStr"/>
       <c r="BC272" t="inlineStr"/>
       <c r="BD272" t="inlineStr"/>
+      <c r="BE272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -23986,6 +24258,7 @@
       <c r="BB273" t="inlineStr"/>
       <c r="BC273" t="inlineStr"/>
       <c r="BD273" t="inlineStr"/>
+      <c r="BE273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -24072,6 +24345,7 @@
       <c r="BB274" t="inlineStr"/>
       <c r="BC274" t="inlineStr"/>
       <c r="BD274" t="inlineStr"/>
+      <c r="BE274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -24158,6 +24432,7 @@
       <c r="BB275" t="inlineStr"/>
       <c r="BC275" t="inlineStr"/>
       <c r="BD275" t="inlineStr"/>
+      <c r="BE275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -24244,6 +24519,7 @@
       <c r="BB276" t="inlineStr"/>
       <c r="BC276" t="inlineStr"/>
       <c r="BD276" t="inlineStr"/>
+      <c r="BE276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -24330,6 +24606,7 @@
       <c r="BB277" t="inlineStr"/>
       <c r="BC277" t="inlineStr"/>
       <c r="BD277" t="inlineStr"/>
+      <c r="BE277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -24416,6 +24693,7 @@
       <c r="BB278" t="inlineStr"/>
       <c r="BC278" t="inlineStr"/>
       <c r="BD278" t="inlineStr"/>
+      <c r="BE278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -24506,6 +24784,7 @@
       <c r="BB279" t="inlineStr"/>
       <c r="BC279" t="inlineStr"/>
       <c r="BD279" t="inlineStr"/>
+      <c r="BE279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -24592,6 +24871,7 @@
       <c r="BB280" t="inlineStr"/>
       <c r="BC280" t="inlineStr"/>
       <c r="BD280" t="inlineStr"/>
+      <c r="BE280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -24678,6 +24958,7 @@
       <c r="BB281" t="inlineStr"/>
       <c r="BC281" t="inlineStr"/>
       <c r="BD281" t="inlineStr"/>
+      <c r="BE281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -24764,6 +25045,7 @@
       <c r="BB282" t="inlineStr"/>
       <c r="BC282" t="inlineStr"/>
       <c r="BD282" t="inlineStr"/>
+      <c r="BE282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -24850,6 +25132,7 @@
       <c r="BB283" t="inlineStr"/>
       <c r="BC283" t="inlineStr"/>
       <c r="BD283" t="inlineStr"/>
+      <c r="BE283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -24936,6 +25219,7 @@
       <c r="BB284" t="inlineStr"/>
       <c r="BC284" t="inlineStr"/>
       <c r="BD284" t="inlineStr"/>
+      <c r="BE284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -25026,6 +25310,7 @@
       <c r="BB285" t="inlineStr"/>
       <c r="BC285" t="inlineStr"/>
       <c r="BD285" t="inlineStr"/>
+      <c r="BE285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -25112,6 +25397,7 @@
       <c r="BB286" t="inlineStr"/>
       <c r="BC286" t="inlineStr"/>
       <c r="BD286" t="inlineStr"/>
+      <c r="BE286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -25198,6 +25484,7 @@
       <c r="BB287" t="inlineStr"/>
       <c r="BC287" t="inlineStr"/>
       <c r="BD287" t="inlineStr"/>
+      <c r="BE287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -25288,6 +25575,7 @@
       <c r="BB288" t="inlineStr"/>
       <c r="BC288" t="inlineStr"/>
       <c r="BD288" t="inlineStr"/>
+      <c r="BE288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -25374,6 +25662,7 @@
       <c r="BB289" t="inlineStr"/>
       <c r="BC289" t="inlineStr"/>
       <c r="BD289" t="inlineStr"/>
+      <c r="BE289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -25460,6 +25749,7 @@
       <c r="BB290" t="inlineStr"/>
       <c r="BC290" t="inlineStr"/>
       <c r="BD290" t="inlineStr"/>
+      <c r="BE290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -25550,6 +25840,7 @@
       <c r="BB291" t="inlineStr"/>
       <c r="BC291" t="inlineStr"/>
       <c r="BD291" t="inlineStr"/>
+      <c r="BE291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -25636,6 +25927,7 @@
       <c r="BB292" t="inlineStr"/>
       <c r="BC292" t="inlineStr"/>
       <c r="BD292" t="inlineStr"/>
+      <c r="BE292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -25722,6 +26014,7 @@
       <c r="BB293" t="inlineStr"/>
       <c r="BC293" t="inlineStr"/>
       <c r="BD293" t="inlineStr"/>
+      <c r="BE293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -25812,6 +26105,7 @@
       <c r="BB294" t="inlineStr"/>
       <c r="BC294" t="inlineStr"/>
       <c r="BD294" t="inlineStr"/>
+      <c r="BE294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -25902,6 +26196,7 @@
       <c r="BB295" t="inlineStr"/>
       <c r="BC295" t="inlineStr"/>
       <c r="BD295" t="inlineStr"/>
+      <c r="BE295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -25992,6 +26287,7 @@
       <c r="BB296" t="inlineStr"/>
       <c r="BC296" t="inlineStr"/>
       <c r="BD296" t="inlineStr"/>
+      <c r="BE296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -26078,6 +26374,7 @@
       <c r="BB297" t="inlineStr"/>
       <c r="BC297" t="inlineStr"/>
       <c r="BD297" t="inlineStr"/>
+      <c r="BE297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -26164,6 +26461,7 @@
       <c r="BB298" t="inlineStr"/>
       <c r="BC298" t="inlineStr"/>
       <c r="BD298" t="inlineStr"/>
+      <c r="BE298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -26250,6 +26548,7 @@
       <c r="BB299" t="inlineStr"/>
       <c r="BC299" t="inlineStr"/>
       <c r="BD299" t="inlineStr"/>
+      <c r="BE299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -26336,6 +26635,7 @@
       <c r="BB300" t="inlineStr"/>
       <c r="BC300" t="inlineStr"/>
       <c r="BD300" t="inlineStr"/>
+      <c r="BE300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -26422,6 +26722,7 @@
       <c r="BB301" t="inlineStr"/>
       <c r="BC301" t="inlineStr"/>
       <c r="BD301" t="inlineStr"/>
+      <c r="BE301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -26508,6 +26809,7 @@
       <c r="BB302" t="inlineStr"/>
       <c r="BC302" t="inlineStr"/>
       <c r="BD302" t="inlineStr"/>
+      <c r="BE302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -26594,6 +26896,7 @@
       <c r="BB303" t="inlineStr"/>
       <c r="BC303" t="inlineStr"/>
       <c r="BD303" t="inlineStr"/>
+      <c r="BE303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -26680,6 +26983,7 @@
       <c r="BB304" t="inlineStr"/>
       <c r="BC304" t="inlineStr"/>
       <c r="BD304" t="inlineStr"/>
+      <c r="BE304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -26766,6 +27070,7 @@
       <c r="BB305" t="inlineStr"/>
       <c r="BC305" t="inlineStr"/>
       <c r="BD305" t="inlineStr"/>
+      <c r="BE305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -26852,6 +27157,7 @@
       <c r="BB306" t="inlineStr"/>
       <c r="BC306" t="inlineStr"/>
       <c r="BD306" t="inlineStr"/>
+      <c r="BE306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -26938,6 +27244,7 @@
       <c r="BB307" t="inlineStr"/>
       <c r="BC307" t="inlineStr"/>
       <c r="BD307" t="inlineStr"/>
+      <c r="BE307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -27024,6 +27331,7 @@
       <c r="BB308" t="inlineStr"/>
       <c r="BC308" t="inlineStr"/>
       <c r="BD308" t="inlineStr"/>
+      <c r="BE308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -27110,6 +27418,7 @@
       <c r="BB309" t="inlineStr"/>
       <c r="BC309" t="inlineStr"/>
       <c r="BD309" t="inlineStr"/>
+      <c r="BE309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -27196,6 +27505,7 @@
       <c r="BB310" t="inlineStr"/>
       <c r="BC310" t="inlineStr"/>
       <c r="BD310" t="inlineStr"/>
+      <c r="BE310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -27282,6 +27592,7 @@
       <c r="BB311" t="inlineStr"/>
       <c r="BC311" t="inlineStr"/>
       <c r="BD311" t="inlineStr"/>
+      <c r="BE311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -27364,6 +27675,7 @@
       <c r="BB312" t="inlineStr"/>
       <c r="BC312" t="inlineStr"/>
       <c r="BD312" t="inlineStr"/>
+      <c r="BE312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -27454,6 +27766,7 @@
       <c r="BB313" t="inlineStr"/>
       <c r="BC313" t="inlineStr"/>
       <c r="BD313" t="inlineStr"/>
+      <c r="BE313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -27544,6 +27857,7 @@
       <c r="BB314" t="inlineStr"/>
       <c r="BC314" t="inlineStr"/>
       <c r="BD314" t="inlineStr"/>
+      <c r="BE314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -27634,6 +27948,7 @@
       <c r="BB315" t="inlineStr"/>
       <c r="BC315" t="inlineStr"/>
       <c r="BD315" t="inlineStr"/>
+      <c r="BE315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -27724,6 +28039,7 @@
       <c r="BB316" t="inlineStr"/>
       <c r="BC316" t="inlineStr"/>
       <c r="BD316" t="inlineStr"/>
+      <c r="BE316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -27814,6 +28130,7 @@
       <c r="BB317" t="inlineStr"/>
       <c r="BC317" t="inlineStr"/>
       <c r="BD317" t="inlineStr"/>
+      <c r="BE317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -27896,6 +28213,7 @@
       <c r="BB318" t="inlineStr"/>
       <c r="BC318" t="inlineStr"/>
       <c r="BD318" t="inlineStr"/>
+      <c r="BE318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -27986,6 +28304,7 @@
       <c r="BB319" t="inlineStr"/>
       <c r="BC319" t="inlineStr"/>
       <c r="BD319" t="inlineStr"/>
+      <c r="BE319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -28076,6 +28395,7 @@
       <c r="BB320" t="inlineStr"/>
       <c r="BC320" t="inlineStr"/>
       <c r="BD320" t="inlineStr"/>
+      <c r="BE320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -28166,6 +28486,7 @@
       <c r="BB321" t="inlineStr"/>
       <c r="BC321" t="inlineStr"/>
       <c r="BD321" t="inlineStr"/>
+      <c r="BE321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -28256,6 +28577,7 @@
       <c r="BB322" t="inlineStr"/>
       <c r="BC322" t="inlineStr"/>
       <c r="BD322" t="inlineStr"/>
+      <c r="BE322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -28346,6 +28668,7 @@
       <c r="BB323" t="inlineStr"/>
       <c r="BC323" t="inlineStr"/>
       <c r="BD323" t="inlineStr"/>
+      <c r="BE323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -28436,6 +28759,7 @@
       <c r="BB324" t="inlineStr"/>
       <c r="BC324" t="inlineStr"/>
       <c r="BD324" t="inlineStr"/>
+      <c r="BE324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -28526,6 +28850,7 @@
       <c r="BB325" t="inlineStr"/>
       <c r="BC325" t="inlineStr"/>
       <c r="BD325" t="inlineStr"/>
+      <c r="BE325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -28616,6 +28941,7 @@
       <c r="BB326" t="inlineStr"/>
       <c r="BC326" t="inlineStr"/>
       <c r="BD326" t="inlineStr"/>
+      <c r="BE326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -28706,6 +29032,7 @@
       <c r="BB327" t="inlineStr"/>
       <c r="BC327" t="inlineStr"/>
       <c r="BD327" t="inlineStr"/>
+      <c r="BE327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -28796,6 +29123,7 @@
       <c r="BB328" t="inlineStr"/>
       <c r="BC328" t="inlineStr"/>
       <c r="BD328" t="inlineStr"/>
+      <c r="BE328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -28886,6 +29214,7 @@
       <c r="BB329" t="inlineStr"/>
       <c r="BC329" t="inlineStr"/>
       <c r="BD329" t="inlineStr"/>
+      <c r="BE329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -28976,6 +29305,7 @@
       <c r="BB330" t="inlineStr"/>
       <c r="BC330" t="inlineStr"/>
       <c r="BD330" t="inlineStr"/>
+      <c r="BE330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -29066,6 +29396,7 @@
       <c r="BB331" t="inlineStr"/>
       <c r="BC331" t="inlineStr"/>
       <c r="BD331" t="inlineStr"/>
+      <c r="BE331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -29156,6 +29487,7 @@
       <c r="BB332" t="inlineStr"/>
       <c r="BC332" t="inlineStr"/>
       <c r="BD332" t="inlineStr"/>
+      <c r="BE332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -29238,6 +29570,7 @@
       <c r="BB333" t="inlineStr"/>
       <c r="BC333" t="inlineStr"/>
       <c r="BD333" t="inlineStr"/>
+      <c r="BE333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -29328,6 +29661,7 @@
       <c r="BB334" t="inlineStr"/>
       <c r="BC334" t="inlineStr"/>
       <c r="BD334" t="inlineStr"/>
+      <c r="BE334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -29418,6 +29752,7 @@
       <c r="BB335" t="inlineStr"/>
       <c r="BC335" t="inlineStr"/>
       <c r="BD335" t="inlineStr"/>
+      <c r="BE335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -29508,6 +29843,7 @@
       <c r="BB336" t="inlineStr"/>
       <c r="BC336" t="inlineStr"/>
       <c r="BD336" t="inlineStr"/>
+      <c r="BE336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -29598,6 +29934,7 @@
       <c r="BB337" t="inlineStr"/>
       <c r="BC337" t="inlineStr"/>
       <c r="BD337" t="inlineStr"/>
+      <c r="BE337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -29688,6 +30025,7 @@
       <c r="BB338" t="inlineStr"/>
       <c r="BC338" t="inlineStr"/>
       <c r="BD338" t="inlineStr"/>
+      <c r="BE338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -29770,6 +30108,7 @@
       <c r="BB339" t="inlineStr"/>
       <c r="BC339" t="inlineStr"/>
       <c r="BD339" t="inlineStr"/>
+      <c r="BE339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -29856,6 +30195,7 @@
       <c r="BB340" t="inlineStr"/>
       <c r="BC340" t="inlineStr"/>
       <c r="BD340" t="inlineStr"/>
+      <c r="BE340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -29942,6 +30282,7 @@
       <c r="BB341" t="inlineStr"/>
       <c r="BC341" t="inlineStr"/>
       <c r="BD341" t="inlineStr"/>
+      <c r="BE341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -30028,6 +30369,7 @@
       <c r="BB342" t="inlineStr"/>
       <c r="BC342" t="inlineStr"/>
       <c r="BD342" t="inlineStr"/>
+      <c r="BE342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -30114,6 +30456,7 @@
       <c r="BB343" t="inlineStr"/>
       <c r="BC343" t="inlineStr"/>
       <c r="BD343" t="inlineStr"/>
+      <c r="BE343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -30200,6 +30543,7 @@
       <c r="BB344" t="inlineStr"/>
       <c r="BC344" t="inlineStr"/>
       <c r="BD344" t="inlineStr"/>
+      <c r="BE344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -30286,6 +30630,7 @@
       <c r="BB345" t="inlineStr"/>
       <c r="BC345" t="inlineStr"/>
       <c r="BD345" t="inlineStr"/>
+      <c r="BE345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -30372,6 +30717,7 @@
       <c r="BB346" t="inlineStr"/>
       <c r="BC346" t="inlineStr"/>
       <c r="BD346" t="inlineStr"/>
+      <c r="BE346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -30454,6 +30800,7 @@
       <c r="BB347" t="inlineStr"/>
       <c r="BC347" t="inlineStr"/>
       <c r="BD347" t="inlineStr"/>
+      <c r="BE347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -30540,6 +30887,7 @@
       <c r="BB348" t="inlineStr"/>
       <c r="BC348" t="inlineStr"/>
       <c r="BD348" t="inlineStr"/>
+      <c r="BE348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -30626,6 +30974,7 @@
       <c r="BB349" t="inlineStr"/>
       <c r="BC349" t="inlineStr"/>
       <c r="BD349" t="inlineStr"/>
+      <c r="BE349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -30712,6 +31061,7 @@
       <c r="BB350" t="inlineStr"/>
       <c r="BC350" t="inlineStr"/>
       <c r="BD350" t="inlineStr"/>
+      <c r="BE350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -30798,6 +31148,7 @@
       <c r="BB351" t="inlineStr"/>
       <c r="BC351" t="inlineStr"/>
       <c r="BD351" t="inlineStr"/>
+      <c r="BE351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -30884,6 +31235,7 @@
       <c r="BB352" t="inlineStr"/>
       <c r="BC352" t="inlineStr"/>
       <c r="BD352" t="inlineStr"/>
+      <c r="BE352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -30970,6 +31322,7 @@
       <c r="BB353" t="inlineStr"/>
       <c r="BC353" t="inlineStr"/>
       <c r="BD353" t="inlineStr"/>
+      <c r="BE353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -31056,6 +31409,7 @@
       <c r="BB354" t="inlineStr"/>
       <c r="BC354" t="inlineStr"/>
       <c r="BD354" t="inlineStr"/>
+      <c r="BE354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -31138,6 +31492,7 @@
       <c r="BB355" t="inlineStr"/>
       <c r="BC355" t="inlineStr"/>
       <c r="BD355" t="inlineStr"/>
+      <c r="BE355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -31224,6 +31579,7 @@
       <c r="BB356" t="inlineStr"/>
       <c r="BC356" t="inlineStr"/>
       <c r="BD356" t="inlineStr"/>
+      <c r="BE356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -31310,6 +31666,7 @@
       <c r="BB357" t="inlineStr"/>
       <c r="BC357" t="inlineStr"/>
       <c r="BD357" t="inlineStr"/>
+      <c r="BE357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -31400,6 +31757,7 @@
       <c r="BB358" t="inlineStr"/>
       <c r="BC358" t="inlineStr"/>
       <c r="BD358" t="inlineStr"/>
+      <c r="BE358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -31482,6 +31840,7 @@
       <c r="BB359" t="inlineStr"/>
       <c r="BC359" t="inlineStr"/>
       <c r="BD359" t="inlineStr"/>
+      <c r="BE359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -31568,6 +31927,7 @@
       <c r="BB360" t="inlineStr"/>
       <c r="BC360" t="inlineStr"/>
       <c r="BD360" t="inlineStr"/>
+      <c r="BE360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -31654,6 +32014,7 @@
       <c r="BB361" t="inlineStr"/>
       <c r="BC361" t="inlineStr"/>
       <c r="BD361" t="inlineStr"/>
+      <c r="BE361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -31740,6 +32101,7 @@
       <c r="BB362" t="inlineStr"/>
       <c r="BC362" t="inlineStr"/>
       <c r="BD362" t="inlineStr"/>
+      <c r="BE362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -31826,6 +32188,7 @@
       <c r="BB363" t="inlineStr"/>
       <c r="BC363" t="inlineStr"/>
       <c r="BD363" t="inlineStr"/>
+      <c r="BE363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -31912,6 +32275,7 @@
       <c r="BB364" t="inlineStr"/>
       <c r="BC364" t="inlineStr"/>
       <c r="BD364" t="inlineStr"/>
+      <c r="BE364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -31994,6 +32358,7 @@
       <c r="BB365" t="inlineStr"/>
       <c r="BC365" t="inlineStr"/>
       <c r="BD365" t="inlineStr"/>
+      <c r="BE365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -32080,6 +32445,7 @@
       <c r="BB366" t="inlineStr"/>
       <c r="BC366" t="inlineStr"/>
       <c r="BD366" t="inlineStr"/>
+      <c r="BE366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -32170,6 +32536,7 @@
       <c r="BB367" t="inlineStr"/>
       <c r="BC367" t="inlineStr"/>
       <c r="BD367" t="inlineStr"/>
+      <c r="BE367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -32260,6 +32627,7 @@
       <c r="BB368" t="inlineStr"/>
       <c r="BC368" t="inlineStr"/>
       <c r="BD368" t="inlineStr"/>
+      <c r="BE368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -32350,6 +32718,7 @@
       <c r="BB369" t="inlineStr"/>
       <c r="BC369" t="inlineStr"/>
       <c r="BD369" t="inlineStr"/>
+      <c r="BE369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -32440,6 +32809,7 @@
       <c r="BB370" t="inlineStr"/>
       <c r="BC370" t="inlineStr"/>
       <c r="BD370" t="inlineStr"/>
+      <c r="BE370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -32526,6 +32896,7 @@
       <c r="BB371" t="inlineStr"/>
       <c r="BC371" t="inlineStr"/>
       <c r="BD371" t="inlineStr"/>
+      <c r="BE371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -32612,6 +32983,7 @@
       <c r="BB372" t="inlineStr"/>
       <c r="BC372" t="inlineStr"/>
       <c r="BD372" t="inlineStr"/>
+      <c r="BE372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -32698,6 +33070,7 @@
       <c r="BB373" t="inlineStr"/>
       <c r="BC373" t="inlineStr"/>
       <c r="BD373" t="inlineStr"/>
+      <c r="BE373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -32784,6 +33157,7 @@
       <c r="BB374" t="inlineStr"/>
       <c r="BC374" t="inlineStr"/>
       <c r="BD374" t="inlineStr"/>
+      <c r="BE374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -32870,6 +33244,7 @@
       <c r="BB375" t="inlineStr"/>
       <c r="BC375" t="inlineStr"/>
       <c r="BD375" t="inlineStr"/>
+      <c r="BE375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -32956,6 +33331,7 @@
       <c r="BB376" t="inlineStr"/>
       <c r="BC376" t="inlineStr"/>
       <c r="BD376" t="inlineStr"/>
+      <c r="BE376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -33042,6 +33418,7 @@
       <c r="BB377" t="inlineStr"/>
       <c r="BC377" t="inlineStr"/>
       <c r="BD377" t="inlineStr"/>
+      <c r="BE377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -33128,6 +33505,7 @@
       <c r="BB378" t="inlineStr"/>
       <c r="BC378" t="inlineStr"/>
       <c r="BD378" t="inlineStr"/>
+      <c r="BE378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -33214,6 +33592,7 @@
       <c r="BB379" t="inlineStr"/>
       <c r="BC379" t="inlineStr"/>
       <c r="BD379" t="inlineStr"/>
+      <c r="BE379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -33300,6 +33679,7 @@
       <c r="BB380" t="inlineStr"/>
       <c r="BC380" t="inlineStr"/>
       <c r="BD380" t="inlineStr"/>
+      <c r="BE380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -33386,6 +33766,7 @@
       <c r="BB381" t="inlineStr"/>
       <c r="BC381" t="inlineStr"/>
       <c r="BD381" t="inlineStr"/>
+      <c r="BE381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -33472,6 +33853,7 @@
       <c r="BB382" t="inlineStr"/>
       <c r="BC382" t="inlineStr"/>
       <c r="BD382" t="inlineStr"/>
+      <c r="BE382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -33558,6 +33940,7 @@
       <c r="BB383" t="inlineStr"/>
       <c r="BC383" t="inlineStr"/>
       <c r="BD383" t="inlineStr"/>
+      <c r="BE383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -33644,6 +34027,7 @@
       <c r="BB384" t="inlineStr"/>
       <c r="BC384" t="inlineStr"/>
       <c r="BD384" t="inlineStr"/>
+      <c r="BE384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -33730,6 +34114,7 @@
       <c r="BB385" t="inlineStr"/>
       <c r="BC385" t="inlineStr"/>
       <c r="BD385" t="inlineStr"/>
+      <c r="BE385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -33816,6 +34201,7 @@
       <c r="BB386" t="inlineStr"/>
       <c r="BC386" t="inlineStr"/>
       <c r="BD386" t="inlineStr"/>
+      <c r="BE386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -33898,6 +34284,7 @@
       <c r="BB387" t="inlineStr"/>
       <c r="BC387" t="inlineStr"/>
       <c r="BD387" t="inlineStr"/>
+      <c r="BE387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -33984,6 +34371,7 @@
       <c r="BB388" t="inlineStr"/>
       <c r="BC388" t="inlineStr"/>
       <c r="BD388" t="inlineStr"/>
+      <c r="BE388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -34070,6 +34458,7 @@
       <c r="BB389" t="inlineStr"/>
       <c r="BC389" t="inlineStr"/>
       <c r="BD389" t="inlineStr"/>
+      <c r="BE389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -34156,6 +34545,7 @@
       <c r="BB390" t="inlineStr"/>
       <c r="BC390" t="inlineStr"/>
       <c r="BD390" t="inlineStr"/>
+      <c r="BE390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -34238,6 +34628,7 @@
       <c r="BB391" t="inlineStr"/>
       <c r="BC391" t="inlineStr"/>
       <c r="BD391" t="inlineStr"/>
+      <c r="BE391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -34328,6 +34719,7 @@
       <c r="BB392" t="inlineStr"/>
       <c r="BC392" t="inlineStr"/>
       <c r="BD392" t="inlineStr"/>
+      <c r="BE392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -34418,6 +34810,7 @@
       <c r="BB393" t="inlineStr"/>
       <c r="BC393" t="inlineStr"/>
       <c r="BD393" t="inlineStr"/>
+      <c r="BE393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -34508,6 +34901,7 @@
       <c r="BB394" t="inlineStr"/>
       <c r="BC394" t="inlineStr"/>
       <c r="BD394" t="inlineStr"/>
+      <c r="BE394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -34598,6 +34992,7 @@
       <c r="BB395" t="inlineStr"/>
       <c r="BC395" t="inlineStr"/>
       <c r="BD395" t="inlineStr"/>
+      <c r="BE395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -34680,6 +35075,7 @@
       <c r="BB396" t="inlineStr"/>
       <c r="BC396" t="inlineStr"/>
       <c r="BD396" t="inlineStr"/>
+      <c r="BE396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -34766,6 +35162,7 @@
       <c r="BB397" t="inlineStr"/>
       <c r="BC397" t="inlineStr"/>
       <c r="BD397" t="inlineStr"/>
+      <c r="BE397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -34852,6 +35249,7 @@
       <c r="BB398" t="inlineStr"/>
       <c r="BC398" t="inlineStr"/>
       <c r="BD398" t="inlineStr"/>
+      <c r="BE398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -34938,6 +35336,7 @@
       <c r="BB399" t="inlineStr"/>
       <c r="BC399" t="inlineStr"/>
       <c r="BD399" t="inlineStr"/>
+      <c r="BE399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -35024,6 +35423,7 @@
       <c r="BB400" t="inlineStr"/>
       <c r="BC400" t="inlineStr"/>
       <c r="BD400" t="inlineStr"/>
+      <c r="BE400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -35106,6 +35506,7 @@
       <c r="BB401" t="inlineStr"/>
       <c r="BC401" t="inlineStr"/>
       <c r="BD401" t="inlineStr"/>
+      <c r="BE401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -35192,6 +35593,7 @@
       <c r="BB402" t="inlineStr"/>
       <c r="BC402" t="inlineStr"/>
       <c r="BD402" t="inlineStr"/>
+      <c r="BE402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -35278,6 +35680,7 @@
       <c r="BB403" t="inlineStr"/>
       <c r="BC403" t="inlineStr"/>
       <c r="BD403" t="inlineStr"/>
+      <c r="BE403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -35364,6 +35767,7 @@
       <c r="BB404" t="inlineStr"/>
       <c r="BC404" t="inlineStr"/>
       <c r="BD404" t="inlineStr"/>
+      <c r="BE404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -35450,6 +35854,7 @@
       <c r="BB405" t="inlineStr"/>
       <c r="BC405" t="inlineStr"/>
       <c r="BD405" t="inlineStr"/>
+      <c r="BE405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -35532,6 +35937,7 @@
       <c r="BB406" t="inlineStr"/>
       <c r="BC406" t="inlineStr"/>
       <c r="BD406" t="inlineStr"/>
+      <c r="BE406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -35614,6 +36020,7 @@
       <c r="BB407" t="inlineStr"/>
       <c r="BC407" t="inlineStr"/>
       <c r="BD407" t="inlineStr"/>
+      <c r="BE407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -35696,6 +36103,7 @@
       <c r="BB408" t="inlineStr"/>
       <c r="BC408" t="inlineStr"/>
       <c r="BD408" t="inlineStr"/>
+      <c r="BE408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -35778,6 +36186,7 @@
       <c r="BB409" t="inlineStr"/>
       <c r="BC409" t="inlineStr"/>
       <c r="BD409" t="inlineStr"/>
+      <c r="BE409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -35860,6 +36269,7 @@
       <c r="BB410" t="inlineStr"/>
       <c r="BC410" t="inlineStr"/>
       <c r="BD410" t="inlineStr"/>
+      <c r="BE410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -35938,6 +36348,7 @@
       <c r="BB411" t="inlineStr"/>
       <c r="BC411" t="inlineStr"/>
       <c r="BD411" t="inlineStr"/>
+      <c r="BE411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -36020,6 +36431,7 @@
       <c r="BB412" t="inlineStr"/>
       <c r="BC412" t="inlineStr"/>
       <c r="BD412" t="inlineStr"/>
+      <c r="BE412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -36098,6 +36510,7 @@
       <c r="BB413" t="inlineStr"/>
       <c r="BC413" t="inlineStr"/>
       <c r="BD413" t="inlineStr"/>
+      <c r="BE413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -36180,6 +36593,7 @@
       <c r="BB414" t="inlineStr"/>
       <c r="BC414" t="inlineStr"/>
       <c r="BD414" t="inlineStr"/>
+      <c r="BE414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -36262,6 +36676,7 @@
       <c r="BB415" t="inlineStr"/>
       <c r="BC415" t="inlineStr"/>
       <c r="BD415" t="inlineStr"/>
+      <c r="BE415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -36344,6 +36759,7 @@
       <c r="BB416" t="inlineStr"/>
       <c r="BC416" t="inlineStr"/>
       <c r="BD416" t="inlineStr"/>
+      <c r="BE416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -36426,6 +36842,7 @@
       <c r="BB417" t="inlineStr"/>
       <c r="BC417" t="inlineStr"/>
       <c r="BD417" t="inlineStr"/>
+      <c r="BE417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -36504,6 +36921,7 @@
       <c r="BB418" t="inlineStr"/>
       <c r="BC418" t="inlineStr"/>
       <c r="BD418" t="inlineStr"/>
+      <c r="BE418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -36586,6 +37004,7 @@
       <c r="BB419" t="inlineStr"/>
       <c r="BC419" t="inlineStr"/>
       <c r="BD419" t="inlineStr"/>
+      <c r="BE419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -36668,6 +37087,7 @@
       <c r="BB420" t="inlineStr"/>
       <c r="BC420" t="inlineStr"/>
       <c r="BD420" t="inlineStr"/>
+      <c r="BE420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -36750,6 +37170,7 @@
       <c r="BB421" t="inlineStr"/>
       <c r="BC421" t="inlineStr"/>
       <c r="BD421" t="inlineStr"/>
+      <c r="BE421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -36832,6 +37253,7 @@
       <c r="BB422" t="inlineStr"/>
       <c r="BC422" t="inlineStr"/>
       <c r="BD422" t="inlineStr"/>
+      <c r="BE422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -36914,6 +37336,7 @@
       <c r="BB423" t="inlineStr"/>
       <c r="BC423" t="inlineStr"/>
       <c r="BD423" t="inlineStr"/>
+      <c r="BE423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -36996,6 +37419,7 @@
       <c r="BB424" t="inlineStr"/>
       <c r="BC424" t="inlineStr"/>
       <c r="BD424" t="inlineStr"/>
+      <c r="BE424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -37078,6 +37502,7 @@
       <c r="BB425" t="inlineStr"/>
       <c r="BC425" t="inlineStr"/>
       <c r="BD425" t="inlineStr"/>
+      <c r="BE425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -37156,6 +37581,7 @@
       <c r="BB426" t="inlineStr"/>
       <c r="BC426" t="inlineStr"/>
       <c r="BD426" t="inlineStr"/>
+      <c r="BE426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -37238,6 +37664,7 @@
       <c r="BB427" t="inlineStr"/>
       <c r="BC427" t="inlineStr"/>
       <c r="BD427" t="inlineStr"/>
+      <c r="BE427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -37320,6 +37747,7 @@
       <c r="BB428" t="inlineStr"/>
       <c r="BC428" t="inlineStr"/>
       <c r="BD428" t="inlineStr"/>
+      <c r="BE428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -37402,6 +37830,7 @@
       <c r="BB429" t="inlineStr"/>
       <c r="BC429" t="inlineStr"/>
       <c r="BD429" t="inlineStr"/>
+      <c r="BE429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -37484,6 +37913,7 @@
       <c r="BB430" t="inlineStr"/>
       <c r="BC430" t="inlineStr"/>
       <c r="BD430" t="inlineStr"/>
+      <c r="BE430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -37566,6 +37996,7 @@
       <c r="BB431" t="inlineStr"/>
       <c r="BC431" t="inlineStr"/>
       <c r="BD431" t="inlineStr"/>
+      <c r="BE431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -37648,6 +38079,7 @@
       <c r="BB432" t="inlineStr"/>
       <c r="BC432" t="inlineStr"/>
       <c r="BD432" t="inlineStr"/>
+      <c r="BE432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -37730,6 +38162,7 @@
       <c r="BB433" t="inlineStr"/>
       <c r="BC433" t="inlineStr"/>
       <c r="BD433" t="inlineStr"/>
+      <c r="BE433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -37812,6 +38245,7 @@
       <c r="BB434" t="inlineStr"/>
       <c r="BC434" t="inlineStr"/>
       <c r="BD434" t="inlineStr"/>
+      <c r="BE434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -37894,6 +38328,7 @@
       <c r="BB435" t="inlineStr"/>
       <c r="BC435" t="inlineStr"/>
       <c r="BD435" t="inlineStr"/>
+      <c r="BE435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -37976,6 +38411,7 @@
       <c r="BB436" t="inlineStr"/>
       <c r="BC436" t="inlineStr"/>
       <c r="BD436" t="inlineStr"/>
+      <c r="BE436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -38058,6 +38494,7 @@
       <c r="BB437" t="inlineStr"/>
       <c r="BC437" t="inlineStr"/>
       <c r="BD437" t="inlineStr"/>
+      <c r="BE437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -38140,6 +38577,7 @@
       <c r="BB438" t="inlineStr"/>
       <c r="BC438" t="inlineStr"/>
       <c r="BD438" t="inlineStr"/>
+      <c r="BE438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -38222,6 +38660,7 @@
       <c r="BB439" t="inlineStr"/>
       <c r="BC439" t="inlineStr"/>
       <c r="BD439" t="inlineStr"/>
+      <c r="BE439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -38304,6 +38743,7 @@
       <c r="BB440" t="inlineStr"/>
       <c r="BC440" t="inlineStr"/>
       <c r="BD440" t="inlineStr"/>
+      <c r="BE440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -38386,6 +38826,7 @@
       <c r="BB441" t="inlineStr"/>
       <c r="BC441" t="inlineStr"/>
       <c r="BD441" t="inlineStr"/>
+      <c r="BE441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -38468,6 +38909,7 @@
       <c r="BB442" t="inlineStr"/>
       <c r="BC442" t="inlineStr"/>
       <c r="BD442" t="inlineStr"/>
+      <c r="BE442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -38550,6 +38992,7 @@
       <c r="BB443" t="inlineStr"/>
       <c r="BC443" t="inlineStr"/>
       <c r="BD443" t="inlineStr"/>
+      <c r="BE443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -38632,6 +39075,7 @@
       <c r="BB444" t="inlineStr"/>
       <c r="BC444" t="inlineStr"/>
       <c r="BD444" t="inlineStr"/>
+      <c r="BE444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -38714,6 +39158,7 @@
       <c r="BB445" t="inlineStr"/>
       <c r="BC445" t="inlineStr"/>
       <c r="BD445" t="inlineStr"/>
+      <c r="BE445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -38796,6 +39241,7 @@
       <c r="BB446" t="inlineStr"/>
       <c r="BC446" t="inlineStr"/>
       <c r="BD446" t="inlineStr"/>
+      <c r="BE446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -38878,6 +39324,7 @@
       <c r="BB447" t="inlineStr"/>
       <c r="BC447" t="inlineStr"/>
       <c r="BD447" t="inlineStr"/>
+      <c r="BE447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -38960,6 +39407,7 @@
       <c r="BB448" t="inlineStr"/>
       <c r="BC448" t="inlineStr"/>
       <c r="BD448" t="inlineStr"/>
+      <c r="BE448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -39038,6 +39486,7 @@
       <c r="BB449" t="inlineStr"/>
       <c r="BC449" t="inlineStr"/>
       <c r="BD449" t="inlineStr"/>
+      <c r="BE449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -39124,6 +39573,7 @@
       <c r="BB450" t="inlineStr"/>
       <c r="BC450" t="inlineStr"/>
       <c r="BD450" t="inlineStr"/>
+      <c r="BE450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -39210,6 +39660,7 @@
       <c r="BB451" t="inlineStr"/>
       <c r="BC451" t="inlineStr"/>
       <c r="BD451" t="inlineStr"/>
+      <c r="BE451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -39296,6 +39747,7 @@
       <c r="BB452" t="inlineStr"/>
       <c r="BC452" t="inlineStr"/>
       <c r="BD452" t="inlineStr"/>
+      <c r="BE452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -39382,6 +39834,7 @@
       <c r="BB453" t="inlineStr"/>
       <c r="BC453" t="inlineStr"/>
       <c r="BD453" t="inlineStr"/>
+      <c r="BE453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -39468,6 +39921,7 @@
       <c r="BB454" t="inlineStr"/>
       <c r="BC454" t="inlineStr"/>
       <c r="BD454" t="inlineStr"/>
+      <c r="BE454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -39554,6 +40008,7 @@
       <c r="BB455" t="inlineStr"/>
       <c r="BC455" t="inlineStr"/>
       <c r="BD455" t="inlineStr"/>
+      <c r="BE455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -39640,6 +40095,7 @@
       <c r="BB456" t="inlineStr"/>
       <c r="BC456" t="inlineStr"/>
       <c r="BD456" t="inlineStr"/>
+      <c r="BE456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -39726,6 +40182,7 @@
       <c r="BB457" t="inlineStr"/>
       <c r="BC457" t="inlineStr"/>
       <c r="BD457" t="inlineStr"/>
+      <c r="BE457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -39812,6 +40269,7 @@
       <c r="BB458" t="inlineStr"/>
       <c r="BC458" t="inlineStr"/>
       <c r="BD458" t="inlineStr"/>
+      <c r="BE458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -39898,6 +40356,7 @@
       <c r="BB459" t="inlineStr"/>
       <c r="BC459" t="inlineStr"/>
       <c r="BD459" t="inlineStr"/>
+      <c r="BE459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -39984,6 +40443,7 @@
       <c r="BB460" t="inlineStr"/>
       <c r="BC460" t="inlineStr"/>
       <c r="BD460" t="inlineStr"/>
+      <c r="BE460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -40070,6 +40530,7 @@
       <c r="BB461" t="inlineStr"/>
       <c r="BC461" t="inlineStr"/>
       <c r="BD461" t="inlineStr"/>
+      <c r="BE461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -40156,6 +40617,7 @@
       <c r="BB462" t="inlineStr"/>
       <c r="BC462" t="inlineStr"/>
       <c r="BD462" t="inlineStr"/>
+      <c r="BE462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -40238,6 +40700,7 @@
       <c r="BB463" t="inlineStr"/>
       <c r="BC463" t="inlineStr"/>
       <c r="BD463" t="inlineStr"/>
+      <c r="BE463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -40324,6 +40787,7 @@
       <c r="BB464" t="inlineStr"/>
       <c r="BC464" t="inlineStr"/>
       <c r="BD464" t="inlineStr"/>
+      <c r="BE464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -40410,6 +40874,7 @@
       <c r="BB465" t="inlineStr"/>
       <c r="BC465" t="inlineStr"/>
       <c r="BD465" t="inlineStr"/>
+      <c r="BE465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -40496,6 +40961,7 @@
       <c r="BB466" t="inlineStr"/>
       <c r="BC466" t="inlineStr"/>
       <c r="BD466" t="inlineStr"/>
+      <c r="BE466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -40582,6 +41048,7 @@
       <c r="BB467" t="inlineStr"/>
       <c r="BC467" t="inlineStr"/>
       <c r="BD467" t="inlineStr"/>
+      <c r="BE467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -40668,6 +41135,7 @@
       <c r="BB468" t="inlineStr"/>
       <c r="BC468" t="inlineStr"/>
       <c r="BD468" t="inlineStr"/>
+      <c r="BE468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -40754,6 +41222,7 @@
       <c r="BB469" t="inlineStr"/>
       <c r="BC469" t="inlineStr"/>
       <c r="BD469" t="inlineStr"/>
+      <c r="BE469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -40840,6 +41309,7 @@
       <c r="BB470" t="inlineStr"/>
       <c r="BC470" t="inlineStr"/>
       <c r="BD470" t="inlineStr"/>
+      <c r="BE470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -40926,6 +41396,7 @@
       <c r="BB471" t="inlineStr"/>
       <c r="BC471" t="inlineStr"/>
       <c r="BD471" t="inlineStr"/>
+      <c r="BE471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -41012,6 +41483,7 @@
       <c r="BB472" t="inlineStr"/>
       <c r="BC472" t="inlineStr"/>
       <c r="BD472" t="inlineStr"/>
+      <c r="BE472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -41098,6 +41570,7 @@
       <c r="BB473" t="inlineStr"/>
       <c r="BC473" t="inlineStr"/>
       <c r="BD473" t="inlineStr"/>
+      <c r="BE473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -41184,6 +41657,7 @@
       <c r="BB474" t="inlineStr"/>
       <c r="BC474" t="inlineStr"/>
       <c r="BD474" t="inlineStr"/>
+      <c r="BE474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -41270,6 +41744,7 @@
       <c r="BB475" t="inlineStr"/>
       <c r="BC475" t="inlineStr"/>
       <c r="BD475" t="inlineStr"/>
+      <c r="BE475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -41360,6 +41835,7 @@
       <c r="BB476" t="inlineStr"/>
       <c r="BC476" t="inlineStr"/>
       <c r="BD476" t="inlineStr"/>
+      <c r="BE476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -41450,6 +41926,7 @@
       <c r="BB477" t="inlineStr"/>
       <c r="BC477" t="inlineStr"/>
       <c r="BD477" t="inlineStr"/>
+      <c r="BE477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -41540,6 +42017,7 @@
       <c r="BB478" t="inlineStr"/>
       <c r="BC478" t="inlineStr"/>
       <c r="BD478" t="inlineStr"/>
+      <c r="BE478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -41630,6 +42108,7 @@
       <c r="BB479" t="inlineStr"/>
       <c r="BC479" t="inlineStr"/>
       <c r="BD479" t="inlineStr"/>
+      <c r="BE479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -41716,6 +42195,7 @@
       <c r="BB480" t="inlineStr"/>
       <c r="BC480" t="inlineStr"/>
       <c r="BD480" t="inlineStr"/>
+      <c r="BE480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -41802,6 +42282,7 @@
       <c r="BB481" t="inlineStr"/>
       <c r="BC481" t="inlineStr"/>
       <c r="BD481" t="inlineStr"/>
+      <c r="BE481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -41888,6 +42369,7 @@
       <c r="BB482" t="inlineStr"/>
       <c r="BC482" t="inlineStr"/>
       <c r="BD482" t="inlineStr"/>
+      <c r="BE482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -41978,6 +42460,7 @@
       <c r="BB483" t="inlineStr"/>
       <c r="BC483" t="inlineStr"/>
       <c r="BD483" t="inlineStr"/>
+      <c r="BE483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -42068,6 +42551,7 @@
       <c r="BB484" t="inlineStr"/>
       <c r="BC484" t="inlineStr"/>
       <c r="BD484" t="inlineStr"/>
+      <c r="BE484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -42158,6 +42642,7 @@
       <c r="BB485" t="inlineStr"/>
       <c r="BC485" t="inlineStr"/>
       <c r="BD485" t="inlineStr"/>
+      <c r="BE485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -42248,6 +42733,7 @@
       <c r="BB486" t="inlineStr"/>
       <c r="BC486" t="inlineStr"/>
       <c r="BD486" t="inlineStr"/>
+      <c r="BE486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -42334,6 +42820,7 @@
       <c r="BB487" t="inlineStr"/>
       <c r="BC487" t="inlineStr"/>
       <c r="BD487" t="inlineStr"/>
+      <c r="BE487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -42416,6 +42903,7 @@
       <c r="BB488" t="inlineStr"/>
       <c r="BC488" t="inlineStr"/>
       <c r="BD488" t="inlineStr"/>
+      <c r="BE488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -42498,6 +42986,7 @@
       <c r="BB489" t="inlineStr"/>
       <c r="BC489" t="inlineStr"/>
       <c r="BD489" t="inlineStr"/>
+      <c r="BE489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -42580,6 +43069,7 @@
       <c r="BB490" t="inlineStr"/>
       <c r="BC490" t="inlineStr"/>
       <c r="BD490" t="inlineStr"/>
+      <c r="BE490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -42662,6 +43152,7 @@
       <c r="BB491" t="inlineStr"/>
       <c r="BC491" t="inlineStr"/>
       <c r="BD491" t="inlineStr"/>
+      <c r="BE491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -42748,6 +43239,7 @@
       <c r="BB492" t="inlineStr"/>
       <c r="BC492" t="inlineStr"/>
       <c r="BD492" t="inlineStr"/>
+      <c r="BE492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -42834,6 +43326,7 @@
       <c r="BB493" t="inlineStr"/>
       <c r="BC493" t="inlineStr"/>
       <c r="BD493" t="inlineStr"/>
+      <c r="BE493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -42920,6 +43413,7 @@
       <c r="BB494" t="inlineStr"/>
       <c r="BC494" t="inlineStr"/>
       <c r="BD494" t="inlineStr"/>
+      <c r="BE494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -43006,6 +43500,7 @@
       <c r="BB495" t="inlineStr"/>
       <c r="BC495" t="inlineStr"/>
       <c r="BD495" t="inlineStr"/>
+      <c r="BE495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -43088,6 +43583,7 @@
       <c r="BB496" t="inlineStr"/>
       <c r="BC496" t="inlineStr"/>
       <c r="BD496" t="inlineStr"/>
+      <c r="BE496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -43170,6 +43666,7 @@
       <c r="BB497" t="inlineStr"/>
       <c r="BC497" t="inlineStr"/>
       <c r="BD497" t="inlineStr"/>
+      <c r="BE497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -43252,6 +43749,7 @@
       <c r="BB498" t="inlineStr"/>
       <c r="BC498" t="inlineStr"/>
       <c r="BD498" t="inlineStr"/>
+      <c r="BE498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -43338,6 +43836,7 @@
       <c r="BB499" t="inlineStr"/>
       <c r="BC499" t="inlineStr"/>
       <c r="BD499" t="inlineStr"/>
+      <c r="BE499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -43424,6 +43923,7 @@
       <c r="BB500" t="inlineStr"/>
       <c r="BC500" t="inlineStr"/>
       <c r="BD500" t="inlineStr"/>
+      <c r="BE500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -43510,6 +44010,7 @@
       <c r="BB501" t="inlineStr"/>
       <c r="BC501" t="inlineStr"/>
       <c r="BD501" t="inlineStr"/>
+      <c r="BE501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -43592,6 +44093,7 @@
       <c r="BB502" t="inlineStr"/>
       <c r="BC502" t="inlineStr"/>
       <c r="BD502" t="inlineStr"/>
+      <c r="BE502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -43678,6 +44180,7 @@
       <c r="BB503" t="inlineStr"/>
       <c r="BC503" t="inlineStr"/>
       <c r="BD503" t="inlineStr"/>
+      <c r="BE503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -43760,6 +44263,7 @@
       <c r="BB504" t="inlineStr"/>
       <c r="BC504" t="inlineStr"/>
       <c r="BD504" t="inlineStr"/>
+      <c r="BE504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -43846,6 +44350,7 @@
       <c r="BB505" t="inlineStr"/>
       <c r="BC505" t="inlineStr"/>
       <c r="BD505" t="inlineStr"/>
+      <c r="BE505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -43932,6 +44437,7 @@
       <c r="BB506" t="inlineStr"/>
       <c r="BC506" t="inlineStr"/>
       <c r="BD506" t="inlineStr"/>
+      <c r="BE506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -44014,6 +44520,7 @@
       <c r="BB507" t="inlineStr"/>
       <c r="BC507" t="inlineStr"/>
       <c r="BD507" t="inlineStr"/>
+      <c r="BE507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -44100,6 +44607,7 @@
       <c r="BB508" t="inlineStr"/>
       <c r="BC508" t="inlineStr"/>
       <c r="BD508" t="inlineStr"/>
+      <c r="BE508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -44182,6 +44690,7 @@
       <c r="BB509" t="inlineStr"/>
       <c r="BC509" t="inlineStr"/>
       <c r="BD509" t="inlineStr"/>
+      <c r="BE509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -44268,6 +44777,7 @@
       <c r="BB510" t="inlineStr"/>
       <c r="BC510" t="inlineStr"/>
       <c r="BD510" t="inlineStr"/>
+      <c r="BE510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -44354,6 +44864,7 @@
       <c r="BB511" t="inlineStr"/>
       <c r="BC511" t="inlineStr"/>
       <c r="BD511" t="inlineStr"/>
+      <c r="BE511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -44440,6 +44951,7 @@
       <c r="BB512" t="inlineStr"/>
       <c r="BC512" t="inlineStr"/>
       <c r="BD512" t="inlineStr"/>
+      <c r="BE512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -44522,6 +45034,7 @@
       <c r="BB513" t="inlineStr"/>
       <c r="BC513" t="inlineStr"/>
       <c r="BD513" t="inlineStr"/>
+      <c r="BE513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -44608,6 +45121,7 @@
       <c r="BB514" t="inlineStr"/>
       <c r="BC514" t="inlineStr"/>
       <c r="BD514" t="inlineStr"/>
+      <c r="BE514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -44694,6 +45208,7 @@
       <c r="BB515" t="inlineStr"/>
       <c r="BC515" t="inlineStr"/>
       <c r="BD515" t="inlineStr"/>
+      <c r="BE515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -44780,6 +45295,7 @@
       <c r="BB516" t="inlineStr"/>
       <c r="BC516" t="inlineStr"/>
       <c r="BD516" t="inlineStr"/>
+      <c r="BE516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -44866,6 +45382,7 @@
       <c r="BB517" t="inlineStr"/>
       <c r="BC517" t="inlineStr"/>
       <c r="BD517" t="inlineStr"/>
+      <c r="BE517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -44952,6 +45469,7 @@
       <c r="BB518" t="inlineStr"/>
       <c r="BC518" t="inlineStr"/>
       <c r="BD518" t="inlineStr"/>
+      <c r="BE518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -45038,6 +45556,7 @@
       <c r="BB519" t="inlineStr"/>
       <c r="BC519" t="inlineStr"/>
       <c r="BD519" t="inlineStr"/>
+      <c r="BE519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -45120,6 +45639,7 @@
       <c r="BB520" t="inlineStr"/>
       <c r="BC520" t="inlineStr"/>
       <c r="BD520" t="inlineStr"/>
+      <c r="BE520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -45206,6 +45726,7 @@
       <c r="BB521" t="inlineStr"/>
       <c r="BC521" t="inlineStr"/>
       <c r="BD521" t="inlineStr"/>
+      <c r="BE521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -45292,6 +45813,7 @@
       <c r="BB522" t="inlineStr"/>
       <c r="BC522" t="inlineStr"/>
       <c r="BD522" t="inlineStr"/>
+      <c r="BE522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -45378,6 +45900,7 @@
       <c r="BB523" t="inlineStr"/>
       <c r="BC523" t="inlineStr"/>
       <c r="BD523" t="inlineStr"/>
+      <c r="BE523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -45464,6 +45987,7 @@
       <c r="BB524" t="inlineStr"/>
       <c r="BC524" t="inlineStr"/>
       <c r="BD524" t="inlineStr"/>
+      <c r="BE524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -45546,6 +46070,7 @@
       <c r="BB525" t="inlineStr"/>
       <c r="BC525" t="inlineStr"/>
       <c r="BD525" t="inlineStr"/>
+      <c r="BE525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -45632,6 +46157,7 @@
       <c r="BB526" t="inlineStr"/>
       <c r="BC526" t="inlineStr"/>
       <c r="BD526" t="inlineStr"/>
+      <c r="BE526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -45718,6 +46244,7 @@
       <c r="BB527" t="inlineStr"/>
       <c r="BC527" t="inlineStr"/>
       <c r="BD527" t="inlineStr"/>
+      <c r="BE527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -45804,6 +46331,7 @@
       <c r="BB528" t="inlineStr"/>
       <c r="BC528" t="inlineStr"/>
       <c r="BD528" t="inlineStr"/>
+      <c r="BE528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -45890,6 +46418,7 @@
       <c r="BB529" t="inlineStr"/>
       <c r="BC529" t="inlineStr"/>
       <c r="BD529" t="inlineStr"/>
+      <c r="BE529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -45972,6 +46501,7 @@
       <c r="BB530" t="inlineStr"/>
       <c r="BC530" t="inlineStr"/>
       <c r="BD530" t="inlineStr"/>
+      <c r="BE530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -46058,6 +46588,7 @@
       <c r="BB531" t="inlineStr"/>
       <c r="BC531" t="inlineStr"/>
       <c r="BD531" t="inlineStr"/>
+      <c r="BE531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -46144,6 +46675,7 @@
       <c r="BB532" t="inlineStr"/>
       <c r="BC532" t="inlineStr"/>
       <c r="BD532" t="inlineStr"/>
+      <c r="BE532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -46230,6 +46762,7 @@
       <c r="BB533" t="inlineStr"/>
       <c r="BC533" t="inlineStr"/>
       <c r="BD533" t="inlineStr"/>
+      <c r="BE533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -46312,6 +46845,7 @@
       <c r="BB534" t="inlineStr"/>
       <c r="BC534" t="inlineStr"/>
       <c r="BD534" t="inlineStr"/>
+      <c r="BE534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -46398,6 +46932,7 @@
       <c r="BB535" t="inlineStr"/>
       <c r="BC535" t="inlineStr"/>
       <c r="BD535" t="inlineStr"/>
+      <c r="BE535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -46484,6 +47019,7 @@
       <c r="BB536" t="inlineStr"/>
       <c r="BC536" t="inlineStr"/>
       <c r="BD536" t="inlineStr"/>
+      <c r="BE536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -46570,6 +47106,7 @@
       <c r="BB537" t="inlineStr"/>
       <c r="BC537" t="inlineStr"/>
       <c r="BD537" t="inlineStr"/>
+      <c r="BE537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -46656,6 +47193,7 @@
       <c r="BB538" t="inlineStr"/>
       <c r="BC538" t="inlineStr"/>
       <c r="BD538" t="inlineStr"/>
+      <c r="BE538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -46738,6 +47276,7 @@
       <c r="BB539" t="inlineStr"/>
       <c r="BC539" t="inlineStr"/>
       <c r="BD539" t="inlineStr"/>
+      <c r="BE539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -46824,6 +47363,7 @@
       <c r="BB540" t="inlineStr"/>
       <c r="BC540" t="inlineStr"/>
       <c r="BD540" t="inlineStr"/>
+      <c r="BE540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -46918,6 +47458,7 @@
       <c r="BB541" t="inlineStr"/>
       <c r="BC541" t="inlineStr"/>
       <c r="BD541" t="inlineStr"/>
+      <c r="BE541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -47012,6 +47553,7 @@
       <c r="BB542" t="inlineStr"/>
       <c r="BC542" t="inlineStr"/>
       <c r="BD542" t="inlineStr"/>
+      <c r="BE542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -47102,6 +47644,7 @@
       <c r="BB543" t="inlineStr"/>
       <c r="BC543" t="inlineStr"/>
       <c r="BD543" t="inlineStr"/>
+      <c r="BE543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -47192,6 +47735,7 @@
       <c r="BB544" t="inlineStr"/>
       <c r="BC544" t="inlineStr"/>
       <c r="BD544" t="inlineStr"/>
+      <c r="BE544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -47282,6 +47826,7 @@
       <c r="BB545" t="inlineStr"/>
       <c r="BC545" t="inlineStr"/>
       <c r="BD545" t="inlineStr"/>
+      <c r="BE545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -47372,6 +47917,7 @@
       <c r="BB546" t="inlineStr"/>
       <c r="BC546" t="inlineStr"/>
       <c r="BD546" t="inlineStr"/>
+      <c r="BE546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -47466,6 +48012,7 @@
       <c r="BB547" t="inlineStr"/>
       <c r="BC547" t="inlineStr"/>
       <c r="BD547" t="inlineStr"/>
+      <c r="BE547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -47556,6 +48103,7 @@
       <c r="BB548" t="inlineStr"/>
       <c r="BC548" t="inlineStr"/>
       <c r="BD548" t="inlineStr"/>
+      <c r="BE548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -47646,6 +48194,7 @@
       <c r="BB549" t="inlineStr"/>
       <c r="BC549" t="inlineStr"/>
       <c r="BD549" t="inlineStr"/>
+      <c r="BE549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -47736,6 +48285,7 @@
       <c r="BB550" t="inlineStr"/>
       <c r="BC550" t="inlineStr"/>
       <c r="BD550" t="inlineStr"/>
+      <c r="BE550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -47826,6 +48376,7 @@
       <c r="BB551" t="inlineStr"/>
       <c r="BC551" t="inlineStr"/>
       <c r="BD551" t="inlineStr"/>
+      <c r="BE551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -47916,6 +48467,7 @@
       <c r="BB552" t="inlineStr"/>
       <c r="BC552" t="inlineStr"/>
       <c r="BD552" t="inlineStr"/>
+      <c r="BE552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -48006,6 +48558,7 @@
       <c r="BB553" t="inlineStr"/>
       <c r="BC553" t="inlineStr"/>
       <c r="BD553" t="inlineStr"/>
+      <c r="BE553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -48096,6 +48649,7 @@
       <c r="BB554" t="inlineStr"/>
       <c r="BC554" t="inlineStr"/>
       <c r="BD554" t="inlineStr"/>
+      <c r="BE554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -48186,6 +48740,7 @@
       <c r="BB555" t="inlineStr"/>
       <c r="BC555" t="inlineStr"/>
       <c r="BD555" t="inlineStr"/>
+      <c r="BE555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -48276,6 +48831,7 @@
       <c r="BB556" t="inlineStr"/>
       <c r="BC556" t="inlineStr"/>
       <c r="BD556" t="inlineStr"/>
+      <c r="BE556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -48366,6 +48922,7 @@
       <c r="BB557" t="inlineStr"/>
       <c r="BC557" t="inlineStr"/>
       <c r="BD557" t="inlineStr"/>
+      <c r="BE557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -48456,6 +49013,7 @@
       <c r="BB558" t="inlineStr"/>
       <c r="BC558" t="inlineStr"/>
       <c r="BD558" t="inlineStr"/>
+      <c r="BE558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -48546,6 +49104,7 @@
       <c r="BB559" t="inlineStr"/>
       <c r="BC559" t="inlineStr"/>
       <c r="BD559" t="inlineStr"/>
+      <c r="BE559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -48636,6 +49195,7 @@
       <c r="BB560" t="inlineStr"/>
       <c r="BC560" t="inlineStr"/>
       <c r="BD560" t="inlineStr"/>
+      <c r="BE560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -48726,6 +49286,7 @@
       <c r="BB561" t="inlineStr"/>
       <c r="BC561" t="inlineStr"/>
       <c r="BD561" t="inlineStr"/>
+      <c r="BE561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -48816,6 +49377,7 @@
       <c r="BB562" t="inlineStr"/>
       <c r="BC562" t="inlineStr"/>
       <c r="BD562" t="inlineStr"/>
+      <c r="BE562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -48906,6 +49468,7 @@
       <c r="BB563" t="inlineStr"/>
       <c r="BC563" t="inlineStr"/>
       <c r="BD563" t="inlineStr"/>
+      <c r="BE563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -48996,6 +49559,7 @@
       <c r="BB564" t="inlineStr"/>
       <c r="BC564" t="inlineStr"/>
       <c r="BD564" t="inlineStr"/>
+      <c r="BE564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -49086,6 +49650,7 @@
       <c r="BB565" t="inlineStr"/>
       <c r="BC565" t="inlineStr"/>
       <c r="BD565" t="inlineStr"/>
+      <c r="BE565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -49176,6 +49741,7 @@
       <c r="BB566" t="inlineStr"/>
       <c r="BC566" t="inlineStr"/>
       <c r="BD566" t="inlineStr"/>
+      <c r="BE566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -49266,6 +49832,7 @@
       <c r="BB567" t="inlineStr"/>
       <c r="BC567" t="inlineStr"/>
       <c r="BD567" t="inlineStr"/>
+      <c r="BE567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -49356,6 +49923,7 @@
       <c r="BB568" t="inlineStr"/>
       <c r="BC568" t="inlineStr"/>
       <c r="BD568" t="inlineStr"/>
+      <c r="BE568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -49446,6 +50014,7 @@
       <c r="BB569" t="inlineStr"/>
       <c r="BC569" t="inlineStr"/>
       <c r="BD569" t="inlineStr"/>
+      <c r="BE569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -49536,6 +50105,7 @@
       <c r="BB570" t="inlineStr"/>
       <c r="BC570" t="inlineStr"/>
       <c r="BD570" t="inlineStr"/>
+      <c r="BE570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -49626,6 +50196,7 @@
       <c r="BB571" t="inlineStr"/>
       <c r="BC571" t="inlineStr"/>
       <c r="BD571" t="inlineStr"/>
+      <c r="BE571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -49716,6 +50287,7 @@
       <c r="BB572" t="inlineStr"/>
       <c r="BC572" t="inlineStr"/>
       <c r="BD572" t="inlineStr"/>
+      <c r="BE572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -49806,6 +50378,7 @@
       <c r="BB573" t="inlineStr"/>
       <c r="BC573" t="inlineStr"/>
       <c r="BD573" t="inlineStr"/>
+      <c r="BE573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -49896,6 +50469,7 @@
       <c r="BB574" t="inlineStr"/>
       <c r="BC574" t="inlineStr"/>
       <c r="BD574" t="inlineStr"/>
+      <c r="BE574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -49986,6 +50560,7 @@
       <c r="BB575" t="inlineStr"/>
       <c r="BC575" t="inlineStr"/>
       <c r="BD575" t="inlineStr"/>
+      <c r="BE575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -50076,6 +50651,7 @@
       <c r="BB576" t="inlineStr"/>
       <c r="BC576" t="inlineStr"/>
       <c r="BD576" t="inlineStr"/>
+      <c r="BE576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -50166,6 +50742,7 @@
       <c r="BB577" t="inlineStr"/>
       <c r="BC577" t="inlineStr"/>
       <c r="BD577" t="inlineStr"/>
+      <c r="BE577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -50248,6 +50825,7 @@
       <c r="BB578" t="inlineStr"/>
       <c r="BC578" t="inlineStr"/>
       <c r="BD578" t="inlineStr"/>
+      <c r="BE578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -50330,6 +50908,7 @@
       <c r="BB579" t="inlineStr"/>
       <c r="BC579" t="inlineStr"/>
       <c r="BD579" t="inlineStr"/>
+      <c r="BE579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -50412,6 +50991,7 @@
       <c r="BB580" t="inlineStr"/>
       <c r="BC580" t="inlineStr"/>
       <c r="BD580" t="inlineStr"/>
+      <c r="BE580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -50494,6 +51074,7 @@
       <c r="BB581" t="inlineStr"/>
       <c r="BC581" t="inlineStr"/>
       <c r="BD581" t="inlineStr"/>
+      <c r="BE581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -50576,6 +51157,7 @@
       <c r="BB582" t="inlineStr"/>
       <c r="BC582" t="inlineStr"/>
       <c r="BD582" t="inlineStr"/>
+      <c r="BE582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -50658,6 +51240,7 @@
       <c r="BB583" t="inlineStr"/>
       <c r="BC583" t="inlineStr"/>
       <c r="BD583" t="inlineStr"/>
+      <c r="BE583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -50740,6 +51323,7 @@
       <c r="BB584" t="inlineStr"/>
       <c r="BC584" t="inlineStr"/>
       <c r="BD584" t="inlineStr"/>
+      <c r="BE584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -50822,6 +51406,7 @@
       <c r="BB585" t="inlineStr"/>
       <c r="BC585" t="inlineStr"/>
       <c r="BD585" t="inlineStr"/>
+      <c r="BE585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -50904,6 +51489,7 @@
       <c r="BB586" t="inlineStr"/>
       <c r="BC586" t="inlineStr"/>
       <c r="BD586" t="inlineStr"/>
+      <c r="BE586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -50986,6 +51572,7 @@
       <c r="BB587" t="inlineStr"/>
       <c r="BC587" t="inlineStr"/>
       <c r="BD587" t="inlineStr"/>
+      <c r="BE587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -51068,6 +51655,7 @@
       <c r="BB588" t="inlineStr"/>
       <c r="BC588" t="inlineStr"/>
       <c r="BD588" t="inlineStr"/>
+      <c r="BE588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -51150,6 +51738,7 @@
       <c r="BB589" t="inlineStr"/>
       <c r="BC589" t="inlineStr"/>
       <c r="BD589" t="inlineStr"/>
+      <c r="BE589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -51232,6 +51821,7 @@
       <c r="BB590" t="inlineStr"/>
       <c r="BC590" t="inlineStr"/>
       <c r="BD590" t="inlineStr"/>
+      <c r="BE590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -51314,6 +51904,7 @@
       <c r="BB591" t="inlineStr"/>
       <c r="BC591" t="inlineStr"/>
       <c r="BD591" t="inlineStr"/>
+      <c r="BE591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -51396,6 +51987,7 @@
       <c r="BB592" t="inlineStr"/>
       <c r="BC592" t="inlineStr"/>
       <c r="BD592" t="inlineStr"/>
+      <c r="BE592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -51478,6 +52070,7 @@
       <c r="BB593" t="inlineStr"/>
       <c r="BC593" t="inlineStr"/>
       <c r="BD593" t="inlineStr"/>
+      <c r="BE593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -51560,6 +52153,7 @@
       <c r="BB594" t="inlineStr"/>
       <c r="BC594" t="inlineStr"/>
       <c r="BD594" t="inlineStr"/>
+      <c r="BE594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -51642,6 +52236,7 @@
       <c r="BB595" t="inlineStr"/>
       <c r="BC595" t="inlineStr"/>
       <c r="BD595" t="inlineStr"/>
+      <c r="BE595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -51724,6 +52319,7 @@
       <c r="BB596" t="inlineStr"/>
       <c r="BC596" t="inlineStr"/>
       <c r="BD596" t="inlineStr"/>
+      <c r="BE596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -51806,6 +52402,7 @@
       <c r="BB597" t="inlineStr"/>
       <c r="BC597" t="inlineStr"/>
       <c r="BD597" t="inlineStr"/>
+      <c r="BE597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -51888,6 +52485,7 @@
       <c r="BB598" t="inlineStr"/>
       <c r="BC598" t="inlineStr"/>
       <c r="BD598" t="inlineStr"/>
+      <c r="BE598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -51970,6 +52568,7 @@
       <c r="BB599" t="inlineStr"/>
       <c r="BC599" t="inlineStr"/>
       <c r="BD599" t="inlineStr"/>
+      <c r="BE599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -52052,6 +52651,7 @@
       <c r="BB600" t="inlineStr"/>
       <c r="BC600" t="inlineStr"/>
       <c r="BD600" t="inlineStr"/>
+      <c r="BE600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -52134,6 +52734,7 @@
       <c r="BB601" t="inlineStr"/>
       <c r="BC601" t="inlineStr"/>
       <c r="BD601" t="inlineStr"/>
+      <c r="BE601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -52220,6 +52821,7 @@
       <c r="BB602" t="inlineStr"/>
       <c r="BC602" t="inlineStr"/>
       <c r="BD602" t="inlineStr"/>
+      <c r="BE602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -52306,6 +52908,7 @@
       <c r="BB603" t="inlineStr"/>
       <c r="BC603" t="inlineStr"/>
       <c r="BD603" t="inlineStr"/>
+      <c r="BE603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -52392,6 +52995,7 @@
       <c r="BB604" t="inlineStr"/>
       <c r="BC604" t="inlineStr"/>
       <c r="BD604" t="inlineStr"/>
+      <c r="BE604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -52478,6 +53082,7 @@
       <c r="BB605" t="inlineStr"/>
       <c r="BC605" t="inlineStr"/>
       <c r="BD605" t="inlineStr"/>
+      <c r="BE605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -52564,6 +53169,7 @@
       <c r="BB606" t="inlineStr"/>
       <c r="BC606" t="inlineStr"/>
       <c r="BD606" t="inlineStr"/>
+      <c r="BE606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -52646,6 +53252,7 @@
       <c r="BB607" t="inlineStr"/>
       <c r="BC607" t="inlineStr"/>
       <c r="BD607" t="inlineStr"/>
+      <c r="BE607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -52736,6 +53343,7 @@
       <c r="BB608" t="inlineStr"/>
       <c r="BC608" t="inlineStr"/>
       <c r="BD608" t="inlineStr"/>
+      <c r="BE608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -52826,6 +53434,7 @@
       <c r="BB609" t="inlineStr"/>
       <c r="BC609" t="inlineStr"/>
       <c r="BD609" t="inlineStr"/>
+      <c r="BE609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -52920,6 +53529,7 @@
       <c r="BB610" t="inlineStr"/>
       <c r="BC610" t="inlineStr"/>
       <c r="BD610" t="inlineStr"/>
+      <c r="BE610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -53010,6 +53620,7 @@
       <c r="BB611" t="inlineStr"/>
       <c r="BC611" t="inlineStr"/>
       <c r="BD611" t="inlineStr"/>
+      <c r="BE611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -53096,6 +53707,7 @@
       <c r="BB612" t="inlineStr"/>
       <c r="BC612" t="inlineStr"/>
       <c r="BD612" t="inlineStr"/>
+      <c r="BE612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -53186,6 +53798,7 @@
       <c r="BB613" t="inlineStr"/>
       <c r="BC613" t="inlineStr"/>
       <c r="BD613" t="inlineStr"/>
+      <c r="BE613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -53272,6 +53885,7 @@
       <c r="BB614" t="inlineStr"/>
       <c r="BC614" t="inlineStr"/>
       <c r="BD614" t="inlineStr"/>
+      <c r="BE614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -53358,6 +53972,7 @@
       <c r="BB615" t="inlineStr"/>
       <c r="BC615" t="inlineStr"/>
       <c r="BD615" t="inlineStr"/>
+      <c r="BE615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -53444,6 +54059,7 @@
       <c r="BB616" t="inlineStr"/>
       <c r="BC616" t="inlineStr"/>
       <c r="BD616" t="inlineStr"/>
+      <c r="BE616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -53534,6 +54150,7 @@
       <c r="BB617" t="inlineStr"/>
       <c r="BC617" t="inlineStr"/>
       <c r="BD617" t="inlineStr"/>
+      <c r="BE617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -53620,6 +54237,7 @@
       <c r="BB618" t="inlineStr"/>
       <c r="BC618" t="inlineStr"/>
       <c r="BD618" t="inlineStr"/>
+      <c r="BE618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -53706,6 +54324,7 @@
       <c r="BB619" t="inlineStr"/>
       <c r="BC619" t="inlineStr"/>
       <c r="BD619" t="inlineStr"/>
+      <c r="BE619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -53792,6 +54411,7 @@
       <c r="BB620" t="inlineStr"/>
       <c r="BC620" t="inlineStr"/>
       <c r="BD620" t="inlineStr"/>
+      <c r="BE620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -53878,6 +54498,7 @@
       <c r="BB621" t="inlineStr"/>
       <c r="BC621" t="inlineStr"/>
       <c r="BD621" t="inlineStr"/>
+      <c r="BE621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -53964,6 +54585,7 @@
       <c r="BB622" t="inlineStr"/>
       <c r="BC622" t="inlineStr"/>
       <c r="BD622" t="inlineStr"/>
+      <c r="BE622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -54050,6 +54672,7 @@
       <c r="BB623" t="inlineStr"/>
       <c r="BC623" t="inlineStr"/>
       <c r="BD623" t="inlineStr"/>
+      <c r="BE623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -54136,6 +54759,7 @@
       <c r="BB624" t="inlineStr"/>
       <c r="BC624" t="inlineStr"/>
       <c r="BD624" t="inlineStr"/>
+      <c r="BE624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -54222,6 +54846,7 @@
       <c r="BB625" t="inlineStr"/>
       <c r="BC625" t="inlineStr"/>
       <c r="BD625" t="inlineStr"/>
+      <c r="BE625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -54308,6 +54933,7 @@
       <c r="BB626" t="inlineStr"/>
       <c r="BC626" t="inlineStr"/>
       <c r="BD626" t="inlineStr"/>
+      <c r="BE626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -54394,6 +55020,7 @@
       <c r="BB627" t="inlineStr"/>
       <c r="BC627" t="inlineStr"/>
       <c r="BD627" t="inlineStr"/>
+      <c r="BE627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -54480,6 +55107,7 @@
       <c r="BB628" t="inlineStr"/>
       <c r="BC628" t="inlineStr"/>
       <c r="BD628" t="inlineStr"/>
+      <c r="BE628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -54566,6 +55194,7 @@
       <c r="BB629" t="inlineStr"/>
       <c r="BC629" t="inlineStr"/>
       <c r="BD629" t="inlineStr"/>
+      <c r="BE629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -54652,6 +55281,7 @@
       <c r="BB630" t="inlineStr"/>
       <c r="BC630" t="inlineStr"/>
       <c r="BD630" t="inlineStr"/>
+      <c r="BE630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -54738,6 +55368,7 @@
       <c r="BB631" t="inlineStr"/>
       <c r="BC631" t="inlineStr"/>
       <c r="BD631" t="inlineStr"/>
+      <c r="BE631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -54824,6 +55455,7 @@
       <c r="BB632" t="inlineStr"/>
       <c r="BC632" t="inlineStr"/>
       <c r="BD632" t="inlineStr"/>
+      <c r="BE632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -54910,6 +55542,7 @@
       <c r="BB633" t="inlineStr"/>
       <c r="BC633" t="inlineStr"/>
       <c r="BD633" t="inlineStr"/>
+      <c r="BE633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -54996,6 +55629,7 @@
       <c r="BB634" t="inlineStr"/>
       <c r="BC634" t="inlineStr"/>
       <c r="BD634" t="inlineStr"/>
+      <c r="BE634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -55082,6 +55716,7 @@
       <c r="BB635" t="inlineStr"/>
       <c r="BC635" t="inlineStr"/>
       <c r="BD635" t="inlineStr"/>
+      <c r="BE635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -55168,6 +55803,7 @@
       <c r="BB636" t="inlineStr"/>
       <c r="BC636" t="inlineStr"/>
       <c r="BD636" t="inlineStr"/>
+      <c r="BE636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -55254,6 +55890,7 @@
       <c r="BB637" t="inlineStr"/>
       <c r="BC637" t="inlineStr"/>
       <c r="BD637" t="inlineStr"/>
+      <c r="BE637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -55340,6 +55977,7 @@
       <c r="BB638" t="inlineStr"/>
       <c r="BC638" t="inlineStr"/>
       <c r="BD638" t="inlineStr"/>
+      <c r="BE638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -55426,6 +56064,7 @@
       <c r="BB639" t="inlineStr"/>
       <c r="BC639" t="inlineStr"/>
       <c r="BD639" t="inlineStr"/>
+      <c r="BE639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -55512,6 +56151,7 @@
       <c r="BB640" t="inlineStr"/>
       <c r="BC640" t="inlineStr"/>
       <c r="BD640" t="inlineStr"/>
+      <c r="BE640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -55598,6 +56238,7 @@
       <c r="BB641" t="inlineStr"/>
       <c r="BC641" t="inlineStr"/>
       <c r="BD641" t="inlineStr"/>
+      <c r="BE641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -55684,6 +56325,7 @@
       <c r="BB642" t="inlineStr"/>
       <c r="BC642" t="inlineStr"/>
       <c r="BD642" t="inlineStr"/>
+      <c r="BE642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -55770,6 +56412,7 @@
       <c r="BB643" t="inlineStr"/>
       <c r="BC643" t="inlineStr"/>
       <c r="BD643" t="inlineStr"/>
+      <c r="BE643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -55856,6 +56499,7 @@
       <c r="BB644" t="inlineStr"/>
       <c r="BC644" t="inlineStr"/>
       <c r="BD644" t="inlineStr"/>
+      <c r="BE644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -55942,6 +56586,7 @@
       <c r="BB645" t="inlineStr"/>
       <c r="BC645" t="inlineStr"/>
       <c r="BD645" t="inlineStr"/>
+      <c r="BE645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -56028,6 +56673,7 @@
       <c r="BB646" t="inlineStr"/>
       <c r="BC646" t="inlineStr"/>
       <c r="BD646" t="inlineStr"/>
+      <c r="BE646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -56106,6 +56752,7 @@
       <c r="BB647" t="inlineStr"/>
       <c r="BC647" t="inlineStr"/>
       <c r="BD647" t="inlineStr"/>
+      <c r="BE647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -56192,6 +56839,7 @@
       <c r="BB648" t="inlineStr"/>
       <c r="BC648" t="inlineStr"/>
       <c r="BD648" t="inlineStr"/>
+      <c r="BE648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -56278,6 +56926,7 @@
       <c r="BB649" t="inlineStr"/>
       <c r="BC649" t="inlineStr"/>
       <c r="BD649" t="inlineStr"/>
+      <c r="BE649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -56364,6 +57013,7 @@
       <c r="BB650" t="inlineStr"/>
       <c r="BC650" t="inlineStr"/>
       <c r="BD650" t="inlineStr"/>
+      <c r="BE650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -56450,6 +57100,7 @@
       <c r="BB651" t="inlineStr"/>
       <c r="BC651" t="inlineStr"/>
       <c r="BD651" t="inlineStr"/>
+      <c r="BE651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -56536,6 +57187,7 @@
       <c r="BB652" t="inlineStr"/>
       <c r="BC652" t="inlineStr"/>
       <c r="BD652" t="inlineStr"/>
+      <c r="BE652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -56622,6 +57274,7 @@
       <c r="BB653" t="inlineStr"/>
       <c r="BC653" t="inlineStr"/>
       <c r="BD653" t="inlineStr"/>
+      <c r="BE653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -56708,6 +57361,7 @@
       <c r="BB654" t="inlineStr"/>
       <c r="BC654" t="inlineStr"/>
       <c r="BD654" t="inlineStr"/>
+      <c r="BE654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -56794,6 +57448,7 @@
       <c r="BB655" t="inlineStr"/>
       <c r="BC655" t="inlineStr"/>
       <c r="BD655" t="inlineStr"/>
+      <c r="BE655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -56880,6 +57535,7 @@
       <c r="BB656" t="inlineStr"/>
       <c r="BC656" t="inlineStr"/>
       <c r="BD656" t="inlineStr"/>
+      <c r="BE656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -56966,6 +57622,7 @@
       <c r="BB657" t="inlineStr"/>
       <c r="BC657" t="inlineStr"/>
       <c r="BD657" t="inlineStr"/>
+      <c r="BE657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -57052,6 +57709,7 @@
       <c r="BB658" t="inlineStr"/>
       <c r="BC658" t="inlineStr"/>
       <c r="BD658" t="inlineStr"/>
+      <c r="BE658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -57138,6 +57796,7 @@
       <c r="BB659" t="inlineStr"/>
       <c r="BC659" t="inlineStr"/>
       <c r="BD659" t="inlineStr"/>
+      <c r="BE659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -57224,6 +57883,7 @@
       <c r="BB660" t="inlineStr"/>
       <c r="BC660" t="inlineStr"/>
       <c r="BD660" t="inlineStr"/>
+      <c r="BE660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -57310,6 +57970,7 @@
       <c r="BB661" t="inlineStr"/>
       <c r="BC661" t="inlineStr"/>
       <c r="BD661" t="inlineStr"/>
+      <c r="BE661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -57396,6 +58057,7 @@
       <c r="BB662" t="inlineStr"/>
       <c r="BC662" t="inlineStr"/>
       <c r="BD662" t="inlineStr"/>
+      <c r="BE662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -57482,6 +58144,7 @@
       <c r="BB663" t="inlineStr"/>
       <c r="BC663" t="inlineStr"/>
       <c r="BD663" t="inlineStr"/>
+      <c r="BE663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -57568,6 +58231,7 @@
       <c r="BB664" t="inlineStr"/>
       <c r="BC664" t="inlineStr"/>
       <c r="BD664" t="inlineStr"/>
+      <c r="BE664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -57654,6 +58318,7 @@
       <c r="BB665" t="inlineStr"/>
       <c r="BC665" t="inlineStr"/>
       <c r="BD665" t="inlineStr"/>
+      <c r="BE665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -57740,6 +58405,7 @@
       <c r="BB666" t="inlineStr"/>
       <c r="BC666" t="inlineStr"/>
       <c r="BD666" t="inlineStr"/>
+      <c r="BE666" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -35006,7 +35006,11 @@
         </is>
       </c>
       <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr"/>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RA0Nt7-mlQ4JVQFumqbjur7_7xaZjR-Ele9fwXYYklZho#DataAvailabilityCondition,skos:Concept</t>
+        </is>
+      </c>
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr"/>
@@ -35057,7 +35061,7 @@
       </c>
       <c r="AO396" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP396" t="inlineStr"/>
@@ -43763,7 +43767,11 @@
         </is>
       </c>
       <c r="C499" t="inlineStr"/>
-      <c r="D499" t="inlineStr"/>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAFqL9-WfwCxHobP6hizvJKAE_sFKGRcRXIMnd5mnxOAI#MonitoringSchemeMotivation,skos:Concept</t>
+        </is>
+      </c>
       <c r="E499" t="inlineStr"/>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
@@ -43818,7 +43826,7 @@
       </c>
       <c r="AO499" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP499" t="inlineStr"/>
@@ -43850,7 +43858,11 @@
         </is>
       </c>
       <c r="C500" t="inlineStr"/>
-      <c r="D500" t="inlineStr"/>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAFqL9-WfwCxHobP6hizvJKAE_sFKGRcRXIMnd5mnxOAI#MonitoringSchemeMotivation,skos:Concept</t>
+        </is>
+      </c>
       <c r="E500" t="inlineStr"/>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
@@ -43905,7 +43917,7 @@
       </c>
       <c r="AO500" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP500" t="inlineStr"/>
@@ -43937,7 +43949,11 @@
         </is>
       </c>
       <c r="C501" t="inlineStr"/>
-      <c r="D501" t="inlineStr"/>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAFqL9-WfwCxHobP6hizvJKAE_sFKGRcRXIMnd5mnxOAI#MonitoringSchemeMotivation,skos:Concept</t>
+        </is>
+      </c>
       <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
@@ -43992,7 +44008,7 @@
       </c>
       <c r="AO501" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP501" t="inlineStr"/>
@@ -44024,7 +44040,11 @@
         </is>
       </c>
       <c r="C502" t="inlineStr"/>
-      <c r="D502" t="inlineStr"/>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAFqL9-WfwCxHobP6hizvJKAE_sFKGRcRXIMnd5mnxOAI#MonitoringSchemeMotivation,skos:Concept</t>
+        </is>
+      </c>
       <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
@@ -44077,7 +44097,11 @@
           <t>0000-0002-6968-8275</t>
         </is>
       </c>
-      <c r="AO502" t="inlineStr"/>
+      <c r="AO502" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
       <c r="AP502" t="inlineStr"/>
       <c r="AQ502" t="inlineStr"/>
       <c r="AR502" t="inlineStr"/>
@@ -44107,7 +44131,11 @@
         </is>
       </c>
       <c r="C503" t="inlineStr"/>
-      <c r="D503" t="inlineStr"/>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAFqL9-WfwCxHobP6hizvJKAE_sFKGRcRXIMnd5mnxOAI#MonitoringSchemeMotivation,skos:Concept</t>
+        </is>
+      </c>
       <c r="E503" t="inlineStr"/>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr"/>
@@ -44162,7 +44190,7 @@
       </c>
       <c r="AO503" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP503" t="inlineStr"/>
@@ -44277,7 +44305,11 @@
         </is>
       </c>
       <c r="C505" t="inlineStr"/>
-      <c r="D505" t="inlineStr"/>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RASrZgnUQ1yBoxmeAyOaHYFuE9SCVSYOkemLp9rIpgEaU#ScopeOfMonitoring,skos:Concept</t>
+        </is>
+      </c>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr"/>
@@ -44332,7 +44364,7 @@
       </c>
       <c r="AO505" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP505" t="inlineStr"/>
@@ -44364,7 +44396,11 @@
         </is>
       </c>
       <c r="C506" t="inlineStr"/>
-      <c r="D506" t="inlineStr"/>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RASrZgnUQ1yBoxmeAyOaHYFuE9SCVSYOkemLp9rIpgEaU#ScopeOfMonitoring,skos:Concept</t>
+        </is>
+      </c>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr"/>
@@ -44419,7 +44455,7 @@
       </c>
       <c r="AO506" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP506" t="inlineStr"/>
@@ -44451,7 +44487,11 @@
         </is>
       </c>
       <c r="C507" t="inlineStr"/>
-      <c r="D507" t="inlineStr"/>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RASrZgnUQ1yBoxmeAyOaHYFuE9SCVSYOkemLp9rIpgEaU#ScopeOfMonitoring,skos:Concept</t>
+        </is>
+      </c>
       <c r="E507" t="inlineStr"/>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
@@ -44504,7 +44544,11 @@
           <t>0000-0002-6968-8275</t>
         </is>
       </c>
-      <c r="AO507" t="inlineStr"/>
+      <c r="AO507" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
       <c r="AP507" t="inlineStr"/>
       <c r="AQ507" t="inlineStr"/>
       <c r="AR507" t="inlineStr"/>
@@ -44534,7 +44578,11 @@
         </is>
       </c>
       <c r="C508" t="inlineStr"/>
-      <c r="D508" t="inlineStr"/>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RASrZgnUQ1yBoxmeAyOaHYFuE9SCVSYOkemLp9rIpgEaU#ScopeOfMonitoring,skos:Concept</t>
+        </is>
+      </c>
       <c r="E508" t="inlineStr"/>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr"/>
@@ -44589,7 +44637,7 @@
       </c>
       <c r="AO508" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP508" t="inlineStr"/>
@@ -44704,7 +44752,11 @@
         </is>
       </c>
       <c r="C510" t="inlineStr"/>
-      <c r="D510" t="inlineStr"/>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NBO_0020108,skos:Concept</t>
+        </is>
+      </c>
       <c r="E510" t="inlineStr"/>
       <c r="F510" t="inlineStr"/>
       <c r="G510" t="inlineStr"/>
@@ -44759,7 +44811,7 @@
       </c>
       <c r="AO510" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP510" t="inlineStr"/>
@@ -44791,7 +44843,11 @@
         </is>
       </c>
       <c r="C511" t="inlineStr"/>
-      <c r="D511" t="inlineStr"/>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NBO_0020108,skos:Concept</t>
+        </is>
+      </c>
       <c r="E511" t="inlineStr"/>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr"/>
@@ -44846,7 +44902,7 @@
       </c>
       <c r="AO511" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP511" t="inlineStr"/>
@@ -44878,7 +44934,11 @@
         </is>
       </c>
       <c r="C512" t="inlineStr"/>
-      <c r="D512" t="inlineStr"/>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NBO_0020108,skos:Concept</t>
+        </is>
+      </c>
       <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr"/>
@@ -44933,7 +44993,7 @@
       </c>
       <c r="AO512" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP512" t="inlineStr"/>
@@ -44961,7 +45021,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>type of data collected</t>
+          <t>data type collected</t>
         </is>
       </c>
       <c r="C513" t="inlineStr"/>
@@ -45016,7 +45076,7 @@
       </c>
       <c r="AO513" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP513" t="inlineStr"/>
@@ -45048,7 +45108,11 @@
         </is>
       </c>
       <c r="C514" t="inlineStr"/>
-      <c r="D514" t="inlineStr"/>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RALfc5dUfQ0nRBtLy1EL-eVPs8Lz8TuYt7jrkjLxw5McI#collectedDataType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E514" t="inlineStr"/>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
@@ -45103,7 +45167,7 @@
       </c>
       <c r="AO514" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP514" t="inlineStr"/>
@@ -45135,7 +45199,11 @@
         </is>
       </c>
       <c r="C515" t="inlineStr"/>
-      <c r="D515" t="inlineStr"/>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RALfc5dUfQ0nRBtLy1EL-eVPs8Lz8TuYt7jrkjLxw5McI#collectedDataType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr"/>
@@ -45190,7 +45258,7 @@
       </c>
       <c r="AO515" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP515" t="inlineStr"/>
@@ -45222,7 +45290,11 @@
         </is>
       </c>
       <c r="C516" t="inlineStr"/>
-      <c r="D516" t="inlineStr"/>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RALfc5dUfQ0nRBtLy1EL-eVPs8Lz8TuYt7jrkjLxw5McI#collectedDataType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr"/>
@@ -45277,7 +45349,7 @@
       </c>
       <c r="AO516" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP516" t="inlineStr"/>
@@ -45309,7 +45381,11 @@
         </is>
       </c>
       <c r="C517" t="inlineStr"/>
-      <c r="D517" t="inlineStr"/>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RALfc5dUfQ0nRBtLy1EL-eVPs8Lz8TuYt7jrkjLxw5McI#collectedDataType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr"/>
       <c r="G517" t="inlineStr"/>
@@ -45364,7 +45440,7 @@
       </c>
       <c r="AO517" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP517" t="inlineStr"/>
@@ -45396,7 +45472,11 @@
         </is>
       </c>
       <c r="C518" t="inlineStr"/>
-      <c r="D518" t="inlineStr"/>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RALfc5dUfQ0nRBtLy1EL-eVPs8Lz8TuYt7jrkjLxw5McI#collectedDataType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr"/>
@@ -45451,7 +45531,7 @@
       </c>
       <c r="AO518" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP518" t="inlineStr"/>
@@ -45483,7 +45563,11 @@
         </is>
       </c>
       <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr"/>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RALfc5dUfQ0nRBtLy1EL-eVPs8Lz8TuYt7jrkjLxw5McI#collectedDataType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr"/>
@@ -45538,7 +45622,7 @@
       </c>
       <c r="AO519" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP519" t="inlineStr"/>
@@ -47381,14 +47465,14 @@
           <t>Creative Commons Zero v1.0 Universal</t>
         </is>
       </c>
-      <c r="D541" t="inlineStr"/>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E541" t="inlineStr"/>
       <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CC01.0</t>
-        </is>
-      </c>
+      <c r="G541" t="inlineStr"/>
       <c r="H541" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -47440,7 +47524,7 @@
       </c>
       <c r="AO541" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP541" t="inlineStr"/>
@@ -47476,14 +47560,14 @@
           <t>Creative Commons Attribution 1.0 Generic</t>
         </is>
       </c>
-      <c r="D542" t="inlineStr"/>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E542" t="inlineStr"/>
       <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBY1.0</t>
-        </is>
-      </c>
+      <c r="G542" t="inlineStr"/>
       <c r="H542" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -47535,7 +47619,7 @@
       </c>
       <c r="AO542" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP542" t="inlineStr"/>
@@ -47571,14 +47655,14 @@
           <t>Creative Commons Attribution 2.0 Generic</t>
         </is>
       </c>
-      <c r="D543" t="inlineStr"/>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBY2.0</t>
-        </is>
-      </c>
+      <c r="G543" t="inlineStr"/>
       <c r="H543" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -47662,14 +47746,14 @@
           <t>Creative Commons Attribution 2.5 Generic</t>
         </is>
       </c>
-      <c r="D544" t="inlineStr"/>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBY2.5</t>
-        </is>
-      </c>
+      <c r="G544" t="inlineStr"/>
       <c r="H544" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -47753,14 +47837,14 @@
           <t>Creative Commons Attribution 3.0 Unported</t>
         </is>
       </c>
-      <c r="D545" t="inlineStr"/>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBY3.0</t>
-        </is>
-      </c>
+      <c r="G545" t="inlineStr"/>
       <c r="H545" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -47844,14 +47928,14 @@
           <t>Creative Commons Attribution 3.0 Austria</t>
         </is>
       </c>
-      <c r="D546" t="inlineStr"/>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBY3.0AT</t>
-        </is>
-      </c>
+      <c r="G546" t="inlineStr"/>
       <c r="H546" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -47935,14 +48019,14 @@
           <t>Creative Commons Attribution 3.0 United States</t>
         </is>
       </c>
-      <c r="D547" t="inlineStr"/>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBY3.0US</t>
-        </is>
-      </c>
+      <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -48030,14 +48114,14 @@
           <t>Creative Commons Attribution 4.0 International</t>
         </is>
       </c>
-      <c r="D548" t="inlineStr"/>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBY4.0</t>
-        </is>
-      </c>
+      <c r="G548" t="inlineStr"/>
       <c r="H548" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -48121,14 +48205,14 @@
           <t>Creative Commons Attribution Non Commercial 1.0 Generic</t>
         </is>
       </c>
-      <c r="D549" t="inlineStr"/>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNC1.0</t>
-        </is>
-      </c>
+      <c r="G549" t="inlineStr"/>
       <c r="H549" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -48212,14 +48296,14 @@
           <t>Creative Commons Attribution Non Commercial 2.0 Generic</t>
         </is>
       </c>
-      <c r="D550" t="inlineStr"/>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNC2.0</t>
-        </is>
-      </c>
+      <c r="G550" t="inlineStr"/>
       <c r="H550" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -48303,14 +48387,14 @@
           <t>Creative Commons Attribution Non Commercial 2.5 Generic</t>
         </is>
       </c>
-      <c r="D551" t="inlineStr"/>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNC2.5</t>
-        </is>
-      </c>
+      <c r="G551" t="inlineStr"/>
       <c r="H551" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -48394,14 +48478,14 @@
           <t>Creative Commons Attribution Non Commercial 3.0 Unported</t>
         </is>
       </c>
-      <c r="D552" t="inlineStr"/>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNC3.0</t>
-        </is>
-      </c>
+      <c r="G552" t="inlineStr"/>
       <c r="H552" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -48485,14 +48569,14 @@
           <t>Creative Commons Attribution Non Commercial 4.0 International</t>
         </is>
       </c>
-      <c r="D553" t="inlineStr"/>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNC4.0</t>
-        </is>
-      </c>
+      <c r="G553" t="inlineStr"/>
       <c r="H553" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -48576,14 +48660,14 @@
           <t>Creative Commons Attribution Non Commercial No Derivatives 1.0 Generic</t>
         </is>
       </c>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNCND1.0</t>
-        </is>
-      </c>
+      <c r="G554" t="inlineStr"/>
       <c r="H554" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -48667,14 +48751,14 @@
           <t>Creative Commons Attribution Non Commercial No Derivatives 2.0 Generic</t>
         </is>
       </c>
-      <c r="D555" t="inlineStr"/>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNCND2.0</t>
-        </is>
-      </c>
+      <c r="G555" t="inlineStr"/>
       <c r="H555" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -48758,14 +48842,14 @@
           <t>Creative Commons Attribution Non Commercial No Derivatives 2.5 Generic</t>
         </is>
       </c>
-      <c r="D556" t="inlineStr"/>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E556" t="inlineStr"/>
       <c r="F556" t="inlineStr"/>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNCND2.5</t>
-        </is>
-      </c>
+      <c r="G556" t="inlineStr"/>
       <c r="H556" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -48849,14 +48933,14 @@
           <t>Creative Commons Attribution Non Commercial No Derivatives 3.0 Unported</t>
         </is>
       </c>
-      <c r="D557" t="inlineStr"/>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr"/>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNCND3.0</t>
-        </is>
-      </c>
+      <c r="G557" t="inlineStr"/>
       <c r="H557" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -48940,14 +49024,14 @@
           <t>Creative Commons Attribution Non Commercial No Derivatives 3.0 IGO</t>
         </is>
       </c>
-      <c r="D558" t="inlineStr"/>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr"/>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNCND3.0IGO</t>
-        </is>
-      </c>
+      <c r="G558" t="inlineStr"/>
       <c r="H558" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -49031,14 +49115,14 @@
           <t>Creative Commons Attribution Non Commercial No Derivatives 4.0 International</t>
         </is>
       </c>
-      <c r="D559" t="inlineStr"/>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E559" t="inlineStr"/>
       <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNCND4.0</t>
-        </is>
-      </c>
+      <c r="G559" t="inlineStr"/>
       <c r="H559" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -49122,14 +49206,14 @@
           <t>Creative Commons Attribution Non Commercial Share Alike 1.0 Generic</t>
         </is>
       </c>
-      <c r="D560" t="inlineStr"/>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E560" t="inlineStr"/>
       <c r="F560" t="inlineStr"/>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNCSA1.0</t>
-        </is>
-      </c>
+      <c r="G560" t="inlineStr"/>
       <c r="H560" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -49213,14 +49297,14 @@
           <t>Creative Commons Attribution Non Commercial Share Alike 2.0 Generic</t>
         </is>
       </c>
-      <c r="D561" t="inlineStr"/>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
-      <c r="G561" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNCSA2.0</t>
-        </is>
-      </c>
+      <c r="G561" t="inlineStr"/>
       <c r="H561" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -49304,14 +49388,14 @@
           <t>Creative Commons Attribution Non Commercial Share Alike 2.5 Generic</t>
         </is>
       </c>
-      <c r="D562" t="inlineStr"/>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNCSA2.5</t>
-        </is>
-      </c>
+      <c r="G562" t="inlineStr"/>
       <c r="H562" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -49395,14 +49479,14 @@
           <t>Creative Commons Attribution Non Commercial Share Alike 3.0 Unported</t>
         </is>
       </c>
-      <c r="D563" t="inlineStr"/>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNCSA3.0</t>
-        </is>
-      </c>
+      <c r="G563" t="inlineStr"/>
       <c r="H563" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -49486,14 +49570,14 @@
           <t>Creative Commons Attribution Non Commercial Share Alike 4.0 International</t>
         </is>
       </c>
-      <c r="D564" t="inlineStr"/>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYNCSA4.0</t>
-        </is>
-      </c>
+      <c r="G564" t="inlineStr"/>
       <c r="H564" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -49577,14 +49661,14 @@
           <t>Creative Commons Attribution No Derivatives 1.0 Generic</t>
         </is>
       </c>
-      <c r="D565" t="inlineStr"/>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E565" t="inlineStr"/>
       <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYND1.0</t>
-        </is>
-      </c>
+      <c r="G565" t="inlineStr"/>
       <c r="H565" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -49668,14 +49752,14 @@
           <t>Creative Commons Attribution No Derivatives 2.0 Generic</t>
         </is>
       </c>
-      <c r="D566" t="inlineStr"/>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E566" t="inlineStr"/>
       <c r="F566" t="inlineStr"/>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYND2.0</t>
-        </is>
-      </c>
+      <c r="G566" t="inlineStr"/>
       <c r="H566" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -49759,14 +49843,14 @@
           <t>Creative Commons Attribution No Derivatives 2.5 Generic</t>
         </is>
       </c>
-      <c r="D567" t="inlineStr"/>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E567" t="inlineStr"/>
       <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYND2.5</t>
-        </is>
-      </c>
+      <c r="G567" t="inlineStr"/>
       <c r="H567" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -49850,14 +49934,14 @@
           <t>Creative Commons Attribution No Derivatives 3.0 Unported</t>
         </is>
       </c>
-      <c r="D568" t="inlineStr"/>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr"/>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYND3.0</t>
-        </is>
-      </c>
+      <c r="G568" t="inlineStr"/>
       <c r="H568" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -49941,14 +50025,14 @@
           <t>Creative Commons Attribution No Derivatives 4.0 International</t>
         </is>
       </c>
-      <c r="D569" t="inlineStr"/>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E569" t="inlineStr"/>
       <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYND4.0</t>
-        </is>
-      </c>
+      <c r="G569" t="inlineStr"/>
       <c r="H569" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -50032,14 +50116,14 @@
           <t>Creative Commons Attribution Share Alike 1.0 Generic</t>
         </is>
       </c>
-      <c r="D570" t="inlineStr"/>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E570" t="inlineStr"/>
       <c r="F570" t="inlineStr"/>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYSA1.0</t>
-        </is>
-      </c>
+      <c r="G570" t="inlineStr"/>
       <c r="H570" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -50123,14 +50207,14 @@
           <t>Creative Commons Attribution Share Alike 2.0 Generic</t>
         </is>
       </c>
-      <c r="D571" t="inlineStr"/>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E571" t="inlineStr"/>
       <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYSA2.0</t>
-        </is>
-      </c>
+      <c r="G571" t="inlineStr"/>
       <c r="H571" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -50214,14 +50298,14 @@
           <t>Creative Commons Attribution Share Alike 2.0 England and Wales</t>
         </is>
       </c>
-      <c r="D572" t="inlineStr"/>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E572" t="inlineStr"/>
       <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYSA2.0UK</t>
-        </is>
-      </c>
+      <c r="G572" t="inlineStr"/>
       <c r="H572" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -50305,14 +50389,14 @@
           <t>Creative Commons Attribution Share Alike 2.5 Generic</t>
         </is>
       </c>
-      <c r="D573" t="inlineStr"/>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYSA2.5</t>
-        </is>
-      </c>
+      <c r="G573" t="inlineStr"/>
       <c r="H573" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -50396,14 +50480,14 @@
           <t>Creative Commons Attribution Share Alike 3.0 Unported</t>
         </is>
       </c>
-      <c r="D574" t="inlineStr"/>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E574" t="inlineStr"/>
       <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYSA3.0</t>
-        </is>
-      </c>
+      <c r="G574" t="inlineStr"/>
       <c r="H574" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -50453,7 +50537,11 @@
           <t>0000-0002-6968-8275</t>
         </is>
       </c>
-      <c r="AO574" t="inlineStr"/>
+      <c r="AO574" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
       <c r="AP574" t="inlineStr"/>
       <c r="AQ574" t="inlineStr"/>
       <c r="AR574" t="inlineStr"/>
@@ -50487,14 +50575,14 @@
           <t>Creative Commons Attribution-Share Alike 3.0 Austria</t>
         </is>
       </c>
-      <c r="D575" t="inlineStr"/>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E575" t="inlineStr"/>
       <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYSA3.0AT</t>
-        </is>
-      </c>
+      <c r="G575" t="inlineStr"/>
       <c r="H575" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -50578,14 +50666,14 @@
           <t>Creative Commons Attribution Share Alike 4.0 International</t>
         </is>
       </c>
-      <c r="D576" t="inlineStr"/>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E576" t="inlineStr"/>
       <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCBYSA4.0</t>
-        </is>
-      </c>
+      <c r="G576" t="inlineStr"/>
       <c r="H576" t="inlineStr">
         <is>
           <t>cl:10611</t>
@@ -50669,14 +50757,14 @@
           <t>Creative Commons Public Domain Dedication and Certification</t>
         </is>
       </c>
-      <c r="D577" t="inlineStr"/>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E577" t="inlineStr"/>
       <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>http://vocab.fairdatacollective.org/gdmt/CCPDDC</t>
-        </is>
-      </c>
+      <c r="G577" t="inlineStr"/>
       <c r="H577" t="inlineStr">
         <is>
           <t>cl:10611</t>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -18035,7 +18035,11 @@
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAbYySIp5AWvJX0ZYmxn3rm3uKj1BJkSxRlC4fsEVXnc4#GenericAnswerType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
@@ -18090,7 +18094,7 @@
       </c>
       <c r="AO203" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP203" t="inlineStr"/>
@@ -18122,7 +18126,11 @@
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAbYySIp5AWvJX0ZYmxn3rm3uKj1BJkSxRlC4fsEVXnc4#GenericAnswerType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
@@ -18177,7 +18185,7 @@
       </c>
       <c r="AO204" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP204" t="inlineStr"/>
@@ -18209,7 +18217,11 @@
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAbYySIp5AWvJX0ZYmxn3rm3uKj1BJkSxRlC4fsEVXnc4#GenericAnswerType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
@@ -18264,7 +18276,7 @@
       </c>
       <c r="AO205" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP205" t="inlineStr"/>
@@ -18296,7 +18308,11 @@
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAbYySIp5AWvJX0ZYmxn3rm3uKj1BJkSxRlC4fsEVXnc4#GenericAnswerType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
@@ -18351,7 +18367,7 @@
       </c>
       <c r="AO206" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP206" t="inlineStr"/>
@@ -18383,7 +18399,11 @@
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAbYySIp5AWvJX0ZYmxn3rm3uKj1BJkSxRlC4fsEVXnc4#GenericAnswerType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
@@ -18438,7 +18458,7 @@
       </c>
       <c r="AO207" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP207" t="inlineStr"/>
@@ -20689,7 +20709,11 @@
           <t>na</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAbYySIp5AWvJX0ZYmxn3rm3uKj1BJkSxRlC4fsEVXnc4#GenericAnswerType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
@@ -20744,7 +20768,7 @@
       </c>
       <c r="AO233" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP233" t="inlineStr"/>
@@ -42391,7 +42415,11 @@
           <t>ALP,alpine</t>
         </is>
       </c>
-      <c r="D483" t="inlineStr"/>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/4/id/200906086364955683,skos:Concept</t>
+        </is>
+      </c>
       <c r="E483" t="inlineStr"/>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
@@ -42446,7 +42474,7 @@
       <c r="AN483" t="inlineStr"/>
       <c r="AO483" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP483" t="inlineStr"/>
@@ -42482,7 +42510,11 @@
           <t>ARC,artic</t>
         </is>
       </c>
-      <c r="D484" t="inlineStr"/>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/4/id/200906086364955683,skos:Concept</t>
+        </is>
+      </c>
       <c r="E484" t="inlineStr"/>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
@@ -42537,7 +42569,7 @@
       <c r="AN484" t="inlineStr"/>
       <c r="AO484" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP484" t="inlineStr"/>
@@ -42573,7 +42605,11 @@
           <t>BLS,blackSea</t>
         </is>
       </c>
-      <c r="D485" t="inlineStr"/>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/4/id/200906086364955683,skos:Concept</t>
+        </is>
+      </c>
       <c r="E485" t="inlineStr"/>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
@@ -42628,7 +42664,7 @@
       <c r="AN485" t="inlineStr"/>
       <c r="AO485" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP485" t="inlineStr"/>
@@ -42664,7 +42700,11 @@
           <t>MED,mediterranean</t>
         </is>
       </c>
-      <c r="D486" t="inlineStr"/>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/4/id/200906086364955683,skos:Concept</t>
+        </is>
+      </c>
       <c r="E486" t="inlineStr"/>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr"/>
@@ -42719,7 +42759,7 @@
       <c r="AN486" t="inlineStr"/>
       <c r="AO486" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP486" t="inlineStr"/>
@@ -42755,7 +42795,11 @@
           <t>MATL,marineAtlantic</t>
         </is>
       </c>
-      <c r="D487" t="inlineStr"/>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/4/id/200906086364955683,skos:Concept</t>
+        </is>
+      </c>
       <c r="E487" t="inlineStr"/>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
@@ -42806,7 +42850,7 @@
       <c r="AN487" t="inlineStr"/>
       <c r="AO487" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP487" t="inlineStr"/>
@@ -42842,7 +42886,11 @@
           <t>MBAL,marineBaltic</t>
         </is>
       </c>
-      <c r="D488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/4/id/200906086364955683,skos:Concept</t>
+        </is>
+      </c>
       <c r="E488" t="inlineStr"/>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
@@ -42891,7 +42939,11 @@
         </is>
       </c>
       <c r="AN488" t="inlineStr"/>
-      <c r="AO488" t="inlineStr"/>
+      <c r="AO488" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
       <c r="AP488" t="inlineStr"/>
       <c r="AQ488" t="inlineStr"/>
       <c r="AR488" t="inlineStr"/>
@@ -42925,7 +42977,11 @@
           <t>MBLS,marineBlackSea</t>
         </is>
       </c>
-      <c r="D489" t="inlineStr"/>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/4/id/200906086364955683,skos:Concept</t>
+        </is>
+      </c>
       <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr"/>
@@ -42974,7 +43030,11 @@
         </is>
       </c>
       <c r="AN489" t="inlineStr"/>
-      <c r="AO489" t="inlineStr"/>
+      <c r="AO489" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
       <c r="AP489" t="inlineStr"/>
       <c r="AQ489" t="inlineStr"/>
       <c r="AR489" t="inlineStr"/>
@@ -43008,7 +43068,11 @@
           <t>MMAC,marineMacaronesian</t>
         </is>
       </c>
-      <c r="D490" t="inlineStr"/>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/4/id/200906086364955683,skos:Concept</t>
+        </is>
+      </c>
       <c r="E490" t="inlineStr"/>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr"/>
@@ -43057,7 +43121,11 @@
         </is>
       </c>
       <c r="AN490" t="inlineStr"/>
-      <c r="AO490" t="inlineStr"/>
+      <c r="AO490" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
       <c r="AP490" t="inlineStr"/>
       <c r="AQ490" t="inlineStr"/>
       <c r="AR490" t="inlineStr"/>
@@ -43091,7 +43159,11 @@
           <t>MMED,marineMediterranean</t>
         </is>
       </c>
-      <c r="D491" t="inlineStr"/>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/4/id/200906086364955683,skos:Concept</t>
+        </is>
+      </c>
       <c r="E491" t="inlineStr"/>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr"/>
@@ -43140,7 +43212,11 @@
         </is>
       </c>
       <c r="AN491" t="inlineStr"/>
-      <c r="AO491" t="inlineStr"/>
+      <c r="AO491" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
       <c r="AP491" t="inlineStr"/>
       <c r="AQ491" t="inlineStr"/>
       <c r="AR491" t="inlineStr"/>
@@ -43170,11 +43246,7 @@
         </is>
       </c>
       <c r="C492" t="inlineStr"/>
-      <c r="D492" t="inlineStr">
-        <is>
-          <t>https://w3id.org/np/RAP2yIXzEVXe6gQye6xUgfnj10rcFGRvp9OnplW7ZqMDs#fund_source_level,skos:Concept</t>
-        </is>
-      </c>
+      <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr"/>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
@@ -43225,7 +43297,7 @@
       </c>
       <c r="AO492" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP492" t="inlineStr"/>
@@ -43257,7 +43329,11 @@
         </is>
       </c>
       <c r="C493" t="inlineStr"/>
-      <c r="D493" t="inlineStr"/>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAHPlK4vAHSzHpk9JxqppKxxvgS_U7zNi1k7-uWqkpaRo#GeoScop,https://w3id.org/np/RAP2yIXzEVXe6gQye6xUgfnj10rcFGRvp9OnplW7ZqMDs#fund_source_level,skos:Concept</t>
+        </is>
+      </c>
       <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
@@ -43312,7 +43388,7 @@
       </c>
       <c r="AO493" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP493" t="inlineStr"/>
@@ -43344,7 +43420,11 @@
         </is>
       </c>
       <c r="C494" t="inlineStr"/>
-      <c r="D494" t="inlineStr"/>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAHPlK4vAHSzHpk9JxqppKxxvgS_U7zNi1k7-uWqkpaRo#GeoScop,https://w3id.org/np/RAP2yIXzEVXe6gQye6xUgfnj10rcFGRvp9OnplW7ZqMDs#fund_source_level,skos:Concept</t>
+        </is>
+      </c>
       <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
@@ -43399,7 +43479,7 @@
       </c>
       <c r="AO494" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP494" t="inlineStr"/>
@@ -43431,7 +43511,11 @@
         </is>
       </c>
       <c r="C495" t="inlineStr"/>
-      <c r="D495" t="inlineStr"/>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAHPlK4vAHSzHpk9JxqppKxxvgS_U7zNi1k7-uWqkpaRo#GeoScop,https://w3id.org/np/RAP2yIXzEVXe6gQye6xUgfnj10rcFGRvp9OnplW7ZqMDs#fund_source_level,skos:Concept</t>
+        </is>
+      </c>
       <c r="E495" t="inlineStr"/>
       <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr"/>
@@ -43486,7 +43570,7 @@
       </c>
       <c r="AO495" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP495" t="inlineStr"/>
@@ -43518,7 +43602,11 @@
         </is>
       </c>
       <c r="C496" t="inlineStr"/>
-      <c r="D496" t="inlineStr"/>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAP2yIXzEVXe6gQye6xUgfnj10rcFGRvp9OnplW7ZqMDs#fund_source_level,skos:Concept</t>
+        </is>
+      </c>
       <c r="E496" t="inlineStr"/>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
@@ -43571,7 +43659,11 @@
           <t>0000-0002-6968-8275</t>
         </is>
       </c>
-      <c r="AO496" t="inlineStr"/>
+      <c r="AO496" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
       <c r="AP496" t="inlineStr"/>
       <c r="AQ496" t="inlineStr"/>
       <c r="AR496" t="inlineStr"/>
@@ -43601,7 +43693,11 @@
         </is>
       </c>
       <c r="C497" t="inlineStr"/>
-      <c r="D497" t="inlineStr"/>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAP2yIXzEVXe6gQye6xUgfnj10rcFGRvp9OnplW7ZqMDs#fund_source_level,skos:Concept</t>
+        </is>
+      </c>
       <c r="E497" t="inlineStr"/>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
@@ -43654,7 +43750,11 @@
           <t>0000-0002-6968-8275</t>
         </is>
       </c>
-      <c r="AO497" t="inlineStr"/>
+      <c r="AO497" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
       <c r="AP497" t="inlineStr"/>
       <c r="AQ497" t="inlineStr"/>
       <c r="AR497" t="inlineStr"/>
@@ -45737,7 +45837,11 @@
         </is>
       </c>
       <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr"/>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAHPlK4vAHSzHpk9JxqppKxxvgS_U7zNi1k7-uWqkpaRo#GeoScop,https://w3id.org/np/RAP2yIXzEVXe6gQye6xUgfnj10rcFGRvp9OnplW7ZqMDs#fund_source_level,skos:Concept</t>
+        </is>
+      </c>
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr"/>
@@ -45792,7 +45896,7 @@
       </c>
       <c r="AO521" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP521" t="inlineStr"/>
@@ -45824,7 +45928,11 @@
         </is>
       </c>
       <c r="C522" t="inlineStr"/>
-      <c r="D522" t="inlineStr"/>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAHPlK4vAHSzHpk9JxqppKxxvgS_U7zNi1k7-uWqkpaRo#GeoScop,https://w3id.org/np/RAP2yIXzEVXe6gQye6xUgfnj10rcFGRvp9OnplW7ZqMDs#fund_source_level,skos:Concept</t>
+        </is>
+      </c>
       <c r="E522" t="inlineStr"/>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
@@ -45879,7 +45987,7 @@
       </c>
       <c r="AO522" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP522" t="inlineStr"/>
@@ -45911,7 +46019,11 @@
         </is>
       </c>
       <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr"/>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAbYySIp5AWvJX0ZYmxn3rm3uKj1BJkSxRlC4fsEVXnc4#GenericAnswerType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E523" t="inlineStr"/>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr"/>
@@ -45966,7 +46078,7 @@
       </c>
       <c r="AO523" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP523" t="inlineStr"/>
@@ -45998,7 +46110,11 @@
         </is>
       </c>
       <c r="C524" t="inlineStr"/>
-      <c r="D524" t="inlineStr"/>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAbYySIp5AWvJX0ZYmxn3rm3uKj1BJkSxRlC4fsEVXnc4#GenericAnswerType,skos:Concept</t>
+        </is>
+      </c>
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
@@ -46053,7 +46169,7 @@
       </c>
       <c r="AO524" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP524" t="inlineStr"/>
@@ -46599,7 +46715,11 @@
         </is>
       </c>
       <c r="C531" t="inlineStr"/>
-      <c r="D531" t="inlineStr"/>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RA3XSiqkMin7oJPePmAno6LpcOoDgzNRWMdlVO3490Pqk#ExperimentalDesign,skos:Concept</t>
+        </is>
+      </c>
       <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr"/>
@@ -46654,7 +46774,7 @@
       </c>
       <c r="AO531" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP531" t="inlineStr"/>
@@ -46686,7 +46806,11 @@
         </is>
       </c>
       <c r="C532" t="inlineStr"/>
-      <c r="D532" t="inlineStr"/>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RA3XSiqkMin7oJPePmAno6LpcOoDgzNRWMdlVO3490Pqk#ExperimentalDesign,skos:Concept</t>
+        </is>
+      </c>
       <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr"/>
@@ -46741,7 +46865,7 @@
       </c>
       <c r="AO532" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP532" t="inlineStr"/>
@@ -46773,7 +46897,11 @@
         </is>
       </c>
       <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr"/>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RA3XSiqkMin7oJPePmAno6LpcOoDgzNRWMdlVO3490Pqk#ExperimentalDesign,skos:Concept</t>
+        </is>
+      </c>
       <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr"/>
       <c r="G533" t="inlineStr"/>
@@ -46828,7 +46956,7 @@
       </c>
       <c r="AO533" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP533" t="inlineStr"/>
@@ -46943,7 +47071,11 @@
         </is>
       </c>
       <c r="C535" t="inlineStr"/>
-      <c r="D535" t="inlineStr"/>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAANpqX3OfeAqc74LkoNHEFNs1ib9JZKEfP3sj8Pd8e-k#SiteSelection,skos:Concept</t>
+        </is>
+      </c>
       <c r="E535" t="inlineStr"/>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr"/>
@@ -46998,7 +47130,7 @@
       </c>
       <c r="AO535" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP535" t="inlineStr"/>
@@ -47030,7 +47162,11 @@
         </is>
       </c>
       <c r="C536" t="inlineStr"/>
-      <c r="D536" t="inlineStr"/>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAANpqX3OfeAqc74LkoNHEFNs1ib9JZKEfP3sj8Pd8e-k#SiteSelection,skos:Concept</t>
+        </is>
+      </c>
       <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr"/>
@@ -47085,7 +47221,7 @@
       </c>
       <c r="AO536" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP536" t="inlineStr"/>
@@ -47117,7 +47253,11 @@
         </is>
       </c>
       <c r="C537" t="inlineStr"/>
-      <c r="D537" t="inlineStr"/>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAANpqX3OfeAqc74LkoNHEFNs1ib9JZKEfP3sj8Pd8e-k#SiteSelection,skos:Concept</t>
+        </is>
+      </c>
       <c r="E537" t="inlineStr"/>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr"/>
@@ -47172,7 +47312,7 @@
       </c>
       <c r="AO537" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP537" t="inlineStr"/>
@@ -47204,7 +47344,11 @@
         </is>
       </c>
       <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr"/>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAANpqX3OfeAqc74LkoNHEFNs1ib9JZKEfP3sj8Pd8e-k#SiteSelection,skos:Concept</t>
+        </is>
+      </c>
       <c r="E538" t="inlineStr"/>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
@@ -47259,7 +47403,7 @@
       </c>
       <c r="AO538" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP538" t="inlineStr"/>
@@ -47291,7 +47435,11 @@
         </is>
       </c>
       <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr"/>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAANpqX3OfeAqc74LkoNHEFNs1ib9JZKEfP3sj8Pd8e-k#SiteSelection,skos:Concept</t>
+        </is>
+      </c>
       <c r="E539" t="inlineStr"/>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
@@ -47344,7 +47492,11 @@
           <t>0000-0002-6968-8275</t>
         </is>
       </c>
-      <c r="AO539" t="inlineStr"/>
+      <c r="AO539" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
       <c r="AP539" t="inlineStr"/>
       <c r="AQ539" t="inlineStr"/>
       <c r="AR539" t="inlineStr"/>
@@ -50844,7 +50996,11 @@
         </is>
       </c>
       <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr"/>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E578" t="inlineStr"/>
       <c r="F578" t="inlineStr"/>
       <c r="G578" t="inlineStr"/>
@@ -50895,7 +51051,7 @@
       <c r="AN578" t="inlineStr"/>
       <c r="AO578" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP578" t="inlineStr"/>
@@ -50927,7 +51083,11 @@
         </is>
       </c>
       <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr"/>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E579" t="inlineStr"/>
       <c r="F579" t="inlineStr"/>
       <c r="G579" t="inlineStr"/>
@@ -50978,7 +51138,7 @@
       <c r="AN579" t="inlineStr"/>
       <c r="AO579" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP579" t="inlineStr"/>
@@ -51010,7 +51170,11 @@
         </is>
       </c>
       <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr"/>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E580" t="inlineStr"/>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr"/>
@@ -51061,7 +51225,7 @@
       <c r="AN580" t="inlineStr"/>
       <c r="AO580" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP580" t="inlineStr"/>
@@ -51093,7 +51257,11 @@
         </is>
       </c>
       <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr"/>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E581" t="inlineStr"/>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
@@ -51144,7 +51312,7 @@
       <c r="AN581" t="inlineStr"/>
       <c r="AO581" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP581" t="inlineStr"/>
@@ -51176,7 +51344,11 @@
         </is>
       </c>
       <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr"/>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E582" t="inlineStr"/>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr"/>
@@ -51227,7 +51399,7 @@
       <c r="AN582" t="inlineStr"/>
       <c r="AO582" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP582" t="inlineStr"/>
@@ -51259,7 +51431,11 @@
         </is>
       </c>
       <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr"/>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E583" t="inlineStr"/>
       <c r="F583" t="inlineStr"/>
       <c r="G583" t="inlineStr"/>
@@ -51310,7 +51486,7 @@
       <c r="AN583" t="inlineStr"/>
       <c r="AO583" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP583" t="inlineStr"/>
@@ -51342,7 +51518,11 @@
         </is>
       </c>
       <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr"/>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E584" t="inlineStr"/>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
@@ -51393,7 +51573,7 @@
       <c r="AN584" t="inlineStr"/>
       <c r="AO584" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP584" t="inlineStr"/>
@@ -51425,7 +51605,11 @@
         </is>
       </c>
       <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr"/>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E585" t="inlineStr"/>
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr"/>
@@ -51476,7 +51660,7 @@
       <c r="AN585" t="inlineStr"/>
       <c r="AO585" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP585" t="inlineStr"/>
@@ -51508,7 +51692,11 @@
         </is>
       </c>
       <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr"/>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E586" t="inlineStr"/>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
@@ -51559,7 +51747,7 @@
       <c r="AN586" t="inlineStr"/>
       <c r="AO586" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP586" t="inlineStr"/>
@@ -51674,7 +51862,11 @@
         </is>
       </c>
       <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr"/>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAq2oL3uIyI5vH97OTWnqmihGN-_n5deh6FXidHvBfFV4#CorineHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E588" t="inlineStr"/>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr"/>
@@ -51725,7 +51917,7 @@
       <c r="AN588" t="inlineStr"/>
       <c r="AO588" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP588" t="inlineStr"/>
@@ -51757,7 +51949,11 @@
         </is>
       </c>
       <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr"/>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAq2oL3uIyI5vH97OTWnqmihGN-_n5deh6FXidHvBfFV4#CorineHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E589" t="inlineStr"/>
       <c r="F589" t="inlineStr"/>
       <c r="G589" t="inlineStr"/>
@@ -51808,7 +52004,7 @@
       <c r="AN589" t="inlineStr"/>
       <c r="AO589" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP589" t="inlineStr"/>
@@ -51840,7 +52036,11 @@
         </is>
       </c>
       <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr"/>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAq2oL3uIyI5vH97OTWnqmihGN-_n5deh6FXidHvBfFV4#CorineHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E590" t="inlineStr"/>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr"/>
@@ -51891,7 +52091,7 @@
       <c r="AN590" t="inlineStr"/>
       <c r="AO590" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP590" t="inlineStr"/>
@@ -51923,7 +52123,11 @@
         </is>
       </c>
       <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr"/>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAq2oL3uIyI5vH97OTWnqmihGN-_n5deh6FXidHvBfFV4#CorineHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E591" t="inlineStr"/>
       <c r="F591" t="inlineStr"/>
       <c r="G591" t="inlineStr"/>
@@ -51974,7 +52178,7 @@
       <c r="AN591" t="inlineStr"/>
       <c r="AO591" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP591" t="inlineStr"/>
@@ -52006,7 +52210,11 @@
         </is>
       </c>
       <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr"/>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAq2oL3uIyI5vH97OTWnqmihGN-_n5deh6FXidHvBfFV4#CorineHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E592" t="inlineStr"/>
       <c r="F592" t="inlineStr"/>
       <c r="G592" t="inlineStr"/>
@@ -52057,7 +52265,7 @@
       <c r="AN592" t="inlineStr"/>
       <c r="AO592" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP592" t="inlineStr"/>
@@ -52089,7 +52297,11 @@
         </is>
       </c>
       <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr"/>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAq2oL3uIyI5vH97OTWnqmihGN-_n5deh6FXidHvBfFV4#CorineHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E593" t="inlineStr"/>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
@@ -52140,7 +52352,7 @@
       <c r="AN593" t="inlineStr"/>
       <c r="AO593" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP593" t="inlineStr"/>
@@ -52172,7 +52384,11 @@
         </is>
       </c>
       <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr"/>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAq2oL3uIyI5vH97OTWnqmihGN-_n5deh6FXidHvBfFV4#CorineHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E594" t="inlineStr"/>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
@@ -52223,7 +52439,7 @@
       <c r="AN594" t="inlineStr"/>
       <c r="AO594" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP594" t="inlineStr"/>
@@ -52306,7 +52522,7 @@
       <c r="AN595" t="inlineStr"/>
       <c r="AO595" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP595" t="inlineStr"/>
@@ -52389,7 +52605,7 @@
       <c r="AN596" t="inlineStr"/>
       <c r="AO596" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP596" t="inlineStr"/>
@@ -53097,7 +53313,11 @@
         </is>
       </c>
       <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr"/>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Plant,skos:Concept</t>
+        </is>
+      </c>
       <c r="E605" t="inlineStr"/>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
@@ -53152,7 +53372,7 @@
       </c>
       <c r="AO605" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP605" t="inlineStr"/>
@@ -53987,7 +54207,11 @@
         </is>
       </c>
       <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr"/>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Plant,skos:Concept</t>
+        </is>
+      </c>
       <c r="E615" t="inlineStr"/>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr"/>
@@ -54042,7 +54266,7 @@
       </c>
       <c r="AO615" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP615" t="inlineStr"/>
@@ -54074,7 +54298,11 @@
         </is>
       </c>
       <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr"/>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Plant,skos:Concept</t>
+        </is>
+      </c>
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr"/>
@@ -54129,7 +54357,7 @@
       </c>
       <c r="AO616" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP616" t="inlineStr"/>
@@ -54426,7 +54654,11 @@
         </is>
       </c>
       <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr"/>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr"/>
@@ -54481,7 +54713,7 @@
       </c>
       <c r="AO620" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP620" t="inlineStr"/>
@@ -54600,7 +54832,11 @@
         </is>
       </c>
       <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr"/>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782, skos:Concept</t>
+        </is>
+      </c>
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
       <c r="G622" t="inlineStr"/>
@@ -54655,7 +54891,7 @@
       </c>
       <c r="AO622" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP622" t="inlineStr"/>
@@ -54687,7 +54923,11 @@
         </is>
       </c>
       <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr"/>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782, skos:Concept</t>
+        </is>
+      </c>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
       <c r="G623" t="inlineStr"/>
@@ -54742,7 +54982,7 @@
       </c>
       <c r="AO623" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP623" t="inlineStr"/>
@@ -54774,7 +55014,11 @@
         </is>
       </c>
       <c r="C624" t="inlineStr"/>
-      <c r="D624" t="inlineStr"/>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782, skos:Concept</t>
+        </is>
+      </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr"/>
@@ -54829,7 +55073,7 @@
       </c>
       <c r="AO624" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP624" t="inlineStr"/>
@@ -54861,7 +55105,11 @@
         </is>
       </c>
       <c r="C625" t="inlineStr"/>
-      <c r="D625" t="inlineStr"/>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782, skos:Concept</t>
+        </is>
+      </c>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
@@ -54916,7 +55164,7 @@
       </c>
       <c r="AO625" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP625" t="inlineStr"/>
@@ -55035,7 +55283,11 @@
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
-      <c r="D627" t="inlineStr"/>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+        </is>
+      </c>
       <c r="E627" t="inlineStr"/>
       <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr"/>
@@ -55090,7 +55342,7 @@
       </c>
       <c r="AO627" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP627" t="inlineStr"/>
@@ -55122,7 +55374,11 @@
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr"/>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+        </is>
+      </c>
       <c r="E628" t="inlineStr"/>
       <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr"/>
@@ -55177,7 +55433,7 @@
       </c>
       <c r="AO628" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP628" t="inlineStr"/>
@@ -55209,7 +55465,11 @@
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr"/>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+        </is>
+      </c>
       <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr"/>
@@ -55264,7 +55524,7 @@
       </c>
       <c r="AO629" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP629" t="inlineStr"/>
@@ -55296,7 +55556,11 @@
         </is>
       </c>
       <c r="C630" t="inlineStr"/>
-      <c r="D630" t="inlineStr"/>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+        </is>
+      </c>
       <c r="E630" t="inlineStr"/>
       <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr"/>
@@ -55351,7 +55615,7 @@
       </c>
       <c r="AO630" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP630" t="inlineStr"/>
@@ -55383,7 +55647,11 @@
         </is>
       </c>
       <c r="C631" t="inlineStr"/>
-      <c r="D631" t="inlineStr"/>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+        </is>
+      </c>
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr"/>
@@ -55438,7 +55706,7 @@
       </c>
       <c r="AO631" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP631" t="inlineStr"/>
@@ -55470,7 +55738,11 @@
         </is>
       </c>
       <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr"/>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+        </is>
+      </c>
       <c r="E632" t="inlineStr"/>
       <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr"/>
@@ -55525,7 +55797,7 @@
       </c>
       <c r="AO632" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP632" t="inlineStr"/>
@@ -55557,7 +55829,11 @@
         </is>
       </c>
       <c r="C633" t="inlineStr"/>
-      <c r="D633" t="inlineStr"/>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+        </is>
+      </c>
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr"/>
@@ -55612,7 +55888,7 @@
       </c>
       <c r="AO633" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP633" t="inlineStr"/>
@@ -55644,7 +55920,11 @@
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
-      <c r="D634" t="inlineStr"/>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+        </is>
+      </c>
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr"/>
@@ -55699,7 +55979,7 @@
       </c>
       <c r="AO634" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP634" t="inlineStr"/>
@@ -55818,7 +56098,11 @@
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
-      <c r="D636" t="inlineStr"/>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Plant,skos:Concept</t>
+        </is>
+      </c>
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
@@ -55873,7 +56157,7 @@
       </c>
       <c r="AO636" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP636" t="inlineStr"/>
@@ -55905,7 +56189,11 @@
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
-      <c r="D637" t="inlineStr"/>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Plant,skos:Concept</t>
+        </is>
+      </c>
       <c r="E637" t="inlineStr"/>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr"/>
@@ -55960,7 +56248,7 @@
       </c>
       <c r="AO637" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP637" t="inlineStr"/>
@@ -55992,7 +56280,11 @@
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
-      <c r="D638" t="inlineStr"/>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Plant,skos:Concept</t>
+        </is>
+      </c>
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
@@ -56047,7 +56339,7 @@
       </c>
       <c r="AO638" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP638" t="inlineStr"/>
@@ -56079,7 +56371,11 @@
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
-      <c r="D639" t="inlineStr"/>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Plant,skos:Concept</t>
+        </is>
+      </c>
       <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr"/>
@@ -56134,7 +56430,7 @@
       </c>
       <c r="AO639" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP639" t="inlineStr"/>
@@ -56166,7 +56462,11 @@
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
-      <c r="D640" t="inlineStr"/>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026,skos:Concept</t>
+        </is>
+      </c>
       <c r="E640" t="inlineStr"/>
       <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr"/>
@@ -56221,7 +56521,7 @@
       </c>
       <c r="AO640" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP640" t="inlineStr"/>
@@ -56253,7 +56553,11 @@
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
-      <c r="D641" t="inlineStr"/>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026,skos:Concept</t>
+        </is>
+      </c>
       <c r="E641" t="inlineStr"/>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr"/>
@@ -56308,7 +56612,7 @@
       </c>
       <c r="AO641" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP641" t="inlineStr"/>
@@ -56340,7 +56644,11 @@
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
-      <c r="D642" t="inlineStr"/>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026,skos:Concept</t>
+        </is>
+      </c>
       <c r="E642" t="inlineStr"/>
       <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr"/>
@@ -56395,7 +56703,7 @@
       </c>
       <c r="AO642" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP642" t="inlineStr"/>
@@ -56427,7 +56735,11 @@
         </is>
       </c>
       <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr"/>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026,skos:Concept</t>
+        </is>
+      </c>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
       <c r="G643" t="inlineStr"/>
@@ -56482,7 +56794,7 @@
       </c>
       <c r="AO643" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP643" t="inlineStr"/>
@@ -56514,7 +56826,11 @@
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
-      <c r="D644" t="inlineStr"/>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026,skos:Concept</t>
+        </is>
+      </c>
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr"/>
@@ -56569,7 +56885,7 @@
       </c>
       <c r="AO644" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP644" t="inlineStr"/>
@@ -56601,7 +56917,11 @@
         </is>
       </c>
       <c r="C645" t="inlineStr"/>
-      <c r="D645" t="inlineStr"/>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026,skos:Concept</t>
+        </is>
+      </c>
       <c r="E645" t="inlineStr"/>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr"/>
@@ -56656,7 +56976,7 @@
       </c>
       <c r="AO645" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP645" t="inlineStr"/>
@@ -56688,7 +57008,11 @@
         </is>
       </c>
       <c r="C646" t="inlineStr"/>
-      <c r="D646" t="inlineStr"/>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026,skos:Concept</t>
+        </is>
+      </c>
       <c r="E646" t="inlineStr"/>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr"/>
@@ -56743,7 +57067,7 @@
       </c>
       <c r="AO646" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP646" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE666"/>
+  <dimension ref="A1:BE680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7503,7 +7503,11 @@
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NBO_0020108,skos:Concept</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
@@ -7517,12 +7521,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>cl:10001,cl:10189</t>
+          <t>cl:10001,cl:10189,cl:10580</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/lu</t>
+          <t>http://inspire.ec.europa.eu/theme/lu,et:22143</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -7570,7 +7574,7 @@
       </c>
       <c r="AO87" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="AP87" t="inlineStr"/>
@@ -45214,7 +45218,11 @@
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
-      <c r="F514" t="inlineStr"/>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
+        </is>
+      </c>
       <c r="G514" t="inlineStr"/>
       <c r="H514" t="inlineStr">
         <is>
@@ -45267,7 +45275,7 @@
       </c>
       <c r="AO514" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="AP514" t="inlineStr"/>
@@ -45305,7 +45313,11 @@
         </is>
       </c>
       <c r="E515" t="inlineStr"/>
-      <c r="F515" t="inlineStr"/>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
+        </is>
+      </c>
       <c r="G515" t="inlineStr"/>
       <c r="H515" t="inlineStr">
         <is>
@@ -45358,7 +45370,7 @@
       </c>
       <c r="AO515" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="AP515" t="inlineStr"/>
@@ -45396,7 +45408,11 @@
         </is>
       </c>
       <c r="E516" t="inlineStr"/>
-      <c r="F516" t="inlineStr"/>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
+        </is>
+      </c>
       <c r="G516" t="inlineStr"/>
       <c r="H516" t="inlineStr">
         <is>
@@ -45449,7 +45465,7 @@
       </c>
       <c r="AO516" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="AP516" t="inlineStr"/>
@@ -45487,7 +45503,11 @@
         </is>
       </c>
       <c r="E517" t="inlineStr"/>
-      <c r="F517" t="inlineStr"/>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
+        </is>
+      </c>
       <c r="G517" t="inlineStr"/>
       <c r="H517" t="inlineStr">
         <is>
@@ -45540,7 +45560,7 @@
       </c>
       <c r="AO517" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="AP517" t="inlineStr"/>
@@ -45578,7 +45598,11 @@
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
-      <c r="F518" t="inlineStr"/>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
+        </is>
+      </c>
       <c r="G518" t="inlineStr"/>
       <c r="H518" t="inlineStr">
         <is>
@@ -45631,7 +45655,7 @@
       </c>
       <c r="AO518" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="AP518" t="inlineStr"/>
@@ -45669,7 +45693,11 @@
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
-      <c r="F519" t="inlineStr"/>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
+        </is>
+      </c>
       <c r="G519" t="inlineStr"/>
       <c r="H519" t="inlineStr">
         <is>
@@ -45722,7 +45750,7 @@
       </c>
       <c r="AO519" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="AP519" t="inlineStr"/>
@@ -58819,6 +58847,1277 @@
       <c r="BD666" t="inlineStr"/>
       <c r="BE666" t="inlineStr"/>
     </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>cl:10740</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>genetic variability</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RASrZgnUQ1yBoxmeAyOaHYFuE9SCVSYOkemLp9rIpgEaU#ScopeOfMonitoring,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr"/>
+      <c r="F667" t="inlineStr"/>
+      <c r="G667" t="inlineStr"/>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>cl:10575</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>et:30299</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
+      <c r="L667" t="inlineStr"/>
+      <c r="M667" t="inlineStr"/>
+      <c r="N667" t="inlineStr"/>
+      <c r="O667" t="inlineStr"/>
+      <c r="P667" t="inlineStr"/>
+      <c r="Q667" t="inlineStr"/>
+      <c r="R667" t="inlineStr"/>
+      <c r="S667" t="inlineStr"/>
+      <c r="T667" t="inlineStr"/>
+      <c r="U667" t="inlineStr"/>
+      <c r="V667" t="inlineStr"/>
+      <c r="W667" t="inlineStr"/>
+      <c r="X667" t="inlineStr"/>
+      <c r="Y667" t="inlineStr"/>
+      <c r="Z667" t="inlineStr"/>
+      <c r="AA667" t="inlineStr"/>
+      <c r="AB667" t="inlineStr"/>
+      <c r="AC667" t="inlineStr"/>
+      <c r="AD667" t="inlineStr"/>
+      <c r="AE667" t="inlineStr"/>
+      <c r="AF667" t="inlineStr"/>
+      <c r="AG667" t="inlineStr"/>
+      <c r="AH667" t="inlineStr"/>
+      <c r="AI667" t="inlineStr"/>
+      <c r="AJ667" t="inlineStr"/>
+      <c r="AK667" t="inlineStr"/>
+      <c r="AL667" t="inlineStr"/>
+      <c r="AM667" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN667" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO667" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP667" t="inlineStr"/>
+      <c r="AQ667" t="inlineStr"/>
+      <c r="AR667" t="inlineStr"/>
+      <c r="AS667" t="inlineStr"/>
+      <c r="AT667" t="inlineStr"/>
+      <c r="AU667" t="inlineStr"/>
+      <c r="AV667" t="inlineStr"/>
+      <c r="AW667" t="inlineStr"/>
+      <c r="AX667" t="inlineStr"/>
+      <c r="AY667" t="inlineStr"/>
+      <c r="AZ667" t="inlineStr"/>
+      <c r="BA667" t="inlineStr"/>
+      <c r="BB667" t="inlineStr"/>
+      <c r="BC667" t="inlineStr"/>
+      <c r="BD667" t="inlineStr"/>
+      <c r="BE667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>cl:10741</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>community structure</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RASrZgnUQ1yBoxmeAyOaHYFuE9SCVSYOkemLp9rIpgEaU#ScopeOfMonitoring,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr"/>
+      <c r="F668" t="inlineStr"/>
+      <c r="G668" t="inlineStr"/>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>cl:10575</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>et:21472</t>
+        </is>
+      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="inlineStr"/>
+      <c r="M668" t="inlineStr"/>
+      <c r="N668" t="inlineStr"/>
+      <c r="O668" t="inlineStr"/>
+      <c r="P668" t="inlineStr"/>
+      <c r="Q668" t="inlineStr"/>
+      <c r="R668" t="inlineStr"/>
+      <c r="S668" t="inlineStr"/>
+      <c r="T668" t="inlineStr"/>
+      <c r="U668" t="inlineStr"/>
+      <c r="V668" t="inlineStr"/>
+      <c r="W668" t="inlineStr"/>
+      <c r="X668" t="inlineStr"/>
+      <c r="Y668" t="inlineStr"/>
+      <c r="Z668" t="inlineStr"/>
+      <c r="AA668" t="inlineStr"/>
+      <c r="AB668" t="inlineStr"/>
+      <c r="AC668" t="inlineStr"/>
+      <c r="AD668" t="inlineStr"/>
+      <c r="AE668" t="inlineStr"/>
+      <c r="AF668" t="inlineStr"/>
+      <c r="AG668" t="inlineStr"/>
+      <c r="AH668" t="inlineStr"/>
+      <c r="AI668" t="inlineStr"/>
+      <c r="AJ668" t="inlineStr"/>
+      <c r="AK668" t="inlineStr"/>
+      <c r="AL668" t="inlineStr"/>
+      <c r="AM668" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN668" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO668" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP668" t="inlineStr"/>
+      <c r="AQ668" t="inlineStr"/>
+      <c r="AR668" t="inlineStr"/>
+      <c r="AS668" t="inlineStr"/>
+      <c r="AT668" t="inlineStr"/>
+      <c r="AU668" t="inlineStr"/>
+      <c r="AV668" t="inlineStr"/>
+      <c r="AW668" t="inlineStr"/>
+      <c r="AX668" t="inlineStr"/>
+      <c r="AY668" t="inlineStr"/>
+      <c r="AZ668" t="inlineStr"/>
+      <c r="BA668" t="inlineStr"/>
+      <c r="BB668" t="inlineStr"/>
+      <c r="BC668" t="inlineStr"/>
+      <c r="BD668" t="inlineStr"/>
+      <c r="BE668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>cl:10742</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>habitat structure</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RASrZgnUQ1yBoxmeAyOaHYFuE9SCVSYOkemLp9rIpgEaU#ScopeOfMonitoring,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr"/>
+      <c r="F669" t="inlineStr"/>
+      <c r="G669" t="inlineStr"/>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>cl:10575</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>et:21478</t>
+        </is>
+      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="inlineStr"/>
+      <c r="M669" t="inlineStr"/>
+      <c r="N669" t="inlineStr"/>
+      <c r="O669" t="inlineStr"/>
+      <c r="P669" t="inlineStr"/>
+      <c r="Q669" t="inlineStr"/>
+      <c r="R669" t="inlineStr"/>
+      <c r="S669" t="inlineStr"/>
+      <c r="T669" t="inlineStr"/>
+      <c r="U669" t="inlineStr"/>
+      <c r="V669" t="inlineStr"/>
+      <c r="W669" t="inlineStr"/>
+      <c r="X669" t="inlineStr"/>
+      <c r="Y669" t="inlineStr"/>
+      <c r="Z669" t="inlineStr"/>
+      <c r="AA669" t="inlineStr"/>
+      <c r="AB669" t="inlineStr"/>
+      <c r="AC669" t="inlineStr"/>
+      <c r="AD669" t="inlineStr"/>
+      <c r="AE669" t="inlineStr"/>
+      <c r="AF669" t="inlineStr"/>
+      <c r="AG669" t="inlineStr"/>
+      <c r="AH669" t="inlineStr"/>
+      <c r="AI669" t="inlineStr"/>
+      <c r="AJ669" t="inlineStr"/>
+      <c r="AK669" t="inlineStr"/>
+      <c r="AL669" t="inlineStr"/>
+      <c r="AM669" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN669" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO669" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP669" t="inlineStr"/>
+      <c r="AQ669" t="inlineStr"/>
+      <c r="AR669" t="inlineStr"/>
+      <c r="AS669" t="inlineStr"/>
+      <c r="AT669" t="inlineStr"/>
+      <c r="AU669" t="inlineStr"/>
+      <c r="AV669" t="inlineStr"/>
+      <c r="AW669" t="inlineStr"/>
+      <c r="AX669" t="inlineStr"/>
+      <c r="AY669" t="inlineStr"/>
+      <c r="AZ669" t="inlineStr"/>
+      <c r="BA669" t="inlineStr"/>
+      <c r="BB669" t="inlineStr"/>
+      <c r="BC669" t="inlineStr"/>
+      <c r="BD669" t="inlineStr"/>
+      <c r="BE669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>cl:10743</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>habitat function</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RASrZgnUQ1yBoxmeAyOaHYFuE9SCVSYOkemLp9rIpgEaU#ScopeOfMonitoring,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="inlineStr"/>
+      <c r="G670" t="inlineStr"/>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>cl:10575</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>et:30298</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="inlineStr"/>
+      <c r="M670" t="inlineStr"/>
+      <c r="N670" t="inlineStr"/>
+      <c r="O670" t="inlineStr"/>
+      <c r="P670" t="inlineStr"/>
+      <c r="Q670" t="inlineStr"/>
+      <c r="R670" t="inlineStr"/>
+      <c r="S670" t="inlineStr"/>
+      <c r="T670" t="inlineStr"/>
+      <c r="U670" t="inlineStr"/>
+      <c r="V670" t="inlineStr"/>
+      <c r="W670" t="inlineStr"/>
+      <c r="X670" t="inlineStr"/>
+      <c r="Y670" t="inlineStr"/>
+      <c r="Z670" t="inlineStr"/>
+      <c r="AA670" t="inlineStr"/>
+      <c r="AB670" t="inlineStr"/>
+      <c r="AC670" t="inlineStr"/>
+      <c r="AD670" t="inlineStr"/>
+      <c r="AE670" t="inlineStr"/>
+      <c r="AF670" t="inlineStr"/>
+      <c r="AG670" t="inlineStr"/>
+      <c r="AH670" t="inlineStr"/>
+      <c r="AI670" t="inlineStr"/>
+      <c r="AJ670" t="inlineStr"/>
+      <c r="AK670" t="inlineStr"/>
+      <c r="AL670" t="inlineStr"/>
+      <c r="AM670" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN670" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO670" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP670" t="inlineStr"/>
+      <c r="AQ670" t="inlineStr"/>
+      <c r="AR670" t="inlineStr"/>
+      <c r="AS670" t="inlineStr"/>
+      <c r="AT670" t="inlineStr"/>
+      <c r="AU670" t="inlineStr"/>
+      <c r="AV670" t="inlineStr"/>
+      <c r="AW670" t="inlineStr"/>
+      <c r="AX670" t="inlineStr"/>
+      <c r="AY670" t="inlineStr"/>
+      <c r="AZ670" t="inlineStr"/>
+      <c r="BA670" t="inlineStr"/>
+      <c r="BB670" t="inlineStr"/>
+      <c r="BC670" t="inlineStr"/>
+      <c r="BD670" t="inlineStr"/>
+      <c r="BE670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>cl:10744</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>climatic change</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NBO_0020108,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr"/>
+      <c r="F671" t="inlineStr"/>
+      <c r="G671" t="inlineStr"/>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>cl:10580</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>et:30300</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="inlineStr"/>
+      <c r="M671" t="inlineStr"/>
+      <c r="N671" t="inlineStr"/>
+      <c r="O671" t="inlineStr"/>
+      <c r="P671" t="inlineStr"/>
+      <c r="Q671" t="inlineStr"/>
+      <c r="R671" t="inlineStr"/>
+      <c r="S671" t="inlineStr"/>
+      <c r="T671" t="inlineStr"/>
+      <c r="U671" t="inlineStr"/>
+      <c r="V671" t="inlineStr"/>
+      <c r="W671" t="inlineStr"/>
+      <c r="X671" t="inlineStr"/>
+      <c r="Y671" t="inlineStr"/>
+      <c r="Z671" t="inlineStr"/>
+      <c r="AA671" t="inlineStr"/>
+      <c r="AB671" t="inlineStr"/>
+      <c r="AC671" t="inlineStr"/>
+      <c r="AD671" t="inlineStr"/>
+      <c r="AE671" t="inlineStr"/>
+      <c r="AF671" t="inlineStr"/>
+      <c r="AG671" t="inlineStr"/>
+      <c r="AH671" t="inlineStr"/>
+      <c r="AI671" t="inlineStr"/>
+      <c r="AJ671" t="inlineStr"/>
+      <c r="AK671" t="inlineStr"/>
+      <c r="AL671" t="inlineStr"/>
+      <c r="AM671" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN671" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO671" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP671" t="inlineStr"/>
+      <c r="AQ671" t="inlineStr"/>
+      <c r="AR671" t="inlineStr"/>
+      <c r="AS671" t="inlineStr"/>
+      <c r="AT671" t="inlineStr"/>
+      <c r="AU671" t="inlineStr"/>
+      <c r="AV671" t="inlineStr"/>
+      <c r="AW671" t="inlineStr"/>
+      <c r="AX671" t="inlineStr"/>
+      <c r="AY671" t="inlineStr"/>
+      <c r="AZ671" t="inlineStr"/>
+      <c r="BA671" t="inlineStr"/>
+      <c r="BB671" t="inlineStr"/>
+      <c r="BC671" t="inlineStr"/>
+      <c r="BD671" t="inlineStr"/>
+      <c r="BE671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>cl:10745</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>pollution</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NBO_0020108,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr"/>
+      <c r="F672" t="inlineStr"/>
+      <c r="G672" t="inlineStr"/>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>cl:10580</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>et:20387</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="inlineStr"/>
+      <c r="M672" t="inlineStr"/>
+      <c r="N672" t="inlineStr"/>
+      <c r="O672" t="inlineStr"/>
+      <c r="P672" t="inlineStr"/>
+      <c r="Q672" t="inlineStr"/>
+      <c r="R672" t="inlineStr"/>
+      <c r="S672" t="inlineStr"/>
+      <c r="T672" t="inlineStr"/>
+      <c r="U672" t="inlineStr"/>
+      <c r="V672" t="inlineStr"/>
+      <c r="W672" t="inlineStr"/>
+      <c r="X672" t="inlineStr"/>
+      <c r="Y672" t="inlineStr"/>
+      <c r="Z672" t="inlineStr"/>
+      <c r="AA672" t="inlineStr"/>
+      <c r="AB672" t="inlineStr"/>
+      <c r="AC672" t="inlineStr"/>
+      <c r="AD672" t="inlineStr"/>
+      <c r="AE672" t="inlineStr"/>
+      <c r="AF672" t="inlineStr"/>
+      <c r="AG672" t="inlineStr"/>
+      <c r="AH672" t="inlineStr"/>
+      <c r="AI672" t="inlineStr"/>
+      <c r="AJ672" t="inlineStr"/>
+      <c r="AK672" t="inlineStr"/>
+      <c r="AL672" t="inlineStr"/>
+      <c r="AM672" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN672" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO672" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP672" t="inlineStr"/>
+      <c r="AQ672" t="inlineStr"/>
+      <c r="AR672" t="inlineStr"/>
+      <c r="AS672" t="inlineStr"/>
+      <c r="AT672" t="inlineStr"/>
+      <c r="AU672" t="inlineStr"/>
+      <c r="AV672" t="inlineStr"/>
+      <c r="AW672" t="inlineStr"/>
+      <c r="AX672" t="inlineStr"/>
+      <c r="AY672" t="inlineStr"/>
+      <c r="AZ672" t="inlineStr"/>
+      <c r="BA672" t="inlineStr"/>
+      <c r="BB672" t="inlineStr"/>
+      <c r="BC672" t="inlineStr"/>
+      <c r="BD672" t="inlineStr"/>
+      <c r="BE672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>cl:10746</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">invasive species
+</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NBO_0020108,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr"/>
+      <c r="F673" t="inlineStr"/>
+      <c r="G673" t="inlineStr"/>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>cl:10580</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>et:20728</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="inlineStr"/>
+      <c r="M673" t="inlineStr"/>
+      <c r="N673" t="inlineStr"/>
+      <c r="O673" t="inlineStr"/>
+      <c r="P673" t="inlineStr"/>
+      <c r="Q673" t="inlineStr"/>
+      <c r="R673" t="inlineStr"/>
+      <c r="S673" t="inlineStr"/>
+      <c r="T673" t="inlineStr"/>
+      <c r="U673" t="inlineStr"/>
+      <c r="V673" t="inlineStr"/>
+      <c r="W673" t="inlineStr"/>
+      <c r="X673" t="inlineStr"/>
+      <c r="Y673" t="inlineStr"/>
+      <c r="Z673" t="inlineStr"/>
+      <c r="AA673" t="inlineStr"/>
+      <c r="AB673" t="inlineStr"/>
+      <c r="AC673" t="inlineStr"/>
+      <c r="AD673" t="inlineStr"/>
+      <c r="AE673" t="inlineStr"/>
+      <c r="AF673" t="inlineStr"/>
+      <c r="AG673" t="inlineStr"/>
+      <c r="AH673" t="inlineStr"/>
+      <c r="AI673" t="inlineStr"/>
+      <c r="AJ673" t="inlineStr"/>
+      <c r="AK673" t="inlineStr"/>
+      <c r="AL673" t="inlineStr"/>
+      <c r="AM673" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN673" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO673" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP673" t="inlineStr"/>
+      <c r="AQ673" t="inlineStr"/>
+      <c r="AR673" t="inlineStr"/>
+      <c r="AS673" t="inlineStr"/>
+      <c r="AT673" t="inlineStr"/>
+      <c r="AU673" t="inlineStr"/>
+      <c r="AV673" t="inlineStr"/>
+      <c r="AW673" t="inlineStr"/>
+      <c r="AX673" t="inlineStr"/>
+      <c r="AY673" t="inlineStr"/>
+      <c r="AZ673" t="inlineStr"/>
+      <c r="BA673" t="inlineStr"/>
+      <c r="BB673" t="inlineStr"/>
+      <c r="BC673" t="inlineStr"/>
+      <c r="BD673" t="inlineStr"/>
+      <c r="BE673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>cl:10747</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>succession</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NBO_0020108,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr"/>
+      <c r="F674" t="inlineStr"/>
+      <c r="G674" t="inlineStr"/>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>cl:10580</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>et:21126</t>
+        </is>
+      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="inlineStr"/>
+      <c r="M674" t="inlineStr"/>
+      <c r="N674" t="inlineStr"/>
+      <c r="O674" t="inlineStr"/>
+      <c r="P674" t="inlineStr"/>
+      <c r="Q674" t="inlineStr"/>
+      <c r="R674" t="inlineStr"/>
+      <c r="S674" t="inlineStr"/>
+      <c r="T674" t="inlineStr"/>
+      <c r="U674" t="inlineStr"/>
+      <c r="V674" t="inlineStr"/>
+      <c r="W674" t="inlineStr"/>
+      <c r="X674" t="inlineStr"/>
+      <c r="Y674" t="inlineStr"/>
+      <c r="Z674" t="inlineStr"/>
+      <c r="AA674" t="inlineStr"/>
+      <c r="AB674" t="inlineStr"/>
+      <c r="AC674" t="inlineStr"/>
+      <c r="AD674" t="inlineStr"/>
+      <c r="AE674" t="inlineStr"/>
+      <c r="AF674" t="inlineStr"/>
+      <c r="AG674" t="inlineStr"/>
+      <c r="AH674" t="inlineStr"/>
+      <c r="AI674" t="inlineStr"/>
+      <c r="AJ674" t="inlineStr"/>
+      <c r="AK674" t="inlineStr"/>
+      <c r="AL674" t="inlineStr"/>
+      <c r="AM674" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN674" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO674" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP674" t="inlineStr"/>
+      <c r="AQ674" t="inlineStr"/>
+      <c r="AR674" t="inlineStr"/>
+      <c r="AS674" t="inlineStr"/>
+      <c r="AT674" t="inlineStr"/>
+      <c r="AU674" t="inlineStr"/>
+      <c r="AV674" t="inlineStr"/>
+      <c r="AW674" t="inlineStr"/>
+      <c r="AX674" t="inlineStr"/>
+      <c r="AY674" t="inlineStr"/>
+      <c r="AZ674" t="inlineStr"/>
+      <c r="BA674" t="inlineStr"/>
+      <c r="BB674" t="inlineStr"/>
+      <c r="BC674" t="inlineStr"/>
+      <c r="BD674" t="inlineStr"/>
+      <c r="BE674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>cl:10748</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>extreme event</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NBO_0020108,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr"/>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr"/>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>cl:10580</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>et:20399</t>
+        </is>
+      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="inlineStr"/>
+      <c r="M675" t="inlineStr"/>
+      <c r="N675" t="inlineStr"/>
+      <c r="O675" t="inlineStr"/>
+      <c r="P675" t="inlineStr"/>
+      <c r="Q675" t="inlineStr"/>
+      <c r="R675" t="inlineStr"/>
+      <c r="S675" t="inlineStr"/>
+      <c r="T675" t="inlineStr"/>
+      <c r="U675" t="inlineStr"/>
+      <c r="V675" t="inlineStr"/>
+      <c r="W675" t="inlineStr"/>
+      <c r="X675" t="inlineStr"/>
+      <c r="Y675" t="inlineStr"/>
+      <c r="Z675" t="inlineStr"/>
+      <c r="AA675" t="inlineStr"/>
+      <c r="AB675" t="inlineStr"/>
+      <c r="AC675" t="inlineStr"/>
+      <c r="AD675" t="inlineStr"/>
+      <c r="AE675" t="inlineStr"/>
+      <c r="AF675" t="inlineStr"/>
+      <c r="AG675" t="inlineStr"/>
+      <c r="AH675" t="inlineStr"/>
+      <c r="AI675" t="inlineStr"/>
+      <c r="AJ675" t="inlineStr"/>
+      <c r="AK675" t="inlineStr"/>
+      <c r="AL675" t="inlineStr"/>
+      <c r="AM675" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN675" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO675" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP675" t="inlineStr"/>
+      <c r="AQ675" t="inlineStr"/>
+      <c r="AR675" t="inlineStr"/>
+      <c r="AS675" t="inlineStr"/>
+      <c r="AT675" t="inlineStr"/>
+      <c r="AU675" t="inlineStr"/>
+      <c r="AV675" t="inlineStr"/>
+      <c r="AW675" t="inlineStr"/>
+      <c r="AX675" t="inlineStr"/>
+      <c r="AY675" t="inlineStr"/>
+      <c r="AZ675" t="inlineStr"/>
+      <c r="BA675" t="inlineStr"/>
+      <c r="BB675" t="inlineStr"/>
+      <c r="BC675" t="inlineStr"/>
+      <c r="BD675" t="inlineStr"/>
+      <c r="BE675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>cl:10749</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr"/>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr"/>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr"/>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>cl:10584</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>et:21548</t>
+        </is>
+      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="inlineStr"/>
+      <c r="M676" t="inlineStr"/>
+      <c r="N676" t="inlineStr"/>
+      <c r="O676" t="inlineStr"/>
+      <c r="P676" t="inlineStr"/>
+      <c r="Q676" t="inlineStr"/>
+      <c r="R676" t="inlineStr"/>
+      <c r="S676" t="inlineStr"/>
+      <c r="T676" t="inlineStr"/>
+      <c r="U676" t="inlineStr"/>
+      <c r="V676" t="inlineStr"/>
+      <c r="W676" t="inlineStr"/>
+      <c r="X676" t="inlineStr"/>
+      <c r="Y676" t="inlineStr"/>
+      <c r="Z676" t="inlineStr"/>
+      <c r="AA676" t="inlineStr"/>
+      <c r="AB676" t="inlineStr"/>
+      <c r="AC676" t="inlineStr"/>
+      <c r="AD676" t="inlineStr"/>
+      <c r="AE676" t="inlineStr"/>
+      <c r="AF676" t="inlineStr"/>
+      <c r="AG676" t="inlineStr"/>
+      <c r="AH676" t="inlineStr"/>
+      <c r="AI676" t="inlineStr"/>
+      <c r="AJ676" t="inlineStr"/>
+      <c r="AK676" t="inlineStr"/>
+      <c r="AL676" t="inlineStr"/>
+      <c r="AM676" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN676" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO676" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP676" t="inlineStr"/>
+      <c r="AQ676" t="inlineStr"/>
+      <c r="AR676" t="inlineStr"/>
+      <c r="AS676" t="inlineStr"/>
+      <c r="AT676" t="inlineStr"/>
+      <c r="AU676" t="inlineStr"/>
+      <c r="AV676" t="inlineStr"/>
+      <c r="AW676" t="inlineStr"/>
+      <c r="AX676" t="inlineStr"/>
+      <c r="AY676" t="inlineStr"/>
+      <c r="AZ676" t="inlineStr"/>
+      <c r="BA676" t="inlineStr"/>
+      <c r="BB676" t="inlineStr"/>
+      <c r="BC676" t="inlineStr"/>
+      <c r="BD676" t="inlineStr"/>
+      <c r="BE676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>cl:10750</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>abundance</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr"/>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr"/>
+      <c r="F677" t="inlineStr"/>
+      <c r="G677" t="inlineStr"/>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>cl:10584</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>et:21541</t>
+        </is>
+      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="inlineStr"/>
+      <c r="M677" t="inlineStr"/>
+      <c r="N677" t="inlineStr"/>
+      <c r="O677" t="inlineStr"/>
+      <c r="P677" t="inlineStr"/>
+      <c r="Q677" t="inlineStr"/>
+      <c r="R677" t="inlineStr"/>
+      <c r="S677" t="inlineStr"/>
+      <c r="T677" t="inlineStr"/>
+      <c r="U677" t="inlineStr"/>
+      <c r="V677" t="inlineStr"/>
+      <c r="W677" t="inlineStr"/>
+      <c r="X677" t="inlineStr"/>
+      <c r="Y677" t="inlineStr"/>
+      <c r="Z677" t="inlineStr"/>
+      <c r="AA677" t="inlineStr"/>
+      <c r="AB677" t="inlineStr"/>
+      <c r="AC677" t="inlineStr"/>
+      <c r="AD677" t="inlineStr"/>
+      <c r="AE677" t="inlineStr"/>
+      <c r="AF677" t="inlineStr"/>
+      <c r="AG677" t="inlineStr"/>
+      <c r="AH677" t="inlineStr"/>
+      <c r="AI677" t="inlineStr"/>
+      <c r="AJ677" t="inlineStr"/>
+      <c r="AK677" t="inlineStr"/>
+      <c r="AL677" t="inlineStr"/>
+      <c r="AM677" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN677" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO677" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP677" t="inlineStr"/>
+      <c r="AQ677" t="inlineStr"/>
+      <c r="AR677" t="inlineStr"/>
+      <c r="AS677" t="inlineStr"/>
+      <c r="AT677" t="inlineStr"/>
+      <c r="AU677" t="inlineStr"/>
+      <c r="AV677" t="inlineStr"/>
+      <c r="AW677" t="inlineStr"/>
+      <c r="AX677" t="inlineStr"/>
+      <c r="AY677" t="inlineStr"/>
+      <c r="AZ677" t="inlineStr"/>
+      <c r="BA677" t="inlineStr"/>
+      <c r="BB677" t="inlineStr"/>
+      <c r="BC677" t="inlineStr"/>
+      <c r="BD677" t="inlineStr"/>
+      <c r="BE677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>cl:10751</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>density</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr"/>
+      <c r="F678" t="inlineStr"/>
+      <c r="G678" t="inlineStr"/>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>cl:10584</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>et:21539</t>
+        </is>
+      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
+      <c r="L678" t="inlineStr"/>
+      <c r="M678" t="inlineStr"/>
+      <c r="N678" t="inlineStr"/>
+      <c r="O678" t="inlineStr"/>
+      <c r="P678" t="inlineStr"/>
+      <c r="Q678" t="inlineStr"/>
+      <c r="R678" t="inlineStr"/>
+      <c r="S678" t="inlineStr"/>
+      <c r="T678" t="inlineStr"/>
+      <c r="U678" t="inlineStr"/>
+      <c r="V678" t="inlineStr"/>
+      <c r="W678" t="inlineStr"/>
+      <c r="X678" t="inlineStr"/>
+      <c r="Y678" t="inlineStr"/>
+      <c r="Z678" t="inlineStr"/>
+      <c r="AA678" t="inlineStr"/>
+      <c r="AB678" t="inlineStr"/>
+      <c r="AC678" t="inlineStr"/>
+      <c r="AD678" t="inlineStr"/>
+      <c r="AE678" t="inlineStr"/>
+      <c r="AF678" t="inlineStr"/>
+      <c r="AG678" t="inlineStr"/>
+      <c r="AH678" t="inlineStr"/>
+      <c r="AI678" t="inlineStr"/>
+      <c r="AJ678" t="inlineStr"/>
+      <c r="AK678" t="inlineStr"/>
+      <c r="AL678" t="inlineStr"/>
+      <c r="AM678" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN678" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO678" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP678" t="inlineStr"/>
+      <c r="AQ678" t="inlineStr"/>
+      <c r="AR678" t="inlineStr"/>
+      <c r="AS678" t="inlineStr"/>
+      <c r="AT678" t="inlineStr"/>
+      <c r="AU678" t="inlineStr"/>
+      <c r="AV678" t="inlineStr"/>
+      <c r="AW678" t="inlineStr"/>
+      <c r="AX678" t="inlineStr"/>
+      <c r="AY678" t="inlineStr"/>
+      <c r="AZ678" t="inlineStr"/>
+      <c r="BA678" t="inlineStr"/>
+      <c r="BB678" t="inlineStr"/>
+      <c r="BC678" t="inlineStr"/>
+      <c r="BD678" t="inlineStr"/>
+      <c r="BE678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>cl:10752</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>animal movement</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr"/>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr"/>
+      <c r="F679" t="inlineStr"/>
+      <c r="G679" t="inlineStr"/>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>cl:10584</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>et:20986</t>
+        </is>
+      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
+      <c r="L679" t="inlineStr"/>
+      <c r="M679" t="inlineStr"/>
+      <c r="N679" t="inlineStr"/>
+      <c r="O679" t="inlineStr"/>
+      <c r="P679" t="inlineStr"/>
+      <c r="Q679" t="inlineStr"/>
+      <c r="R679" t="inlineStr"/>
+      <c r="S679" t="inlineStr"/>
+      <c r="T679" t="inlineStr"/>
+      <c r="U679" t="inlineStr"/>
+      <c r="V679" t="inlineStr"/>
+      <c r="W679" t="inlineStr"/>
+      <c r="X679" t="inlineStr"/>
+      <c r="Y679" t="inlineStr"/>
+      <c r="Z679" t="inlineStr"/>
+      <c r="AA679" t="inlineStr"/>
+      <c r="AB679" t="inlineStr"/>
+      <c r="AC679" t="inlineStr"/>
+      <c r="AD679" t="inlineStr"/>
+      <c r="AE679" t="inlineStr"/>
+      <c r="AF679" t="inlineStr"/>
+      <c r="AG679" t="inlineStr"/>
+      <c r="AH679" t="inlineStr"/>
+      <c r="AI679" t="inlineStr"/>
+      <c r="AJ679" t="inlineStr"/>
+      <c r="AK679" t="inlineStr"/>
+      <c r="AL679" t="inlineStr"/>
+      <c r="AM679" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN679" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="AO679" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP679" t="inlineStr"/>
+      <c r="AQ679" t="inlineStr"/>
+      <c r="AR679" t="inlineStr"/>
+      <c r="AS679" t="inlineStr"/>
+      <c r="AT679" t="inlineStr"/>
+      <c r="AU679" t="inlineStr"/>
+      <c r="AV679" t="inlineStr"/>
+      <c r="AW679" t="inlineStr"/>
+      <c r="AX679" t="inlineStr"/>
+      <c r="AY679" t="inlineStr"/>
+      <c r="AZ679" t="inlineStr"/>
+      <c r="BA679" t="inlineStr"/>
+      <c r="BB679" t="inlineStr"/>
+      <c r="BC679" t="inlineStr"/>
+      <c r="BD679" t="inlineStr"/>
+      <c r="BE679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>cl:10753</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>phenology</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr"/>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr"/>
+      <c r="F680" t="inlineStr"/>
+      <c r="G680" t="inlineStr"/>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>cl:10584</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>et:21647</t>
+        </is>
+      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
+      <c r="L680" t="inlineStr"/>
+      <c r="M680" t="inlineStr"/>
+      <c r="N680" t="inlineStr"/>
+      <c r="O680" t="inlineStr"/>
+      <c r="P680" t="inlineStr"/>
+      <c r="Q680" t="inlineStr"/>
+      <c r="R680" t="inlineStr"/>
+      <c r="S680" t="inlineStr"/>
+      <c r="T680" t="inlineStr"/>
+      <c r="U680" t="inlineStr"/>
+      <c r="V680" t="inlineStr"/>
+      <c r="W680" t="inlineStr"/>
+      <c r="X680" t="inlineStr"/>
+      <c r="Y680" t="inlineStr"/>
+      <c r="Z680" t="inlineStr"/>
+      <c r="AA680" t="inlineStr"/>
+      <c r="AB680" t="inlineStr"/>
+      <c r="AC680" t="inlineStr"/>
+      <c r="AD680" t="inlineStr"/>
+      <c r="AE680" t="inlineStr"/>
+      <c r="AF680" t="inlineStr"/>
+      <c r="AG680" t="inlineStr"/>
+      <c r="AH680" t="inlineStr"/>
+      <c r="AI680" t="inlineStr"/>
+      <c r="AJ680" t="inlineStr"/>
+      <c r="AK680" t="inlineStr"/>
+      <c r="AL680" t="inlineStr"/>
+      <c r="AM680" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AN680" t="inlineStr"/>
+      <c r="AO680" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="AP680" t="inlineStr"/>
+      <c r="AQ680" t="inlineStr"/>
+      <c r="AR680" t="inlineStr"/>
+      <c r="AS680" t="inlineStr"/>
+      <c r="AT680" t="inlineStr"/>
+      <c r="AU680" t="inlineStr"/>
+      <c r="AV680" t="inlineStr"/>
+      <c r="AW680" t="inlineStr"/>
+      <c r="AX680" t="inlineStr"/>
+      <c r="AY680" t="inlineStr"/>
+      <c r="AZ680" t="inlineStr"/>
+      <c r="BA680" t="inlineStr"/>
+      <c r="BB680" t="inlineStr"/>
+      <c r="BC680" t="inlineStr"/>
+      <c r="BD680" t="inlineStr"/>
+      <c r="BE680" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE680"/>
+  <dimension ref="A1:BE679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45029,28 +45029,20 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>cl:10583</t>
+          <t>cl:10584</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>catastrophic event</t>
+          <t>data type collected</t>
         </is>
       </c>
       <c r="C512" t="inlineStr"/>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/NBO_0020108,skos:Concept</t>
-        </is>
-      </c>
+      <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr"/>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>cl:10580</t>
-        </is>
-      </c>
+      <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
@@ -45120,20 +45112,32 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
+          <t>cl:10585</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>presence-absence</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr"/>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RALfc5dUfQ0nRBtLy1EL-eVPs8Lz8TuYt7jrkjLxw5McI#collectedDataType,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr"/>
+      <c r="H513" t="inlineStr">
+        <is>
           <t>cl:10584</t>
         </is>
       </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>data type collected</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr"/>
-      <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr"/>
-      <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr"/>
-      <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
@@ -45180,7 +45184,7 @@
       </c>
       <c r="AO513" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="AP513" t="inlineStr"/>
@@ -45203,12 +45207,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>cl:10585</t>
+          <t>cl:10586</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>presence-absence</t>
+          <t>mark-recapture</t>
         </is>
       </c>
       <c r="C514" t="inlineStr"/>
@@ -45298,12 +45302,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>cl:10586</t>
+          <t>cl:10587</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>mark-recapture</t>
+          <t>individual traits</t>
         </is>
       </c>
       <c r="C515" t="inlineStr"/>
@@ -45393,12 +45397,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>cl:10587</t>
+          <t>cl:10588</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>individual traits</t>
+          <t>age or size structure</t>
         </is>
       </c>
       <c r="C516" t="inlineStr"/>
@@ -45488,12 +45492,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>cl:10588</t>
+          <t>cl:10589</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>age or size structure</t>
+          <t>genetic or genomic</t>
         </is>
       </c>
       <c r="C517" t="inlineStr"/>
@@ -45583,12 +45587,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>cl:10589</t>
+          <t>cl:10590</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>genetic or genomic</t>
+          <t>abiotic parameters</t>
         </is>
       </c>
       <c r="C518" t="inlineStr"/>
@@ -45678,32 +45682,20 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>cl:10590</t>
+          <t>cl:10591</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>abiotic parameters</t>
+          <t>geographical scope</t>
         </is>
       </c>
       <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>https://w3id.org/np/RALfc5dUfQ0nRBtLy1EL-eVPs8Lz8TuYt7jrkjLxw5McI#collectedDataType,skos:Concept</t>
-        </is>
-      </c>
+      <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr"/>
-      <c r="F519" t="inlineStr">
-        <is>
-          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
-        </is>
-      </c>
+      <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>cl:10584</t>
-        </is>
-      </c>
+      <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
@@ -45750,7 +45742,7 @@
       </c>
       <c r="AO519" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="AP519" t="inlineStr"/>
@@ -45773,20 +45765,28 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>cl:10591</t>
+          <t>cl:10592</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>geographical scope</t>
+          <t>transnational</t>
         </is>
       </c>
       <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr"/>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAHPlK4vAHSzHpk9JxqppKxxvgS_U7zNi1k7-uWqkpaRo#GeoScop,https://w3id.org/np/RAP2yIXzEVXe6gQye6xUgfnj10rcFGRvp9OnplW7ZqMDs#fund_source_level,skos:Concept</t>
+        </is>
+      </c>
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr"/>
-      <c r="H520" t="inlineStr"/>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>cl:10591</t>
+        </is>
+      </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
@@ -45833,7 +45833,7 @@
       </c>
       <c r="AO520" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP520" t="inlineStr"/>
@@ -45856,12 +45856,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>cl:10592</t>
+          <t>cl:10593</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>transnational</t>
+          <t>local</t>
         </is>
       </c>
       <c r="C521" t="inlineStr"/>
@@ -45947,18 +45947,18 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>cl:10593</t>
+          <t>cl:10594</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
         <is>
-          <t>https://w3id.org/np/RAHPlK4vAHSzHpk9JxqppKxxvgS_U7zNi1k7-uWqkpaRo#GeoScop,https://w3id.org/np/RAP2yIXzEVXe6gQye6xUgfnj10rcFGRvp9OnplW7ZqMDs#fund_source_level,skos:Concept</t>
+          <t>https://w3id.org/np/RAbYySIp5AWvJX0ZYmxn3rm3uKj1BJkSxRlC4fsEVXnc4#GenericAnswerType,skos:Concept</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -45966,7 +45966,7 @@
       <c r="G522" t="inlineStr"/>
       <c r="H522" t="inlineStr">
         <is>
-          <t>cl:10591</t>
+          <t>cl:10192</t>
         </is>
       </c>
       <c r="I522" t="inlineStr"/>
@@ -46038,12 +46038,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>cl:10594</t>
+          <t>cl:10595</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>entirely</t>
         </is>
       </c>
       <c r="C523" t="inlineStr"/>
@@ -46129,28 +46129,20 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>cl:10595</t>
+          <t>cl:10596</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>entirely</t>
+          <t>habitat classification</t>
         </is>
       </c>
       <c r="C524" t="inlineStr"/>
-      <c r="D524" t="inlineStr">
-        <is>
-          <t>https://w3id.org/np/RAbYySIp5AWvJX0ZYmxn3rm3uKj1BJkSxRlC4fsEVXnc4#GenericAnswerType,skos:Concept</t>
-        </is>
-      </c>
+      <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>cl:10192</t>
-        </is>
-      </c>
+      <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
@@ -46197,7 +46189,7 @@
       </c>
       <c r="AO524" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AP524" t="inlineStr"/>
@@ -46220,12 +46212,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>cl:10596</t>
+          <t>cl:10597</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>habitat classification</t>
+          <t>EUNIS</t>
         </is>
       </c>
       <c r="C525" t="inlineStr"/>
@@ -46233,7 +46225,11 @@
       <c r="E525" t="inlineStr"/>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr"/>
-      <c r="H525" t="inlineStr"/>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>cl:10596</t>
+        </is>
+      </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
@@ -46303,12 +46299,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>cl:10597</t>
+          <t>cl:10598</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>EUNIS</t>
+          <t>CORINE</t>
         </is>
       </c>
       <c r="C526" t="inlineStr"/>
@@ -46390,12 +46386,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>cl:10598</t>
+          <t>cl:10599</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>CORINE</t>
+          <t>Habitats Directive</t>
         </is>
       </c>
       <c r="C527" t="inlineStr"/>
@@ -46477,12 +46473,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>cl:10599</t>
+          <t>cl:10600</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Habitats Directive</t>
+          <t>national classification</t>
         </is>
       </c>
       <c r="C528" t="inlineStr"/>
@@ -46564,12 +46560,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>cl:10600</t>
+          <t>cl:10601</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>national classification</t>
+          <t>experimental design</t>
         </is>
       </c>
       <c r="C529" t="inlineStr"/>
@@ -46577,11 +46573,7 @@
       <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr"/>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>cl:10596</t>
-        </is>
-      </c>
+      <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
@@ -46651,20 +46643,28 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>cl:10601</t>
+          <t>cl:10602</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>experimental design</t>
+          <t>design with before vs. after comparison</t>
         </is>
       </c>
       <c r="C530" t="inlineStr"/>
-      <c r="D530" t="inlineStr"/>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RA3XSiqkMin7oJPePmAno6LpcOoDgzNRWMdlVO3490Pqk#ExperimentalDesign,skos:Concept</t>
+        </is>
+      </c>
       <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr"/>
-      <c r="H530" t="inlineStr"/>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>cl:10601</t>
+        </is>
+      </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
@@ -46711,7 +46711,7 @@
       </c>
       <c r="AO530" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP530" t="inlineStr"/>
@@ -46734,12 +46734,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>cl:10602</t>
+          <t>cl:10603</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>design with before vs. after comparison</t>
+          <t>design with a control treatment</t>
         </is>
       </c>
       <c r="C531" t="inlineStr"/>
@@ -46825,12 +46825,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>cl:10603</t>
+          <t>cl:10604</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>design with a control treatment</t>
+          <t>design with before vs. after comparison and control treatment</t>
         </is>
       </c>
       <c r="C532" t="inlineStr"/>
@@ -46916,28 +46916,20 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>cl:10604</t>
+          <t>cl:10605</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>design with before vs. after comparison and control treatment</t>
+          <t>site selection</t>
         </is>
       </c>
       <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>https://w3id.org/np/RA3XSiqkMin7oJPePmAno6LpcOoDgzNRWMdlVO3490Pqk#ExperimentalDesign,skos:Concept</t>
-        </is>
-      </c>
+      <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr"/>
       <c r="G533" t="inlineStr"/>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>cl:10601</t>
-        </is>
-      </c>
+      <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
@@ -46984,7 +46976,7 @@
       </c>
       <c r="AO533" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AP533" t="inlineStr"/>
@@ -47007,20 +46999,28 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>cl:10605</t>
+          <t>cl:10606</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>site selection</t>
+          <t>exhaustive sampling (all possible sites)</t>
         </is>
       </c>
       <c r="C534" t="inlineStr"/>
-      <c r="D534" t="inlineStr"/>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAANpqX3OfeAqc74LkoNHEFNs1ib9JZKEfP3sj8Pd8e-k#SiteSelection,skos:Concept</t>
+        </is>
+      </c>
       <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr"/>
-      <c r="H534" t="inlineStr"/>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>cl:10605</t>
+        </is>
+      </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
@@ -47067,7 +47067,7 @@
       </c>
       <c r="AO534" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP534" t="inlineStr"/>
@@ -47090,12 +47090,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>cl:10606</t>
+          <t>cl:10607</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>exhaustive sampling (all possible sites)</t>
+          <t>random sampling</t>
         </is>
       </c>
       <c r="C535" t="inlineStr"/>
@@ -47181,12 +47181,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>cl:10607</t>
+          <t>cl:10608</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>random sampling</t>
+          <t>systematic sampling (e.g. each cell of a grid)</t>
         </is>
       </c>
       <c r="C536" t="inlineStr"/>
@@ -47272,12 +47272,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>cl:10608</t>
+          <t>cl:10609</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>systematic sampling (e.g. each cell of a grid)</t>
+          <t>convenience (sampling sites chosen according to personnal or expert knowledge)</t>
         </is>
       </c>
       <c r="C537" t="inlineStr"/>
@@ -47363,12 +47363,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>cl:10609</t>
+          <t>cl:10610</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>convenience (sampling sites chosen according to personnal or expert knowledge)</t>
+          <t>stratified sampling</t>
         </is>
       </c>
       <c r="C538" t="inlineStr"/>
@@ -47454,28 +47454,24 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>cl:10610</t>
+          <t>cl:10611</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>stratified sampling</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr">
-        <is>
-          <t>https://w3id.org/np/RAANpqX3OfeAqc74LkoNHEFNs1ib9JZKEfP3sj8Pd8e-k#SiteSelection,skos:Concept</t>
-        </is>
-      </c>
+          <t>Creative Commons license</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>CC license</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr"/>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>cl:10605</t>
-        </is>
-      </c>
+      <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
@@ -47522,7 +47518,7 @@
       </c>
       <c r="AO539" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AP539" t="inlineStr"/>
@@ -47545,24 +47541,32 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>cl:10611</t>
+          <t>cl:10612</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Creative Commons license</t>
+          <t>CC0-1.0</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>CC license</t>
-        </is>
-      </c>
-      <c r="D540" t="inlineStr"/>
+          <t>Creative Commons Zero v1.0 Universal</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+        </is>
+      </c>
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr"/>
-      <c r="H540" t="inlineStr"/>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>cl:10611</t>
+        </is>
+      </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
@@ -47609,7 +47613,7 @@
       </c>
       <c r="AO540" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AP540" t="inlineStr"/>
@@ -47632,17 +47636,17 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>cl:10612</t>
+          <t>cl:10613</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>CC0-1.0</t>
+          <t>CC-BY-1.0</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Creative Commons Zero v1.0 Universal</t>
+          <t>Creative Commons Attribution 1.0 Generic</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -47727,17 +47731,17 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>cl:10613</t>
+          <t>cl:10614</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>CC-BY-1.0</t>
+          <t>CC-BY-2.0</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution 1.0 Generic</t>
+          <t>Creative Commons Attribution 2.0 Generic</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -47797,11 +47801,7 @@
           <t>0000-0002-6968-8275</t>
         </is>
       </c>
-      <c r="AO542" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
+      <c r="AO542" t="inlineStr"/>
       <c r="AP542" t="inlineStr"/>
       <c r="AQ542" t="inlineStr"/>
       <c r="AR542" t="inlineStr"/>
@@ -47822,17 +47822,17 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>cl:10614</t>
+          <t>cl:10615</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>CC-BY-2.0</t>
+          <t>CC-BY-2.5</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution 2.0 Generic</t>
+          <t>Creative Commons Attribution 2.5 Generic</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -47913,17 +47913,17 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>cl:10615</t>
+          <t>cl:10616</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>CC-BY-2.5</t>
+          <t>CC-BY-3.0</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution 2.5 Generic</t>
+          <t>Creative Commons Attribution 3.0 Unported</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -48004,17 +48004,17 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>cl:10616</t>
+          <t>cl:10617</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>CC-BY-3.0</t>
+          <t>CC-BY-3.0-AT</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution 3.0 Unported</t>
+          <t>Creative Commons Attribution 3.0 Austria</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -48095,17 +48095,17 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>cl:10617</t>
+          <t>cl:10618</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>CC-BY-3.0-AT</t>
+          <t>CC-BY-3.0-US</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution 3.0 Austria</t>
+          <t>Creative Commons Attribution 3.0 United States</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -48165,7 +48165,11 @@
           <t>0000-0002-6968-8275</t>
         </is>
       </c>
-      <c r="AO546" t="inlineStr"/>
+      <c r="AO546" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
       <c r="AP546" t="inlineStr"/>
       <c r="AQ546" t="inlineStr"/>
       <c r="AR546" t="inlineStr"/>
@@ -48186,17 +48190,17 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>cl:10618</t>
+          <t>cl:10619</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>CC-BY-3.0-US</t>
+          <t>CC-BY-4.0</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution 3.0 United States</t>
+          <t>Creative Commons Attribution 4.0 International</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -48256,11 +48260,7 @@
           <t>0000-0002-6968-8275</t>
         </is>
       </c>
-      <c r="AO547" t="inlineStr">
-        <is>
-          <t>2023-09-30</t>
-        </is>
-      </c>
+      <c r="AO547" t="inlineStr"/>
       <c r="AP547" t="inlineStr"/>
       <c r="AQ547" t="inlineStr"/>
       <c r="AR547" t="inlineStr"/>
@@ -48281,17 +48281,17 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>cl:10619</t>
+          <t>cl:10620</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>CC-BY-4.0</t>
+          <t>CC-BY-NC-1.0</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution 4.0 International</t>
+          <t>Creative Commons Attribution Non Commercial 1.0 Generic</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -48372,17 +48372,17 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>cl:10620</t>
+          <t>cl:10621</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>CC-BY-NC-1.0</t>
+          <t>CC-BY-NC-2.0</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial 1.0 Generic</t>
+          <t>Creative Commons Attribution Non Commercial 2.0 Generic</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -48463,17 +48463,17 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>cl:10621</t>
+          <t>cl:10622</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>CC-BY-NC-2.0</t>
+          <t>CC-BY-NC-2.5</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial 2.0 Generic</t>
+          <t>Creative Commons Attribution Non Commercial 2.5 Generic</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -48554,17 +48554,17 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>cl:10622</t>
+          <t>cl:10623</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>CC-BY-NC-2.5</t>
+          <t>CC-BY-NC-3.0</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial 2.5 Generic</t>
+          <t>Creative Commons Attribution Non Commercial 3.0 Unported</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -48645,17 +48645,17 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>cl:10623</t>
+          <t>cl:10624</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>CC-BY-NC-3.0</t>
+          <t>CC-BY-NC-4.0</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial 3.0 Unported</t>
+          <t>Creative Commons Attribution Non Commercial 4.0 International</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -48736,17 +48736,17 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>cl:10624</t>
+          <t>cl:10625</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>CC-BY-NC-4.0</t>
+          <t>CC-BY-NC-ND-1.0</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial 4.0 International</t>
+          <t>Creative Commons Attribution Non Commercial No Derivatives 1.0 Generic</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -48827,17 +48827,17 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>cl:10625</t>
+          <t>cl:10626</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>CC-BY-NC-ND-1.0</t>
+          <t>CC-BY-NC-ND-2.0</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial No Derivatives 1.0 Generic</t>
+          <t>Creative Commons Attribution Non Commercial No Derivatives 2.0 Generic</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -48918,17 +48918,17 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>cl:10626</t>
+          <t>cl:10627</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>CC-BY-NC-ND-2.0</t>
+          <t>CC-BY-NC-ND-2.5</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial No Derivatives 2.0 Generic</t>
+          <t>Creative Commons Attribution Non Commercial No Derivatives 2.5 Generic</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -49009,17 +49009,17 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>cl:10627</t>
+          <t>cl:10628</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>CC-BY-NC-ND-2.5</t>
+          <t>CC-BY-NC-ND-3.0</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial No Derivatives 2.5 Generic</t>
+          <t>Creative Commons Attribution Non Commercial No Derivatives 3.0 Unported</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -49100,17 +49100,17 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>cl:10628</t>
+          <t>cl:10629</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>CC-BY-NC-ND-3.0</t>
+          <t>CC-BY-NC-ND-3.0-IGO</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial No Derivatives 3.0 Unported</t>
+          <t>Creative Commons Attribution Non Commercial No Derivatives 3.0 IGO</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -49191,17 +49191,17 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>cl:10629</t>
+          <t>cl:10630</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>CC-BY-NC-ND-3.0-IGO</t>
+          <t>CC-BY-NC-ND-4.0</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial No Derivatives 3.0 IGO</t>
+          <t>Creative Commons Attribution Non Commercial No Derivatives 4.0 International</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -49282,17 +49282,17 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>cl:10630</t>
+          <t>cl:10631</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>CC-BY-NC-ND-4.0</t>
+          <t>CC-BY-NC-SA-1.0</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial No Derivatives 4.0 International</t>
+          <t>Creative Commons Attribution Non Commercial Share Alike 1.0 Generic</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -49373,17 +49373,17 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>cl:10631</t>
+          <t>cl:10632</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>CC-BY-NC-SA-1.0</t>
+          <t>CC-BY-NC-SA-2.0</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial Share Alike 1.0 Generic</t>
+          <t>Creative Commons Attribution Non Commercial Share Alike 2.0 Generic</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -49464,17 +49464,17 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>cl:10632</t>
+          <t>cl:10633</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>CC-BY-NC-SA-2.0</t>
+          <t>CC-BY-NC-SA-2.5</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial Share Alike 2.0 Generic</t>
+          <t>Creative Commons Attribution Non Commercial Share Alike 2.5 Generic</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -49555,17 +49555,17 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>cl:10633</t>
+          <t>cl:10634</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>CC-BY-NC-SA-2.5</t>
+          <t>CC-BY-NC-SA-3.0</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial Share Alike 2.5 Generic</t>
+          <t>Creative Commons Attribution Non Commercial Share Alike 3.0 Unported</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -49646,17 +49646,17 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>cl:10634</t>
+          <t>cl:10635</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>CC-BY-NC-SA-3.0</t>
+          <t>CC-BY-NC-SA-4.0</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial Share Alike 3.0 Unported</t>
+          <t>Creative Commons Attribution Non Commercial Share Alike 4.0 International</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -49737,17 +49737,17 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>cl:10635</t>
+          <t>cl:10636</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>CC-BY-NC-SA-4.0</t>
+          <t>CC-BY-ND-1.0</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Non Commercial Share Alike 4.0 International</t>
+          <t>Creative Commons Attribution No Derivatives 1.0 Generic</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -49828,17 +49828,17 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>cl:10636</t>
+          <t>cl:10637</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>CC-BY-ND-1.0</t>
+          <t>CC-BY-ND-2.0</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution No Derivatives 1.0 Generic</t>
+          <t>Creative Commons Attribution No Derivatives 2.0 Generic</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -49919,17 +49919,17 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>cl:10637</t>
+          <t>cl:10638</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>CC-BY-ND-2.0</t>
+          <t>CC-BY-ND-2.5</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution No Derivatives 2.0 Generic</t>
+          <t>Creative Commons Attribution No Derivatives 2.5 Generic</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -50010,17 +50010,17 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>cl:10638</t>
+          <t>cl:10639</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>CC-BY-ND-2.5</t>
+          <t>CC-BY-ND-3.0</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution No Derivatives 2.5 Generic</t>
+          <t>Creative Commons Attribution No Derivatives 3.0 Unported</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -50101,17 +50101,17 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>cl:10639</t>
+          <t>cl:10640</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>CC-BY-ND-3.0</t>
+          <t>CC-BY-ND-4.0</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution No Derivatives 3.0 Unported</t>
+          <t>Creative Commons Attribution No Derivatives 4.0 International</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -50192,17 +50192,17 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>cl:10640</t>
+          <t>cl:10641</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>CC-BY-ND-4.0</t>
+          <t>CC-BY-SA-1.0</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution No Derivatives 4.0 International</t>
+          <t>Creative Commons Attribution Share Alike 1.0 Generic</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -50283,17 +50283,17 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>cl:10641</t>
+          <t>cl:10642</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>CC-BY-SA-1.0</t>
+          <t>CC-BY-SA-2.0</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Share Alike 1.0 Generic</t>
+          <t>Creative Commons Attribution Share Alike 2.0 Generic</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -50374,17 +50374,17 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>cl:10642</t>
+          <t>cl:10643</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>CC-BY-SA-2.0</t>
+          <t>CC-BY-SA-2.0-UK</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Share Alike 2.0 Generic</t>
+          <t>Creative Commons Attribution Share Alike 2.0 England and Wales</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -50465,17 +50465,17 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>cl:10643</t>
+          <t>cl:10644</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>CC-BY-SA-2.0-UK</t>
+          <t>CC-BY-SA-2.5</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Share Alike 2.0 England and Wales</t>
+          <t>Creative Commons Attribution Share Alike 2.5 Generic</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -50556,17 +50556,17 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>cl:10644</t>
+          <t>cl:10645</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>CC-BY-SA-2.5</t>
+          <t>CC-BY-SA-3.0</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Share Alike 2.5 Generic</t>
+          <t>Creative Commons Attribution Share Alike 3.0 Unported</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -50626,7 +50626,11 @@
           <t>0000-0002-6968-8275</t>
         </is>
       </c>
-      <c r="AO573" t="inlineStr"/>
+      <c r="AO573" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
       <c r="AP573" t="inlineStr"/>
       <c r="AQ573" t="inlineStr"/>
       <c r="AR573" t="inlineStr"/>
@@ -50647,17 +50651,17 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>cl:10645</t>
+          <t>cl:10646</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>CC-BY-SA-3.0</t>
+          <t>CC-BY-SA-3.0-AT</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Share Alike 3.0 Unported</t>
+          <t>Creative Commons Attribution-Share Alike 3.0 Austria</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -50717,11 +50721,7 @@
           <t>0000-0002-6968-8275</t>
         </is>
       </c>
-      <c r="AO574" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
+      <c r="AO574" t="inlineStr"/>
       <c r="AP574" t="inlineStr"/>
       <c r="AQ574" t="inlineStr"/>
       <c r="AR574" t="inlineStr"/>
@@ -50742,17 +50742,17 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>cl:10646</t>
+          <t>cl:10647</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>CC-BY-SA-3.0-AT</t>
+          <t>CC-BY-SA-4.0</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution-Share Alike 3.0 Austria</t>
+          <t>Creative Commons Attribution Share Alike 4.0 International</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -50833,17 +50833,17 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>cl:10647</t>
+          <t>cl:10648</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>CC-BY-SA-4.0</t>
+          <t>CC-PDDC</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Creative Commons Attribution Share Alike 4.0 International</t>
+          <t>Creative Commons Public Domain Dedication and Certification</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -50924,22 +50924,18 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>cl:10648</t>
+          <t>cl:10649</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>CC-PDDC</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>Creative Commons Public Domain Dedication and Certification</t>
-        </is>
-      </c>
+          <t>Marine habitats</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr"/>
       <c r="D577" t="inlineStr">
         <is>
-          <t>http://purl.org/dc/terms/LicenseDocument,skos:Concept</t>
+          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
         </is>
       </c>
       <c r="E577" t="inlineStr"/>
@@ -50947,7 +50943,7 @@
       <c r="G577" t="inlineStr"/>
       <c r="H577" t="inlineStr">
         <is>
-          <t>cl:10611</t>
+          <t>cl:10597</t>
         </is>
       </c>
       <c r="I577" t="inlineStr"/>
@@ -50986,15 +50982,15 @@
       </c>
       <c r="AM577" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
-        </is>
-      </c>
-      <c r="AN577" t="inlineStr">
-        <is>
-          <t>0000-0002-6968-8275</t>
-        </is>
-      </c>
-      <c r="AO577" t="inlineStr"/>
+          <t>2022-10-09</t>
+        </is>
+      </c>
+      <c r="AN577" t="inlineStr"/>
+      <c r="AO577" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
       <c r="AP577" t="inlineStr"/>
       <c r="AQ577" t="inlineStr"/>
       <c r="AR577" t="inlineStr"/>
@@ -51015,12 +51011,12 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>cl:10649</t>
+          <t>cl:10651</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Marine habitats</t>
+          <t>Inland surface waters</t>
         </is>
       </c>
       <c r="C578" t="inlineStr"/>
@@ -51102,12 +51098,12 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>cl:10651</t>
+          <t>cl:10652</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Inland surface waters</t>
+          <t>Mires, bogs and fens</t>
         </is>
       </c>
       <c r="C579" t="inlineStr"/>
@@ -51189,12 +51185,12 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>cl:10652</t>
+          <t>cl:10653</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Mires, bogs and fens</t>
+          <t>Grasslands and lands dominated by forbs, mosses or lichens</t>
         </is>
       </c>
       <c r="C580" t="inlineStr"/>
@@ -51276,12 +51272,12 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>cl:10653</t>
+          <t>cl:10654</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Grasslands and lands dominated by forbs, mosses or lichens</t>
+          <t>Heathlands, scrub and tundra</t>
         </is>
       </c>
       <c r="C581" t="inlineStr"/>
@@ -51363,12 +51359,12 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>cl:10654</t>
+          <t>cl:10655</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Heathlands, scrub and tundra</t>
+          <t>Woodland, forest and other wooded land</t>
         </is>
       </c>
       <c r="C582" t="inlineStr"/>
@@ -51450,12 +51446,12 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>cl:10655</t>
+          <t>cl:10656</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Woodland, forest and other wooded land</t>
+          <t>Inland unvegetated or sparsely vegetated habitats</t>
         </is>
       </c>
       <c r="C583" t="inlineStr"/>
@@ -51537,12 +51533,12 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>cl:10656</t>
+          <t>cl:10657</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Inland unvegetated or sparsely vegetated habitats</t>
+          <t>Regularly or recently cultivated agricultural, horticultural and domestic habitats</t>
         </is>
       </c>
       <c r="C584" t="inlineStr"/>
@@ -51624,12 +51620,12 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>cl:10657</t>
+          <t>cl:10658</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Regularly or recently cultivated agricultural, horticultural and domestic habitats</t>
+          <t>Constructed, industrial and other artificial habitats</t>
         </is>
       </c>
       <c r="C585" t="inlineStr"/>
@@ -51711,26 +51707,22 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>cl:10658</t>
+          <t>cl:10659</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Constructed, industrial and other artificial habitats</t>
+          <t>coastal and halophytic communities</t>
         </is>
       </c>
       <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr">
-        <is>
-          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
-        </is>
-      </c>
+      <c r="D586" t="inlineStr"/>
       <c r="E586" t="inlineStr"/>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
       <c r="H586" t="inlineStr">
         <is>
-          <t>cl:10597</t>
+          <t>cl:10598</t>
         </is>
       </c>
       <c r="I586" t="inlineStr"/>
@@ -51775,7 +51767,7 @@
       <c r="AN586" t="inlineStr"/>
       <c r="AO586" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2022-10-09</t>
         </is>
       </c>
       <c r="AP586" t="inlineStr"/>
@@ -51798,16 +51790,20 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>cl:10659</t>
+          <t>cl:10660</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>coastal and halophytic communities</t>
+          <t>non-marine waters</t>
         </is>
       </c>
       <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr"/>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAq2oL3uIyI5vH97OTWnqmihGN-_n5deh6FXidHvBfFV4#CorineHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E587" t="inlineStr"/>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr"/>
@@ -51858,7 +51854,7 @@
       <c r="AN587" t="inlineStr"/>
       <c r="AO587" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP587" t="inlineStr"/>
@@ -51881,12 +51877,12 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>cl:10660</t>
+          <t>cl:10661</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>non-marine waters</t>
+          <t>scrub and grassland</t>
         </is>
       </c>
       <c r="C588" t="inlineStr"/>
@@ -51968,12 +51964,12 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>cl:10661</t>
+          <t>cl:10662</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>scrub and grassland</t>
+          <t>forests</t>
         </is>
       </c>
       <c r="C589" t="inlineStr"/>
@@ -51987,7 +51983,7 @@
       <c r="G589" t="inlineStr"/>
       <c r="H589" t="inlineStr">
         <is>
-          <t>cl:10598</t>
+          <t>cl:10598,cl:10599</t>
         </is>
       </c>
       <c r="I589" t="inlineStr"/>
@@ -52055,12 +52051,12 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>cl:10662</t>
+          <t>cl:10663</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>forests</t>
+          <t>bogs and marshes</t>
         </is>
       </c>
       <c r="C590" t="inlineStr"/>
@@ -52074,7 +52070,7 @@
       <c r="G590" t="inlineStr"/>
       <c r="H590" t="inlineStr">
         <is>
-          <t>cl:10598,cl:10599</t>
+          <t>cl:10598</t>
         </is>
       </c>
       <c r="I590" t="inlineStr"/>
@@ -52142,12 +52138,12 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>cl:10663</t>
+          <t>cl:10664</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>bogs and marshes</t>
+          <t>inland rocks, screes and sands</t>
         </is>
       </c>
       <c r="C591" t="inlineStr"/>
@@ -52229,12 +52225,12 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>cl:10664</t>
+          <t>cl:10665</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>inland rocks, screes and sands</t>
+          <t>agricultural land and artificial landscapes</t>
         </is>
       </c>
       <c r="C592" t="inlineStr"/>
@@ -52316,12 +52312,12 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>cl:10665</t>
+          <t>cl:10666</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>agricultural land and artificial landscapes</t>
+          <t>coastal sand dunes and inland dunes</t>
         </is>
       </c>
       <c r="C593" t="inlineStr"/>
@@ -52335,7 +52331,7 @@
       <c r="G593" t="inlineStr"/>
       <c r="H593" t="inlineStr">
         <is>
-          <t>cl:10598</t>
+          <t>cl:10599</t>
         </is>
       </c>
       <c r="I593" t="inlineStr"/>
@@ -52403,20 +52399,16 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>cl:10666</t>
+          <t>cl:10667</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>coastal sand dunes and inland dunes</t>
+          <t>freshwater habitats</t>
         </is>
       </c>
       <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>https://w3id.org/np/RAq2oL3uIyI5vH97OTWnqmihGN-_n5deh6FXidHvBfFV4#CorineHabitat,skos:Concept</t>
-        </is>
-      </c>
+      <c r="D594" t="inlineStr"/>
       <c r="E594" t="inlineStr"/>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
@@ -52490,12 +52482,12 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>cl:10667</t>
+          <t>cl:10668</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>freshwater habitats</t>
+          <t>temperate heath and scrub</t>
         </is>
       </c>
       <c r="C595" t="inlineStr"/>
@@ -52573,12 +52565,12 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>cl:10668</t>
+          <t>cl:10669</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>temperate heath and scrub</t>
+          <t>sclerophyllous scrub (matorral)</t>
         </is>
       </c>
       <c r="C596" t="inlineStr"/>
@@ -52633,7 +52625,7 @@
       <c r="AN596" t="inlineStr"/>
       <c r="AO596" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2022-10-09</t>
         </is>
       </c>
       <c r="AP596" t="inlineStr"/>
@@ -52656,12 +52648,12 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>cl:10669</t>
+          <t>cl:10670</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>sclerophyllous scrub (matorral)</t>
+          <t>natural and semi-natural grassland formations</t>
         </is>
       </c>
       <c r="C597" t="inlineStr"/>
@@ -52739,12 +52731,12 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>cl:10670</t>
+          <t>cl:10671</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>natural and semi-natural grassland formations</t>
+          <t>raised bogs and mires and fens</t>
         </is>
       </c>
       <c r="C598" t="inlineStr"/>
@@ -52822,12 +52814,12 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>cl:10671</t>
+          <t>cl:10672</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>raised bogs and mires and fens</t>
+          <t>rocky habitats and caves</t>
         </is>
       </c>
       <c r="C599" t="inlineStr"/>
@@ -52876,13 +52868,13 @@
       </c>
       <c r="AM599" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2023-03-18</t>
         </is>
       </c>
       <c r="AN599" t="inlineStr"/>
       <c r="AO599" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2023-03-18</t>
         </is>
       </c>
       <c r="AP599" t="inlineStr"/>
@@ -52905,12 +52897,12 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>cl:10672</t>
+          <t>cl:10673</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>rocky habitats and caves</t>
+          <t>organism group</t>
         </is>
       </c>
       <c r="C600" t="inlineStr"/>
@@ -52918,11 +52910,7 @@
       <c r="E600" t="inlineStr"/>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr"/>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>cl:10599</t>
-        </is>
-      </c>
+      <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
@@ -52959,13 +52947,17 @@
       </c>
       <c r="AM600" t="inlineStr">
         <is>
-          <t>2023-03-18</t>
-        </is>
-      </c>
-      <c r="AN600" t="inlineStr"/>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="AN600" t="inlineStr">
+        <is>
+          <t>0000-0002-6968-8275</t>
+        </is>
+      </c>
       <c r="AO600" t="inlineStr">
         <is>
-          <t>2023-03-18</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AP600" t="inlineStr"/>
@@ -52988,12 +52980,12 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>cl:10673</t>
+          <t>cl:10679</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>organism group</t>
+          <t>other birds</t>
         </is>
       </c>
       <c r="C601" t="inlineStr"/>
@@ -53001,7 +52993,11 @@
       <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr"/>
-      <c r="H601" t="inlineStr"/>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>cl:10626</t>
+        </is>
+      </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
@@ -53071,12 +53067,12 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>cl:10679</t>
+          <t>cl:10674</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>other birds</t>
+          <t>other vertebrates</t>
         </is>
       </c>
       <c r="C602" t="inlineStr"/>
@@ -53086,7 +53082,7 @@
       <c r="G602" t="inlineStr"/>
       <c r="H602" t="inlineStr">
         <is>
-          <t>cl:10626</t>
+          <t>cl:10673</t>
         </is>
       </c>
       <c r="I602" t="inlineStr"/>
@@ -53135,7 +53131,7 @@
       </c>
       <c r="AO602" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AP602" t="inlineStr"/>
@@ -53158,12 +53154,12 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>cl:10674</t>
+          <t>cl:10675</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>other vertebrates</t>
+          <t>other insects</t>
         </is>
       </c>
       <c r="C603" t="inlineStr"/>
@@ -53222,7 +53218,7 @@
       </c>
       <c r="AO603" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="AP603" t="inlineStr"/>
@@ -53245,16 +53241,20 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>cl:10675</t>
+          <t>cl:10677</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>other insects</t>
+          <t>other plants</t>
         </is>
       </c>
       <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr"/>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Plant,skos:Concept</t>
+        </is>
+      </c>
       <c r="E604" t="inlineStr"/>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
@@ -53309,7 +53309,7 @@
       </c>
       <c r="AO604" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP604" t="inlineStr"/>
@@ -53332,20 +53332,16 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>cl:10677</t>
+          <t>cl:10678</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>other plants</t>
+          <t>other organisms</t>
         </is>
       </c>
       <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>http://purl.org/biotop/biotop.owl#Plant,skos:Concept</t>
-        </is>
-      </c>
+      <c r="D605" t="inlineStr"/>
       <c r="E605" t="inlineStr"/>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
@@ -53400,7 +53396,7 @@
       </c>
       <c r="AO605" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AP605" t="inlineStr"/>
@@ -53423,12 +53419,12 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>cl:10678</t>
+          <t>cl:10680</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>other organisms</t>
+          <t>access scheme</t>
         </is>
       </c>
       <c r="C606" t="inlineStr"/>
@@ -53436,11 +53432,7 @@
       <c r="E606" t="inlineStr"/>
       <c r="F606" t="inlineStr"/>
       <c r="G606" t="inlineStr"/>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>cl:10673</t>
-        </is>
-      </c>
+      <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
@@ -53477,12 +53469,12 @@
       </c>
       <c r="AM606" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AN606" t="inlineStr">
         <is>
-          <t>0000-0002-6968-8275</t>
+          <t>0000-0003-0631-8231</t>
         </is>
       </c>
       <c r="AO606" t="inlineStr">
@@ -53510,20 +53502,28 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>cl:10680</t>
+          <t>cl:10681</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>access scheme</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr"/>
+          <t>Remote Access</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr"/>
-      <c r="H607" t="inlineStr"/>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>cl:10680</t>
+        </is>
+      </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
@@ -53593,17 +53593,17 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>cl:10681</t>
+          <t>cl:10682</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Remote Access</t>
+          <t>Transnational Access</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>RA</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
@@ -53684,22 +53684,26 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>cl:10682</t>
+          <t>cl:10683</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Transnational Access</t>
+          <t>Transnational Access and Remote Access</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TA-RA</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
       <c r="E609" t="inlineStr"/>
-      <c r="F609" t="inlineStr"/>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>Through its dedicated access scheme, the eLTER PLUS project opens up the eLTER Research Infrastructure (eLTER RI) and aims to attract a wide range of users from various disciplines. The scheme addresses both physical access to long-term research sites (Transnational Access-TA) and an access mode in which local site staff perform measurements/sampling according to user defined protocols (Remote Access-RA), or a combination of both. Additionally the Virtual Access scheme provides access to the data from selected research sites. All access within the scheme is free of charge for users. TA and RA typically aid small to medium scale ecological and socio-ecological projects.</t>
+        </is>
+      </c>
       <c r="G609" t="inlineStr"/>
       <c r="H609" t="inlineStr">
         <is>
@@ -53775,30 +53779,26 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>cl:10683</t>
+          <t>cl:10684</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Transnational Access and Remote Access</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr">
-        <is>
-          <t>TA-RA</t>
-        </is>
-      </c>
+          <t>TA-RA project</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr"/>
       <c r="D610" t="inlineStr"/>
       <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr">
-        <is>
-          <t>Through its dedicated access scheme, the eLTER PLUS project opens up the eLTER Research Infrastructure (eLTER RI) and aims to attract a wide range of users from various disciplines. The scheme addresses both physical access to long-term research sites (Transnational Access-TA) and an access mode in which local site staff perform measurements/sampling according to user defined protocols (Remote Access-RA), or a combination of both. Additionally the Virtual Access scheme provides access to the data from selected research sites. All access within the scheme is free of charge for users. TA and RA typically aid small to medium scale ecological and socio-ecological projects.</t>
-        </is>
-      </c>
-      <c r="G610" t="inlineStr"/>
+      <c r="F610" t="inlineStr"/>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>https://elter-ri.eu/transnational-remote-access-ta-ra</t>
+        </is>
+      </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>cl:10680</t>
+          <t>cl:10683</t>
         </is>
       </c>
       <c r="I610" t="inlineStr"/>
@@ -53870,26 +53870,22 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>cl:10684</t>
+          <t>cl:10685</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>TA-RA project</t>
+          <t>under certain conditions</t>
         </is>
       </c>
       <c r="C611" t="inlineStr"/>
       <c r="D611" t="inlineStr"/>
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>https://elter-ri.eu/transnational-remote-access-ta-ra</t>
-        </is>
-      </c>
+      <c r="G611" t="inlineStr"/>
       <c r="H611" t="inlineStr">
         <is>
-          <t>cl:10683</t>
+          <t>cl:10466</t>
         </is>
       </c>
       <c r="I611" t="inlineStr"/>
@@ -53928,12 +53924,12 @@
       </c>
       <c r="AM611" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AN611" t="inlineStr">
         <is>
-          <t>0000-0003-0631-8231</t>
+          <t>0000-0002-6968-8275</t>
         </is>
       </c>
       <c r="AO611" t="inlineStr">
@@ -53961,22 +53957,26 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>cl:10685</t>
+          <t>cl:10686</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>under certain conditions</t>
+          <t xml:space="preserve">private company </t>
         </is>
       </c>
       <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr"/>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_011343,skos:Concept</t>
+        </is>
+      </c>
       <c r="E612" t="inlineStr"/>
       <c r="F612" t="inlineStr"/>
       <c r="G612" t="inlineStr"/>
       <c r="H612" t="inlineStr">
         <is>
-          <t>cl:10466</t>
+          <t>cl:10461</t>
         </is>
       </c>
       <c r="I612" t="inlineStr"/>
@@ -54025,7 +54025,7 @@
       </c>
       <c r="AO612" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AP612" t="inlineStr"/>
@@ -54048,26 +54048,22 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>cl:10686</t>
+          <t>cl:10687</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t xml:space="preserve">private company </t>
+          <t>impact assessment</t>
         </is>
       </c>
       <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GSSO_011343,skos:Concept</t>
-        </is>
-      </c>
+      <c r="D613" t="inlineStr"/>
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="inlineStr"/>
       <c r="G613" t="inlineStr"/>
       <c r="H613" t="inlineStr">
         <is>
-          <t>cl:10461</t>
+          <t>cl:10569</t>
         </is>
       </c>
       <c r="I613" t="inlineStr"/>
@@ -54116,7 +54112,7 @@
       </c>
       <c r="AO613" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AP613" t="inlineStr"/>
@@ -54139,22 +54135,26 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>cl:10687</t>
+          <t>cl:10688</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>impact assessment</t>
+          <t>gymnosperms</t>
         </is>
       </c>
       <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr"/>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Plant,skos:Concept</t>
+        </is>
+      </c>
       <c r="E614" t="inlineStr"/>
       <c r="F614" t="inlineStr"/>
       <c r="G614" t="inlineStr"/>
       <c r="H614" t="inlineStr">
         <is>
-          <t>cl:10569</t>
+          <t>cl:10708</t>
         </is>
       </c>
       <c r="I614" t="inlineStr"/>
@@ -54193,7 +54193,7 @@
       </c>
       <c r="AM614" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AN614" t="inlineStr">
@@ -54203,7 +54203,7 @@
       </c>
       <c r="AO614" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP614" t="inlineStr"/>
@@ -54226,12 +54226,12 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>cl:10688</t>
+          <t>cl:10689</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>gymnosperms</t>
+          <t>other angiosperms</t>
         </is>
       </c>
       <c r="C615" t="inlineStr"/>
@@ -54317,18 +54317,18 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>cl:10689</t>
+          <t>cl:10690</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>other angiosperms</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
-          <t>http://purl.org/biotop/biotop.owl#Plant,skos:Concept</t>
+          <t>http://purl.obolibrary.org/obo/GSSO_011343,skos:Concept</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -54336,7 +54336,7 @@
       <c r="G616" t="inlineStr"/>
       <c r="H616" t="inlineStr">
         <is>
-          <t>cl:10708</t>
+          <t>cl:10461</t>
         </is>
       </c>
       <c r="I616" t="inlineStr"/>
@@ -54375,17 +54375,17 @@
       </c>
       <c r="AM616" t="inlineStr">
         <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AN616" t="inlineStr">
+        <is>
+          <t>0000-0002-6968-8275</t>
+        </is>
+      </c>
+      <c r="AO616" t="inlineStr">
+        <is>
           <t>2024-06-19</t>
-        </is>
-      </c>
-      <c r="AN616" t="inlineStr">
-        <is>
-          <t>0000-0002-6968-8275</t>
-        </is>
-      </c>
-      <c r="AO616" t="inlineStr">
-        <is>
-          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP616" t="inlineStr"/>
@@ -54408,26 +54408,22 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>cl:10690</t>
+          <t>cl:10691</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Habitats complexes</t>
         </is>
       </c>
       <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GSSO_011343,skos:Concept</t>
-        </is>
-      </c>
+      <c r="D617" t="inlineStr"/>
       <c r="E617" t="inlineStr"/>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
       <c r="H617" t="inlineStr">
         <is>
-          <t>cl:10461</t>
+          <t>cl:10597</t>
         </is>
       </c>
       <c r="I617" t="inlineStr"/>
@@ -54466,7 +54462,7 @@
       </c>
       <c r="AM617" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AN617" t="inlineStr">
@@ -54476,7 +54472,7 @@
       </c>
       <c r="AO617" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="AP617" t="inlineStr"/>
@@ -54499,12 +54495,12 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>cl:10691</t>
+          <t>cl:10692</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Habitats complexes</t>
+          <t>coastal and halophytic habitats</t>
         </is>
       </c>
       <c r="C618" t="inlineStr"/>
@@ -54514,7 +54510,7 @@
       <c r="G618" t="inlineStr"/>
       <c r="H618" t="inlineStr">
         <is>
-          <t>cl:10597</t>
+          <t>cl:10599</t>
         </is>
       </c>
       <c r="I618" t="inlineStr"/>
@@ -54563,7 +54559,7 @@
       </c>
       <c r="AO618" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="AP618" t="inlineStr"/>
@@ -54586,22 +54582,26 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>cl:10692</t>
+          <t>cl:10693</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>coastal and halophytic habitats</t>
+          <t>Coastal habitats</t>
         </is>
       </c>
       <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr"/>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
+        </is>
+      </c>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
       <c r="H619" t="inlineStr">
         <is>
-          <t>cl:10599</t>
+          <t>cl:10597</t>
         </is>
       </c>
       <c r="I619" t="inlineStr"/>
@@ -54650,7 +54650,7 @@
       </c>
       <c r="AO619" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AP619" t="inlineStr"/>
@@ -54673,29 +54673,29 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>cl:10693</t>
+          <t>cl:10694</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Coastal habitats</t>
+          <t>birds</t>
         </is>
       </c>
       <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr">
-        <is>
-          <t>https://w3id.org/np/RAkLyP_I8O3ocqgRKBTmPQhedjs9KWedeEK0YdT9yfTWA#EunisHabitat,skos:Concept</t>
-        </is>
-      </c>
+      <c r="D620" t="inlineStr"/>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr"/>
       <c r="H620" t="inlineStr">
         <is>
-          <t>cl:10597</t>
-        </is>
-      </c>
-      <c r="I620" t="inlineStr"/>
+          <t>cl:10673</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>et:20626</t>
+        </is>
+      </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr"/>
@@ -54724,11 +54724,7 @@
       <c r="AI620" t="inlineStr"/>
       <c r="AJ620" t="inlineStr"/>
       <c r="AK620" t="inlineStr"/>
-      <c r="AL620" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
+      <c r="AL620" t="inlineStr"/>
       <c r="AM620" t="inlineStr">
         <is>
           <t>2024-06-19</t>
@@ -54736,12 +54732,12 @@
       </c>
       <c r="AN620" t="inlineStr">
         <is>
-          <t>0000-0002-6968-8275</t>
+          <t>0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="AO620" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AP620" t="inlineStr"/>
@@ -54764,27 +54760,31 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>cl:10694</t>
+          <t>cl:10695</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>birds</t>
+          <t>waterbirds</t>
         </is>
       </c>
       <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr"/>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782, skos:Concept</t>
+        </is>
+      </c>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
       <c r="H621" t="inlineStr">
         <is>
-          <t>cl:10673</t>
+          <t>cl:10694</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>et:20626</t>
+          <t>et:30301</t>
         </is>
       </c>
       <c r="J621" t="inlineStr"/>
@@ -54828,7 +54828,7 @@
       </c>
       <c r="AO621" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP621" t="inlineStr"/>
@@ -54851,12 +54851,12 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>cl:10695</t>
+          <t>cl:10696</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>waterbirds</t>
+          <t>raptors</t>
         </is>
       </c>
       <c r="C622" t="inlineStr"/>
@@ -54875,7 +54875,7 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>et:30301</t>
+          <t>et:30302</t>
         </is>
       </c>
       <c r="J622" t="inlineStr"/>
@@ -54942,12 +54942,12 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>cl:10696</t>
+          <t>cl:10697</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>raptors</t>
+          <t>songbirds</t>
         </is>
       </c>
       <c r="C623" t="inlineStr"/>
@@ -54966,7 +54966,7 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>et:30302</t>
+          <t>et:30303</t>
         </is>
       </c>
       <c r="J623" t="inlineStr"/>
@@ -55033,12 +55033,12 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>cl:10697</t>
+          <t>cl:10698</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>songbirds</t>
+          <t>near-passerines</t>
         </is>
       </c>
       <c r="C624" t="inlineStr"/>
@@ -55057,7 +55057,7 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>et:30303</t>
+          <t>et:30304</t>
         </is>
       </c>
       <c r="J624" t="inlineStr"/>
@@ -55124,31 +55124,27 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>cl:10698</t>
+          <t>cl:10699</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>near-passerines</t>
+          <t>invertebrates</t>
         </is>
       </c>
       <c r="C625" t="inlineStr"/>
-      <c r="D625" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782, skos:Concept</t>
-        </is>
-      </c>
+      <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
       <c r="H625" t="inlineStr">
         <is>
-          <t>cl:10694</t>
+          <t>cl:10673</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>et:30304</t>
+          <t>et:20593</t>
         </is>
       </c>
       <c r="J625" t="inlineStr"/>
@@ -55192,7 +55188,7 @@
       </c>
       <c r="AO625" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AP625" t="inlineStr"/>
@@ -55215,27 +55211,31 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>cl:10699</t>
+          <t>cl:10700</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>invertebrates</t>
+          <t>beetles</t>
         </is>
       </c>
       <c r="C626" t="inlineStr"/>
-      <c r="D626" t="inlineStr"/>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+        </is>
+      </c>
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr"/>
       <c r="H626" t="inlineStr">
         <is>
-          <t>cl:10673</t>
+          <t>cl:10699</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>et:20593</t>
+          <t>et:20600</t>
         </is>
       </c>
       <c r="J626" t="inlineStr"/>
@@ -55279,7 +55279,7 @@
       </c>
       <c r="AO626" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP626" t="inlineStr"/>
@@ -55302,12 +55302,12 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>cl:10700</t>
+          <t>cl:10701</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>beetles</t>
+          <t>butterflies</t>
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
@@ -55326,7 +55326,7 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>et:20600</t>
+          <t>et:20602</t>
         </is>
       </c>
       <c r="J627" t="inlineStr"/>
@@ -55393,12 +55393,12 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>cl:10701</t>
+          <t>cl:10702</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>butterflies</t>
+          <t>dragonflies</t>
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
@@ -55417,7 +55417,7 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>et:20602</t>
+          <t>et:30312</t>
         </is>
       </c>
       <c r="J628" t="inlineStr"/>
@@ -55484,12 +55484,12 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>cl:10702</t>
+          <t>cl:10703</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>dragonflies</t>
+          <t>grasshoppers</t>
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
@@ -55508,7 +55508,7 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>et:30312</t>
+          <t>et:20603</t>
         </is>
       </c>
       <c r="J629" t="inlineStr"/>
@@ -55575,12 +55575,12 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>cl:10703</t>
+          <t>cl:10704</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>grasshoppers</t>
+          <t>crickets</t>
         </is>
       </c>
       <c r="C630" t="inlineStr"/>
@@ -55599,7 +55599,7 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>et:20603</t>
+          <t>et:30313</t>
         </is>
       </c>
       <c r="J630" t="inlineStr"/>
@@ -55666,12 +55666,12 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>cl:10704</t>
+          <t>cl:10705</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>crickets</t>
+          <t>bivalvia</t>
         </is>
       </c>
       <c r="C631" t="inlineStr"/>
@@ -55690,7 +55690,7 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>et:30313</t>
+          <t>et:30314</t>
         </is>
       </c>
       <c r="J631" t="inlineStr"/>
@@ -55757,12 +55757,12 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>cl:10705</t>
+          <t>cl:10706</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>bivalvia</t>
+          <t>gastropods</t>
         </is>
       </c>
       <c r="C632" t="inlineStr"/>
@@ -55781,7 +55781,7 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>et:30314</t>
+          <t>et:20619</t>
         </is>
       </c>
       <c r="J632" t="inlineStr"/>
@@ -55848,12 +55848,12 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>cl:10706</t>
+          <t>cl:10707</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>gastropods</t>
+          <t>crustaceans</t>
         </is>
       </c>
       <c r="C633" t="inlineStr"/>
@@ -55872,7 +55872,7 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>et:20619</t>
+          <t>et:20613</t>
         </is>
       </c>
       <c r="J633" t="inlineStr"/>
@@ -55939,31 +55939,27 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>cl:10707</t>
+          <t>cl:10708</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>crustaceans</t>
+          <t>plants</t>
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
-      <c r="D634" t="inlineStr">
-        <is>
-          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
-        </is>
-      </c>
+      <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr"/>
       <c r="H634" t="inlineStr">
         <is>
-          <t>cl:10699</t>
+          <t>cl:10673</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>et:20613</t>
+          <t>et:20676</t>
         </is>
       </c>
       <c r="J634" t="inlineStr"/>
@@ -56007,7 +56003,7 @@
       </c>
       <c r="AO634" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AP634" t="inlineStr"/>
@@ -56030,27 +56026,31 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>cl:10708</t>
+          <t>cl:10709</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>plants</t>
+          <t>liverworts</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
-      <c r="D635" t="inlineStr"/>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>http://purl.org/biotop/biotop.owl#Plant,skos:Concept</t>
+        </is>
+      </c>
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr"/>
       <c r="H635" t="inlineStr">
         <is>
-          <t>cl:10673</t>
+          <t>cl:10708</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>et:20676</t>
+          <t>et:20692</t>
         </is>
       </c>
       <c r="J635" t="inlineStr"/>
@@ -56094,7 +56094,7 @@
       </c>
       <c r="AO635" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AP635" t="inlineStr"/>
@@ -56117,12 +56117,12 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>cl:10709</t>
+          <t>cl:10710</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>liverworts</t>
+          <t>mosses</t>
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
@@ -56141,7 +56141,7 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>et:20692</t>
+          <t>et:20691</t>
         </is>
       </c>
       <c r="J636" t="inlineStr"/>
@@ -56208,12 +56208,12 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>cl:10710</t>
+          <t>cl:10711</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>mosses</t>
+          <t>ferns</t>
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
@@ -56232,7 +56232,7 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>et:20691</t>
+          <t>et:20687</t>
         </is>
       </c>
       <c r="J637" t="inlineStr"/>
@@ -56299,12 +56299,12 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>cl:10711</t>
+          <t>cl:10712</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>ferns</t>
+          <t>orchids</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
@@ -56323,7 +56323,7 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>et:20687</t>
+          <t>et:30315</t>
         </is>
       </c>
       <c r="J638" t="inlineStr"/>
@@ -56390,18 +56390,18 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>cl:10712</t>
+          <t>cl:10713</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>orchids</t>
+          <t>algae</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
-          <t>http://purl.org/biotop/biotop.owl#Plant,skos:Concept</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026,skos:Concept</t>
         </is>
       </c>
       <c r="E639" t="inlineStr"/>
@@ -56409,12 +56409,12 @@
       <c r="G639" t="inlineStr"/>
       <c r="H639" t="inlineStr">
         <is>
-          <t>cl:10708</t>
+          <t>cl:10678</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>et:30315</t>
+          <t>et:20587</t>
         </is>
       </c>
       <c r="J639" t="inlineStr"/>
@@ -56481,12 +56481,12 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>cl:10713</t>
+          <t>cl:10714</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>algae</t>
+          <t>fungi</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
@@ -56505,7 +56505,7 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>et:20587</t>
+          <t>et:20650</t>
         </is>
       </c>
       <c r="J640" t="inlineStr"/>
@@ -56572,12 +56572,12 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>cl:10714</t>
+          <t>cl:10715</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>fungi</t>
+          <t>lichens</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
@@ -56596,7 +56596,7 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>et:20650</t>
+          <t>et:20660</t>
         </is>
       </c>
       <c r="J641" t="inlineStr"/>
@@ -56663,12 +56663,12 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>cl:10715</t>
+          <t>cl:10716</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>lichens</t>
+          <t>bacteria</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
@@ -56687,7 +56687,7 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>et:20660</t>
+          <t>et:20662</t>
         </is>
       </c>
       <c r="J642" t="inlineStr"/>
@@ -56754,12 +56754,12 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>cl:10716</t>
+          <t>cl:10717</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>bacteria</t>
+          <t>reptiles</t>
         </is>
       </c>
       <c r="C643" t="inlineStr"/>
@@ -56773,12 +56773,12 @@
       <c r="G643" t="inlineStr"/>
       <c r="H643" t="inlineStr">
         <is>
-          <t>cl:10678</t>
+          <t>cl:10674</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>et:20662</t>
+          <t>et:20640</t>
         </is>
       </c>
       <c r="J643" t="inlineStr"/>
@@ -56845,12 +56845,12 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>cl:10717</t>
+          <t>cl:10718</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>reptiles</t>
+          <t>amphibians</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
@@ -56869,7 +56869,7 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>et:20640</t>
+          <t>et:20624</t>
         </is>
       </c>
       <c r="J644" t="inlineStr"/>
@@ -56936,12 +56936,12 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>cl:10718</t>
+          <t>cl:10719</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>amphibians</t>
+          <t>fishes</t>
         </is>
       </c>
       <c r="C645" t="inlineStr"/>
@@ -56960,7 +56960,7 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>et:20624</t>
+          <t>et:20633</t>
         </is>
       </c>
       <c r="J645" t="inlineStr"/>
@@ -57027,33 +57027,21 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>cl:10719</t>
+          <t>cl:10720</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>fishes</t>
+          <t>contact role</t>
         </is>
       </c>
       <c r="C646" t="inlineStr"/>
-      <c r="D646" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0100026,skos:Concept</t>
-        </is>
-      </c>
+      <c r="D646" t="inlineStr"/>
       <c r="E646" t="inlineStr"/>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr"/>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>cl:10674</t>
-        </is>
-      </c>
-      <c r="I646" t="inlineStr">
-        <is>
-          <t>et:20633</t>
-        </is>
-      </c>
+      <c r="H646" t="inlineStr"/>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr"/>
@@ -57095,7 +57083,7 @@
       </c>
       <c r="AO646" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AP646" t="inlineStr"/>
@@ -57118,20 +57106,28 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>cl:10720</t>
+          <t>cl:10721</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>contact role</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="C647" t="inlineStr"/>
-      <c r="D647" t="inlineStr"/>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+        </is>
+      </c>
       <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
-      <c r="H647" t="inlineStr"/>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>cl:10720</t>
+        </is>
+      </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
@@ -57174,7 +57170,7 @@
       </c>
       <c r="AO647" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AP647" t="inlineStr"/>
@@ -57197,12 +57193,12 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>cl:10721</t>
+          <t>cl:10722</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>author</t>
         </is>
       </c>
       <c r="C648" t="inlineStr"/>
@@ -57284,12 +57280,12 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>cl:10722</t>
+          <t>cl:10723</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>author</t>
+          <t>coAuthor</t>
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
@@ -57371,12 +57367,12 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>cl:10723</t>
+          <t>cl:10724</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>coAuthor</t>
+          <t>collaborator</t>
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
@@ -57458,12 +57454,12 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>cl:10724</t>
+          <t>cl:10725</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>collaborator</t>
+          <t>contributor</t>
         </is>
       </c>
       <c r="C651" t="inlineStr"/>
@@ -57545,12 +57541,12 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>cl:10725</t>
+          <t>cl:10726</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>contributor</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="C652" t="inlineStr"/>
@@ -57632,12 +57628,12 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>cl:10726</t>
+          <t>cl:10727</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>distributor</t>
         </is>
       </c>
       <c r="C653" t="inlineStr"/>
@@ -57719,12 +57715,12 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>cl:10727</t>
+          <t>cl:10728</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>distributor</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
@@ -57806,12 +57802,12 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>cl:10728</t>
+          <t>cl:10729</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>editor</t>
+          <t>funder</t>
         </is>
       </c>
       <c r="C655" t="inlineStr"/>
@@ -57893,12 +57889,12 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>cl:10729</t>
+          <t>cl:10730</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>funder</t>
+          <t>mediator</t>
         </is>
       </c>
       <c r="C656" t="inlineStr"/>
@@ -57980,12 +57976,12 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>cl:10730</t>
+          <t>cl:10731</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>mediator</t>
+          <t>originator</t>
         </is>
       </c>
       <c r="C657" t="inlineStr"/>
@@ -58067,12 +58063,12 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>cl:10731</t>
+          <t>cl:10732</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>originator</t>
+          <t>pointOfContact</t>
         </is>
       </c>
       <c r="C658" t="inlineStr"/>
@@ -58154,12 +58150,12 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>cl:10732</t>
+          <t>cl:10733</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>pointOfContact</t>
+          <t>principalInvestigator</t>
         </is>
       </c>
       <c r="C659" t="inlineStr"/>
@@ -58241,12 +58237,12 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>cl:10733</t>
+          <t>cl:10734</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>principalInvestigator</t>
+          <t>processor</t>
         </is>
       </c>
       <c r="C660" t="inlineStr"/>
@@ -58328,12 +58324,12 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>cl:10734</t>
+          <t>cl:10735</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>processor</t>
+          <t>publisher</t>
         </is>
       </c>
       <c r="C661" t="inlineStr"/>
@@ -58415,12 +58411,12 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>cl:10735</t>
+          <t>cl:10736</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>publisher</t>
+          <t>resource provider</t>
         </is>
       </c>
       <c r="C662" t="inlineStr"/>
@@ -58502,12 +58498,12 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>cl:10736</t>
+          <t>cl:10737</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>resource provider</t>
+          <t>rights holder</t>
         </is>
       </c>
       <c r="C663" t="inlineStr"/>
@@ -58589,12 +58585,12 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>cl:10737</t>
+          <t>cl:10738</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>rights holder</t>
+          <t>stakeholder</t>
         </is>
       </c>
       <c r="C664" t="inlineStr"/>
@@ -58676,12 +58672,12 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>cl:10738</t>
+          <t>cl:10739</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>stakeholder</t>
+          <t>user</t>
         </is>
       </c>
       <c r="C665" t="inlineStr"/>
@@ -58763,18 +58759,18 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>cl:10739</t>
+          <t>cl:10740</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>genetic variability</t>
         </is>
       </c>
       <c r="C666" t="inlineStr"/>
       <c r="D666" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/CRO_0000000,skos:Concept</t>
+          <t>https://w3id.org/np/RASrZgnUQ1yBoxmeAyOaHYFuE9SCVSYOkemLp9rIpgEaU#ScopeOfMonitoring,skos:Concept</t>
         </is>
       </c>
       <c r="E666" t="inlineStr"/>
@@ -58782,10 +58778,14 @@
       <c r="G666" t="inlineStr"/>
       <c r="H666" t="inlineStr">
         <is>
-          <t>cl:10720</t>
-        </is>
-      </c>
-      <c r="I666" t="inlineStr"/>
+          <t>cl:10575</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>et:30299</t>
+        </is>
+      </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
       <c r="L666" t="inlineStr"/>
@@ -58817,7 +58817,7 @@
       <c r="AL666" t="inlineStr"/>
       <c r="AM666" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="AN666" t="inlineStr">
@@ -58827,7 +58827,7 @@
       </c>
       <c r="AO666" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="AP666" t="inlineStr"/>
@@ -58850,12 +58850,12 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>cl:10740</t>
+          <t>cl:10741</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>genetic variability</t>
+          <t>community structure</t>
         </is>
       </c>
       <c r="C667" t="inlineStr"/>
@@ -58874,7 +58874,7 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>et:30299</t>
+          <t>et:21472</t>
         </is>
       </c>
       <c r="J667" t="inlineStr"/>
@@ -58941,12 +58941,12 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>cl:10741</t>
+          <t>cl:10742</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>community structure</t>
+          <t>habitat structure</t>
         </is>
       </c>
       <c r="C668" t="inlineStr"/>
@@ -58965,7 +58965,7 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>et:21472</t>
+          <t>et:21478</t>
         </is>
       </c>
       <c r="J668" t="inlineStr"/>
@@ -59032,12 +59032,12 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>cl:10742</t>
+          <t>cl:10743</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>habitat structure</t>
+          <t>habitat function</t>
         </is>
       </c>
       <c r="C669" t="inlineStr"/>
@@ -59056,7 +59056,7 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>et:21478</t>
+          <t>et:30298</t>
         </is>
       </c>
       <c r="J669" t="inlineStr"/>
@@ -59123,18 +59123,18 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>cl:10743</t>
+          <t>cl:10744</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>habitat function</t>
+          <t>climatic change</t>
         </is>
       </c>
       <c r="C670" t="inlineStr"/>
       <c r="D670" t="inlineStr">
         <is>
-          <t>https://w3id.org/np/RASrZgnUQ1yBoxmeAyOaHYFuE9SCVSYOkemLp9rIpgEaU#ScopeOfMonitoring,skos:Concept</t>
+          <t>http://purl.obolibrary.org/obo/NBO_0020108,skos:Concept</t>
         </is>
       </c>
       <c r="E670" t="inlineStr"/>
@@ -59142,12 +59142,12 @@
       <c r="G670" t="inlineStr"/>
       <c r="H670" t="inlineStr">
         <is>
-          <t>cl:10575</t>
+          <t>cl:10580</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>et:30298</t>
+          <t>et:30300</t>
         </is>
       </c>
       <c r="J670" t="inlineStr"/>
@@ -59214,12 +59214,12 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>cl:10744</t>
+          <t>cl:10745</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>climatic change</t>
+          <t>pollution</t>
         </is>
       </c>
       <c r="C671" t="inlineStr"/>
@@ -59238,7 +59238,7 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>et:30300</t>
+          <t>et:20387</t>
         </is>
       </c>
       <c r="J671" t="inlineStr"/>
@@ -59305,12 +59305,13 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>cl:10745</t>
+          <t>cl:10746</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>pollution</t>
+          <t xml:space="preserve">invasive species
+</t>
         </is>
       </c>
       <c r="C672" t="inlineStr"/>
@@ -59329,7 +59330,7 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>et:20387</t>
+          <t>et:20728</t>
         </is>
       </c>
       <c r="J672" t="inlineStr"/>
@@ -59396,13 +59397,12 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>cl:10746</t>
+          <t>cl:10747</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t xml:space="preserve">invasive species
-</t>
+          <t>succession</t>
         </is>
       </c>
       <c r="C673" t="inlineStr"/>
@@ -59421,7 +59421,7 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>et:20728</t>
+          <t>et:21126</t>
         </is>
       </c>
       <c r="J673" t="inlineStr"/>
@@ -59488,12 +59488,12 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>cl:10747</t>
+          <t>cl:10748</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>succession</t>
+          <t>extreme event</t>
         </is>
       </c>
       <c r="C674" t="inlineStr"/>
@@ -59512,7 +59512,7 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>et:21126</t>
+          <t>et:20399</t>
         </is>
       </c>
       <c r="J674" t="inlineStr"/>
@@ -59579,18 +59579,18 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>cl:10748</t>
+          <t>cl:10749</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>extreme event</t>
+          <t>count</t>
         </is>
       </c>
       <c r="C675" t="inlineStr"/>
       <c r="D675" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/NBO_0020108,skos:Concept</t>
+          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
         </is>
       </c>
       <c r="E675" t="inlineStr"/>
@@ -59598,12 +59598,12 @@
       <c r="G675" t="inlineStr"/>
       <c r="H675" t="inlineStr">
         <is>
-          <t>cl:10580</t>
+          <t>cl:10584</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>et:20399</t>
+          <t>et:21548</t>
         </is>
       </c>
       <c r="J675" t="inlineStr"/>
@@ -59670,12 +59670,12 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>cl:10749</t>
+          <t>cl:10750</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>abundance</t>
         </is>
       </c>
       <c r="C676" t="inlineStr"/>
@@ -59694,7 +59694,7 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>et:21548</t>
+          <t>et:21541</t>
         </is>
       </c>
       <c r="J676" t="inlineStr"/>
@@ -59761,12 +59761,12 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>cl:10750</t>
+          <t>cl:10751</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>abundance</t>
+          <t>density</t>
         </is>
       </c>
       <c r="C677" t="inlineStr"/>
@@ -59785,7 +59785,7 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>et:21541</t>
+          <t>et:21539</t>
         </is>
       </c>
       <c r="J677" t="inlineStr"/>
@@ -59852,12 +59852,12 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>cl:10751</t>
+          <t>cl:10752</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>density</t>
+          <t>animal movement</t>
         </is>
       </c>
       <c r="C678" t="inlineStr"/>
@@ -59876,7 +59876,7 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>et:21539</t>
+          <t>et:20986</t>
         </is>
       </c>
       <c r="J678" t="inlineStr"/>
@@ -59943,12 +59943,12 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>cl:10752</t>
+          <t>cl:10753</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>animal movement</t>
+          <t>phenology</t>
         </is>
       </c>
       <c r="C679" t="inlineStr"/>
@@ -59967,7 +59967,7 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>et:20986</t>
+          <t>et:21647</t>
         </is>
       </c>
       <c r="J679" t="inlineStr"/>
@@ -60004,11 +60004,7 @@
           <t>2024-06-28</t>
         </is>
       </c>
-      <c r="AN679" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
+      <c r="AN679" t="inlineStr"/>
       <c r="AO679" t="inlineStr">
         <is>
           <t>2024-06-28</t>
@@ -60031,93 +60027,6 @@
       <c r="BD679" t="inlineStr"/>
       <c r="BE679" t="inlineStr"/>
     </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>cl:10753</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>phenology</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr">
-        <is>
-          <t>http://purl.org/dc/terms/DCMIType,skos:Concept</t>
-        </is>
-      </c>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>cl:10584</t>
-        </is>
-      </c>
-      <c r="I680" t="inlineStr">
-        <is>
-          <t>et:21647</t>
-        </is>
-      </c>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
-      <c r="M680" t="inlineStr"/>
-      <c r="N680" t="inlineStr"/>
-      <c r="O680" t="inlineStr"/>
-      <c r="P680" t="inlineStr"/>
-      <c r="Q680" t="inlineStr"/>
-      <c r="R680" t="inlineStr"/>
-      <c r="S680" t="inlineStr"/>
-      <c r="T680" t="inlineStr"/>
-      <c r="U680" t="inlineStr"/>
-      <c r="V680" t="inlineStr"/>
-      <c r="W680" t="inlineStr"/>
-      <c r="X680" t="inlineStr"/>
-      <c r="Y680" t="inlineStr"/>
-      <c r="Z680" t="inlineStr"/>
-      <c r="AA680" t="inlineStr"/>
-      <c r="AB680" t="inlineStr"/>
-      <c r="AC680" t="inlineStr"/>
-      <c r="AD680" t="inlineStr"/>
-      <c r="AE680" t="inlineStr"/>
-      <c r="AF680" t="inlineStr"/>
-      <c r="AG680" t="inlineStr"/>
-      <c r="AH680" t="inlineStr"/>
-      <c r="AI680" t="inlineStr"/>
-      <c r="AJ680" t="inlineStr"/>
-      <c r="AK680" t="inlineStr"/>
-      <c r="AL680" t="inlineStr"/>
-      <c r="AM680" t="inlineStr">
-        <is>
-          <t>2024-06-28</t>
-        </is>
-      </c>
-      <c r="AN680" t="inlineStr"/>
-      <c r="AO680" t="inlineStr">
-        <is>
-          <t>2024-06-28</t>
-        </is>
-      </c>
-      <c r="AP680" t="inlineStr"/>
-      <c r="AQ680" t="inlineStr"/>
-      <c r="AR680" t="inlineStr"/>
-      <c r="AS680" t="inlineStr"/>
-      <c r="AT680" t="inlineStr"/>
-      <c r="AU680" t="inlineStr"/>
-      <c r="AV680" t="inlineStr"/>
-      <c r="AW680" t="inlineStr"/>
-      <c r="AX680" t="inlineStr"/>
-      <c r="AY680" t="inlineStr"/>
-      <c r="AZ680" t="inlineStr"/>
-      <c r="BA680" t="inlineStr"/>
-      <c r="BB680" t="inlineStr"/>
-      <c r="BC680" t="inlineStr"/>
-      <c r="BD680" t="inlineStr"/>
-      <c r="BE680" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -54771,7 +54771,7 @@
       <c r="C621" t="inlineStr"/>
       <c r="D621" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782, skos:Concept</t>
+          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782,skos:Concept</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -54828,7 +54828,7 @@
       </c>
       <c r="AO621" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="AP621" t="inlineStr"/>
@@ -54862,7 +54862,7 @@
       <c r="C622" t="inlineStr"/>
       <c r="D622" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782, skos:Concept</t>
+          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782,skos:Concept</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -54919,7 +54919,7 @@
       </c>
       <c r="AO622" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="AP622" t="inlineStr"/>
@@ -54953,7 +54953,7 @@
       <c r="C623" t="inlineStr"/>
       <c r="D623" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782, skos:Concept</t>
+          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782,skos:Concept</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -55044,7 +55044,7 @@
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782, skos:Concept</t>
+          <t>http://purl.obolibrary.org/obo/NCBITaxon_8782,skos:Concept</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -55222,7 +55222,7 @@
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:Concept</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
@@ -55279,7 +55279,7 @@
       </c>
       <c r="AO626" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="AP626" t="inlineStr"/>
@@ -55313,7 +55313,7 @@
       <c r="C627" t="inlineStr"/>
       <c r="D627" t="inlineStr">
         <is>
-          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:Concept</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
@@ -55370,7 +55370,7 @@
       </c>
       <c r="AO627" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="AP627" t="inlineStr"/>
@@ -55404,7 +55404,7 @@
       <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr">
         <is>
-          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:Concept</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
@@ -55495,7 +55495,7 @@
       <c r="C629" t="inlineStr"/>
       <c r="D629" t="inlineStr">
         <is>
-          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:Concept</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -55586,7 +55586,7 @@
       <c r="C630" t="inlineStr"/>
       <c r="D630" t="inlineStr">
         <is>
-          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:Concept</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
@@ -55677,7 +55677,7 @@
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
-          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:Concept</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
@@ -55768,7 +55768,7 @@
       <c r="C632" t="inlineStr"/>
       <c r="D632" t="inlineStr">
         <is>
-          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:Concept</t>
         </is>
       </c>
       <c r="E632" t="inlineStr"/>
@@ -55859,7 +55859,7 @@
       <c r="C633" t="inlineStr"/>
       <c r="D633" t="inlineStr">
         <is>
-          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:concept</t>
+          <t>http://purl.org/biotop/biotop.owl#Invertebrate,skos:Concept</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -18231,7 +18231,7 @@
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>cl:10192,cl:10563,cl:10569,cl:10575;cl:10596;cl:10605,cl:10584,cl:10678</t>
+          <t>cl:10192</t>
         </is>
       </c>
       <c r="I205" t="inlineStr"/>
@@ -18280,7 +18280,7 @@
       </c>
       <c r="AO205" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="AP205" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -59948,7 +59948,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>phenology</t>
+          <t>phenology test</t>
         </is>
       </c>
       <c r="C679" t="inlineStr"/>
@@ -60007,7 +60007,7 @@
       <c r="AN679" t="inlineStr"/>
       <c r="AO679" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="AP679" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -46397,7 +46397,11 @@
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr"/>
-      <c r="F527" t="inlineStr"/>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>European Union directive on the conservation of natural habitats and of wild fauna and flora.</t>
+        </is>
+      </c>
       <c r="G527" t="inlineStr"/>
       <c r="H527" t="inlineStr">
         <is>
@@ -46450,7 +46454,7 @@
       </c>
       <c r="AO527" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AP527" t="inlineStr"/>
@@ -59948,7 +59952,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>phenology test</t>
+          <t>phenology</t>
         </is>
       </c>
       <c r="C679" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -53514,11 +53514,7 @@
           <t>Remote Access</t>
         </is>
       </c>
-      <c r="C607" t="inlineStr">
-        <is>
-          <t>RA</t>
-        </is>
-      </c>
+      <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
@@ -53574,7 +53570,7 @@
       </c>
       <c r="AO607" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="AP607" t="inlineStr"/>

--- a/elter_cl.xlsx
+++ b/elter_cl.xlsx
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-11-12T12:00+02:00</t>
+          <t>2021-11-12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
